--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="model4(1)" sheetId="9" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model4(1)'!$P$1:$P$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'model4(1)&amp;CCI_per_day'!$P$1:$P$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model4(1)&amp;CCI_per_month'!$V$1:$V$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'model4(3)&amp;CCI_per_day'!$P$1:$P$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'model4(3)turnover&amp;CCI_per_day'!$R$1:$R$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model4(1)'!$P$1:$P$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'model4(1)&amp;CCI_per_day'!$P$1:$P$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model4(1)&amp;CCI_per_month'!$V$1:$V$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'model4(3)&amp;CCI_per_day'!$P$1:$P$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'model4(3)turnover&amp;CCI_per_day'!$R$1:$R$187</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model4(1)'!K1,0,0,COUNTA('model4(1)'!K:K)-1)</definedName>
     <definedName name="金额" localSheetId="2">OFFSET('model4(1)&amp;CCI_per_day'!K1,0,0,COUNTA('model4(1)&amp;CCI_per_day'!K:K)-1)</definedName>
     <definedName name="金额" localSheetId="1">OFFSET('model4(1)&amp;CCI_per_month'!K1,0,0,COUNTA('model4(1)&amp;CCI_per_month'!K:K)-1)</definedName>
@@ -65,14 +65,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>TYP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MA(TYP,N)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TYP-MA</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -100,12 +92,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>turnover</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>turnover mean</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>sales amount</t>
   </si>
   <si>
     <t>sales shares</t>
@@ -136,10 +123,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>sign</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>investment per year</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -168,11 +151,28 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>TYP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA(TYP,N)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>*0.015</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sales amount</t>
+    <t>sign</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>turnover</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>turnover mean</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -338,7 +338,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -381,6 +381,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="13" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -565,7 +566,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -610,6 +611,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -619,7 +623,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -664,6 +668,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2363967.4431216232</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2702774.6770976437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,7 +713,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -751,6 +758,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -760,7 +770,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -805,6 +815,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2269278.6426948672</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2403405.8214305816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,7 +860,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -892,6 +905,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -901,7 +917,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -946,6 +962,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-94688.800426756032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-299368.8556670621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,11 +986,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83500416"/>
-        <c:axId val="110430464"/>
+        <c:axId val="526964992"/>
+        <c:axId val="604939008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="83500416"/>
+        <c:axId val="526964992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,14 +1033,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110430464"/>
+        <c:crossAx val="604939008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="110430464"/>
+        <c:axId val="604939008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1091,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83500416"/>
+        <c:crossAx val="526964992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1231,7 +1250,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1276,6 +1295,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>300031.00550934568</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1442324.1532089238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,8 +1312,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="413297280"/>
-        <c:axId val="413295744"/>
+        <c:axId val="647176960"/>
+        <c:axId val="647175168"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1316,7 +1338,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1361,6 +1383,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1370,7 +1395,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1415,6 +1440,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.76499998569488525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69599997997283936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,11 +1459,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="413292416"/>
-        <c:axId val="413293952"/>
+        <c:axId val="647172096"/>
+        <c:axId val="647173632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="413292416"/>
+        <c:axId val="647172096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1478,14 +1506,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413293952"/>
+        <c:crossAx val="647173632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="413293952"/>
+        <c:axId val="647173632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1536,12 +1564,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413292416"/>
+        <c:crossAx val="647172096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="413295744"/>
+        <c:axId val="647175168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1578,12 +1606,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413297280"/>
+        <c:crossAx val="647176960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="413297280"/>
+        <c:axId val="647176960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1620,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413295744"/>
+        <c:crossAx val="647175168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1689,14 +1717,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.25920683375476566"/>
-          <c:y val="2.7491408934707903E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1731,7 +1751,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1776,6 +1796,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>252649.34925635549</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>338807.23397602042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1790,8 +1813,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="413309184"/>
-        <c:axId val="413307648"/>
+        <c:axId val="635181312"/>
+        <c:axId val="635179392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1816,7 +1839,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1861,6 +1884,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,7 +1896,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1915,6 +1941,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.76499998569488525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69599997997283936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1931,11 +1960,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="413303936"/>
-        <c:axId val="413305856"/>
+        <c:axId val="635097856"/>
+        <c:axId val="635099776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="413303936"/>
+        <c:axId val="635097856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1978,14 +2007,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413305856"/>
+        <c:crossAx val="635099776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="413305856"/>
+        <c:axId val="635099776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2036,12 +2065,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413303936"/>
+        <c:crossAx val="635097856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="413307648"/>
+        <c:axId val="635179392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,12 +2107,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413309184"/>
+        <c:crossAx val="635181312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="413309184"/>
+        <c:axId val="635181312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,7 +2121,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413307648"/>
+        <c:crossAx val="635179392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2178,25 +2207,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>model4(1)</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.3945146540542665"/>
-          <c:y val="2.4096385542168676E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2253,7 +2270,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2298,6 +2315,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2307,7 +2327,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2352,6 +2372,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2363967.4431216232</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2770536.1238928479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2394,7 +2417,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2439,6 +2462,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2448,7 +2474,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2493,6 +2519,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2269278.6426948672</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2471167.2682257858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2535,7 +2564,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2580,6 +2609,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2589,7 +2621,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2634,6 +2666,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-94688.800426756032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-299368.8556670621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2655,11 +2690,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="595592704"/>
-        <c:axId val="595594240"/>
+        <c:axId val="637225984"/>
+        <c:axId val="642319488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="595592704"/>
+        <c:axId val="637225984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,14 +2737,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595594240"/>
+        <c:crossAx val="642319488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="595594240"/>
+        <c:axId val="642319488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,7 +2795,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595592704"/>
+        <c:crossAx val="637225984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2919,7 +2954,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2964,6 +2999,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>252649.34925635549</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>406568.68077122449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2978,8 +3016,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="55701504"/>
-        <c:axId val="671500160"/>
+        <c:axId val="703698432"/>
+        <c:axId val="703696896"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3004,7 +3042,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3049,6 +3087,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3058,7 +3099,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3103,6 +3144,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.76499998569488525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69599997997283936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3119,11 +3163,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="668781184"/>
-        <c:axId val="671498624"/>
+        <c:axId val="702263680"/>
+        <c:axId val="702265600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="668781184"/>
+        <c:axId val="702263680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3166,14 +3210,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671498624"/>
+        <c:crossAx val="702265600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="671498624"/>
+        <c:axId val="702265600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3224,12 +3268,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="668781184"/>
+        <c:crossAx val="702263680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="671500160"/>
+        <c:axId val="703696896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3266,12 +3310,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55701504"/>
+        <c:crossAx val="703698432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="55701504"/>
+        <c:axId val="703698432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3280,7 +3324,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="671500160"/>
+        <c:crossAx val="703696896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3366,17 +3410,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>model4(1)</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3433,7 +3474,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3478,6 +3519,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3487,7 +3531,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3532,6 +3576,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2496190.1070616054</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2902758.7878328301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3574,7 +3621,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3619,6 +3666,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3628,7 +3678,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3673,6 +3723,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2393698.5950288731</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2584365.0276401606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3715,7 +3768,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3760,6 +3813,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3769,7 +3825,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3814,6 +3870,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-102491.51203273237</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-318393.76019266946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3835,11 +3894,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="55737344"/>
-        <c:axId val="55739136"/>
+        <c:axId val="641979520"/>
+        <c:axId val="641981056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="55737344"/>
+        <c:axId val="641979520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3882,14 +3941,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55739136"/>
+        <c:crossAx val="641981056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="55739136"/>
+        <c:axId val="641981056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3940,7 +3999,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55737344"/>
+        <c:crossAx val="641979520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3954,6 +4013,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4099,7 +4159,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4144,6 +4204,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>303179.21910762659</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>406568.68077122449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4158,8 +4221,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="56049664"/>
-        <c:axId val="55888128"/>
+        <c:axId val="642336640"/>
+        <c:axId val="642335104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4184,7 +4247,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4229,6 +4292,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4238,7 +4304,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4283,6 +4349,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.76499998569488525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69599997997283936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4299,11 +4368,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="55856128"/>
-        <c:axId val="55886592"/>
+        <c:axId val="642331776"/>
+        <c:axId val="642333312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="55856128"/>
+        <c:axId val="642331776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4346,14 +4415,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55886592"/>
+        <c:crossAx val="642333312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="55886592"/>
+        <c:axId val="642333312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4404,12 +4473,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55856128"/>
+        <c:crossAx val="642331776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55888128"/>
+        <c:axId val="642335104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4446,12 +4515,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56049664"/>
+        <c:crossAx val="642336640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="56049664"/>
+        <c:axId val="642336640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4460,7 +4529,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55888128"/>
+        <c:crossAx val="642335104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4546,17 +4615,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>model4(3)</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>model4(1)</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4613,7 +4679,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4658,6 +4724,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4667,7 +4736,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4712,6 +4781,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>20301237.504284184</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24066642.634684995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4754,7 +4826,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4799,6 +4871,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4808,7 +4883,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4853,6 +4928,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>19920462.426406339</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21889119.782806464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4895,7 +4973,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4940,6 +5018,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4949,7 +5030,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4994,6 +5075,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-380775.07787784562</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2177522.8518785313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5015,11 +5099,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178879488"/>
-        <c:axId val="178881280"/>
+        <c:axId val="642368256"/>
+        <c:axId val="642369792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="178879488"/>
+        <c:axId val="642368256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5062,14 +5146,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178881280"/>
+        <c:crossAx val="642369792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="178881280"/>
+        <c:axId val="642369792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5120,7 +5204,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178879488"/>
+        <c:crossAx val="642368256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5134,6 +5218,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5279,7 +5364,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5324,6 +5409,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>26039820.652168576</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31449885.650371231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5338,8 +5426,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="178895872"/>
-        <c:axId val="178894336"/>
+        <c:axId val="642770048"/>
+        <c:axId val="642383232"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5364,7 +5452,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5409,6 +5497,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5418,7 +5509,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5463,6 +5554,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.76499998569488525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69599997997283936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5479,11 +5573,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178891008"/>
-        <c:axId val="178892800"/>
+        <c:axId val="642380160"/>
+        <c:axId val="642381696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="178891008"/>
+        <c:axId val="642380160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5526,14 +5620,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178892800"/>
+        <c:crossAx val="642381696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="178892800"/>
+        <c:axId val="642381696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5584,12 +5678,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178891008"/>
+        <c:crossAx val="642380160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178894336"/>
+        <c:axId val="642383232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5626,12 +5720,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178895872"/>
+        <c:crossAx val="642770048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="178895872"/>
+        <c:axId val="642770048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5640,7 +5734,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178894336"/>
+        <c:crossAx val="642383232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5726,14 +5820,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>model4(3)</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>model4(1)</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5794,7 +5884,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5839,6 +5929,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5848,7 +5941,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5893,6 +5986,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4859259.4017550964</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6301583.5549640199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5935,7 +6031,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5980,6 +6076,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5989,7 +6088,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6034,6 +6133,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4797754.8469314398</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5807340.2836938016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6076,7 +6178,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6121,6 +6223,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6130,7 +6235,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6175,6 +6280,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-61504.554823656566</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-494243.27127021831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6196,11 +6304,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="413276416"/>
-        <c:axId val="413278208"/>
+        <c:axId val="643084672"/>
+        <c:axId val="643086208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="413276416"/>
+        <c:axId val="643084672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6243,14 +6351,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413278208"/>
+        <c:crossAx val="643086208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="413278208"/>
+        <c:axId val="643086208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6301,7 +6409,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413276416"/>
+        <c:crossAx val="643084672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6387,15 +6495,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6419,15 +6527,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>771524</xdr:colOff>
+      <xdr:colOff>66674</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6456,15 +6564,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6488,15 +6596,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6524,16 +6632,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6557,15 +6665,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:colOff>85724</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6594,15 +6702,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6626,15 +6734,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
+      <xdr:colOff>123824</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6663,15 +6771,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6695,15 +6803,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23146,6 +23254,7 @@
           </cell>
         </row>
         <row r="2">
+          <cell r="B2"/>
           <cell r="C2" t="str">
             <v>PE</v>
           </cell>
@@ -23983,7 +24092,7 @@
             <v>44403</v>
           </cell>
           <cell r="C78">
-            <v>39.900001525878913</v>
+            <v>39.900001525878906</v>
           </cell>
           <cell r="D78">
             <v>41.020526335866805</v>
@@ -23994,7 +24103,7 @@
             <v>44404</v>
           </cell>
           <cell r="C79">
-            <v>38.209999084472663</v>
+            <v>38.209999084472656</v>
           </cell>
           <cell r="D79">
             <v>40.984025981952598</v>
@@ -24005,7 +24114,7 @@
             <v>44405</v>
           </cell>
           <cell r="C80">
-            <v>38.619998931884773</v>
+            <v>38.619998931884766</v>
           </cell>
           <cell r="D80">
             <v>40.953717942849167</v>
@@ -24016,7 +24125,7 @@
             <v>44406</v>
           </cell>
           <cell r="C81">
-            <v>40.119998931884773</v>
+            <v>40.119998931884766</v>
           </cell>
           <cell r="D81">
             <v>40.943164537647085</v>
@@ -24071,7 +24180,7 @@
             <v>44413</v>
           </cell>
           <cell r="C86">
-            <v>41.130001068115227</v>
+            <v>41.130001068115234</v>
           </cell>
           <cell r="D86">
             <v>40.931428547813759</v>
@@ -24104,7 +24213,7 @@
             <v>44418</v>
           </cell>
           <cell r="C89">
-            <v>40.869998931884773</v>
+            <v>40.869998931884766</v>
           </cell>
           <cell r="D89">
             <v>40.927701096808754</v>
@@ -24148,7 +24257,7 @@
             <v>44424</v>
           </cell>
           <cell r="C93">
-            <v>39.290000915527337</v>
+            <v>39.290000915527344</v>
           </cell>
           <cell r="D93">
             <v>40.886703283288959</v>
@@ -24203,7 +24312,7 @@
             <v>44431</v>
           </cell>
           <cell r="C98">
-            <v>39.130001068115227</v>
+            <v>39.130001068115234</v>
           </cell>
           <cell r="D98">
             <v>40.770416618982935</v>
@@ -24247,7 +24356,7 @@
             <v>44435</v>
           </cell>
           <cell r="C102">
-            <v>38.630001068115227</v>
+            <v>38.630001068115234</v>
           </cell>
           <cell r="D102">
             <v>40.702299958801255</v>
@@ -24302,7 +24411,7 @@
             <v>44442</v>
           </cell>
           <cell r="C107">
-            <v>34.220001220703118</v>
+            <v>34.220001220703125</v>
           </cell>
           <cell r="D107">
             <v>40.482476154145722</v>
@@ -24313,7 +24422,7 @@
             <v>44445</v>
           </cell>
           <cell r="C108">
-            <v>35.540000915527337</v>
+            <v>35.540000915527344</v>
           </cell>
           <cell r="D108">
             <v>40.435849029253099</v>
@@ -24324,7 +24433,7 @@
             <v>44446</v>
           </cell>
           <cell r="C109">
-            <v>35.720001220703118</v>
+            <v>35.720001220703125</v>
           </cell>
           <cell r="D109">
             <v>40.391775685247957</v>
@@ -24379,7 +24488,7 @@
             <v>44453</v>
           </cell>
           <cell r="C114">
-            <v>35.470001220703118</v>
+            <v>35.470001220703125</v>
           </cell>
           <cell r="D114">
             <v>40.173214266640784</v>
@@ -24390,7 +24499,7 @@
             <v>44454</v>
           </cell>
           <cell r="C115">
-            <v>35.130001068115227</v>
+            <v>35.130001068115234</v>
           </cell>
           <cell r="D115">
             <v>40.128584061344093</v>
@@ -24423,7 +24532,7 @@
             <v>44461</v>
           </cell>
           <cell r="C118">
-            <v>34.560001373291023</v>
+            <v>34.560001373291016</v>
           </cell>
           <cell r="D118">
             <v>39.985344822324535</v>
@@ -27122,10 +27231,10 @@
 </v>
           </cell>
           <cell r="C347">
-            <v>24.680000305175781</v>
+            <v>23.5</v>
           </cell>
           <cell r="D347">
-            <v>33.152985469638168</v>
+            <v>33.149565178898534</v>
           </cell>
         </row>
         <row r="348">
@@ -27134,10 +27243,10 @@
 </v>
           </cell>
           <cell r="C348">
-            <v>24.6341</v>
+            <v>23.5</v>
           </cell>
           <cell r="D348">
-            <v>33.128364413367542</v>
+            <v>33.121676262196516</v>
           </cell>
         </row>
         <row r="349">
@@ -27146,10 +27255,10 @@
 </v>
           </cell>
           <cell r="C349">
-            <v>24.469999313354489</v>
+            <v>23.5</v>
           </cell>
           <cell r="D349">
-            <v>33.103412352560589</v>
+            <v>33.093948088530247</v>
           </cell>
         </row>
         <row r="350">
@@ -27158,10 +27267,10 @@
 </v>
           </cell>
           <cell r="C350">
-            <v>24.54000091552734</v>
+            <v>23.33</v>
           </cell>
           <cell r="D350">
-            <v>33.078804848431183</v>
+            <v>33.065890766436766</v>
           </cell>
         </row>
         <row r="351">
@@ -27170,10 +27279,10 @@
 </v>
           </cell>
           <cell r="C351">
-            <v>24.780000686645511</v>
+            <v>23.05</v>
           </cell>
           <cell r="D351">
-            <v>33.055026039944693</v>
+            <v>33.037191939025774</v>
           </cell>
         </row>
         <row r="352">
@@ -27182,10 +27291,10 @@
 </v>
           </cell>
           <cell r="C352">
-            <v>24.440000534057621</v>
+            <v>22.91</v>
           </cell>
           <cell r="D352">
-            <v>33.030411681356441</v>
+            <v>33.008257104914271</v>
           </cell>
         </row>
         <row r="353">
@@ -27194,10 +27303,10 @@
 </v>
           </cell>
           <cell r="C353">
-            <v>24.770099999999999</v>
+            <v>23</v>
           </cell>
           <cell r="D353">
-            <v>33.006878029842611</v>
+            <v>32.979743551908818</v>
           </cell>
         </row>
         <row r="354">
@@ -27206,10 +27315,10 @@
 </v>
           </cell>
           <cell r="C354">
-            <v>24.93</v>
+            <v>23.46</v>
           </cell>
           <cell r="D354">
-            <v>32.983932353621462</v>
+            <v>32.952698825909074</v>
           </cell>
         </row>
         <row r="355">
@@ -27218,10 +27327,10 @@
 </v>
           </cell>
           <cell r="C355">
-            <v>24.52</v>
+            <v>22.93</v>
           </cell>
           <cell r="D355">
-            <v>32.959955208143782</v>
+            <v>32.924305911388082</v>
           </cell>
         </row>
         <row r="356">
@@ -27230,10 +27339,10 @@
 </v>
           </cell>
           <cell r="C356">
-            <v>23.94</v>
+            <v>23.03</v>
           </cell>
           <cell r="D356">
-            <v>32.934475108685753</v>
+            <v>32.89635589468925</v>
           </cell>
         </row>
         <row r="357">
@@ -27242,10 +27351,10 @@
 </v>
           </cell>
           <cell r="C357">
-            <v>23.5</v>
+            <v>22.61000061</v>
           </cell>
           <cell r="D357">
-            <v>32.907899122464102</v>
+            <v>32.867380245999989</v>
           </cell>
         </row>
         <row r="358">
@@ -27254,10 +27363,10 @@
 </v>
           </cell>
           <cell r="C358">
-            <v>23.5</v>
+            <v>22.040000920000001</v>
           </cell>
           <cell r="D358">
-            <v>32.881472439535827</v>
+            <v>32.836966259129198</v>
           </cell>
         </row>
         <row r="359">
@@ -27266,10 +27375,10 @@
 </v>
           </cell>
           <cell r="C359">
-            <v>23.5</v>
+            <v>22.239999770000001</v>
           </cell>
           <cell r="D359">
-            <v>32.855193805251417</v>
+            <v>32.807282879607826</v>
           </cell>
         </row>
         <row r="360">
@@ -27278,10 +27387,10 @@
 </v>
           </cell>
           <cell r="C360">
-            <v>23.33</v>
+            <v>22.920000080000001</v>
           </cell>
           <cell r="D360">
-            <v>32.82858711864457</v>
+            <v>32.779664771229037</v>
           </cell>
         </row>
         <row r="361">
@@ -27290,10 +27399,10 @@
 </v>
           </cell>
           <cell r="C361">
-            <v>23.05</v>
+            <v>22.850000380000001</v>
           </cell>
           <cell r="D361">
-            <v>32.80134871441436</v>
+            <v>32.752005538941489</v>
           </cell>
         </row>
         <row r="362">
@@ -27302,10 +27411,10 @@
 </v>
           </cell>
           <cell r="C362">
-            <v>22.91</v>
+            <v>23.649999619999999</v>
           </cell>
           <cell r="D362">
-            <v>32.773872745763207</v>
+            <v>32.726722189166651</v>
           </cell>
         </row>
         <row r="363">
@@ -27314,10 +27423,10 @@
 </v>
           </cell>
           <cell r="C363">
-            <v>23</v>
+            <v>23.719999309999999</v>
           </cell>
           <cell r="D363">
-            <v>32.746798306024253</v>
+            <v>32.701772818310232</v>
           </cell>
         </row>
         <row r="364">
@@ -27326,10 +27435,10 @@
 </v>
           </cell>
           <cell r="C364">
-            <v>23.46</v>
+            <v>23.850000380000001</v>
           </cell>
           <cell r="D364">
-            <v>32.721144167057332</v>
+            <v>32.677320408259654</v>
           </cell>
         </row>
         <row r="365">
@@ -27338,10 +27447,10 @@
 </v>
           </cell>
           <cell r="C365">
-            <v>22.93</v>
+            <v>23.590000150000002</v>
           </cell>
           <cell r="D365">
-            <v>32.694171318112282</v>
+            <v>32.652286468154252</v>
           </cell>
         </row>
         <row r="366">
@@ -27350,21 +27459,21 @@
 </v>
           </cell>
           <cell r="C366">
-            <v>23.03</v>
+            <v>23.399999619999999</v>
           </cell>
           <cell r="D366">
-            <v>32.667621396908672</v>
+            <v>32.626868097692288</v>
           </cell>
         </row>
         <row r="367">
-          <cell r="B367" t="str">
-            <v>2022/9/30</v>
+          <cell r="B367">
+            <v>44834</v>
           </cell>
           <cell r="C367">
-            <v>22.610000610351559</v>
+            <v>23.340000150000002</v>
           </cell>
           <cell r="D367">
-            <v>32.640066271466047</v>
+            <v>32.601424623862997</v>
           </cell>
         </row>
       </sheetData>
@@ -27661,7 +27770,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AG180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27677,7 +27786,8 @@
     <col min="5" max="5" width="9.375" style="21" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="21" customWidth="1"/>
     <col min="7" max="7" width="10.75" style="21" customWidth="1"/>
-    <col min="8" max="9" width="11.5" style="21" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="21" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="21" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="11" customWidth="1"/>
     <col min="11" max="11" width="10.75" style="11" customWidth="1"/>
     <col min="12" max="12" width="10.75" style="21" customWidth="1"/>
@@ -27700,41 +27810,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="29" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>18</v>
       </c>
       <c r="N1" s="6"/>
     </row>
@@ -27778,57 +27888,57 @@
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F17" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F18" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="15">
-        <f t="shared" ref="G3:G17" si="1">G2+F3</f>
+        <f t="shared" ref="G3:G18" si="1">G2+F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H17" si="2">G3*B3</f>
+        <f t="shared" ref="H3:H18" si="2">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
-        <f t="shared" ref="I3:I17" si="3">IF(E3&gt;0,I2+E3,I2)</f>
+        <f t="shared" ref="I3:I18" si="3">IF(E3&gt;0,I2+E3,I2)</f>
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J17" si="4">H3+L3</f>
+        <f t="shared" ref="J3:J18" si="4">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K17" si="5">J3-I3</f>
+        <f t="shared" ref="K3:K18" si="5">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="14">
-        <f t="shared" ref="L3:L17" si="6">IF(E3&lt;0,L2-E3,L2)</f>
+        <f t="shared" ref="L3:L18" si="6">IF(E3&lt;0,L2-E3,L2)</f>
         <v>0</v>
       </c>
       <c r="M3" s="9"/>
-      <c r="P3" s="29" t="s">
-        <v>6</v>
+      <c r="P3" s="30" t="s">
+        <v>4</v>
       </c>
       <c r="Q3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="R3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
@@ -27848,7 +27958,7 @@
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="14">
-        <f t="shared" ref="E4:E17" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <f t="shared" ref="E4:E18" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="F4" s="15">
@@ -27880,7 +27990,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="9"/>
-      <c r="P4" s="24">
+      <c r="P4" s="25">
         <v>44561</v>
       </c>
       <c r="Q4" s="18">
@@ -28552,7 +28662,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1">
+    <row r="17" spans="1:16" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -28601,6 +28711,460 @@
         <v>0</v>
       </c>
       <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" ht="14.1" customHeight="1">
+      <c r="A18" s="12">
+        <v>44834</v>
+      </c>
+      <c r="B18" s="13">
+        <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.69599997997283936</v>
+      </c>
+      <c r="C18" s="13">
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
+        <v>23.340000150000002</v>
+      </c>
+      <c r="D18" s="14">
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
+        <v>32.601424623862997</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" si="7"/>
+        <v>338807.23397602042</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="0"/>
+        <v>486792.0168463827</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="1"/>
+        <v>3453169.3830283899</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="2"/>
+        <v>2403405.8214305816</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="3"/>
+        <v>2702774.6770976437</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="4"/>
+        <v>2403405.8214305816</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="5"/>
+        <v>-299368.8556670621</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M22" s="9"/>
+      <c r="P22" s="21"/>
+    </row>
+    <row r="23" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M33" s="9"/>
+      <c r="P33" s="21"/>
+    </row>
+    <row r="34" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="48" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="49" ht="14.1" customHeight="1"/>
+    <row r="50" ht="14.1" customHeight="1"/>
+    <row r="51" ht="14.1" customHeight="1"/>
+    <row r="52" ht="14.1" customHeight="1"/>
+    <row r="53" ht="14.1" customHeight="1"/>
+    <row r="54" ht="14.1" customHeight="1"/>
+    <row r="55" ht="14.1" customHeight="1"/>
+    <row r="56" ht="14.1" customHeight="1"/>
+    <row r="57" ht="14.1" customHeight="1"/>
+    <row r="58" ht="14.1" customHeight="1"/>
+    <row r="59" ht="14.1" customHeight="1"/>
+    <row r="60" ht="14.1" customHeight="1"/>
+    <row r="61" ht="14.1" customHeight="1"/>
+    <row r="62" ht="14.1" customHeight="1"/>
+    <row r="63" ht="14.1" customHeight="1"/>
+    <row r="64" ht="14.1" customHeight="1"/>
+    <row r="65" ht="14.1" customHeight="1"/>
+    <row r="66" ht="14.1" customHeight="1"/>
+    <row r="67" ht="14.1" customHeight="1"/>
+    <row r="68" ht="14.1" customHeight="1"/>
+    <row r="69" ht="14.1" customHeight="1"/>
+    <row r="70" ht="14.1" customHeight="1"/>
+    <row r="71" ht="14.1" customHeight="1"/>
+    <row r="72" ht="14.1" customHeight="1"/>
+    <row r="73" ht="14.1" customHeight="1"/>
+    <row r="74" ht="14.1" customHeight="1"/>
+    <row r="75" ht="14.1" customHeight="1"/>
+    <row r="76" ht="14.1" customHeight="1"/>
+    <row r="77" ht="14.1" customHeight="1"/>
+    <row r="78" ht="14.1" customHeight="1"/>
+    <row r="79" ht="14.1" customHeight="1"/>
+    <row r="80" ht="14.1" customHeight="1"/>
+    <row r="81" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="82" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="83" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="84" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="85" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="86" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="87" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="88" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="89" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="90" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="91" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="92" spans="13:16" ht="14.1" customHeight="1">
+      <c r="P92" s="21"/>
+    </row>
+    <row r="93" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M93" s="9"/>
+    </row>
+    <row r="94" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M94" s="9"/>
+    </row>
+    <row r="95" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M95" s="9"/>
+    </row>
+    <row r="96" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M96" s="9"/>
+    </row>
+    <row r="97" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M97" s="9"/>
+    </row>
+    <row r="98" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M98" s="9"/>
+    </row>
+    <row r="99" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M99" s="9"/>
+    </row>
+    <row r="100" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M100" s="9"/>
+    </row>
+    <row r="101" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M101" s="9"/>
+    </row>
+    <row r="102" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M102" s="9"/>
+    </row>
+    <row r="103" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M103" s="9"/>
+    </row>
+    <row r="104" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M104" s="9"/>
+      <c r="P104" s="21"/>
+    </row>
+    <row r="105" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M105" s="9"/>
+    </row>
+    <row r="106" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M106" s="9"/>
+    </row>
+    <row r="107" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M107" s="9"/>
+    </row>
+    <row r="108" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M108" s="9"/>
+    </row>
+    <row r="109" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M109" s="9"/>
+    </row>
+    <row r="110" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M110" s="9"/>
+    </row>
+    <row r="111" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M111" s="9"/>
+    </row>
+    <row r="112" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M112" s="9"/>
+    </row>
+    <row r="113" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M113" s="9"/>
+    </row>
+    <row r="114" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M114" s="9"/>
+    </row>
+    <row r="115" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M115" s="9"/>
+    </row>
+    <row r="116" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M116" s="9"/>
+      <c r="P116" s="21"/>
+    </row>
+    <row r="117" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M117" s="9"/>
+    </row>
+    <row r="118" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M118" s="9"/>
+    </row>
+    <row r="119" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M119" s="9"/>
+    </row>
+    <row r="120" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M120" s="9"/>
+    </row>
+    <row r="121" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M121" s="9"/>
+    </row>
+    <row r="122" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M122" s="9"/>
+    </row>
+    <row r="123" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M123" s="9"/>
+    </row>
+    <row r="124" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M124" s="9"/>
+    </row>
+    <row r="125" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M125" s="9"/>
+    </row>
+    <row r="126" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M126" s="9"/>
+    </row>
+    <row r="127" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M127" s="9"/>
+    </row>
+    <row r="128" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M128" s="9"/>
+      <c r="P128" s="21"/>
+    </row>
+    <row r="129" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M129" s="9"/>
+    </row>
+    <row r="130" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M130" s="9"/>
+    </row>
+    <row r="131" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M131" s="9"/>
+    </row>
+    <row r="132" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M132" s="9"/>
+    </row>
+    <row r="133" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M133" s="9"/>
+    </row>
+    <row r="134" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M134" s="9"/>
+    </row>
+    <row r="135" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M135" s="9"/>
+    </row>
+    <row r="136" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M136" s="9"/>
+    </row>
+    <row r="137" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M137" s="9"/>
+    </row>
+    <row r="138" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M138" s="9"/>
+    </row>
+    <row r="139" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M139" s="9"/>
+    </row>
+    <row r="140" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M140" s="9"/>
+      <c r="P140" s="21"/>
+    </row>
+    <row r="141" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M141" s="9"/>
+    </row>
+    <row r="142" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M142" s="9"/>
+    </row>
+    <row r="143" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M143" s="9"/>
+    </row>
+    <row r="144" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M144" s="9"/>
+    </row>
+    <row r="145" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M145" s="9"/>
+    </row>
+    <row r="146" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M146" s="9"/>
+    </row>
+    <row r="147" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M147" s="9"/>
+    </row>
+    <row r="148" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M148" s="9"/>
+    </row>
+    <row r="149" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M149" s="9"/>
+    </row>
+    <row r="150" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M150" s="9"/>
+    </row>
+    <row r="151" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M151" s="9"/>
+    </row>
+    <row r="152" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M152" s="9"/>
+      <c r="P152" s="21"/>
+    </row>
+    <row r="153" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M153" s="9"/>
+    </row>
+    <row r="154" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M154" s="9"/>
+    </row>
+    <row r="155" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M155" s="9"/>
+    </row>
+    <row r="156" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M156" s="9"/>
+    </row>
+    <row r="157" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M157" s="9"/>
+    </row>
+    <row r="158" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M158" s="9"/>
+    </row>
+    <row r="159" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M159" s="9"/>
+    </row>
+    <row r="160" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M160" s="9"/>
+    </row>
+    <row r="161" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M161" s="9"/>
+    </row>
+    <row r="162" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M162" s="9"/>
+    </row>
+    <row r="163" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M163" s="9"/>
+    </row>
+    <row r="164" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M164" s="9"/>
+      <c r="P164" s="21"/>
+    </row>
+    <row r="165" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M165" s="9"/>
+    </row>
+    <row r="166" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M166" s="9"/>
+    </row>
+    <row r="167" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M167" s="9"/>
+    </row>
+    <row r="168" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M168" s="22"/>
+    </row>
+    <row r="169" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M169" s="22"/>
+    </row>
+    <row r="170" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M170" s="22"/>
+    </row>
+    <row r="171" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M171" s="22"/>
+    </row>
+    <row r="172" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M172" s="22"/>
+    </row>
+    <row r="173" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M173" s="22"/>
+    </row>
+    <row r="174" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M174" s="22"/>
+    </row>
+    <row r="175" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M175" s="22"/>
+    </row>
+    <row r="176" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M176" s="22"/>
+    </row>
+    <row r="177" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M177" s="22"/>
+    </row>
+    <row r="178" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M178" s="22"/>
+    </row>
+    <row r="179" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M179" s="22"/>
+    </row>
+    <row r="180" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M180" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -28618,7 +29182,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28634,7 +29198,8 @@
     <col min="5" max="5" width="9.375" style="21" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="21" customWidth="1"/>
     <col min="7" max="7" width="10.75" style="21" customWidth="1"/>
-    <col min="8" max="9" width="11.5" style="21" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="21" customWidth="1"/>
+    <col min="9" max="9" width="13" style="21" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="11" customWidth="1"/>
     <col min="11" max="11" width="10.75" style="11" customWidth="1"/>
     <col min="12" max="18" width="10.75" style="21" customWidth="1"/>
@@ -28657,68 +29222,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>18</v>
-      </c>
       <c r="M1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="T1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -28739,12 +29304,12 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
       <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:39" ht="14.1" customHeight="1">
@@ -28794,45 +29359,45 @@
         <f>IF(E3&lt;0,L2-E3,L2)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="24">
         <f ca="1">MAX(VLOOKUP(A3,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A3,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.034</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="24">
         <f ca="1">MIN(VLOOKUP(A3,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A3,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.012</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="24">
         <f ca="1">(B3+M3+N3)/3</f>
         <v>1.0256666666666667</v>
       </c>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
       <c r="S3" s="9"/>
-      <c r="V3" s="29" t="s">
-        <v>6</v>
+      <c r="V3" s="30" t="s">
+        <v>4</v>
       </c>
       <c r="W3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="X3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="14.1" customHeight="1">
@@ -28883,23 +29448,23 @@
         <f t="shared" ref="L4:L16" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="24">
         <f ca="1">MAX(VLOOKUP(A4,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A4,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.054</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="24">
         <f ca="1">MIN(VLOOKUP(A4,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A4,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.94</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="24">
         <f t="shared" ref="O4:O16" ca="1" si="8">(B4+M4+N4)/3</f>
         <v>1</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
       <c r="S4" s="9"/>
-      <c r="V4" s="24">
+      <c r="V4" s="25">
         <v>44561</v>
       </c>
       <c r="W4" s="18">
@@ -28988,21 +29553,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="24">
         <f ca="1">MAX(VLOOKUP(A5,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A5,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.0469999999999999</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="24">
         <f ca="1">MIN(VLOOKUP(A5,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A5,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.95699999999999996</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="24">
         <f t="shared" ca="1" si="8"/>
         <v>0.98999999999999988</v>
       </c>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
       <c r="S5" s="9"/>
       <c r="AE5" s="17"/>
       <c r="AF5" s="9"/>
@@ -29062,21 +29627,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="24">
         <f ca="1">MAX(VLOOKUP(A6,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A6,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.98799999999999999</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="24">
         <f ca="1">MIN(VLOOKUP(A6,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A6,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.93700000000000006</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="24">
         <f t="shared" ca="1" si="8"/>
         <v>0.96200000000000008</v>
       </c>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
       <c r="S6" s="9"/>
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
@@ -29134,21 +29699,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="24">
         <f ca="1">MAX(VLOOKUP(A7,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A7,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.0049999952316284</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="24">
         <f ca="1">MIN(VLOOKUP(A7,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A7,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.93900001049041748</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="24">
         <f t="shared" ca="1" si="8"/>
         <v>0.97899999221165979</v>
       </c>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
       <c r="S7" s="9"/>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
@@ -29203,21 +29768,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="24">
         <f ca="1">MAX(VLOOKUP(A8,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A8,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.0219999551773071</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="24">
         <f ca="1">MIN(VLOOKUP(A8,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A8,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.98100000619888306</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="24">
         <f t="shared" ca="1" si="8"/>
         <v>1.0046666661898296</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
       <c r="S8" s="9"/>
     </row>
     <row r="9" spans="1:39" ht="14.1" customHeight="1">
@@ -29268,21 +29833,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="24">
         <f ca="1">MAX(VLOOKUP(A9,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A9,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.034000039100647</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="24">
         <f ca="1">MIN(VLOOKUP(A9,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A9,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.97600001096725464</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="24">
         <f t="shared" ca="1" si="8"/>
         <v>1.0006666779518127</v>
       </c>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
       <c r="S9" s="9"/>
       <c r="AE9" s="17"/>
       <c r="AF9" s="9"/>
@@ -29336,21 +29901,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="24">
         <f ca="1">MAX(VLOOKUP(A10,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A10,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.99599999189376831</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="24">
         <f ca="1">MIN(VLOOKUP(A10,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A10,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.88499999046325684</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="24">
         <f t="shared" ca="1" si="8"/>
         <v>0.92399998505910241</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="9"/>
       <c r="AE10" s="17"/>
       <c r="AF10" s="9"/>
@@ -29404,21 +29969,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="24">
         <f ca="1">MAX(VLOOKUP(A11,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A11,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.91100001335144043</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="24">
         <f ca="1">MIN(VLOOKUP(A11,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A11,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.85000002384185791</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="24">
         <f t="shared" ca="1" si="8"/>
         <v>0.88100002209345496</v>
       </c>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="9"/>
       <c r="AE11" s="17"/>
       <c r="AF11" s="9"/>
@@ -29472,21 +30037,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="24">
         <f ca="1">MAX(VLOOKUP(A12,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A12,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.88599997758865356</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="24">
         <f ca="1">MIN(VLOOKUP(A12,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A12,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.75</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="24">
         <f t="shared" ca="1" si="8"/>
         <v>0.80933332443237305</v>
       </c>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
       <c r="S12" s="9"/>
       <c r="AE12" s="17"/>
     </row>
@@ -29538,21 +30103,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="24">
         <f ca="1">MAX(VLOOKUP(A13,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A13,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.80199998617172241</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="24">
         <f ca="1">MIN(VLOOKUP(A13,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A13,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.65399998426437378</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="24">
         <f t="shared" ca="1" si="8"/>
         <v>0.7249999841054281</v>
       </c>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
       <c r="S13" s="9"/>
       <c r="AG13" s="10"/>
     </row>
@@ -29604,21 +30169,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="24">
         <f ca="1">MAX(VLOOKUP(A14,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A14,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.74800002574920654</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="24">
         <f ca="1">MIN(VLOOKUP(A14,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A14,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.68199998140335083</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="24">
         <f t="shared" ca="1" si="8"/>
         <v>0.72566666205724084</v>
       </c>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
       <c r="S14" s="9"/>
     </row>
     <row r="15" spans="1:39" ht="14.1" customHeight="1">
@@ -29669,21 +30234,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="24">
         <f ca="1">MAX(VLOOKUP(A15,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A15,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.86000001430511475</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="24">
         <f ca="1">MIN(VLOOKUP(A15,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A15,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.74400001764297485</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="24">
         <f t="shared" ca="1" si="8"/>
         <v>0.8163333535194397</v>
       </c>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
       <c r="S15" s="9"/>
     </row>
     <row r="16" spans="1:39" ht="14.1" customHeight="1">
@@ -29734,27 +30299,27 @@
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="24">
         <f ca="1">MAX(VLOOKUP(A16,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A16,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.85799998044967651</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="24">
         <f ca="1">MIN(VLOOKUP(A16,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A16,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.79900002479553223</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="24">
         <f t="shared" ca="1" si="8"/>
         <v>0.81933333476384484</v>
       </c>
-      <c r="P16" s="23">
+      <c r="P16" s="24">
         <f ca="1">SUM(O3:O16)/14</f>
         <v>0.90447619064648954</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16" s="24">
         <f ca="1">O16-P16</f>
         <v>-8.5142855882644697E-2</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16" s="24">
         <f ca="1">AVEDEV(O3:O16)</f>
         <v>9.2884351843879331E-2</v>
       </c>
@@ -29771,7 +30336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.1" customHeight="1">
+    <row r="17" spans="1:22" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -29792,54 +30357,54 @@
         <v>252649.34925635549</v>
       </c>
       <c r="F17" s="15">
-        <f t="shared" ref="F17" ca="1" si="10">E17/B17</f>
+        <f t="shared" ref="F17:F18" ca="1" si="10">E17/B17</f>
         <v>330260.59343891655</v>
       </c>
       <c r="G17" s="15">
-        <f t="shared" ref="G17" ca="1" si="11">G16+F17</f>
+        <f t="shared" ref="G17:G18" ca="1" si="11">G16+F17</f>
         <v>2966377.3661820074</v>
       </c>
       <c r="H17" s="15">
-        <f t="shared" ref="H17" ca="1" si="12">G17*B17</f>
+        <f t="shared" ref="H17:H18" ca="1" si="12">G17*B17</f>
         <v>2269278.6426948672</v>
       </c>
       <c r="I17" s="15">
-        <f t="shared" ref="I17" ca="1" si="13">IF(E17&gt;0,I16+E17,I16)</f>
+        <f t="shared" ref="I17:I18" ca="1" si="13">IF(E17&gt;0,I16+E17,I16)</f>
         <v>2363967.4431216232</v>
       </c>
       <c r="J17" s="15">
-        <f t="shared" ref="J17" ca="1" si="14">H17+L17</f>
+        <f t="shared" ref="J17:J18" ca="1" si="14">H17+L17</f>
         <v>2269278.6426948672</v>
       </c>
       <c r="K17" s="15">
-        <f t="shared" ref="K17" ca="1" si="15">J17-I17</f>
+        <f t="shared" ref="K17:K18" ca="1" si="15">J17-I17</f>
         <v>-94688.800426756032</v>
       </c>
       <c r="L17" s="14">
-        <f t="shared" ref="L17" ca="1" si="16">IF(E17&lt;0,L16-E17,L16)</f>
+        <f t="shared" ref="L17:L18" ca="1" si="16">IF(E17&lt;0,L16-E17,L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="24">
         <f ca="1">MAX(VLOOKUP(A17,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A17,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.82700002193450928</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="24">
         <f ca="1">MIN(VLOOKUP(A17,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A17,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.7630000114440918</v>
       </c>
-      <c r="O17" s="23">
-        <f t="shared" ref="O17" ca="1" si="17">(B17+M17+N17)/3</f>
+      <c r="O17" s="24">
+        <f t="shared" ref="O17:O18" ca="1" si="17">(B17+M17+N17)/3</f>
         <v>0.78500000635782874</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="24">
         <f ca="1">SUM(O4:O17)/14</f>
         <v>0.88728571491014396</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q17" s="24">
         <f ca="1">O17-P17</f>
         <v>-0.10228570855231522</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R17" s="24">
         <f ca="1">AVEDEV(O4:O17)</f>
         <v>9.2761902434485316E-2</v>
       </c>
@@ -29856,6 +30421,442 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:22" ht="14.1" customHeight="1">
+      <c r="A18" s="12">
+        <v>44834</v>
+      </c>
+      <c r="B18" s="13">
+        <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.69599997997283936</v>
+      </c>
+      <c r="C18" s="13">
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
+        <v>23.340000150000002</v>
+      </c>
+      <c r="D18" s="14">
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
+        <v>32.601424623862997</v>
+      </c>
+      <c r="E18" s="14">
+        <f ca="1">IF(C18&lt;D18,$E$2*(D18-C18)^2*U18,-$E$2*(D18-C18)^2*U18)</f>
+        <v>406568.68077122449</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" ca="1" si="10"/>
+        <v>584150.42021565919</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" ca="1" si="11"/>
+        <v>3550527.7863976667</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" ca="1" si="12"/>
+        <v>2471167.2682257858</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" ca="1" si="13"/>
+        <v>2770536.1238928479</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" ca="1" si="14"/>
+        <v>2471167.2682257858</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" ca="1" si="15"/>
+        <v>-299368.8556670621</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="24">
+        <f ca="1">MAX(VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A18,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="N18" s="24">
+        <f ca="1">MIN(VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A18,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.69599997997283936</v>
+      </c>
+      <c r="O18" s="24">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.72199998299280799</v>
+      </c>
+      <c r="P18" s="24">
+        <f ca="1">SUM(O5:O18)/14</f>
+        <v>0.86742857083820168</v>
+      </c>
+      <c r="Q18" s="24">
+        <f ca="1">O18-P18</f>
+        <v>-0.1454285878453937</v>
+      </c>
+      <c r="R18" s="24">
+        <f ca="1">AVEDEV(O5:O18)</f>
+        <v>9.561904966263543E-2</v>
+      </c>
+      <c r="S18" s="9">
+        <f ca="1">0.015*R18</f>
+        <v>1.4342857449395315E-3</v>
+      </c>
+      <c r="T18" s="9">
+        <f ca="1">Q18/S18</f>
+        <v>-101.39443158972821</v>
+      </c>
+      <c r="U18" s="11">
+        <f ca="1">IF(AND(T18&gt;100,C18&gt;D18),1.2,IF(AND(T18&lt;-100,C18&lt;D18),1.2,1))</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="14.1" customHeight="1"/>
+    <row r="20" spans="1:22" ht="14.1" customHeight="1"/>
+    <row r="21" spans="1:22" ht="14.1" customHeight="1"/>
+    <row r="22" spans="1:22" ht="14.1" customHeight="1">
+      <c r="V22" s="21"/>
+    </row>
+    <row r="23" spans="1:22" ht="14.1" customHeight="1"/>
+    <row r="24" spans="1:22" ht="14.1" customHeight="1"/>
+    <row r="25" spans="1:22" ht="14.1" customHeight="1"/>
+    <row r="26" spans="1:22" ht="14.1" customHeight="1"/>
+    <row r="27" spans="1:22" ht="14.1" customHeight="1"/>
+    <row r="28" spans="1:22" ht="14.1" customHeight="1"/>
+    <row r="29" spans="1:22" ht="14.1" customHeight="1"/>
+    <row r="30" spans="1:22" ht="14.1" customHeight="1"/>
+    <row r="31" spans="1:22" ht="14.1" customHeight="1"/>
+    <row r="32" spans="1:22" ht="14.1" customHeight="1"/>
+    <row r="33" spans="22:22" ht="14.1" customHeight="1">
+      <c r="V33" s="21"/>
+    </row>
+    <row r="34" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="35" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="36" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="37" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="38" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="39" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="40" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="41" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="42" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="43" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="44" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="45" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="46" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="47" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="48" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="49" spans="19:19" ht="14.1" customHeight="1"/>
+    <row r="50" spans="19:19" ht="14.1" customHeight="1"/>
+    <row r="51" spans="19:19" ht="14.1" customHeight="1"/>
+    <row r="52" spans="19:19" ht="14.1" customHeight="1"/>
+    <row r="53" spans="19:19" ht="14.1" customHeight="1"/>
+    <row r="54" spans="19:19" ht="14.1" customHeight="1"/>
+    <row r="55" spans="19:19" ht="14.1" customHeight="1"/>
+    <row r="56" spans="19:19" ht="14.1" customHeight="1"/>
+    <row r="57" spans="19:19" ht="14.1" customHeight="1"/>
+    <row r="58" spans="19:19" ht="14.1" customHeight="1"/>
+    <row r="59" spans="19:19" ht="14.1" customHeight="1"/>
+    <row r="60" spans="19:19" ht="14.1" customHeight="1"/>
+    <row r="61" spans="19:19" ht="14.1" customHeight="1"/>
+    <row r="62" spans="19:19" ht="14.1" customHeight="1">
+      <c r="S62" s="9"/>
+    </row>
+    <row r="63" spans="19:19" ht="14.1" customHeight="1">
+      <c r="S63" s="9"/>
+    </row>
+    <row r="64" spans="19:19" ht="14.1" customHeight="1">
+      <c r="S64" s="9"/>
+    </row>
+    <row r="65" spans="19:19" ht="14.1" customHeight="1">
+      <c r="S65" s="9"/>
+    </row>
+    <row r="66" spans="19:19" ht="14.1" customHeight="1">
+      <c r="S66" s="9"/>
+    </row>
+    <row r="67" spans="19:19" ht="14.1" customHeight="1">
+      <c r="S67" s="9"/>
+    </row>
+    <row r="68" spans="19:19" ht="14.1" customHeight="1">
+      <c r="S68" s="9"/>
+    </row>
+    <row r="69" spans="19:19" ht="14.1" customHeight="1">
+      <c r="S69" s="9"/>
+    </row>
+    <row r="70" spans="19:19" ht="14.1" customHeight="1">
+      <c r="S70" s="9"/>
+    </row>
+    <row r="71" spans="19:19" ht="14.1" customHeight="1">
+      <c r="S71" s="9"/>
+    </row>
+    <row r="72" spans="19:19" ht="14.1" customHeight="1">
+      <c r="S72" s="9"/>
+    </row>
+    <row r="73" spans="19:19" ht="14.1" customHeight="1">
+      <c r="S73" s="9"/>
+    </row>
+    <row r="74" spans="19:19" ht="14.1" customHeight="1">
+      <c r="S74" s="9"/>
+    </row>
+    <row r="75" spans="19:19" ht="14.1" customHeight="1">
+      <c r="S75" s="9"/>
+    </row>
+    <row r="76" spans="19:19" ht="14.1" customHeight="1">
+      <c r="S76" s="9"/>
+    </row>
+    <row r="77" spans="19:19" ht="14.1" customHeight="1">
+      <c r="S77" s="9"/>
+    </row>
+    <row r="78" spans="19:19" ht="14.1" customHeight="1">
+      <c r="S78" s="9"/>
+    </row>
+    <row r="79" spans="19:19" ht="14.1" customHeight="1">
+      <c r="S79" s="9"/>
+    </row>
+    <row r="80" spans="19:19" ht="14.1" customHeight="1">
+      <c r="S80" s="9"/>
+    </row>
+    <row r="81" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S81" s="9"/>
+    </row>
+    <row r="82" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S82" s="9"/>
+    </row>
+    <row r="83" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S83" s="9"/>
+    </row>
+    <row r="84" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S84" s="9"/>
+    </row>
+    <row r="85" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S85" s="9"/>
+    </row>
+    <row r="86" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S86" s="9"/>
+    </row>
+    <row r="87" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S87" s="9"/>
+    </row>
+    <row r="88" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S88" s="9"/>
+    </row>
+    <row r="89" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S89" s="9"/>
+    </row>
+    <row r="90" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S90" s="9"/>
+    </row>
+    <row r="91" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S91" s="9"/>
+    </row>
+    <row r="92" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S92" s="9"/>
+      <c r="V92" s="21"/>
+    </row>
+    <row r="93" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S93" s="9"/>
+    </row>
+    <row r="94" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S94" s="9"/>
+    </row>
+    <row r="95" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S95" s="9"/>
+    </row>
+    <row r="96" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S96" s="9"/>
+    </row>
+    <row r="97" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S97" s="9"/>
+    </row>
+    <row r="98" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S98" s="9"/>
+    </row>
+    <row r="99" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S99" s="9"/>
+    </row>
+    <row r="100" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S100" s="9"/>
+    </row>
+    <row r="101" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S101" s="9"/>
+    </row>
+    <row r="102" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S102" s="9"/>
+    </row>
+    <row r="103" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S103" s="9"/>
+    </row>
+    <row r="104" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S104" s="9"/>
+      <c r="V104" s="21"/>
+    </row>
+    <row r="105" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S105" s="9"/>
+    </row>
+    <row r="106" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S106" s="9"/>
+    </row>
+    <row r="107" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S107" s="9"/>
+    </row>
+    <row r="108" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S108" s="9"/>
+    </row>
+    <row r="109" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S109" s="9"/>
+    </row>
+    <row r="110" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S110" s="9"/>
+    </row>
+    <row r="111" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S111" s="9"/>
+    </row>
+    <row r="112" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S112" s="9"/>
+    </row>
+    <row r="113" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S113" s="9"/>
+    </row>
+    <row r="114" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S114" s="9"/>
+    </row>
+    <row r="115" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S115" s="9"/>
+    </row>
+    <row r="116" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S116" s="9"/>
+      <c r="V116" s="21"/>
+    </row>
+    <row r="117" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S117" s="9"/>
+    </row>
+    <row r="118" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S118" s="9"/>
+    </row>
+    <row r="119" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S119" s="9"/>
+    </row>
+    <row r="120" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S120" s="9"/>
+    </row>
+    <row r="121" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S121" s="9"/>
+    </row>
+    <row r="122" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S122" s="9"/>
+    </row>
+    <row r="123" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S123" s="9"/>
+    </row>
+    <row r="124" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S124" s="9"/>
+    </row>
+    <row r="125" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S125" s="9"/>
+    </row>
+    <row r="126" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S126" s="9"/>
+    </row>
+    <row r="127" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S127" s="9"/>
+    </row>
+    <row r="128" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S128" s="9"/>
+      <c r="V128" s="21"/>
+    </row>
+    <row r="129" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S129" s="9"/>
+    </row>
+    <row r="130" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S130" s="9"/>
+    </row>
+    <row r="131" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S131" s="9"/>
+    </row>
+    <row r="132" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S132" s="9"/>
+    </row>
+    <row r="133" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S133" s="9"/>
+    </row>
+    <row r="134" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S134" s="9"/>
+    </row>
+    <row r="135" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S135" s="9"/>
+    </row>
+    <row r="136" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S136" s="9"/>
+    </row>
+    <row r="137" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S137" s="22"/>
+    </row>
+    <row r="138" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S138" s="22"/>
+    </row>
+    <row r="139" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S139" s="22"/>
+    </row>
+    <row r="140" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S140" s="22"/>
+      <c r="V140" s="21"/>
+    </row>
+    <row r="141" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S141" s="22"/>
+    </row>
+    <row r="142" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S142" s="22"/>
+    </row>
+    <row r="143" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S143" s="22"/>
+    </row>
+    <row r="144" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S144" s="22"/>
+    </row>
+    <row r="145" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S145" s="22"/>
+    </row>
+    <row r="146" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S146" s="22"/>
+    </row>
+    <row r="147" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S147" s="22"/>
+    </row>
+    <row r="148" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S148" s="22"/>
+    </row>
+    <row r="149" spans="19:22" ht="14.1" customHeight="1">
+      <c r="S149" s="22"/>
+    </row>
+    <row r="150" spans="19:22" ht="14.1" customHeight="1"/>
+    <row r="151" spans="19:22" ht="14.1" customHeight="1"/>
+    <row r="152" spans="19:22" ht="14.1" customHeight="1">
+      <c r="V152" s="21"/>
+    </row>
+    <row r="153" spans="19:22" ht="14.1" customHeight="1"/>
+    <row r="154" spans="19:22" ht="14.1" customHeight="1"/>
+    <row r="155" spans="19:22" ht="14.1" customHeight="1"/>
+    <row r="156" spans="19:22" ht="14.1" customHeight="1"/>
+    <row r="157" spans="19:22" ht="14.1" customHeight="1"/>
+    <row r="158" spans="19:22" ht="14.1" customHeight="1"/>
+    <row r="159" spans="19:22" ht="14.1" customHeight="1"/>
+    <row r="160" spans="19:22" ht="14.1" customHeight="1"/>
+    <row r="161" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="162" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="163" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="164" spans="22:22" ht="14.1" customHeight="1">
+      <c r="V164" s="21"/>
+    </row>
+    <row r="165" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="166" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="167" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="168" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="169" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="170" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="171" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="172" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="173" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="174" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="175" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="176" spans="22:22" ht="14.1" customHeight="1"/>
+    <row r="177" ht="14.1" customHeight="1"/>
+    <row r="178" ht="14.1" customHeight="1"/>
+    <row r="179" ht="14.1" customHeight="1"/>
+    <row r="180" ht="14.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -29872,7 +30873,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AG180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29888,7 +30889,8 @@
     <col min="5" max="5" width="9.375" style="21" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="21" customWidth="1"/>
     <col min="7" max="7" width="10.75" style="21" customWidth="1"/>
-    <col min="8" max="9" width="11.5" style="21" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="21" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="21" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="11" customWidth="1"/>
     <col min="11" max="11" width="10.75" style="11" customWidth="1"/>
     <col min="12" max="12" width="10.75" style="21" customWidth="1"/>
@@ -29911,47 +30913,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="29" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -29994,7 +30996,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F17" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F18" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="15">
@@ -30002,7 +31004,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H17" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H18" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -30010,11 +31012,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J17" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J18" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K17" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K18" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="14">
@@ -30029,29 +31031,29 @@
         <f>IF(AND(M3&gt;100,C3&gt;D3),1.2,IF(AND(M3&lt;-100,C3&lt;D3),1.2,1))</f>
         <v>1</v>
       </c>
-      <c r="P3" s="29" t="s">
-        <v>6</v>
+      <c r="P3" s="30" t="s">
+        <v>4</v>
       </c>
       <c r="Q3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="R3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
@@ -30079,7 +31081,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" ref="G4:G17" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G18" si="4">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="15">
@@ -30087,7 +31089,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" ref="I4:I17" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I18" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="15">
@@ -30099,7 +31101,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="14">
-        <f t="shared" ref="L4:L17" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L18" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="9">
@@ -30107,10 +31109,10 @@
         <v>-53.501214932625707</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" ref="N4:N17" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
+        <f t="shared" ref="N4:N18" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="25">
         <v>44561</v>
       </c>
       <c r="Q4" s="18">
@@ -30168,7 +31170,7 @@
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E17" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^2*N5,-$E$2*(D5-C5)^2*N5)</f>
+        <f t="shared" ref="E5:E18" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^2*N5,-$E$2*(D5-C5)^2*N5)</f>
         <v>31666.545626548228</v>
       </c>
       <c r="F5" s="15">
@@ -30866,7 +31868,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.1" customHeight="1">
+    <row r="17" spans="1:16" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -30923,6 +31925,471 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="18" spans="1:16" ht="14.1" customHeight="1">
+      <c r="A18" s="12">
+        <v>44834</v>
+      </c>
+      <c r="B18" s="13">
+        <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.69599997997283936</v>
+      </c>
+      <c r="C18" s="13">
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
+        <v>23.340000150000002</v>
+      </c>
+      <c r="D18" s="14">
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
+        <v>32.601424623862997</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" si="9"/>
+        <v>406568.68077122449</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="0"/>
+        <v>584150.42021565919</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="4"/>
+        <v>3713168.2500062897</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="1"/>
+        <v>2584365.0276401606</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="5"/>
+        <v>2902758.7878328301</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="2"/>
+        <v>2584365.0276401606</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="3"/>
+        <v>-318393.76019266946</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>-112.42427728939072</v>
+      </c>
+      <c r="N18" s="9">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N22" s="9"/>
+      <c r="P22" s="21"/>
+    </row>
+    <row r="23" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N33" s="9"/>
+      <c r="P33" s="21"/>
+    </row>
+    <row r="34" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N42" s="9"/>
+    </row>
+    <row r="43" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="14:16" ht="14.1" customHeight="1"/>
+    <row r="49" spans="13:13" ht="14.1" customHeight="1"/>
+    <row r="50" spans="13:13" ht="14.1" customHeight="1"/>
+    <row r="51" spans="13:13" ht="14.1" customHeight="1"/>
+    <row r="52" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M53" s="9"/>
+    </row>
+    <row r="54" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M55" s="9"/>
+    </row>
+    <row r="56" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M56" s="9"/>
+    </row>
+    <row r="57" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M57" s="9"/>
+    </row>
+    <row r="58" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M58" s="9"/>
+    </row>
+    <row r="59" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M59" s="9"/>
+    </row>
+    <row r="60" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M61" s="9"/>
+    </row>
+    <row r="62" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M62" s="9"/>
+    </row>
+    <row r="63" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M63" s="9"/>
+    </row>
+    <row r="64" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M64" s="9"/>
+    </row>
+    <row r="65" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M65" s="9"/>
+    </row>
+    <row r="66" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M66" s="9"/>
+    </row>
+    <row r="67" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M67" s="9"/>
+    </row>
+    <row r="68" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M68" s="9"/>
+    </row>
+    <row r="69" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M69" s="9"/>
+    </row>
+    <row r="70" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M70" s="9"/>
+    </row>
+    <row r="71" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M71" s="9"/>
+    </row>
+    <row r="72" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M72" s="9"/>
+    </row>
+    <row r="73" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M73" s="9"/>
+    </row>
+    <row r="74" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M74" s="9"/>
+    </row>
+    <row r="75" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M75" s="9"/>
+    </row>
+    <row r="76" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M76" s="9"/>
+    </row>
+    <row r="77" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M77" s="9"/>
+    </row>
+    <row r="78" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M78" s="9"/>
+    </row>
+    <row r="79" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M79" s="9"/>
+    </row>
+    <row r="80" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M80" s="9"/>
+    </row>
+    <row r="81" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M81" s="9"/>
+    </row>
+    <row r="82" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M82" s="9"/>
+    </row>
+    <row r="83" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M83" s="9"/>
+    </row>
+    <row r="84" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M84" s="9"/>
+    </row>
+    <row r="85" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M85" s="9"/>
+    </row>
+    <row r="86" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M86" s="9"/>
+    </row>
+    <row r="87" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M87" s="9"/>
+    </row>
+    <row r="88" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M88" s="9"/>
+    </row>
+    <row r="89" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M89" s="9"/>
+    </row>
+    <row r="90" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M90" s="9"/>
+    </row>
+    <row r="91" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M91" s="9"/>
+    </row>
+    <row r="92" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M92" s="9"/>
+      <c r="P92" s="21"/>
+    </row>
+    <row r="93" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M93" s="9"/>
+    </row>
+    <row r="94" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M94" s="9"/>
+    </row>
+    <row r="95" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M95" s="9"/>
+    </row>
+    <row r="96" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M96" s="9"/>
+    </row>
+    <row r="97" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M97" s="9"/>
+    </row>
+    <row r="98" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M98" s="9"/>
+    </row>
+    <row r="99" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M99" s="9"/>
+    </row>
+    <row r="100" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M100" s="9"/>
+    </row>
+    <row r="101" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M101" s="9"/>
+    </row>
+    <row r="102" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M102" s="9"/>
+    </row>
+    <row r="103" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M103" s="9"/>
+    </row>
+    <row r="104" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M104" s="9"/>
+      <c r="P104" s="21"/>
+    </row>
+    <row r="105" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M105" s="9"/>
+    </row>
+    <row r="106" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M106" s="9"/>
+    </row>
+    <row r="107" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M107" s="9"/>
+    </row>
+    <row r="108" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M108" s="9"/>
+    </row>
+    <row r="109" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M109" s="9"/>
+    </row>
+    <row r="110" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M110" s="9"/>
+    </row>
+    <row r="111" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M111" s="9"/>
+    </row>
+    <row r="112" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M112" s="9"/>
+    </row>
+    <row r="113" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M113" s="9"/>
+    </row>
+    <row r="114" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M114" s="9"/>
+    </row>
+    <row r="115" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M115" s="9"/>
+    </row>
+    <row r="116" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M116" s="9"/>
+      <c r="P116" s="21"/>
+    </row>
+    <row r="117" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M117" s="9"/>
+    </row>
+    <row r="118" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M118" s="9"/>
+    </row>
+    <row r="119" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M119" s="9"/>
+    </row>
+    <row r="120" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M120" s="9"/>
+    </row>
+    <row r="121" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M121" s="9"/>
+    </row>
+    <row r="122" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M122" s="9"/>
+    </row>
+    <row r="123" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M123" s="9"/>
+    </row>
+    <row r="124" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M124" s="9"/>
+    </row>
+    <row r="125" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M125" s="9"/>
+    </row>
+    <row r="126" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M126" s="9"/>
+    </row>
+    <row r="127" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M127" s="22"/>
+    </row>
+    <row r="128" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M128" s="22"/>
+      <c r="P128" s="21"/>
+    </row>
+    <row r="129" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M129" s="22"/>
+    </row>
+    <row r="130" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M130" s="22"/>
+    </row>
+    <row r="131" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M131" s="22"/>
+    </row>
+    <row r="132" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M132" s="22"/>
+    </row>
+    <row r="133" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M133" s="22"/>
+    </row>
+    <row r="134" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M134" s="22"/>
+    </row>
+    <row r="135" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M135" s="22"/>
+    </row>
+    <row r="136" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M136" s="22"/>
+    </row>
+    <row r="137" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M137" s="22"/>
+    </row>
+    <row r="138" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M138" s="22"/>
+    </row>
+    <row r="139" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M139" s="22"/>
+    </row>
+    <row r="140" spans="13:16" ht="14.1" customHeight="1">
+      <c r="P140" s="21"/>
+    </row>
+    <row r="141" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="142" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="143" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="144" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="145" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="146" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="147" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="148" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="149" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="150" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="151" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="152" spans="16:16" ht="14.1" customHeight="1">
+      <c r="P152" s="21"/>
+    </row>
+    <row r="153" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="154" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="155" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="156" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="157" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="158" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="159" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="160" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="161" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="162" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="163" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="164" spans="16:16" ht="14.1" customHeight="1">
+      <c r="P164" s="21"/>
+    </row>
+    <row r="165" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="166" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="167" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="168" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="169" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="170" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="171" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="172" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="173" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="174" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="175" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="176" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="177" ht="14.1" customHeight="1"/>
+    <row r="178" ht="14.1" customHeight="1"/>
+    <row r="179" ht="14.1" customHeight="1"/>
+    <row r="180" ht="14.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -30939,9 +32406,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AG180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -30955,7 +32422,8 @@
     <col min="5" max="5" width="9.375" style="21" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="21" customWidth="1"/>
     <col min="7" max="7" width="10.75" style="21" customWidth="1"/>
-    <col min="8" max="9" width="11.5" style="21" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="21" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="21" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="11" customWidth="1"/>
     <col min="11" max="11" width="10.75" style="11" customWidth="1"/>
     <col min="12" max="12" width="10.75" style="21" customWidth="1"/>
@@ -30978,47 +32446,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="29" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -31061,7 +32529,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F17" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F18" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="15">
@@ -31069,7 +32537,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H17" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H18" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -31077,11 +32545,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J17" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J18" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K17" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K18" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="14">
@@ -31096,29 +32564,29 @@
         <f>IF(AND(M3&gt;100,C3&gt;D3),1.2,IF(AND(M3&lt;-100,C3&lt;D3),1.2,1))</f>
         <v>1</v>
       </c>
-      <c r="P3" s="29" t="s">
-        <v>6</v>
+      <c r="P3" s="30" t="s">
+        <v>4</v>
       </c>
       <c r="Q3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="R3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
@@ -31146,7 +32614,7 @@
         <v>3932.3301809611858</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" ref="G4:G17" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G18" si="4">G3+F4</f>
         <v>3932.3301809611858</v>
       </c>
       <c r="H4" s="15">
@@ -31154,7 +32622,7 @@
         <v>3955.9241620469529</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" ref="I4:I17" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I18" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="J4" s="15">
@@ -31166,7 +32634,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="14">
-        <f t="shared" ref="L4:L17" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L18" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="9">
@@ -31174,10 +32642,10 @@
         <v>-53.501214932625707</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" ref="N4:N17" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
+        <f t="shared" ref="N4:N18" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="25">
         <v>44561</v>
       </c>
       <c r="Q4" s="18">
@@ -31235,7 +32703,7 @@
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E17" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^3*N5,$E$2*(D5-C5)^3*N5)</f>
+        <f t="shared" ref="E5:E18" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^3*N5,$E$2*(D5-C5)^3*N5)</f>
         <v>81848.714902699052</v>
       </c>
       <c r="F5" s="15">
@@ -31933,7 +33401,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.1" customHeight="1">
+    <row r="17" spans="1:16" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -31990,6 +33458,471 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="18" spans="1:16" ht="14.1" customHeight="1">
+      <c r="A18" s="12">
+        <v>44834</v>
+      </c>
+      <c r="B18" s="13">
+        <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.69599997997283936</v>
+      </c>
+      <c r="C18" s="13">
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
+        <v>23.340000150000002</v>
+      </c>
+      <c r="D18" s="14">
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
+        <v>32.601424623862997</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" si="9"/>
+        <v>3765405.130400809</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="0"/>
+        <v>5410064.9982026573</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="4"/>
+        <v>31449885.650371231</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="1"/>
+        <v>21889119.782806464</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="5"/>
+        <v>24066642.634684995</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="2"/>
+        <v>21889119.782806464</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="3"/>
+        <v>-2177522.8518785313</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>-112.42427728939072</v>
+      </c>
+      <c r="N18" s="9">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N22" s="9"/>
+      <c r="P22" s="21"/>
+    </row>
+    <row r="23" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" ht="14.1" customHeight="1">
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N33" s="9"/>
+      <c r="P33" s="21"/>
+    </row>
+    <row r="34" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N42" s="9"/>
+    </row>
+    <row r="43" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="14:16" ht="14.1" customHeight="1">
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="14:16" ht="14.1" customHeight="1"/>
+    <row r="49" spans="13:13" ht="14.1" customHeight="1"/>
+    <row r="50" spans="13:13" ht="14.1" customHeight="1"/>
+    <row r="51" spans="13:13" ht="14.1" customHeight="1"/>
+    <row r="52" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M53" s="9"/>
+    </row>
+    <row r="54" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M55" s="9"/>
+    </row>
+    <row r="56" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M56" s="9"/>
+    </row>
+    <row r="57" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M57" s="9"/>
+    </row>
+    <row r="58" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M58" s="9"/>
+    </row>
+    <row r="59" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M59" s="9"/>
+    </row>
+    <row r="60" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M61" s="9"/>
+    </row>
+    <row r="62" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M62" s="9"/>
+    </row>
+    <row r="63" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M63" s="9"/>
+    </row>
+    <row r="64" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M64" s="9"/>
+    </row>
+    <row r="65" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M65" s="9"/>
+    </row>
+    <row r="66" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M66" s="9"/>
+    </row>
+    <row r="67" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M67" s="9"/>
+    </row>
+    <row r="68" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M68" s="9"/>
+    </row>
+    <row r="69" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M69" s="9"/>
+    </row>
+    <row r="70" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M70" s="9"/>
+    </row>
+    <row r="71" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M71" s="9"/>
+    </row>
+    <row r="72" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M72" s="9"/>
+    </row>
+    <row r="73" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M73" s="9"/>
+    </row>
+    <row r="74" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M74" s="9"/>
+    </row>
+    <row r="75" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M75" s="9"/>
+    </row>
+    <row r="76" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M76" s="9"/>
+    </row>
+    <row r="77" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M77" s="9"/>
+    </row>
+    <row r="78" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M78" s="9"/>
+    </row>
+    <row r="79" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M79" s="9"/>
+    </row>
+    <row r="80" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M80" s="9"/>
+    </row>
+    <row r="81" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M81" s="9"/>
+    </row>
+    <row r="82" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M82" s="9"/>
+    </row>
+    <row r="83" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M83" s="9"/>
+    </row>
+    <row r="84" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M84" s="9"/>
+    </row>
+    <row r="85" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M85" s="9"/>
+    </row>
+    <row r="86" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M86" s="9"/>
+    </row>
+    <row r="87" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M87" s="9"/>
+    </row>
+    <row r="88" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M88" s="9"/>
+    </row>
+    <row r="89" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M89" s="9"/>
+    </row>
+    <row r="90" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M90" s="9"/>
+    </row>
+    <row r="91" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M91" s="9"/>
+    </row>
+    <row r="92" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M92" s="9"/>
+      <c r="P92" s="21"/>
+    </row>
+    <row r="93" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M93" s="9"/>
+    </row>
+    <row r="94" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M94" s="9"/>
+    </row>
+    <row r="95" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M95" s="9"/>
+    </row>
+    <row r="96" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M96" s="9"/>
+    </row>
+    <row r="97" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M97" s="9"/>
+    </row>
+    <row r="98" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M98" s="9"/>
+    </row>
+    <row r="99" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M99" s="9"/>
+    </row>
+    <row r="100" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M100" s="9"/>
+    </row>
+    <row r="101" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M101" s="9"/>
+    </row>
+    <row r="102" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M102" s="9"/>
+    </row>
+    <row r="103" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M103" s="9"/>
+    </row>
+    <row r="104" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M104" s="9"/>
+      <c r="P104" s="21"/>
+    </row>
+    <row r="105" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M105" s="9"/>
+    </row>
+    <row r="106" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M106" s="9"/>
+    </row>
+    <row r="107" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M107" s="9"/>
+    </row>
+    <row r="108" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M108" s="9"/>
+    </row>
+    <row r="109" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M109" s="9"/>
+    </row>
+    <row r="110" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M110" s="9"/>
+    </row>
+    <row r="111" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M111" s="9"/>
+    </row>
+    <row r="112" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M112" s="9"/>
+    </row>
+    <row r="113" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M113" s="9"/>
+    </row>
+    <row r="114" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M114" s="9"/>
+    </row>
+    <row r="115" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M115" s="9"/>
+    </row>
+    <row r="116" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M116" s="9"/>
+      <c r="P116" s="21"/>
+    </row>
+    <row r="117" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M117" s="9"/>
+    </row>
+    <row r="118" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M118" s="9"/>
+    </row>
+    <row r="119" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M119" s="9"/>
+    </row>
+    <row r="120" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M120" s="9"/>
+    </row>
+    <row r="121" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M121" s="9"/>
+    </row>
+    <row r="122" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M122" s="9"/>
+    </row>
+    <row r="123" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M123" s="9"/>
+    </row>
+    <row r="124" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M124" s="9"/>
+    </row>
+    <row r="125" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M125" s="9"/>
+    </row>
+    <row r="126" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M126" s="9"/>
+    </row>
+    <row r="127" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M127" s="22"/>
+    </row>
+    <row r="128" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M128" s="22"/>
+      <c r="P128" s="21"/>
+    </row>
+    <row r="129" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M129" s="22"/>
+    </row>
+    <row r="130" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M130" s="22"/>
+    </row>
+    <row r="131" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M131" s="22"/>
+    </row>
+    <row r="132" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M132" s="22"/>
+    </row>
+    <row r="133" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M133" s="22"/>
+    </row>
+    <row r="134" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M134" s="22"/>
+    </row>
+    <row r="135" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M135" s="22"/>
+    </row>
+    <row r="136" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M136" s="22"/>
+    </row>
+    <row r="137" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M137" s="22"/>
+    </row>
+    <row r="138" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M138" s="22"/>
+    </row>
+    <row r="139" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M139" s="22"/>
+    </row>
+    <row r="140" spans="13:16" ht="14.1" customHeight="1">
+      <c r="P140" s="21"/>
+    </row>
+    <row r="141" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="142" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="143" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="144" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="145" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="146" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="147" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="148" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="149" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="150" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="151" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="152" spans="16:16" ht="14.1" customHeight="1">
+      <c r="P152" s="21"/>
+    </row>
+    <row r="153" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="154" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="155" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="156" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="157" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="158" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="159" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="160" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="161" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="162" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="163" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="164" spans="16:16" ht="14.1" customHeight="1">
+      <c r="P164" s="21"/>
+    </row>
+    <row r="165" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="166" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="167" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="168" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="169" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="170" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="171" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="172" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="173" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="174" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="175" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="176" spans="16:16" ht="14.1" customHeight="1"/>
+    <row r="177" ht="14.1" customHeight="1"/>
+    <row r="178" ht="14.1" customHeight="1"/>
+    <row r="179" ht="14.1" customHeight="1"/>
+    <row r="180" ht="14.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -32006,9 +33939,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI17"/>
+  <dimension ref="A1:AI180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -32022,7 +33955,8 @@
     <col min="7" max="7" width="9.375" style="21" customWidth="1"/>
     <col min="8" max="8" width="9.25" style="21" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="21" customWidth="1"/>
-    <col min="10" max="11" width="11.5" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="21" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="21" customWidth="1"/>
     <col min="12" max="12" width="12.625" style="11" customWidth="1"/>
     <col min="13" max="13" width="10.75" style="11" customWidth="1"/>
     <col min="14" max="14" width="10.75" style="21" customWidth="1"/>
@@ -32045,53 +33979,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="29" t="s">
         <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>18</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -32144,7 +34078,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H17" si="0">G3/B3</f>
+        <f t="shared" ref="H3:H18" si="0">G3/B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -32152,7 +34086,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J17" si="1">I3*B3</f>
+        <f t="shared" ref="J3:J18" si="1">I3*B3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
@@ -32160,11 +34094,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="15">
-        <f t="shared" ref="L3:L17" si="2">J3+N3</f>
+        <f t="shared" ref="L3:L18" si="2">J3+N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="15">
-        <f t="shared" ref="M3:M17" si="3">L3-K3</f>
+        <f t="shared" ref="M3:M18" si="3">L3-K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="14">
@@ -32179,29 +34113,29 @@
         <f>IF(AND(O3&gt;100,C3&gt;D3),1.2,IF(AND(O3&lt;-100,C3&lt;D3),1.2,1))</f>
         <v>1</v>
       </c>
-      <c r="R3" s="29" t="s">
-        <v>6</v>
+      <c r="R3" s="30" t="s">
+        <v>4</v>
       </c>
       <c r="S3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="X3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1">
@@ -32237,7 +34171,7 @@
         <v>1049.4536589575841</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" ref="I4:I17" si="4">I3+H4</f>
+        <f t="shared" ref="I4:I18" si="4">I3+H4</f>
         <v>1049.4536589575841</v>
       </c>
       <c r="J4" s="15">
@@ -32245,7 +34179,7 @@
         <v>1055.7503809113296</v>
       </c>
       <c r="K4" s="15">
-        <f t="shared" ref="K4:K17" si="5">IF(G4&gt;0,K3+G4,K3)</f>
+        <f t="shared" ref="K4:K18" si="5">IF(G4&gt;0,K3+G4,K3)</f>
         <v>1055.7503809113296</v>
       </c>
       <c r="L4" s="15">
@@ -32257,7 +34191,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" ref="N4:N17" si="6">IF(G4&lt;0,N3-G4,N3)</f>
+        <f t="shared" ref="N4:N18" si="6">IF(G4&lt;0,N3-G4,N3)</f>
         <v>0</v>
       </c>
       <c r="O4" s="9">
@@ -32265,10 +34199,10 @@
         <v>-53.501214932625707</v>
       </c>
       <c r="P4" s="9">
-        <f t="shared" ref="P4:P17" si="7">IF(AND(O4&gt;100,C4&gt;D4),1.2,IF(AND(O4&lt;-100,C4&lt;D4),1.2,1))</f>
+        <f t="shared" ref="P4:P18" si="7">IF(AND(O4&gt;100,C4&gt;D4),1.2,IF(AND(O4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
-      <c r="R4" s="24">
+      <c r="R4" s="25">
         <v>44561</v>
       </c>
       <c r="S4" s="18">
@@ -32334,7 +34268,7 @@
         <v>21490456.638297871</v>
       </c>
       <c r="G5" s="14">
-        <f t="shared" ref="G5:G17" si="9">IF(C5&lt;D5,$G$2*(D5-C5)^3*P5*E5/F5,$G$2*(D5-C5)^3*P5*E5/F5)</f>
+        <f t="shared" ref="G5:G18" si="9">IF(C5&lt;D5,$G$2*(D5-C5)^3*P5*E5/F5,$G$2*(D5-C5)^3*P5*E5/F5)</f>
         <v>16983.872079062337</v>
       </c>
       <c r="H5" s="15">
@@ -33120,7 +35054,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.1" customHeight="1">
+    <row r="17" spans="1:18" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -33185,6 +35119,479 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="18" spans="1:18" ht="14.1" customHeight="1">
+      <c r="A18" s="12">
+        <v>44834</v>
+      </c>
+      <c r="B18" s="13">
+        <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.69599997997283936</v>
+      </c>
+      <c r="C18" s="13">
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
+        <v>23.340000150000002</v>
+      </c>
+      <c r="D18" s="14">
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
+        <v>32.601424623862997</v>
+      </c>
+      <c r="E18" s="14">
+        <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
+        <v>2128200</v>
+      </c>
+      <c r="F18" s="14">
+        <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$I,9)</f>
+        <v>5555987.6610887097</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" si="9"/>
+        <v>1442324.1532089238</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="0"/>
+        <v>2072304.8774587736</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="4"/>
+        <v>8343879.9580431413</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="1"/>
+        <v>5807340.2836938016</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="5"/>
+        <v>6301583.5549640199</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="2"/>
+        <v>5807340.2836938016</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="3"/>
+        <v>-494243.27127021831</v>
+      </c>
+      <c r="N18" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>-112.42427728939072</v>
+      </c>
+      <c r="P18" s="9">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="14.1" customHeight="1">
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.1" customHeight="1">
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.1" customHeight="1">
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:18" ht="14.1" customHeight="1">
+      <c r="P22" s="9"/>
+      <c r="R22" s="21"/>
+    </row>
+    <row r="23" spans="1:18" ht="14.1" customHeight="1">
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:18" ht="14.1" customHeight="1">
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:18" ht="14.1" customHeight="1">
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:18" ht="14.1" customHeight="1">
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:18" ht="14.1" customHeight="1">
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:18" ht="14.1" customHeight="1">
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:18" ht="14.1" customHeight="1">
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:18" ht="14.1" customHeight="1">
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:18" ht="14.1" customHeight="1">
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:18" ht="14.1" customHeight="1">
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="16:18" ht="14.1" customHeight="1">
+      <c r="P33" s="9"/>
+      <c r="R33" s="21"/>
+    </row>
+    <row r="34" spans="16:18" ht="14.1" customHeight="1">
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="16:18" ht="14.1" customHeight="1">
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="16:18" ht="14.1" customHeight="1">
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="16:18" ht="14.1" customHeight="1">
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="16:18" ht="14.1" customHeight="1">
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="16:18" ht="14.1" customHeight="1">
+      <c r="P39" s="9"/>
+    </row>
+    <row r="40" spans="16:18" ht="14.1" customHeight="1">
+      <c r="P40" s="9"/>
+    </row>
+    <row r="41" spans="16:18" ht="14.1" customHeight="1">
+      <c r="P41" s="9"/>
+    </row>
+    <row r="42" spans="16:18" ht="14.1" customHeight="1">
+      <c r="P42" s="9"/>
+    </row>
+    <row r="43" spans="16:18" ht="14.1" customHeight="1">
+      <c r="P43" s="9"/>
+    </row>
+    <row r="44" spans="16:18" ht="14.1" customHeight="1">
+      <c r="P44" s="9"/>
+    </row>
+    <row r="45" spans="16:18" ht="14.1" customHeight="1">
+      <c r="P45" s="9"/>
+    </row>
+    <row r="46" spans="16:18" ht="14.1" customHeight="1">
+      <c r="P46" s="9"/>
+    </row>
+    <row r="47" spans="16:18" ht="14.1" customHeight="1">
+      <c r="P47" s="9"/>
+    </row>
+    <row r="48" spans="16:18" ht="14.1" customHeight="1"/>
+    <row r="49" spans="15:15" ht="14.1" customHeight="1"/>
+    <row r="50" spans="15:15" ht="14.1" customHeight="1"/>
+    <row r="51" spans="15:15" ht="14.1" customHeight="1"/>
+    <row r="52" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O52" s="9"/>
+    </row>
+    <row r="53" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O53" s="9"/>
+    </row>
+    <row r="54" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O54" s="9"/>
+    </row>
+    <row r="55" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O55" s="9"/>
+    </row>
+    <row r="56" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O56" s="9"/>
+    </row>
+    <row r="57" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O57" s="9"/>
+    </row>
+    <row r="58" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O58" s="9"/>
+    </row>
+    <row r="59" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O59" s="9"/>
+    </row>
+    <row r="60" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O60" s="9"/>
+    </row>
+    <row r="61" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O61" s="9"/>
+    </row>
+    <row r="62" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O62" s="9"/>
+    </row>
+    <row r="63" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O63" s="9"/>
+    </row>
+    <row r="64" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O64" s="9"/>
+    </row>
+    <row r="65" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O65" s="9"/>
+    </row>
+    <row r="66" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O66" s="9"/>
+    </row>
+    <row r="67" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O67" s="9"/>
+    </row>
+    <row r="68" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O68" s="9"/>
+    </row>
+    <row r="69" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O69" s="9"/>
+    </row>
+    <row r="70" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O70" s="9"/>
+    </row>
+    <row r="71" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O71" s="9"/>
+    </row>
+    <row r="72" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O72" s="9"/>
+    </row>
+    <row r="73" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O73" s="9"/>
+    </row>
+    <row r="74" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O74" s="9"/>
+    </row>
+    <row r="75" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O75" s="9"/>
+    </row>
+    <row r="76" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O76" s="9"/>
+    </row>
+    <row r="77" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O77" s="9"/>
+    </row>
+    <row r="78" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O78" s="9"/>
+    </row>
+    <row r="79" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O79" s="9"/>
+    </row>
+    <row r="80" spans="15:15" ht="14.1" customHeight="1">
+      <c r="O80" s="9"/>
+    </row>
+    <row r="81" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O81" s="9"/>
+    </row>
+    <row r="82" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O82" s="9"/>
+    </row>
+    <row r="83" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O83" s="9"/>
+    </row>
+    <row r="84" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O84" s="9"/>
+    </row>
+    <row r="85" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O85" s="9"/>
+    </row>
+    <row r="86" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O86" s="9"/>
+    </row>
+    <row r="87" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O87" s="9"/>
+    </row>
+    <row r="88" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O88" s="9"/>
+    </row>
+    <row r="89" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O89" s="9"/>
+    </row>
+    <row r="90" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O90" s="9"/>
+    </row>
+    <row r="91" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O91" s="9"/>
+    </row>
+    <row r="92" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O92" s="9"/>
+      <c r="R92" s="21"/>
+    </row>
+    <row r="93" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O93" s="9"/>
+    </row>
+    <row r="94" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O94" s="9"/>
+    </row>
+    <row r="95" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O95" s="9"/>
+    </row>
+    <row r="96" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O96" s="9"/>
+    </row>
+    <row r="97" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O97" s="9"/>
+    </row>
+    <row r="98" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O98" s="9"/>
+    </row>
+    <row r="99" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O99" s="9"/>
+    </row>
+    <row r="100" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O100" s="9"/>
+    </row>
+    <row r="101" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O101" s="9"/>
+    </row>
+    <row r="102" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O102" s="9"/>
+    </row>
+    <row r="103" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O103" s="9"/>
+    </row>
+    <row r="104" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O104" s="9"/>
+      <c r="R104" s="21"/>
+    </row>
+    <row r="105" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O105" s="9"/>
+    </row>
+    <row r="106" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O106" s="9"/>
+    </row>
+    <row r="107" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O107" s="9"/>
+    </row>
+    <row r="108" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O108" s="9"/>
+    </row>
+    <row r="109" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O109" s="9"/>
+    </row>
+    <row r="110" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O110" s="9"/>
+    </row>
+    <row r="111" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O111" s="9"/>
+    </row>
+    <row r="112" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O112" s="9"/>
+    </row>
+    <row r="113" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O113" s="9"/>
+    </row>
+    <row r="114" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O114" s="9"/>
+    </row>
+    <row r="115" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O115" s="9"/>
+    </row>
+    <row r="116" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O116" s="9"/>
+      <c r="R116" s="21"/>
+    </row>
+    <row r="117" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O117" s="9"/>
+    </row>
+    <row r="118" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O118" s="9"/>
+    </row>
+    <row r="119" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O119" s="9"/>
+    </row>
+    <row r="120" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O120" s="9"/>
+    </row>
+    <row r="121" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O121" s="9"/>
+    </row>
+    <row r="122" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O122" s="9"/>
+    </row>
+    <row r="123" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O123" s="9"/>
+    </row>
+    <row r="124" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O124" s="9"/>
+    </row>
+    <row r="125" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O125" s="9"/>
+    </row>
+    <row r="126" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O126" s="9"/>
+    </row>
+    <row r="127" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O127" s="22"/>
+    </row>
+    <row r="128" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O128" s="22"/>
+      <c r="R128" s="21"/>
+    </row>
+    <row r="129" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O129" s="22"/>
+    </row>
+    <row r="130" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O130" s="22"/>
+    </row>
+    <row r="131" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O131" s="22"/>
+    </row>
+    <row r="132" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O132" s="22"/>
+    </row>
+    <row r="133" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O133" s="22"/>
+    </row>
+    <row r="134" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O134" s="22"/>
+    </row>
+    <row r="135" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O135" s="22"/>
+    </row>
+    <row r="136" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O136" s="22"/>
+    </row>
+    <row r="137" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O137" s="22"/>
+    </row>
+    <row r="138" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O138" s="22"/>
+    </row>
+    <row r="139" spans="15:18" ht="14.1" customHeight="1">
+      <c r="O139" s="22"/>
+    </row>
+    <row r="140" spans="15:18" ht="14.1" customHeight="1">
+      <c r="R140" s="21"/>
+    </row>
+    <row r="141" spans="15:18" ht="14.1" customHeight="1"/>
+    <row r="142" spans="15:18" ht="14.1" customHeight="1"/>
+    <row r="143" spans="15:18" ht="14.1" customHeight="1"/>
+    <row r="144" spans="15:18" ht="14.1" customHeight="1"/>
+    <row r="145" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="146" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="147" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="148" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="149" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="150" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="151" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="152" spans="18:18" ht="14.1" customHeight="1">
+      <c r="R152" s="21"/>
+    </row>
+    <row r="153" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="154" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="155" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="156" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="157" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="158" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="159" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="160" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="161" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="162" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="163" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="164" spans="18:18" ht="14.1" customHeight="1">
+      <c r="R164" s="21"/>
+    </row>
+    <row r="165" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="166" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="167" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="168" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="169" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="170" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="171" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="172" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="173" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="174" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="175" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="176" spans="18:18" ht="14.1" customHeight="1"/>
+    <row r="177" ht="14.1" customHeight="1"/>
+    <row r="178" ht="14.1" customHeight="1"/>
+    <row r="179" ht="14.1" customHeight="1"/>
+    <row r="180" ht="14.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="model4(1)" sheetId="9" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model4(1)'!$P$1:$P$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'model4(1)&amp;CCI_per_day'!$P$1:$P$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model4(1)&amp;CCI_per_month'!$V$1:$V$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'model4(3)&amp;CCI_per_day'!$P$1:$P$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'model4(3)turnover&amp;CCI_per_day'!$R$1:$R$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model4(1)'!$P$1:$P$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'model4(1)&amp;CCI_per_day'!$P$1:$P$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model4(1)&amp;CCI_per_month'!$V$1:$V$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'model4(3)&amp;CCI_per_day'!$P$1:$P$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'model4(3)turnover&amp;CCI_per_day'!$R$1:$R$23</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model4(1)'!K1,0,0,COUNTA('model4(1)'!K:K)-1)</definedName>
     <definedName name="金额" localSheetId="2">OFFSET('model4(1)&amp;CCI_per_day'!K1,0,0,COUNTA('model4(1)&amp;CCI_per_day'!K:K)-1)</definedName>
     <definedName name="金额" localSheetId="1">OFFSET('model4(1)&amp;CCI_per_month'!K1,0,0,COUNTA('model4(1)&amp;CCI_per_month'!K:K)-1)</definedName>
@@ -338,7 +338,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -381,7 +381,6 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="13" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -986,11 +985,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="526964992"/>
-        <c:axId val="604939008"/>
+        <c:axId val="500089600"/>
+        <c:axId val="500091136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="526964992"/>
+        <c:axId val="500089600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,14 +1032,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604939008"/>
+        <c:crossAx val="500091136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="604939008"/>
+        <c:axId val="500091136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1090,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526964992"/>
+        <c:crossAx val="500089600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1312,8 +1311,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="647176960"/>
-        <c:axId val="647175168"/>
+        <c:axId val="550684160"/>
+        <c:axId val="550682624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1459,11 +1458,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="647172096"/>
-        <c:axId val="647173632"/>
+        <c:axId val="550679296"/>
+        <c:axId val="550680832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="647172096"/>
+        <c:axId val="550679296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1506,14 +1505,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647173632"/>
+        <c:crossAx val="550680832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="647173632"/>
+        <c:axId val="550680832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,12 +1563,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647172096"/>
+        <c:crossAx val="550679296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="647175168"/>
+        <c:axId val="550682624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1606,12 +1605,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647176960"/>
+        <c:crossAx val="550684160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="647176960"/>
+        <c:axId val="550684160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1620,7 +1619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="647175168"/>
+        <c:crossAx val="550682624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1813,8 +1812,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="635181312"/>
-        <c:axId val="635179392"/>
+        <c:axId val="548736384"/>
+        <c:axId val="548734848"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1960,11 +1959,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635097856"/>
-        <c:axId val="635099776"/>
+        <c:axId val="520579328"/>
+        <c:axId val="548733312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="635097856"/>
+        <c:axId val="520579328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,14 +2006,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635099776"/>
+        <c:crossAx val="548733312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="635099776"/>
+        <c:axId val="548733312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,12 +2064,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635097856"/>
+        <c:crossAx val="520579328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="635179392"/>
+        <c:axId val="548734848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2107,12 +2106,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635181312"/>
+        <c:crossAx val="548736384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="635181312"/>
+        <c:axId val="548736384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635179392"/>
+        <c:crossAx val="548734848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2690,11 +2689,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="637225984"/>
-        <c:axId val="642319488"/>
+        <c:axId val="674164736"/>
+        <c:axId val="674167808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="637225984"/>
+        <c:axId val="674164736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2737,14 +2736,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642319488"/>
+        <c:crossAx val="674167808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="642319488"/>
+        <c:axId val="674167808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2795,7 +2794,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637225984"/>
+        <c:crossAx val="674164736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3016,8 +3015,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="703698432"/>
-        <c:axId val="703696896"/>
+        <c:axId val="537332352"/>
+        <c:axId val="537330816"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3163,11 +3162,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="702263680"/>
-        <c:axId val="702265600"/>
+        <c:axId val="675815424"/>
+        <c:axId val="675818880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="702263680"/>
+        <c:axId val="675815424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3210,14 +3209,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702265600"/>
+        <c:crossAx val="675818880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="702265600"/>
+        <c:axId val="675818880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3268,12 +3267,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702263680"/>
+        <c:crossAx val="675815424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="703696896"/>
+        <c:axId val="537330816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3310,12 +3309,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="703698432"/>
+        <c:crossAx val="537332352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="703698432"/>
+        <c:axId val="537332352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3324,7 +3323,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="703696896"/>
+        <c:crossAx val="537330816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3417,7 +3416,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3894,11 +3892,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="641979520"/>
-        <c:axId val="641981056"/>
+        <c:axId val="537347968"/>
+        <c:axId val="537349504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="641979520"/>
+        <c:axId val="537347968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3941,14 +3939,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641981056"/>
+        <c:crossAx val="537349504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="641981056"/>
+        <c:axId val="537349504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3999,7 +3997,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641979520"/>
+        <c:crossAx val="537347968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4013,7 +4011,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4221,8 +4218,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="642336640"/>
-        <c:axId val="642335104"/>
+        <c:axId val="537365120"/>
+        <c:axId val="537363584"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4368,11 +4365,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="642331776"/>
-        <c:axId val="642333312"/>
+        <c:axId val="537360256"/>
+        <c:axId val="537361792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="642331776"/>
+        <c:axId val="537360256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4415,14 +4412,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642333312"/>
+        <c:crossAx val="537361792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="642333312"/>
+        <c:axId val="537361792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4473,12 +4470,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642331776"/>
+        <c:crossAx val="537360256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="642335104"/>
+        <c:axId val="537363584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4515,12 +4512,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642336640"/>
+        <c:crossAx val="537365120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="642336640"/>
+        <c:axId val="537365120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4529,7 +4526,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="642335104"/>
+        <c:crossAx val="537363584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4622,7 +4619,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5099,11 +5095,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="642368256"/>
-        <c:axId val="642369792"/>
+        <c:axId val="548787712"/>
+        <c:axId val="548789248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="642368256"/>
+        <c:axId val="548787712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5146,14 +5142,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642369792"/>
+        <c:crossAx val="548789248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="642369792"/>
+        <c:axId val="548789248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5204,7 +5200,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642368256"/>
+        <c:crossAx val="548787712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5218,7 +5214,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5426,8 +5421,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="642770048"/>
-        <c:axId val="642383232"/>
+        <c:axId val="550639488"/>
+        <c:axId val="550637952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5573,11 +5568,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="642380160"/>
-        <c:axId val="642381696"/>
+        <c:axId val="550634624"/>
+        <c:axId val="550636160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="642380160"/>
+        <c:axId val="550634624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5620,14 +5615,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642381696"/>
+        <c:crossAx val="550636160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="642381696"/>
+        <c:axId val="550636160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5678,12 +5673,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642380160"/>
+        <c:crossAx val="550634624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="642383232"/>
+        <c:axId val="550637952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5720,12 +5715,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642770048"/>
+        <c:crossAx val="550639488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="642770048"/>
+        <c:axId val="550639488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5734,7 +5729,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="642383232"/>
+        <c:crossAx val="550637952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6304,11 +6299,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="643084672"/>
-        <c:axId val="643086208"/>
+        <c:axId val="550659200"/>
+        <c:axId val="550660736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="643084672"/>
+        <c:axId val="550659200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6351,14 +6346,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="643086208"/>
+        <c:crossAx val="550660736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="643086208"/>
+        <c:axId val="550660736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6409,7 +6404,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="643084672"/>
+        <c:crossAx val="550659200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6502,8 +6497,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6534,8 +6529,8 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6571,8 +6566,8 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6603,8 +6598,8 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6640,8 +6635,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6672,8 +6667,8 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6709,8 +6704,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6741,8 +6736,8 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6778,8 +6773,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6810,8 +6805,8 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23205,10 +23200,10 @@
             <v>5555987.6610887097</v>
           </cell>
           <cell r="N312">
-            <v>0</v>
+            <v>0.69499999284744263</v>
           </cell>
           <cell r="O312">
-            <v>0</v>
+            <v>0.67799997329711914</v>
           </cell>
           <cell r="P312">
             <v>0.6993333101272583</v>
@@ -23227,6 +23222,801 @@
           </cell>
           <cell r="U312">
             <v>-112.42427728939072</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="A313">
+            <v>44844</v>
+          </cell>
+          <cell r="B313">
+            <v>0.69499999284744263</v>
+          </cell>
+          <cell r="C313">
+            <v>0.69499999284744263</v>
+          </cell>
+          <cell r="D313">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="E313">
+            <v>0.67900002002716064</v>
+          </cell>
+          <cell r="F313">
+            <v>2245002</v>
+          </cell>
+          <cell r="G313">
+            <v>1540.2440185546875</v>
+          </cell>
+          <cell r="H313">
+            <v>311</v>
+          </cell>
+          <cell r="I313">
+            <v>5545341.4049437298</v>
+          </cell>
+          <cell r="N313">
+            <v>0.69499999284744263</v>
+          </cell>
+          <cell r="O313">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P313">
+            <v>0.6839999953905741</v>
+          </cell>
+          <cell r="Q313">
+            <v>0.71971427826654344</v>
+          </cell>
+          <cell r="R313">
+            <v>-3.5714282875969339E-2</v>
+          </cell>
+          <cell r="S313">
+            <v>1.4149665021571991E-2</v>
+          </cell>
+          <cell r="T313">
+            <v>2.1224497532357987E-4</v>
+          </cell>
+          <cell r="U313">
+            <v>-168.26915606139005</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="A314">
+            <v>44845</v>
+          </cell>
+          <cell r="B314">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="C314">
+            <v>0.68599998950958252</v>
+          </cell>
+          <cell r="D314">
+            <v>0.68000000715255737</v>
+          </cell>
+          <cell r="E314">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="F314">
+            <v>1981100</v>
+          </cell>
+          <cell r="G314">
+            <v>1354.720947265625</v>
+          </cell>
+          <cell r="H314">
+            <v>312</v>
+          </cell>
+          <cell r="I314">
+            <v>5533917.554286859</v>
+          </cell>
+          <cell r="N314">
+            <v>0.69499999284744263</v>
+          </cell>
+          <cell r="O314">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P314">
+            <v>0.68333333730697632</v>
+          </cell>
+          <cell r="Q314">
+            <v>0.71419046890167959</v>
+          </cell>
+          <cell r="R314">
+            <v>-3.0857131594703269E-2</v>
+          </cell>
+          <cell r="S314">
+            <v>1.3095242636544371E-2</v>
+          </cell>
+          <cell r="T314">
+            <v>1.9642863954816555E-4</v>
+          </cell>
+          <cell r="U314">
+            <v>-157.09079727723159</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="A315">
+            <v>44846</v>
+          </cell>
+          <cell r="B315">
+            <v>0.68199998140335083</v>
+          </cell>
+          <cell r="C315">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="D315">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="E315">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="F315">
+            <v>3683321</v>
+          </cell>
+          <cell r="G315">
+            <v>2556.885009765625</v>
+          </cell>
+          <cell r="H315">
+            <v>313</v>
+          </cell>
+          <cell r="I315">
+            <v>5528005.1052316297</v>
+          </cell>
+          <cell r="N315">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="O315">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P315">
+            <v>0.6940000057220459</v>
+          </cell>
+          <cell r="Q315">
+            <v>0.71069046996888663</v>
+          </cell>
+          <cell r="R315">
+            <v>-1.669046424684073E-2</v>
+          </cell>
+          <cell r="S315">
+            <v>1.2119049117678693E-2</v>
+          </cell>
+          <cell r="T315">
+            <v>1.8178573676518039E-4</v>
+          </cell>
+          <cell r="U315">
+            <v>-91.813937351974118</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="A316">
+            <v>44847</v>
+          </cell>
+          <cell r="B316">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="C316">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="D316">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="E316">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="F316">
+            <v>2085700</v>
+          </cell>
+          <cell r="G316">
+            <v>1470.1500244140625</v>
+          </cell>
+          <cell r="H316">
+            <v>314</v>
+          </cell>
+          <cell r="I316">
+            <v>5517042.3501194268</v>
+          </cell>
+          <cell r="N316">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="O316">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P316">
+            <v>0.70866668224334717</v>
+          </cell>
+          <cell r="Q316">
+            <v>0.70897618645713456</v>
+          </cell>
+          <cell r="R316">
+            <v>-3.0950421378739268E-4</v>
+          </cell>
+          <cell r="S316">
+            <v>1.0792514499352868E-2</v>
+          </cell>
+          <cell r="T316">
+            <v>1.61887717490293E-4</v>
+          </cell>
+          <cell r="U316">
+            <v>-1.9118449415778005</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="A317">
+            <v>44848</v>
+          </cell>
+          <cell r="B317">
+            <v>0.70099997520446777</v>
+          </cell>
+          <cell r="C317">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="D317">
+            <v>0.70099997520446777</v>
+          </cell>
+          <cell r="E317">
+            <v>0.72500002384185791</v>
+          </cell>
+          <cell r="F317">
+            <v>2803100</v>
+          </cell>
+          <cell r="G317">
+            <v>2006.97998046875</v>
+          </cell>
+          <cell r="H317">
+            <v>315</v>
+          </cell>
+          <cell r="I317">
+            <v>5508426.6601190474</v>
+          </cell>
+          <cell r="N317">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="O317">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P317">
+            <v>0.71799999475479126</v>
+          </cell>
+          <cell r="Q317">
+            <v>0.70821428157034383</v>
+          </cell>
+          <cell r="R317">
+            <v>9.785713184447431E-3</v>
+          </cell>
+          <cell r="S317">
+            <v>1.0312925390645726E-2</v>
+          </cell>
+          <cell r="T317">
+            <v>1.5469388085968588E-4</v>
+          </cell>
+          <cell r="U317">
+            <v>63.258566725877806</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="A318">
+            <v>44851</v>
+          </cell>
+          <cell r="B318">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="C318">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="D318">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="E318">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="F318">
+            <v>3419204</v>
+          </cell>
+          <cell r="G318">
+            <v>2482.27392578125</v>
+          </cell>
+          <cell r="H318">
+            <v>316</v>
+          </cell>
+          <cell r="I318">
+            <v>5501815.1960047465</v>
+          </cell>
+          <cell r="N318">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="O318">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P318">
+            <v>0.72566666205724084</v>
+          </cell>
+          <cell r="Q318">
+            <v>0.70788094685191205</v>
+          </cell>
+          <cell r="R318">
+            <v>1.7785715205328789E-2</v>
+          </cell>
+          <cell r="S318">
+            <v>1.0122448408684743E-2</v>
+          </cell>
+          <cell r="T318">
+            <v>1.5183672613027115E-4</v>
+          </cell>
+          <cell r="U318">
+            <v>117.13710943733865</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="A319">
+            <v>44852</v>
+          </cell>
+          <cell r="B319">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="C319">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="D319">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="E319">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="F319">
+            <v>2292600</v>
+          </cell>
+          <cell r="G319">
+            <v>1672.51904296875</v>
+          </cell>
+          <cell r="H319">
+            <v>317</v>
+          </cell>
+          <cell r="I319">
+            <v>5491691.4887618292</v>
+          </cell>
+          <cell r="N319">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="O319">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P319">
+            <v>0.73366665840148926</v>
+          </cell>
+          <cell r="Q319">
+            <v>0.70871427939051679</v>
+          </cell>
+          <cell r="R319">
+            <v>2.495237901097247E-2</v>
+          </cell>
+          <cell r="S319">
+            <v>1.0605438023197395E-2</v>
+          </cell>
+          <cell r="T319">
+            <v>1.5908157034796093E-4</v>
+          </cell>
+          <cell r="U319">
+            <v>156.85273257231398</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="A320">
+            <v>44853</v>
+          </cell>
+          <cell r="B320">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="C320">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="D320">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="E320">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="F320">
+            <v>4453704</v>
+          </cell>
+          <cell r="G320">
+            <v>3243.928955078125</v>
+          </cell>
+          <cell r="H320">
+            <v>318</v>
+          </cell>
+          <cell r="I320">
+            <v>5488427.3771619499</v>
+          </cell>
+          <cell r="N320">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="O320">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P320">
+            <v>0.72733332713445031</v>
+          </cell>
+          <cell r="Q320">
+            <v>0.70947618427730752</v>
+          </cell>
+          <cell r="R320">
+            <v>1.7857142857142794E-2</v>
+          </cell>
+          <cell r="S320">
+            <v>1.121768335095878E-2</v>
+          </cell>
+          <cell r="T320">
+            <v>1.6826525026438169E-4</v>
+          </cell>
+          <cell r="U320">
+            <v>106.12495942617562</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="A321">
+            <v>44854</v>
+          </cell>
+          <cell r="B321">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="C321">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="D321">
+            <v>0.70899999141693115</v>
+          </cell>
+          <cell r="E321">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="F321">
+            <v>5247100</v>
+          </cell>
+          <cell r="G321">
+            <v>3749.001953125</v>
+          </cell>
+          <cell r="H321">
+            <v>319</v>
+          </cell>
+          <cell r="I321">
+            <v>5487670.8650078373</v>
+          </cell>
+          <cell r="N321">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="O321">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P321">
+            <v>0.71666665871938073</v>
+          </cell>
+          <cell r="Q321">
+            <v>0.71002380337033955</v>
+          </cell>
+          <cell r="R321">
+            <v>6.6428553490411879E-3</v>
+          </cell>
+          <cell r="S321">
+            <v>1.1591834275900921E-2</v>
+          </cell>
+          <cell r="T321">
+            <v>1.7387751413851382E-4</v>
+          </cell>
+          <cell r="U321">
+            <v>38.204223139223025</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="A322">
+            <v>44855</v>
+          </cell>
+          <cell r="B322">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="C322">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="D322">
+            <v>0.71200001239776611</v>
+          </cell>
+          <cell r="E322">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="F322">
+            <v>3382502</v>
+          </cell>
+          <cell r="G322">
+            <v>2419.902099609375</v>
+          </cell>
+          <cell r="H322">
+            <v>320</v>
+          </cell>
+          <cell r="I322">
+            <v>5481092.2123046871</v>
+          </cell>
+          <cell r="N322">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="O322">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P322">
+            <v>0.71466666460037231</v>
+          </cell>
+          <cell r="Q322">
+            <v>0.71023809058325627</v>
+          </cell>
+          <cell r="R322">
+            <v>4.4285740171160493E-3</v>
+          </cell>
+          <cell r="S322">
+            <v>1.1775509029829601E-2</v>
+          </cell>
+          <cell r="T322">
+            <v>1.7663263544744401E-4</v>
+          </cell>
+          <cell r="U322">
+            <v>25.072229749036072</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="A323">
+            <v>44858</v>
+          </cell>
+          <cell r="B323">
+            <v>0.71399998664855957</v>
+          </cell>
+          <cell r="C323">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="D323">
+            <v>0.69599997997283936</v>
+          </cell>
+          <cell r="E323">
+            <v>0.70300000905990601</v>
+          </cell>
+          <cell r="F323">
+            <v>2591900</v>
+          </cell>
+          <cell r="G323">
+            <v>1839.9659423828125</v>
+          </cell>
+          <cell r="H323">
+            <v>321</v>
+          </cell>
+          <cell r="I323">
+            <v>5472091.6135124611</v>
+          </cell>
+          <cell r="N323">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="O323">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P323">
+            <v>0.7066666682561239</v>
+          </cell>
+          <cell r="Q323">
+            <v>0.70945237647919424</v>
+          </cell>
+          <cell r="R323">
+            <v>-2.7857082230703378E-3</v>
+          </cell>
+          <cell r="S323">
+            <v>1.1530608546977152E-2</v>
+          </cell>
+          <cell r="T323">
+            <v>1.7295912820465727E-4</v>
+          </cell>
+          <cell r="U323">
+            <v>-16.106164803132529</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="A324">
+            <v>44859</v>
+          </cell>
+          <cell r="B324">
+            <v>0.69800001382827759</v>
+          </cell>
+          <cell r="C324">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="D324">
+            <v>0.69099998474121094</v>
+          </cell>
+          <cell r="E324">
+            <v>0.69800001382827759</v>
+          </cell>
+          <cell r="F324">
+            <v>5515601</v>
+          </cell>
+          <cell r="G324">
+            <v>3848.76708984375</v>
+          </cell>
+          <cell r="H324">
+            <v>322</v>
+          </cell>
+          <cell r="I324">
+            <v>5472226.7358307457</v>
+          </cell>
+          <cell r="N324">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="O324">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P324">
+            <v>0.69866667191187537</v>
+          </cell>
+          <cell r="Q324">
+            <v>0.70859523472331809</v>
+          </cell>
+          <cell r="R324">
+            <v>-9.9285628114427205E-3</v>
+          </cell>
+          <cell r="S324">
+            <v>1.2224488517865053E-2</v>
+          </cell>
+          <cell r="T324">
+            <v>1.833673277679758E-4</v>
+          </cell>
+          <cell r="U324">
+            <v>-54.145757220205809</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="A325">
+            <v>44860</v>
+          </cell>
+          <cell r="B325">
+            <v>0.70300000905990601</v>
+          </cell>
+          <cell r="C325">
+            <v>0.71799999475479126</v>
+          </cell>
+          <cell r="D325">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="E325">
+            <v>0.71299999952316284</v>
+          </cell>
+          <cell r="F325">
+            <v>2935600</v>
+          </cell>
+          <cell r="G325">
+            <v>2079.35595703125</v>
+          </cell>
+          <cell r="H325">
+            <v>323</v>
+          </cell>
+          <cell r="I325">
+            <v>5464373.402283282</v>
+          </cell>
+          <cell r="N325">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="O325">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P325">
+            <v>0.71100000540415442</v>
+          </cell>
+          <cell r="Q325">
+            <v>0.70869047443071975</v>
+          </cell>
+          <cell r="R325">
+            <v>2.3095309734346703E-3</v>
+          </cell>
+          <cell r="S325">
+            <v>1.2309521436691293E-2</v>
+          </cell>
+          <cell r="T325">
+            <v>1.846428215503694E-4</v>
+          </cell>
+          <cell r="U325">
+            <v>12.508100526424444</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="A326">
+            <v>44861</v>
+          </cell>
+          <cell r="B326">
+            <v>0.71399998664855957</v>
+          </cell>
+          <cell r="C326">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="D326">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="E326">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="F326">
+            <v>3527200</v>
+          </cell>
+          <cell r="G326">
+            <v>2511.2080078125</v>
+          </cell>
+          <cell r="H326">
+            <v>324</v>
+          </cell>
+          <cell r="I326">
+            <v>5458394.4720293209</v>
+          </cell>
+          <cell r="N326">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="O326">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P326">
+            <v>0.7096666693687439</v>
+          </cell>
+          <cell r="Q326">
+            <v>0.70942857151939742</v>
+          </cell>
+          <cell r="R326">
+            <v>2.3809784934647471E-4</v>
+          </cell>
+          <cell r="S326">
+            <v>1.1605438326491817E-2</v>
+          </cell>
+          <cell r="T326">
+            <v>1.7408157489737724E-4</v>
+          </cell>
+          <cell r="U326">
+            <v>1.3677372202476665</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="A327">
+            <v>44862</v>
+          </cell>
+          <cell r="B327">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="C327">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="D327">
+            <v>0.6809999942779541</v>
+          </cell>
+          <cell r="E327">
+            <v>0.68300002813339233</v>
+          </cell>
+          <cell r="F327">
+            <v>3020700</v>
+          </cell>
+          <cell r="G327">
+            <v>2104.006103515625</v>
+          </cell>
+          <cell r="H327">
+            <v>325</v>
+          </cell>
+          <cell r="I327">
+            <v>5450893.8736538459</v>
+          </cell>
+          <cell r="N327">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="O327">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P327">
+            <v>0.68866668144861853</v>
+          </cell>
+          <cell r="Q327">
+            <v>0.7097619062378292</v>
+          </cell>
+          <cell r="R327">
+            <v>-2.1095224789210665E-2</v>
+          </cell>
+          <cell r="S327">
+            <v>1.1238089629582004E-2</v>
+          </cell>
+          <cell r="T327">
+            <v>1.6857134444373006E-4</v>
+          </cell>
+          <cell r="U327">
+            <v>-125.14122645710022</v>
           </cell>
         </row>
       </sheetData>
@@ -23254,7 +24044,9 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="B2"/>
+          <cell r="B2">
+            <v>0</v>
+          </cell>
           <cell r="C2" t="str">
             <v>PE</v>
           </cell>
@@ -27770,7 +28562,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG180"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27810,16 +28602,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -27840,10 +28632,10 @@
       <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="28" t="s">
         <v>15</v>
       </c>
       <c r="N1" s="6"/>
@@ -27916,7 +28708,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="9"/>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="29" t="s">
         <v>4</v>
       </c>
       <c r="Q3" s="16" t="s">
@@ -27931,7 +28723,7 @@
       <c r="T3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="V3" s="16" t="s">
@@ -27990,7 +28782,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="9"/>
-      <c r="P4" s="25">
+      <c r="P4" s="24">
         <v>44561</v>
       </c>
       <c r="Q4" s="18">
@@ -28662,7 +29454,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:16" ht="14.1" customHeight="1">
+    <row r="17" spans="1:13" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -28712,7 +29504,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1">
+    <row r="18" spans="1:13" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -28761,410 +29553,6 @@
         <v>0</v>
       </c>
       <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M22" s="9"/>
-      <c r="P22" s="21"/>
-    </row>
-    <row r="23" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M32" s="9"/>
-    </row>
-    <row r="33" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M33" s="9"/>
-      <c r="P33" s="21"/>
-    </row>
-    <row r="34" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M34" s="9"/>
-    </row>
-    <row r="35" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M35" s="9"/>
-    </row>
-    <row r="36" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M36" s="9"/>
-    </row>
-    <row r="37" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M37" s="9"/>
-    </row>
-    <row r="38" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M38" s="9"/>
-    </row>
-    <row r="39" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M39" s="9"/>
-    </row>
-    <row r="40" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M40" s="9"/>
-    </row>
-    <row r="41" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M41" s="9"/>
-    </row>
-    <row r="42" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M42" s="9"/>
-    </row>
-    <row r="43" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M44" s="9"/>
-    </row>
-    <row r="45" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M45" s="9"/>
-    </row>
-    <row r="46" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M46" s="9"/>
-    </row>
-    <row r="47" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="48" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="49" ht="14.1" customHeight="1"/>
-    <row r="50" ht="14.1" customHeight="1"/>
-    <row r="51" ht="14.1" customHeight="1"/>
-    <row r="52" ht="14.1" customHeight="1"/>
-    <row r="53" ht="14.1" customHeight="1"/>
-    <row r="54" ht="14.1" customHeight="1"/>
-    <row r="55" ht="14.1" customHeight="1"/>
-    <row r="56" ht="14.1" customHeight="1"/>
-    <row r="57" ht="14.1" customHeight="1"/>
-    <row r="58" ht="14.1" customHeight="1"/>
-    <row r="59" ht="14.1" customHeight="1"/>
-    <row r="60" ht="14.1" customHeight="1"/>
-    <row r="61" ht="14.1" customHeight="1"/>
-    <row r="62" ht="14.1" customHeight="1"/>
-    <row r="63" ht="14.1" customHeight="1"/>
-    <row r="64" ht="14.1" customHeight="1"/>
-    <row r="65" ht="14.1" customHeight="1"/>
-    <row r="66" ht="14.1" customHeight="1"/>
-    <row r="67" ht="14.1" customHeight="1"/>
-    <row r="68" ht="14.1" customHeight="1"/>
-    <row r="69" ht="14.1" customHeight="1"/>
-    <row r="70" ht="14.1" customHeight="1"/>
-    <row r="71" ht="14.1" customHeight="1"/>
-    <row r="72" ht="14.1" customHeight="1"/>
-    <row r="73" ht="14.1" customHeight="1"/>
-    <row r="74" ht="14.1" customHeight="1"/>
-    <row r="75" ht="14.1" customHeight="1"/>
-    <row r="76" ht="14.1" customHeight="1"/>
-    <row r="77" ht="14.1" customHeight="1"/>
-    <row r="78" ht="14.1" customHeight="1"/>
-    <row r="79" ht="14.1" customHeight="1"/>
-    <row r="80" ht="14.1" customHeight="1"/>
-    <row r="81" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="82" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="83" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="84" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="85" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="86" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="87" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="88" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="89" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="90" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="91" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="92" spans="13:16" ht="14.1" customHeight="1">
-      <c r="P92" s="21"/>
-    </row>
-    <row r="93" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M93" s="9"/>
-    </row>
-    <row r="94" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M94" s="9"/>
-    </row>
-    <row r="95" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M95" s="9"/>
-    </row>
-    <row r="96" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M96" s="9"/>
-    </row>
-    <row r="97" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M97" s="9"/>
-    </row>
-    <row r="98" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M98" s="9"/>
-    </row>
-    <row r="99" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M99" s="9"/>
-    </row>
-    <row r="100" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M100" s="9"/>
-    </row>
-    <row r="101" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M101" s="9"/>
-    </row>
-    <row r="102" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M102" s="9"/>
-    </row>
-    <row r="103" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M103" s="9"/>
-    </row>
-    <row r="104" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M104" s="9"/>
-      <c r="P104" s="21"/>
-    </row>
-    <row r="105" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M105" s="9"/>
-    </row>
-    <row r="106" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M106" s="9"/>
-    </row>
-    <row r="107" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M107" s="9"/>
-    </row>
-    <row r="108" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M108" s="9"/>
-    </row>
-    <row r="109" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M109" s="9"/>
-    </row>
-    <row r="110" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M110" s="9"/>
-    </row>
-    <row r="111" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M111" s="9"/>
-    </row>
-    <row r="112" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M112" s="9"/>
-    </row>
-    <row r="113" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M113" s="9"/>
-    </row>
-    <row r="114" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M114" s="9"/>
-    </row>
-    <row r="115" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M115" s="9"/>
-    </row>
-    <row r="116" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M116" s="9"/>
-      <c r="P116" s="21"/>
-    </row>
-    <row r="117" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M117" s="9"/>
-    </row>
-    <row r="118" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M118" s="9"/>
-    </row>
-    <row r="119" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M119" s="9"/>
-    </row>
-    <row r="120" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M120" s="9"/>
-    </row>
-    <row r="121" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M121" s="9"/>
-    </row>
-    <row r="122" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M122" s="9"/>
-    </row>
-    <row r="123" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M123" s="9"/>
-    </row>
-    <row r="124" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M124" s="9"/>
-    </row>
-    <row r="125" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M125" s="9"/>
-    </row>
-    <row r="126" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M126" s="9"/>
-    </row>
-    <row r="127" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M127" s="9"/>
-    </row>
-    <row r="128" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M128" s="9"/>
-      <c r="P128" s="21"/>
-    </row>
-    <row r="129" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M129" s="9"/>
-    </row>
-    <row r="130" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M130" s="9"/>
-    </row>
-    <row r="131" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M131" s="9"/>
-    </row>
-    <row r="132" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M132" s="9"/>
-    </row>
-    <row r="133" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M133" s="9"/>
-    </row>
-    <row r="134" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M134" s="9"/>
-    </row>
-    <row r="135" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M135" s="9"/>
-    </row>
-    <row r="136" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M136" s="9"/>
-    </row>
-    <row r="137" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M137" s="9"/>
-    </row>
-    <row r="138" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M138" s="9"/>
-    </row>
-    <row r="139" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M139" s="9"/>
-    </row>
-    <row r="140" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M140" s="9"/>
-      <c r="P140" s="21"/>
-    </row>
-    <row r="141" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M141" s="9"/>
-    </row>
-    <row r="142" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M142" s="9"/>
-    </row>
-    <row r="143" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M143" s="9"/>
-    </row>
-    <row r="144" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M144" s="9"/>
-    </row>
-    <row r="145" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M145" s="9"/>
-    </row>
-    <row r="146" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M146" s="9"/>
-    </row>
-    <row r="147" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M147" s="9"/>
-    </row>
-    <row r="148" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M148" s="9"/>
-    </row>
-    <row r="149" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M149" s="9"/>
-    </row>
-    <row r="150" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M150" s="9"/>
-    </row>
-    <row r="151" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M151" s="9"/>
-    </row>
-    <row r="152" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M152" s="9"/>
-      <c r="P152" s="21"/>
-    </row>
-    <row r="153" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M153" s="9"/>
-    </row>
-    <row r="154" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M154" s="9"/>
-    </row>
-    <row r="155" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M155" s="9"/>
-    </row>
-    <row r="156" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M156" s="9"/>
-    </row>
-    <row r="157" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M157" s="9"/>
-    </row>
-    <row r="158" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M158" s="9"/>
-    </row>
-    <row r="159" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M159" s="9"/>
-    </row>
-    <row r="160" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M160" s="9"/>
-    </row>
-    <row r="161" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M161" s="9"/>
-    </row>
-    <row r="162" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M162" s="9"/>
-    </row>
-    <row r="163" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M163" s="9"/>
-    </row>
-    <row r="164" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M164" s="9"/>
-      <c r="P164" s="21"/>
-    </row>
-    <row r="165" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M165" s="9"/>
-    </row>
-    <row r="166" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M166" s="9"/>
-    </row>
-    <row r="167" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M167" s="9"/>
-    </row>
-    <row r="168" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M168" s="22"/>
-    </row>
-    <row r="169" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M169" s="22"/>
-    </row>
-    <row r="170" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M170" s="22"/>
-    </row>
-    <row r="171" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M171" s="22"/>
-    </row>
-    <row r="172" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M172" s="22"/>
-    </row>
-    <row r="173" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M173" s="22"/>
-    </row>
-    <row r="174" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M174" s="22"/>
-    </row>
-    <row r="175" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M175" s="22"/>
-    </row>
-    <row r="176" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M176" s="22"/>
-    </row>
-    <row r="177" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M177" s="22"/>
-    </row>
-    <row r="178" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M178" s="22"/>
-    </row>
-    <row r="179" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M179" s="22"/>
-    </row>
-    <row r="180" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M180" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -29182,7 +29570,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM180"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29222,16 +29610,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -29252,10 +29640,10 @@
       <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="28" t="s">
         <v>15</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -29304,12 +29692,12 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
       <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:39" ht="14.1" customHeight="1">
@@ -29359,23 +29747,23 @@
         <f>IF(E3&lt;0,L2-E3,L2)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="23">
         <f ca="1">MAX(VLOOKUP(A3,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A3,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.034</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="23">
         <f ca="1">MIN(VLOOKUP(A3,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A3,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.012</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="23">
         <f ca="1">(B3+M3+N3)/3</f>
         <v>1.0256666666666667</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
       <c r="S3" s="9"/>
-      <c r="V3" s="30" t="s">
+      <c r="V3" s="29" t="s">
         <v>4</v>
       </c>
       <c r="W3" s="16" t="s">
@@ -29390,7 +29778,7 @@
       <c r="Z3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="31" t="s">
+      <c r="AA3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="AB3" s="16" t="s">
@@ -29448,23 +29836,23 @@
         <f t="shared" ref="L4:L16" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="23">
         <f ca="1">MAX(VLOOKUP(A4,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A4,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.054</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="23">
         <f ca="1">MIN(VLOOKUP(A4,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A4,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.94</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="23">
         <f t="shared" ref="O4:O16" ca="1" si="8">(B4+M4+N4)/3</f>
         <v>1</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
       <c r="S4" s="9"/>
-      <c r="V4" s="25">
+      <c r="V4" s="24">
         <v>44561</v>
       </c>
       <c r="W4" s="18">
@@ -29553,21 +29941,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="23">
         <f ca="1">MAX(VLOOKUP(A5,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A5,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.0469999999999999</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="23">
         <f ca="1">MIN(VLOOKUP(A5,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A5,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.95699999999999996</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="23">
         <f t="shared" ca="1" si="8"/>
         <v>0.98999999999999988</v>
       </c>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
       <c r="S5" s="9"/>
       <c r="AE5" s="17"/>
       <c r="AF5" s="9"/>
@@ -29627,21 +30015,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="23">
         <f ca="1">MAX(VLOOKUP(A6,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A6,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.98799999999999999</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="23">
         <f ca="1">MIN(VLOOKUP(A6,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A6,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.93700000000000006</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="23">
         <f t="shared" ca="1" si="8"/>
         <v>0.96200000000000008</v>
       </c>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
       <c r="S6" s="9"/>
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
@@ -29699,21 +30087,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="23">
         <f ca="1">MAX(VLOOKUP(A7,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A7,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.0049999952316284</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="23">
         <f ca="1">MIN(VLOOKUP(A7,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A7,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.93900001049041748</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="23">
         <f t="shared" ca="1" si="8"/>
         <v>0.97899999221165979</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
       <c r="S7" s="9"/>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
@@ -29768,21 +30156,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="23">
         <f ca="1">MAX(VLOOKUP(A8,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A8,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.0219999551773071</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="23">
         <f ca="1">MIN(VLOOKUP(A8,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A8,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.98100000619888306</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="23">
         <f t="shared" ca="1" si="8"/>
         <v>1.0046666661898296</v>
       </c>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
       <c r="S8" s="9"/>
     </row>
     <row r="9" spans="1:39" ht="14.1" customHeight="1">
@@ -29833,21 +30221,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="23">
         <f ca="1">MAX(VLOOKUP(A9,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A9,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.034000039100647</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="23">
         <f ca="1">MIN(VLOOKUP(A9,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A9,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.97600001096725464</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="23">
         <f t="shared" ca="1" si="8"/>
         <v>1.0006666779518127</v>
       </c>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
       <c r="S9" s="9"/>
       <c r="AE9" s="17"/>
       <c r="AF9" s="9"/>
@@ -29901,21 +30289,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="23">
         <f ca="1">MAX(VLOOKUP(A10,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A10,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.99599999189376831</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="23">
         <f ca="1">MIN(VLOOKUP(A10,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A10,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.88499999046325684</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="23">
         <f t="shared" ca="1" si="8"/>
         <v>0.92399998505910241</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="9"/>
       <c r="AE10" s="17"/>
       <c r="AF10" s="9"/>
@@ -29969,21 +30357,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="23">
         <f ca="1">MAX(VLOOKUP(A11,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A11,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.91100001335144043</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="23">
         <f ca="1">MIN(VLOOKUP(A11,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A11,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.85000002384185791</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="23">
         <f t="shared" ca="1" si="8"/>
         <v>0.88100002209345496</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
       <c r="S11" s="9"/>
       <c r="AE11" s="17"/>
       <c r="AF11" s="9"/>
@@ -30037,21 +30425,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="23">
         <f ca="1">MAX(VLOOKUP(A12,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A12,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.88599997758865356</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="23">
         <f ca="1">MIN(VLOOKUP(A12,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A12,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.75</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="23">
         <f t="shared" ca="1" si="8"/>
         <v>0.80933332443237305</v>
       </c>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
       <c r="S12" s="9"/>
       <c r="AE12" s="17"/>
     </row>
@@ -30103,21 +30491,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="23">
         <f ca="1">MAX(VLOOKUP(A13,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A13,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.80199998617172241</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="23">
         <f ca="1">MIN(VLOOKUP(A13,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A13,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.65399998426437378</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="23">
         <f t="shared" ca="1" si="8"/>
         <v>0.7249999841054281</v>
       </c>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
       <c r="S13" s="9"/>
       <c r="AG13" s="10"/>
     </row>
@@ -30169,21 +30557,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="23">
         <f ca="1">MAX(VLOOKUP(A14,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A14,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.74800002574920654</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="23">
         <f ca="1">MIN(VLOOKUP(A14,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A14,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.68199998140335083</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="23">
         <f t="shared" ca="1" si="8"/>
         <v>0.72566666205724084</v>
       </c>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
       <c r="S14" s="9"/>
     </row>
     <row r="15" spans="1:39" ht="14.1" customHeight="1">
@@ -30234,21 +30622,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="23">
         <f ca="1">MAX(VLOOKUP(A15,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A15,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.86000001430511475</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N15" s="23">
         <f ca="1">MIN(VLOOKUP(A15,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A15,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.74400001764297485</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="23">
         <f t="shared" ca="1" si="8"/>
         <v>0.8163333535194397</v>
       </c>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
       <c r="S15" s="9"/>
     </row>
     <row r="16" spans="1:39" ht="14.1" customHeight="1">
@@ -30299,27 +30687,27 @@
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="23">
         <f ca="1">MAX(VLOOKUP(A16,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A16,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.85799998044967651</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="23">
         <f ca="1">MIN(VLOOKUP(A16,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A16,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.79900002479553223</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="23">
         <f t="shared" ca="1" si="8"/>
         <v>0.81933333476384484</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="23">
         <f ca="1">SUM(O3:O16)/14</f>
         <v>0.90447619064648954</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="23">
         <f ca="1">O16-P16</f>
         <v>-8.5142855882644697E-2</v>
       </c>
-      <c r="R16" s="24">
+      <c r="R16" s="23">
         <f ca="1">AVEDEV(O3:O16)</f>
         <v>9.2884351843879331E-2</v>
       </c>
@@ -30336,7 +30724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="14.1" customHeight="1">
+    <row r="17" spans="1:21" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -30384,27 +30772,27 @@
         <f t="shared" ref="L17:L18" ca="1" si="16">IF(E17&lt;0,L16-E17,L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="23">
         <f ca="1">MAX(VLOOKUP(A17,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A17,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.82700002193450928</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="23">
         <f ca="1">MIN(VLOOKUP(A17,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A17,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.7630000114440918</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="23">
         <f t="shared" ref="O17:O18" ca="1" si="17">(B17+M17+N17)/3</f>
         <v>0.78500000635782874</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="23">
         <f ca="1">SUM(O4:O17)/14</f>
         <v>0.88728571491014396</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="23">
         <f ca="1">O17-P17</f>
         <v>-0.10228570855231522</v>
       </c>
-      <c r="R17" s="24">
+      <c r="R17" s="23">
         <f ca="1">AVEDEV(O4:O17)</f>
         <v>9.2761902434485316E-2</v>
       </c>
@@ -30421,7 +30809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="14.1" customHeight="1">
+    <row r="18" spans="1:21" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -30469,27 +30857,27 @@
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="23">
         <f ca="1">MAX(VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A18,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.77399998903274536</v>
       </c>
-      <c r="N18" s="24">
+      <c r="N18" s="23">
         <f ca="1">MIN(VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A18,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.69599997997283936</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="23">
         <f t="shared" ca="1" si="17"/>
         <v>0.72199998299280799</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18" s="23">
         <f ca="1">SUM(O5:O18)/14</f>
         <v>0.86742857083820168</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="23">
         <f ca="1">O18-P18</f>
         <v>-0.1454285878453937</v>
       </c>
-      <c r="R18" s="24">
+      <c r="R18" s="23">
         <f ca="1">AVEDEV(O5:O18)</f>
         <v>9.561904966263543E-2</v>
       </c>
@@ -30506,357 +30894,6 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="14.1" customHeight="1"/>
-    <row r="20" spans="1:22" ht="14.1" customHeight="1"/>
-    <row r="21" spans="1:22" ht="14.1" customHeight="1"/>
-    <row r="22" spans="1:22" ht="14.1" customHeight="1">
-      <c r="V22" s="21"/>
-    </row>
-    <row r="23" spans="1:22" ht="14.1" customHeight="1"/>
-    <row r="24" spans="1:22" ht="14.1" customHeight="1"/>
-    <row r="25" spans="1:22" ht="14.1" customHeight="1"/>
-    <row r="26" spans="1:22" ht="14.1" customHeight="1"/>
-    <row r="27" spans="1:22" ht="14.1" customHeight="1"/>
-    <row r="28" spans="1:22" ht="14.1" customHeight="1"/>
-    <row r="29" spans="1:22" ht="14.1" customHeight="1"/>
-    <row r="30" spans="1:22" ht="14.1" customHeight="1"/>
-    <row r="31" spans="1:22" ht="14.1" customHeight="1"/>
-    <row r="32" spans="1:22" ht="14.1" customHeight="1"/>
-    <row r="33" spans="22:22" ht="14.1" customHeight="1">
-      <c r="V33" s="21"/>
-    </row>
-    <row r="34" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="35" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="36" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="37" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="38" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="39" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="40" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="41" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="42" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="43" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="44" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="45" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="46" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="47" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="48" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="49" spans="19:19" ht="14.1" customHeight="1"/>
-    <row r="50" spans="19:19" ht="14.1" customHeight="1"/>
-    <row r="51" spans="19:19" ht="14.1" customHeight="1"/>
-    <row r="52" spans="19:19" ht="14.1" customHeight="1"/>
-    <row r="53" spans="19:19" ht="14.1" customHeight="1"/>
-    <row r="54" spans="19:19" ht="14.1" customHeight="1"/>
-    <row r="55" spans="19:19" ht="14.1" customHeight="1"/>
-    <row r="56" spans="19:19" ht="14.1" customHeight="1"/>
-    <row r="57" spans="19:19" ht="14.1" customHeight="1"/>
-    <row r="58" spans="19:19" ht="14.1" customHeight="1"/>
-    <row r="59" spans="19:19" ht="14.1" customHeight="1"/>
-    <row r="60" spans="19:19" ht="14.1" customHeight="1"/>
-    <row r="61" spans="19:19" ht="14.1" customHeight="1"/>
-    <row r="62" spans="19:19" ht="14.1" customHeight="1">
-      <c r="S62" s="9"/>
-    </row>
-    <row r="63" spans="19:19" ht="14.1" customHeight="1">
-      <c r="S63" s="9"/>
-    </row>
-    <row r="64" spans="19:19" ht="14.1" customHeight="1">
-      <c r="S64" s="9"/>
-    </row>
-    <row r="65" spans="19:19" ht="14.1" customHeight="1">
-      <c r="S65" s="9"/>
-    </row>
-    <row r="66" spans="19:19" ht="14.1" customHeight="1">
-      <c r="S66" s="9"/>
-    </row>
-    <row r="67" spans="19:19" ht="14.1" customHeight="1">
-      <c r="S67" s="9"/>
-    </row>
-    <row r="68" spans="19:19" ht="14.1" customHeight="1">
-      <c r="S68" s="9"/>
-    </row>
-    <row r="69" spans="19:19" ht="14.1" customHeight="1">
-      <c r="S69" s="9"/>
-    </row>
-    <row r="70" spans="19:19" ht="14.1" customHeight="1">
-      <c r="S70" s="9"/>
-    </row>
-    <row r="71" spans="19:19" ht="14.1" customHeight="1">
-      <c r="S71" s="9"/>
-    </row>
-    <row r="72" spans="19:19" ht="14.1" customHeight="1">
-      <c r="S72" s="9"/>
-    </row>
-    <row r="73" spans="19:19" ht="14.1" customHeight="1">
-      <c r="S73" s="9"/>
-    </row>
-    <row r="74" spans="19:19" ht="14.1" customHeight="1">
-      <c r="S74" s="9"/>
-    </row>
-    <row r="75" spans="19:19" ht="14.1" customHeight="1">
-      <c r="S75" s="9"/>
-    </row>
-    <row r="76" spans="19:19" ht="14.1" customHeight="1">
-      <c r="S76" s="9"/>
-    </row>
-    <row r="77" spans="19:19" ht="14.1" customHeight="1">
-      <c r="S77" s="9"/>
-    </row>
-    <row r="78" spans="19:19" ht="14.1" customHeight="1">
-      <c r="S78" s="9"/>
-    </row>
-    <row r="79" spans="19:19" ht="14.1" customHeight="1">
-      <c r="S79" s="9"/>
-    </row>
-    <row r="80" spans="19:19" ht="14.1" customHeight="1">
-      <c r="S80" s="9"/>
-    </row>
-    <row r="81" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S81" s="9"/>
-    </row>
-    <row r="82" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S82" s="9"/>
-    </row>
-    <row r="83" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S83" s="9"/>
-    </row>
-    <row r="84" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S84" s="9"/>
-    </row>
-    <row r="85" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S85" s="9"/>
-    </row>
-    <row r="86" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S86" s="9"/>
-    </row>
-    <row r="87" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S87" s="9"/>
-    </row>
-    <row r="88" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S88" s="9"/>
-    </row>
-    <row r="89" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S89" s="9"/>
-    </row>
-    <row r="90" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S90" s="9"/>
-    </row>
-    <row r="91" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S91" s="9"/>
-    </row>
-    <row r="92" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S92" s="9"/>
-      <c r="V92" s="21"/>
-    </row>
-    <row r="93" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S93" s="9"/>
-    </row>
-    <row r="94" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S94" s="9"/>
-    </row>
-    <row r="95" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S95" s="9"/>
-    </row>
-    <row r="96" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S96" s="9"/>
-    </row>
-    <row r="97" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S97" s="9"/>
-    </row>
-    <row r="98" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S98" s="9"/>
-    </row>
-    <row r="99" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S99" s="9"/>
-    </row>
-    <row r="100" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S100" s="9"/>
-    </row>
-    <row r="101" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S101" s="9"/>
-    </row>
-    <row r="102" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S102" s="9"/>
-    </row>
-    <row r="103" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S103" s="9"/>
-    </row>
-    <row r="104" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S104" s="9"/>
-      <c r="V104" s="21"/>
-    </row>
-    <row r="105" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S105" s="9"/>
-    </row>
-    <row r="106" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S106" s="9"/>
-    </row>
-    <row r="107" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S107" s="9"/>
-    </row>
-    <row r="108" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S108" s="9"/>
-    </row>
-    <row r="109" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S109" s="9"/>
-    </row>
-    <row r="110" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S110" s="9"/>
-    </row>
-    <row r="111" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S111" s="9"/>
-    </row>
-    <row r="112" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S112" s="9"/>
-    </row>
-    <row r="113" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S113" s="9"/>
-    </row>
-    <row r="114" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S114" s="9"/>
-    </row>
-    <row r="115" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S115" s="9"/>
-    </row>
-    <row r="116" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S116" s="9"/>
-      <c r="V116" s="21"/>
-    </row>
-    <row r="117" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S117" s="9"/>
-    </row>
-    <row r="118" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S118" s="9"/>
-    </row>
-    <row r="119" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S119" s="9"/>
-    </row>
-    <row r="120" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S120" s="9"/>
-    </row>
-    <row r="121" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S121" s="9"/>
-    </row>
-    <row r="122" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S122" s="9"/>
-    </row>
-    <row r="123" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S123" s="9"/>
-    </row>
-    <row r="124" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S124" s="9"/>
-    </row>
-    <row r="125" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S125" s="9"/>
-    </row>
-    <row r="126" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S126" s="9"/>
-    </row>
-    <row r="127" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S127" s="9"/>
-    </row>
-    <row r="128" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S128" s="9"/>
-      <c r="V128" s="21"/>
-    </row>
-    <row r="129" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S129" s="9"/>
-    </row>
-    <row r="130" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S130" s="9"/>
-    </row>
-    <row r="131" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S131" s="9"/>
-    </row>
-    <row r="132" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S132" s="9"/>
-    </row>
-    <row r="133" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S133" s="9"/>
-    </row>
-    <row r="134" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S134" s="9"/>
-    </row>
-    <row r="135" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S135" s="9"/>
-    </row>
-    <row r="136" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S136" s="9"/>
-    </row>
-    <row r="137" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S137" s="22"/>
-    </row>
-    <row r="138" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S138" s="22"/>
-    </row>
-    <row r="139" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S139" s="22"/>
-    </row>
-    <row r="140" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S140" s="22"/>
-      <c r="V140" s="21"/>
-    </row>
-    <row r="141" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S141" s="22"/>
-    </row>
-    <row r="142" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S142" s="22"/>
-    </row>
-    <row r="143" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S143" s="22"/>
-    </row>
-    <row r="144" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S144" s="22"/>
-    </row>
-    <row r="145" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S145" s="22"/>
-    </row>
-    <row r="146" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S146" s="22"/>
-    </row>
-    <row r="147" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S147" s="22"/>
-    </row>
-    <row r="148" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S148" s="22"/>
-    </row>
-    <row r="149" spans="19:22" ht="14.1" customHeight="1">
-      <c r="S149" s="22"/>
-    </row>
-    <row r="150" spans="19:22" ht="14.1" customHeight="1"/>
-    <row r="151" spans="19:22" ht="14.1" customHeight="1"/>
-    <row r="152" spans="19:22" ht="14.1" customHeight="1">
-      <c r="V152" s="21"/>
-    </row>
-    <row r="153" spans="19:22" ht="14.1" customHeight="1"/>
-    <row r="154" spans="19:22" ht="14.1" customHeight="1"/>
-    <row r="155" spans="19:22" ht="14.1" customHeight="1"/>
-    <row r="156" spans="19:22" ht="14.1" customHeight="1"/>
-    <row r="157" spans="19:22" ht="14.1" customHeight="1"/>
-    <row r="158" spans="19:22" ht="14.1" customHeight="1"/>
-    <row r="159" spans="19:22" ht="14.1" customHeight="1"/>
-    <row r="160" spans="19:22" ht="14.1" customHeight="1"/>
-    <row r="161" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="162" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="163" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="164" spans="22:22" ht="14.1" customHeight="1">
-      <c r="V164" s="21"/>
-    </row>
-    <row r="165" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="166" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="167" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="168" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="169" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="170" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="171" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="172" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="173" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="174" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="175" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="176" spans="22:22" ht="14.1" customHeight="1"/>
-    <row r="177" ht="14.1" customHeight="1"/>
-    <row r="178" ht="14.1" customHeight="1"/>
-    <row r="179" ht="14.1" customHeight="1"/>
-    <row r="180" ht="14.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -30873,7 +30910,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG180"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30913,16 +30950,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -30943,10 +30980,10 @@
       <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="28" t="s">
         <v>15</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -31031,7 +31068,7 @@
         <f>IF(AND(M3&gt;100,C3&gt;D3),1.2,IF(AND(M3&lt;-100,C3&lt;D3),1.2,1))</f>
         <v>1</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="29" t="s">
         <v>4</v>
       </c>
       <c r="Q3" s="16" t="s">
@@ -31046,7 +31083,7 @@
       <c r="T3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="V3" s="16" t="s">
@@ -31112,7 +31149,7 @@
         <f t="shared" ref="N4:N18" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="24">
         <v>44561</v>
       </c>
       <c r="Q4" s="18">
@@ -31868,7 +31905,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.1" customHeight="1">
+    <row r="17" spans="1:14" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -31925,7 +31962,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1">
+    <row r="18" spans="1:14" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -31982,414 +32019,6 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N22" s="9"/>
-      <c r="P22" s="21"/>
-    </row>
-    <row r="23" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N33" s="9"/>
-      <c r="P33" s="21"/>
-    </row>
-    <row r="34" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N36" s="9"/>
-    </row>
-    <row r="37" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N37" s="9"/>
-    </row>
-    <row r="38" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N39" s="9"/>
-    </row>
-    <row r="40" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N40" s="9"/>
-    </row>
-    <row r="41" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N41" s="9"/>
-    </row>
-    <row r="42" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N42" s="9"/>
-    </row>
-    <row r="43" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N43" s="9"/>
-    </row>
-    <row r="44" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N44" s="9"/>
-    </row>
-    <row r="45" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N45" s="9"/>
-    </row>
-    <row r="46" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N46" s="9"/>
-    </row>
-    <row r="47" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N47" s="9"/>
-    </row>
-    <row r="48" spans="14:16" ht="14.1" customHeight="1"/>
-    <row r="49" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="50" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="51" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="52" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M52" s="9"/>
-    </row>
-    <row r="53" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M53" s="9"/>
-    </row>
-    <row r="54" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M54" s="9"/>
-    </row>
-    <row r="55" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M55" s="9"/>
-    </row>
-    <row r="56" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M56" s="9"/>
-    </row>
-    <row r="57" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M57" s="9"/>
-    </row>
-    <row r="58" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M58" s="9"/>
-    </row>
-    <row r="59" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M59" s="9"/>
-    </row>
-    <row r="60" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M60" s="9"/>
-    </row>
-    <row r="61" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M61" s="9"/>
-    </row>
-    <row r="62" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M62" s="9"/>
-    </row>
-    <row r="63" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M63" s="9"/>
-    </row>
-    <row r="64" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M64" s="9"/>
-    </row>
-    <row r="65" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M65" s="9"/>
-    </row>
-    <row r="66" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M66" s="9"/>
-    </row>
-    <row r="67" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M67" s="9"/>
-    </row>
-    <row r="68" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M68" s="9"/>
-    </row>
-    <row r="69" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M69" s="9"/>
-    </row>
-    <row r="70" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M70" s="9"/>
-    </row>
-    <row r="71" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M71" s="9"/>
-    </row>
-    <row r="72" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M72" s="9"/>
-    </row>
-    <row r="73" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M73" s="9"/>
-    </row>
-    <row r="74" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M74" s="9"/>
-    </row>
-    <row r="75" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M75" s="9"/>
-    </row>
-    <row r="76" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M76" s="9"/>
-    </row>
-    <row r="77" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M77" s="9"/>
-    </row>
-    <row r="78" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M78" s="9"/>
-    </row>
-    <row r="79" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M79" s="9"/>
-    </row>
-    <row r="80" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M80" s="9"/>
-    </row>
-    <row r="81" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M81" s="9"/>
-    </row>
-    <row r="82" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M82" s="9"/>
-    </row>
-    <row r="83" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M83" s="9"/>
-    </row>
-    <row r="84" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M84" s="9"/>
-    </row>
-    <row r="85" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M85" s="9"/>
-    </row>
-    <row r="86" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M86" s="9"/>
-    </row>
-    <row r="87" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M87" s="9"/>
-    </row>
-    <row r="88" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M88" s="9"/>
-    </row>
-    <row r="89" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M89" s="9"/>
-    </row>
-    <row r="90" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M90" s="9"/>
-    </row>
-    <row r="91" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M91" s="9"/>
-    </row>
-    <row r="92" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M92" s="9"/>
-      <c r="P92" s="21"/>
-    </row>
-    <row r="93" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M93" s="9"/>
-    </row>
-    <row r="94" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M94" s="9"/>
-    </row>
-    <row r="95" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M95" s="9"/>
-    </row>
-    <row r="96" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M96" s="9"/>
-    </row>
-    <row r="97" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M97" s="9"/>
-    </row>
-    <row r="98" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M98" s="9"/>
-    </row>
-    <row r="99" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M99" s="9"/>
-    </row>
-    <row r="100" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M100" s="9"/>
-    </row>
-    <row r="101" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M101" s="9"/>
-    </row>
-    <row r="102" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M102" s="9"/>
-    </row>
-    <row r="103" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M103" s="9"/>
-    </row>
-    <row r="104" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M104" s="9"/>
-      <c r="P104" s="21"/>
-    </row>
-    <row r="105" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M105" s="9"/>
-    </row>
-    <row r="106" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M106" s="9"/>
-    </row>
-    <row r="107" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M107" s="9"/>
-    </row>
-    <row r="108" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M108" s="9"/>
-    </row>
-    <row r="109" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M109" s="9"/>
-    </row>
-    <row r="110" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M110" s="9"/>
-    </row>
-    <row r="111" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M111" s="9"/>
-    </row>
-    <row r="112" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M112" s="9"/>
-    </row>
-    <row r="113" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M113" s="9"/>
-    </row>
-    <row r="114" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M114" s="9"/>
-    </row>
-    <row r="115" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M115" s="9"/>
-    </row>
-    <row r="116" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M116" s="9"/>
-      <c r="P116" s="21"/>
-    </row>
-    <row r="117" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M117" s="9"/>
-    </row>
-    <row r="118" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M118" s="9"/>
-    </row>
-    <row r="119" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M119" s="9"/>
-    </row>
-    <row r="120" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M120" s="9"/>
-    </row>
-    <row r="121" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M121" s="9"/>
-    </row>
-    <row r="122" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M122" s="9"/>
-    </row>
-    <row r="123" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M123" s="9"/>
-    </row>
-    <row r="124" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M124" s="9"/>
-    </row>
-    <row r="125" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M125" s="9"/>
-    </row>
-    <row r="126" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M126" s="9"/>
-    </row>
-    <row r="127" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M127" s="22"/>
-    </row>
-    <row r="128" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M128" s="22"/>
-      <c r="P128" s="21"/>
-    </row>
-    <row r="129" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M129" s="22"/>
-    </row>
-    <row r="130" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M130" s="22"/>
-    </row>
-    <row r="131" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M131" s="22"/>
-    </row>
-    <row r="132" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M132" s="22"/>
-    </row>
-    <row r="133" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M133" s="22"/>
-    </row>
-    <row r="134" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M134" s="22"/>
-    </row>
-    <row r="135" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M135" s="22"/>
-    </row>
-    <row r="136" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M136" s="22"/>
-    </row>
-    <row r="137" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M137" s="22"/>
-    </row>
-    <row r="138" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M138" s="22"/>
-    </row>
-    <row r="139" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M139" s="22"/>
-    </row>
-    <row r="140" spans="13:16" ht="14.1" customHeight="1">
-      <c r="P140" s="21"/>
-    </row>
-    <row r="141" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="142" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="143" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="144" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="145" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="146" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="147" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="148" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="149" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="150" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="151" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="152" spans="16:16" ht="14.1" customHeight="1">
-      <c r="P152" s="21"/>
-    </row>
-    <row r="153" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="154" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="155" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="156" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="157" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="158" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="159" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="160" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="161" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="162" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="163" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="164" spans="16:16" ht="14.1" customHeight="1">
-      <c r="P164" s="21"/>
-    </row>
-    <row r="165" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="166" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="167" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="168" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="169" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="170" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="171" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="172" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="173" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="174" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="175" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="176" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="177" ht="14.1" customHeight="1"/>
-    <row r="178" ht="14.1" customHeight="1"/>
-    <row r="179" ht="14.1" customHeight="1"/>
-    <row r="180" ht="14.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -32406,9 +32035,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG180"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -32446,16 +32075,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -32476,10 +32105,10 @@
       <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="28" t="s">
         <v>15</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -32564,7 +32193,7 @@
         <f>IF(AND(M3&gt;100,C3&gt;D3),1.2,IF(AND(M3&lt;-100,C3&lt;D3),1.2,1))</f>
         <v>1</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="29" t="s">
         <v>4</v>
       </c>
       <c r="Q3" s="16" t="s">
@@ -32579,7 +32208,7 @@
       <c r="T3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="V3" s="16" t="s">
@@ -32645,7 +32274,7 @@
         <f t="shared" ref="N4:N18" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="24">
         <v>44561</v>
       </c>
       <c r="Q4" s="18">
@@ -33401,7 +33030,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.1" customHeight="1">
+    <row r="17" spans="1:14" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -33458,7 +33087,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1">
+    <row r="18" spans="1:14" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -33515,414 +33144,6 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N22" s="9"/>
-      <c r="P22" s="21"/>
-    </row>
-    <row r="23" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" ht="14.1" customHeight="1">
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N33" s="9"/>
-      <c r="P33" s="21"/>
-    </row>
-    <row r="34" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N36" s="9"/>
-    </row>
-    <row r="37" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N37" s="9"/>
-    </row>
-    <row r="38" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N39" s="9"/>
-    </row>
-    <row r="40" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N40" s="9"/>
-    </row>
-    <row r="41" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N41" s="9"/>
-    </row>
-    <row r="42" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N42" s="9"/>
-    </row>
-    <row r="43" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N43" s="9"/>
-    </row>
-    <row r="44" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N44" s="9"/>
-    </row>
-    <row r="45" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N45" s="9"/>
-    </row>
-    <row r="46" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N46" s="9"/>
-    </row>
-    <row r="47" spans="14:16" ht="14.1" customHeight="1">
-      <c r="N47" s="9"/>
-    </row>
-    <row r="48" spans="14:16" ht="14.1" customHeight="1"/>
-    <row r="49" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="50" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="51" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="52" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M52" s="9"/>
-    </row>
-    <row r="53" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M53" s="9"/>
-    </row>
-    <row r="54" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M54" s="9"/>
-    </row>
-    <row r="55" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M55" s="9"/>
-    </row>
-    <row r="56" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M56" s="9"/>
-    </row>
-    <row r="57" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M57" s="9"/>
-    </row>
-    <row r="58" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M58" s="9"/>
-    </row>
-    <row r="59" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M59" s="9"/>
-    </row>
-    <row r="60" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M60" s="9"/>
-    </row>
-    <row r="61" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M61" s="9"/>
-    </row>
-    <row r="62" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M62" s="9"/>
-    </row>
-    <row r="63" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M63" s="9"/>
-    </row>
-    <row r="64" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M64" s="9"/>
-    </row>
-    <row r="65" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M65" s="9"/>
-    </row>
-    <row r="66" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M66" s="9"/>
-    </row>
-    <row r="67" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M67" s="9"/>
-    </row>
-    <row r="68" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M68" s="9"/>
-    </row>
-    <row r="69" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M69" s="9"/>
-    </row>
-    <row r="70" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M70" s="9"/>
-    </row>
-    <row r="71" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M71" s="9"/>
-    </row>
-    <row r="72" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M72" s="9"/>
-    </row>
-    <row r="73" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M73" s="9"/>
-    </row>
-    <row r="74" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M74" s="9"/>
-    </row>
-    <row r="75" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M75" s="9"/>
-    </row>
-    <row r="76" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M76" s="9"/>
-    </row>
-    <row r="77" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M77" s="9"/>
-    </row>
-    <row r="78" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M78" s="9"/>
-    </row>
-    <row r="79" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M79" s="9"/>
-    </row>
-    <row r="80" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M80" s="9"/>
-    </row>
-    <row r="81" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M81" s="9"/>
-    </row>
-    <row r="82" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M82" s="9"/>
-    </row>
-    <row r="83" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M83" s="9"/>
-    </row>
-    <row r="84" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M84" s="9"/>
-    </row>
-    <row r="85" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M85" s="9"/>
-    </row>
-    <row r="86" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M86" s="9"/>
-    </row>
-    <row r="87" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M87" s="9"/>
-    </row>
-    <row r="88" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M88" s="9"/>
-    </row>
-    <row r="89" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M89" s="9"/>
-    </row>
-    <row r="90" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M90" s="9"/>
-    </row>
-    <row r="91" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M91" s="9"/>
-    </row>
-    <row r="92" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M92" s="9"/>
-      <c r="P92" s="21"/>
-    </row>
-    <row r="93" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M93" s="9"/>
-    </row>
-    <row r="94" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M94" s="9"/>
-    </row>
-    <row r="95" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M95" s="9"/>
-    </row>
-    <row r="96" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M96" s="9"/>
-    </row>
-    <row r="97" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M97" s="9"/>
-    </row>
-    <row r="98" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M98" s="9"/>
-    </row>
-    <row r="99" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M99" s="9"/>
-    </row>
-    <row r="100" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M100" s="9"/>
-    </row>
-    <row r="101" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M101" s="9"/>
-    </row>
-    <row r="102" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M102" s="9"/>
-    </row>
-    <row r="103" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M103" s="9"/>
-    </row>
-    <row r="104" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M104" s="9"/>
-      <c r="P104" s="21"/>
-    </row>
-    <row r="105" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M105" s="9"/>
-    </row>
-    <row r="106" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M106" s="9"/>
-    </row>
-    <row r="107" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M107" s="9"/>
-    </row>
-    <row r="108" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M108" s="9"/>
-    </row>
-    <row r="109" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M109" s="9"/>
-    </row>
-    <row r="110" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M110" s="9"/>
-    </row>
-    <row r="111" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M111" s="9"/>
-    </row>
-    <row r="112" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M112" s="9"/>
-    </row>
-    <row r="113" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M113" s="9"/>
-    </row>
-    <row r="114" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M114" s="9"/>
-    </row>
-    <row r="115" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M115" s="9"/>
-    </row>
-    <row r="116" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M116" s="9"/>
-      <c r="P116" s="21"/>
-    </row>
-    <row r="117" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M117" s="9"/>
-    </row>
-    <row r="118" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M118" s="9"/>
-    </row>
-    <row r="119" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M119" s="9"/>
-    </row>
-    <row r="120" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M120" s="9"/>
-    </row>
-    <row r="121" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M121" s="9"/>
-    </row>
-    <row r="122" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M122" s="9"/>
-    </row>
-    <row r="123" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M123" s="9"/>
-    </row>
-    <row r="124" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M124" s="9"/>
-    </row>
-    <row r="125" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M125" s="9"/>
-    </row>
-    <row r="126" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M126" s="9"/>
-    </row>
-    <row r="127" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M127" s="22"/>
-    </row>
-    <row r="128" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M128" s="22"/>
-      <c r="P128" s="21"/>
-    </row>
-    <row r="129" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M129" s="22"/>
-    </row>
-    <row r="130" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M130" s="22"/>
-    </row>
-    <row r="131" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M131" s="22"/>
-    </row>
-    <row r="132" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M132" s="22"/>
-    </row>
-    <row r="133" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M133" s="22"/>
-    </row>
-    <row r="134" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M134" s="22"/>
-    </row>
-    <row r="135" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M135" s="22"/>
-    </row>
-    <row r="136" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M136" s="22"/>
-    </row>
-    <row r="137" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M137" s="22"/>
-    </row>
-    <row r="138" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M138" s="22"/>
-    </row>
-    <row r="139" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M139" s="22"/>
-    </row>
-    <row r="140" spans="13:16" ht="14.1" customHeight="1">
-      <c r="P140" s="21"/>
-    </row>
-    <row r="141" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="142" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="143" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="144" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="145" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="146" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="147" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="148" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="149" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="150" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="151" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="152" spans="16:16" ht="14.1" customHeight="1">
-      <c r="P152" s="21"/>
-    </row>
-    <row r="153" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="154" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="155" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="156" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="157" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="158" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="159" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="160" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="161" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="162" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="163" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="164" spans="16:16" ht="14.1" customHeight="1">
-      <c r="P164" s="21"/>
-    </row>
-    <row r="165" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="166" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="167" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="168" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="169" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="170" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="171" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="172" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="173" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="174" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="175" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="176" spans="16:16" ht="14.1" customHeight="1"/>
-    <row r="177" ht="14.1" customHeight="1"/>
-    <row r="178" ht="14.1" customHeight="1"/>
-    <row r="179" ht="14.1" customHeight="1"/>
-    <row r="180" ht="14.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -33939,9 +33160,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI180"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -33979,16 +33200,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -34015,10 +33236,10 @@
       <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="28" t="s">
         <v>15</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -34113,7 +33334,7 @@
         <f>IF(AND(O3&gt;100,C3&gt;D3),1.2,IF(AND(O3&lt;-100,C3&lt;D3),1.2,1))</f>
         <v>1</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="29" t="s">
         <v>4</v>
       </c>
       <c r="S3" s="16" t="s">
@@ -34128,7 +33349,7 @@
       <c r="V3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="31" t="s">
+      <c r="W3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="X3" s="16" t="s">
@@ -34202,7 +33423,7 @@
         <f t="shared" ref="P4:P18" si="7">IF(AND(O4&gt;100,C4&gt;D4),1.2,IF(AND(O4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="24">
         <v>44561</v>
       </c>
       <c r="S4" s="18">
@@ -35054,7 +34275,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="14.1" customHeight="1">
+    <row r="17" spans="1:16" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -35119,7 +34340,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="14.1" customHeight="1">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -35184,414 +34405,6 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="14.1" customHeight="1">
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:18" ht="14.1" customHeight="1">
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:18" ht="14.1" customHeight="1">
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:18" ht="14.1" customHeight="1">
-      <c r="P22" s="9"/>
-      <c r="R22" s="21"/>
-    </row>
-    <row r="23" spans="1:18" ht="14.1" customHeight="1">
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:18" ht="14.1" customHeight="1">
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:18" ht="14.1" customHeight="1">
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:18" ht="14.1" customHeight="1">
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:18" ht="14.1" customHeight="1">
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:18" ht="14.1" customHeight="1">
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:18" ht="14.1" customHeight="1">
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:18" ht="14.1" customHeight="1">
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:18" ht="14.1" customHeight="1">
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:18" ht="14.1" customHeight="1">
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="16:18" ht="14.1" customHeight="1">
-      <c r="P33" s="9"/>
-      <c r="R33" s="21"/>
-    </row>
-    <row r="34" spans="16:18" ht="14.1" customHeight="1">
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="16:18" ht="14.1" customHeight="1">
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="16:18" ht="14.1" customHeight="1">
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="16:18" ht="14.1" customHeight="1">
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="16:18" ht="14.1" customHeight="1">
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="16:18" ht="14.1" customHeight="1">
-      <c r="P39" s="9"/>
-    </row>
-    <row r="40" spans="16:18" ht="14.1" customHeight="1">
-      <c r="P40" s="9"/>
-    </row>
-    <row r="41" spans="16:18" ht="14.1" customHeight="1">
-      <c r="P41" s="9"/>
-    </row>
-    <row r="42" spans="16:18" ht="14.1" customHeight="1">
-      <c r="P42" s="9"/>
-    </row>
-    <row r="43" spans="16:18" ht="14.1" customHeight="1">
-      <c r="P43" s="9"/>
-    </row>
-    <row r="44" spans="16:18" ht="14.1" customHeight="1">
-      <c r="P44" s="9"/>
-    </row>
-    <row r="45" spans="16:18" ht="14.1" customHeight="1">
-      <c r="P45" s="9"/>
-    </row>
-    <row r="46" spans="16:18" ht="14.1" customHeight="1">
-      <c r="P46" s="9"/>
-    </row>
-    <row r="47" spans="16:18" ht="14.1" customHeight="1">
-      <c r="P47" s="9"/>
-    </row>
-    <row r="48" spans="16:18" ht="14.1" customHeight="1"/>
-    <row r="49" spans="15:15" ht="14.1" customHeight="1"/>
-    <row r="50" spans="15:15" ht="14.1" customHeight="1"/>
-    <row r="51" spans="15:15" ht="14.1" customHeight="1"/>
-    <row r="52" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O52" s="9"/>
-    </row>
-    <row r="53" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O53" s="9"/>
-    </row>
-    <row r="54" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O54" s="9"/>
-    </row>
-    <row r="55" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O55" s="9"/>
-    </row>
-    <row r="56" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O56" s="9"/>
-    </row>
-    <row r="57" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O57" s="9"/>
-    </row>
-    <row r="58" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O58" s="9"/>
-    </row>
-    <row r="59" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O59" s="9"/>
-    </row>
-    <row r="60" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O60" s="9"/>
-    </row>
-    <row r="61" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O61" s="9"/>
-    </row>
-    <row r="62" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O62" s="9"/>
-    </row>
-    <row r="63" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O63" s="9"/>
-    </row>
-    <row r="64" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O64" s="9"/>
-    </row>
-    <row r="65" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O65" s="9"/>
-    </row>
-    <row r="66" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O66" s="9"/>
-    </row>
-    <row r="67" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O67" s="9"/>
-    </row>
-    <row r="68" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O68" s="9"/>
-    </row>
-    <row r="69" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O69" s="9"/>
-    </row>
-    <row r="70" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O70" s="9"/>
-    </row>
-    <row r="71" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O71" s="9"/>
-    </row>
-    <row r="72" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O72" s="9"/>
-    </row>
-    <row r="73" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O73" s="9"/>
-    </row>
-    <row r="74" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O74" s="9"/>
-    </row>
-    <row r="75" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O75" s="9"/>
-    </row>
-    <row r="76" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O76" s="9"/>
-    </row>
-    <row r="77" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O77" s="9"/>
-    </row>
-    <row r="78" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O78" s="9"/>
-    </row>
-    <row r="79" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O79" s="9"/>
-    </row>
-    <row r="80" spans="15:15" ht="14.1" customHeight="1">
-      <c r="O80" s="9"/>
-    </row>
-    <row r="81" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O81" s="9"/>
-    </row>
-    <row r="82" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O82" s="9"/>
-    </row>
-    <row r="83" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O83" s="9"/>
-    </row>
-    <row r="84" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O84" s="9"/>
-    </row>
-    <row r="85" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O85" s="9"/>
-    </row>
-    <row r="86" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O86" s="9"/>
-    </row>
-    <row r="87" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O87" s="9"/>
-    </row>
-    <row r="88" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O88" s="9"/>
-    </row>
-    <row r="89" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O89" s="9"/>
-    </row>
-    <row r="90" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O90" s="9"/>
-    </row>
-    <row r="91" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O91" s="9"/>
-    </row>
-    <row r="92" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O92" s="9"/>
-      <c r="R92" s="21"/>
-    </row>
-    <row r="93" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O93" s="9"/>
-    </row>
-    <row r="94" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O94" s="9"/>
-    </row>
-    <row r="95" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O95" s="9"/>
-    </row>
-    <row r="96" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O96" s="9"/>
-    </row>
-    <row r="97" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O97" s="9"/>
-    </row>
-    <row r="98" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O98" s="9"/>
-    </row>
-    <row r="99" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O99" s="9"/>
-    </row>
-    <row r="100" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O100" s="9"/>
-    </row>
-    <row r="101" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O101" s="9"/>
-    </row>
-    <row r="102" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O102" s="9"/>
-    </row>
-    <row r="103" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O103" s="9"/>
-    </row>
-    <row r="104" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O104" s="9"/>
-      <c r="R104" s="21"/>
-    </row>
-    <row r="105" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O105" s="9"/>
-    </row>
-    <row r="106" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O106" s="9"/>
-    </row>
-    <row r="107" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O107" s="9"/>
-    </row>
-    <row r="108" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O108" s="9"/>
-    </row>
-    <row r="109" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O109" s="9"/>
-    </row>
-    <row r="110" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O110" s="9"/>
-    </row>
-    <row r="111" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O111" s="9"/>
-    </row>
-    <row r="112" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O112" s="9"/>
-    </row>
-    <row r="113" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O113" s="9"/>
-    </row>
-    <row r="114" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O114" s="9"/>
-    </row>
-    <row r="115" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O115" s="9"/>
-    </row>
-    <row r="116" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O116" s="9"/>
-      <c r="R116" s="21"/>
-    </row>
-    <row r="117" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O117" s="9"/>
-    </row>
-    <row r="118" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O118" s="9"/>
-    </row>
-    <row r="119" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O119" s="9"/>
-    </row>
-    <row r="120" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O120" s="9"/>
-    </row>
-    <row r="121" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O121" s="9"/>
-    </row>
-    <row r="122" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O122" s="9"/>
-    </row>
-    <row r="123" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O123" s="9"/>
-    </row>
-    <row r="124" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O124" s="9"/>
-    </row>
-    <row r="125" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O125" s="9"/>
-    </row>
-    <row r="126" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O126" s="9"/>
-    </row>
-    <row r="127" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O127" s="22"/>
-    </row>
-    <row r="128" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O128" s="22"/>
-      <c r="R128" s="21"/>
-    </row>
-    <row r="129" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O129" s="22"/>
-    </row>
-    <row r="130" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O130" s="22"/>
-    </row>
-    <row r="131" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O131" s="22"/>
-    </row>
-    <row r="132" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O132" s="22"/>
-    </row>
-    <row r="133" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O133" s="22"/>
-    </row>
-    <row r="134" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O134" s="22"/>
-    </row>
-    <row r="135" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O135" s="22"/>
-    </row>
-    <row r="136" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O136" s="22"/>
-    </row>
-    <row r="137" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O137" s="22"/>
-    </row>
-    <row r="138" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O138" s="22"/>
-    </row>
-    <row r="139" spans="15:18" ht="14.1" customHeight="1">
-      <c r="O139" s="22"/>
-    </row>
-    <row r="140" spans="15:18" ht="14.1" customHeight="1">
-      <c r="R140" s="21"/>
-    </row>
-    <row r="141" spans="15:18" ht="14.1" customHeight="1"/>
-    <row r="142" spans="15:18" ht="14.1" customHeight="1"/>
-    <row r="143" spans="15:18" ht="14.1" customHeight="1"/>
-    <row r="144" spans="15:18" ht="14.1" customHeight="1"/>
-    <row r="145" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="146" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="147" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="148" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="149" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="150" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="151" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="152" spans="18:18" ht="14.1" customHeight="1">
-      <c r="R152" s="21"/>
-    </row>
-    <row r="153" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="154" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="155" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="156" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="157" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="158" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="159" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="160" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="161" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="162" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="163" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="164" spans="18:18" ht="14.1" customHeight="1">
-      <c r="R164" s="21"/>
-    </row>
-    <row r="165" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="166" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="167" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="168" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="169" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="170" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="171" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="172" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="173" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="174" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="175" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="176" spans="18:18" ht="14.1" customHeight="1"/>
-    <row r="177" ht="14.1" customHeight="1"/>
-    <row r="178" ht="14.1" customHeight="1"/>
-    <row r="179" ht="14.1" customHeight="1"/>
-    <row r="180" ht="14.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model4(1)" sheetId="9" r:id="rId1"/>
@@ -565,7 +565,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -613,6 +613,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -622,7 +625,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -670,6 +673,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2702774.6770976437</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3094416.5845493269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -712,7 +718,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -760,6 +766,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -769,7 +778,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -817,6 +826,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2403405.8214305816</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2763969.1929088128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -859,7 +871,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -907,6 +919,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,7 +931,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -964,6 +979,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-299368.8556670621</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-330447.39164051414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,11 +1003,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500089600"/>
-        <c:axId val="500091136"/>
+        <c:axId val="70988544"/>
+        <c:axId val="70990080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500089600"/>
+        <c:axId val="70988544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,14 +1050,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500091136"/>
+        <c:crossAx val="70990080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500091136"/>
+        <c:axId val="70990080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +1108,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500089600"/>
+        <c:crossAx val="70988544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1249,7 +1267,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1297,6 +1315,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1442324.1532089238</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2922335.9299294855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1311,8 +1332,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="550684160"/>
-        <c:axId val="550682624"/>
+        <c:axId val="610447744"/>
+        <c:axId val="610417280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1337,7 +1358,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1385,6 +1406,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,7 +1418,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1442,6 +1466,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.69599997997283936</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.68699997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1458,11 +1485,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="550679296"/>
-        <c:axId val="550680832"/>
+        <c:axId val="610360704"/>
+        <c:axId val="610415744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="550679296"/>
+        <c:axId val="610360704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,14 +1532,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550680832"/>
+        <c:crossAx val="610415744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="550680832"/>
+        <c:axId val="610415744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,12 +1590,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550679296"/>
+        <c:crossAx val="610360704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="550682624"/>
+        <c:axId val="610417280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1605,12 +1632,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550684160"/>
+        <c:crossAx val="610447744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="550684160"/>
+        <c:axId val="610447744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,7 +1646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="550682624"/>
+        <c:crossAx val="610417280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1750,7 +1777,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1798,6 +1825,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>338807.23397602042</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>391641.90745168331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1812,8 +1842,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="548736384"/>
-        <c:axId val="548734848"/>
+        <c:axId val="386527616"/>
+        <c:axId val="108182912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1838,7 +1868,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1886,6 +1916,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1895,7 +1928,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1943,6 +1976,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.69599997997283936</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.68699997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1959,11 +1995,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520579328"/>
-        <c:axId val="548733312"/>
+        <c:axId val="108179456"/>
+        <c:axId val="108180992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520579328"/>
+        <c:axId val="108179456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2006,14 +2042,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548733312"/>
+        <c:crossAx val="108180992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="548733312"/>
+        <c:axId val="108180992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2064,12 +2100,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520579328"/>
+        <c:crossAx val="108179456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="548734848"/>
+        <c:axId val="108182912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2106,12 +2142,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548736384"/>
+        <c:crossAx val="386527616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="548736384"/>
+        <c:axId val="386527616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,7 +2156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="548734848"/>
+        <c:crossAx val="108182912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2269,7 +2305,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2317,6 +2353,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2326,7 +2365,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2374,6 +2413,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2770536.1238928479</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3240506.4128348678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2416,7 +2458,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2464,6 +2506,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2473,7 +2518,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2521,6 +2566,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2471167.2682257858</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2909182.7952390611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2563,7 +2611,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2611,6 +2659,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2620,7 +2671,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2668,6 +2719,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-299368.8556670621</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-331323.61759580672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2689,11 +2743,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="674164736"/>
-        <c:axId val="674167808"/>
+        <c:axId val="621075456"/>
+        <c:axId val="621307008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="674164736"/>
+        <c:axId val="621075456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2736,14 +2790,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674167808"/>
+        <c:crossAx val="621307008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="674167808"/>
+        <c:axId val="621307008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2794,7 +2848,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674164736"/>
+        <c:crossAx val="621075456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2953,7 +3007,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3001,6 +3055,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>406568.68077122449</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>469970.28894201998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3015,8 +3072,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="537332352"/>
-        <c:axId val="537330816"/>
+        <c:axId val="76936704"/>
+        <c:axId val="76935168"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3041,7 +3098,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3089,6 +3146,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3098,7 +3158,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3146,6 +3206,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.69599997997283936</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.68699997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3162,11 +3225,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="675815424"/>
-        <c:axId val="675818880"/>
+        <c:axId val="632603008"/>
+        <c:axId val="632604544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="675815424"/>
+        <c:axId val="632603008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3209,14 +3272,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675818880"/>
+        <c:crossAx val="632604544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="675818880"/>
+        <c:axId val="632604544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3267,12 +3330,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675815424"/>
+        <c:crossAx val="632603008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="537330816"/>
+        <c:axId val="76935168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3309,12 +3372,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537332352"/>
+        <c:crossAx val="76936704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="537332352"/>
+        <c:axId val="76936704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3323,7 +3386,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537330816"/>
+        <c:crossAx val="76935168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3472,7 +3535,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3520,6 +3583,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3529,7 +3595,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3577,6 +3643,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2902758.7878328301</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3372729.07677485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3619,7 +3688,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3667,6 +3736,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3676,7 +3748,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3724,6 +3796,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2584365.0276401606</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3020916.7899380876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3766,7 +3841,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3814,6 +3889,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3823,7 +3901,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3871,6 +3949,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-318393.76019266946</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-351812.28683676245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3892,11 +3973,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537347968"/>
-        <c:axId val="537349504"/>
+        <c:axId val="81011456"/>
+        <c:axId val="81012992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537347968"/>
+        <c:axId val="81011456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3939,14 +4020,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537349504"/>
+        <c:crossAx val="81012992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537349504"/>
+        <c:axId val="81012992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3997,7 +4078,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537347968"/>
+        <c:crossAx val="81011456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4156,7 +4237,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4204,6 +4285,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>406568.68077122449</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>469970.28894201998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4218,8 +4302,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="537365120"/>
-        <c:axId val="537363584"/>
+        <c:axId val="81040512"/>
+        <c:axId val="81038720"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4244,7 +4328,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4292,6 +4376,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4301,7 +4388,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4349,6 +4436,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.69599997997283936</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.68699997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4365,11 +4455,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537360256"/>
-        <c:axId val="537361792"/>
+        <c:axId val="81035648"/>
+        <c:axId val="81037184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537360256"/>
+        <c:axId val="81035648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4412,14 +4502,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537361792"/>
+        <c:crossAx val="81037184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537361792"/>
+        <c:axId val="81037184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4470,12 +4560,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537360256"/>
+        <c:crossAx val="81035648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="537363584"/>
+        <c:axId val="81038720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4512,12 +4602,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537365120"/>
+        <c:crossAx val="81040512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="537365120"/>
+        <c:axId val="81040512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4526,7 +4616,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537363584"/>
+        <c:crossAx val="81038720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4675,7 +4765,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4723,6 +4813,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4732,7 +4825,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4780,6 +4873,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>24066642.634684995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28746325.621137921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4822,7 +4918,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4870,6 +4966,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4879,7 +4978,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4927,6 +5026,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>21889119.782806464</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26285753.693430729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4969,7 +5071,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5017,6 +5119,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5026,7 +5131,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5074,6 +5179,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-2177522.8518785313</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2460571.9277071916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5095,11 +5203,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="548787712"/>
-        <c:axId val="548789248"/>
+        <c:axId val="483287424"/>
+        <c:axId val="483288960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="548787712"/>
+        <c:axId val="483287424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5142,14 +5250,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548789248"/>
+        <c:crossAx val="483288960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="548789248"/>
+        <c:axId val="483288960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5200,7 +5308,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548787712"/>
+        <c:crossAx val="483287424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5359,7 +5467,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5407,6 +5515,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>31449885.650371231</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38261651.510065518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5421,8 +5532,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="550639488"/>
-        <c:axId val="550637952"/>
+        <c:axId val="602628864"/>
+        <c:axId val="602622976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5447,7 +5558,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5495,6 +5606,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5504,7 +5618,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5552,6 +5666,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.69599997997283936</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.68699997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5568,11 +5685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="550634624"/>
-        <c:axId val="550636160"/>
+        <c:axId val="602619904"/>
+        <c:axId val="602621440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="550634624"/>
+        <c:axId val="602619904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5615,14 +5732,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550636160"/>
+        <c:crossAx val="602621440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="550636160"/>
+        <c:axId val="602621440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5673,12 +5790,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550634624"/>
+        <c:crossAx val="602619904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="550637952"/>
+        <c:axId val="602622976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5715,12 +5832,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550639488"/>
+        <c:crossAx val="602628864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="550639488"/>
+        <c:axId val="602628864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5729,7 +5846,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="550637952"/>
+        <c:crossAx val="602622976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5822,7 +5939,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5879,7 +5995,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5927,6 +6043,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5936,7 +6055,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5984,6 +6103,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>6301583.5549640199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9223919.4848935045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6026,7 +6148,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6074,6 +6196,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6083,7 +6208,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6131,6 +6256,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>5807340.2836938016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8654581.2661501952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6173,7 +6301,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6221,6 +6349,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6230,7 +6361,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6278,6 +6409,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-494243.27127021831</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-569338.21874330938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6299,11 +6433,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="550659200"/>
-        <c:axId val="550660736"/>
+        <c:axId val="602660864"/>
+        <c:axId val="602662400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="550659200"/>
+        <c:axId val="602660864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6346,14 +6480,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550660736"/>
+        <c:crossAx val="602662400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="550660736"/>
+        <c:axId val="602662400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6404,7 +6538,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550659200"/>
+        <c:crossAx val="602660864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6418,7 +6552,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7617,6 +7750,12 @@
           <cell r="I18">
             <v>45807001.1875</v>
           </cell>
+          <cell r="K18">
+            <v>44895</v>
+          </cell>
+          <cell r="L18">
+            <v>44866</v>
+          </cell>
           <cell r="N18">
             <v>1.0529999999999999</v>
           </cell>
@@ -24017,6 +24156,59 @@
           </cell>
           <cell r="U327">
             <v>-125.14122645710022</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="A328">
+            <v>44865</v>
+          </cell>
+          <cell r="B328">
+            <v>0.68000000715255737</v>
+          </cell>
+          <cell r="C328">
+            <v>0.69199997186660767</v>
+          </cell>
+          <cell r="D328">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="E328">
+            <v>0.68699997663497925</v>
+          </cell>
+          <cell r="F328">
+            <v>3400007.75</v>
+          </cell>
+          <cell r="G328">
+            <v>2326.47412109375</v>
+          </cell>
+          <cell r="H328">
+            <v>326</v>
+          </cell>
+          <cell r="I328">
+            <v>5444602.8119248468</v>
+          </cell>
+          <cell r="N328">
+            <v>0</v>
+          </cell>
+          <cell r="O328">
+            <v>0</v>
+          </cell>
+          <cell r="P328">
+            <v>0.68566664059956872</v>
+          </cell>
+          <cell r="Q328">
+            <v>0.70992857075872884</v>
+          </cell>
+          <cell r="R328">
+            <v>-2.4261930159160117E-2</v>
+          </cell>
+          <cell r="S328">
+            <v>1.1071425108682547E-2</v>
+          </cell>
+          <cell r="T328">
+            <v>1.660713766302382E-4</v>
+          </cell>
+          <cell r="U328">
+            <v>-146.0933885866429</v>
           </cell>
         </row>
       </sheetData>
@@ -28266,6 +28458,196 @@
           </cell>
           <cell r="D367">
             <v>32.601424623862997</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368" t="str">
+            <v xml:space="preserve">2022/10/10
+</v>
+          </cell>
+          <cell r="C368">
+            <v>22.040000920000001</v>
+          </cell>
+          <cell r="D368">
+            <v>32.57256827494534</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369" t="str">
+            <v xml:space="preserve">2022/10/11
+</v>
+          </cell>
+          <cell r="C369">
+            <v>22.239999770000001</v>
+          </cell>
+          <cell r="D369">
+            <v>32.544414137329682</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370" t="str">
+            <v xml:space="preserve">2022/10/12
+</v>
+          </cell>
+          <cell r="C370">
+            <v>22.920000080000001</v>
+          </cell>
+          <cell r="D370">
+            <v>32.518260838260851</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="B371" t="str">
+            <v xml:space="preserve">2022/10/13
+</v>
+          </cell>
+          <cell r="C371">
+            <v>22.850000380000001</v>
+          </cell>
+          <cell r="D371">
+            <v>32.492059590406484</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="B372" t="str">
+            <v xml:space="preserve">2022/10/14
+</v>
+          </cell>
+          <cell r="C372">
+            <v>23.649999619999999</v>
+          </cell>
+          <cell r="D372">
+            <v>32.468162131027007</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373" t="str">
+            <v xml:space="preserve">2022/10/17
+</v>
+          </cell>
+          <cell r="C373">
+            <v>23.719999309999999</v>
+          </cell>
+          <cell r="D373">
+            <v>32.444582177331519</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374" t="str">
+            <v xml:space="preserve">2022/10/18
+</v>
+          </cell>
+          <cell r="C374">
+            <v>23.850000380000001</v>
+          </cell>
+          <cell r="D374">
+            <v>32.421478462822563</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375" t="str">
+            <v xml:space="preserve">2022/10/19
+</v>
+          </cell>
+          <cell r="C375">
+            <v>23.590000150000002</v>
+          </cell>
+          <cell r="D375">
+            <v>32.39780157726539</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376" t="str">
+            <v xml:space="preserve">2022/10/20
+</v>
+          </cell>
+          <cell r="C376">
+            <v>23.399999619999999</v>
+          </cell>
+          <cell r="D376">
+            <v>32.373743283262009</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="B377" t="str">
+            <v xml:space="preserve">2022/10/21
+</v>
+          </cell>
+          <cell r="C377">
+            <v>23.340000150000002</v>
+          </cell>
+          <cell r="D377">
+            <v>32.349653301573312</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="B378" t="str">
+            <v xml:space="preserve">2022/10/24
+</v>
+          </cell>
+          <cell r="C378">
+            <v>22.829999919999999</v>
+          </cell>
+          <cell r="D378">
+            <v>32.324335074494662</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="B379" t="str">
+            <v xml:space="preserve">2022/10/25
+</v>
+          </cell>
+          <cell r="C379">
+            <v>22.739999770000001</v>
+          </cell>
+          <cell r="D379">
+            <v>32.298912434429688</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="B380" t="str">
+            <v xml:space="preserve">2022/10/26
+</v>
+          </cell>
+          <cell r="C380">
+            <v>23.18000031</v>
+          </cell>
+          <cell r="D380">
+            <v>32.274788328280401</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="B381" t="str">
+            <v xml:space="preserve">2022/10/27
+</v>
+          </cell>
+          <cell r="C381">
+            <v>22.959999079999999</v>
+          </cell>
+          <cell r="D381">
+            <v>32.250211047941931</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="B382">
+            <v>44862</v>
+          </cell>
+          <cell r="C382">
+            <v>22.13999939</v>
+          </cell>
+          <cell r="D382">
+            <v>32.223605227789449</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="B383">
+            <v>44865</v>
+          </cell>
+          <cell r="C383">
+            <v>22.239999770000001</v>
+          </cell>
+          <cell r="D383">
+            <v>32.197401538923856</v>
           </cell>
         </row>
       </sheetData>
@@ -28562,7 +28944,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28680,31 +29062,31 @@
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F18" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F19" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="15">
-        <f t="shared" ref="G3:G18" si="1">G2+F3</f>
+        <f t="shared" ref="G3:G19" si="1">G2+F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H18" si="2">G3*B3</f>
+        <f t="shared" ref="H3:H19" si="2">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
-        <f t="shared" ref="I3:I18" si="3">IF(E3&gt;0,I2+E3,I2)</f>
+        <f t="shared" ref="I3:I19" si="3">IF(E3&gt;0,I2+E3,I2)</f>
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J18" si="4">H3+L3</f>
+        <f t="shared" ref="J3:J19" si="4">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K18" si="5">J3-I3</f>
+        <f t="shared" ref="K3:K19" si="5">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="14">
-        <f t="shared" ref="L3:L18" si="6">IF(E3&lt;0,L2-E3,L2)</f>
+        <f t="shared" ref="L3:L19" si="6">IF(E3&lt;0,L2-E3,L2)</f>
         <v>0</v>
       </c>
       <c r="M3" s="9"/>
@@ -28750,7 +29132,7 @@
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="14">
-        <f t="shared" ref="E4:E18" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <f t="shared" ref="E4:E19" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="F4" s="15">
@@ -29553,6 +29935,55 @@
         <v>0</v>
       </c>
       <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" ht="12.75">
+      <c r="A19" s="12">
+        <v>44865</v>
+      </c>
+      <c r="B19" s="13">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C19" s="13">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D19" s="14">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
+        <v>32.197401538923856</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="7"/>
+        <v>391641.90745168331</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="0"/>
+        <v>570075.57608662441</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" si="1"/>
+        <v>4023244.9591150144</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="2"/>
+        <v>2763969.1929088128</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="3"/>
+        <v>3094416.5845493269</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="4"/>
+        <v>2763969.1929088128</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="5"/>
+        <v>-330447.39164051414</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -29570,9 +30001,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -30745,31 +31176,31 @@
         <v>252649.34925635549</v>
       </c>
       <c r="F17" s="15">
-        <f t="shared" ref="F17:F18" ca="1" si="10">E17/B17</f>
+        <f t="shared" ref="F17:F19" ca="1" si="10">E17/B17</f>
         <v>330260.59343891655</v>
       </c>
       <c r="G17" s="15">
-        <f t="shared" ref="G17:G18" ca="1" si="11">G16+F17</f>
+        <f t="shared" ref="G17:G19" ca="1" si="11">G16+F17</f>
         <v>2966377.3661820074</v>
       </c>
       <c r="H17" s="15">
-        <f t="shared" ref="H17:H18" ca="1" si="12">G17*B17</f>
+        <f t="shared" ref="H17:H19" ca="1" si="12">G17*B17</f>
         <v>2269278.6426948672</v>
       </c>
       <c r="I17" s="15">
-        <f t="shared" ref="I17:I18" ca="1" si="13">IF(E17&gt;0,I16+E17,I16)</f>
+        <f t="shared" ref="I17:I19" ca="1" si="13">IF(E17&gt;0,I16+E17,I16)</f>
         <v>2363967.4431216232</v>
       </c>
       <c r="J17" s="15">
-        <f t="shared" ref="J17:J18" ca="1" si="14">H17+L17</f>
+        <f t="shared" ref="J17:J19" ca="1" si="14">H17+L17</f>
         <v>2269278.6426948672</v>
       </c>
       <c r="K17" s="15">
-        <f t="shared" ref="K17:K18" ca="1" si="15">J17-I17</f>
+        <f t="shared" ref="K17:K19" ca="1" si="15">J17-I17</f>
         <v>-94688.800426756032</v>
       </c>
       <c r="L17" s="14">
-        <f t="shared" ref="L17:L18" ca="1" si="16">IF(E17&lt;0,L16-E17,L16)</f>
+        <f t="shared" ref="L17:L19" ca="1" si="16">IF(E17&lt;0,L16-E17,L16)</f>
         <v>0</v>
       </c>
       <c r="M17" s="23">
@@ -30781,7 +31212,7 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="O17" s="23">
-        <f t="shared" ref="O17:O18" ca="1" si="17">(B17+M17+N17)/3</f>
+        <f t="shared" ref="O17:O19" ca="1" si="17">(B17+M17+N17)/3</f>
         <v>0.78500000635782874</v>
       </c>
       <c r="P17" s="23">
@@ -30891,6 +31322,91 @@
       </c>
       <c r="U18" s="11">
         <f ca="1">IF(AND(T18&gt;100,C18&gt;D18),1.2,IF(AND(T18&lt;-100,C18&lt;D18),1.2,1))</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="12.75">
+      <c r="A19" s="12">
+        <v>44865</v>
+      </c>
+      <c r="B19" s="13">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C19" s="13">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D19" s="14">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
+        <v>32.197401538923856</v>
+      </c>
+      <c r="E19" s="14">
+        <f ca="1">IF(C19&lt;D19,$E$2*(D19-C19)^2*U19,-$E$2*(D19-C19)^2*U19)</f>
+        <v>469970.28894201998</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" ca="1" si="10"/>
+        <v>684090.69130394934</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" ca="1" si="11"/>
+        <v>4234618.4777016155</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" ca="1" si="12"/>
+        <v>2909182.7952390611</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" ca="1" si="13"/>
+        <v>3240506.4128348678</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" ca="1" si="14"/>
+        <v>2909182.7952390611</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" ca="1" si="15"/>
+        <v>-331323.61759580672</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="23">
+        <f ca="1">MAX(VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A19,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="N19" s="23">
+        <f ca="1">MIN(VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A19,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="O19" s="23">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.7023333112398783</v>
+      </c>
+      <c r="P19" s="23">
+        <f ca="1">SUM(O6:O19)/14</f>
+        <v>0.84688095021247867</v>
+      </c>
+      <c r="Q19" s="23">
+        <f ca="1">O19-P19</f>
+        <v>-0.14454763897260037</v>
+      </c>
+      <c r="R19" s="23">
+        <f ca="1">AVEDEV(O6:O19)</f>
+        <v>9.5721091747283951E-2</v>
+      </c>
+      <c r="S19" s="9">
+        <f ca="1">0.015*R19</f>
+        <v>1.4358163762092592E-3</v>
+      </c>
+      <c r="T19" s="9">
+        <f ca="1">Q19/S19</f>
+        <v>-100.67278892181521</v>
+      </c>
+      <c r="U19" s="11">
+        <f ca="1">IF(AND(T19&gt;100,C19&gt;D19),1.2,IF(AND(T19&lt;-100,C19&lt;D19),1.2,1))</f>
         <v>1.2</v>
       </c>
     </row>
@@ -30910,7 +31426,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31033,7 +31549,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F18" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F19" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="15">
@@ -31041,7 +31557,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H18" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H19" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -31049,11 +31565,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J18" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J19" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K18" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K19" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="14">
@@ -31118,7 +31634,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" ref="G4:G18" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G19" si="4">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="15">
@@ -31126,7 +31642,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" ref="I4:I18" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I19" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="15">
@@ -31138,7 +31654,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="14">
-        <f t="shared" ref="L4:L18" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L19" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="9">
@@ -31146,7 +31662,7 @@
         <v>-53.501214932625707</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" ref="N4:N18" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
+        <f t="shared" ref="N4:N19" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
       <c r="P4" s="24">
@@ -31207,7 +31723,7 @@
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E18" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^2*N5,-$E$2*(D5-C5)^2*N5)</f>
+        <f t="shared" ref="E5:E19" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^2*N5,-$E$2*(D5-C5)^2*N5)</f>
         <v>31666.545626548228</v>
       </c>
       <c r="F5" s="15">
@@ -32015,6 +32531,63 @@
         <v>-112.42427728939072</v>
       </c>
       <c r="N18" s="9">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="12.75">
+      <c r="A19" s="12">
+        <v>44865</v>
+      </c>
+      <c r="B19" s="13">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C19" s="13">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D19" s="14">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
+        <v>32.197401538923856</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="9"/>
+        <v>469970.28894201998</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="0"/>
+        <v>684090.69130394934</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" si="4"/>
+        <v>4397258.941310239</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="1"/>
+        <v>3020916.7899380876</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="5"/>
+        <v>3372729.07677485</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="2"/>
+        <v>3020916.7899380876</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="3"/>
+        <v>-351812.28683676245</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>-146.0933885866429</v>
+      </c>
+      <c r="N19" s="9">
         <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
@@ -32035,7 +32608,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32158,7 +32731,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F18" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F19" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="15">
@@ -32166,7 +32739,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H18" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H19" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -32174,11 +32747,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J18" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J19" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K18" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K19" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="14">
@@ -32243,7 +32816,7 @@
         <v>3932.3301809611858</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" ref="G4:G18" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G19" si="4">G3+F4</f>
         <v>3932.3301809611858</v>
       </c>
       <c r="H4" s="15">
@@ -32251,7 +32824,7 @@
         <v>3955.9241620469529</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" ref="I4:I18" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I19" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="J4" s="15">
@@ -32263,7 +32836,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="14">
-        <f t="shared" ref="L4:L18" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L19" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="9">
@@ -32271,7 +32844,7 @@
         <v>-53.501214932625707</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" ref="N4:N18" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
+        <f t="shared" ref="N4:N19" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
       <c r="P4" s="24">
@@ -32332,7 +32905,7 @@
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E18" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^3*N5,$E$2*(D5-C5)^3*N5)</f>
+        <f t="shared" ref="E5:E19" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^3*N5,$E$2*(D5-C5)^3*N5)</f>
         <v>81848.714902699052</v>
       </c>
       <c r="F5" s="15">
@@ -33140,6 +33713,63 @@
         <v>-112.42427728939072</v>
       </c>
       <c r="N18" s="9">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="12.75">
+      <c r="A19" s="12">
+        <v>44865</v>
+      </c>
+      <c r="B19" s="13">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C19" s="13">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D19" s="14">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
+        <v>32.197401538923856</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="9"/>
+        <v>4679682.986452925</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="0"/>
+        <v>6811765.8596942881</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" si="4"/>
+        <v>38261651.510065518</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="1"/>
+        <v>26285753.693430729</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="5"/>
+        <v>28746325.621137921</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="2"/>
+        <v>26285753.693430729</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="3"/>
+        <v>-2460571.9277071916</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>-146.0933885866429</v>
+      </c>
+      <c r="N19" s="9">
         <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
@@ -33160,9 +33790,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -33299,7 +33929,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H18" si="0">G3/B3</f>
+        <f t="shared" ref="H3:H19" si="0">G3/B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -33307,7 +33937,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J18" si="1">I3*B3</f>
+        <f t="shared" ref="J3:J19" si="1">I3*B3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
@@ -33315,11 +33945,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="15">
-        <f t="shared" ref="L3:L18" si="2">J3+N3</f>
+        <f t="shared" ref="L3:L19" si="2">J3+N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="15">
-        <f t="shared" ref="M3:M18" si="3">L3-K3</f>
+        <f t="shared" ref="M3:M19" si="3">L3-K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="14">
@@ -33392,7 +34022,7 @@
         <v>1049.4536589575841</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" ref="I4:I18" si="4">I3+H4</f>
+        <f t="shared" ref="I4:I19" si="4">I3+H4</f>
         <v>1049.4536589575841</v>
       </c>
       <c r="J4" s="15">
@@ -33400,7 +34030,7 @@
         <v>1055.7503809113296</v>
       </c>
       <c r="K4" s="15">
-        <f t="shared" ref="K4:K18" si="5">IF(G4&gt;0,K3+G4,K3)</f>
+        <f t="shared" ref="K4:K19" si="5">IF(G4&gt;0,K3+G4,K3)</f>
         <v>1055.7503809113296</v>
       </c>
       <c r="L4" s="15">
@@ -33412,7 +34042,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" ref="N4:N18" si="6">IF(G4&lt;0,N3-G4,N3)</f>
+        <f t="shared" ref="N4:N19" si="6">IF(G4&lt;0,N3-G4,N3)</f>
         <v>0</v>
       </c>
       <c r="O4" s="9">
@@ -33420,7 +34050,7 @@
         <v>-53.501214932625707</v>
       </c>
       <c r="P4" s="9">
-        <f t="shared" ref="P4:P18" si="7">IF(AND(O4&gt;100,C4&gt;D4),1.2,IF(AND(O4&lt;-100,C4&lt;D4),1.2,1))</f>
+        <f t="shared" ref="P4:P19" si="7">IF(AND(O4&gt;100,C4&gt;D4),1.2,IF(AND(O4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
       <c r="R4" s="24">
@@ -33489,7 +34119,7 @@
         <v>21490456.638297871</v>
       </c>
       <c r="G5" s="14">
-        <f t="shared" ref="G5:G18" si="9">IF(C5&lt;D5,$G$2*(D5-C5)^3*P5*E5/F5,$G$2*(D5-C5)^3*P5*E5/F5)</f>
+        <f t="shared" ref="G5:G19" si="9">IF(C5&lt;D5,$G$2*(D5-C5)^3*P5*E5/F5,$G$2*(D5-C5)^3*P5*E5/F5)</f>
         <v>16983.872079062337</v>
       </c>
       <c r="H5" s="15">
@@ -34405,6 +35035,71 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="19" spans="1:16" ht="12.75">
+      <c r="A19" s="12">
+        <v>44865</v>
+      </c>
+      <c r="B19" s="13">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C19" s="13">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D19" s="14">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
+        <v>32.197401538923856</v>
+      </c>
+      <c r="E19" s="14">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
+        <v>3400007.75</v>
+      </c>
+      <c r="F19" s="14">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$I,9)</f>
+        <v>5444602.8119248468</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="9"/>
+        <v>2922335.9299294855</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="0"/>
+        <v>4253764.2348162662</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="4"/>
+        <v>12597644.192859408</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="1"/>
+        <v>8654581.2661501952</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="5"/>
+        <v>9223919.4848935045</v>
+      </c>
+      <c r="L19" s="15">
+        <f t="shared" si="2"/>
+        <v>8654581.2661501952</v>
+      </c>
+      <c r="M19" s="15">
+        <f t="shared" si="3"/>
+        <v>-569338.21874330938</v>
+      </c>
+      <c r="N19" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>-146.0933885866429</v>
+      </c>
+      <c r="P19" s="9">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="model4(1)" sheetId="9" r:id="rId1"/>
@@ -565,7 +565,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -616,6 +616,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -625,7 +628,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -676,6 +679,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3094416.5845493269</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3405393.8463527663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,7 +724,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -769,6 +775,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,7 +787,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -829,6 +838,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2763969.1929088128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3207713.7474722113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,7 +883,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -922,6 +934,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -931,7 +946,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -982,6 +997,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-330447.39164051414</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-197680.09888055502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,11 +1021,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70988544"/>
-        <c:axId val="70990080"/>
+        <c:axId val="88341120"/>
+        <c:axId val="88387968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="70988544"/>
+        <c:axId val="88341120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,14 +1068,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70990080"/>
+        <c:crossAx val="88387968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="70990080"/>
+        <c:axId val="88387968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,7 +1126,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70988544"/>
+        <c:crossAx val="88341120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1267,7 +1285,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1318,6 +1336,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2922335.9299294855</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1313323.0596551057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,8 +1353,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="610447744"/>
-        <c:axId val="610417280"/>
+        <c:axId val="75640192"/>
+        <c:axId val="75638656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1358,7 +1379,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1409,6 +1430,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,7 +1442,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1469,6 +1493,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.68699997663497925</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72000002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1485,11 +1512,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="610360704"/>
-        <c:axId val="610415744"/>
+        <c:axId val="75635328"/>
+        <c:axId val="75637120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="610360704"/>
+        <c:axId val="75635328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,14 +1559,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610415744"/>
+        <c:crossAx val="75637120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="610415744"/>
+        <c:axId val="75637120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,12 +1617,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610360704"/>
+        <c:crossAx val="75635328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="610417280"/>
+        <c:axId val="75638656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,12 +1659,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610447744"/>
+        <c:crossAx val="75640192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="610447744"/>
+        <c:axId val="75640192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,7 +1673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="610417280"/>
+        <c:crossAx val="75638656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1777,7 +1804,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1828,6 +1855,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>391641.90745168331</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>310977.26180343935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1842,8 +1872,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="386527616"/>
-        <c:axId val="108182912"/>
+        <c:axId val="98634752"/>
+        <c:axId val="98633216"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1868,7 +1898,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1919,6 +1949,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1928,7 +1961,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1979,6 +2012,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.68699997663497925</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72000002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1995,11 +2031,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108179456"/>
-        <c:axId val="108180992"/>
+        <c:axId val="91412352"/>
+        <c:axId val="91413888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="108179456"/>
+        <c:axId val="91412352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2042,14 +2078,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108180992"/>
+        <c:crossAx val="91413888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="108180992"/>
+        <c:axId val="91413888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,12 +2136,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108179456"/>
+        <c:crossAx val="91412352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108182912"/>
+        <c:axId val="98633216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2142,12 +2178,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386527616"/>
+        <c:crossAx val="98634752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="386527616"/>
+        <c:axId val="98634752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,7 +2192,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108182912"/>
+        <c:crossAx val="98633216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2305,7 +2341,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2356,6 +2392,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2365,7 +2404,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2416,6 +2455,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3240506.4128348678</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3551483.6746383072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2458,7 +2500,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2509,6 +2551,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2518,7 +2563,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2569,6 +2614,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2909182.7952390611</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3359902.686902009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2611,7 +2659,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2662,6 +2710,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2671,7 +2722,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2722,6 +2773,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-331323.61759580672</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-191580.98773629824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2743,11 +2797,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="621075456"/>
-        <c:axId val="621307008"/>
+        <c:axId val="484672640"/>
+        <c:axId val="490881024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="621075456"/>
+        <c:axId val="484672640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2790,14 +2844,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621307008"/>
+        <c:crossAx val="490881024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="621307008"/>
+        <c:axId val="490881024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2848,7 +2902,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621075456"/>
+        <c:crossAx val="484672640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3007,7 +3061,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3058,6 +3112,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>469970.28894201998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>310977.26180343935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3072,8 +3129,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="76936704"/>
-        <c:axId val="76935168"/>
+        <c:axId val="541305472"/>
+        <c:axId val="541303936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3098,7 +3155,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3149,6 +3206,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3158,7 +3218,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3209,6 +3269,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.68699997663497925</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72000002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3225,11 +3288,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="632603008"/>
-        <c:axId val="632604544"/>
+        <c:axId val="536860160"/>
+        <c:axId val="536861696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="632603008"/>
+        <c:axId val="536860160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3272,14 +3335,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632604544"/>
+        <c:crossAx val="536861696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="632604544"/>
+        <c:axId val="536861696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3330,12 +3393,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632603008"/>
+        <c:crossAx val="536860160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76935168"/>
+        <c:axId val="541303936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3372,12 +3435,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76936704"/>
+        <c:crossAx val="541305472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="76936704"/>
+        <c:axId val="541305472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3386,7 +3449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76935168"/>
+        <c:crossAx val="541303936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3535,7 +3598,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3586,6 +3649,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3595,7 +3661,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3646,6 +3712,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3372729.07677485</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3683706.3385782894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3688,7 +3757,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3739,6 +3808,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3748,7 +3820,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3799,6 +3871,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3020916.7899380876</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3477003.8253533985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3841,7 +3916,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3892,6 +3967,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3901,7 +3979,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3952,6 +4030,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-351812.28683676245</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-206702.51322489092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3973,11 +4054,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81011456"/>
-        <c:axId val="81012992"/>
+        <c:axId val="577740800"/>
+        <c:axId val="577742336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="81011456"/>
+        <c:axId val="577740800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4020,14 +4101,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81012992"/>
+        <c:crossAx val="577742336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="81012992"/>
+        <c:axId val="577742336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4078,7 +4159,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81011456"/>
+        <c:crossAx val="577740800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4237,7 +4318,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4288,6 +4369,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>469970.28894201998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>310977.26180343935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4302,8 +4386,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="81040512"/>
-        <c:axId val="81038720"/>
+        <c:axId val="50500352"/>
+        <c:axId val="50498560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4328,7 +4412,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4379,6 +4463,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4388,7 +4475,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4439,6 +4526,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.68699997663497925</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72000002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4455,11 +4545,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81035648"/>
-        <c:axId val="81037184"/>
+        <c:axId val="50495488"/>
+        <c:axId val="50497024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="81035648"/>
+        <c:axId val="50495488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4502,14 +4592,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81037184"/>
+        <c:crossAx val="50497024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="81037184"/>
+        <c:axId val="50497024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4560,12 +4650,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81035648"/>
+        <c:crossAx val="50495488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81038720"/>
+        <c:axId val="50498560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4602,12 +4692,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81040512"/>
+        <c:crossAx val="50500352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="81040512"/>
+        <c:axId val="50500352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4616,7 +4706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81038720"/>
+        <c:crossAx val="50498560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4765,7 +4855,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4816,6 +4906,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4825,7 +4918,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4876,6 +4969,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>28746325.621137921</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31505596.929229394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4918,7 +5014,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4969,6 +5065,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4978,7 +5077,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5029,6 +5128,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>26285753.693430729</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30307661.490013275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5071,7 +5173,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5122,6 +5224,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5131,7 +5236,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5182,6 +5287,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-2460571.9277071916</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1197935.4392161183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5203,11 +5311,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="483287424"/>
-        <c:axId val="483288960"/>
+        <c:axId val="69419008"/>
+        <c:axId val="69420544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="483287424"/>
+        <c:axId val="69419008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5250,14 +5358,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483288960"/>
+        <c:crossAx val="69420544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483288960"/>
+        <c:axId val="69420544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5308,7 +5416,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483287424"/>
+        <c:crossAx val="69419008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5467,7 +5575,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5518,6 +5626,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>38261651.510065518</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42093972.619020917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5532,8 +5643,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="602628864"/>
-        <c:axId val="602622976"/>
+        <c:axId val="69443968"/>
+        <c:axId val="69438080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5558,7 +5669,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5609,6 +5720,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5618,7 +5732,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5669,6 +5783,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.68699997663497925</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72000002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5685,11 +5802,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602619904"/>
-        <c:axId val="602621440"/>
+        <c:axId val="69430656"/>
+        <c:axId val="69436544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602619904"/>
+        <c:axId val="69430656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5732,14 +5849,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602621440"/>
+        <c:crossAx val="69436544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602621440"/>
+        <c:axId val="69436544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5790,12 +5907,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602619904"/>
+        <c:crossAx val="69430656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="602622976"/>
+        <c:axId val="69438080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5832,12 +5949,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602628864"/>
+        <c:crossAx val="69443968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="602628864"/>
+        <c:axId val="69443968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5846,7 +5963,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="602622976"/>
+        <c:crossAx val="69438080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5939,6 +6056,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5995,7 +6113,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6046,6 +6164,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6055,7 +6176,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6106,6 +6227,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>9223919.4848935045</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10537242.54454861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6148,7 +6272,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6199,6 +6323,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6208,7 +6335,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6259,6 +6386,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>8654581.2661501952</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10383627.238935372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6301,7 +6431,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6352,6 +6482,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6361,7 +6494,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6412,6 +6545,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-569338.21874330938</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-153615.30561323836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6433,11 +6569,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602660864"/>
-        <c:axId val="602662400"/>
+        <c:axId val="69459328"/>
+        <c:axId val="69461120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602660864"/>
+        <c:axId val="69459328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6480,14 +6616,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602662400"/>
+        <c:crossAx val="69461120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602662400"/>
+        <c:axId val="69461120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6538,7 +6674,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602660864"/>
+        <c:crossAx val="69459328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6552,6 +6688,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7809,6 +7946,12 @@
           <cell r="I19">
             <v>43642273.117647059</v>
           </cell>
+          <cell r="K19">
+            <v>44925</v>
+          </cell>
+          <cell r="L19">
+            <v>44896</v>
+          </cell>
           <cell r="N19">
             <v>1.0529999999999999</v>
           </cell>
@@ -24187,10 +24330,10 @@
             <v>5444602.8119248468</v>
           </cell>
           <cell r="N328">
-            <v>0</v>
+            <v>0.70499998331069946</v>
           </cell>
           <cell r="O328">
-            <v>0</v>
+            <v>0.68400001525878906</v>
           </cell>
           <cell r="P328">
             <v>0.68566664059956872</v>
@@ -24209,6 +24352,1172 @@
           </cell>
           <cell r="U328">
             <v>-146.0933885866429</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="A329">
+            <v>44866</v>
+          </cell>
+          <cell r="B329">
+            <v>0.68900001049041748</v>
+          </cell>
+          <cell r="C329">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="D329">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="E329">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="F329">
+            <v>4066501.25</v>
+          </cell>
+          <cell r="G329">
+            <v>2806.73095703125</v>
+          </cell>
+          <cell r="H329">
+            <v>327</v>
+          </cell>
+          <cell r="I329">
+            <v>5440388.4340596329</v>
+          </cell>
+          <cell r="N329">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="O329">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P329">
+            <v>0.69799999396006263</v>
+          </cell>
+          <cell r="Q329">
+            <v>0.71021428420430144</v>
+          </cell>
+          <cell r="R329">
+            <v>-1.2214290244238812E-2</v>
+          </cell>
+          <cell r="S329">
+            <v>1.0785711663109923E-2</v>
+          </cell>
+          <cell r="T329">
+            <v>1.6178567494664885E-4</v>
+          </cell>
+          <cell r="U329">
+            <v>-75.496735098868612</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="A330">
+            <v>44867</v>
+          </cell>
+          <cell r="B330">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="C330">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="D330">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="E330">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="F330">
+            <v>3588100</v>
+          </cell>
+          <cell r="G330">
+            <v>2554.7890625</v>
+          </cell>
+          <cell r="H330">
+            <v>328</v>
+          </cell>
+          <cell r="I330">
+            <v>5434741.213224085</v>
+          </cell>
+          <cell r="N330">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="O330">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P330">
+            <v>0.71466666460037231</v>
+          </cell>
+          <cell r="Q330">
+            <v>0.71064285437266039</v>
+          </cell>
+          <cell r="R330">
+            <v>4.0238102277119214E-3</v>
+          </cell>
+          <cell r="S330">
+            <v>1.0931971527281259E-2</v>
+          </cell>
+          <cell r="T330">
+            <v>1.6397957290921887E-4</v>
+          </cell>
+          <cell r="U330">
+            <v>24.538484619297996</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="A331">
+            <v>44868</v>
+          </cell>
+          <cell r="B331">
+            <v>0.71100002527236938</v>
+          </cell>
+          <cell r="C331">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="D331">
+            <v>0.70999997854232788</v>
+          </cell>
+          <cell r="E331">
+            <v>0.71299999952316284</v>
+          </cell>
+          <cell r="F331">
+            <v>2969101</v>
+          </cell>
+          <cell r="G331">
+            <v>2118.14306640625</v>
+          </cell>
+          <cell r="H331">
+            <v>329</v>
+          </cell>
+          <cell r="I331">
+            <v>5427246.8660714282</v>
+          </cell>
+          <cell r="N331">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="O331">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P331">
+            <v>0.71266665061314904</v>
+          </cell>
+          <cell r="Q331">
+            <v>0.71026190121968591</v>
+          </cell>
+          <cell r="R331">
+            <v>2.4047493934631348E-3</v>
+          </cell>
+          <cell r="S331">
+            <v>1.0605440253303169E-2</v>
+          </cell>
+          <cell r="T331">
+            <v>1.5908160379954754E-4</v>
+          </cell>
+          <cell r="U331">
+            <v>15.116451783408374</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="A332">
+            <v>44869</v>
+          </cell>
+          <cell r="B332">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="C332">
+            <v>0.73799997568130493</v>
+          </cell>
+          <cell r="D332">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="E332">
+            <v>0.73600000143051147</v>
+          </cell>
+          <cell r="F332">
+            <v>3661902</v>
+          </cell>
+          <cell r="G332">
+            <v>2657.242919921875</v>
+          </cell>
+          <cell r="H332">
+            <v>330</v>
+          </cell>
+          <cell r="I332">
+            <v>5421897.3361742422</v>
+          </cell>
+          <cell r="N332">
+            <v>0.73799997568130493</v>
+          </cell>
+          <cell r="O332">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P332">
+            <v>0.72999999920527137</v>
+          </cell>
+          <cell r="Q332">
+            <v>0.71057142530168804</v>
+          </cell>
+          <cell r="R332">
+            <v>1.9428573903583324E-2</v>
+          </cell>
+          <cell r="S332">
+            <v>1.0870746609305046E-2</v>
+          </cell>
+          <cell r="T332">
+            <v>1.630611991395757E-4</v>
+          </cell>
+          <cell r="U332">
+            <v>119.14896987206026</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="A333">
+            <v>44872</v>
+          </cell>
+          <cell r="B333">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="C333">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="D333">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="E333">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="F333">
+            <v>2424500</v>
+          </cell>
+          <cell r="G333">
+            <v>1782.22900390625</v>
+          </cell>
+          <cell r="H333">
+            <v>331</v>
+          </cell>
+          <cell r="I333">
+            <v>5412841.7550981874</v>
+          </cell>
+          <cell r="N333">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="O333">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P333">
+            <v>0.7346666852633158</v>
+          </cell>
+          <cell r="Q333">
+            <v>0.71064285579181852</v>
+          </cell>
+          <cell r="R333">
+            <v>2.4023829471497282E-2</v>
+          </cell>
+          <cell r="S333">
+            <v>1.0931972743702587E-2</v>
+          </cell>
+          <cell r="T333">
+            <v>1.639795911555388E-4</v>
+          </cell>
+          <cell r="U333">
+            <v>146.50499676334766</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="A334">
+            <v>44873</v>
+          </cell>
+          <cell r="B334">
+            <v>0.73600000143051147</v>
+          </cell>
+          <cell r="C334">
+            <v>0.73600000143051147</v>
+          </cell>
+          <cell r="D334">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="E334">
+            <v>0.72699999809265137</v>
+          </cell>
+          <cell r="F334">
+            <v>2755801</v>
+          </cell>
+          <cell r="G334">
+            <v>2007.2960205078125</v>
+          </cell>
+          <cell r="H334">
+            <v>332</v>
+          </cell>
+          <cell r="I334">
+            <v>5404838.620293675</v>
+          </cell>
+          <cell r="N334">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="O334">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P334">
+            <v>0.72899999221165979</v>
+          </cell>
+          <cell r="Q334">
+            <v>0.71076190329733346</v>
+          </cell>
+          <cell r="R334">
+            <v>1.8238088914326323E-2</v>
+          </cell>
+          <cell r="S334">
+            <v>1.1034013462715415E-2</v>
+          </cell>
+          <cell r="T334">
+            <v>1.6551020194073123E-4</v>
+          </cell>
+          <cell r="U334">
+            <v>110.19314036519232</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="A335">
+            <v>44874</v>
+          </cell>
+          <cell r="B335">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="C335">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="D335">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E335">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="F335">
+            <v>2908406</v>
+          </cell>
+          <cell r="G335">
+            <v>2104.299072265625</v>
+          </cell>
+          <cell r="H335">
+            <v>333</v>
+          </cell>
+          <cell r="I335">
+            <v>5397341.8256381378</v>
+          </cell>
+          <cell r="N335">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="O335">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P335">
+            <v>0.72433334589004517</v>
+          </cell>
+          <cell r="Q335">
+            <v>0.71130952380952384</v>
+          </cell>
+          <cell r="R335">
+            <v>1.302382208052133E-2</v>
+          </cell>
+          <cell r="S335">
+            <v>1.1547619388217023E-2</v>
+          </cell>
+          <cell r="T335">
+            <v>1.7321429082325533E-4</v>
+          </cell>
+          <cell r="U335">
+            <v>75.189073711075025</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="A336">
+            <v>44875</v>
+          </cell>
+          <cell r="B336">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="C336">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="D336">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="E336">
+            <v>0.70899999141693115</v>
+          </cell>
+          <cell r="F336">
+            <v>3683300</v>
+          </cell>
+          <cell r="G336">
+            <v>2612.735107421875</v>
+          </cell>
+          <cell r="H336">
+            <v>334</v>
+          </cell>
+          <cell r="I336">
+            <v>5392209.9638847308</v>
+          </cell>
+          <cell r="N336">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="O336">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P336">
+            <v>0.71133333444595337</v>
+          </cell>
+          <cell r="Q336">
+            <v>0.71107142879849394</v>
+          </cell>
+          <cell r="R336">
+            <v>2.6190564745942613E-4</v>
+          </cell>
+          <cell r="S336">
+            <v>1.1309524377187099E-2</v>
+          </cell>
+          <cell r="T336">
+            <v>1.6964286565780646E-4</v>
+          </cell>
+          <cell r="U336">
+            <v>1.5438647917427113</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="A337">
+            <v>44876</v>
+          </cell>
+          <cell r="B337">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="C337">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="D337">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="E337">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="F337">
+            <v>3560304</v>
+          </cell>
+          <cell r="G337">
+            <v>2588.037109375</v>
+          </cell>
+          <cell r="H337">
+            <v>335</v>
+          </cell>
+          <cell r="I337">
+            <v>5386741.5878731348</v>
+          </cell>
+          <cell r="N337">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="O337">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P337">
+            <v>0.72666668891906738</v>
+          </cell>
+          <cell r="Q337">
+            <v>0.71250000170298988</v>
+          </cell>
+          <cell r="R337">
+            <v>1.41666872160775E-2</v>
+          </cell>
+          <cell r="S337">
+            <v>1.2071430683135995E-2</v>
+          </cell>
+          <cell r="T337">
+            <v>1.8107146024703993E-4</v>
+          </cell>
+          <cell r="U337">
+            <v>78.238101116264076</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="A338">
+            <v>44879</v>
+          </cell>
+          <cell r="B338">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="C338">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="D338">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E338">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="F338">
+            <v>3003903</v>
+          </cell>
+          <cell r="G338">
+            <v>2189.81298828125</v>
+          </cell>
+          <cell r="H338">
+            <v>336</v>
+          </cell>
+          <cell r="I338">
+            <v>5379649.8063616073</v>
+          </cell>
+          <cell r="N338">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="O338">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P338">
+            <v>0.72633334000905359</v>
+          </cell>
+          <cell r="Q338">
+            <v>0.71447619228135972</v>
+          </cell>
+          <cell r="R338">
+            <v>1.1857147727693862E-2</v>
+          </cell>
+          <cell r="S338">
+            <v>1.2047624304181057E-2</v>
+          </cell>
+          <cell r="T338">
+            <v>1.8071436456271585E-4</v>
+          </cell>
+          <cell r="U338">
+            <v>65.612646545199837</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="A339">
+            <v>44880</v>
+          </cell>
+          <cell r="B339">
+            <v>0.72500002384185791</v>
+          </cell>
+          <cell r="C339">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="D339">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="E339">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="F339">
+            <v>5722604</v>
+          </cell>
+          <cell r="G339">
+            <v>4205.744140625</v>
+          </cell>
+          <cell r="H339">
+            <v>337</v>
+          </cell>
+          <cell r="I339">
+            <v>5380667.4745919881</v>
+          </cell>
+          <cell r="N339">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="O339">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P339">
+            <v>0.73599998156229651</v>
+          </cell>
+          <cell r="Q339">
+            <v>0.71626190486408425</v>
+          </cell>
+          <cell r="R339">
+            <v>1.9738076698212259E-2</v>
+          </cell>
+          <cell r="S339">
+            <v>1.3309528430302935E-2</v>
+          </cell>
+          <cell r="T339">
+            <v>1.9964292645454401E-4</v>
+          </cell>
+          <cell r="U339">
+            <v>98.866897258723327</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="A340">
+            <v>44881</v>
+          </cell>
+          <cell r="B340">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="C340">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="D340">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="E340">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="F340">
+            <v>1012900</v>
+          </cell>
+          <cell r="G340">
+            <v>748.44000244140625</v>
+          </cell>
+          <cell r="H340">
+            <v>338</v>
+          </cell>
+          <cell r="I340">
+            <v>5367745.0856139055</v>
+          </cell>
+          <cell r="N340">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O340">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P340">
+            <v>0.73766668637593591</v>
+          </cell>
+          <cell r="Q340">
+            <v>0.71826190607888363</v>
+          </cell>
+          <cell r="R340">
+            <v>1.9404780297052282E-2</v>
+          </cell>
+          <cell r="S340">
+            <v>1.4081638686510975E-2</v>
+          </cell>
+          <cell r="T340">
+            <v>2.1122458029766461E-4</v>
+          </cell>
+          <cell r="U340">
+            <v>91.868002624062171</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="A341">
+            <v>44882</v>
+          </cell>
+          <cell r="B341">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="C341">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="D341">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E341">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="F341">
+            <v>3281900</v>
+          </cell>
+          <cell r="G341">
+            <v>2381.821044921875</v>
+          </cell>
+          <cell r="H341">
+            <v>339</v>
+          </cell>
+          <cell r="I341">
+            <v>5361592.1502581118</v>
+          </cell>
+          <cell r="N341">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O341">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P341">
+            <v>0.72733334700266516</v>
+          </cell>
+          <cell r="Q341">
+            <v>0.7210238107613155</v>
+          </cell>
+          <cell r="R341">
+            <v>6.309536241349667E-3</v>
+          </cell>
+          <cell r="S341">
+            <v>1.1826538512495901E-2</v>
+          </cell>
+          <cell r="T341">
+            <v>1.7739807768743851E-4</v>
+          </cell>
+          <cell r="U341">
+            <v>35.567106045346073</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="A342">
+            <v>44883</v>
+          </cell>
+          <cell r="B342">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="C342">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="D342">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="E342">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="F342">
+            <v>2393401</v>
+          </cell>
+          <cell r="G342">
+            <v>1758.56494140625</v>
+          </cell>
+          <cell r="H342">
+            <v>340</v>
+          </cell>
+          <cell r="I342">
+            <v>5352862.1762867644</v>
+          </cell>
+          <cell r="N342">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O342">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P342">
+            <v>0.73366667826970422</v>
+          </cell>
+          <cell r="Q342">
+            <v>0.72445238488061092</v>
+          </cell>
+          <cell r="R342">
+            <v>9.2142933890932976E-3</v>
+          </cell>
+          <cell r="S342">
+            <v>8.7517049847816806E-3</v>
+          </cell>
+          <cell r="T342">
+            <v>1.312755747717252E-4</v>
+          </cell>
+          <cell r="U342">
+            <v>70.190463116356653</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="A343">
+            <v>44886</v>
+          </cell>
+          <cell r="B343">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="C343">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="D343">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E343">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="F343">
+            <v>3153102</v>
+          </cell>
+          <cell r="G343">
+            <v>2289.886962890625</v>
+          </cell>
+          <cell r="H343">
+            <v>341</v>
+          </cell>
+          <cell r="I343">
+            <v>5346411.2666788856</v>
+          </cell>
+          <cell r="N343">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O343">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P343">
+            <v>0.72633332014083862</v>
+          </cell>
+          <cell r="Q343">
+            <v>0.72647619389352347</v>
+          </cell>
+          <cell r="R343">
+            <v>-1.428737526848467E-4</v>
+          </cell>
+          <cell r="S343">
+            <v>6.1700725231040787E-3</v>
+          </cell>
+          <cell r="T343">
+            <v>9.2551087846561177E-5</v>
+          </cell>
+          <cell r="U343">
+            <v>-1.5437285072403966</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="A344">
+            <v>44887</v>
+          </cell>
+          <cell r="B344">
+            <v>0.72299998998641968</v>
+          </cell>
+          <cell r="C344">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="D344">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="E344">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="F344">
+            <v>3219613</v>
+          </cell>
+          <cell r="G344">
+            <v>2322.748046875</v>
+          </cell>
+          <cell r="H344">
+            <v>342</v>
+          </cell>
+          <cell r="I344">
+            <v>5340192.5582967838</v>
+          </cell>
+          <cell r="N344">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O344">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P344">
+            <v>0.718666672706604</v>
+          </cell>
+          <cell r="Q344">
+            <v>0.7267619087582543</v>
+          </cell>
+          <cell r="R344">
+            <v>-8.0952360516503008E-3</v>
+          </cell>
+          <cell r="S344">
+            <v>5.8571440832955414E-3</v>
+          </cell>
+          <cell r="T344">
+            <v>8.7857161249433113E-5</v>
+          </cell>
+          <cell r="U344">
+            <v>-92.140878859804204</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="A345">
+            <v>44888</v>
+          </cell>
+          <cell r="B345">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="C345">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="D345">
+            <v>0.71100002527236938</v>
+          </cell>
+          <cell r="E345">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="F345">
+            <v>2462800</v>
+          </cell>
+          <cell r="G345">
+            <v>1759.5560302734375</v>
+          </cell>
+          <cell r="H345">
+            <v>343</v>
+          </cell>
+          <cell r="I345">
+            <v>5331803.6587099126</v>
+          </cell>
+          <cell r="N345">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O345">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P345">
+            <v>0.71566667159398401</v>
+          </cell>
+          <cell r="Q345">
+            <v>0.72697619597117114</v>
+          </cell>
+          <cell r="R345">
+            <v>-1.130952437718713E-2</v>
+          </cell>
+          <cell r="S345">
+            <v>5.6428568703787586E-3</v>
+          </cell>
+          <cell r="T345">
+            <v>8.4642853055681371E-5</v>
+          </cell>
+          <cell r="U345">
+            <v>-133.61464044397562</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="A346">
+            <v>44889</v>
+          </cell>
+          <cell r="B346">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="C346">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="D346">
+            <v>0.71299999952316284</v>
+          </cell>
+          <cell r="E346">
+            <v>0.71399998664855957</v>
+          </cell>
+          <cell r="F346">
+            <v>2647100</v>
+          </cell>
+          <cell r="G346">
+            <v>1893.616943359375</v>
+          </cell>
+          <cell r="H346">
+            <v>344</v>
+          </cell>
+          <cell r="I346">
+            <v>5323999.2876090119</v>
+          </cell>
+          <cell r="N346">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O346">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P346">
+            <v>0.71566667159398401</v>
+          </cell>
+          <cell r="Q346">
+            <v>0.7259523868560791</v>
+          </cell>
+          <cell r="R346">
+            <v>-1.0285715262095096E-2</v>
+          </cell>
+          <cell r="S346">
+            <v>6.2993197214035734E-3</v>
+          </cell>
+          <cell r="T346">
+            <v>9.4489795821053597E-5</v>
+          </cell>
+          <cell r="U346">
+            <v>-108.8553020219703</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="A347">
+            <v>44890</v>
+          </cell>
+          <cell r="B347">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="C347">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="D347">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="E347">
+            <v>0.70899999141693115</v>
+          </cell>
+          <cell r="F347">
+            <v>1362800</v>
+          </cell>
+          <cell r="G347">
+            <v>968.49102783203125</v>
+          </cell>
+          <cell r="H347">
+            <v>345</v>
+          </cell>
+          <cell r="I347">
+            <v>5312517.5505434787</v>
+          </cell>
+          <cell r="N347">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O347">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P347">
+            <v>0.71200001239776611</v>
+          </cell>
+          <cell r="Q347">
+            <v>0.72433333879425421</v>
+          </cell>
+          <cell r="R347">
+            <v>-1.2333326396488098E-2</v>
+          </cell>
+          <cell r="S347">
+            <v>6.904761604711286E-3</v>
+          </cell>
+          <cell r="T347">
+            <v>1.0357142407066929E-4</v>
+          </cell>
+          <cell r="U347">
+            <v>-119.08039796838915</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="A348">
+            <v>44893</v>
+          </cell>
+          <cell r="B348">
+            <v>0.70999997854232788</v>
+          </cell>
+          <cell r="C348">
+            <v>0.70999997854232788</v>
+          </cell>
+          <cell r="D348">
+            <v>0.6940000057220459</v>
+          </cell>
+          <cell r="E348">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="F348">
+            <v>2657600</v>
+          </cell>
+          <cell r="G348">
+            <v>1855.81494140625</v>
+          </cell>
+          <cell r="H348">
+            <v>346</v>
+          </cell>
+          <cell r="I348">
+            <v>5304844.3784320811</v>
+          </cell>
+          <cell r="N348">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O348">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P348">
+            <v>0.70299998919169104</v>
+          </cell>
+          <cell r="Q348">
+            <v>0.72247619572139921</v>
+          </cell>
+          <cell r="R348">
+            <v>-1.9476206529708162E-2</v>
+          </cell>
+          <cell r="S348">
+            <v>8.3605460569161159E-3</v>
+          </cell>
+          <cell r="T348">
+            <v>1.2540819085374172E-4</v>
+          </cell>
+          <cell r="U348">
+            <v>-155.30250773191074</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="A349">
+            <v>44894</v>
+          </cell>
+          <cell r="B349">
+            <v>0.70899999141693115</v>
+          </cell>
+          <cell r="C349">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="D349">
+            <v>0.70800000429153442</v>
+          </cell>
+          <cell r="E349">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="F349">
+            <v>2146700</v>
+          </cell>
+          <cell r="G349">
+            <v>1530.8990478515625</v>
+          </cell>
+          <cell r="H349">
+            <v>347</v>
+          </cell>
+          <cell r="I349">
+            <v>5295743.0978025934</v>
+          </cell>
+          <cell r="N349">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O349">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P349">
+            <v>0.71566667159398401</v>
+          </cell>
+          <cell r="Q349">
+            <v>0.72185714755739483</v>
+          </cell>
+          <cell r="R349">
+            <v>-6.1904759634108242E-3</v>
+          </cell>
+          <cell r="S349">
+            <v>8.7142870539710614E-3</v>
+          </cell>
+          <cell r="T349">
+            <v>1.3071430580956591E-4</v>
+          </cell>
+          <cell r="U349">
+            <v>-47.358825226288232</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="A350">
+            <v>44895</v>
+          </cell>
+          <cell r="B350">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="C350">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="D350">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="E350">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="F350">
+            <v>2516800</v>
+          </cell>
+          <cell r="G350">
+            <v>1814.135986328125</v>
+          </cell>
+          <cell r="H350">
+            <v>348</v>
+          </cell>
+          <cell r="I350">
+            <v>5287757.6291307472</v>
+          </cell>
+          <cell r="N350">
+            <v>0</v>
+          </cell>
+          <cell r="O350">
+            <v>0</v>
+          </cell>
+          <cell r="P350">
+            <v>0.72099999586741126</v>
+          </cell>
+          <cell r="Q350">
+            <v>0.72254762337321321</v>
+          </cell>
+          <cell r="R350">
+            <v>-1.5476275058019517E-3</v>
+          </cell>
+          <cell r="S350">
+            <v>8.0238112381526405E-3</v>
+          </cell>
+          <cell r="T350">
+            <v>1.203571685722896E-4</v>
+          </cell>
+          <cell r="U350">
+            <v>-12.858623413630797</v>
           </cell>
         </row>
       </sheetData>
@@ -28648,6 +29957,269 @@
           </cell>
           <cell r="D383">
             <v>32.197401538923856</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="B384" t="str">
+            <v xml:space="preserve">2022/11/1
+</v>
+          </cell>
+          <cell r="C384">
+            <v>22.270000459999999</v>
+          </cell>
+          <cell r="D384">
+            <v>32.171413577984268</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="B385" t="str">
+            <v xml:space="preserve">2022/11/2
+</v>
+          </cell>
+          <cell r="C385">
+            <v>22.600000380000001</v>
+          </cell>
+          <cell r="D385">
+            <v>32.146422943002584</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="B386" t="str">
+            <v xml:space="preserve">2022/11/3
+</v>
+          </cell>
+          <cell r="C386">
+            <v>22.479999540000001</v>
+          </cell>
+          <cell r="D386">
+            <v>32.121249965390597</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="B387" t="str">
+            <v xml:space="preserve">2022/11/4
+</v>
+          </cell>
+          <cell r="C387">
+            <v>23.200000760000002</v>
+          </cell>
+          <cell r="D387">
+            <v>32.098077889532441</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="B388" t="str">
+            <v xml:space="preserve">2022/11/7
+</v>
+          </cell>
+          <cell r="C388">
+            <v>23.190000529999999</v>
+          </cell>
+          <cell r="D388">
+            <v>32.074999968911889</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="B389" t="str">
+            <v xml:space="preserve">2022/11/8
+</v>
+          </cell>
+          <cell r="C389">
+            <v>23.030000690000001</v>
+          </cell>
+          <cell r="D389">
+            <v>32.051627877751912</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="B390" t="str">
+            <v xml:space="preserve">2022/11/9
+</v>
+          </cell>
+          <cell r="C390">
+            <v>22.760000229999999</v>
+          </cell>
+          <cell r="D390">
+            <v>32.027680383814406</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="B391" t="str">
+            <v xml:space="preserve">2022/11/10
+</v>
+          </cell>
+          <cell r="C391">
+            <v>22.31999969</v>
+          </cell>
+          <cell r="D391">
+            <v>32.002724906452414</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="B392" t="str">
+            <v xml:space="preserve">2022/11/11
+</v>
+          </cell>
+          <cell r="C392">
+            <v>22.870000839999999</v>
+          </cell>
+          <cell r="D392">
+            <v>31.979307665256382</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="B393" t="str">
+            <v xml:space="preserve">2022/11/14
+</v>
+          </cell>
+          <cell r="C393">
+            <v>22.88999939</v>
+          </cell>
+          <cell r="D393">
+            <v>31.95606135253194</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="B394" t="str">
+            <v xml:space="preserve">2022/11/15
+</v>
+          </cell>
+          <cell r="C394">
+            <v>23.450000760000002</v>
+          </cell>
+          <cell r="D394">
+            <v>31.934362218367319</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="B395" t="str">
+            <v xml:space="preserve">2022/11/16
+</v>
+          </cell>
+          <cell r="C395">
+            <v>23.129999160000001</v>
+          </cell>
+          <cell r="D395">
+            <v>31.911959258931272</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="B396" t="str">
+            <v xml:space="preserve">2022/11/17
+</v>
+          </cell>
+          <cell r="C396">
+            <v>23.010000229999999</v>
+          </cell>
+          <cell r="D396">
+            <v>31.889365454289315</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="B397" t="str">
+            <v xml:space="preserve">2022/11/18
+</v>
+          </cell>
+          <cell r="C397">
+            <v>23.030000690000001</v>
+          </cell>
+          <cell r="D397">
+            <v>31.866936682734149</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="B398" t="str">
+            <v xml:space="preserve">2022/11/21
+</v>
+          </cell>
+          <cell r="C398">
+            <v>23</v>
+          </cell>
+          <cell r="D398">
+            <v>31.844545428484821</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="B399" t="str">
+            <v xml:space="preserve">2022/11/22
+</v>
+          </cell>
+          <cell r="C399">
+            <v>22.649999619999999</v>
+          </cell>
+          <cell r="D399">
+            <v>31.821385363476043</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="B400" t="str">
+            <v xml:space="preserve">2022/11/23
+</v>
+          </cell>
+          <cell r="C400">
+            <v>22.540000920000001</v>
+          </cell>
+          <cell r="D400">
+            <v>31.798065302060277</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="B401" t="str">
+            <v xml:space="preserve">2022/11/24
+</v>
+          </cell>
+          <cell r="C401">
+            <v>22.510000229999999</v>
+          </cell>
+          <cell r="D401">
+            <v>31.774786943483686</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="B402" t="str">
+            <v xml:space="preserve">2022/11/25
+</v>
+          </cell>
+          <cell r="C402">
+            <v>22.36000061</v>
+          </cell>
+          <cell r="D402">
+            <v>31.751249977649977</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="B403" t="str">
+            <v xml:space="preserve">2022/11/28
+</v>
+          </cell>
+          <cell r="C403">
+            <v>22.200000760000002</v>
+          </cell>
+          <cell r="D403">
+            <v>31.727431401047358</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="B404" t="str">
+            <v xml:space="preserve">2022/11/29
+</v>
+          </cell>
+          <cell r="C404">
+            <v>22.700000760000002</v>
+          </cell>
+          <cell r="D404">
+            <v>31.704975105920376</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="B405">
+            <v>44895</v>
+          </cell>
+          <cell r="C405">
+            <v>22.809999470000001</v>
+          </cell>
+          <cell r="D405">
+            <v>31.682903206079384</v>
           </cell>
         </row>
       </sheetData>
@@ -28944,7 +30516,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29062,31 +30634,31 @@
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F19" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="15">
-        <f t="shared" ref="G3:G19" si="1">G2+F3</f>
+        <f t="shared" ref="G3:G20" si="1">G2+F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H19" si="2">G3*B3</f>
+        <f t="shared" ref="H3:H20" si="2">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
-        <f t="shared" ref="I3:I19" si="3">IF(E3&gt;0,I2+E3,I2)</f>
+        <f t="shared" ref="I3:I20" si="3">IF(E3&gt;0,I2+E3,I2)</f>
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J19" si="4">H3+L3</f>
+        <f t="shared" ref="J3:J20" si="4">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K19" si="5">J3-I3</f>
+        <f t="shared" ref="K3:K20" si="5">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="14">
-        <f t="shared" ref="L3:L19" si="6">IF(E3&lt;0,L2-E3,L2)</f>
+        <f t="shared" ref="L3:L20" si="6">IF(E3&lt;0,L2-E3,L2)</f>
         <v>0</v>
       </c>
       <c r="M3" s="9"/>
@@ -29132,7 +30704,7 @@
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="14">
-        <f t="shared" ref="E4:E19" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <f t="shared" ref="E4:E20" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="F4" s="15">
@@ -29981,6 +31553,55 @@
         <v>-330447.39164051414</v>
       </c>
       <c r="L19" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="12.75">
+      <c r="A20" s="12">
+        <v>44895</v>
+      </c>
+      <c r="B20" s="13">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C20" s="13">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <v>22.809999470000001</v>
+      </c>
+      <c r="D20" s="14">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
+        <v>31.682903206079384</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="7"/>
+        <v>310977.26180343935</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="0"/>
+        <v>431912.84645321348</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="1"/>
+        <v>4455157.8055682275</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="2"/>
+        <v>3207713.7474722113</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="3"/>
+        <v>3405393.8463527663</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="4"/>
+        <v>3207713.7474722113</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="5"/>
+        <v>-197680.09888055502</v>
+      </c>
+      <c r="L20" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -30001,9 +31622,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -31176,31 +32797,31 @@
         <v>252649.34925635549</v>
       </c>
       <c r="F17" s="15">
-        <f t="shared" ref="F17:F19" ca="1" si="10">E17/B17</f>
+        <f t="shared" ref="F17:F20" ca="1" si="10">E17/B17</f>
         <v>330260.59343891655</v>
       </c>
       <c r="G17" s="15">
-        <f t="shared" ref="G17:G19" ca="1" si="11">G16+F17</f>
+        <f t="shared" ref="G17:G20" ca="1" si="11">G16+F17</f>
         <v>2966377.3661820074</v>
       </c>
       <c r="H17" s="15">
-        <f t="shared" ref="H17:H19" ca="1" si="12">G17*B17</f>
+        <f t="shared" ref="H17:H20" ca="1" si="12">G17*B17</f>
         <v>2269278.6426948672</v>
       </c>
       <c r="I17" s="15">
-        <f t="shared" ref="I17:I19" ca="1" si="13">IF(E17&gt;0,I16+E17,I16)</f>
+        <f t="shared" ref="I17:I20" ca="1" si="13">IF(E17&gt;0,I16+E17,I16)</f>
         <v>2363967.4431216232</v>
       </c>
       <c r="J17" s="15">
-        <f t="shared" ref="J17:J19" ca="1" si="14">H17+L17</f>
+        <f t="shared" ref="J17:J20" ca="1" si="14">H17+L17</f>
         <v>2269278.6426948672</v>
       </c>
       <c r="K17" s="15">
-        <f t="shared" ref="K17:K19" ca="1" si="15">J17-I17</f>
+        <f t="shared" ref="K17:K20" ca="1" si="15">J17-I17</f>
         <v>-94688.800426756032</v>
       </c>
       <c r="L17" s="14">
-        <f t="shared" ref="L17:L19" ca="1" si="16">IF(E17&lt;0,L16-E17,L16)</f>
+        <f t="shared" ref="L17:L20" ca="1" si="16">IF(E17&lt;0,L16-E17,L16)</f>
         <v>0</v>
       </c>
       <c r="M17" s="23">
@@ -31212,7 +32833,7 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="O17" s="23">
-        <f t="shared" ref="O17:O19" ca="1" si="17">(B17+M17+N17)/3</f>
+        <f t="shared" ref="O17:O20" ca="1" si="17">(B17+M17+N17)/3</f>
         <v>0.78500000635782874</v>
       </c>
       <c r="P17" s="23">
@@ -31408,6 +33029,91 @@
       <c r="U19" s="11">
         <f ca="1">IF(AND(T19&gt;100,C19&gt;D19),1.2,IF(AND(T19&lt;-100,C19&lt;D19),1.2,1))</f>
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="12.75">
+      <c r="A20" s="12">
+        <v>44895</v>
+      </c>
+      <c r="B20" s="13">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C20" s="13">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <v>22.809999470000001</v>
+      </c>
+      <c r="D20" s="14">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
+        <v>31.682903206079384</v>
+      </c>
+      <c r="E20" s="14">
+        <f ca="1">IF(C20&lt;D20,$E$2*(D20-C20)^2*U20,-$E$2*(D20-C20)^2*U20)</f>
+        <v>310977.26180343935</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" ca="1" si="10"/>
+        <v>431912.84645321348</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" ca="1" si="11"/>
+        <v>4666531.3241548287</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" ca="1" si="12"/>
+        <v>3359902.686902009</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" ca="1" si="13"/>
+        <v>3551483.6746383072</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" ca="1" si="14"/>
+        <v>3359902.686902009</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" ca="1" si="15"/>
+        <v>-191580.98773629824</v>
+      </c>
+      <c r="L20" s="14">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="23">
+        <f ca="1">MAX(VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A20,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.74500000476837158</v>
+      </c>
+      <c r="N20" s="23">
+        <f ca="1">MIN(VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A20,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="O20" s="23">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.71633334954579675</v>
+      </c>
+      <c r="P20" s="23">
+        <f ca="1">SUM(O7:O20)/14</f>
+        <v>0.82933333232289264</v>
+      </c>
+      <c r="Q20" s="23">
+        <f ca="1">O20-P20</f>
+        <v>-0.11299998277709589</v>
+      </c>
+      <c r="R20" s="23">
+        <f ca="1">AVEDEV(O7:O20)</f>
+        <v>9.1809525984485135E-2</v>
+      </c>
+      <c r="S20" s="9">
+        <f ca="1">0.015*R20</f>
+        <v>1.377142889767277E-3</v>
+      </c>
+      <c r="T20" s="9">
+        <f ca="1">Q20/S20</f>
+        <v>-82.053927458603596</v>
+      </c>
+      <c r="U20" s="11">
+        <f ca="1">IF(AND(T20&gt;100,C20&gt;D20),1.2,IF(AND(T20&lt;-100,C20&lt;D20),1.2,1))</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -31426,7 +33132,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31549,7 +33255,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F19" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="15">
@@ -31557,7 +33263,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H19" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H20" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -31565,11 +33271,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J19" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J20" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K19" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K20" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="14">
@@ -31634,7 +33340,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" ref="G4:G19" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G20" si="4">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="15">
@@ -31642,7 +33348,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" ref="I4:I19" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I20" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="15">
@@ -31654,7 +33360,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="14">
-        <f t="shared" ref="L4:L19" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L20" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="9">
@@ -31662,7 +33368,7 @@
         <v>-53.501214932625707</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" ref="N4:N19" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
+        <f t="shared" ref="N4:N20" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
       <c r="P4" s="24">
@@ -31723,7 +33429,7 @@
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E19" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^2*N5,-$E$2*(D5-C5)^2*N5)</f>
+        <f t="shared" ref="E5:E20" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^2*N5,-$E$2*(D5-C5)^2*N5)</f>
         <v>31666.545626548228</v>
       </c>
       <c r="F5" s="15">
@@ -32590,6 +34296,63 @@
       <c r="N19" s="9">
         <f t="shared" si="7"/>
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="12.75">
+      <c r="A20" s="12">
+        <v>44895</v>
+      </c>
+      <c r="B20" s="13">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C20" s="13">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <v>22.809999470000001</v>
+      </c>
+      <c r="D20" s="14">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
+        <v>31.682903206079384</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="9"/>
+        <v>310977.26180343935</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="0"/>
+        <v>431912.84645321348</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="4"/>
+        <v>4829171.7877634522</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="1"/>
+        <v>3477003.8253533985</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="5"/>
+        <v>3683706.3385782894</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="2"/>
+        <v>3477003.8253533985</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="3"/>
+        <v>-206702.51322489092</v>
+      </c>
+      <c r="L20" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>-12.858623413630797</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -32608,7 +34371,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32731,7 +34494,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F19" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="15">
@@ -32739,7 +34502,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H19" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H20" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -32747,11 +34510,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J19" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J20" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K19" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K20" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="14">
@@ -32816,7 +34579,7 @@
         <v>3932.3301809611858</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" ref="G4:G19" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G20" si="4">G3+F4</f>
         <v>3932.3301809611858</v>
       </c>
       <c r="H4" s="15">
@@ -32824,7 +34587,7 @@
         <v>3955.9241620469529</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" ref="I4:I19" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I20" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="J4" s="15">
@@ -32836,7 +34599,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="14">
-        <f t="shared" ref="L4:L19" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L20" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="9">
@@ -32844,7 +34607,7 @@
         <v>-53.501214932625707</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" ref="N4:N19" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
+        <f t="shared" ref="N4:N20" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
       <c r="P4" s="24">
@@ -32905,7 +34668,7 @@
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E19" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^3*N5,$E$2*(D5-C5)^3*N5)</f>
+        <f t="shared" ref="E5:E20" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^3*N5,$E$2*(D5-C5)^3*N5)</f>
         <v>81848.714902699052</v>
       </c>
       <c r="F5" s="15">
@@ -33772,6 +35535,63 @@
       <c r="N19" s="9">
         <f t="shared" si="7"/>
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="12.75">
+      <c r="A20" s="12">
+        <v>44895</v>
+      </c>
+      <c r="B20" s="13">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C20" s="13">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <v>22.809999470000001</v>
+      </c>
+      <c r="D20" s="14">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
+        <v>31.682903206079384</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="9"/>
+        <v>2759271.3080914733</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="0"/>
+        <v>3832321.1089553987</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="4"/>
+        <v>42093972.619020917</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="1"/>
+        <v>30307661.490013275</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="5"/>
+        <v>31505596.929229394</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="2"/>
+        <v>30307661.490013275</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="3"/>
+        <v>-1197935.4392161183</v>
+      </c>
+      <c r="L20" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>-12.858623413630797</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -33790,9 +35610,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -33929,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H19" si="0">G3/B3</f>
+        <f t="shared" ref="H3:H20" si="0">G3/B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -33937,7 +35757,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J19" si="1">I3*B3</f>
+        <f t="shared" ref="J3:J20" si="1">I3*B3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
@@ -33945,11 +35765,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="15">
-        <f t="shared" ref="L3:L19" si="2">J3+N3</f>
+        <f t="shared" ref="L3:L20" si="2">J3+N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="15">
-        <f t="shared" ref="M3:M19" si="3">L3-K3</f>
+        <f t="shared" ref="M3:M20" si="3">L3-K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="14">
@@ -34022,7 +35842,7 @@
         <v>1049.4536589575841</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" ref="I4:I19" si="4">I3+H4</f>
+        <f t="shared" ref="I4:I20" si="4">I3+H4</f>
         <v>1049.4536589575841</v>
       </c>
       <c r="J4" s="15">
@@ -34030,7 +35850,7 @@
         <v>1055.7503809113296</v>
       </c>
       <c r="K4" s="15">
-        <f t="shared" ref="K4:K19" si="5">IF(G4&gt;0,K3+G4,K3)</f>
+        <f t="shared" ref="K4:K20" si="5">IF(G4&gt;0,K3+G4,K3)</f>
         <v>1055.7503809113296</v>
       </c>
       <c r="L4" s="15">
@@ -34042,7 +35862,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" ref="N4:N19" si="6">IF(G4&lt;0,N3-G4,N3)</f>
+        <f t="shared" ref="N4:N20" si="6">IF(G4&lt;0,N3-G4,N3)</f>
         <v>0</v>
       </c>
       <c r="O4" s="9">
@@ -34050,7 +35870,7 @@
         <v>-53.501214932625707</v>
       </c>
       <c r="P4" s="9">
-        <f t="shared" ref="P4:P19" si="7">IF(AND(O4&gt;100,C4&gt;D4),1.2,IF(AND(O4&lt;-100,C4&lt;D4),1.2,1))</f>
+        <f t="shared" ref="P4:P20" si="7">IF(AND(O4&gt;100,C4&gt;D4),1.2,IF(AND(O4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
       <c r="R4" s="24">
@@ -34119,7 +35939,7 @@
         <v>21490456.638297871</v>
       </c>
       <c r="G5" s="14">
-        <f t="shared" ref="G5:G19" si="9">IF(C5&lt;D5,$G$2*(D5-C5)^3*P5*E5/F5,$G$2*(D5-C5)^3*P5*E5/F5)</f>
+        <f t="shared" ref="G5:G20" si="9">IF(C5&lt;D5,$G$2*(D5-C5)^3*P5*E5/F5,$G$2*(D5-C5)^3*P5*E5/F5)</f>
         <v>16983.872079062337</v>
       </c>
       <c r="H5" s="15">
@@ -35100,6 +36920,71 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="20" spans="1:16" ht="12.75">
+      <c r="A20" s="12">
+        <v>44895</v>
+      </c>
+      <c r="B20" s="13">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C20" s="13">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <v>22.809999470000001</v>
+      </c>
+      <c r="D20" s="14">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
+        <v>31.682903206079384</v>
+      </c>
+      <c r="E20" s="14">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
+        <v>2516800</v>
+      </c>
+      <c r="F20" s="14">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$I,9)</f>
+        <v>5287757.6291307472</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="9"/>
+        <v>1313323.0596551057</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="0"/>
+        <v>1824059.732594914</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="4"/>
+        <v>14421703.925454322</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="1"/>
+        <v>10383627.238935372</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="5"/>
+        <v>10537242.54454861</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="2"/>
+        <v>10383627.238935372</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="3"/>
+        <v>-153615.30561323836</v>
+      </c>
+      <c r="N20" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>-12.858623413630797</v>
+      </c>
+      <c r="P20" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -565,7 +565,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -619,6 +619,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -628,7 +631,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -682,6 +685,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3405393.8463527663</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3690730.8026686539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,7 +730,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -778,6 +784,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,7 +796,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -841,6 +850,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3207713.7474722113</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3506416.0051296353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -883,7 +895,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -937,6 +949,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -946,7 +961,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1000,6 +1015,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-197680.09888055502</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-184314.79753901856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,11 +1039,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88341120"/>
-        <c:axId val="88387968"/>
+        <c:axId val="393790208"/>
+        <c:axId val="393792512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88341120"/>
+        <c:axId val="393790208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,14 +1086,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88387968"/>
+        <c:crossAx val="393792512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88387968"/>
+        <c:axId val="393792512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,7 +1144,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88341120"/>
+        <c:crossAx val="393790208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1285,7 +1303,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1339,6 +1357,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1313323.0596551057</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>959071.18361059949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1353,8 +1374,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="75640192"/>
-        <c:axId val="75638656"/>
+        <c:axId val="89979520"/>
+        <c:axId val="89977984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1379,7 +1400,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1433,6 +1454,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1442,7 +1466,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1496,6 +1520,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72299998998641968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1512,11 +1539,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75635328"/>
-        <c:axId val="75637120"/>
+        <c:axId val="89974656"/>
+        <c:axId val="89976192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="75635328"/>
+        <c:axId val="89974656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,14 +1586,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75637120"/>
+        <c:crossAx val="89976192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="75637120"/>
+        <c:axId val="89976192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,12 +1644,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75635328"/>
+        <c:crossAx val="89974656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75638656"/>
+        <c:axId val="89977984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,12 +1686,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75640192"/>
+        <c:crossAx val="89979520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="75640192"/>
+        <c:axId val="89979520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,7 +1700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75638656"/>
+        <c:crossAx val="89977984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1804,7 +1831,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1858,6 +1885,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>310977.26180343935</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>285336.95631588745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1872,8 +1902,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="98634752"/>
-        <c:axId val="98633216"/>
+        <c:axId val="78049664"/>
+        <c:axId val="511662720"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1898,7 +1928,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1952,6 +1982,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1961,7 +1994,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2015,6 +2048,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72299998998641968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2031,11 +2067,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91412352"/>
-        <c:axId val="91413888"/>
+        <c:axId val="506182272"/>
+        <c:axId val="511660416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91412352"/>
+        <c:axId val="506182272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,14 +2114,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91413888"/>
+        <c:crossAx val="511660416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91413888"/>
+        <c:axId val="511660416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,12 +2172,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91412352"/>
+        <c:crossAx val="506182272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98633216"/>
+        <c:axId val="511662720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,12 +2214,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98634752"/>
+        <c:crossAx val="78049664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="98634752"/>
+        <c:axId val="78049664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2192,7 +2228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98633216"/>
+        <c:crossAx val="511662720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2341,7 +2377,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2395,6 +2431,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2404,7 +2443,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2458,6 +2497,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3551483.6746383072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3836820.6309541948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2500,7 +2542,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2554,6 +2596,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2563,7 +2608,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2617,6 +2662,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3359902.686902009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3659239.0569511424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2659,7 +2707,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2713,6 +2761,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2722,7 +2773,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2776,6 +2827,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-191580.98773629824</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-177581.57400305243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2797,11 +2851,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484672640"/>
-        <c:axId val="490881024"/>
+        <c:axId val="78331264"/>
+        <c:axId val="78333056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484672640"/>
+        <c:axId val="78331264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2844,14 +2898,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490881024"/>
+        <c:crossAx val="78333056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490881024"/>
+        <c:axId val="78333056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2902,7 +2956,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484672640"/>
+        <c:crossAx val="78331264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3061,7 +3115,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3115,6 +3169,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>310977.26180343935</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>285336.95631588745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3129,8 +3186,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="541305472"/>
-        <c:axId val="541303936"/>
+        <c:axId val="78356480"/>
+        <c:axId val="78346496"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3155,7 +3212,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3209,6 +3266,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3218,7 +3278,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3272,6 +3332,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72299998998641968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3288,11 +3351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536860160"/>
-        <c:axId val="536861696"/>
+        <c:axId val="78343168"/>
+        <c:axId val="78344960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536860160"/>
+        <c:axId val="78343168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3335,14 +3398,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536861696"/>
+        <c:crossAx val="78344960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536861696"/>
+        <c:axId val="78344960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3393,12 +3456,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536860160"/>
+        <c:crossAx val="78343168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="541303936"/>
+        <c:axId val="78346496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3435,12 +3498,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541305472"/>
+        <c:crossAx val="78356480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="541305472"/>
+        <c:axId val="78356480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3449,7 +3512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541303936"/>
+        <c:crossAx val="78346496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3598,7 +3661,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3652,6 +3715,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3661,7 +3727,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3715,6 +3781,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3683706.3385782894</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3969043.294894177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3757,7 +3826,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3811,6 +3880,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3820,7 +3892,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3874,6 +3946,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3477003.8253533985</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3776828.1105115637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3916,7 +3991,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3970,6 +4045,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3979,7 +4057,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4033,6 +4111,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-206702.51322489092</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-192215.18438261328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4054,11 +4135,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="577740800"/>
-        <c:axId val="577742336"/>
+        <c:axId val="78371840"/>
+        <c:axId val="78373632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="577740800"/>
+        <c:axId val="78371840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4101,14 +4182,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577742336"/>
+        <c:crossAx val="78373632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="577742336"/>
+        <c:axId val="78373632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4159,7 +4240,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577740800"/>
+        <c:crossAx val="78371840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4318,7 +4399,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4372,6 +4453,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>310977.26180343935</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>285336.95631588745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4386,8 +4470,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="50500352"/>
-        <c:axId val="50498560"/>
+        <c:axId val="78400896"/>
+        <c:axId val="78399360"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4412,7 +4496,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4466,6 +4550,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4475,7 +4562,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4529,6 +4616,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72299998998641968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4545,11 +4635,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50495488"/>
-        <c:axId val="50497024"/>
+        <c:axId val="78396032"/>
+        <c:axId val="78397824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="50495488"/>
+        <c:axId val="78396032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4592,14 +4682,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50497024"/>
+        <c:crossAx val="78397824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="50497024"/>
+        <c:axId val="78397824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4650,12 +4740,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50495488"/>
+        <c:crossAx val="78396032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50498560"/>
+        <c:axId val="78399360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4692,12 +4782,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50500352"/>
+        <c:crossAx val="78400896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="50500352"/>
+        <c:axId val="78400896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4706,7 +4796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50498560"/>
+        <c:crossAx val="78399360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4855,7 +4945,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4909,6 +4999,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4918,7 +5011,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4972,6 +5065,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>31505596.929229394</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33930746.275790907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5014,7 +5110,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5068,6 +5164,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5077,7 +5176,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5131,6 +5230,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>30307661.490013275</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32859091.128602259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5173,7 +5275,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5227,6 +5329,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5236,7 +5341,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5290,6 +5395,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-1197935.4392161183</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1071655.1471886486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5311,11 +5419,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69419008"/>
-        <c:axId val="69420544"/>
+        <c:axId val="88840832"/>
+        <c:axId val="88842624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="69419008"/>
+        <c:axId val="88840832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5358,14 +5466,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69420544"/>
+        <c:crossAx val="88842624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69420544"/>
+        <c:axId val="88842624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5416,7 +5524,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69419008"/>
+        <c:crossAx val="88840832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5575,7 +5683,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5629,6 +5737,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>42093972.619020917</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45448259.451870061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5643,8 +5754,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="69443968"/>
-        <c:axId val="69438080"/>
+        <c:axId val="88861696"/>
+        <c:axId val="88860160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5669,7 +5780,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5723,6 +5834,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5732,7 +5846,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5786,6 +5900,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72299998998641968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5802,11 +5919,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69430656"/>
-        <c:axId val="69436544"/>
+        <c:axId val="88856832"/>
+        <c:axId val="88858624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="69430656"/>
+        <c:axId val="88856832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5849,14 +5966,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69436544"/>
+        <c:crossAx val="88858624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69436544"/>
+        <c:axId val="88858624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5907,12 +6024,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69430656"/>
+        <c:crossAx val="88856832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69438080"/>
+        <c:axId val="88860160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5949,12 +6066,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69443968"/>
+        <c:crossAx val="88861696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="69443968"/>
+        <c:axId val="88861696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5963,7 +6080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69438080"/>
+        <c:crossAx val="88860160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6113,7 +6230,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6167,6 +6284,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6176,7 +6296,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6230,6 +6350,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>10537242.54454861</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11496313.72815921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6272,7 +6395,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6326,6 +6449,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6335,7 +6461,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6389,6 +6515,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>10383627.238935372</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11385962.977301184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6431,7 +6560,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6485,6 +6614,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6494,7 +6626,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6548,6 +6680,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-153615.30561323836</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-110350.75085802563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6569,11 +6704,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69459328"/>
-        <c:axId val="69461120"/>
+        <c:axId val="89946368"/>
+        <c:axId val="89948160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="69459328"/>
+        <c:axId val="89946368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6616,14 +6751,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69461120"/>
+        <c:crossAx val="89948160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69461120"/>
+        <c:axId val="89948160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6674,7 +6809,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69459328"/>
+        <c:crossAx val="89946368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8005,6 +8140,12 @@
           <cell r="I20">
             <v>42507572.722222224</v>
           </cell>
+          <cell r="K20">
+            <v>44957</v>
+          </cell>
+          <cell r="L20">
+            <v>44929</v>
+          </cell>
           <cell r="N20">
             <v>1.0529999999999999</v>
           </cell>
@@ -25496,10 +25637,10 @@
             <v>5287757.6291307472</v>
           </cell>
           <cell r="N350">
-            <v>0</v>
+            <v>0.74000000953674316</v>
           </cell>
           <cell r="O350">
-            <v>0</v>
+            <v>0.72899997234344482</v>
           </cell>
           <cell r="P350">
             <v>0.72099999586741126</v>
@@ -25518,6 +25659,1172 @@
           </cell>
           <cell r="U350">
             <v>-12.858623413630797</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="A351">
+            <v>44896</v>
+          </cell>
+          <cell r="B351">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="C351">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="D351">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="E351">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="F351">
+            <v>1514200</v>
+          </cell>
+          <cell r="G351">
+            <v>1115.52001953125</v>
+          </cell>
+          <cell r="H351">
+            <v>349</v>
+          </cell>
+          <cell r="I351">
+            <v>5276945.1430873927</v>
+          </cell>
+          <cell r="N351">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="O351">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P351">
+            <v>0.734333336353302</v>
+          </cell>
+          <cell r="Q351">
+            <v>0.72309524104708711</v>
+          </cell>
+          <cell r="R351">
+            <v>1.123809530621489E-2</v>
+          </cell>
+          <cell r="S351">
+            <v>8.5714289120265418E-3</v>
+          </cell>
+          <cell r="T351">
+            <v>1.2857143368039811E-4</v>
+          </cell>
+          <cell r="U351">
+            <v>87.407404463968732</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="A352">
+            <v>44897</v>
+          </cell>
+          <cell r="B352">
+            <v>0.73299998044967651</v>
+          </cell>
+          <cell r="C352">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="D352">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="E352">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="F352">
+            <v>2813797</v>
+          </cell>
+          <cell r="G352">
+            <v>2058.468017578125</v>
+          </cell>
+          <cell r="H352">
+            <v>350</v>
+          </cell>
+          <cell r="I352">
+            <v>5269907.5769642862</v>
+          </cell>
+          <cell r="N352">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="O352">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P352">
+            <v>0.73099998633066809</v>
+          </cell>
+          <cell r="Q352">
+            <v>0.72342857292720242</v>
+          </cell>
+          <cell r="R352">
+            <v>7.5714134034656766E-3</v>
+          </cell>
+          <cell r="S352">
+            <v>8.9047607921418637E-3</v>
+          </cell>
+          <cell r="T352">
+            <v>1.3357141188212796E-4</v>
+          </cell>
+          <cell r="U352">
+            <v>56.684385504191425</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="A353">
+            <v>44900</v>
+          </cell>
+          <cell r="B353">
+            <v>0.73199999332427979</v>
+          </cell>
+          <cell r="C353">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="D353">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="E353">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="F353">
+            <v>3264301</v>
+          </cell>
+          <cell r="G353">
+            <v>2391.455078125</v>
+          </cell>
+          <cell r="H353">
+            <v>351</v>
+          </cell>
+          <cell r="I353">
+            <v>5264193.5981125357</v>
+          </cell>
+          <cell r="N353">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="O353">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P353">
+            <v>0.73333334922790527</v>
+          </cell>
+          <cell r="Q353">
+            <v>0.7232380991890317</v>
+          </cell>
+          <cell r="R353">
+            <v>1.0095250038873571E-2</v>
+          </cell>
+          <cell r="S353">
+            <v>8.7142870539710614E-3</v>
+          </cell>
+          <cell r="T353">
+            <v>1.3071430580956591E-4</v>
+          </cell>
+          <cell r="U353">
+            <v>77.231409189297636</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="A354">
+            <v>44901</v>
+          </cell>
+          <cell r="B354">
+            <v>0.73299998044967651</v>
+          </cell>
+          <cell r="C354">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="D354">
+            <v>0.73299998044967651</v>
+          </cell>
+          <cell r="E354">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="F354">
+            <v>1767300</v>
+          </cell>
+          <cell r="G354">
+            <v>1305.98095703125</v>
+          </cell>
+          <cell r="H354">
+            <v>352</v>
+          </cell>
+          <cell r="I354">
+            <v>5254259.2412997158</v>
+          </cell>
+          <cell r="N354">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="O354">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P354">
+            <v>0.73966666062672937</v>
+          </cell>
+          <cell r="Q354">
+            <v>0.72338095449265982</v>
+          </cell>
+          <cell r="R354">
+            <v>1.6285706134069544E-2</v>
+          </cell>
+          <cell r="S354">
+            <v>8.8571423575991657E-3</v>
+          </cell>
+          <cell r="T354">
+            <v>1.3285713536398747E-4</v>
+          </cell>
+          <cell r="U354">
+            <v>122.5805907183814</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="A355">
+            <v>44902</v>
+          </cell>
+          <cell r="B355">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="C355">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="D355">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="E355">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="F355">
+            <v>2062507</v>
+          </cell>
+          <cell r="G355">
+            <v>1538.0469970703125</v>
+          </cell>
+          <cell r="H355">
+            <v>353</v>
+          </cell>
+          <cell r="I355">
+            <v>5245217.4502478754</v>
+          </cell>
+          <cell r="N355">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O355">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P355">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="Q355">
+            <v>0.72471428627059586</v>
+          </cell>
+          <cell r="R355">
+            <v>2.1285705623172446E-2</v>
+          </cell>
+          <cell r="S355">
+            <v>1.0190474135535104E-2</v>
+          </cell>
+          <cell r="T355">
+            <v>1.5285711203302655E-4</v>
+          </cell>
+          <cell r="U355">
+            <v>139.25230785842285</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="A356">
+            <v>44903</v>
+          </cell>
+          <cell r="B356">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="C356">
+            <v>0.74800002574920654</v>
+          </cell>
+          <cell r="D356">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="E356">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="F356">
+            <v>3449804</v>
+          </cell>
+          <cell r="G356">
+            <v>2575.367919921875</v>
+          </cell>
+          <cell r="H356">
+            <v>354</v>
+          </cell>
+          <cell r="I356">
+            <v>5240145.6608403958</v>
+          </cell>
+          <cell r="N356">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O356">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P356">
+            <v>0.74466667572657264</v>
+          </cell>
+          <cell r="Q356">
+            <v>0.72550000037465778</v>
+          </cell>
+          <cell r="R356">
+            <v>1.9166675351914852E-2</v>
+          </cell>
+          <cell r="S356">
+            <v>1.0976188239597133E-2</v>
+          </cell>
+          <cell r="T356">
+            <v>1.64642823593957E-4</v>
+          </cell>
+          <cell r="U356">
+            <v>116.41367011041919</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="A357">
+            <v>44904</v>
+          </cell>
+          <cell r="B357">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="C357">
+            <v>0.75099998712539673</v>
+          </cell>
+          <cell r="D357">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="E357">
+            <v>0.75</v>
+          </cell>
+          <cell r="F357">
+            <v>4098100</v>
+          </cell>
+          <cell r="G357">
+            <v>3059.9140625</v>
+          </cell>
+          <cell r="H357">
+            <v>355</v>
+          </cell>
+          <cell r="I357">
+            <v>5236928.6308098594</v>
+          </cell>
+          <cell r="N357">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O357">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P357">
+            <v>0.74833333492279053</v>
+          </cell>
+          <cell r="Q357">
+            <v>0.72707143000194008</v>
+          </cell>
+          <cell r="R357">
+            <v>2.126190492085045E-2</v>
+          </cell>
+          <cell r="S357">
+            <v>1.2547617866879412E-2</v>
+          </cell>
+          <cell r="T357">
+            <v>1.8821426800319117E-4</v>
+          </cell>
+          <cell r="U357">
+            <v>112.96648838806394</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="A358">
+            <v>44907</v>
+          </cell>
+          <cell r="B358">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="C358">
+            <v>0.74900001287460327</v>
+          </cell>
+          <cell r="D358">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="E358">
+            <v>0.74699997901916504</v>
+          </cell>
+          <cell r="F358">
+            <v>1660900</v>
+          </cell>
+          <cell r="G358">
+            <v>1239.9219970703125</v>
+          </cell>
+          <cell r="H358">
+            <v>356</v>
+          </cell>
+          <cell r="I358">
+            <v>5226883.606566011</v>
+          </cell>
+          <cell r="N358">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O358">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P358">
+            <v>0.74666666984558105</v>
+          </cell>
+          <cell r="Q358">
+            <v>0.72907142979758122</v>
+          </cell>
+          <cell r="R358">
+            <v>1.7595240047999838E-2</v>
+          </cell>
+          <cell r="S358">
+            <v>1.3061223792381029E-2</v>
+          </cell>
+          <cell r="T358">
+            <v>1.9591835688571543E-4</v>
+          </cell>
+          <cell r="U358">
+            <v>89.809042540427313</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="A359">
+            <v>44908</v>
+          </cell>
+          <cell r="B359">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="C359">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="D359">
+            <v>0.7369999885559082</v>
+          </cell>
+          <cell r="E359">
+            <v>0.73799997568130493</v>
+          </cell>
+          <cell r="F359">
+            <v>3002001</v>
+          </cell>
+          <cell r="G359">
+            <v>2222.159912109375</v>
+          </cell>
+          <cell r="H359">
+            <v>357</v>
+          </cell>
+          <cell r="I359">
+            <v>5220651.4424019605</v>
+          </cell>
+          <cell r="N359">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O359">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P359">
+            <v>0.74033331871032715</v>
+          </cell>
+          <cell r="Q359">
+            <v>0.73083333316303445</v>
+          </cell>
+          <cell r="R359">
+            <v>9.4999855472926997E-3</v>
+          </cell>
+          <cell r="S359">
+            <v>1.24047607386193E-2</v>
+          </cell>
+          <cell r="T359">
+            <v>1.8607141107928951E-4</v>
+          </cell>
+          <cell r="U359">
+            <v>51.055589314817027</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="A360">
+            <v>44909</v>
+          </cell>
+          <cell r="B360">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="C360">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="D360">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="E360">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="F360">
+            <v>4652100</v>
+          </cell>
+          <cell r="G360">
+            <v>3427.55908203125</v>
+          </cell>
+          <cell r="H360">
+            <v>358</v>
+          </cell>
+          <cell r="I360">
+            <v>5219063.3098812848</v>
+          </cell>
+          <cell r="N360">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O360">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P360">
+            <v>0.73666667938232422</v>
+          </cell>
+          <cell r="Q360">
+            <v>0.73233333371934428</v>
+          </cell>
+          <cell r="R360">
+            <v>4.3333456629799372E-3</v>
+          </cell>
+          <cell r="S360">
+            <v>1.1285716173600207E-2</v>
+          </cell>
+          <cell r="T360">
+            <v>1.6928574260400309E-4</v>
+          </cell>
+          <cell r="U360">
+            <v>25.597818199708609</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="A361">
+            <v>44910</v>
+          </cell>
+          <cell r="B361">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="C361">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="D361">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="E361">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="F361">
+            <v>3350200</v>
+          </cell>
+          <cell r="G361">
+            <v>2474.9130859375</v>
+          </cell>
+          <cell r="H361">
+            <v>359</v>
+          </cell>
+          <cell r="I361">
+            <v>5213857.5625</v>
+          </cell>
+          <cell r="N361">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O361">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P361">
+            <v>0.74033331871032715</v>
+          </cell>
+          <cell r="Q361">
+            <v>0.73435714131309859</v>
+          </cell>
+          <cell r="R361">
+            <v>5.9761773972285548E-3</v>
+          </cell>
+          <cell r="S361">
+            <v>9.6870741876615395E-3</v>
+          </cell>
+          <cell r="T361">
+            <v>1.4530611281492309E-4</v>
+          </cell>
+          <cell r="U361">
+            <v>41.128189870720945</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="A362">
+            <v>44911</v>
+          </cell>
+          <cell r="B362">
+            <v>0.73799997568130493</v>
+          </cell>
+          <cell r="C362">
+            <v>0.73799997568130493</v>
+          </cell>
+          <cell r="D362">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="E362">
+            <v>0.73600000143051147</v>
+          </cell>
+          <cell r="F362">
+            <v>2607600</v>
+          </cell>
+          <cell r="G362">
+            <v>1922.4029541015625</v>
+          </cell>
+          <cell r="H362">
+            <v>360</v>
+          </cell>
+          <cell r="I362">
+            <v>5206617.9581597224</v>
+          </cell>
+          <cell r="N362">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O362">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P362">
+            <v>0.73633333047231042</v>
+          </cell>
+          <cell r="Q362">
+            <v>0.73673809426171455</v>
+          </cell>
+          <cell r="R362">
+            <v>-4.0476378940412783E-4</v>
+          </cell>
+          <cell r="S362">
+            <v>6.9761872291564941E-3</v>
+          </cell>
+          <cell r="T362">
+            <v>1.0464280843734741E-4</v>
+          </cell>
+          <cell r="U362">
+            <v>-3.8680516649786907</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="A363">
+            <v>44914</v>
+          </cell>
+          <cell r="B363">
+            <v>0.74099999666213989</v>
+          </cell>
+          <cell r="C363">
+            <v>0.74099999666213989</v>
+          </cell>
+          <cell r="D363">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="E363">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="F363">
+            <v>3066702</v>
+          </cell>
+          <cell r="G363">
+            <v>2247.702880859375</v>
+          </cell>
+          <cell r="H363">
+            <v>361</v>
+          </cell>
+          <cell r="I363">
+            <v>5200690.2131232684</v>
+          </cell>
+          <cell r="N363">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O363">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="P363">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="Q363">
+            <v>0.7378333324477786</v>
+          </cell>
+          <cell r="R363">
+            <v>-6.8333262488955437E-3</v>
+          </cell>
+          <cell r="S363">
+            <v>5.8809490430922762E-3</v>
+          </cell>
+          <cell r="T363">
+            <v>8.8214235646384139E-5</v>
+          </cell>
+          <cell r="U363">
+            <v>-77.462851645483127</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="A364">
+            <v>44915</v>
+          </cell>
+          <cell r="B364">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="C364">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="D364">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="E364">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="F364">
+            <v>3940700</v>
+          </cell>
+          <cell r="G364">
+            <v>2847.77294921875</v>
+          </cell>
+          <cell r="H364">
+            <v>362</v>
+          </cell>
+          <cell r="I364">
+            <v>5197209.5771754142</v>
+          </cell>
+          <cell r="N364">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O364">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="P364">
+            <v>0.72099999586741126</v>
+          </cell>
+          <cell r="Q364">
+            <v>0.73783333244777871</v>
+          </cell>
+          <cell r="R364">
+            <v>-1.6833336580367453E-2</v>
+          </cell>
+          <cell r="S364">
+            <v>5.8809490430922762E-3</v>
+          </cell>
+          <cell r="T364">
+            <v>8.8214235646384139E-5</v>
+          </cell>
+          <cell r="U364">
+            <v>-190.82335699019848</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="A365">
+            <v>44916</v>
+          </cell>
+          <cell r="B365">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="C365">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="D365">
+            <v>0.71299999952316284</v>
+          </cell>
+          <cell r="E365">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="F365">
+            <v>2461800</v>
+          </cell>
+          <cell r="G365">
+            <v>1768.2430419921875</v>
+          </cell>
+          <cell r="H365">
+            <v>363</v>
+          </cell>
+          <cell r="I365">
+            <v>5189674.013601928</v>
+          </cell>
+          <cell r="N365">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O365">
+            <v>0.71299999952316284</v>
+          </cell>
+          <cell r="P365">
+            <v>0.71633332967758179</v>
+          </cell>
+          <cell r="Q365">
+            <v>0.73654761768522714</v>
+          </cell>
+          <cell r="R365">
+            <v>-2.0214288007645353E-2</v>
+          </cell>
+          <cell r="S365">
+            <v>7.1836726195147315E-3</v>
+          </cell>
+          <cell r="T365">
+            <v>1.0775508929272096E-4</v>
+          </cell>
+          <cell r="U365">
+            <v>-187.59474044638802</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="A366">
+            <v>44917</v>
+          </cell>
+          <cell r="B366">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="C366">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="D366">
+            <v>0.71100002527236938</v>
+          </cell>
+          <cell r="E366">
+            <v>0.71399998664855957</v>
+          </cell>
+          <cell r="F366">
+            <v>3196400</v>
+          </cell>
+          <cell r="G366">
+            <v>2294.62109375</v>
+          </cell>
+          <cell r="H366">
+            <v>364</v>
+          </cell>
+          <cell r="I366">
+            <v>5184197.9860920329</v>
+          </cell>
+          <cell r="N366">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O366">
+            <v>0.71100002527236938</v>
+          </cell>
+          <cell r="P366">
+            <v>0.71533334255218506</v>
+          </cell>
+          <cell r="Q366">
+            <v>0.73542857170104969</v>
+          </cell>
+          <cell r="R366">
+            <v>-2.0095229148864635E-2</v>
+          </cell>
+          <cell r="S366">
+            <v>8.5918335687546876E-3</v>
+          </cell>
+          <cell r="T366">
+            <v>1.288775035313203E-4</v>
+          </cell>
+          <cell r="U366">
+            <v>-155.92503422430912</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="A367">
+            <v>44918</v>
+          </cell>
+          <cell r="B367">
+            <v>0.70899999141693115</v>
+          </cell>
+          <cell r="C367">
+            <v>0.71299999952316284</v>
+          </cell>
+          <cell r="D367">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="E367">
+            <v>0.70999997854232788</v>
+          </cell>
+          <cell r="F367">
+            <v>3038001</v>
+          </cell>
+          <cell r="G367">
+            <v>2157.553955078125</v>
+          </cell>
+          <cell r="H367">
+            <v>365</v>
+          </cell>
+          <cell r="I367">
+            <v>5178317.9943493148</v>
+          </cell>
+          <cell r="N367">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O367">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="P367">
+            <v>0.70999999841054284</v>
+          </cell>
+          <cell r="Q367">
+            <v>0.73376190378552397</v>
+          </cell>
+          <cell r="R367">
+            <v>-2.3761905374981129E-2</v>
+          </cell>
+          <cell r="S367">
+            <v>1.0734692317287924E-2</v>
+          </cell>
+          <cell r="T367">
+            <v>1.6102038475931886E-4</v>
+          </cell>
+          <cell r="U367">
+            <v>-147.5707899375513</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="A368">
+            <v>44921</v>
+          </cell>
+          <cell r="B368">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="C368">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="D368">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="E368">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="F368">
+            <v>5080404</v>
+          </cell>
+          <cell r="G368">
+            <v>3635.52587890625</v>
+          </cell>
+          <cell r="H368">
+            <v>366</v>
+          </cell>
+          <cell r="I368">
+            <v>5178050.4697745899</v>
+          </cell>
+          <cell r="N368">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O368">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="P368">
+            <v>0.71566667159398401</v>
+          </cell>
+          <cell r="Q368">
+            <v>0.73204761885461356</v>
+          </cell>
+          <cell r="R368">
+            <v>-1.6380947260629553E-2</v>
+          </cell>
+          <cell r="S368">
+            <v>1.1850338403870453E-2</v>
+          </cell>
+          <cell r="T368">
+            <v>1.7775507605805678E-4</v>
+          </cell>
+          <cell r="U368">
+            <v>-92.154596222497489</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="A369">
+            <v>44922</v>
+          </cell>
+          <cell r="B369">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="C369">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="D369">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="E369">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="F369">
+            <v>6773900</v>
+          </cell>
+          <cell r="G369">
+            <v>4913.7880859375</v>
+          </cell>
+          <cell r="H369">
+            <v>367</v>
+          </cell>
+          <cell r="I369">
+            <v>5182398.8336171666</v>
+          </cell>
+          <cell r="N369">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O369">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="P369">
+            <v>0.72599999109903968</v>
+          </cell>
+          <cell r="Q369">
+            <v>0.73061904736927574</v>
+          </cell>
+          <cell r="R369">
+            <v>-4.619056270236066E-3</v>
+          </cell>
+          <cell r="S369">
+            <v>1.1340136430701435E-2</v>
+          </cell>
+          <cell r="T369">
+            <v>1.7010204646052151E-4</v>
+          </cell>
+          <cell r="U369">
+            <v>-27.154619043975401</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="A370">
+            <v>44923</v>
+          </cell>
+          <cell r="B370">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="C370">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="D370">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="E370">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="F370">
+            <v>2380500</v>
+          </cell>
+          <cell r="G370">
+            <v>1714.72998046875</v>
+          </cell>
+          <cell r="H370">
+            <v>368</v>
+          </cell>
+          <cell r="I370">
+            <v>5174784.9780910322</v>
+          </cell>
+          <cell r="N370">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O370">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="P370">
+            <v>0.72066666682561242</v>
+          </cell>
+          <cell r="Q370">
+            <v>0.72890476101920731</v>
+          </cell>
+          <cell r="R370">
+            <v>-8.2380941935948915E-3</v>
+          </cell>
+          <cell r="S370">
+            <v>1.1047618729727609E-2</v>
+          </cell>
+          <cell r="T370">
+            <v>1.6571428094591412E-4</v>
+          </cell>
+          <cell r="U370">
+            <v>-49.712638805605678</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="A371">
+            <v>44924</v>
+          </cell>
+          <cell r="B371">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="C371">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="D371">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="E371">
+            <v>0.72299998998641968</v>
+          </cell>
+          <cell r="F371">
+            <v>3941701.25</v>
+          </cell>
+          <cell r="G371">
+            <v>2847.658935546875</v>
+          </cell>
+          <cell r="H371">
+            <v>369</v>
+          </cell>
+          <cell r="I371">
+            <v>5171443.2877710024</v>
+          </cell>
+          <cell r="N371">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O371">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="P371">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="Q371">
+            <v>0.72702380872908101</v>
+          </cell>
+          <cell r="R371">
+            <v>-5.0238058680580622E-3</v>
+          </cell>
+          <cell r="S371">
+            <v>9.8843529921810759E-3</v>
+          </cell>
+          <cell r="T371">
+            <v>1.4826529488271614E-4</v>
+          </cell>
+          <cell r="U371">
+            <v>-33.883896241747578</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="A372">
+            <v>44925</v>
+          </cell>
+          <cell r="B372">
+            <v>0.72500002384185791</v>
+          </cell>
+          <cell r="C372">
+            <v>0.72699999809265137</v>
+          </cell>
+          <cell r="D372">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E372">
+            <v>0.72299998998641968</v>
+          </cell>
+          <cell r="F372">
+            <v>2041800</v>
+          </cell>
+          <cell r="G372">
+            <v>1479.02197265625</v>
+          </cell>
+          <cell r="H372">
+            <v>370</v>
+          </cell>
+          <cell r="I372">
+            <v>5162984.7923986483</v>
+          </cell>
+          <cell r="N372">
+            <v>0</v>
+          </cell>
+          <cell r="O372">
+            <v>0</v>
+          </cell>
+          <cell r="P372">
+            <v>0.72366666793823242</v>
+          </cell>
+          <cell r="Q372">
+            <v>0.7253809514499846</v>
+          </cell>
+          <cell r="R372">
+            <v>-1.7142835117521793E-3</v>
+          </cell>
+          <cell r="S372">
+            <v>8.340133696186294E-3</v>
+          </cell>
+          <cell r="T372">
+            <v>1.2510200544279442E-4</v>
+          </cell>
+          <cell r="U372">
+            <v>-13.703085779356849</v>
           </cell>
         </row>
       </sheetData>
@@ -30220,6 +31527,268 @@
           </cell>
           <cell r="D405">
             <v>31.682903206079384</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="B406" t="str">
+            <v xml:space="preserve">2022/12/1
+</v>
+          </cell>
+          <cell r="C406">
+            <v>23.170000080000001</v>
+          </cell>
+          <cell r="D406">
+            <v>31.661831663688094</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="B407" t="str">
+            <v xml:space="preserve">2022/12/2
+</v>
+          </cell>
+          <cell r="C407">
+            <v>23.030000690000001</v>
+          </cell>
+          <cell r="D407">
+            <v>31.640518500790101</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="B408" t="str">
+            <v xml:space="preserve">2022/12/5
+</v>
+          </cell>
+          <cell r="C408">
+            <v>23.219999309999999</v>
+          </cell>
+          <cell r="D408">
+            <v>31.619778305738894</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="B409" t="str">
+            <v xml:space="preserve">2022/12/6
+</v>
+          </cell>
+          <cell r="C409">
+            <v>23.459999079999999</v>
+          </cell>
+          <cell r="D409">
+            <v>31.599729708132653</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="B410" t="str">
+            <v xml:space="preserve">2022/12/7
+</v>
+          </cell>
+          <cell r="C410">
+            <v>23.649999619999999</v>
+          </cell>
+          <cell r="D410">
+            <v>31.580245075563703</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="B411" t="str">
+            <v xml:space="preserve">2022/12/8
+</v>
+          </cell>
+          <cell r="C411">
+            <v>23.629999160000001</v>
+          </cell>
+          <cell r="D411">
+            <v>31.560806821491422</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="B412" t="str">
+            <v xml:space="preserve">2022/12/9
+</v>
+          </cell>
+          <cell r="C412">
+            <v>23.840000150000002</v>
+          </cell>
+          <cell r="D412">
+            <v>31.541975585707295</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="B413" t="str">
+            <v xml:space="preserve">2022/12/12
+</v>
+          </cell>
+          <cell r="C413">
+            <v>23.600000380000001</v>
+          </cell>
+          <cell r="D413">
+            <v>31.522652045060806</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="B414" t="str">
+            <v xml:space="preserve">2022/12/13
+</v>
+          </cell>
+          <cell r="C414">
+            <v>23.329999919999999</v>
+          </cell>
+          <cell r="D414">
+            <v>31.502766967087357</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="B415" t="str">
+            <v xml:space="preserve">2022/12/14
+</v>
+          </cell>
+          <cell r="C415">
+            <v>23.270000459999999</v>
+          </cell>
+          <cell r="D415">
+            <v>31.482832907748161</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="B416" t="str">
+            <v xml:space="preserve">2022/12/15
+</v>
+          </cell>
+          <cell r="C416">
+            <v>23.5</v>
+          </cell>
+          <cell r="D416">
+            <v>31.463550702656981</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="B417" t="str">
+            <v xml:space="preserve">2022/12/16
+</v>
+          </cell>
+          <cell r="C417">
+            <v>23.350000380000001</v>
+          </cell>
+          <cell r="D417">
+            <v>31.443999978987929</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="B418" t="str">
+            <v xml:space="preserve">2022/12/19
+</v>
+          </cell>
+          <cell r="C418">
+            <v>23.079999919999999</v>
+          </cell>
+          <cell r="D418">
+            <v>31.423894209615362</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="B419" t="str">
+            <v xml:space="preserve">2022/12/20
+</v>
+          </cell>
+          <cell r="C419">
+            <v>22.709999079999999</v>
+          </cell>
+          <cell r="D419">
+            <v>31.402997578609092</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="B420" t="str">
+            <v xml:space="preserve">2022/12/21
+</v>
+          </cell>
+          <cell r="C420">
+            <v>22.61000061</v>
+          </cell>
+          <cell r="D420">
+            <v>31.381961700693761</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="B421" t="str">
+            <v xml:space="preserve">2022/12/22
+</v>
+          </cell>
+          <cell r="C421">
+            <v>22.549999239999998</v>
+          </cell>
+          <cell r="D421">
+            <v>31.360883031336495</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="B422" t="str">
+            <v xml:space="preserve">2022/12/23
+</v>
+          </cell>
+          <cell r="C422">
+            <v>22.450000760000002</v>
+          </cell>
+          <cell r="D422">
+            <v>31.33966664497617</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="B423" t="str">
+            <v xml:space="preserve">2022/12/26
+</v>
+          </cell>
+          <cell r="C423">
+            <v>22.790000920000001</v>
+          </cell>
+          <cell r="D423">
+            <v>31.319358650380028</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="B424" t="str">
+            <v xml:space="preserve">2022/12/27
+</v>
+          </cell>
+          <cell r="C424">
+            <v>23</v>
+          </cell>
+          <cell r="D424">
+            <v>31.29964453035543</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="B425" t="str">
+            <v xml:space="preserve">2022/12/28
+</v>
+          </cell>
+          <cell r="C425">
+            <v>22.729999540000001</v>
+          </cell>
+          <cell r="D425">
+            <v>31.279385322340406</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="B426">
+            <v>44924</v>
+          </cell>
+          <cell r="C426">
+            <v>22.760000229999999</v>
+          </cell>
+          <cell r="D426">
+            <v>31.259292432971684</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="B427">
+            <v>44925</v>
+          </cell>
+          <cell r="C427">
+            <v>22.739999770000001</v>
+          </cell>
+          <cell r="D427">
+            <v>31.23924703847057</v>
           </cell>
         </row>
       </sheetData>
@@ -30516,7 +32085,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30634,31 +32203,31 @@
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="15">
-        <f t="shared" ref="G3:G20" si="1">G2+F3</f>
+        <f t="shared" ref="G3:G21" si="1">G2+F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H20" si="2">G3*B3</f>
+        <f t="shared" ref="H3:H21" si="2">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
-        <f t="shared" ref="I3:I20" si="3">IF(E3&gt;0,I2+E3,I2)</f>
+        <f t="shared" ref="I3:I21" si="3">IF(E3&gt;0,I2+E3,I2)</f>
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J20" si="4">H3+L3</f>
+        <f t="shared" ref="J3:J21" si="4">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K20" si="5">J3-I3</f>
+        <f t="shared" ref="K3:K21" si="5">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="14">
-        <f t="shared" ref="L3:L20" si="6">IF(E3&lt;0,L2-E3,L2)</f>
+        <f t="shared" ref="L3:L21" si="6">IF(E3&lt;0,L2-E3,L2)</f>
         <v>0</v>
       </c>
       <c r="M3" s="9"/>
@@ -30704,7 +32273,7 @@
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="14">
-        <f t="shared" ref="E4:E20" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <f t="shared" ref="E4:E21" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="F4" s="15">
@@ -31602,6 +33171,55 @@
         <v>-197680.09888055502</v>
       </c>
       <c r="L20" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="12.75">
+      <c r="A21" s="12">
+        <v>44925</v>
+      </c>
+      <c r="B21" s="13">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C21" s="13">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <v>22.739999770000001</v>
+      </c>
+      <c r="D21" s="14">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
+        <v>31.23924703847057</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="7"/>
+        <v>285336.95631588745</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="0"/>
+        <v>394656.92983100459</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="1"/>
+        <v>4849814.7353992322</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="2"/>
+        <v>3506416.0051296353</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="3"/>
+        <v>3690730.8026686539</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="4"/>
+        <v>3506416.0051296353</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="5"/>
+        <v>-184314.79753901856</v>
+      </c>
+      <c r="L21" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -31622,7 +33240,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32708,7 +34326,7 @@
         <v>33.666137024579427</v>
       </c>
       <c r="E16" s="14">
-        <f ca="1">IF(C16&lt;D16,$E$2*(D16-C16)^2*U16,-$E$2*(D16-C16)^2*U16)</f>
+        <f t="shared" ref="E16:E21" ca="1" si="10">IF(C16&lt;D16,$E$2*(D16-C16)^2*U16,-$E$2*(D16-C16)^2*U16)</f>
         <v>212584.68508788882</v>
       </c>
       <c r="F16" s="15">
@@ -32752,27 +34370,27 @@
         <v>0.81933333476384484</v>
       </c>
       <c r="P16" s="23">
-        <f ca="1">SUM(O3:O16)/14</f>
+        <f t="shared" ref="P16:P21" ca="1" si="11">SUM(O3:O16)/14</f>
         <v>0.90447619064648954</v>
       </c>
       <c r="Q16" s="23">
-        <f ca="1">O16-P16</f>
+        <f t="shared" ref="Q16:Q21" ca="1" si="12">O16-P16</f>
         <v>-8.5142855882644697E-2</v>
       </c>
       <c r="R16" s="23">
-        <f ca="1">AVEDEV(O3:O16)</f>
+        <f t="shared" ref="R16:R21" ca="1" si="13">AVEDEV(O3:O16)</f>
         <v>9.2884351843879331E-2</v>
       </c>
       <c r="S16" s="9">
-        <f ca="1">0.015*R16</f>
+        <f t="shared" ref="S16:S21" ca="1" si="14">0.015*R16</f>
         <v>1.3932652776581899E-3</v>
       </c>
       <c r="T16" s="9">
-        <f ca="1">Q16/S16</f>
+        <f t="shared" ref="T16:T21" ca="1" si="15">Q16/S16</f>
         <v>-61.110297692736168</v>
       </c>
       <c r="U16" s="11">
-        <f ca="1">IF(AND(T16&gt;100,C16&gt;D16),1.2,IF(AND(T16&lt;-100,C16&lt;D16),1.2,1))</f>
+        <f t="shared" ref="U16:U21" ca="1" si="16">IF(AND(T16&gt;100,C16&gt;D16),1.2,IF(AND(T16&lt;-100,C16&lt;D16),1.2,1))</f>
         <v>1</v>
       </c>
     </row>
@@ -32793,35 +34411,35 @@
         <v>33.177616240465106</v>
       </c>
       <c r="E17" s="14">
-        <f ca="1">IF(C17&lt;D17,$E$2*(D17-C17)^2*U17,-$E$2*(D17-C17)^2*U17)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>252649.34925635549</v>
       </c>
       <c r="F17" s="15">
-        <f t="shared" ref="F17:F20" ca="1" si="10">E17/B17</f>
+        <f t="shared" ref="F17:F21" ca="1" si="17">E17/B17</f>
         <v>330260.59343891655</v>
       </c>
       <c r="G17" s="15">
-        <f t="shared" ref="G17:G20" ca="1" si="11">G16+F17</f>
+        <f t="shared" ref="G17:G21" ca="1" si="18">G16+F17</f>
         <v>2966377.3661820074</v>
       </c>
       <c r="H17" s="15">
-        <f t="shared" ref="H17:H20" ca="1" si="12">G17*B17</f>
+        <f t="shared" ref="H17:H21" ca="1" si="19">G17*B17</f>
         <v>2269278.6426948672</v>
       </c>
       <c r="I17" s="15">
-        <f t="shared" ref="I17:I20" ca="1" si="13">IF(E17&gt;0,I16+E17,I16)</f>
+        <f t="shared" ref="I17:I21" ca="1" si="20">IF(E17&gt;0,I16+E17,I16)</f>
         <v>2363967.4431216232</v>
       </c>
       <c r="J17" s="15">
-        <f t="shared" ref="J17:J20" ca="1" si="14">H17+L17</f>
+        <f t="shared" ref="J17:J21" ca="1" si="21">H17+L17</f>
         <v>2269278.6426948672</v>
       </c>
       <c r="K17" s="15">
-        <f t="shared" ref="K17:K20" ca="1" si="15">J17-I17</f>
+        <f t="shared" ref="K17:K21" ca="1" si="22">J17-I17</f>
         <v>-94688.800426756032</v>
       </c>
       <c r="L17" s="14">
-        <f t="shared" ref="L17:L20" ca="1" si="16">IF(E17&lt;0,L16-E17,L16)</f>
+        <f t="shared" ref="L17:L21" ca="1" si="23">IF(E17&lt;0,L16-E17,L16)</f>
         <v>0</v>
       </c>
       <c r="M17" s="23">
@@ -32833,31 +34451,31 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="O17" s="23">
-        <f t="shared" ref="O17:O20" ca="1" si="17">(B17+M17+N17)/3</f>
+        <f t="shared" ref="O17:O21" ca="1" si="24">(B17+M17+N17)/3</f>
         <v>0.78500000635782874</v>
       </c>
       <c r="P17" s="23">
-        <f ca="1">SUM(O4:O17)/14</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0.88728571491014396</v>
       </c>
       <c r="Q17" s="23">
-        <f ca="1">O17-P17</f>
+        <f t="shared" ca="1" si="12"/>
         <v>-0.10228570855231522</v>
       </c>
       <c r="R17" s="23">
-        <f ca="1">AVEDEV(O4:O17)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.2761902434485316E-2</v>
       </c>
       <c r="S17" s="9">
-        <f ca="1">0.015*R17</f>
+        <f t="shared" ca="1" si="14"/>
         <v>1.3914285365172797E-3</v>
       </c>
       <c r="T17" s="9">
-        <f ca="1">Q17/S17</f>
+        <f t="shared" ca="1" si="15"/>
         <v>-73.511291358400982</v>
       </c>
       <c r="U17" s="11">
-        <f ca="1">IF(AND(T17&gt;100,C17&gt;D17),1.2,IF(AND(T17&lt;-100,C17&lt;D17),1.2,1))</f>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -32878,35 +34496,35 @@
         <v>32.601424623862997</v>
       </c>
       <c r="E18" s="14">
-        <f ca="1">IF(C18&lt;D18,$E$2*(D18-C18)^2*U18,-$E$2*(D18-C18)^2*U18)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>406568.68077122449</v>
       </c>
       <c r="F18" s="15">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v>584150.42021565919</v>
       </c>
       <c r="G18" s="15">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v>3550527.7863976667</v>
       </c>
       <c r="H18" s="15">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v>2471167.2682257858</v>
       </c>
       <c r="I18" s="15">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v>2770536.1238928479</v>
       </c>
       <c r="J18" s="15">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2471167.2682257858</v>
       </c>
       <c r="K18" s="15">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="22"/>
         <v>-299368.8556670621</v>
       </c>
       <c r="L18" s="14">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M18" s="23">
@@ -32918,31 +34536,31 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="O18" s="23">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0.72199998299280799</v>
       </c>
       <c r="P18" s="23">
-        <f ca="1">SUM(O5:O18)/14</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0.86742857083820168</v>
       </c>
       <c r="Q18" s="23">
-        <f ca="1">O18-P18</f>
+        <f t="shared" ca="1" si="12"/>
         <v>-0.1454285878453937</v>
       </c>
       <c r="R18" s="23">
-        <f ca="1">AVEDEV(O5:O18)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.561904966263543E-2</v>
       </c>
       <c r="S18" s="9">
-        <f ca="1">0.015*R18</f>
+        <f t="shared" ca="1" si="14"/>
         <v>1.4342857449395315E-3</v>
       </c>
       <c r="T18" s="9">
-        <f ca="1">Q18/S18</f>
+        <f t="shared" ca="1" si="15"/>
         <v>-101.39443158972821</v>
       </c>
       <c r="U18" s="11">
-        <f ca="1">IF(AND(T18&gt;100,C18&gt;D18),1.2,IF(AND(T18&lt;-100,C18&lt;D18),1.2,1))</f>
+        <f t="shared" ca="1" si="16"/>
         <v>1.2</v>
       </c>
     </row>
@@ -32963,35 +34581,35 @@
         <v>32.197401538923856</v>
       </c>
       <c r="E19" s="14">
-        <f ca="1">IF(C19&lt;D19,$E$2*(D19-C19)^2*U19,-$E$2*(D19-C19)^2*U19)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>469970.28894201998</v>
       </c>
       <c r="F19" s="15">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v>684090.69130394934</v>
       </c>
       <c r="G19" s="15">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v>4234618.4777016155</v>
       </c>
       <c r="H19" s="15">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v>2909182.7952390611</v>
       </c>
       <c r="I19" s="15">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v>3240506.4128348678</v>
       </c>
       <c r="J19" s="15">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2909182.7952390611</v>
       </c>
       <c r="K19" s="15">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="22"/>
         <v>-331323.61759580672</v>
       </c>
       <c r="L19" s="14">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M19" s="23">
@@ -33003,31 +34621,31 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="O19" s="23">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0.7023333112398783</v>
       </c>
       <c r="P19" s="23">
-        <f ca="1">SUM(O6:O19)/14</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0.84688095021247867</v>
       </c>
       <c r="Q19" s="23">
-        <f ca="1">O19-P19</f>
+        <f t="shared" ca="1" si="12"/>
         <v>-0.14454763897260037</v>
       </c>
       <c r="R19" s="23">
-        <f ca="1">AVEDEV(O6:O19)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.5721091747283951E-2</v>
       </c>
       <c r="S19" s="9">
-        <f ca="1">0.015*R19</f>
+        <f t="shared" ca="1" si="14"/>
         <v>1.4358163762092592E-3</v>
       </c>
       <c r="T19" s="9">
-        <f ca="1">Q19/S19</f>
+        <f t="shared" ca="1" si="15"/>
         <v>-100.67278892181521</v>
       </c>
       <c r="U19" s="11">
-        <f ca="1">IF(AND(T19&gt;100,C19&gt;D19),1.2,IF(AND(T19&lt;-100,C19&lt;D19),1.2,1))</f>
+        <f t="shared" ca="1" si="16"/>
         <v>1.2</v>
       </c>
     </row>
@@ -33048,35 +34666,35 @@
         <v>31.682903206079384</v>
       </c>
       <c r="E20" s="14">
-        <f ca="1">IF(C20&lt;D20,$E$2*(D20-C20)^2*U20,-$E$2*(D20-C20)^2*U20)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>310977.26180343935</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v>431912.84645321348</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v>4666531.3241548287</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v>3359902.686902009</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v>3551483.6746383072</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v>3359902.686902009</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="22"/>
         <v>-191580.98773629824</v>
       </c>
       <c r="L20" s="14">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M20" s="23">
@@ -33088,31 +34706,116 @@
         <v>0.68400001525878906</v>
       </c>
       <c r="O20" s="23">
+        <f t="shared" ca="1" si="24"/>
+        <v>0.71633334954579675</v>
+      </c>
+      <c r="P20" s="23">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.82933333232289264</v>
+      </c>
+      <c r="Q20" s="23">
+        <f t="shared" ca="1" si="12"/>
+        <v>-0.11299998277709589</v>
+      </c>
+      <c r="R20" s="23">
+        <f t="shared" ca="1" si="13"/>
+        <v>9.1809525984485135E-2</v>
+      </c>
+      <c r="S20" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.377142889767277E-3</v>
+      </c>
+      <c r="T20" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>-82.053927458603596</v>
+      </c>
+      <c r="U20" s="11">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="12.75">
+      <c r="A21" s="12">
+        <v>44925</v>
+      </c>
+      <c r="B21" s="13">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C21" s="13">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <v>22.739999770000001</v>
+      </c>
+      <c r="D21" s="14">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
+        <v>31.23924703847057</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" ca="1" si="10"/>
+        <v>285336.95631588745</v>
+      </c>
+      <c r="F21" s="15">
         <f t="shared" ca="1" si="17"/>
-        <v>0.71633334954579675</v>
-      </c>
-      <c r="P20" s="23">
-        <f ca="1">SUM(O7:O20)/14</f>
-        <v>0.82933333232289264</v>
-      </c>
-      <c r="Q20" s="23">
-        <f ca="1">O20-P20</f>
-        <v>-0.11299998277709589</v>
-      </c>
-      <c r="R20" s="23">
-        <f ca="1">AVEDEV(O7:O20)</f>
-        <v>9.1809525984485135E-2</v>
-      </c>
-      <c r="S20" s="9">
-        <f ca="1">0.015*R20</f>
-        <v>1.377142889767277E-3</v>
-      </c>
-      <c r="T20" s="9">
-        <f ca="1">Q20/S20</f>
-        <v>-82.053927458603596</v>
-      </c>
-      <c r="U20" s="11">
-        <f ca="1">IF(AND(T20&gt;100,C20&gt;D20),1.2,IF(AND(T20&lt;-100,C20&lt;D20),1.2,1))</f>
+        <v>394656.92983100459</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" ca="1" si="18"/>
+        <v>5061188.2539858334</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" ca="1" si="19"/>
+        <v>3659239.0569511424</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" ca="1" si="20"/>
+        <v>3836820.6309541948</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" ca="1" si="21"/>
+        <v>3659239.0569511424</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" ca="1" si="22"/>
+        <v>-177581.57400305243</v>
+      </c>
+      <c r="L21" s="14">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="23">
+        <f ca="1">MAX(VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A21,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="N21" s="23">
+        <f ca="1">MIN(VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A21,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.7070000171661377</v>
+      </c>
+      <c r="O21" s="23">
+        <f t="shared" ca="1" si="24"/>
+        <v>0.72733332713445031</v>
+      </c>
+      <c r="P21" s="23">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.81135714196023478</v>
+      </c>
+      <c r="Q21" s="23">
+        <f t="shared" ca="1" si="12"/>
+        <v>-8.4023814825784471E-2</v>
+      </c>
+      <c r="R21" s="23">
+        <f t="shared" ca="1" si="13"/>
+        <v>8.2551026830867819E-2</v>
+      </c>
+      <c r="S21" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.2382654024630172E-3</v>
+      </c>
+      <c r="T21" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>-67.856062729891207</v>
+      </c>
+      <c r="U21" s="11">
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -33132,7 +34835,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33255,7 +34958,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="15">
@@ -33263,7 +34966,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H20" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H21" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -33271,11 +34974,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J20" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J21" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K20" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K21" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="14">
@@ -33340,7 +35043,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" ref="G4:G20" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G21" si="4">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="15">
@@ -33348,7 +35051,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" ref="I4:I20" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I21" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="15">
@@ -33360,7 +35063,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="14">
-        <f t="shared" ref="L4:L20" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L21" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="9">
@@ -33368,7 +35071,7 @@
         <v>-53.501214932625707</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" ref="N4:N20" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
+        <f t="shared" ref="N4:N21" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
       <c r="P4" s="24">
@@ -33429,7 +35132,7 @@
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E20" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^2*N5,-$E$2*(D5-C5)^2*N5)</f>
+        <f t="shared" ref="E5:E21" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^2*N5,-$E$2*(D5-C5)^2*N5)</f>
         <v>31666.545626548228</v>
       </c>
       <c r="F5" s="15">
@@ -34351,6 +36054,63 @@
         <v>-12.858623413630797</v>
       </c>
       <c r="N20" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="12.75">
+      <c r="A21" s="12">
+        <v>44925</v>
+      </c>
+      <c r="B21" s="13">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C21" s="13">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <v>22.739999770000001</v>
+      </c>
+      <c r="D21" s="14">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
+        <v>31.23924703847057</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="9"/>
+        <v>285336.95631588745</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="0"/>
+        <v>394656.92983100459</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="4"/>
+        <v>5223828.7175944569</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="1"/>
+        <v>3776828.1105115637</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="5"/>
+        <v>3969043.294894177</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="2"/>
+        <v>3776828.1105115637</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="3"/>
+        <v>-192215.18438261328</v>
+      </c>
+      <c r="L21" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>-13.703085779356849</v>
+      </c>
+      <c r="N21" s="9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -34371,7 +36131,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34494,7 +36254,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="15">
@@ -34502,7 +36262,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H20" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H21" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -34510,11 +36270,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J20" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J21" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K20" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K21" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="14">
@@ -34579,7 +36339,7 @@
         <v>3932.3301809611858</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" ref="G4:G20" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G21" si="4">G3+F4</f>
         <v>3932.3301809611858</v>
       </c>
       <c r="H4" s="15">
@@ -34587,7 +36347,7 @@
         <v>3955.9241620469529</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" ref="I4:I20" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I21" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="J4" s="15">
@@ -34599,7 +36359,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="14">
-        <f t="shared" ref="L4:L20" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L21" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="9">
@@ -34607,7 +36367,7 @@
         <v>-53.501214932625707</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" ref="N4:N20" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
+        <f t="shared" ref="N4:N21" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
       <c r="P4" s="24">
@@ -34668,7 +36428,7 @@
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E20" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^3*N5,$E$2*(D5-C5)^3*N5)</f>
+        <f t="shared" ref="E5:E21" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^3*N5,$E$2*(D5-C5)^3*N5)</f>
         <v>81848.714902699052</v>
       </c>
       <c r="F5" s="15">
@@ -35590,6 +37350,63 @@
         <v>-12.858623413630797</v>
       </c>
       <c r="N20" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="12.75">
+      <c r="A21" s="12">
+        <v>44925</v>
+      </c>
+      <c r="B21" s="13">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C21" s="13">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <v>22.739999770000001</v>
+      </c>
+      <c r="D21" s="14">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
+        <v>31.23924703847057</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="9"/>
+        <v>2425149.3465615129</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="0"/>
+        <v>3354286.8328491473</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="4"/>
+        <v>45448259.451870061</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="1"/>
+        <v>32859091.128602259</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="5"/>
+        <v>33930746.275790907</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="2"/>
+        <v>32859091.128602259</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="3"/>
+        <v>-1071655.1471886486</v>
+      </c>
+      <c r="L21" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>-13.703085779356849</v>
+      </c>
+      <c r="N21" s="9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -35610,7 +37427,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI20"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35749,7 +37566,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H20" si="0">G3/B3</f>
+        <f t="shared" ref="H3:H21" si="0">G3/B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -35757,7 +37574,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J20" si="1">I3*B3</f>
+        <f t="shared" ref="J3:J21" si="1">I3*B3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
@@ -35765,11 +37582,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="15">
-        <f t="shared" ref="L3:L20" si="2">J3+N3</f>
+        <f t="shared" ref="L3:L21" si="2">J3+N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="15">
-        <f t="shared" ref="M3:M20" si="3">L3-K3</f>
+        <f t="shared" ref="M3:M21" si="3">L3-K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="14">
@@ -35842,7 +37659,7 @@
         <v>1049.4536589575841</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" ref="I4:I20" si="4">I3+H4</f>
+        <f t="shared" ref="I4:I21" si="4">I3+H4</f>
         <v>1049.4536589575841</v>
       </c>
       <c r="J4" s="15">
@@ -35850,7 +37667,7 @@
         <v>1055.7503809113296</v>
       </c>
       <c r="K4" s="15">
-        <f t="shared" ref="K4:K20" si="5">IF(G4&gt;0,K3+G4,K3)</f>
+        <f t="shared" ref="K4:K21" si="5">IF(G4&gt;0,K3+G4,K3)</f>
         <v>1055.7503809113296</v>
       </c>
       <c r="L4" s="15">
@@ -35862,7 +37679,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" ref="N4:N20" si="6">IF(G4&lt;0,N3-G4,N3)</f>
+        <f t="shared" ref="N4:N21" si="6">IF(G4&lt;0,N3-G4,N3)</f>
         <v>0</v>
       </c>
       <c r="O4" s="9">
@@ -35870,7 +37687,7 @@
         <v>-53.501214932625707</v>
       </c>
       <c r="P4" s="9">
-        <f t="shared" ref="P4:P20" si="7">IF(AND(O4&gt;100,C4&gt;D4),1.2,IF(AND(O4&lt;-100,C4&lt;D4),1.2,1))</f>
+        <f t="shared" ref="P4:P21" si="7">IF(AND(O4&gt;100,C4&gt;D4),1.2,IF(AND(O4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
       <c r="R4" s="24">
@@ -35939,7 +37756,7 @@
         <v>21490456.638297871</v>
       </c>
       <c r="G5" s="14">
-        <f t="shared" ref="G5:G20" si="9">IF(C5&lt;D5,$G$2*(D5-C5)^3*P5*E5/F5,$G$2*(D5-C5)^3*P5*E5/F5)</f>
+        <f t="shared" ref="G5:G21" si="9">IF(C5&lt;D5,$G$2*(D5-C5)^3*P5*E5/F5,$G$2*(D5-C5)^3*P5*E5/F5)</f>
         <v>16983.872079062337</v>
       </c>
       <c r="H5" s="15">
@@ -36985,6 +38802,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="1:16" ht="12.75">
+      <c r="A21" s="12">
+        <v>44925</v>
+      </c>
+      <c r="B21" s="13">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C21" s="13">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <v>22.739999770000001</v>
+      </c>
+      <c r="D21" s="14">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
+        <v>31.23924703847057</v>
+      </c>
+      <c r="E21" s="14">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
+        <v>2041800</v>
+      </c>
+      <c r="F21" s="14">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$I,9)</f>
+        <v>5162984.7923986483</v>
+      </c>
+      <c r="G21" s="14">
+        <f t="shared" si="9"/>
+        <v>959071.18361059949</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="0"/>
+        <v>1326516.1782763151</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="4"/>
+        <v>15748220.103730638</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="1"/>
+        <v>11385962.977301184</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="5"/>
+        <v>11496313.72815921</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" si="2"/>
+        <v>11385962.977301184</v>
+      </c>
+      <c r="M21" s="15">
+        <f t="shared" si="3"/>
+        <v>-110350.75085802563</v>
+      </c>
+      <c r="N21" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>-13.703085779356849</v>
+      </c>
+      <c r="P21" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569"/>
   </bookViews>
   <sheets>
     <sheet name="model4(1)" sheetId="9" r:id="rId1"/>
@@ -509,6 +509,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -565,7 +566,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -622,6 +623,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -631,7 +635,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -678,16 +682,19 @@
                   <c:v>2363967.4431216232</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2702774.6770976437</c:v>
+                  <c:v>2761346.2493095547</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3094416.5845493269</c:v>
+                  <c:v>3155905.6052298844</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3405393.8463527663</c:v>
+                  <c:v>3469340.924224162</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3690730.8026686539</c:v>
+                  <c:v>3756910.4972957228</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3904600.5212148419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -730,7 +737,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -787,6 +794,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -796,7 +806,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -843,16 +853,19 @@
                   <c:v>2269278.6426948672</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2403405.8214305816</c:v>
+                  <c:v>2461977.3936424926</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2763969.1929088128</c:v>
+                  <c:v>2824700.8222666993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3207713.7474722113</c:v>
+                  <c:v>3273820.6785529791</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3506416.0051296353</c:v>
+                  <c:v>3575030.9949550489</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4049072.3250765675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,7 +908,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -952,6 +965,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -961,7 +977,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1011,13 +1027,16 @@
                   <c:v>-299368.8556670621</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-330447.39164051414</c:v>
+                  <c:v>-331204.78296318511</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-197680.09888055502</c:v>
+                  <c:v>-195520.24567118287</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-184314.79753901856</c:v>
+                  <c:v>-181879.50234067393</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>144471.80386172561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,11 +1058,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="393790208"/>
-        <c:axId val="393792512"/>
+        <c:axId val="90422272"/>
+        <c:axId val="91014656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="393790208"/>
+        <c:axId val="90422272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,14 +1105,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393792512"/>
+        <c:crossAx val="91014656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="393792512"/>
+        <c:axId val="91014656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1163,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393790208"/>
+        <c:crossAx val="90422272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1158,6 +1177,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1303,7 +1323,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1350,16 +1370,19 @@
                   <c:v>300031.00550934568</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1442324.1532089238</c:v>
+                  <c:v>1832065.1586837813</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2922335.9299294855</c:v>
+                  <c:v>2955050.5948641114</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1313323.0596551057</c:v>
+                  <c:v>1328925.1361687968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>959071.18361059949</c:v>
+                  <c:v>970349.54114415869</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>427736.68836834806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1374,8 +1397,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89979520"/>
-        <c:axId val="89977984"/>
+        <c:axId val="95237248"/>
+        <c:axId val="95235456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1400,7 +1423,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1457,6 +1480,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1466,7 +1492,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1523,6 +1549,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.72299998998641968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,11 +1568,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89974656"/>
-        <c:axId val="89976192"/>
+        <c:axId val="95232384"/>
+        <c:axId val="95233920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89974656"/>
+        <c:axId val="95232384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,14 +1615,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89976192"/>
+        <c:crossAx val="95233920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89976192"/>
+        <c:axId val="95233920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,12 +1673,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89974656"/>
+        <c:crossAx val="95232384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89977984"/>
+        <c:axId val="95235456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1686,12 +1715,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89979520"/>
+        <c:crossAx val="95237248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="89979520"/>
+        <c:axId val="95237248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,7 +1729,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89977984"/>
+        <c:crossAx val="95235456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1831,7 +1860,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1878,16 +1907,19 @@
                   <c:v>252649.34925635549</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>338807.23397602042</c:v>
+                  <c:v>397378.80618793133</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>391641.90745168331</c:v>
+                  <c:v>394559.35592032992</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>310977.26180343935</c:v>
+                  <c:v>313435.3189942778</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>285336.95631588745</c:v>
+                  <c:v>287569.57307156065</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>147690.02391911903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1902,8 +1934,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="78049664"/>
-        <c:axId val="511662720"/>
+        <c:axId val="254688256"/>
+        <c:axId val="254669568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1928,7 +1960,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1985,6 +2017,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,7 +2029,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2051,6 +2086,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.72299998998641968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,11 +2105,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506182272"/>
-        <c:axId val="511660416"/>
+        <c:axId val="91281664"/>
+        <c:axId val="104464384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506182272"/>
+        <c:axId val="91281664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2114,14 +2152,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511660416"/>
+        <c:crossAx val="104464384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511660416"/>
+        <c:axId val="104464384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,12 +2210,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506182272"/>
+        <c:crossAx val="91281664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="511662720"/>
+        <c:axId val="254669568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,12 +2252,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78049664"/>
+        <c:crossAx val="254688256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="78049664"/>
+        <c:axId val="254688256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,7 +2266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511662720"/>
+        <c:crossAx val="254669568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2377,7 +2415,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2434,6 +2472,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2443,7 +2484,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2490,16 +2531,19 @@
                   <c:v>2363967.4431216232</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2770536.1238928479</c:v>
+                  <c:v>2840822.0105471406</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3240506.4128348678</c:v>
+                  <c:v>3314293.2376515362</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3551483.6746383072</c:v>
+                  <c:v>3627728.5566458139</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3836820.6309541948</c:v>
+                  <c:v>3915298.1297173747</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4062988.1536364937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2542,7 +2586,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2599,6 +2643,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2608,7 +2655,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2655,16 +2702,19 @@
                   <c:v>2269278.6426948672</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2471167.2682257858</c:v>
+                  <c:v>2541453.154880079</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2909182.7952390611</c:v>
+                  <c:v>2982060.7504685246</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3359902.686902009</c:v>
+                  <c:v>3438739.3927607625</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3659239.0569511424</c:v>
+                  <c:v>3740636.8615977974</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4229795.7364258952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2707,7 +2757,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2764,6 +2814,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2773,7 +2826,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2820,16 +2873,19 @@
                   <c:v>-94688.800426756032</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-299368.8556670621</c:v>
+                  <c:v>-299368.85566706164</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-331323.61759580672</c:v>
+                  <c:v>-332232.4871830116</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-191580.98773629824</c:v>
+                  <c:v>-188989.16388505138</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-177581.57400305243</c:v>
+                  <c:v>-174661.26811957732</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>166807.58278940152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2851,11 +2907,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78331264"/>
-        <c:axId val="78333056"/>
+        <c:axId val="576417792"/>
+        <c:axId val="576419712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78331264"/>
+        <c:axId val="576417792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2898,14 +2954,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78333056"/>
+        <c:crossAx val="576419712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78333056"/>
+        <c:axId val="576419712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2956,7 +3012,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78331264"/>
+        <c:crossAx val="576417792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3115,7 +3171,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3162,16 +3218,19 @@
                   <c:v>252649.34925635549</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>406568.68077122449</c:v>
+                  <c:v>476854.5674255176</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>469970.28894201998</c:v>
+                  <c:v>473471.22710439586</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>310977.26180343935</c:v>
+                  <c:v>313435.3189942778</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>285336.95631588745</c:v>
+                  <c:v>287569.57307156065</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>147690.02391911903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3186,8 +3245,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="78356480"/>
-        <c:axId val="78346496"/>
+        <c:axId val="680044416"/>
+        <c:axId val="680014976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3212,7 +3271,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3269,6 +3328,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3278,7 +3340,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3335,6 +3397,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.72299998998641968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3351,11 +3416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78343168"/>
-        <c:axId val="78344960"/>
+        <c:axId val="616142336"/>
+        <c:axId val="616144256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78343168"/>
+        <c:axId val="616142336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3398,14 +3463,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78344960"/>
+        <c:crossAx val="616144256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78344960"/>
+        <c:axId val="616144256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3456,12 +3521,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78343168"/>
+        <c:crossAx val="616142336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78346496"/>
+        <c:axId val="680014976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3498,12 +3563,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78356480"/>
+        <c:crossAx val="680044416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="78356480"/>
+        <c:axId val="680044416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3512,7 +3577,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78346496"/>
+        <c:crossAx val="680014976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3661,7 +3726,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3718,6 +3783,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3727,7 +3795,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3774,16 +3842,19 @@
                   <c:v>2496190.1070616054</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2902758.7878328301</c:v>
+                  <c:v>2973044.6744871233</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3372729.07677485</c:v>
+                  <c:v>3446515.9015915189</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3683706.3385782894</c:v>
+                  <c:v>3759951.2205857965</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3969043.294894177</c:v>
+                  <c:v>4047520.7936573573</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4195210.8175764764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3826,7 +3897,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3883,6 +3954,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3892,7 +3966,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3939,16 +4013,19 @@
                   <c:v>2393698.5950288731</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2584365.0276401606</c:v>
+                  <c:v>2654650.9142944538</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3020916.7899380876</c:v>
+                  <c:v>3093794.7451675506</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3477003.8253533985</c:v>
+                  <c:v>3555840.531212152</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3776828.1105115637</c:v>
+                  <c:v>3858225.9151582182</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4358119.0581027884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3991,7 +4068,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4048,6 +4125,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4057,7 +4137,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4107,13 +4187,16 @@
                   <c:v>-318393.76019266946</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-351812.28683676245</c:v>
+                  <c:v>-352721.15642396826</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-206702.51322489092</c:v>
+                  <c:v>-204110.68937364453</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-192215.18438261328</c:v>
+                  <c:v>-189294.8784991391</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>162908.24052631203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4135,11 +4218,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78371840"/>
-        <c:axId val="78373632"/>
+        <c:axId val="90993792"/>
+        <c:axId val="90995328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78371840"/>
+        <c:axId val="90993792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4182,14 +4265,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78373632"/>
+        <c:crossAx val="90995328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78373632"/>
+        <c:axId val="90995328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4240,7 +4323,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78371840"/>
+        <c:crossAx val="90993792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4399,7 +4482,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4446,16 +4529,19 @@
                   <c:v>303179.21910762659</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>406568.68077122449</c:v>
+                  <c:v>476854.5674255176</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>469970.28894201998</c:v>
+                  <c:v>473471.22710439586</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>310977.26180343935</c:v>
+                  <c:v>313435.3189942778</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>285336.95631588745</c:v>
+                  <c:v>287569.57307156065</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>147690.02391911903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4470,8 +4556,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="78400896"/>
-        <c:axId val="78399360"/>
+        <c:axId val="91023232"/>
+        <c:axId val="91021696"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4496,7 +4582,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4553,6 +4639,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4562,7 +4651,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4619,6 +4708,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.72299998998641968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4635,11 +4727,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78396032"/>
-        <c:axId val="78397824"/>
+        <c:axId val="91010176"/>
+        <c:axId val="91011712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78396032"/>
+        <c:axId val="91010176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4682,14 +4774,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78397824"/>
+        <c:crossAx val="91011712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78397824"/>
+        <c:axId val="91011712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4740,12 +4832,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78396032"/>
+        <c:crossAx val="91010176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78399360"/>
+        <c:axId val="91021696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4782,12 +4874,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78400896"/>
+        <c:crossAx val="91023232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="78400896"/>
+        <c:axId val="91023232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4796,7 +4888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78399360"/>
+        <c:crossAx val="91021696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4945,7 +5037,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5002,6 +5094,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5011,7 +5106,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5058,16 +5153,19 @@
                   <c:v>20301237.504284184</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24066642.634684995</c:v>
+                  <c:v>25084120.417524301</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28746325.621137921</c:v>
+                  <c:v>29816191.036533132</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31505596.929229394</c:v>
+                  <c:v>32608242.064552907</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33930746.275790907</c:v>
+                  <c:v>35061910.359311596</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35964994.453942828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5110,7 +5208,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5167,6 +5265,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5176,7 +5277,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5223,16 +5324,19 @@
                   <c:v>19920462.426406339</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21889119.782806464</c:v>
+                  <c:v>22906597.565645773</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26285753.693430729</c:v>
+                  <c:v>27342462.063272424</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30307661.490013275</c:v>
+                  <c:v>31447908.578783918</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32859091.128602259</c:v>
+                  <c:v>34032608.133750223</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38042402.669101261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5275,7 +5379,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5332,6 +5436,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5341,7 +5448,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5388,16 +5495,19 @@
                   <c:v>-380775.07787784562</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2177522.8518785313</c:v>
+                  <c:v>-2177522.8518785276</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2460571.9277071916</c:v>
+                  <c:v>-2473728.9732607082</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1197935.4392161183</c:v>
+                  <c:v>-1160333.4857689887</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1071655.1471886486</c:v>
+                  <c:v>-1029302.2255613729</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2077408.2151584327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5419,11 +5529,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88840832"/>
-        <c:axId val="88842624"/>
+        <c:axId val="93541120"/>
+        <c:axId val="93542656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88840832"/>
+        <c:axId val="93541120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5466,14 +5576,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88842624"/>
+        <c:crossAx val="93542656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88842624"/>
+        <c:axId val="93542656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5524,7 +5634,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88840832"/>
+        <c:crossAx val="93541120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5683,7 +5793,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5730,16 +5840,19 @@
                   <c:v>26039820.652168576</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31449885.650371231</c:v>
+                  <c:v>32911779.058585145</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38261651.510065518</c:v>
+                  <c:v>39799800.572337106</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42093972.619020917</c:v>
+                  <c:v>43677649.068272717</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45448259.451870061</c:v>
+                  <c:v>47071381.196546718</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48215974.50904078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5754,8 +5867,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="88861696"/>
-        <c:axId val="88860160"/>
+        <c:axId val="93557888"/>
+        <c:axId val="93556096"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5780,7 +5893,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5837,6 +5950,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5846,7 +5962,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5903,6 +6019,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.72299998998641968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5919,11 +6038,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88856832"/>
-        <c:axId val="88858624"/>
+        <c:axId val="93553024"/>
+        <c:axId val="93554560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88856832"/>
+        <c:axId val="93553024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5966,14 +6085,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88858624"/>
+        <c:crossAx val="93554560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88858624"/>
+        <c:axId val="93554560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6024,12 +6143,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88856832"/>
+        <c:crossAx val="93553024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88860160"/>
+        <c:axId val="93556096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6066,12 +6185,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88861696"/>
+        <c:crossAx val="93557888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="88861696"/>
+        <c:axId val="93557888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6080,7 +6199,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88860160"/>
+        <c:crossAx val="93556096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6173,7 +6292,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6230,7 +6348,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6287,6 +6405,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6296,7 +6417,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6343,16 +6464,19 @@
                   <c:v>4859259.4017550964</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6301583.5549640199</c:v>
+                  <c:v>6691324.5604388779</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9223919.4848935045</c:v>
+                  <c:v>9646375.1553029902</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10537242.54454861</c:v>
+                  <c:v>10975300.291471787</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11496313.72815921</c:v>
+                  <c:v>11945649.832615945</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12373386.520984294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6395,7 +6519,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6452,6 +6576,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6461,7 +6588,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6508,16 +6635,19 @@
                   <c:v>4797754.8469314398</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5807340.2836938016</c:v>
+                  <c:v>6197081.2891686596</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8654581.2661501952</c:v>
+                  <c:v>9071997.1801644098</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10383627.238935372</c:v>
+                  <c:v>10836695.807812983</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11385962.977301184</c:v>
+                  <c:v>11852197.665036507</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13361877.473565781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6560,7 +6690,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6617,6 +6747,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6626,7 +6759,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6676,13 +6809,16 @@
                   <c:v>-494243.27127021831</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-569338.21874330938</c:v>
+                  <c:v>-574377.97513858043</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-153615.30561323836</c:v>
+                  <c:v>-138604.48365880363</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-110350.75085802563</c:v>
+                  <c:v>-93452.167579438537</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>988490.9525814876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6704,11 +6840,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89946368"/>
-        <c:axId val="89948160"/>
+        <c:axId val="93573504"/>
+        <c:axId val="93575040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89946368"/>
+        <c:axId val="93573504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6751,14 +6887,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89948160"/>
+        <c:crossAx val="93575040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89948160"/>
+        <c:axId val="93575040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6809,7 +6945,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89946368"/>
+        <c:crossAx val="93573504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6823,7 +6959,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8199,6 +8334,12 @@
           <cell r="I21">
             <v>40637239.315789476</v>
           </cell>
+          <cell r="K21">
+            <v>44985</v>
+          </cell>
+          <cell r="L21">
+            <v>44958</v>
+          </cell>
           <cell r="N21">
             <v>1.054</v>
           </cell>
@@ -26803,10 +26944,10 @@
             <v>5162984.7923986483</v>
           </cell>
           <cell r="N372">
-            <v>0</v>
+            <v>0.72899997234344482</v>
           </cell>
           <cell r="O372">
-            <v>0</v>
+            <v>0.7149999737739563</v>
           </cell>
           <cell r="P372">
             <v>0.72366666793823242</v>
@@ -26825,6 +26966,1861 @@
           </cell>
           <cell r="U372">
             <v>-13.703085779356849</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="A373">
+            <v>44929</v>
+          </cell>
+          <cell r="B373">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="C373">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="D373">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="E373">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="F373">
+            <v>1565200</v>
+          </cell>
+          <cell r="G373">
+            <v>1129.6409912109375</v>
+          </cell>
+          <cell r="H373">
+            <v>371</v>
+          </cell>
+          <cell r="I373">
+            <v>5153287.2592654983</v>
+          </cell>
+          <cell r="N373">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="O373">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P373">
+            <v>0.72433330615361535</v>
+          </cell>
+          <cell r="Q373">
+            <v>0.7242380934102195</v>
+          </cell>
+          <cell r="R373">
+            <v>9.5212743395856059E-5</v>
+          </cell>
+          <cell r="S373">
+            <v>7.0340102221690083E-3</v>
+          </cell>
+          <cell r="T373">
+            <v>1.0551015333253512E-4</v>
+          </cell>
+          <cell r="U373">
+            <v>0.90240361129772195</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="A374">
+            <v>44930</v>
+          </cell>
+          <cell r="B374">
+            <v>0.72500002384185791</v>
+          </cell>
+          <cell r="C374">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="D374">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="E374">
+            <v>0.72500002384185791</v>
+          </cell>
+          <cell r="F374">
+            <v>1636900</v>
+          </cell>
+          <cell r="G374">
+            <v>1184.56201171875</v>
+          </cell>
+          <cell r="H374">
+            <v>372</v>
+          </cell>
+          <cell r="I374">
+            <v>5143834.6053427421</v>
+          </cell>
+          <cell r="N374">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="O374">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P374">
+            <v>0.72433334589004517</v>
+          </cell>
+          <cell r="Q374">
+            <v>0.72335714101791382</v>
+          </cell>
+          <cell r="R374">
+            <v>9.7620487213134766E-4</v>
+          </cell>
+          <cell r="S374">
+            <v>6.0714256195794946E-3</v>
+          </cell>
+          <cell r="T374">
+            <v>9.1071384293692418E-5</v>
+          </cell>
+          <cell r="U374">
+            <v>10.719117532936846</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="A375">
+            <v>44931</v>
+          </cell>
+          <cell r="B375">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="C375">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="D375">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="E375">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="F375">
+            <v>1151000</v>
+          </cell>
+          <cell r="G375">
+            <v>847.927001953125</v>
+          </cell>
+          <cell r="H375">
+            <v>373</v>
+          </cell>
+          <cell r="I375">
+            <v>5133129.9549262738</v>
+          </cell>
+          <cell r="N375">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="O375">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P375">
+            <v>0.73799999554951989</v>
+          </cell>
+          <cell r="Q375">
+            <v>0.72319047507785617</v>
+          </cell>
+          <cell r="R375">
+            <v>1.4809520471663729E-2</v>
+          </cell>
+          <cell r="S375">
+            <v>5.9047596795218328E-3</v>
+          </cell>
+          <cell r="T375">
+            <v>8.8571395192827494E-5</v>
+          </cell>
+          <cell r="U375">
+            <v>167.20432640156722</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="A376">
+            <v>44932</v>
+          </cell>
+          <cell r="B376">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="C376">
+            <v>0.75099998712539673</v>
+          </cell>
+          <cell r="D376">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="E376">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="F376">
+            <v>2536002</v>
+          </cell>
+          <cell r="G376">
+            <v>1894.322998046875</v>
+          </cell>
+          <cell r="H376">
+            <v>374</v>
+          </cell>
+          <cell r="I376">
+            <v>5126185.7625334226</v>
+          </cell>
+          <cell r="N376">
+            <v>0.75099998712539673</v>
+          </cell>
+          <cell r="O376">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P376">
+            <v>0.74533333381017053</v>
+          </cell>
+          <cell r="Q376">
+            <v>0.72383333245913195</v>
+          </cell>
+          <cell r="R376">
+            <v>2.1500001351038578E-2</v>
+          </cell>
+          <cell r="S376">
+            <v>6.571426278068916E-3</v>
+          </cell>
+          <cell r="T376">
+            <v>9.8571394171033733E-5</v>
+          </cell>
+          <cell r="U376">
+            <v>218.11603185538169</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="A377">
+            <v>44935</v>
+          </cell>
+          <cell r="B377">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="C377">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="D377">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="E377">
+            <v>0.74699997901916504</v>
+          </cell>
+          <cell r="F377">
+            <v>2679501</v>
+          </cell>
+          <cell r="G377">
+            <v>2000.68994140625</v>
+          </cell>
+          <cell r="H377">
+            <v>375</v>
+          </cell>
+          <cell r="I377">
+            <v>5119661.2698333338</v>
+          </cell>
+          <cell r="N377">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O377">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P377">
+            <v>0.74833331505457557</v>
+          </cell>
+          <cell r="Q377">
+            <v>0.72507142594882423</v>
+          </cell>
+          <cell r="R377">
+            <v>2.3261889105751332E-2</v>
+          </cell>
+          <cell r="S377">
+            <v>8.1972759597155574E-3</v>
+          </cell>
+          <cell r="T377">
+            <v>1.2295913939573336E-4</v>
+          </cell>
+          <cell r="U377">
+            <v>189.18389653724685</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="A378">
+            <v>44936</v>
+          </cell>
+          <cell r="B378">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="C378">
+            <v>0.75499999523162842</v>
+          </cell>
+          <cell r="D378">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="E378">
+            <v>0.75300002098083496</v>
+          </cell>
+          <cell r="F378">
+            <v>1321912</v>
+          </cell>
+          <cell r="G378">
+            <v>988.56402587890625</v>
+          </cell>
+          <cell r="H378">
+            <v>376</v>
+          </cell>
+          <cell r="I378">
+            <v>5109560.872839096</v>
+          </cell>
+          <cell r="N378">
+            <v>0.75499999523162842</v>
+          </cell>
+          <cell r="O378">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P378">
+            <v>0.75066667795181274</v>
+          </cell>
+          <cell r="Q378">
+            <v>0.72719047466913855</v>
+          </cell>
+          <cell r="R378">
+            <v>2.3476203282674191E-2</v>
+          </cell>
+          <cell r="S378">
+            <v>1.051020338421774E-2</v>
+          </cell>
+          <cell r="T378">
+            <v>1.576530507632661E-4</v>
+          </cell>
+          <cell r="U378">
+            <v>148.91055497509126</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="A379">
+            <v>44937</v>
+          </cell>
+          <cell r="B379">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="C379">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="D379">
+            <v>0.74699997901916504</v>
+          </cell>
+          <cell r="E379">
+            <v>0.74800002574920654</v>
+          </cell>
+          <cell r="F379">
+            <v>2797004</v>
+          </cell>
+          <cell r="G379">
+            <v>2105.48388671875</v>
+          </cell>
+          <cell r="H379">
+            <v>377</v>
+          </cell>
+          <cell r="I379">
+            <v>5103426.7697281167</v>
+          </cell>
+          <cell r="N379">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="O379">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P379">
+            <v>0.75033332904179895</v>
+          </cell>
+          <cell r="Q379">
+            <v>0.72961904605229688</v>
+          </cell>
+          <cell r="R379">
+            <v>2.0714282989502064E-2</v>
+          </cell>
+          <cell r="S379">
+            <v>1.2081631592341808E-2</v>
+          </cell>
+          <cell r="T379">
+            <v>1.8122447388512711E-4</v>
+          </cell>
+          <cell r="U379">
+            <v>114.30179680164083</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="A380">
+            <v>44938</v>
+          </cell>
+          <cell r="B380">
+            <v>0.75099998712539673</v>
+          </cell>
+          <cell r="C380">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="D380">
+            <v>0.74900001287460327</v>
+          </cell>
+          <cell r="E380">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="F380">
+            <v>2889600</v>
+          </cell>
+          <cell r="G380">
+            <v>2174.404052734375</v>
+          </cell>
+          <cell r="H380">
+            <v>378</v>
+          </cell>
+          <cell r="I380">
+            <v>5097570.0851521166</v>
+          </cell>
+          <cell r="N380">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="O380">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P380">
+            <v>0.75233332316080725</v>
+          </cell>
+          <cell r="Q380">
+            <v>0.73226190181005557</v>
+          </cell>
+          <cell r="R380">
+            <v>2.0071421350751684E-2</v>
+          </cell>
+          <cell r="S380">
+            <v>1.306122338690723E-2</v>
+          </cell>
+          <cell r="T380">
+            <v>1.9591835080360844E-4</v>
+          </cell>
+          <cell r="U380">
+            <v>102.4478884618194</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="A381">
+            <v>44939</v>
+          </cell>
+          <cell r="B381">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="C381">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="D381">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="E381">
+            <v>0.75900000333786011</v>
+          </cell>
+          <cell r="F381">
+            <v>2609100</v>
+          </cell>
+          <cell r="G381">
+            <v>1971.1600341796875</v>
+          </cell>
+          <cell r="H381">
+            <v>379</v>
+          </cell>
+          <cell r="I381">
+            <v>5091004.2010224275</v>
+          </cell>
+          <cell r="N381">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="O381">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P381">
+            <v>0.75866665442784631</v>
+          </cell>
+          <cell r="Q381">
+            <v>0.73573809152557745</v>
+          </cell>
+          <cell r="R381">
+            <v>2.2928562902268856E-2</v>
+          </cell>
+          <cell r="S381">
+            <v>1.3357141188212804E-2</v>
+          </cell>
+          <cell r="T381">
+            <v>2.0035711782319206E-4</v>
+          </cell>
+          <cell r="U381">
+            <v>114.43847441697822</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="A382">
+            <v>44942</v>
+          </cell>
+          <cell r="B382">
+            <v>0.76099997758865356</v>
+          </cell>
+          <cell r="C382">
+            <v>0.77799999713897705</v>
+          </cell>
+          <cell r="D382">
+            <v>0.76099997758865356</v>
+          </cell>
+          <cell r="E382">
+            <v>0.77300000190734863</v>
+          </cell>
+          <cell r="F382">
+            <v>3660307</v>
+          </cell>
+          <cell r="G382">
+            <v>2824.14404296875</v>
+          </cell>
+          <cell r="H382">
+            <v>380</v>
+          </cell>
+          <cell r="I382">
+            <v>5087239.2083881581</v>
+          </cell>
+          <cell r="N382">
+            <v>0.77799999713897705</v>
+          </cell>
+          <cell r="O382">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P382">
+            <v>0.77066665887832642</v>
+          </cell>
+          <cell r="Q382">
+            <v>0.73966666204588749</v>
+          </cell>
+          <cell r="R382">
+            <v>3.0999996832438925E-2</v>
+          </cell>
+          <cell r="S382">
+            <v>1.4095236857732134E-2</v>
+          </cell>
+          <cell r="T382">
+            <v>2.1142855286598199E-4</v>
+          </cell>
+          <cell r="U382">
+            <v>146.62161951271011</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="A383">
+            <v>44943</v>
+          </cell>
+          <cell r="B383">
+            <v>0.79500001668930054</v>
+          </cell>
+          <cell r="C383">
+            <v>0.79500001668930054</v>
+          </cell>
+          <cell r="D383">
+            <v>0.77300000190734863</v>
+          </cell>
+          <cell r="E383">
+            <v>0.77499997615814209</v>
+          </cell>
+          <cell r="F383">
+            <v>1479900</v>
+          </cell>
+          <cell r="G383">
+            <v>1148.1639404296875</v>
+          </cell>
+          <cell r="H383">
+            <v>381</v>
+          </cell>
+          <cell r="I383">
+            <v>5077771.1264763782</v>
+          </cell>
+          <cell r="N383">
+            <v>0.79500001668930054</v>
+          </cell>
+          <cell r="O383">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P383">
+            <v>0.78099999825159705</v>
+          </cell>
+          <cell r="Q383">
+            <v>0.74359523398535587</v>
+          </cell>
+          <cell r="R383">
+            <v>3.7404764266241175E-2</v>
+          </cell>
+          <cell r="S383">
+            <v>1.5510202670583919E-2</v>
+          </cell>
+          <cell r="T383">
+            <v>2.3265304005875878E-4</v>
+          </cell>
+          <cell r="U383">
+            <v>160.77487857796416</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="A384">
+            <v>44944</v>
+          </cell>
+          <cell r="B384">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="C384">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="D384">
+            <v>0.77499997615814209</v>
+          </cell>
+          <cell r="E384">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="F384">
+            <v>5034005</v>
+          </cell>
+          <cell r="G384">
+            <v>3914.56298828125</v>
+          </cell>
+          <cell r="H384">
+            <v>382</v>
+          </cell>
+          <cell r="I384">
+            <v>5077656.5554646598</v>
+          </cell>
+          <cell r="N384">
+            <v>0.79500001668930054</v>
+          </cell>
+          <cell r="O384">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P384">
+            <v>0.77733333905537927</v>
+          </cell>
+          <cell r="Q384">
+            <v>0.74764285343033932</v>
+          </cell>
+          <cell r="R384">
+            <v>2.9690485625039953E-2</v>
+          </cell>
+          <cell r="S384">
+            <v>1.5455781197061329E-2</v>
+          </cell>
+          <cell r="T384">
+            <v>2.3183671795591992E-4</v>
+          </cell>
+          <cell r="U384">
+            <v>128.06636449488181</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="A385">
+            <v>44945</v>
+          </cell>
+          <cell r="B385">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="C385">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="D385">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="E385">
+            <v>0.78200000524520874</v>
+          </cell>
+          <cell r="F385">
+            <v>1876500</v>
+          </cell>
+          <cell r="G385">
+            <v>1461.1739501953125</v>
+          </cell>
+          <cell r="H385">
+            <v>383</v>
+          </cell>
+          <cell r="I385">
+            <v>5069298.4443537863</v>
+          </cell>
+          <cell r="N385">
+            <v>0.79500001668930054</v>
+          </cell>
+          <cell r="O385">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P385">
+            <v>0.77966666221618652</v>
+          </cell>
+          <cell r="Q385">
+            <v>0.75176190052713665</v>
+          </cell>
+          <cell r="R385">
+            <v>2.7904761689049873E-2</v>
+          </cell>
+          <cell r="S385">
+            <v>1.5585033261046108E-2</v>
+          </cell>
+          <cell r="T385">
+            <v>2.3377549891569161E-4</v>
+          </cell>
+          <cell r="U385">
+            <v>119.36563847999057</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="A386">
+            <v>44946</v>
+          </cell>
+          <cell r="B386">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="C386">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="D386">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="E386">
+            <v>0.78700000047683716</v>
+          </cell>
+          <cell r="F386">
+            <v>6181202</v>
+          </cell>
+          <cell r="G386">
+            <v>4860.455078125</v>
+          </cell>
+          <cell r="H386">
+            <v>384</v>
+          </cell>
+          <cell r="I386">
+            <v>5072194.0265299482</v>
+          </cell>
+          <cell r="N386">
+            <v>0.79500001668930054</v>
+          </cell>
+          <cell r="O386">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P386">
+            <v>0.78599999348322547</v>
+          </cell>
+          <cell r="Q386">
+            <v>0.75621428092320753</v>
+          </cell>
+          <cell r="R386">
+            <v>2.9785712560017941E-2</v>
+          </cell>
+          <cell r="S386">
+            <v>1.6578231539045047E-2</v>
+          </cell>
+          <cell r="T386">
+            <v>2.4867347308567571E-4</v>
+          </cell>
+          <cell r="U386">
+            <v>119.77840736456776</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="A387">
+            <v>44956</v>
+          </cell>
+          <cell r="B387">
+            <v>0.78700000047683716</v>
+          </cell>
+          <cell r="C387">
+            <v>0.81000000238418579</v>
+          </cell>
+          <cell r="D387">
+            <v>0.78700000047683716</v>
+          </cell>
+          <cell r="E387">
+            <v>0.79799997806549072</v>
+          </cell>
+          <cell r="F387">
+            <v>2619200</v>
+          </cell>
+          <cell r="G387">
+            <v>2099.212890625</v>
+          </cell>
+          <cell r="H387">
+            <v>385</v>
+          </cell>
+          <cell r="I387">
+            <v>5065822.6134740263</v>
+          </cell>
+          <cell r="N387">
+            <v>0.81000000238418579</v>
+          </cell>
+          <cell r="O387">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P387">
+            <v>0.79833332697550452</v>
+          </cell>
+          <cell r="Q387">
+            <v>0.76149999669619972</v>
+          </cell>
+          <cell r="R387">
+            <v>3.6833330279304799E-2</v>
+          </cell>
+          <cell r="S387">
+            <v>1.7714285526145877E-2</v>
+          </cell>
+          <cell r="T387">
+            <v>2.6571428289218815E-4</v>
+          </cell>
+          <cell r="U387">
+            <v>138.62006166318761</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="A388">
+            <v>44957</v>
+          </cell>
+          <cell r="B388">
+            <v>0.80000001192092896</v>
+          </cell>
+          <cell r="C388">
+            <v>0.80000001192092896</v>
+          </cell>
+          <cell r="D388">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="E388">
+            <v>0.78899997472763062</v>
+          </cell>
+          <cell r="F388">
+            <v>2396100</v>
+          </cell>
+          <cell r="G388">
+            <v>1900.77001953125</v>
+          </cell>
+          <cell r="H388">
+            <v>386</v>
+          </cell>
+          <cell r="I388">
+            <v>5058906.2336463733</v>
+          </cell>
+          <cell r="N388">
+            <v>0.80000001192092896</v>
+          </cell>
+          <cell r="O388">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="P388">
+            <v>0.79233332475026452</v>
+          </cell>
+          <cell r="Q388">
+            <v>0.76635713804335825</v>
+          </cell>
+          <cell r="R388">
+            <v>2.5976186706906268E-2</v>
+          </cell>
+          <cell r="S388">
+            <v>1.7261905329568037E-2</v>
+          </cell>
+          <cell r="T388">
+            <v>2.5892857994352057E-4</v>
+          </cell>
+          <cell r="U388">
+            <v>100.32182122410893</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="A389">
+            <v>44958</v>
+          </cell>
+          <cell r="B389">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="C389">
+            <v>0.80000001192092896</v>
+          </cell>
+          <cell r="D389">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="E389">
+            <v>0.79900002479553223</v>
+          </cell>
+          <cell r="F389">
+            <v>2298500</v>
+          </cell>
+          <cell r="G389">
+            <v>1828.115966796875</v>
+          </cell>
+          <cell r="H389">
+            <v>387</v>
+          </cell>
+          <cell r="I389">
+            <v>5051773.4010012923</v>
+          </cell>
+          <cell r="N389">
+            <v>0.80000001192092896</v>
+          </cell>
+          <cell r="O389">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="P389">
+            <v>0.79566667477289832</v>
+          </cell>
+          <cell r="Q389">
+            <v>0.77047618655931382</v>
+          </cell>
+          <cell r="R389">
+            <v>2.5190488213584494E-2</v>
+          </cell>
+          <cell r="S389">
+            <v>1.674149798698165E-2</v>
+          </cell>
+          <cell r="T389">
+            <v>2.5112246980472474E-4</v>
+          </cell>
+          <cell r="U389">
+            <v>100.31156603856621</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="A390">
+            <v>44959</v>
+          </cell>
+          <cell r="B390">
+            <v>0.80099999904632568</v>
+          </cell>
+          <cell r="C390">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="D390">
+            <v>0.79400002956390381</v>
+          </cell>
+          <cell r="E390">
+            <v>0.79500001668930054</v>
+          </cell>
+          <cell r="F390">
+            <v>1222000</v>
+          </cell>
+          <cell r="G390">
+            <v>974.9000244140625</v>
+          </cell>
+          <cell r="H390">
+            <v>388</v>
+          </cell>
+          <cell r="I390">
+            <v>5041902.8509987118</v>
+          </cell>
+          <cell r="N390">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O390">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="P390">
+            <v>0.79700001080830896</v>
+          </cell>
+          <cell r="Q390">
+            <v>0.77416666348775232</v>
+          </cell>
+          <cell r="R390">
+            <v>2.2833347320556641E-2</v>
+          </cell>
+          <cell r="S390">
+            <v>1.6285717487335198E-2</v>
+          </cell>
+          <cell r="T390">
+            <v>2.4428576231002794E-4</v>
+          </cell>
+          <cell r="U390">
+            <v>93.469824457384391</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="A391">
+            <v>44960</v>
+          </cell>
+          <cell r="B391">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="C391">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="D391">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="E391">
+            <v>0.79100000858306885</v>
+          </cell>
+          <cell r="F391">
+            <v>2231500</v>
+          </cell>
+          <cell r="G391">
+            <v>1757.35205078125</v>
+          </cell>
+          <cell r="H391">
+            <v>389</v>
+          </cell>
+          <cell r="I391">
+            <v>5034678.1650064271</v>
+          </cell>
+          <cell r="N391">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O391">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="P391">
+            <v>0.78800000747044885</v>
+          </cell>
+          <cell r="Q391">
+            <v>0.77699999866031466</v>
+          </cell>
+          <cell r="R391">
+            <v>1.1000008810134188E-2</v>
+          </cell>
+          <cell r="S391">
+            <v>1.4619049977283083E-2</v>
+          </cell>
+          <cell r="T391">
+            <v>2.1928574965924625E-4</v>
+          </cell>
+          <cell r="U391">
+            <v>50.162898534115342</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="A392">
+            <v>44963</v>
+          </cell>
+          <cell r="B392">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="C392">
+            <v>0.7850000262260437</v>
+          </cell>
+          <cell r="D392">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="E392">
+            <v>0.77700001001358032</v>
+          </cell>
+          <cell r="F392">
+            <v>653500</v>
+          </cell>
+          <cell r="G392">
+            <v>509.80899047851562</v>
+          </cell>
+          <cell r="H392">
+            <v>390</v>
+          </cell>
+          <cell r="I392">
+            <v>5023444.3748397436</v>
+          </cell>
+          <cell r="N392">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O392">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="P392">
+            <v>0.77933335304260254</v>
+          </cell>
+          <cell r="Q392">
+            <v>0.77904761830965685</v>
+          </cell>
+          <cell r="R392">
+            <v>2.8573473294568608E-4</v>
+          </cell>
+          <cell r="S392">
+            <v>1.2272112426303652E-2</v>
+          </cell>
+          <cell r="T392">
+            <v>1.8408168639455478E-4</v>
+          </cell>
+          <cell r="U392">
+            <v>1.5522170539727207</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="A393">
+            <v>44964</v>
+          </cell>
+          <cell r="B393">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="C393">
+            <v>0.7839999794960022</v>
+          </cell>
+          <cell r="D393">
+            <v>0.77700001001358032</v>
+          </cell>
+          <cell r="E393">
+            <v>0.77999997138977051</v>
+          </cell>
+          <cell r="F393">
+            <v>1518500</v>
+          </cell>
+          <cell r="G393">
+            <v>1184.8780517578125</v>
+          </cell>
+          <cell r="H393">
+            <v>391</v>
+          </cell>
+          <cell r="I393">
+            <v>5014480.3227301789</v>
+          </cell>
+          <cell r="N393">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O393">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="P393">
+            <v>0.78033332029978431</v>
+          </cell>
+          <cell r="Q393">
+            <v>0.78119047482808435</v>
+          </cell>
+          <cell r="R393">
+            <v>-8.5715452830004146E-4</v>
+          </cell>
+          <cell r="S393">
+            <v>1.0027212756020689E-2</v>
+          </cell>
+          <cell r="T393">
+            <v>1.5040819134031034E-4</v>
+          </cell>
+          <cell r="U393">
+            <v>-5.6988553659332428</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="A394">
+            <v>44965</v>
+          </cell>
+          <cell r="B394">
+            <v>0.77999997138977051</v>
+          </cell>
+          <cell r="C394">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="D394">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="E394">
+            <v>0.77700001001358032</v>
+          </cell>
+          <cell r="F394">
+            <v>1171112</v>
+          </cell>
+          <cell r="G394">
+            <v>912.447021484375</v>
+          </cell>
+          <cell r="H394">
+            <v>392</v>
+          </cell>
+          <cell r="I394">
+            <v>5004675.8117028065</v>
+          </cell>
+          <cell r="N394">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O394">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="P394">
+            <v>0.77800001700719201</v>
+          </cell>
+          <cell r="Q394">
+            <v>0.78302381010282607</v>
+          </cell>
+          <cell r="R394">
+            <v>-5.0237930956340549E-3</v>
+          </cell>
+          <cell r="S394">
+            <v>8.4557825205277392E-3</v>
+          </cell>
+          <cell r="T394">
+            <v>1.2683673780791607E-4</v>
+          </cell>
+          <cell r="U394">
+            <v>-39.608343627082093</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="A395">
+            <v>44966</v>
+          </cell>
+          <cell r="B395">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="C395">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="D395">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="E395">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="F395">
+            <v>1557100</v>
+          </cell>
+          <cell r="G395">
+            <v>1221.449951171875</v>
+          </cell>
+          <cell r="H395">
+            <v>393</v>
+          </cell>
+          <cell r="I395">
+            <v>4995903.354166667</v>
+          </cell>
+          <cell r="N395">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O395">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="P395">
+            <v>0.78333332141240442</v>
+          </cell>
+          <cell r="Q395">
+            <v>0.78478571488743742</v>
+          </cell>
+          <cell r="R395">
+            <v>-1.4523934750330092E-3</v>
+          </cell>
+          <cell r="S395">
+            <v>6.9455784194323534E-3</v>
+          </cell>
+          <cell r="T395">
+            <v>1.041836762914853E-4</v>
+          </cell>
+          <cell r="U395">
+            <v>-13.940700949825382</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="A396">
+            <v>44967</v>
+          </cell>
+          <cell r="B396">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="C396">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="D396">
+            <v>0.77899998426437378</v>
+          </cell>
+          <cell r="E396">
+            <v>0.7839999794960022</v>
+          </cell>
+          <cell r="F396">
+            <v>2219900</v>
+          </cell>
+          <cell r="G396">
+            <v>1734.8929443359375</v>
+          </cell>
+          <cell r="H396">
+            <v>394</v>
+          </cell>
+          <cell r="I396">
+            <v>4988857.6603743657</v>
+          </cell>
+          <cell r="N396">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O396">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="P396">
+            <v>0.78366665045420325</v>
+          </cell>
+          <cell r="Q396">
+            <v>0.7857142857142857</v>
+          </cell>
+          <cell r="R396">
+            <v>-2.0476352600824477E-3</v>
+          </cell>
+          <cell r="S396">
+            <v>6.1496605678480476E-3</v>
+          </cell>
+          <cell r="T396">
+            <v>9.224490851772071E-5</v>
+          </cell>
+          <cell r="U396">
+            <v>-22.197813331768732</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="A397">
+            <v>44970</v>
+          </cell>
+          <cell r="B397">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="C397">
+            <v>0.79000002145767212</v>
+          </cell>
+          <cell r="D397">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="E397">
+            <v>0.78899997472763062</v>
+          </cell>
+          <cell r="F397">
+            <v>2053500</v>
+          </cell>
+          <cell r="G397">
+            <v>1613.4949951171875</v>
+          </cell>
+          <cell r="H397">
+            <v>395</v>
+          </cell>
+          <cell r="I397">
+            <v>4981426.375158228</v>
+          </cell>
+          <cell r="N397">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O397">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="P397">
+            <v>0.78666667143503821</v>
+          </cell>
+          <cell r="Q397">
+            <v>0.78611904808453148</v>
+          </cell>
+          <cell r="R397">
+            <v>5.4762335050673183E-4</v>
+          </cell>
+          <cell r="S397">
+            <v>5.8979611007534682E-3</v>
+          </cell>
+          <cell r="T397">
+            <v>8.846941651130202E-5</v>
+          </cell>
+          <cell r="U397">
+            <v>6.1899735761993258</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="A398">
+            <v>44971</v>
+          </cell>
+          <cell r="B398">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="C398">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="D398">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="E398">
+            <v>0.78700000047683716</v>
+          </cell>
+          <cell r="F398">
+            <v>1283308</v>
+          </cell>
+          <cell r="G398">
+            <v>1008.1619873046875</v>
+          </cell>
+          <cell r="H398">
+            <v>396</v>
+          </cell>
+          <cell r="I398">
+            <v>4972087.6923926771</v>
+          </cell>
+          <cell r="N398">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O398">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="P398">
+            <v>0.7873333295186361</v>
+          </cell>
+          <cell r="Q398">
+            <v>0.78683333311762116</v>
+          </cell>
+          <cell r="R398">
+            <v>4.9999640101494602E-4</v>
+          </cell>
+          <cell r="S398">
+            <v>5.3809536557619187E-3</v>
+          </cell>
+          <cell r="T398">
+            <v>8.0714304836428777E-5</v>
+          </cell>
+          <cell r="U398">
+            <v>6.1946442087088718</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="A399">
+            <v>44972</v>
+          </cell>
+          <cell r="B399">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="C399">
+            <v>0.79100000858306885</v>
+          </cell>
+          <cell r="D399">
+            <v>0.7839999794960022</v>
+          </cell>
+          <cell r="E399">
+            <v>0.78600001335144043</v>
+          </cell>
+          <cell r="F399">
+            <v>854601</v>
+          </cell>
+          <cell r="G399">
+            <v>671.81597900390625</v>
+          </cell>
+          <cell r="H399">
+            <v>397</v>
+          </cell>
+          <cell r="I399">
+            <v>4961716.1893891692</v>
+          </cell>
+          <cell r="N399">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O399">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="P399">
+            <v>0.78700000047683716</v>
+          </cell>
+          <cell r="Q399">
+            <v>0.787357142993382</v>
+          </cell>
+          <cell r="R399">
+            <v>-3.5714251654483942E-4</v>
+          </cell>
+          <cell r="S399">
+            <v>4.9353756872164067E-3</v>
+          </cell>
+          <cell r="T399">
+            <v>7.4030635308246096E-5</v>
+          </cell>
+          <cell r="U399">
+            <v>-4.8242530279225928</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="A400">
+            <v>44973</v>
+          </cell>
+          <cell r="B400">
+            <v>0.79100000858306885</v>
+          </cell>
+          <cell r="C400">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="D400">
+            <v>0.7720000147819519</v>
+          </cell>
+          <cell r="E400">
+            <v>0.77799999713897705</v>
+          </cell>
+          <cell r="F400">
+            <v>1755000</v>
+          </cell>
+          <cell r="G400">
+            <v>1372.9659423828125</v>
+          </cell>
+          <cell r="H400">
+            <v>398</v>
+          </cell>
+          <cell r="I400">
+            <v>4953659.1135364324</v>
+          </cell>
+          <cell r="N400">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O400">
+            <v>0.7720000147819519</v>
+          </cell>
+          <cell r="P400">
+            <v>0.78066666920979821</v>
+          </cell>
+          <cell r="Q400">
+            <v>0.78697619125956586</v>
+          </cell>
+          <cell r="R400">
+            <v>-6.3095220497676463E-3</v>
+          </cell>
+          <cell r="S400">
+            <v>5.2619051365625346E-3</v>
+          </cell>
+          <cell r="T400">
+            <v>7.8928577048438018E-5</v>
+          </cell>
+          <cell r="U400">
+            <v>-79.939640187552456</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="A401">
+            <v>44974</v>
+          </cell>
+          <cell r="B401">
+            <v>0.77499997615814209</v>
+          </cell>
+          <cell r="C401">
+            <v>0.77499997615814209</v>
+          </cell>
+          <cell r="D401">
+            <v>0.75999999046325684</v>
+          </cell>
+          <cell r="E401">
+            <v>0.76099997758865356</v>
+          </cell>
+          <cell r="F401">
+            <v>3067106</v>
+          </cell>
+          <cell r="G401">
+            <v>2349.093017578125</v>
+          </cell>
+          <cell r="H401">
+            <v>399</v>
+          </cell>
+          <cell r="I401">
+            <v>4948930.9102443606</v>
+          </cell>
+          <cell r="N401">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O401">
+            <v>0.75999999046325684</v>
+          </cell>
+          <cell r="P401">
+            <v>0.7653333147366842</v>
+          </cell>
+          <cell r="Q401">
+            <v>0.78461904752822165</v>
+          </cell>
+          <cell r="R401">
+            <v>-1.9285732791537447E-2</v>
+          </cell>
+          <cell r="S401">
+            <v>5.9523837906973699E-3</v>
+          </cell>
+          <cell r="T401">
+            <v>8.9285756860460545E-5</v>
+          </cell>
+          <cell r="U401">
+            <v>-216.00010426834353</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="A402">
+            <v>44977</v>
+          </cell>
+          <cell r="B402">
+            <v>0.75800001621246338</v>
+          </cell>
+          <cell r="C402">
+            <v>0.77499997615814209</v>
+          </cell>
+          <cell r="D402">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="E402">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="F402">
+            <v>956200</v>
+          </cell>
+          <cell r="G402">
+            <v>735.38299560546875</v>
+          </cell>
+          <cell r="H402">
+            <v>400</v>
+          </cell>
+          <cell r="I402">
+            <v>4938949.08296875</v>
+          </cell>
+          <cell r="N402">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O402">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="P402">
+            <v>0.7683333158493042</v>
+          </cell>
+          <cell r="Q402">
+            <v>0.78290476117815289</v>
+          </cell>
+          <cell r="R402">
+            <v>-1.4571445328848687E-2</v>
+          </cell>
+          <cell r="S402">
+            <v>6.4897967033645731E-3</v>
+          </cell>
+          <cell r="T402">
+            <v>9.7346950550468591E-5</v>
+          </cell>
+          <cell r="U402">
+            <v>-149.68568862662278</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="A403">
+            <v>44978</v>
+          </cell>
+          <cell r="B403">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="C403">
+            <v>0.77700001001358032</v>
+          </cell>
+          <cell r="D403">
+            <v>0.76999998092651367</v>
+          </cell>
+          <cell r="E403">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="F403">
+            <v>1222500</v>
+          </cell>
+          <cell r="G403">
+            <v>944.00799560546875</v>
+          </cell>
+          <cell r="H403">
+            <v>401</v>
+          </cell>
+          <cell r="I403">
+            <v>4929681.1301433919</v>
+          </cell>
+          <cell r="N403">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O403">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="P403">
+            <v>0.77366665999094641</v>
+          </cell>
+          <cell r="Q403">
+            <v>0.78133333155087059</v>
+          </cell>
+          <cell r="R403">
+            <v>-7.6666715599241764E-3</v>
+          </cell>
+          <cell r="S403">
+            <v>6.2380958171117896E-3</v>
+          </cell>
+          <cell r="T403">
+            <v>9.3571437256676846E-5</v>
+          </cell>
+          <cell r="U403">
+            <v>-81.933886928482721</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="A404">
+            <v>44979</v>
+          </cell>
+          <cell r="B404">
+            <v>0.76999998092651367</v>
+          </cell>
+          <cell r="C404">
+            <v>0.77100002765655518</v>
+          </cell>
+          <cell r="D404">
+            <v>0.76700001955032349</v>
+          </cell>
+          <cell r="E404">
+            <v>0.76800000667572021</v>
+          </cell>
+          <cell r="F404">
+            <v>1488800</v>
+          </cell>
+          <cell r="G404">
+            <v>1145.47900390625</v>
+          </cell>
+          <cell r="H404">
+            <v>402</v>
+          </cell>
+          <cell r="I404">
+            <v>4921121.7243470149</v>
+          </cell>
+          <cell r="N404">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O404">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="P404">
+            <v>0.76866668462753296</v>
+          </cell>
+          <cell r="Q404">
+            <v>0.77930952253795804</v>
+          </cell>
+          <cell r="R404">
+            <v>-1.0642837910425085E-2</v>
+          </cell>
+          <cell r="S404">
+            <v>6.0782314968757922E-3</v>
+          </cell>
+          <cell r="T404">
+            <v>9.1173472453136878E-5</v>
+          </cell>
+          <cell r="U404">
+            <v>-116.73173812586219</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="A405">
+            <v>44980</v>
+          </cell>
+          <cell r="B405">
+            <v>0.7720000147819519</v>
+          </cell>
+          <cell r="C405">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="D405">
+            <v>0.76700001955032349</v>
+          </cell>
+          <cell r="E405">
+            <v>0.76700001955032349</v>
+          </cell>
+          <cell r="F405">
+            <v>1037301.9375</v>
+          </cell>
+          <cell r="G405">
+            <v>799.7540283203125</v>
+          </cell>
+          <cell r="H405">
+            <v>403</v>
+          </cell>
+          <cell r="I405">
+            <v>4911484.4544044668</v>
+          </cell>
+          <cell r="N405">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O405">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="P405">
+            <v>0.76933334271113074</v>
+          </cell>
+          <cell r="Q405">
+            <v>0.77797618934086377</v>
+          </cell>
+          <cell r="R405">
+            <v>-8.6428466297330253E-3</v>
+          </cell>
+          <cell r="S405">
+            <v>6.3639469698173311E-3</v>
+          </cell>
+          <cell r="T405">
+            <v>9.5459204547259957E-5</v>
+          </cell>
+          <cell r="U405">
+            <v>-90.539688348797455</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="A406">
+            <v>44981</v>
+          </cell>
+          <cell r="B406">
+            <v>0.76800000667572021</v>
+          </cell>
+          <cell r="C406">
+            <v>0.76899999380111694</v>
+          </cell>
+          <cell r="D406">
+            <v>0.76099997758865356</v>
+          </cell>
+          <cell r="E406">
+            <v>0.76499998569488525</v>
+          </cell>
+          <cell r="F406">
+            <v>1018601</v>
+          </cell>
+          <cell r="G406">
+            <v>779.92901611328125</v>
+          </cell>
+          <cell r="H406">
+            <v>404</v>
+          </cell>
+          <cell r="I406">
+            <v>4901848.6042698016</v>
+          </cell>
+          <cell r="N406">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O406">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="P406">
+            <v>0.76499998569488525</v>
+          </cell>
+          <cell r="Q406">
+            <v>0.77695237738745537</v>
+          </cell>
+          <cell r="R406">
+            <v>-1.1952391692570119E-2</v>
+          </cell>
+          <cell r="S406">
+            <v>7.3401372448927971E-3</v>
+          </cell>
+          <cell r="T406">
+            <v>1.1010205867339195E-4</v>
+          </cell>
+          <cell r="U406">
+            <v>-108.55738608871825</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="A407">
+            <v>44984</v>
+          </cell>
+          <cell r="B407">
+            <v>0.75900000333786011</v>
+          </cell>
+          <cell r="C407">
+            <v>0.76099997758865356</v>
+          </cell>
+          <cell r="D407">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="E407">
+            <v>0.75700002908706665</v>
+          </cell>
+          <cell r="F407">
+            <v>2463800</v>
+          </cell>
+          <cell r="G407">
+            <v>1870.217041015625</v>
+          </cell>
+          <cell r="H407">
+            <v>405</v>
+          </cell>
+          <cell r="I407">
+            <v>4895828.7311728392</v>
+          </cell>
+          <cell r="N407">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O407">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="P407">
+            <v>0.75799999634424842</v>
+          </cell>
+          <cell r="Q407">
+            <v>0.77535713996206013</v>
+          </cell>
+          <cell r="R407">
+            <v>-1.735714361781171E-2</v>
+          </cell>
+          <cell r="S407">
+            <v>8.4523828256697995E-3</v>
+          </cell>
+          <cell r="T407">
+            <v>1.2678574238504699E-4</v>
+          </cell>
+          <cell r="U407">
+            <v>-136.90138410909205</v>
           </cell>
         </row>
       </sheetData>
@@ -30831,10 +32827,10 @@
 </v>
           </cell>
           <cell r="C347">
-            <v>23.5</v>
+            <v>24.68000031</v>
           </cell>
           <cell r="D347">
-            <v>33.149565178898534</v>
+            <v>33.152985469652158</v>
           </cell>
         </row>
         <row r="348">
@@ -30843,10 +32839,10 @@
 </v>
           </cell>
           <cell r="C348">
-            <v>23.5</v>
+            <v>24.6341</v>
           </cell>
           <cell r="D348">
-            <v>33.121676262196516</v>
+            <v>33.128364413381483</v>
           </cell>
         </row>
         <row r="349">
@@ -30855,10 +32851,10 @@
 </v>
           </cell>
           <cell r="C349">
-            <v>23.5</v>
+            <v>24.469999309999999</v>
           </cell>
           <cell r="D349">
-            <v>33.093948088530247</v>
+            <v>33.103412352564824</v>
           </cell>
         </row>
         <row r="350">
@@ -30867,10 +32863,10 @@
 </v>
           </cell>
           <cell r="C350">
-            <v>23.33</v>
+            <v>24.540000920000001</v>
           </cell>
           <cell r="D350">
-            <v>33.065890766436766</v>
+            <v>33.078804848448264</v>
           </cell>
         </row>
         <row r="351">
@@ -30879,10 +32875,10 @@
 </v>
           </cell>
           <cell r="C351">
-            <v>23.05</v>
+            <v>24.780000690000001</v>
           </cell>
           <cell r="D351">
-            <v>33.037191939025774</v>
+            <v>33.055026039971331</v>
           </cell>
         </row>
         <row r="352">
@@ -30891,10 +32887,10 @@
 </v>
           </cell>
           <cell r="C352">
-            <v>22.91</v>
+            <v>24.440000529999999</v>
           </cell>
           <cell r="D352">
-            <v>33.008257104914271</v>
+            <v>33.030411681371412</v>
           </cell>
         </row>
         <row r="353">
@@ -30903,10 +32899,10 @@
 </v>
           </cell>
           <cell r="C353">
-            <v>23</v>
+            <v>24.770099999999999</v>
           </cell>
           <cell r="D353">
-            <v>32.979743551908818</v>
+            <v>33.006878029857532</v>
           </cell>
         </row>
         <row r="354">
@@ -30915,10 +32911,10 @@
 </v>
           </cell>
           <cell r="C354">
-            <v>23.46</v>
+            <v>24.93</v>
           </cell>
           <cell r="D354">
-            <v>32.952698825909074</v>
+            <v>32.983932353636348</v>
           </cell>
         </row>
         <row r="355">
@@ -30927,10 +32923,10 @@
 </v>
           </cell>
           <cell r="C355">
-            <v>22.93</v>
+            <v>24.52</v>
           </cell>
           <cell r="D355">
-            <v>32.924305911388082</v>
+            <v>32.959955208158625</v>
           </cell>
         </row>
         <row r="356">
@@ -30939,10 +32935,10 @@
 </v>
           </cell>
           <cell r="C356">
-            <v>23.03</v>
+            <v>23.94</v>
           </cell>
           <cell r="D356">
-            <v>32.89635589468925</v>
+            <v>32.934475108700553</v>
           </cell>
         </row>
         <row r="357">
@@ -30951,10 +32947,10 @@
 </v>
           </cell>
           <cell r="C357">
-            <v>22.61000061</v>
+            <v>23.5</v>
           </cell>
           <cell r="D357">
-            <v>32.867380245999989</v>
+            <v>32.90789912247886</v>
           </cell>
         </row>
         <row r="358">
@@ -30963,10 +32959,10 @@
 </v>
           </cell>
           <cell r="C358">
-            <v>22.040000920000001</v>
+            <v>23.5</v>
           </cell>
           <cell r="D358">
-            <v>32.836966259129198</v>
+            <v>32.881472439550549</v>
           </cell>
         </row>
         <row r="359">
@@ -30975,10 +32971,10 @@
 </v>
           </cell>
           <cell r="C359">
-            <v>22.239999770000001</v>
+            <v>23.5</v>
           </cell>
           <cell r="D359">
-            <v>32.807282879607826</v>
+            <v>32.85519380526609</v>
           </cell>
         </row>
         <row r="360">
@@ -30987,10 +32983,10 @@
 </v>
           </cell>
           <cell r="C360">
-            <v>22.920000080000001</v>
+            <v>23.33</v>
           </cell>
           <cell r="D360">
-            <v>32.779664771229037</v>
+            <v>32.8285871186592</v>
           </cell>
         </row>
         <row r="361">
@@ -30999,10 +32995,10 @@
 </v>
           </cell>
           <cell r="C361">
-            <v>22.850000380000001</v>
+            <v>23.05</v>
           </cell>
           <cell r="D361">
-            <v>32.752005538941489</v>
+            <v>32.801348714428954</v>
           </cell>
         </row>
         <row r="362">
@@ -31011,10 +33007,10 @@
 </v>
           </cell>
           <cell r="C362">
-            <v>23.649999619999999</v>
+            <v>22.91</v>
           </cell>
           <cell r="D362">
-            <v>32.726722189166651</v>
+            <v>32.773872745777759</v>
           </cell>
         </row>
         <row r="363">
@@ -31023,10 +33019,10 @@
 </v>
           </cell>
           <cell r="C363">
-            <v>23.719999309999999</v>
+            <v>23</v>
           </cell>
           <cell r="D363">
-            <v>32.701772818310232</v>
+            <v>32.746798306038762</v>
           </cell>
         </row>
         <row r="364">
@@ -31035,10 +33031,10 @@
 </v>
           </cell>
           <cell r="C364">
-            <v>23.850000380000001</v>
+            <v>23.46</v>
           </cell>
           <cell r="D364">
-            <v>32.677320408259654</v>
+            <v>32.721144167071806</v>
           </cell>
         </row>
         <row r="365">
@@ -31047,10 +33043,10 @@
 </v>
           </cell>
           <cell r="C365">
-            <v>23.590000150000002</v>
+            <v>22.93</v>
           </cell>
           <cell r="D365">
-            <v>32.652286468154252</v>
+            <v>32.694171318126706</v>
           </cell>
         </row>
         <row r="366">
@@ -31059,10 +33055,10 @@
 </v>
           </cell>
           <cell r="C366">
-            <v>23.399999619999999</v>
+            <v>23.030000690000001</v>
           </cell>
           <cell r="D366">
-            <v>32.626868097692288</v>
+            <v>32.66762139881866</v>
           </cell>
         </row>
         <row r="367">
@@ -31070,10 +33066,10 @@
             <v>44834</v>
           </cell>
           <cell r="C367">
-            <v>23.340000150000002</v>
+            <v>22.61</v>
           </cell>
           <cell r="D367">
-            <v>32.601424623862997</v>
+            <v>32.640066271698615</v>
           </cell>
         </row>
         <row r="368">
@@ -31085,7 +33081,7 @@
             <v>22.040000920000001</v>
           </cell>
           <cell r="D368">
-            <v>32.57256827494534</v>
+            <v>32.611104344508178</v>
           </cell>
         </row>
         <row r="369">
@@ -31097,7 +33093,7 @@
             <v>22.239999770000001</v>
           </cell>
           <cell r="D369">
-            <v>32.544414137329682</v>
+            <v>32.582845203978181</v>
           </cell>
         </row>
         <row r="370">
@@ -31109,7 +33105,7 @@
             <v>22.920000080000001</v>
           </cell>
           <cell r="D370">
-            <v>32.518260838260851</v>
+            <v>32.556587472663026</v>
           </cell>
         </row>
         <row r="371">
@@ -31121,7 +33117,7 @@
             <v>22.850000380000001</v>
           </cell>
           <cell r="D371">
-            <v>32.492059590406484</v>
+            <v>32.530282358590767</v>
           </cell>
         </row>
         <row r="372">
@@ -31133,7 +33129,7 @@
             <v>23.649999619999999</v>
           </cell>
           <cell r="D372">
-            <v>32.468162131027007</v>
+            <v>32.506281594432416</v>
           </cell>
         </row>
         <row r="373">
@@ -31145,7 +33141,7 @@
             <v>23.719999309999999</v>
           </cell>
           <cell r="D373">
-            <v>32.444582177331519</v>
+            <v>32.482598892857126</v>
           </cell>
         </row>
         <row r="374">
@@ -31157,7 +33153,7 @@
             <v>23.850000380000001</v>
           </cell>
           <cell r="D374">
-            <v>32.421478462822563</v>
+            <v>32.459392982876324</v>
           </cell>
         </row>
         <row r="375">
@@ -31169,7 +33165,7 @@
             <v>23.590000150000002</v>
           </cell>
           <cell r="D375">
-            <v>32.39780157726539</v>
+            <v>32.435614449812313</v>
           </cell>
         </row>
         <row r="376">
@@ -31181,7 +33177,7 @@
             <v>23.399999619999999</v>
           </cell>
           <cell r="D376">
-            <v>32.373743283262009</v>
+            <v>32.411455051871634</v>
           </cell>
         </row>
         <row r="377">
@@ -31193,7 +33189,7 @@
             <v>23.340000150000002</v>
           </cell>
           <cell r="D377">
-            <v>32.349653301573312</v>
+            <v>32.387264505466646</v>
           </cell>
         </row>
         <row r="378">
@@ -31205,7 +33201,7 @@
             <v>22.829999919999999</v>
           </cell>
           <cell r="D378">
-            <v>32.324335074494662</v>
+            <v>32.361846248590403</v>
           </cell>
         </row>
         <row r="379">
@@ -31217,7 +33213,7 @@
             <v>22.739999770000001</v>
           </cell>
           <cell r="D379">
-            <v>32.298912434429688</v>
+            <v>32.336324109389899</v>
           </cell>
         </row>
         <row r="380">
@@ -31229,7 +33225,7 @@
             <v>23.18000031</v>
           </cell>
           <cell r="D380">
-            <v>32.274788328280401</v>
+            <v>32.312101030555532</v>
           </cell>
         </row>
         <row r="381">
@@ -31241,7 +33237,7 @@
             <v>22.959999079999999</v>
           </cell>
           <cell r="D381">
-            <v>32.250211047941931</v>
+            <v>32.287425299815283</v>
           </cell>
         </row>
         <row r="382">
@@ -31252,7 +33248,7 @@
             <v>22.13999939</v>
           </cell>
           <cell r="D382">
-            <v>32.223605227789449</v>
+            <v>32.260721547421028</v>
           </cell>
         </row>
         <row r="383">
@@ -31263,7 +33259,7 @@
             <v>22.239999770000001</v>
           </cell>
           <cell r="D383">
-            <v>32.197401538923856</v>
+            <v>32.234420440393677</v>
           </cell>
         </row>
         <row r="384">
@@ -31275,7 +33271,7 @@
             <v>22.270000459999999</v>
           </cell>
           <cell r="D384">
-            <v>32.171413577984268</v>
+            <v>32.208335571335049</v>
           </cell>
         </row>
         <row r="385">
@@ -31287,7 +33283,7 @@
             <v>22.600000380000001</v>
           </cell>
           <cell r="D385">
-            <v>32.146422943002584</v>
+            <v>32.183248534281958</v>
           </cell>
         </row>
         <row r="386">
@@ -31299,7 +33295,7 @@
             <v>22.479999540000001</v>
           </cell>
           <cell r="D386">
-            <v>32.121249965390597</v>
+            <v>32.157979656692682</v>
           </cell>
         </row>
         <row r="387">
@@ -31311,7 +33307,7 @@
             <v>23.200000760000002</v>
           </cell>
           <cell r="D387">
-            <v>32.098077889532441</v>
+            <v>32.134712179038935</v>
           </cell>
         </row>
         <row r="388">
@@ -31323,7 +33319,7 @@
             <v>23.190000529999999</v>
           </cell>
           <cell r="D388">
-            <v>32.074999968911889</v>
+            <v>32.111539350932617</v>
           </cell>
         </row>
         <row r="389">
@@ -31335,7 +33331,7 @@
             <v>23.030000690000001</v>
           </cell>
           <cell r="D389">
-            <v>32.051627877751912</v>
+            <v>32.088072842764831</v>
           </cell>
         </row>
         <row r="390">
@@ -31347,7 +33343,7 @@
             <v>22.760000229999999</v>
           </cell>
           <cell r="D390">
-            <v>32.027680383814406</v>
+            <v>32.064031418505131</v>
           </cell>
         </row>
         <row r="391">
@@ -31359,7 +33355,7 @@
             <v>22.31999969</v>
           </cell>
           <cell r="D391">
-            <v>32.002724906452414</v>
+            <v>32.038982493753188</v>
           </cell>
         </row>
         <row r="392">
@@ -31371,7 +33367,7 @@
             <v>22.870000839999999</v>
           </cell>
           <cell r="D392">
-            <v>31.979307665256382</v>
+            <v>32.015472284384586</v>
           </cell>
         </row>
         <row r="393">
@@ -31383,7 +33379,7 @@
             <v>22.88999939</v>
           </cell>
           <cell r="D393">
-            <v>31.95606135253194</v>
+            <v>31.992133479028105</v>
           </cell>
         </row>
         <row r="394">
@@ -31395,7 +33391,7 @@
             <v>23.450000760000002</v>
           </cell>
           <cell r="D394">
-            <v>31.934362218367319</v>
+            <v>31.970342324132627</v>
           </cell>
         </row>
         <row r="395">
@@ -31407,7 +33403,7 @@
             <v>23.129999160000001</v>
           </cell>
           <cell r="D395">
-            <v>31.911959258931272</v>
+            <v>31.947847812264605</v>
           </cell>
         </row>
         <row r="396">
@@ -31419,7 +33415,7 @@
             <v>23.010000229999999</v>
           </cell>
           <cell r="D396">
-            <v>31.889365454289315</v>
+            <v>31.925162919923835</v>
           </cell>
         </row>
         <row r="397">
@@ -31431,7 +33427,7 @@
             <v>23.030000690000001</v>
           </cell>
           <cell r="D397">
-            <v>31.866936682734149</v>
+            <v>31.902643521873394</v>
           </cell>
         </row>
         <row r="398">
@@ -31443,7 +33439,7 @@
             <v>23</v>
           </cell>
           <cell r="D398">
-            <v>31.844545428484821</v>
+            <v>31.880162098838358</v>
           </cell>
         </row>
         <row r="399">
@@ -31455,7 +33451,7 @@
             <v>22.649999619999999</v>
           </cell>
           <cell r="D399">
-            <v>31.821385363476043</v>
+            <v>31.856912319294686</v>
           </cell>
         </row>
         <row r="400">
@@ -31467,7 +33463,7 @@
             <v>22.540000920000001</v>
           </cell>
           <cell r="D400">
-            <v>31.798065302060277</v>
+            <v>31.833502994170832</v>
           </cell>
         </row>
         <row r="401">
@@ -31479,7 +33475,7 @@
             <v>22.510000229999999</v>
           </cell>
           <cell r="D401">
-            <v>31.774786943483686</v>
+            <v>31.810135819323285</v>
           </cell>
         </row>
         <row r="402">
@@ -31491,7 +33487,7 @@
             <v>22.36000061</v>
           </cell>
           <cell r="D402">
-            <v>31.751249977649977</v>
+            <v>31.786510481299977</v>
           </cell>
         </row>
         <row r="403">
@@ -31503,7 +33499,7 @@
             <v>22.200000760000002</v>
           </cell>
           <cell r="D403">
-            <v>31.727431401047358</v>
+            <v>31.762603973266813</v>
           </cell>
         </row>
         <row r="404">
@@ -31515,7 +33511,7 @@
             <v>22.700000760000002</v>
           </cell>
           <cell r="D404">
-            <v>31.704975105920376</v>
+            <v>31.740060184179082</v>
           </cell>
         </row>
         <row r="405">
@@ -31526,7 +33522,7 @@
             <v>22.809999470000001</v>
           </cell>
           <cell r="D405">
-            <v>31.682903206079384</v>
+            <v>31.717901224590552</v>
           </cell>
         </row>
         <row r="406">
@@ -31538,7 +33534,7 @@
             <v>23.170000080000001</v>
           </cell>
           <cell r="D406">
-            <v>31.661831663688094</v>
+            <v>31.696743053440571</v>
           </cell>
         </row>
         <row r="407">
@@ -31550,7 +33546,7 @@
             <v>23.030000690000001</v>
           </cell>
           <cell r="D407">
-            <v>31.640518500790101</v>
+            <v>31.675343689580224</v>
           </cell>
         </row>
         <row r="408">
@@ -31562,7 +33558,7 @@
             <v>23.219999309999999</v>
           </cell>
           <cell r="D408">
-            <v>31.619778305738894</v>
+            <v>31.654517718201948</v>
           </cell>
         </row>
         <row r="409">
@@ -31574,7 +33570,7 @@
             <v>23.459999079999999</v>
           </cell>
           <cell r="D409">
-            <v>31.599729708132653</v>
+            <v>31.634383765773933</v>
           </cell>
         </row>
         <row r="410">
@@ -31586,7 +33582,7 @@
             <v>23.649999619999999</v>
           </cell>
           <cell r="D410">
-            <v>31.580245075563703</v>
+            <v>31.614814196789194</v>
           </cell>
         </row>
         <row r="411">
@@ -31598,7 +33594,7 @@
             <v>23.629999160000001</v>
           </cell>
           <cell r="D411">
-            <v>31.560806821491422</v>
+            <v>31.595291421638123</v>
           </cell>
         </row>
         <row r="412">
@@ -31610,7 +33606,7 @@
             <v>23.840000150000002</v>
           </cell>
           <cell r="D412">
-            <v>31.541975585707295</v>
+            <v>31.576376077073149</v>
           </cell>
         </row>
         <row r="413">
@@ -31622,7 +33618,7 @@
             <v>23.600000380000001</v>
           </cell>
           <cell r="D413">
-            <v>31.522652045060806</v>
+            <v>31.556968836934285</v>
           </cell>
         </row>
         <row r="414">
@@ -31634,7 +33630,7 @@
             <v>23.329999919999999</v>
           </cell>
           <cell r="D414">
-            <v>31.502766967087357</v>
+            <v>31.537000465776678</v>
           </cell>
         </row>
         <row r="415">
@@ -31646,7 +33642,7 @@
             <v>23.270000459999999</v>
           </cell>
           <cell r="D415">
-            <v>31.482832907748161</v>
+            <v>31.51698351661015</v>
           </cell>
         </row>
         <row r="416">
@@ -31658,7 +33654,7 @@
             <v>23.5</v>
           </cell>
           <cell r="D416">
-            <v>31.463550702656981</v>
+            <v>31.497618822125581</v>
           </cell>
         </row>
         <row r="417">
@@ -31670,7 +33666,7 @@
             <v>23.350000380000001</v>
           </cell>
           <cell r="D417">
-            <v>31.443999978987929</v>
+            <v>31.477986006602389</v>
           </cell>
         </row>
         <row r="418">
@@ -31682,7 +33678,7 @@
             <v>23.079999919999999</v>
           </cell>
           <cell r="D418">
-            <v>31.423894209615362</v>
+            <v>31.457798540048056</v>
           </cell>
         </row>
         <row r="419">
@@ -31694,7 +33690,7 @@
             <v>22.709999079999999</v>
           </cell>
           <cell r="D419">
-            <v>31.402997578609092</v>
+            <v>31.436820603693025</v>
           </cell>
         </row>
         <row r="420">
@@ -31706,7 +33702,7 @@
             <v>22.61000061</v>
           </cell>
           <cell r="D420">
-            <v>31.381961700693761</v>
+            <v>31.415703809449742</v>
           </cell>
         </row>
         <row r="421">
@@ -31718,7 +33714,7 @@
             <v>22.549999239999998</v>
           </cell>
           <cell r="D421">
-            <v>31.360883031336495</v>
+            <v>31.394544609999983</v>
           </cell>
         </row>
         <row r="422">
@@ -31730,7 +33726,7 @@
             <v>22.450000760000002</v>
           </cell>
           <cell r="D422">
-            <v>31.33966664497617</v>
+            <v>31.373248077023792</v>
           </cell>
         </row>
         <row r="423">
@@ -31742,7 +33738,7 @@
             <v>22.790000920000001</v>
           </cell>
           <cell r="D423">
-            <v>31.319358650380028</v>
+            <v>31.352860316555802</v>
           </cell>
         </row>
         <row r="424">
@@ -31754,7 +33750,7 @@
             <v>23</v>
           </cell>
           <cell r="D424">
-            <v>31.29964453035543</v>
+            <v>31.333066808696664</v>
           </cell>
         </row>
         <row r="425">
@@ -31766,7 +33762,7 @@
             <v>22.729999540000001</v>
           </cell>
           <cell r="D425">
-            <v>31.279385322340406</v>
+            <v>31.312728588203292</v>
           </cell>
         </row>
         <row r="426">
@@ -31777,7 +33773,7 @@
             <v>22.760000229999999</v>
           </cell>
           <cell r="D426">
-            <v>31.259292432971684</v>
+            <v>31.292557059056588</v>
           </cell>
         </row>
         <row r="427">
@@ -31788,7 +33784,197 @@
             <v>22.739999770000001</v>
           </cell>
           <cell r="D427">
-            <v>31.23924703847057</v>
+            <v>31.272433394847042</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="B428" t="str">
+            <v xml:space="preserve">2023/1/3
+</v>
+          </cell>
+          <cell r="C428">
+            <v>22.829999919999999</v>
+          </cell>
+          <cell r="D428">
+            <v>31.252615475892004</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="B429" t="str">
+            <v xml:space="preserve">2023/1/4
+</v>
+          </cell>
+          <cell r="C429">
+            <v>23.409999849999998</v>
+          </cell>
+          <cell r="D429">
+            <v>31.234248694566734</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="B430" t="str">
+            <v xml:space="preserve">2023/1/5
+</v>
+          </cell>
+          <cell r="C430">
+            <v>23.5</v>
+          </cell>
+          <cell r="D430">
+            <v>31.216178020046716</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="B431" t="str">
+            <v xml:space="preserve">2023/1/6
+</v>
+          </cell>
+          <cell r="C431">
+            <v>23.579999919999999</v>
+          </cell>
+          <cell r="D431">
+            <v>31.198378071095561</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="B432" t="str">
+            <v xml:space="preserve">2023/1/9
+</v>
+          </cell>
+          <cell r="C432">
+            <v>23.81999969</v>
+          </cell>
+          <cell r="D432">
+            <v>31.181219051604643</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="B433" t="str">
+            <v xml:space="preserve">2023/1/10
+</v>
+          </cell>
+          <cell r="C433">
+            <v>23.649999619999999</v>
+          </cell>
+          <cell r="D433">
+            <v>31.163745224617159</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="B434" t="str">
+            <v xml:space="preserve">2023/1/11
+</v>
+          </cell>
+          <cell r="C434">
+            <v>23.780000690000001</v>
+          </cell>
+          <cell r="D434">
+            <v>31.146653223379619</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="B435" t="str">
+            <v xml:space="preserve">2023/1/12
+</v>
+          </cell>
+          <cell r="C435">
+            <v>24.100000380000001</v>
+          </cell>
+          <cell r="D435">
+            <v>31.13037919833717</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="B436" t="str">
+            <v xml:space="preserve">2023/1/13
+</v>
+          </cell>
+          <cell r="C436">
+            <v>24.450000760000002</v>
+          </cell>
+          <cell r="D436">
+            <v>31.114986621290313</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="B437" t="str">
+            <v xml:space="preserve">2023/1/16
+</v>
+          </cell>
+          <cell r="C437">
+            <v>24.520000459999999</v>
+          </cell>
+          <cell r="D437">
+            <v>31.099825733563208</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="B438" t="str">
+            <v xml:space="preserve">2023/1/17
+</v>
+          </cell>
+          <cell r="C438">
+            <v>24.530000690000001</v>
+          </cell>
+          <cell r="D438">
+            <v>31.084757327499986</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="B439" t="str">
+            <v xml:space="preserve">2023/1/18
+</v>
+          </cell>
+          <cell r="C439">
+            <v>24.739999770000001</v>
+          </cell>
+          <cell r="D439">
+            <v>31.0702384314874</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="B440" t="str">
+            <v xml:space="preserve">2023/1/19
+</v>
+          </cell>
+          <cell r="C440">
+            <v>24.829999919999999</v>
+          </cell>
+          <cell r="D440">
+            <v>31.055991311598159</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="B441" t="str">
+            <v xml:space="preserve">2023/1/20
+</v>
+          </cell>
+          <cell r="C441">
+            <v>25.170000080000001</v>
+          </cell>
+          <cell r="D441">
+            <v>31.042583586697024</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="B442">
+            <v>44956</v>
+          </cell>
+          <cell r="C442">
+            <v>24.899999619999999</v>
+          </cell>
+          <cell r="D442">
+            <v>31.028623168590894</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="B443">
+            <v>44957</v>
+          </cell>
+          <cell r="C443">
+            <v>24.899999619999999</v>
+          </cell>
+          <cell r="D443">
+            <v>31.014726063038534</v>
           </cell>
         </row>
       </sheetData>
@@ -32085,9 +34271,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -32192,42 +34378,42 @@
         <v>1.0309999999999999</v>
       </c>
       <c r="C3" s="13">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>41.45</v>
       </c>
       <c r="D3" s="14">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>41.041896551724122</v>
       </c>
       <c r="E3" s="14">
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="15">
-        <f t="shared" ref="G3:G21" si="1">G2+F3</f>
+        <f t="shared" ref="G3:G22" si="1">G2+F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H21" si="2">G3*B3</f>
+        <f t="shared" ref="H3:H22" si="2">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
-        <f t="shared" ref="I3:I21" si="3">IF(E3&gt;0,I2+E3,I2)</f>
+        <f t="shared" ref="I3:I22" si="3">IF(E3&gt;0,I2+E3,I2)</f>
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J21" si="4">H3+L3</f>
+        <f t="shared" ref="J3:J22" si="4">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K21" si="5">J3-I3</f>
+        <f t="shared" ref="K3:K22" si="5">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="14">
-        <f t="shared" ref="L3:L21" si="6">IF(E3&lt;0,L2-E3,L2)</f>
+        <f t="shared" ref="L3:L22" si="6">IF(E3&lt;0,L2-E3,L2)</f>
         <v>0</v>
       </c>
       <c r="M3" s="9"/>
@@ -32265,15 +34451,15 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="13">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>39.930000305175781</v>
       </c>
       <c r="D4" s="14">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="14">
-        <f t="shared" ref="E4:E21" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <f t="shared" ref="E4:E22" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="F4" s="15">
@@ -32355,11 +34541,11 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="C5" s="13">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>38.069999694824219</v>
       </c>
       <c r="D5" s="14">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="14">
@@ -32414,11 +34600,11 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="C6" s="13">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.020000457763672</v>
       </c>
       <c r="D6" s="14">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="14">
@@ -32471,11 +34657,11 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="13">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>36.299999239999998</v>
       </c>
       <c r="D7" s="14">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.253623134275358</v>
       </c>
       <c r="E7" s="14">
@@ -32525,11 +34711,11 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="13">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.450000000000003</v>
       </c>
       <c r="D8" s="14">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.695499988749994</v>
       </c>
       <c r="E8" s="14">
@@ -32575,11 +34761,11 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="13">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>34.630000000000003</v>
       </c>
       <c r="D9" s="14">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.228579205136612</v>
       </c>
       <c r="E9" s="14">
@@ -32628,11 +34814,11 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="13">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>31.159999849999998</v>
       </c>
       <c r="D10" s="14">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.710494996683174</v>
       </c>
       <c r="E10" s="14">
@@ -32681,11 +34867,11 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="13">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>30.969999309999999</v>
       </c>
       <c r="D11" s="14">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.189770586238538</v>
       </c>
       <c r="E11" s="14">
@@ -32734,11 +34920,11 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="13">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.63999939</v>
       </c>
       <c r="D12" s="14">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>36.340622369004151</v>
       </c>
       <c r="E12" s="14">
@@ -32785,11 +34971,11 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="13">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.129999160000001</v>
       </c>
       <c r="D13" s="14">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>35.566653817730753</v>
       </c>
       <c r="E13" s="14">
@@ -32836,11 +35022,11 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="13">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>24.129999160000001</v>
       </c>
       <c r="D14" s="14">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.740573439534039</v>
       </c>
       <c r="E14" s="14">
@@ -32886,11 +35072,11 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="13">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.809999470000001</v>
       </c>
       <c r="D15" s="14">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.119366627533324</v>
       </c>
       <c r="E15" s="14">
@@ -32936,11 +35122,11 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="13">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>26.329999919999999</v>
       </c>
       <c r="D16" s="14">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.666137024579427</v>
       </c>
       <c r="E16" s="14">
@@ -32986,11 +35172,11 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="13">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.18000031</v>
       </c>
       <c r="D17" s="14">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.177616240465106</v>
       </c>
       <c r="E17" s="14">
@@ -33036,36 +35222,36 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="13">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
-        <v>23.340000150000002</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>22.61</v>
       </c>
       <c r="D18" s="14">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
-        <v>32.601424623862997</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.640066271698615</v>
       </c>
       <c r="E18" s="14">
         <f t="shared" si="7"/>
-        <v>338807.23397602042</v>
+        <v>397378.80618793133</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="0"/>
-        <v>486792.0168463827</v>
+        <v>570946.57704363531</v>
       </c>
       <c r="G18" s="15">
         <f t="shared" si="1"/>
-        <v>3453169.3830283899</v>
+        <v>3537323.9432256427</v>
       </c>
       <c r="H18" s="15">
         <f t="shared" si="2"/>
-        <v>2403405.8214305816</v>
+        <v>2461977.3936424926</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" si="3"/>
-        <v>2702774.6770976437</v>
+        <v>2761346.2493095547</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="4"/>
-        <v>2403405.8214305816</v>
+        <v>2461977.3936424926</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" si="5"/>
@@ -33086,40 +35272,40 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="13">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.239999770000001</v>
       </c>
       <c r="D19" s="14">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
-        <v>32.197401538923856</v>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.234420440393677</v>
       </c>
       <c r="E19" s="14">
         <f t="shared" si="7"/>
-        <v>391641.90745168331</v>
+        <v>394559.35592032992</v>
       </c>
       <c r="F19" s="15">
         <f t="shared" si="0"/>
-        <v>570075.57608662441</v>
+        <v>574322.22611263557</v>
       </c>
       <c r="G19" s="15">
         <f t="shared" si="1"/>
-        <v>4023244.9591150144</v>
+        <v>4111646.1693382785</v>
       </c>
       <c r="H19" s="15">
         <f t="shared" si="2"/>
-        <v>2763969.1929088128</v>
+        <v>2824700.8222666993</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" si="3"/>
-        <v>3094416.5845493269</v>
+        <v>3155905.6052298844</v>
       </c>
       <c r="J19" s="15">
         <f t="shared" si="4"/>
-        <v>2763969.1929088128</v>
+        <v>2824700.8222666993</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="5"/>
-        <v>-330447.39164051414</v>
+        <v>-331204.78296318511</v>
       </c>
       <c r="L19" s="14">
         <f t="shared" si="6"/>
@@ -33135,40 +35321,40 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="13">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.809999470000001</v>
       </c>
       <c r="D20" s="14">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
-        <v>31.682903206079384</v>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.717901224590552</v>
       </c>
       <c r="E20" s="14">
         <f t="shared" si="7"/>
-        <v>310977.26180343935</v>
+        <v>313435.3189942778</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="0"/>
-        <v>431912.84645321348</v>
+        <v>435326.81463816349</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" si="1"/>
-        <v>4455157.8055682275</v>
+        <v>4546972.9839764424</v>
       </c>
       <c r="H20" s="15">
         <f t="shared" si="2"/>
-        <v>3207713.7474722113</v>
+        <v>3273820.6785529791</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="3"/>
-        <v>3405393.8463527663</v>
+        <v>3469340.924224162</v>
       </c>
       <c r="J20" s="15">
         <f t="shared" si="4"/>
-        <v>3207713.7474722113</v>
+        <v>3273820.6785529791</v>
       </c>
       <c r="K20" s="15">
         <f t="shared" si="5"/>
-        <v>-197680.09888055502</v>
+        <v>-195520.24567118287</v>
       </c>
       <c r="L20" s="14">
         <f t="shared" si="6"/>
@@ -33184,42 +35370,91 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="13">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.739999770000001</v>
       </c>
       <c r="D21" s="14">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
-        <v>31.23924703847057</v>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.272433394847042</v>
       </c>
       <c r="E21" s="14">
         <f t="shared" si="7"/>
-        <v>285336.95631588745</v>
+        <v>287569.57307156065</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="0"/>
-        <v>394656.92983100459</v>
+        <v>397744.9198539576</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" si="1"/>
-        <v>4849814.7353992322</v>
+        <v>4944717.9038303997</v>
       </c>
       <c r="H21" s="15">
         <f t="shared" si="2"/>
-        <v>3506416.0051296353</v>
+        <v>3575030.9949550489</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="3"/>
-        <v>3690730.8026686539</v>
+        <v>3756910.4972957228</v>
       </c>
       <c r="J21" s="15">
         <f t="shared" si="4"/>
-        <v>3506416.0051296353</v>
+        <v>3575030.9949550489</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="5"/>
-        <v>-184314.79753901856</v>
+        <v>-181879.50234067393</v>
       </c>
       <c r="L21" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="12.75">
+      <c r="A22" s="12">
+        <v>44957</v>
+      </c>
+      <c r="B22" s="13">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C22" s="13">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D22" s="14">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.014726063038534</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="7"/>
+        <v>147690.02391911903</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="0"/>
+        <v>187186.34809855712</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="1"/>
+        <v>5131904.2519289572</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" si="2"/>
+        <v>4049072.3250765675</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="3"/>
+        <v>3904600.5212148419</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="4"/>
+        <v>4049072.3250765675</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="5"/>
+        <v>144471.80386172561</v>
+      </c>
+      <c r="L22" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -33240,7 +35475,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM21"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33379,11 +35614,11 @@
         <v>1.0309999999999999</v>
       </c>
       <c r="C3" s="13">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>41.45</v>
       </c>
       <c r="D3" s="14">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>41.041896551724122</v>
       </c>
       <c r="E3" s="14">
@@ -33467,11 +35702,11 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="13">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>39.930000305175781</v>
       </c>
       <c r="D4" s="14">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="14">
@@ -33572,11 +35807,11 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="C5" s="13">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>38.069999694824219</v>
       </c>
       <c r="D5" s="14">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="14">
@@ -33646,11 +35881,11 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="C6" s="13">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.020000457763672</v>
       </c>
       <c r="D6" s="14">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="14">
@@ -33718,11 +35953,11 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="13">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>36.299999239999998</v>
       </c>
       <c r="D7" s="14">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.253623134275358</v>
       </c>
       <c r="E7" s="14">
@@ -33787,11 +36022,11 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="13">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.450000000000003</v>
       </c>
       <c r="D8" s="14">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.695499988749994</v>
       </c>
       <c r="E8" s="14">
@@ -33852,11 +36087,11 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="13">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>34.630000000000003</v>
       </c>
       <c r="D9" s="14">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.228579205136612</v>
       </c>
       <c r="E9" s="14">
@@ -33920,11 +36155,11 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="13">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>31.159999849999998</v>
       </c>
       <c r="D10" s="14">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.710494996683174</v>
       </c>
       <c r="E10" s="14">
@@ -33988,11 +36223,11 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="13">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>30.969999309999999</v>
       </c>
       <c r="D11" s="14">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.189770586238538</v>
       </c>
       <c r="E11" s="14">
@@ -34056,11 +36291,11 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="13">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.63999939</v>
       </c>
       <c r="D12" s="14">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>36.340622369004151</v>
       </c>
       <c r="E12" s="14">
@@ -34122,11 +36357,11 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="13">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.129999160000001</v>
       </c>
       <c r="D13" s="14">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>35.566653817730753</v>
       </c>
       <c r="E13" s="14">
@@ -34188,11 +36423,11 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="13">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>24.129999160000001</v>
       </c>
       <c r="D14" s="14">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.740573439534039</v>
       </c>
       <c r="E14" s="14">
@@ -34253,11 +36488,11 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="13">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.809999470000001</v>
       </c>
       <c r="D15" s="14">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.119366627533324</v>
       </c>
       <c r="E15" s="14">
@@ -34318,15 +36553,15 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="13">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>26.329999919999999</v>
       </c>
       <c r="D16" s="14">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.666137024579427</v>
       </c>
       <c r="E16" s="14">
-        <f t="shared" ref="E16:E21" ca="1" si="10">IF(C16&lt;D16,$E$2*(D16-C16)^2*U16,-$E$2*(D16-C16)^2*U16)</f>
+        <f t="shared" ref="E16:E22" ca="1" si="10">IF(C16&lt;D16,$E$2*(D16-C16)^2*U16,-$E$2*(D16-C16)^2*U16)</f>
         <v>212584.68508788882</v>
       </c>
       <c r="F16" s="15">
@@ -34370,27 +36605,27 @@
         <v>0.81933333476384484</v>
       </c>
       <c r="P16" s="23">
-        <f t="shared" ref="P16:P21" ca="1" si="11">SUM(O3:O16)/14</f>
+        <f t="shared" ref="P16:P22" ca="1" si="11">SUM(O3:O16)/14</f>
         <v>0.90447619064648954</v>
       </c>
       <c r="Q16" s="23">
-        <f t="shared" ref="Q16:Q21" ca="1" si="12">O16-P16</f>
+        <f t="shared" ref="Q16:Q22" ca="1" si="12">O16-P16</f>
         <v>-8.5142855882644697E-2</v>
       </c>
       <c r="R16" s="23">
-        <f t="shared" ref="R16:R21" ca="1" si="13">AVEDEV(O3:O16)</f>
+        <f t="shared" ref="R16:R22" ca="1" si="13">AVEDEV(O3:O16)</f>
         <v>9.2884351843879331E-2</v>
       </c>
       <c r="S16" s="9">
-        <f t="shared" ref="S16:S21" ca="1" si="14">0.015*R16</f>
+        <f t="shared" ref="S16:S22" ca="1" si="14">0.015*R16</f>
         <v>1.3932652776581899E-3</v>
       </c>
       <c r="T16" s="9">
-        <f t="shared" ref="T16:T21" ca="1" si="15">Q16/S16</f>
+        <f t="shared" ref="T16:T22" ca="1" si="15">Q16/S16</f>
         <v>-61.110297692736168</v>
       </c>
       <c r="U16" s="11">
-        <f t="shared" ref="U16:U21" ca="1" si="16">IF(AND(T16&gt;100,C16&gt;D16),1.2,IF(AND(T16&lt;-100,C16&lt;D16),1.2,1))</f>
+        <f t="shared" ref="U16:U22" ca="1" si="16">IF(AND(T16&gt;100,C16&gt;D16),1.2,IF(AND(T16&lt;-100,C16&lt;D16),1.2,1))</f>
         <v>1</v>
       </c>
     </row>
@@ -34403,11 +36638,11 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="13">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.18000031</v>
       </c>
       <c r="D17" s="14">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.177616240465106</v>
       </c>
       <c r="E17" s="14">
@@ -34415,31 +36650,31 @@
         <v>252649.34925635549</v>
       </c>
       <c r="F17" s="15">
-        <f t="shared" ref="F17:F21" ca="1" si="17">E17/B17</f>
+        <f t="shared" ref="F17:F22" ca="1" si="17">E17/B17</f>
         <v>330260.59343891655</v>
       </c>
       <c r="G17" s="15">
-        <f t="shared" ref="G17:G21" ca="1" si="18">G16+F17</f>
+        <f t="shared" ref="G17:G22" ca="1" si="18">G16+F17</f>
         <v>2966377.3661820074</v>
       </c>
       <c r="H17" s="15">
-        <f t="shared" ref="H17:H21" ca="1" si="19">G17*B17</f>
+        <f t="shared" ref="H17:H22" ca="1" si="19">G17*B17</f>
         <v>2269278.6426948672</v>
       </c>
       <c r="I17" s="15">
-        <f t="shared" ref="I17:I21" ca="1" si="20">IF(E17&gt;0,I16+E17,I16)</f>
+        <f t="shared" ref="I17:I22" ca="1" si="20">IF(E17&gt;0,I16+E17,I16)</f>
         <v>2363967.4431216232</v>
       </c>
       <c r="J17" s="15">
-        <f t="shared" ref="J17:J21" ca="1" si="21">H17+L17</f>
+        <f t="shared" ref="J17:J22" ca="1" si="21">H17+L17</f>
         <v>2269278.6426948672</v>
       </c>
       <c r="K17" s="15">
-        <f t="shared" ref="K17:K21" ca="1" si="22">J17-I17</f>
+        <f t="shared" ref="K17:K22" ca="1" si="22">J17-I17</f>
         <v>-94688.800426756032</v>
       </c>
       <c r="L17" s="14">
-        <f t="shared" ref="L17:L21" ca="1" si="23">IF(E17&lt;0,L16-E17,L16)</f>
+        <f t="shared" ref="L17:L22" ca="1" si="23">IF(E17&lt;0,L16-E17,L16)</f>
         <v>0</v>
       </c>
       <c r="M17" s="23">
@@ -34451,7 +36686,7 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="O17" s="23">
-        <f t="shared" ref="O17:O21" ca="1" si="24">(B17+M17+N17)/3</f>
+        <f t="shared" ref="O17:O22" ca="1" si="24">(B17+M17+N17)/3</f>
         <v>0.78500000635782874</v>
       </c>
       <c r="P17" s="23">
@@ -34488,40 +36723,40 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="13">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
-        <v>23.340000150000002</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>22.61</v>
       </c>
       <c r="D18" s="14">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
-        <v>32.601424623862997</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.640066271698615</v>
       </c>
       <c r="E18" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>406568.68077122449</v>
+        <v>476854.5674255176</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" ca="1" si="17"/>
-        <v>584150.42021565919</v>
+        <v>685135.89245236234</v>
       </c>
       <c r="G18" s="15">
         <f t="shared" ca="1" si="18"/>
-        <v>3550527.7863976667</v>
+        <v>3651513.2586343698</v>
       </c>
       <c r="H18" s="15">
         <f t="shared" ca="1" si="19"/>
-        <v>2471167.2682257858</v>
+        <v>2541453.154880079</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" ca="1" si="20"/>
-        <v>2770536.1238928479</v>
+        <v>2840822.0105471406</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" ca="1" si="21"/>
-        <v>2471167.2682257858</v>
+        <v>2541453.154880079</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" ca="1" si="22"/>
-        <v>-299368.8556670621</v>
+        <v>-299368.85566706164</v>
       </c>
       <c r="L18" s="14">
         <f t="shared" ca="1" si="23"/>
@@ -34573,40 +36808,40 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="13">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.239999770000001</v>
       </c>
       <c r="D19" s="14">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
-        <v>32.197401538923856</v>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.234420440393677</v>
       </c>
       <c r="E19" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>469970.28894201998</v>
+        <v>473471.22710439586</v>
       </c>
       <c r="F19" s="15">
         <f t="shared" ca="1" si="17"/>
-        <v>684090.69130394934</v>
+        <v>689186.67133516259</v>
       </c>
       <c r="G19" s="15">
         <f t="shared" ca="1" si="18"/>
-        <v>4234618.4777016155</v>
+        <v>4340699.9299695324</v>
       </c>
       <c r="H19" s="15">
         <f t="shared" ca="1" si="19"/>
-        <v>2909182.7952390611</v>
+        <v>2982060.7504685246</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" ca="1" si="20"/>
-        <v>3240506.4128348678</v>
+        <v>3314293.2376515362</v>
       </c>
       <c r="J19" s="15">
         <f t="shared" ca="1" si="21"/>
-        <v>2909182.7952390611</v>
+        <v>2982060.7504685246</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" ca="1" si="22"/>
-        <v>-331323.61759580672</v>
+        <v>-332232.4871830116</v>
       </c>
       <c r="L19" s="14">
         <f t="shared" ca="1" si="23"/>
@@ -34658,40 +36893,40 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="13">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.809999470000001</v>
       </c>
       <c r="D20" s="14">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
-        <v>31.682903206079384</v>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.717901224590552</v>
       </c>
       <c r="E20" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>310977.26180343935</v>
+        <v>313435.3189942778</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" ca="1" si="17"/>
-        <v>431912.84645321348</v>
+        <v>435326.81463816349</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" ca="1" si="18"/>
-        <v>4666531.3241548287</v>
+        <v>4776026.7446076963</v>
       </c>
       <c r="H20" s="15">
         <f t="shared" ca="1" si="19"/>
-        <v>3359902.686902009</v>
+        <v>3438739.3927607625</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" ca="1" si="20"/>
-        <v>3551483.6746383072</v>
+        <v>3627728.5566458139</v>
       </c>
       <c r="J20" s="15">
         <f t="shared" ca="1" si="21"/>
-        <v>3359902.686902009</v>
+        <v>3438739.3927607625</v>
       </c>
       <c r="K20" s="15">
         <f t="shared" ca="1" si="22"/>
-        <v>-191580.98773629824</v>
+        <v>-188989.16388505138</v>
       </c>
       <c r="L20" s="14">
         <f t="shared" ca="1" si="23"/>
@@ -34743,40 +36978,40 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="13">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.739999770000001</v>
       </c>
       <c r="D21" s="14">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
-        <v>31.23924703847057</v>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.272433394847042</v>
       </c>
       <c r="E21" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>285336.95631588745</v>
+        <v>287569.57307156065</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" ca="1" si="17"/>
-        <v>394656.92983100459</v>
+        <v>397744.9198539576</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" ca="1" si="18"/>
-        <v>5061188.2539858334</v>
+        <v>5173771.6644616537</v>
       </c>
       <c r="H21" s="15">
         <f t="shared" ca="1" si="19"/>
-        <v>3659239.0569511424</v>
+        <v>3740636.8615977974</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" ca="1" si="20"/>
-        <v>3836820.6309541948</v>
+        <v>3915298.1297173747</v>
       </c>
       <c r="J21" s="15">
         <f t="shared" ca="1" si="21"/>
-        <v>3659239.0569511424</v>
+        <v>3740636.8615977974</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" ca="1" si="22"/>
-        <v>-177581.57400305243</v>
+        <v>-174661.26811957732</v>
       </c>
       <c r="L21" s="14">
         <f t="shared" ca="1" si="23"/>
@@ -34815,6 +37050,91 @@
         <v>-67.856062729891207</v>
       </c>
       <c r="U21" s="11">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="12.75">
+      <c r="A22" s="12">
+        <v>44957</v>
+      </c>
+      <c r="B22" s="13">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C22" s="13">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D22" s="14">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.014726063038534</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" ca="1" si="10"/>
+        <v>147690.02391911903</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" ca="1" si="17"/>
+        <v>187186.34809855712</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" ca="1" si="18"/>
+        <v>5360958.0125602111</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" ca="1" si="19"/>
+        <v>4229795.7364258952</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" ca="1" si="20"/>
+        <v>4062988.1536364937</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" ca="1" si="21"/>
+        <v>4229795.7364258952</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" ca="1" si="22"/>
+        <v>166807.58278940152</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="23">
+        <f ca="1">MAX(VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A22,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="N22" s="23">
+        <f ca="1">MIN(VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A22,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="O22" s="23">
+        <f t="shared" ca="1" si="24"/>
+        <v>0.7713333169619242</v>
+      </c>
+      <c r="P22" s="23">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.79469047415824157</v>
+      </c>
+      <c r="Q22" s="23">
+        <f t="shared" ca="1" si="12"/>
+        <v>-2.3357157196317369E-2</v>
+      </c>
+      <c r="R22" s="23">
+        <f t="shared" ca="1" si="13"/>
+        <v>6.8931978981511113E-2</v>
+      </c>
+      <c r="S22" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0339796847226666E-3</v>
+      </c>
+      <c r="T22" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>-22.589570705716731</v>
+      </c>
+      <c r="U22" s="11">
         <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
@@ -34835,7 +37155,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34947,18 +37267,18 @@
         <v>1.0309999999999999</v>
       </c>
       <c r="C3" s="13">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>41.45</v>
       </c>
       <c r="D3" s="14">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>41.041896551724122</v>
       </c>
       <c r="E3" s="14">
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="15">
@@ -34966,7 +37286,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H21" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H22" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -34974,11 +37294,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J21" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J22" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K21" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K22" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="14">
@@ -35027,11 +37347,11 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="13">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>39.930000305175781</v>
       </c>
       <c r="D4" s="14">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="14">
@@ -35043,7 +37363,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" ref="G4:G21" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G22" si="4">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="15">
@@ -35051,7 +37371,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" ref="I4:I21" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I22" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="15">
@@ -35063,7 +37383,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="14">
-        <f t="shared" ref="L4:L21" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L22" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="9">
@@ -35071,7 +37391,7 @@
         <v>-53.501214932625707</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" ref="N4:N21" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
+        <f t="shared" ref="N4:N22" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
       <c r="P4" s="24">
@@ -35124,15 +37444,15 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="C5" s="13">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>38.069999694824219</v>
       </c>
       <c r="D5" s="14">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E21" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^2*N5,-$E$2*(D5-C5)^2*N5)</f>
+        <f t="shared" ref="E5:E22" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^2*N5,-$E$2*(D5-C5)^2*N5)</f>
         <v>31666.545626548228</v>
       </c>
       <c r="F5" s="15">
@@ -35190,11 +37510,11 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="C6" s="13">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.020000457763672</v>
       </c>
       <c r="D6" s="14">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="14">
@@ -35254,11 +37574,11 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="13">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>36.299999239999998</v>
       </c>
       <c r="D7" s="14">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.253623134275358</v>
       </c>
       <c r="E7" s="14">
@@ -35315,11 +37635,11 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="13">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.450000000000003</v>
       </c>
       <c r="D8" s="14">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.695499988749994</v>
       </c>
       <c r="E8" s="14">
@@ -35372,11 +37692,11 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="13">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>34.630000000000003</v>
       </c>
       <c r="D9" s="14">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.228579205136612</v>
       </c>
       <c r="E9" s="14">
@@ -35432,11 +37752,11 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="13">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>31.159999849999998</v>
       </c>
       <c r="D10" s="14">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.710494996683174</v>
       </c>
       <c r="E10" s="14">
@@ -35492,11 +37812,11 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="13">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>30.969999309999999</v>
       </c>
       <c r="D11" s="14">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.189770586238538</v>
       </c>
       <c r="E11" s="14">
@@ -35552,11 +37872,11 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="13">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.63999939</v>
       </c>
       <c r="D12" s="14">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>36.340622369004151</v>
       </c>
       <c r="E12" s="14">
@@ -35610,11 +37930,11 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="13">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.129999160000001</v>
       </c>
       <c r="D13" s="14">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>35.566653817730753</v>
       </c>
       <c r="E13" s="14">
@@ -35668,11 +37988,11 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="13">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>24.129999160000001</v>
       </c>
       <c r="D14" s="14">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.740573439534039</v>
       </c>
       <c r="E14" s="14">
@@ -35725,11 +38045,11 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="13">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.809999470000001</v>
       </c>
       <c r="D15" s="14">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.119366627533324</v>
       </c>
       <c r="E15" s="14">
@@ -35782,11 +38102,11 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="13">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>26.329999919999999</v>
       </c>
       <c r="D16" s="14">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.666137024579427</v>
       </c>
       <c r="E16" s="14">
@@ -35839,11 +38159,11 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="13">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.18000031</v>
       </c>
       <c r="D17" s="14">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.177616240465106</v>
       </c>
       <c r="E17" s="14">
@@ -35896,36 +38216,36 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="13">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
-        <v>23.340000150000002</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>22.61</v>
       </c>
       <c r="D18" s="14">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
-        <v>32.601424623862997</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.640066271698615</v>
       </c>
       <c r="E18" s="14">
         <f t="shared" si="9"/>
-        <v>406568.68077122449</v>
+        <v>476854.5674255176</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="0"/>
-        <v>584150.42021565919</v>
+        <v>685135.89245236234</v>
       </c>
       <c r="G18" s="15">
         <f t="shared" si="4"/>
-        <v>3713168.2500062897</v>
+        <v>3814153.7222429928</v>
       </c>
       <c r="H18" s="15">
         <f t="shared" si="1"/>
-        <v>2584365.0276401606</v>
+        <v>2654650.9142944538</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" si="5"/>
-        <v>2902758.7878328301</v>
+        <v>2973044.6744871233</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="2"/>
-        <v>2584365.0276401606</v>
+        <v>2654650.9142944538</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" si="3"/>
@@ -35953,40 +38273,40 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="13">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.239999770000001</v>
       </c>
       <c r="D19" s="14">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
-        <v>32.197401538923856</v>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.234420440393677</v>
       </c>
       <c r="E19" s="14">
         <f t="shared" si="9"/>
-        <v>469970.28894201998</v>
+        <v>473471.22710439586</v>
       </c>
       <c r="F19" s="15">
         <f t="shared" si="0"/>
-        <v>684090.69130394934</v>
+        <v>689186.67133516259</v>
       </c>
       <c r="G19" s="15">
         <f t="shared" si="4"/>
-        <v>4397258.941310239</v>
+        <v>4503340.393578155</v>
       </c>
       <c r="H19" s="15">
         <f t="shared" si="1"/>
-        <v>3020916.7899380876</v>
+        <v>3093794.7451675506</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" si="5"/>
-        <v>3372729.07677485</v>
+        <v>3446515.9015915189</v>
       </c>
       <c r="J19" s="15">
         <f t="shared" si="2"/>
-        <v>3020916.7899380876</v>
+        <v>3093794.7451675506</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="3"/>
-        <v>-351812.28683676245</v>
+        <v>-352721.15642396826</v>
       </c>
       <c r="L19" s="14">
         <f t="shared" si="6"/>
@@ -36010,40 +38330,40 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="13">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.809999470000001</v>
       </c>
       <c r="D20" s="14">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
-        <v>31.682903206079384</v>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.717901224590552</v>
       </c>
       <c r="E20" s="14">
         <f t="shared" si="9"/>
-        <v>310977.26180343935</v>
+        <v>313435.3189942778</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="0"/>
-        <v>431912.84645321348</v>
+        <v>435326.81463816349</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" si="4"/>
-        <v>4829171.7877634522</v>
+        <v>4938667.2082163189</v>
       </c>
       <c r="H20" s="15">
         <f t="shared" si="1"/>
-        <v>3477003.8253533985</v>
+        <v>3555840.531212152</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="5"/>
-        <v>3683706.3385782894</v>
+        <v>3759951.2205857965</v>
       </c>
       <c r="J20" s="15">
         <f t="shared" si="2"/>
-        <v>3477003.8253533985</v>
+        <v>3555840.531212152</v>
       </c>
       <c r="K20" s="15">
         <f t="shared" si="3"/>
-        <v>-206702.51322489092</v>
+        <v>-204110.68937364453</v>
       </c>
       <c r="L20" s="14">
         <f t="shared" si="6"/>
@@ -36067,40 +38387,40 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="13">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.739999770000001</v>
       </c>
       <c r="D21" s="14">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
-        <v>31.23924703847057</v>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.272433394847042</v>
       </c>
       <c r="E21" s="14">
         <f t="shared" si="9"/>
-        <v>285336.95631588745</v>
+        <v>287569.57307156065</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="0"/>
-        <v>394656.92983100459</v>
+        <v>397744.9198539576</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" si="4"/>
-        <v>5223828.7175944569</v>
+        <v>5336412.1280702762</v>
       </c>
       <c r="H21" s="15">
         <f t="shared" si="1"/>
-        <v>3776828.1105115637</v>
+        <v>3858225.9151582182</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="5"/>
-        <v>3969043.294894177</v>
+        <v>4047520.7936573573</v>
       </c>
       <c r="J21" s="15">
         <f t="shared" si="2"/>
-        <v>3776828.1105115637</v>
+        <v>3858225.9151582182</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="3"/>
-        <v>-192215.18438261328</v>
+        <v>-189294.8784991391</v>
       </c>
       <c r="L21" s="14">
         <f t="shared" si="6"/>
@@ -36111,6 +38431,63 @@
         <v>-13.703085779356849</v>
       </c>
       <c r="N21" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="12.75">
+      <c r="A22" s="12">
+        <v>44957</v>
+      </c>
+      <c r="B22" s="13">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C22" s="13">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D22" s="14">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.014726063038534</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="9"/>
+        <v>147690.02391911903</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="0"/>
+        <v>187186.34809855712</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="4"/>
+        <v>5523598.4761688337</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" si="1"/>
+        <v>4358119.0581027884</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="5"/>
+        <v>4195210.8175764764</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="2"/>
+        <v>4358119.0581027884</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="3"/>
+        <v>162908.24052631203</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>100.32182122410893</v>
+      </c>
+      <c r="N22" s="9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -36131,7 +38508,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -36243,18 +38620,18 @@
         <v>1.0309999999999999</v>
       </c>
       <c r="C3" s="13">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>41.45</v>
       </c>
       <c r="D3" s="14">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>41.041896551724122</v>
       </c>
       <c r="E3" s="14">
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="15">
@@ -36262,7 +38639,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H21" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H22" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -36270,11 +38647,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J21" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J22" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K21" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K22" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="14">
@@ -36323,11 +38700,11 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="13">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>39.930000305175781</v>
       </c>
       <c r="D4" s="14">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="14">
@@ -36339,7 +38716,7 @@
         <v>3932.3301809611858</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" ref="G4:G21" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G22" si="4">G3+F4</f>
         <v>3932.3301809611858</v>
       </c>
       <c r="H4" s="15">
@@ -36347,7 +38724,7 @@
         <v>3955.9241620469529</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" ref="I4:I21" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I22" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="J4" s="15">
@@ -36359,7 +38736,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="14">
-        <f t="shared" ref="L4:L21" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L22" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="9">
@@ -36367,7 +38744,7 @@
         <v>-53.501214932625707</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" ref="N4:N21" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
+        <f t="shared" ref="N4:N22" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
       <c r="P4" s="24">
@@ -36420,15 +38797,15 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="C5" s="13">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>38.069999694824219</v>
       </c>
       <c r="D5" s="14">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E21" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^3*N5,$E$2*(D5-C5)^3*N5)</f>
+        <f t="shared" ref="E5:E22" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^3*N5,$E$2*(D5-C5)^3*N5)</f>
         <v>81848.714902699052</v>
       </c>
       <c r="F5" s="15">
@@ -36486,11 +38863,11 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="C6" s="13">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.020000457763672</v>
       </c>
       <c r="D6" s="14">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="14">
@@ -36550,11 +38927,11 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="13">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>36.299999239999998</v>
       </c>
       <c r="D7" s="14">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.253623134275358</v>
       </c>
       <c r="E7" s="14">
@@ -36611,11 +38988,11 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="13">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.450000000000003</v>
       </c>
       <c r="D8" s="14">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.695499988749994</v>
       </c>
       <c r="E8" s="14">
@@ -36668,11 +39045,11 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="13">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>34.630000000000003</v>
       </c>
       <c r="D9" s="14">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.228579205136612</v>
       </c>
       <c r="E9" s="14">
@@ -36728,11 +39105,11 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="13">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>31.159999849999998</v>
       </c>
       <c r="D10" s="14">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.710494996683174</v>
       </c>
       <c r="E10" s="14">
@@ -36788,11 +39165,11 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="13">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>30.969999309999999</v>
       </c>
       <c r="D11" s="14">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.189770586238538</v>
       </c>
       <c r="E11" s="14">
@@ -36848,11 +39225,11 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="13">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.63999939</v>
       </c>
       <c r="D12" s="14">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>36.340622369004151</v>
       </c>
       <c r="E12" s="14">
@@ -36906,11 +39283,11 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="13">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.129999160000001</v>
       </c>
       <c r="D13" s="14">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>35.566653817730753</v>
       </c>
       <c r="E13" s="14">
@@ -36964,11 +39341,11 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="13">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>24.129999160000001</v>
       </c>
       <c r="D14" s="14">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.740573439534039</v>
       </c>
       <c r="E14" s="14">
@@ -37021,11 +39398,11 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="13">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.809999470000001</v>
       </c>
       <c r="D15" s="14">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.119366627533324</v>
       </c>
       <c r="E15" s="14">
@@ -37078,11 +39455,11 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="13">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>26.329999919999999</v>
       </c>
       <c r="D16" s="14">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.666137024579427</v>
       </c>
       <c r="E16" s="14">
@@ -37135,11 +39512,11 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="13">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.18000031</v>
       </c>
       <c r="D17" s="14">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.177616240465106</v>
       </c>
       <c r="E17" s="14">
@@ -37192,40 +39569,40 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="13">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
-        <v>23.340000150000002</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>22.61</v>
       </c>
       <c r="D18" s="14">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
-        <v>32.601424623862997</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.640066271698615</v>
       </c>
       <c r="E18" s="14">
         <f t="shared" si="9"/>
-        <v>3765405.130400809</v>
+        <v>4782882.913240117</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="0"/>
-        <v>5410064.9982026573</v>
+        <v>6871958.4064165689</v>
       </c>
       <c r="G18" s="15">
         <f t="shared" si="4"/>
-        <v>31449885.650371231</v>
+        <v>32911779.058585145</v>
       </c>
       <c r="H18" s="15">
         <f t="shared" si="1"/>
-        <v>21889119.782806464</v>
+        <v>22906597.565645773</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" si="5"/>
-        <v>24066642.634684995</v>
+        <v>25084120.417524301</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="2"/>
-        <v>21889119.782806464</v>
+        <v>22906597.565645773</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" si="3"/>
-        <v>-2177522.8518785313</v>
+        <v>-2177522.8518785276</v>
       </c>
       <c r="L18" s="14">
         <f t="shared" si="6"/>
@@ -37249,40 +39626,40 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="13">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.239999770000001</v>
       </c>
       <c r="D19" s="14">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
-        <v>32.197401538923856</v>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.234420440393677</v>
       </c>
       <c r="E19" s="14">
         <f t="shared" si="9"/>
-        <v>4679682.986452925</v>
+        <v>4732070.6190088335</v>
       </c>
       <c r="F19" s="15">
         <f t="shared" si="0"/>
-        <v>6811765.8596942881</v>
+        <v>6888021.5137519641</v>
       </c>
       <c r="G19" s="15">
         <f t="shared" si="4"/>
-        <v>38261651.510065518</v>
+        <v>39799800.572337106</v>
       </c>
       <c r="H19" s="15">
         <f t="shared" si="1"/>
-        <v>26285753.693430729</v>
+        <v>27342462.063272424</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" si="5"/>
-        <v>28746325.621137921</v>
+        <v>29816191.036533132</v>
       </c>
       <c r="J19" s="15">
         <f t="shared" si="2"/>
-        <v>26285753.693430729</v>
+        <v>27342462.063272424</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="3"/>
-        <v>-2460571.9277071916</v>
+        <v>-2473728.9732607082</v>
       </c>
       <c r="L19" s="14">
         <f t="shared" si="6"/>
@@ -37306,40 +39683,40 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="13">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.809999470000001</v>
       </c>
       <c r="D20" s="14">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
-        <v>31.682903206079384</v>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.717901224590552</v>
       </c>
       <c r="E20" s="14">
         <f t="shared" si="9"/>
-        <v>2759271.3080914733</v>
+        <v>2792051.0280197761</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="0"/>
-        <v>3832321.1089553987</v>
+        <v>3877848.4959356119</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" si="4"/>
-        <v>42093972.619020917</v>
+        <v>43677649.068272717</v>
       </c>
       <c r="H20" s="15">
         <f t="shared" si="1"/>
-        <v>30307661.490013275</v>
+        <v>31447908.578783918</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="5"/>
-        <v>31505596.929229394</v>
+        <v>32608242.064552907</v>
       </c>
       <c r="J20" s="15">
         <f t="shared" si="2"/>
-        <v>30307661.490013275</v>
+        <v>31447908.578783918</v>
       </c>
       <c r="K20" s="15">
         <f t="shared" si="3"/>
-        <v>-1197935.4392161183</v>
+        <v>-1160333.4857689887</v>
       </c>
       <c r="L20" s="14">
         <f t="shared" si="6"/>
@@ -37363,40 +39740,40 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="13">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.739999770000001</v>
       </c>
       <c r="D21" s="14">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
-        <v>31.23924703847057</v>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.272433394847042</v>
       </c>
       <c r="E21" s="14">
         <f t="shared" si="9"/>
-        <v>2425149.3465615129</v>
+        <v>2453668.2947586924</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="0"/>
-        <v>3354286.8328491473</v>
+        <v>3393732.1282739993</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" si="4"/>
-        <v>45448259.451870061</v>
+        <v>47071381.196546718</v>
       </c>
       <c r="H21" s="15">
         <f t="shared" si="1"/>
-        <v>32859091.128602259</v>
+        <v>34032608.133750223</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="5"/>
-        <v>33930746.275790907</v>
+        <v>35061910.359311596</v>
       </c>
       <c r="J21" s="15">
         <f t="shared" si="2"/>
-        <v>32859091.128602259</v>
+        <v>34032608.133750223</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="3"/>
-        <v>-1071655.1471886486</v>
+        <v>-1029302.2255613729</v>
       </c>
       <c r="L21" s="14">
         <f t="shared" si="6"/>
@@ -37407,6 +39784,63 @@
         <v>-13.703085779356849</v>
       </c>
       <c r="N21" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="12.75">
+      <c r="A22" s="12">
+        <v>44957</v>
+      </c>
+      <c r="B22" s="13">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C22" s="13">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D22" s="14">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.014726063038534</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="9"/>
+        <v>903084.09463123081</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="0"/>
+        <v>1144593.3124940631</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="4"/>
+        <v>48215974.50904078</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" si="1"/>
+        <v>38042402.669101261</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="5"/>
+        <v>35964994.453942828</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="2"/>
+        <v>38042402.669101261</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="3"/>
+        <v>2077408.2151584327</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>100.32182122410893</v>
+      </c>
+      <c r="N22" s="9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -37427,9 +39861,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI21"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -37547,11 +39981,11 @@
         <v>1.0309999999999999</v>
       </c>
       <c r="C3" s="13">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>41.45</v>
       </c>
       <c r="D3" s="14">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>41.041896551724122</v>
       </c>
       <c r="E3" s="14">
@@ -37566,7 +40000,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H21" si="0">G3/B3</f>
+        <f t="shared" ref="H3:H22" si="0">G3/B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -37574,7 +40008,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J21" si="1">I3*B3</f>
+        <f t="shared" ref="J3:J22" si="1">I3*B3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
@@ -37582,11 +40016,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="15">
-        <f t="shared" ref="L3:L21" si="2">J3+N3</f>
+        <f t="shared" ref="L3:L22" si="2">J3+N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="15">
-        <f t="shared" ref="M3:M21" si="3">L3-K3</f>
+        <f t="shared" ref="M3:M22" si="3">L3-K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="14">
@@ -37635,11 +40069,11 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="13">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>39.930000305175781</v>
       </c>
       <c r="D4" s="14">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="14">
@@ -37659,7 +40093,7 @@
         <v>1049.4536589575841</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" ref="I4:I21" si="4">I3+H4</f>
+        <f t="shared" ref="I4:I22" si="4">I3+H4</f>
         <v>1049.4536589575841</v>
       </c>
       <c r="J4" s="15">
@@ -37667,7 +40101,7 @@
         <v>1055.7503809113296</v>
       </c>
       <c r="K4" s="15">
-        <f t="shared" ref="K4:K21" si="5">IF(G4&gt;0,K3+G4,K3)</f>
+        <f t="shared" ref="K4:K22" si="5">IF(G4&gt;0,K3+G4,K3)</f>
         <v>1055.7503809113296</v>
       </c>
       <c r="L4" s="15">
@@ -37679,7 +40113,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" ref="N4:N21" si="6">IF(G4&lt;0,N3-G4,N3)</f>
+        <f t="shared" ref="N4:N22" si="6">IF(G4&lt;0,N3-G4,N3)</f>
         <v>0</v>
       </c>
       <c r="O4" s="9">
@@ -37687,7 +40121,7 @@
         <v>-53.501214932625707</v>
       </c>
       <c r="P4" s="9">
-        <f t="shared" ref="P4:P21" si="7">IF(AND(O4&gt;100,C4&gt;D4),1.2,IF(AND(O4&lt;-100,C4&lt;D4),1.2,1))</f>
+        <f t="shared" ref="P4:P22" si="7">IF(AND(O4&gt;100,C4&gt;D4),1.2,IF(AND(O4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
       <c r="R4" s="24">
@@ -37740,11 +40174,11 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="C5" s="13">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>38.069999694824219</v>
       </c>
       <c r="D5" s="14">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="14">
@@ -37756,7 +40190,7 @@
         <v>21490456.638297871</v>
       </c>
       <c r="G5" s="14">
-        <f t="shared" ref="G5:G21" si="9">IF(C5&lt;D5,$G$2*(D5-C5)^3*P5*E5/F5,$G$2*(D5-C5)^3*P5*E5/F5)</f>
+        <f t="shared" ref="G5:G22" si="9">IF(C5&lt;D5,$G$2*(D5-C5)^3*P5*E5/F5,$G$2*(D5-C5)^3*P5*E5/F5)</f>
         <v>16983.872079062337</v>
       </c>
       <c r="H5" s="15">
@@ -37814,11 +40248,11 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="C6" s="13">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.020000457763672</v>
       </c>
       <c r="D6" s="14">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="14">
@@ -37886,11 +40320,11 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="13">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>36.299999239999998</v>
       </c>
       <c r="D7" s="14">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.253623134275358</v>
       </c>
       <c r="E7" s="14">
@@ -37955,11 +40389,11 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="13">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.450000000000003</v>
       </c>
       <c r="D8" s="14">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.695499988749994</v>
       </c>
       <c r="E8" s="14">
@@ -38020,11 +40454,11 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="13">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>34.630000000000003</v>
       </c>
       <c r="D9" s="14">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.228579205136612</v>
       </c>
       <c r="E9" s="14">
@@ -38088,11 +40522,11 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="13">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>31.159999849999998</v>
       </c>
       <c r="D10" s="14">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.710494996683174</v>
       </c>
       <c r="E10" s="14">
@@ -38156,11 +40590,11 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="13">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>30.969999309999999</v>
       </c>
       <c r="D11" s="14">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.189770586238538</v>
       </c>
       <c r="E11" s="14">
@@ -38224,11 +40658,11 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="13">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.63999939</v>
       </c>
       <c r="D12" s="14">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>36.340622369004151</v>
       </c>
       <c r="E12" s="14">
@@ -38290,11 +40724,11 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="13">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.129999160000001</v>
       </c>
       <c r="D13" s="14">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>35.566653817730753</v>
       </c>
       <c r="E13" s="14">
@@ -38356,11 +40790,11 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="13">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>24.129999160000001</v>
       </c>
       <c r="D14" s="14">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.740573439534039</v>
       </c>
       <c r="E14" s="14">
@@ -38421,11 +40855,11 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="13">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.809999470000001</v>
       </c>
       <c r="D15" s="14">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.119366627533324</v>
       </c>
       <c r="E15" s="14">
@@ -38486,11 +40920,11 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="13">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>26.329999919999999</v>
       </c>
       <c r="D16" s="14">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.666137024579427</v>
       </c>
       <c r="E16" s="14">
@@ -38551,11 +40985,11 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="13">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.18000031</v>
       </c>
       <c r="D17" s="14">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.177616240465106</v>
       </c>
       <c r="E17" s="14">
@@ -38616,12 +41050,12 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="13">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
-        <v>23.340000150000002</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>22.61</v>
       </c>
       <c r="D18" s="14">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
-        <v>32.601424623862997</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.640066271698615</v>
       </c>
       <c r="E18" s="14">
         <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
@@ -38633,27 +41067,27 @@
       </c>
       <c r="G18" s="14">
         <f t="shared" si="9"/>
-        <v>1442324.1532089238</v>
+        <v>1832065.1586837813</v>
       </c>
       <c r="H18" s="15">
         <f t="shared" si="0"/>
-        <v>2072304.8774587736</v>
+        <v>2632277.6025873963</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" si="4"/>
-        <v>8343879.9580431413</v>
+        <v>8903852.683171764</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="1"/>
-        <v>5807340.2836938016</v>
+        <v>6197081.2891686596</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" si="5"/>
-        <v>6301583.5549640199</v>
+        <v>6691324.5604388779</v>
       </c>
       <c r="L18" s="15">
         <f t="shared" si="2"/>
-        <v>5807340.2836938016</v>
+        <v>6197081.2891686596</v>
       </c>
       <c r="M18" s="15">
         <f t="shared" si="3"/>
@@ -38681,12 +41115,12 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="13">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.239999770000001</v>
       </c>
       <c r="D19" s="14">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
-        <v>32.197401538923856</v>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.234420440393677</v>
       </c>
       <c r="E19" s="14">
         <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
@@ -38698,31 +41132,31 @@
       </c>
       <c r="G19" s="14">
         <f t="shared" si="9"/>
-        <v>2922335.9299294855</v>
+        <v>2955050.5948641114</v>
       </c>
       <c r="H19" s="15">
         <f t="shared" si="0"/>
-        <v>4253764.2348162662</v>
+        <v>4301383.83604954</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" si="4"/>
-        <v>12597644.192859408</v>
+        <v>13205236.519221304</v>
       </c>
       <c r="J19" s="15">
         <f t="shared" si="1"/>
-        <v>8654581.2661501952</v>
+        <v>9071997.1801644098</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="5"/>
-        <v>9223919.4848935045</v>
+        <v>9646375.1553029902</v>
       </c>
       <c r="L19" s="15">
         <f t="shared" si="2"/>
-        <v>8654581.2661501952</v>
+        <v>9071997.1801644098</v>
       </c>
       <c r="M19" s="15">
         <f t="shared" si="3"/>
-        <v>-569338.21874330938</v>
+        <v>-574377.97513858043</v>
       </c>
       <c r="N19" s="14">
         <f t="shared" si="6"/>
@@ -38746,12 +41180,12 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="13">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.809999470000001</v>
       </c>
       <c r="D20" s="14">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
-        <v>31.682903206079384</v>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.717901224590552</v>
       </c>
       <c r="E20" s="14">
         <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
@@ -38763,31 +41197,31 @@
       </c>
       <c r="G20" s="14">
         <f t="shared" si="9"/>
-        <v>1313323.0596551057</v>
+        <v>1328925.1361687968</v>
       </c>
       <c r="H20" s="15">
         <f t="shared" si="0"/>
-        <v>1824059.732594914</v>
+        <v>1845729.2824473034</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="4"/>
-        <v>14421703.925454322</v>
+        <v>15050965.801668607</v>
       </c>
       <c r="J20" s="15">
         <f t="shared" si="1"/>
-        <v>10383627.238935372</v>
+        <v>10836695.807812983</v>
       </c>
       <c r="K20" s="15">
         <f t="shared" si="5"/>
-        <v>10537242.54454861</v>
+        <v>10975300.291471787</v>
       </c>
       <c r="L20" s="15">
         <f t="shared" si="2"/>
-        <v>10383627.238935372</v>
+        <v>10836695.807812983</v>
       </c>
       <c r="M20" s="15">
         <f t="shared" si="3"/>
-        <v>-153615.30561323836</v>
+        <v>-138604.48365880363</v>
       </c>
       <c r="N20" s="14">
         <f t="shared" si="6"/>
@@ -38811,12 +41245,12 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="13">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.739999770000001</v>
       </c>
       <c r="D21" s="14">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
-        <v>31.23924703847057</v>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.272433394847042</v>
       </c>
       <c r="E21" s="14">
         <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
@@ -38828,31 +41262,31 @@
       </c>
       <c r="G21" s="14">
         <f t="shared" si="9"/>
-        <v>959071.18361059949</v>
+        <v>970349.54114415869</v>
       </c>
       <c r="H21" s="15">
         <f t="shared" si="0"/>
-        <v>1326516.1782763151</v>
+        <v>1342115.5665055888</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="4"/>
-        <v>15748220.103730638</v>
+        <v>16393081.368174195</v>
       </c>
       <c r="J21" s="15">
         <f t="shared" si="1"/>
-        <v>11385962.977301184</v>
+        <v>11852197.665036507</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="5"/>
-        <v>11496313.72815921</v>
+        <v>11945649.832615945</v>
       </c>
       <c r="L21" s="15">
         <f t="shared" si="2"/>
-        <v>11385962.977301184</v>
+        <v>11852197.665036507</v>
       </c>
       <c r="M21" s="15">
         <f t="shared" si="3"/>
-        <v>-110350.75085802563</v>
+        <v>-93452.167579438537</v>
       </c>
       <c r="N21" s="14">
         <f t="shared" si="6"/>
@@ -38863,6 +41297,71 @@
         <v>-13.703085779356849</v>
       </c>
       <c r="P21" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="12.75">
+      <c r="A22" s="12">
+        <v>44957</v>
+      </c>
+      <c r="B22" s="13">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C22" s="13">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D22" s="14">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.014726063038534</v>
+      </c>
+      <c r="E22" s="14">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
+        <v>2396100</v>
+      </c>
+      <c r="F22" s="14">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$I,9)</f>
+        <v>5058906.2336463733</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" si="9"/>
+        <v>427736.68836834806</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" si="0"/>
+        <v>542125.09767951048</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="4"/>
+        <v>16935206.465853706</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="1"/>
+        <v>13361877.473565781</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="5"/>
+        <v>12373386.520984294</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="2"/>
+        <v>13361877.473565781</v>
+      </c>
+      <c r="M22" s="15">
+        <f t="shared" si="3"/>
+        <v>988490.9525814876</v>
+      </c>
+      <c r="N22" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>100.32182122410893</v>
+      </c>
+      <c r="P22" s="9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="model4(1)" sheetId="9" r:id="rId1"/>
@@ -509,7 +509,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -566,7 +565,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -626,6 +625,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -635,7 +637,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -695,6 +697,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3904600.5212148419</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4084731.4122017911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,7 +742,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -797,6 +802,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,7 +814,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -866,6 +874,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4049072.3250765675</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4095773.8939387267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,7 +919,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -968,6 +979,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,7 +991,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1037,6 +1051,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>144471.80386172561</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11042.481736935675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,11 +1075,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90422272"/>
-        <c:axId val="91014656"/>
+        <c:axId val="569023872"/>
+        <c:axId val="571684352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90422272"/>
+        <c:axId val="569023872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,14 +1122,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91014656"/>
+        <c:crossAx val="571684352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91014656"/>
+        <c:axId val="571684352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1180,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90422272"/>
+        <c:crossAx val="569023872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1177,7 +1194,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1323,7 +1339,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1383,6 +1399,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>427736.68836834806</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>174190.76894722995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1397,8 +1416,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="95237248"/>
-        <c:axId val="95235456"/>
+        <c:axId val="573829504"/>
+        <c:axId val="573823616"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1423,7 +1442,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1483,6 +1502,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1492,7 +1514,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1552,6 +1574,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7630000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1568,11 +1593,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95232384"/>
-        <c:axId val="95233920"/>
+        <c:axId val="573820288"/>
+        <c:axId val="573822080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="95232384"/>
+        <c:axId val="573820288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,14 +1640,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95233920"/>
+        <c:crossAx val="573822080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="95233920"/>
+        <c:axId val="573822080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,12 +1698,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95232384"/>
+        <c:crossAx val="573820288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95235456"/>
+        <c:axId val="573823616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1715,12 +1740,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95237248"/>
+        <c:crossAx val="573829504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="95237248"/>
+        <c:axId val="573829504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1729,7 +1754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95235456"/>
+        <c:crossAx val="573823616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1860,7 +1885,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1920,6 +1945,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>147690.02391911903</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>180130.89098694932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1934,8 +1962,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="254688256"/>
-        <c:axId val="254669568"/>
+        <c:axId val="569538432"/>
+        <c:axId val="569536896"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1960,7 +1988,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2020,6 +2048,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2029,7 +2060,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2089,6 +2120,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7630000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2105,11 +2139,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91281664"/>
-        <c:axId val="104464384"/>
+        <c:axId val="578194432"/>
+        <c:axId val="591312384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91281664"/>
+        <c:axId val="578194432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,14 +2186,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104464384"/>
+        <c:crossAx val="591312384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="104464384"/>
+        <c:axId val="591312384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,12 +2244,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91281664"/>
+        <c:crossAx val="578194432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254669568"/>
+        <c:axId val="569536896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2252,12 +2286,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254688256"/>
+        <c:crossAx val="569538432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="254688256"/>
+        <c:axId val="569538432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2266,7 +2300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254669568"/>
+        <c:crossAx val="569536896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2415,7 +2449,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2475,6 +2509,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2484,7 +2521,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2544,6 +2581,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4062988.1536364937</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4243119.0446234429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2586,7 +2626,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2646,6 +2686,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2655,7 +2698,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2715,6 +2758,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4229795.7364258952</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4270541.9159216853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2757,7 +2803,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2817,6 +2863,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2826,7 +2875,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2886,6 +2935,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>166807.58278940152</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27422.87129824236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2907,11 +2959,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="576417792"/>
-        <c:axId val="576419712"/>
+        <c:axId val="571689216"/>
+        <c:axId val="571691008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="576417792"/>
+        <c:axId val="571689216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2954,14 +3006,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576419712"/>
+        <c:crossAx val="571691008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="576419712"/>
+        <c:axId val="571691008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3012,7 +3064,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576417792"/>
+        <c:crossAx val="571689216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3171,7 +3223,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3231,6 +3283,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>147690.02391911903</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>180130.89098694932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3245,8 +3300,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="680044416"/>
-        <c:axId val="680014976"/>
+        <c:axId val="571713024"/>
+        <c:axId val="571711488"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3271,7 +3326,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3331,6 +3386,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3340,7 +3398,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3400,6 +3458,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7630000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3416,11 +3477,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616142336"/>
-        <c:axId val="616144256"/>
+        <c:axId val="571708160"/>
+        <c:axId val="571709696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616142336"/>
+        <c:axId val="571708160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3463,14 +3524,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616144256"/>
+        <c:crossAx val="571709696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616144256"/>
+        <c:axId val="571709696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3521,12 +3582,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616142336"/>
+        <c:crossAx val="571708160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="680014976"/>
+        <c:axId val="571711488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3563,12 +3624,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="680044416"/>
+        <c:crossAx val="571713024"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="680044416"/>
+        <c:axId val="571713024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3577,7 +3638,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680014976"/>
+        <c:crossAx val="571711488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3726,7 +3787,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3786,6 +3847,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3795,7 +3859,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3855,6 +3919,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4195210.8175764764</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4375341.7085634256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3897,7 +3964,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3957,6 +4024,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3966,7 +4036,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4026,6 +4096,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4358119.0581027884</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4394636.5915163374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4068,7 +4141,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4128,6 +4201,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4137,7 +4213,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4197,6 +4273,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>162908.24052631203</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19294.882952911779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4218,11 +4297,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90993792"/>
-        <c:axId val="90995328"/>
+        <c:axId val="571808000"/>
+        <c:axId val="571813888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90993792"/>
+        <c:axId val="571808000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4265,14 +4344,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90995328"/>
+        <c:crossAx val="571813888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90995328"/>
+        <c:axId val="571813888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4323,7 +4402,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90993792"/>
+        <c:crossAx val="571808000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4482,7 +4561,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4542,6 +4621,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>147690.02391911903</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>180130.89098694932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4556,8 +4638,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="91023232"/>
-        <c:axId val="91021696"/>
+        <c:axId val="571848192"/>
+        <c:axId val="571846656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4582,7 +4664,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4642,6 +4724,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4651,7 +4736,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4711,6 +4796,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7630000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4727,11 +4815,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91010176"/>
-        <c:axId val="91011712"/>
+        <c:axId val="571843328"/>
+        <c:axId val="571844864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91010176"/>
+        <c:axId val="571843328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4774,14 +4862,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91011712"/>
+        <c:crossAx val="571844864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91011712"/>
+        <c:axId val="571844864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4832,12 +4920,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91010176"/>
+        <c:crossAx val="571843328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91021696"/>
+        <c:axId val="571846656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4874,12 +4962,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91023232"/>
+        <c:crossAx val="571848192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="91023232"/>
+        <c:axId val="571848192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4888,7 +4976,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91021696"/>
+        <c:crossAx val="571846656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5037,7 +5125,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5097,6 +5185,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5106,7 +5197,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5166,6 +5257,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>35964994.453942828</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37181415.002649464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5208,7 +5302,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5268,6 +5362,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5277,7 +5374,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5337,6 +5434,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>38042402.669101261</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38005209.650892787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5379,7 +5479,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5439,6 +5539,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5448,7 +5551,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5508,6 +5611,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2077408.2151584327</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>823794.64824332297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5529,11 +5635,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93541120"/>
-        <c:axId val="93542656"/>
+        <c:axId val="573642624"/>
+        <c:axId val="573644160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93541120"/>
+        <c:axId val="573642624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5576,14 +5682,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93542656"/>
+        <c:crossAx val="573644160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93542656"/>
+        <c:axId val="573644160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5634,7 +5740,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93541120"/>
+        <c:crossAx val="573642624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5793,7 +5899,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5853,6 +5959,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>48215974.50904078</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49810234.706238389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5867,8 +5976,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="93557888"/>
-        <c:axId val="93556096"/>
+        <c:axId val="573768832"/>
+        <c:axId val="573701504"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5893,7 +6002,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5953,6 +6062,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5962,7 +6074,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6022,6 +6134,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7630000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6038,11 +6153,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93553024"/>
-        <c:axId val="93554560"/>
+        <c:axId val="573698432"/>
+        <c:axId val="573699968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93553024"/>
+        <c:axId val="573698432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6085,14 +6200,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93554560"/>
+        <c:crossAx val="573699968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93554560"/>
+        <c:axId val="573699968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6143,12 +6258,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93553024"/>
+        <c:crossAx val="573698432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93556096"/>
+        <c:axId val="573701504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6185,12 +6300,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93557888"/>
+        <c:crossAx val="573768832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="93557888"/>
+        <c:axId val="573768832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6199,7 +6314,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93556096"/>
+        <c:crossAx val="573701504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6292,6 +6407,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6348,7 +6464,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6408,6 +6524,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6417,7 +6536,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6477,6 +6596,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>12373386.520984294</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12547577.289931525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6519,7 +6641,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6579,6 +6701,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6588,7 +6713,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6648,6 +6773,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>13361877.473565781</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13095753.496201664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6690,7 +6818,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6750,6 +6878,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6759,7 +6890,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6819,6 +6950,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>988490.9525814876</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>548176.20627013966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6840,11 +6974,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93573504"/>
-        <c:axId val="93575040"/>
+        <c:axId val="573789312"/>
+        <c:axId val="573790848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93573504"/>
+        <c:axId val="573789312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6887,14 +7021,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93575040"/>
+        <c:crossAx val="573790848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93575040"/>
+        <c:axId val="573790848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6945,7 +7079,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93573504"/>
+        <c:crossAx val="573789312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6959,6 +7093,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8393,6 +8528,12 @@
           <cell r="I22">
             <v>39128742.049999997</v>
           </cell>
+          <cell r="K22">
+            <v>45016</v>
+          </cell>
+          <cell r="L22">
+            <v>44986</v>
+          </cell>
           <cell r="N22">
             <v>1.054</v>
           </cell>
@@ -28821,6 +28962,59 @@
           </cell>
           <cell r="U407">
             <v>-136.90138410909205</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="A408">
+            <v>44985</v>
+          </cell>
+          <cell r="B408">
+            <v>0.7630000114440918</v>
+          </cell>
+          <cell r="C408">
+            <v>0.7630000114440918</v>
+          </cell>
+          <cell r="D408">
+            <v>0.75900000333786011</v>
+          </cell>
+          <cell r="E408">
+            <v>0.7630000114440918</v>
+          </cell>
+          <cell r="F408">
+            <v>699600</v>
+          </cell>
+          <cell r="G408">
+            <v>532.60498046875</v>
+          </cell>
+          <cell r="H408">
+            <v>406</v>
+          </cell>
+          <cell r="I408">
+            <v>4885493.1924261088</v>
+          </cell>
+          <cell r="N408">
+            <v>0</v>
+          </cell>
+          <cell r="O408">
+            <v>0</v>
+          </cell>
+          <cell r="P408">
+            <v>0.76166667540868127</v>
+          </cell>
+          <cell r="Q408">
+            <v>0.77419047270502361</v>
+          </cell>
+          <cell r="R408">
+            <v>-1.2523797296342343E-2</v>
+          </cell>
+          <cell r="S408">
+            <v>9.0748294681107945E-3</v>
+          </cell>
+          <cell r="T408">
+            <v>1.3612244202166192E-4</v>
+          </cell>
+          <cell r="U408">
+            <v>-92.003912876830128</v>
           </cell>
         </row>
       </sheetData>
@@ -28848,9 +29042,6 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="B2">
-            <v>0</v>
-          </cell>
           <cell r="C2" t="str">
             <v>PE</v>
           </cell>
@@ -33975,6 +34166,244 @@
           </cell>
           <cell r="D443">
             <v>31.014726063038534</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="B444" t="str">
+            <v xml:space="preserve">2023/2/1
+</v>
+          </cell>
+          <cell r="C444">
+            <v>25.239999770000001</v>
+          </cell>
+          <cell r="D444">
+            <v>31.001661071425325</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="B445" t="str">
+            <v xml:space="preserve">2023/2/2
+</v>
+          </cell>
+          <cell r="C445">
+            <v>25.129999160000001</v>
+          </cell>
+          <cell r="D445">
+            <v>30.988406755598181</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="B446" t="str">
+            <v xml:space="preserve">2023/2/3
+</v>
+          </cell>
+          <cell r="C446">
+            <v>24.93000031</v>
+          </cell>
+          <cell r="D446">
+            <v>30.974761696036023</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="B447" t="str">
+            <v xml:space="preserve">2023/2/6
+</v>
+          </cell>
+          <cell r="C447">
+            <v>24.600000380000001</v>
+          </cell>
+          <cell r="D447">
+            <v>30.960436389707851</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="B448" t="str">
+            <v xml:space="preserve">2023/2/7
+</v>
+          </cell>
+          <cell r="C448">
+            <v>24.61000061</v>
+          </cell>
+          <cell r="D448">
+            <v>30.94619774446187</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="B449" t="str">
+            <v xml:space="preserve">2023/2/8
+</v>
+          </cell>
+          <cell r="C449">
+            <v>24.5</v>
+          </cell>
+          <cell r="D449">
+            <v>30.931776720425042</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="B450" t="str">
+            <v xml:space="preserve">2023/2/9
+</v>
+          </cell>
+          <cell r="C450">
+            <v>24.870000839999999</v>
+          </cell>
+          <cell r="D450">
+            <v>30.918245970691949</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="B451" t="str">
+            <v xml:space="preserve">2023/2/10
+</v>
+          </cell>
+          <cell r="C451">
+            <v>24.63999939</v>
+          </cell>
+          <cell r="D451">
+            <v>30.904263238886397</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="B452" t="str">
+            <v xml:space="preserve">2023/2/13
+</v>
+          </cell>
+          <cell r="C452">
+            <v>24.879999160000001</v>
+          </cell>
+          <cell r="D452">
+            <v>30.890875985377765</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="B453" t="str">
+            <v xml:space="preserve">2023/2/14
+</v>
+          </cell>
+          <cell r="C453">
+            <v>24.809999470000001</v>
+          </cell>
+          <cell r="D453">
+            <v>30.87739288889134</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="B454" t="str">
+            <v xml:space="preserve">2023/2/15
+</v>
+          </cell>
+          <cell r="C454">
+            <v>24.739999770000001</v>
+          </cell>
+          <cell r="D454">
+            <v>30.86381458553096</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="B455" t="str">
+            <v xml:space="preserve">2023/2/16
+</v>
+          </cell>
+          <cell r="C455">
+            <v>24.489999770000001</v>
+          </cell>
+          <cell r="D455">
+            <v>30.849744354150097</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="B456" t="str">
+            <v xml:space="preserve">2023/2/17
+</v>
+          </cell>
+          <cell r="C456">
+            <v>23.950000760000002</v>
+          </cell>
+          <cell r="D456">
+            <v>30.834546681035228</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="B457" t="str">
+            <v xml:space="preserve">2023/2/20
+</v>
+          </cell>
+          <cell r="C457">
+            <v>24.409999849999998</v>
+          </cell>
+          <cell r="D457">
+            <v>30.820426797890097</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="B458" t="str">
+            <v xml:space="preserve">2023/2/21
+</v>
+          </cell>
+          <cell r="C458">
+            <v>24.399999619999999</v>
+          </cell>
+          <cell r="D458">
+            <v>30.806346913728056</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="B459" t="str">
+            <v xml:space="preserve">2023/2/22
+</v>
+          </cell>
+          <cell r="C459">
+            <v>24.200000760000002</v>
+          </cell>
+          <cell r="D459">
+            <v>30.791891014048126</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="B460" t="str">
+            <v xml:space="preserve">2023/2/23
+</v>
+          </cell>
+          <cell r="C460">
+            <v>24.229999540000001</v>
+          </cell>
+          <cell r="D460">
+            <v>30.777563740087324</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="B461" t="str">
+            <v xml:space="preserve">2023/2/24
+</v>
+          </cell>
+          <cell r="C461">
+            <v>24.020000459999999</v>
+          </cell>
+          <cell r="D461">
+            <v>30.762841379999987</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="B462">
+            <v>44984</v>
+          </cell>
+          <cell r="C462">
+            <v>23.780000690000001</v>
+          </cell>
+          <cell r="D462">
+            <v>30.747661291543466</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="B463">
+            <v>44985</v>
+          </cell>
+          <cell r="C463">
+            <v>23.979999540000001</v>
+          </cell>
+          <cell r="D463">
+            <v>30.732980897288492</v>
           </cell>
         </row>
       </sheetData>
@@ -34271,9 +34700,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -34389,31 +34818,31 @@
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F23" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="15">
-        <f t="shared" ref="G3:G22" si="1">G2+F3</f>
+        <f t="shared" ref="G3:G23" si="1">G2+F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H22" si="2">G3*B3</f>
+        <f t="shared" ref="H3:H23" si="2">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
-        <f t="shared" ref="I3:I22" si="3">IF(E3&gt;0,I2+E3,I2)</f>
+        <f t="shared" ref="I3:I23" si="3">IF(E3&gt;0,I2+E3,I2)</f>
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J22" si="4">H3+L3</f>
+        <f t="shared" ref="J3:J23" si="4">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K22" si="5">J3-I3</f>
+        <f t="shared" ref="K3:K23" si="5">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="14">
-        <f t="shared" ref="L3:L22" si="6">IF(E3&lt;0,L2-E3,L2)</f>
+        <f t="shared" ref="L3:L23" si="6">IF(E3&lt;0,L2-E3,L2)</f>
         <v>0</v>
       </c>
       <c r="M3" s="9"/>
@@ -34440,6 +34869,16 @@
       </c>
       <c r="W3" s="16" t="s">
         <v>20</v>
+      </c>
+      <c r="Y3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>245217.81577195294</v>
+      </c>
+      <c r="AA3" s="11">
+        <f>-Z3</f>
+        <v>-245217.81577195294</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
@@ -34459,7 +34898,7 @@
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="14">
-        <f t="shared" ref="E4:E22" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <f t="shared" ref="E4:E23" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="F4" s="15">
@@ -34522,9 +34961,16 @@
         <f>V4</f>
         <v>1.0873077815565837E-2</v>
       </c>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
+      <c r="Y4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>3511692.6815237701</v>
+      </c>
+      <c r="AA4" s="9">
+        <f>-Z4</f>
+        <v>-3511692.6815237701</v>
+      </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
@@ -34581,9 +35027,43 @@
         <v>0</v>
       </c>
       <c r="M5" s="9"/>
-      <c r="Y5" s="17"/>
+      <c r="P5" s="24">
+        <v>44925</v>
+      </c>
+      <c r="Q5" s="18">
+        <f>R5-R4</f>
+        <v>3511692.6815237701</v>
+      </c>
+      <c r="R5" s="8">
+        <f>VLOOKUP(P5,A:I,9,)</f>
+        <v>3756910.4972957228</v>
+      </c>
+      <c r="S5" s="8">
+        <f>VLOOKUP(P5,A:J,10,)</f>
+        <v>3575030.9949550489</v>
+      </c>
+      <c r="T5" s="8">
+        <f>VLOOKUP(P5,A:K,11,)</f>
+        <v>-181879.50234067393</v>
+      </c>
+      <c r="U5" s="8">
+        <f>VLOOKUP(P5,A:L,12,)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="19">
+        <f>(S5-R5)/R5</f>
+        <v>-4.8411987049357008E-2</v>
+      </c>
+      <c r="W5" s="19">
+        <v>-4.5572950047727101E-2</v>
+      </c>
+      <c r="Y5" s="24">
+        <v>44925</v>
+      </c>
       <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
+      <c r="AA5" s="9">
+        <v>3575030.9949550489</v>
+      </c>
       <c r="AB5" s="17"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
@@ -34642,7 +35122,10 @@
       <c r="M6" s="9"/>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
-      <c r="AA6" s="20"/>
+      <c r="AA6" s="20">
+        <f>IRR(AA3:AA5)</f>
+        <v>-4.5572950047727101E-2</v>
+      </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="20"/>
@@ -35455,6 +35938,55 @@
         <v>144471.80386172561</v>
       </c>
       <c r="L22" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="12.75">
+      <c r="A23" s="12">
+        <v>44985</v>
+      </c>
+      <c r="B23" s="13">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C23" s="13">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D23" s="14">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>30.732980897288492</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="7"/>
+        <v>180130.89098694932</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="0"/>
+        <v>236082.42239213682</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="1"/>
+        <v>5367986.6743210936</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="2"/>
+        <v>4095773.8939387267</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="3"/>
+        <v>4084731.4122017911</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="4"/>
+        <v>4095773.8939387267</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="5"/>
+        <v>11042.481736935675</v>
+      </c>
+      <c r="L23" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -35475,7 +36007,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35692,6 +36224,16 @@
       <c r="AC3" s="16" t="s">
         <v>20</v>
       </c>
+      <c r="AE3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>245217.81577195294</v>
+      </c>
+      <c r="AG3" s="11">
+        <f>-AF3</f>
+        <v>-245217.81577195294</v>
+      </c>
     </row>
     <row r="4" spans="1:39" ht="14.1" customHeight="1">
       <c r="A4" s="12">
@@ -35788,9 +36330,16 @@
         <f>AG13</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
+      <c r="AE4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>3670080.3139454219</v>
+      </c>
+      <c r="AG4" s="9">
+        <f>-AF4</f>
+        <v>-3670080.3139454219</v>
+      </c>
       <c r="AH4" s="17"/>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="9"/>
@@ -35862,9 +36411,43 @@
       <c r="Q5" s="23"/>
       <c r="R5" s="23"/>
       <c r="S5" s="9"/>
-      <c r="AE5" s="17"/>
+      <c r="V5" s="24">
+        <v>44925</v>
+      </c>
+      <c r="W5" s="18">
+        <f ca="1">X5-X4</f>
+        <v>3670080.3139454219</v>
+      </c>
+      <c r="X5" s="8">
+        <f ca="1">VLOOKUP(V5,A:I,9,)</f>
+        <v>3915298.1297173747</v>
+      </c>
+      <c r="Y5" s="8">
+        <f ca="1">VLOOKUP(V5,A:J,10,)</f>
+        <v>3740636.8615977974</v>
+      </c>
+      <c r="Z5" s="8">
+        <f ca="1">VLOOKUP(V5,A:K,11,)</f>
+        <v>-174661.26811957732</v>
+      </c>
+      <c r="AA5" s="8">
+        <f ca="1">VLOOKUP(V5,A:L,12,)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="19">
+        <f t="shared" ref="AB5" ca="1" si="10">(Y5-X5)/X5</f>
+        <v>-4.4609953656884159E-2</v>
+      </c>
+      <c r="AC5" s="19">
+        <v>-4.2085065559351986E-2</v>
+      </c>
+      <c r="AE5" s="24">
+        <v>44925</v>
+      </c>
       <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
+      <c r="AG5" s="9">
+        <v>3740636.8615977974</v>
+      </c>
       <c r="AH5" s="17"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
@@ -35938,7 +36521,10 @@
       <c r="S6" s="9"/>
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
-      <c r="AG6" s="20"/>
+      <c r="AG6" s="20">
+        <f>IRR(AG3:AG5)</f>
+        <v>-4.2085065559351986E-2</v>
+      </c>
       <c r="AH6" s="9"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="20"/>
@@ -36561,7 +37147,7 @@
         <v>33.666137024579427</v>
       </c>
       <c r="E16" s="14">
-        <f t="shared" ref="E16:E22" ca="1" si="10">IF(C16&lt;D16,$E$2*(D16-C16)^2*U16,-$E$2*(D16-C16)^2*U16)</f>
+        <f t="shared" ref="E16:E23" ca="1" si="11">IF(C16&lt;D16,$E$2*(D16-C16)^2*U16,-$E$2*(D16-C16)^2*U16)</f>
         <v>212584.68508788882</v>
       </c>
       <c r="F16" s="15">
@@ -36605,27 +37191,27 @@
         <v>0.81933333476384484</v>
       </c>
       <c r="P16" s="23">
-        <f t="shared" ref="P16:P22" ca="1" si="11">SUM(O3:O16)/14</f>
+        <f t="shared" ref="P16:P23" ca="1" si="12">SUM(O3:O16)/14</f>
         <v>0.90447619064648954</v>
       </c>
       <c r="Q16" s="23">
-        <f t="shared" ref="Q16:Q22" ca="1" si="12">O16-P16</f>
+        <f t="shared" ref="Q16:Q23" ca="1" si="13">O16-P16</f>
         <v>-8.5142855882644697E-2</v>
       </c>
       <c r="R16" s="23">
-        <f t="shared" ref="R16:R22" ca="1" si="13">AVEDEV(O3:O16)</f>
+        <f t="shared" ref="R16:R23" ca="1" si="14">AVEDEV(O3:O16)</f>
         <v>9.2884351843879331E-2</v>
       </c>
       <c r="S16" s="9">
-        <f t="shared" ref="S16:S22" ca="1" si="14">0.015*R16</f>
+        <f t="shared" ref="S16:S23" ca="1" si="15">0.015*R16</f>
         <v>1.3932652776581899E-3</v>
       </c>
       <c r="T16" s="9">
-        <f t="shared" ref="T16:T22" ca="1" si="15">Q16/S16</f>
+        <f t="shared" ref="T16:T23" ca="1" si="16">Q16/S16</f>
         <v>-61.110297692736168</v>
       </c>
       <c r="U16" s="11">
-        <f t="shared" ref="U16:U22" ca="1" si="16">IF(AND(T16&gt;100,C16&gt;D16),1.2,IF(AND(T16&lt;-100,C16&lt;D16),1.2,1))</f>
+        <f t="shared" ref="U16:U23" ca="1" si="17">IF(AND(T16&gt;100,C16&gt;D16),1.2,IF(AND(T16&lt;-100,C16&lt;D16),1.2,1))</f>
         <v>1</v>
       </c>
     </row>
@@ -36646,35 +37232,35 @@
         <v>33.177616240465106</v>
       </c>
       <c r="E17" s="14">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>252649.34925635549</v>
       </c>
       <c r="F17" s="15">
-        <f t="shared" ref="F17:F22" ca="1" si="17">E17/B17</f>
+        <f t="shared" ref="F17:F23" ca="1" si="18">E17/B17</f>
         <v>330260.59343891655</v>
       </c>
       <c r="G17" s="15">
-        <f t="shared" ref="G17:G22" ca="1" si="18">G16+F17</f>
+        <f t="shared" ref="G17:G23" ca="1" si="19">G16+F17</f>
         <v>2966377.3661820074</v>
       </c>
       <c r="H17" s="15">
-        <f t="shared" ref="H17:H22" ca="1" si="19">G17*B17</f>
+        <f t="shared" ref="H17:H23" ca="1" si="20">G17*B17</f>
         <v>2269278.6426948672</v>
       </c>
       <c r="I17" s="15">
-        <f t="shared" ref="I17:I22" ca="1" si="20">IF(E17&gt;0,I16+E17,I16)</f>
+        <f t="shared" ref="I17:I23" ca="1" si="21">IF(E17&gt;0,I16+E17,I16)</f>
         <v>2363967.4431216232</v>
       </c>
       <c r="J17" s="15">
-        <f t="shared" ref="J17:J22" ca="1" si="21">H17+L17</f>
+        <f t="shared" ref="J17:J23" ca="1" si="22">H17+L17</f>
         <v>2269278.6426948672</v>
       </c>
       <c r="K17" s="15">
-        <f t="shared" ref="K17:K22" ca="1" si="22">J17-I17</f>
+        <f t="shared" ref="K17:K23" ca="1" si="23">J17-I17</f>
         <v>-94688.800426756032</v>
       </c>
       <c r="L17" s="14">
-        <f t="shared" ref="L17:L22" ca="1" si="23">IF(E17&lt;0,L16-E17,L16)</f>
+        <f t="shared" ref="L17:L23" ca="1" si="24">IF(E17&lt;0,L16-E17,L16)</f>
         <v>0</v>
       </c>
       <c r="M17" s="23">
@@ -36686,31 +37272,31 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="O17" s="23">
-        <f t="shared" ref="O17:O22" ca="1" si="24">(B17+M17+N17)/3</f>
+        <f t="shared" ref="O17:O23" ca="1" si="25">(B17+M17+N17)/3</f>
         <v>0.78500000635782874</v>
       </c>
       <c r="P17" s="23">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.88728571491014396</v>
       </c>
       <c r="Q17" s="23">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>-0.10228570855231522</v>
       </c>
       <c r="R17" s="23">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>9.2761902434485316E-2</v>
       </c>
       <c r="S17" s="9">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1.3914285365172797E-3</v>
       </c>
       <c r="T17" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>-73.511291358400982</v>
       </c>
       <c r="U17" s="11">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -36731,35 +37317,35 @@
         <v>32.640066271698615</v>
       </c>
       <c r="E18" s="14">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>476854.5674255176</v>
       </c>
       <c r="F18" s="15">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>685135.89245236234</v>
       </c>
       <c r="G18" s="15">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>3651513.2586343698</v>
       </c>
       <c r="H18" s="15">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>2541453.154880079</v>
       </c>
       <c r="I18" s="15">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2840822.0105471406</v>
       </c>
       <c r="J18" s="15">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>2541453.154880079</v>
       </c>
       <c r="K18" s="15">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>-299368.85566706164</v>
       </c>
       <c r="L18" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="M18" s="23">
@@ -36771,31 +37357,31 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="O18" s="23">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0.72199998299280799</v>
       </c>
       <c r="P18" s="23">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.86742857083820168</v>
       </c>
       <c r="Q18" s="23">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>-0.1454285878453937</v>
       </c>
       <c r="R18" s="23">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>9.561904966263543E-2</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1.4342857449395315E-3</v>
       </c>
       <c r="T18" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>-101.39443158972821</v>
       </c>
       <c r="U18" s="11">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1.2</v>
       </c>
     </row>
@@ -36816,35 +37402,35 @@
         <v>32.234420440393677</v>
       </c>
       <c r="E19" s="14">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>473471.22710439586</v>
       </c>
       <c r="F19" s="15">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>689186.67133516259</v>
       </c>
       <c r="G19" s="15">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>4340699.9299695324</v>
       </c>
       <c r="H19" s="15">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>2982060.7504685246</v>
       </c>
       <c r="I19" s="15">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>3314293.2376515362</v>
       </c>
       <c r="J19" s="15">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>2982060.7504685246</v>
       </c>
       <c r="K19" s="15">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>-332232.4871830116</v>
       </c>
       <c r="L19" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="M19" s="23">
@@ -36856,31 +37442,31 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="O19" s="23">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0.7023333112398783</v>
       </c>
       <c r="P19" s="23">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.84688095021247867</v>
       </c>
       <c r="Q19" s="23">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>-0.14454763897260037</v>
       </c>
       <c r="R19" s="23">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>9.5721091747283951E-2</v>
       </c>
       <c r="S19" s="9">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1.4358163762092592E-3</v>
       </c>
       <c r="T19" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>-100.67278892181521</v>
       </c>
       <c r="U19" s="11">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1.2</v>
       </c>
     </row>
@@ -36901,35 +37487,35 @@
         <v>31.717901224590552</v>
       </c>
       <c r="E20" s="14">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>313435.3189942778</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>435326.81463816349</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>4776026.7446076963</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>3438739.3927607625</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>3627728.5566458139</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>3438739.3927607625</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>-188989.16388505138</v>
       </c>
       <c r="L20" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="M20" s="23">
@@ -36941,31 +37527,31 @@
         <v>0.68400001525878906</v>
       </c>
       <c r="O20" s="23">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0.71633334954579675</v>
       </c>
       <c r="P20" s="23">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.82933333232289264</v>
       </c>
       <c r="Q20" s="23">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>-0.11299998277709589</v>
       </c>
       <c r="R20" s="23">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>9.1809525984485135E-2</v>
       </c>
       <c r="S20" s="9">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1.377142889767277E-3</v>
       </c>
       <c r="T20" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>-82.053927458603596</v>
       </c>
       <c r="U20" s="11">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -36986,35 +37572,35 @@
         <v>31.272433394847042</v>
       </c>
       <c r="E21" s="14">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>287569.57307156065</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>397744.9198539576</v>
       </c>
       <c r="G21" s="15">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>5173771.6644616537</v>
       </c>
       <c r="H21" s="15">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>3740636.8615977974</v>
       </c>
       <c r="I21" s="15">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>3915298.1297173747</v>
       </c>
       <c r="J21" s="15">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>3740636.8615977974</v>
       </c>
       <c r="K21" s="15">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>-174661.26811957732</v>
       </c>
       <c r="L21" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="M21" s="23">
@@ -37026,31 +37612,31 @@
         <v>0.7070000171661377</v>
       </c>
       <c r="O21" s="23">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0.72733332713445031</v>
       </c>
       <c r="P21" s="23">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.81135714196023478</v>
       </c>
       <c r="Q21" s="23">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>-8.4023814825784471E-2</v>
       </c>
       <c r="R21" s="23">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>8.2551026830867819E-2</v>
       </c>
       <c r="S21" s="9">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1.2382654024630172E-3</v>
       </c>
       <c r="T21" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>-67.856062729891207</v>
       </c>
       <c r="U21" s="11">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -37071,35 +37657,35 @@
         <v>31.014726063038534</v>
       </c>
       <c r="E22" s="14">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>147690.02391911903</v>
       </c>
       <c r="F22" s="15">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>187186.34809855712</v>
       </c>
       <c r="G22" s="15">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>5360958.0125602111</v>
       </c>
       <c r="H22" s="15">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>4229795.7364258952</v>
       </c>
       <c r="I22" s="15">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>4062988.1536364937</v>
       </c>
       <c r="J22" s="15">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>4229795.7364258952</v>
       </c>
       <c r="K22" s="15">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>166807.58278940152</v>
       </c>
       <c r="L22" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="M22" s="23">
@@ -37111,31 +37697,116 @@
         <v>0.7149999737739563</v>
       </c>
       <c r="O22" s="23">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.7713333169619242</v>
+      </c>
+      <c r="P22" s="23">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.79469047415824157</v>
+      </c>
+      <c r="Q22" s="23">
+        <f t="shared" ca="1" si="13"/>
+        <v>-2.3357157196317369E-2</v>
+      </c>
+      <c r="R22" s="23">
+        <f t="shared" ca="1" si="14"/>
+        <v>6.8931978981511113E-2</v>
+      </c>
+      <c r="S22" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.0339796847226666E-3</v>
+      </c>
+      <c r="T22" s="9">
+        <f t="shared" ca="1" si="16"/>
+        <v>-22.589570705716731</v>
+      </c>
+      <c r="U22" s="11">
+        <f t="shared" ca="1" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="12.75">
+      <c r="A23" s="12">
+        <v>44985</v>
+      </c>
+      <c r="B23" s="13">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C23" s="13">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D23" s="14">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>30.732980897288492</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" ca="1" si="11"/>
+        <v>180130.89098694932</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" ca="1" si="18"/>
+        <v>236082.42239213682</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" ca="1" si="19"/>
+        <v>5597040.4349523475</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" ca="1" si="20"/>
+        <v>4270541.9159216853</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" ca="1" si="21"/>
+        <v>4243119.0446234429</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" ca="1" si="22"/>
+        <v>4270541.9159216853</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" ca="1" si="23"/>
+        <v>27422.87129824236</v>
+      </c>
+      <c r="L23" s="14">
         <f t="shared" ca="1" si="24"/>
-        <v>0.7713333169619242</v>
-      </c>
-      <c r="P22" s="23">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.79469047415824157</v>
-      </c>
-      <c r="Q22" s="23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="23">
+        <f ca="1">MAX(VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A23,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="N23" s="23">
+        <f ca="1">MIN(VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A23,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="O23" s="23">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.77366665999094641</v>
+      </c>
+      <c r="P23" s="23">
         <f t="shared" ca="1" si="12"/>
-        <v>-2.3357157196317369E-2</v>
-      </c>
-      <c r="R22" s="23">
+        <v>0.77847618716103695</v>
+      </c>
+      <c r="Q23" s="23">
         <f t="shared" ca="1" si="13"/>
-        <v>6.8931978981511113E-2</v>
-      </c>
-      <c r="S22" s="9">
+        <v>-4.8095271700905329E-3</v>
+      </c>
+      <c r="R23" s="23">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0339796847226666E-3</v>
-      </c>
-      <c r="T22" s="9">
+        <v>5.2020414751403191E-2</v>
+      </c>
+      <c r="S23" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>-22.589570705716731</v>
-      </c>
-      <c r="U22" s="11">
+        <v>7.8030622127104785E-4</v>
+      </c>
+      <c r="T23" s="9">
         <f t="shared" ca="1" si="16"/>
+        <v>-6.163640682316041</v>
+      </c>
+      <c r="U23" s="11">
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -37155,7 +37826,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -37278,7 +37949,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F23" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="15">
@@ -37286,7 +37957,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H22" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H23" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -37294,11 +37965,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J22" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J23" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K22" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K23" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="14">
@@ -37336,6 +38007,16 @@
       </c>
       <c r="W3" s="16" t="s">
         <v>20</v>
+      </c>
+      <c r="Y3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>250495.57337637764</v>
+      </c>
+      <c r="AA3" s="11">
+        <f>-Z3</f>
+        <v>-250495.57337637764</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
@@ -37363,7 +38044,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" ref="G4:G22" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G23" si="4">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="15">
@@ -37371,7 +38052,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" ref="I4:I22" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I23" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="15">
@@ -37383,7 +38064,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="14">
-        <f t="shared" ref="L4:L22" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L23" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="9">
@@ -37391,7 +38072,7 @@
         <v>-53.501214932625707</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" ref="N4:N22" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
+        <f t="shared" ref="N4:N23" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
       <c r="P4" s="24">
@@ -37425,9 +38106,16 @@
         <f>V4</f>
         <v>1.1211071369971281E-2</v>
       </c>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
+      <c r="Y4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>3797025.2202809798</v>
+      </c>
+      <c r="AA4" s="9">
+        <f>-Z4</f>
+        <v>-3797025.2202809798</v>
+      </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
@@ -37452,7 +38140,7 @@
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E22" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^2*N5,-$E$2*(D5-C5)^2*N5)</f>
+        <f t="shared" ref="E5:E23" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^2*N5,-$E$2*(D5-C5)^2*N5)</f>
         <v>31666.545626548228</v>
       </c>
       <c r="F5" s="15">
@@ -37491,9 +38179,43 @@
         <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
-      <c r="Y5" s="17"/>
+      <c r="P5" s="24">
+        <v>44925</v>
+      </c>
+      <c r="Q5" s="18">
+        <f>R5-R4</f>
+        <v>3797025.2202809798</v>
+      </c>
+      <c r="R5" s="8">
+        <f>VLOOKUP(P5,A:I,9,)</f>
+        <v>4047520.7936573573</v>
+      </c>
+      <c r="S5" s="8">
+        <f>VLOOKUP(P5,A:J,10,)</f>
+        <v>3858225.9151582182</v>
+      </c>
+      <c r="T5" s="8">
+        <f>VLOOKUP(P5,A:K,11,)</f>
+        <v>-189294.8784991391</v>
+      </c>
+      <c r="U5" s="8">
+        <f>VLOOKUP(P5,A:L,12,)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="19">
+        <f t="shared" ref="V5" si="10">(S5-R5)/R5</f>
+        <v>-4.676810525489393E-2</v>
+      </c>
+      <c r="W5" s="19">
+        <v>-4.4156016867989423E-2</v>
+      </c>
+      <c r="Y5" s="24">
+        <v>44925</v>
+      </c>
       <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
+      <c r="AA5" s="9">
+        <v>3858225.9151582182</v>
+      </c>
       <c r="AB5" s="17"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
@@ -37559,7 +38281,10 @@
       </c>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
-      <c r="AA6" s="20"/>
+      <c r="AA6" s="20">
+        <f>IRR(AA3:AA5)</f>
+        <v>-4.4156016867989423E-2</v>
+      </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="20"/>
@@ -38488,6 +39213,63 @@
         <v>100.32182122410893</v>
       </c>
       <c r="N22" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="12.75">
+      <c r="A23" s="12">
+        <v>44985</v>
+      </c>
+      <c r="B23" s="13">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C23" s="13">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D23" s="14">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>30.732980897288492</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="9"/>
+        <v>180130.89098694932</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="0"/>
+        <v>236082.42239213682</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="4"/>
+        <v>5759680.8985609701</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="1"/>
+        <v>4394636.5915163374</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="5"/>
+        <v>4375341.7085634256</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="2"/>
+        <v>4394636.5915163374</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="3"/>
+        <v>19294.882952911779</v>
+      </c>
+      <c r="L23" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>-92.003912876830128</v>
+      </c>
+      <c r="N23" s="9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -38508,7 +39290,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38631,7 +39413,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F23" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="15">
@@ -38639,7 +39421,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H22" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H23" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -38647,11 +39429,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J22" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J23" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <f t="shared" ref="K3:K22" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K23" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="14">
@@ -38689,6 +39471,16 @@
       </c>
       <c r="W3" s="16" t="s">
         <v>20</v>
+      </c>
+      <c r="Y3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>919630.88726893254</v>
+      </c>
+      <c r="AA3" s="11">
+        <f>-Z3</f>
+        <v>-919630.88726893254</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
@@ -38716,7 +39508,7 @@
         <v>3932.3301809611858</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" ref="G4:G22" si="4">G3+F4</f>
+        <f t="shared" ref="G4:G23" si="4">G3+F4</f>
         <v>3932.3301809611858</v>
       </c>
       <c r="H4" s="15">
@@ -38724,7 +39516,7 @@
         <v>3955.9241620469529</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" ref="I4:I22" si="5">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I23" si="5">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3955.9241620469529</v>
       </c>
       <c r="J4" s="15">
@@ -38736,7 +39528,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="14">
-        <f t="shared" ref="L4:L22" si="6">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L23" si="6">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="9">
@@ -38744,7 +39536,7 @@
         <v>-53.501214932625707</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" ref="N4:N22" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
+        <f t="shared" ref="N4:N23" si="7">IF(AND(M4&gt;100,C4&gt;D4),1.2,IF(AND(M4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
       <c r="P4" s="24">
@@ -38778,9 +39570,16 @@
         <f>AA13</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
+      <c r="Y4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>34142279.472042665</v>
+      </c>
+      <c r="AA4" s="9">
+        <f>-Z4</f>
+        <v>-34142279.472042665</v>
+      </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
@@ -38805,7 +39604,7 @@
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E22" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^3*N5,$E$2*(D5-C5)^3*N5)</f>
+        <f t="shared" ref="E5:E23" si="9">IF(C5&lt;D5,$E$2*(D5-C5)^3*N5,$E$2*(D5-C5)^3*N5)</f>
         <v>81848.714902699052</v>
       </c>
       <c r="F5" s="15">
@@ -38844,9 +39643,43 @@
         <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
-      <c r="Y5" s="17"/>
+      <c r="P5" s="24">
+        <v>44925</v>
+      </c>
+      <c r="Q5" s="18">
+        <f>R5-R4</f>
+        <v>34142279.472042665</v>
+      </c>
+      <c r="R5" s="8">
+        <f>VLOOKUP(P5,A:I,9,)</f>
+        <v>35061910.359311596</v>
+      </c>
+      <c r="S5" s="8">
+        <f>VLOOKUP(P5,A:J,10,)</f>
+        <v>34032608.133750223</v>
+      </c>
+      <c r="T5" s="8">
+        <f>VLOOKUP(P5,A:K,11,)</f>
+        <v>-1029302.2255613729</v>
+      </c>
+      <c r="U5" s="8">
+        <f>VLOOKUP(P5,A:L,12,)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="19">
+        <f t="shared" ref="V5" si="10">(S5-R5)/R5</f>
+        <v>-2.9356706893981753E-2</v>
+      </c>
+      <c r="W5" s="19">
+        <v>-2.862734196784178E-2</v>
+      </c>
+      <c r="Y5" s="24">
+        <v>44925</v>
+      </c>
       <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
+      <c r="AA5" s="9">
+        <v>34032608.133750223</v>
+      </c>
       <c r="AB5" s="17"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
@@ -38912,7 +39745,10 @@
       </c>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
-      <c r="AA6" s="20"/>
+      <c r="AA6" s="20">
+        <f>IRR(AA3:AA5)</f>
+        <v>-2.862734196784178E-2</v>
+      </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="20"/>
@@ -39841,6 +40677,63 @@
         <v>100.32182122410893</v>
       </c>
       <c r="N22" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="12.75">
+      <c r="A23" s="12">
+        <v>44985</v>
+      </c>
+      <c r="B23" s="13">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C23" s="13">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D23" s="14">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>30.732980897288492</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="9"/>
+        <v>1216420.548706634</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="0"/>
+        <v>1594260.1971976068</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="4"/>
+        <v>49810234.706238389</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="1"/>
+        <v>38005209.650892787</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="5"/>
+        <v>37181415.002649464</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="2"/>
+        <v>38005209.650892787</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="3"/>
+        <v>823794.64824332297</v>
+      </c>
+      <c r="L23" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>-92.003912876830128</v>
+      </c>
+      <c r="N23" s="9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -39861,9 +40754,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI22"/>
+  <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -40000,7 +40893,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H22" si="0">G3/B3</f>
+        <f t="shared" ref="H3:H23" si="0">G3/B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -40008,7 +40901,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J22" si="1">I3*B3</f>
+        <f t="shared" ref="J3:J23" si="1">I3*B3</f>
         <v>0</v>
       </c>
       <c r="K3" s="15">
@@ -40016,11 +40909,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="15">
-        <f t="shared" ref="L3:L22" si="2">J3+N3</f>
+        <f t="shared" ref="L3:L23" si="2">J3+N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="15">
-        <f t="shared" ref="M3:M22" si="3">L3-K3</f>
+        <f t="shared" ref="M3:M23" si="3">L3-K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="14">
@@ -40058,6 +40951,16 @@
       </c>
       <c r="Y3" s="16" t="s">
         <v>20</v>
+      </c>
+      <c r="AA3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AB3" s="11">
+        <v>181466.76336656811</v>
+      </c>
+      <c r="AC3" s="11">
+        <f>-AB3</f>
+        <v>-181466.76336656811</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1">
@@ -40093,7 +40996,7 @@
         <v>1049.4536589575841</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" ref="I4:I22" si="4">I3+H4</f>
+        <f t="shared" ref="I4:I23" si="4">I3+H4</f>
         <v>1049.4536589575841</v>
       </c>
       <c r="J4" s="15">
@@ -40101,7 +41004,7 @@
         <v>1055.7503809113296</v>
       </c>
       <c r="K4" s="15">
-        <f t="shared" ref="K4:K22" si="5">IF(G4&gt;0,K3+G4,K3)</f>
+        <f t="shared" ref="K4:K23" si="5">IF(G4&gt;0,K3+G4,K3)</f>
         <v>1055.7503809113296</v>
       </c>
       <c r="L4" s="15">
@@ -40113,7 +41016,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" ref="N4:N22" si="6">IF(G4&lt;0,N3-G4,N3)</f>
+        <f t="shared" ref="N4:N23" si="6">IF(G4&lt;0,N3-G4,N3)</f>
         <v>0</v>
       </c>
       <c r="O4" s="9">
@@ -40121,7 +41024,7 @@
         <v>-53.501214932625707</v>
       </c>
       <c r="P4" s="9">
-        <f t="shared" ref="P4:P22" si="7">IF(AND(O4&gt;100,C4&gt;D4),1.2,IF(AND(O4&lt;-100,C4&lt;D4),1.2,1))</f>
+        <f t="shared" ref="P4:P23" si="7">IF(AND(O4&gt;100,C4&gt;D4),1.2,IF(AND(O4&lt;-100,C4&lt;D4),1.2,1))</f>
         <v>1</v>
       </c>
       <c r="R4" s="24">
@@ -40155,9 +41058,16 @@
         <f>AC13</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
+      <c r="AA4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>11764183.069249377</v>
+      </c>
+      <c r="AC4" s="9">
+        <f>-AB4</f>
+        <v>-11764183.069249377</v>
+      </c>
       <c r="AD4" s="17"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
@@ -40190,7 +41100,7 @@
         <v>21490456.638297871</v>
       </c>
       <c r="G5" s="14">
-        <f t="shared" ref="G5:G22" si="9">IF(C5&lt;D5,$G$2*(D5-C5)^3*P5*E5/F5,$G$2*(D5-C5)^3*P5*E5/F5)</f>
+        <f t="shared" ref="G5:G23" si="9">IF(C5&lt;D5,$G$2*(D5-C5)^3*P5*E5/F5,$G$2*(D5-C5)^3*P5*E5/F5)</f>
         <v>16983.872079062337</v>
       </c>
       <c r="H5" s="15">
@@ -40229,9 +41139,43 @@
         <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
-      <c r="AA5" s="17"/>
+      <c r="R5" s="24">
+        <v>44925</v>
+      </c>
+      <c r="S5" s="18">
+        <f>T5-T4</f>
+        <v>11764183.069249377</v>
+      </c>
+      <c r="T5" s="8">
+        <f>VLOOKUP(R5,A:K,11,)</f>
+        <v>11945649.832615945</v>
+      </c>
+      <c r="U5" s="8">
+        <f>VLOOKUP(R5,A:L,12,)</f>
+        <v>11852197.665036507</v>
+      </c>
+      <c r="V5" s="8">
+        <f>VLOOKUP(R5,A:M,13,)</f>
+        <v>-93452.167579438537</v>
+      </c>
+      <c r="W5" s="8">
+        <f>VLOOKUP(R5,A:N,14,)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="19">
+        <f t="shared" ref="X5" si="10">(U5-T5)/T5</f>
+        <v>-7.8231129230224312E-3</v>
+      </c>
+      <c r="Y5" s="19">
+        <v>-7.7069388592168053E-3</v>
+      </c>
+      <c r="AA5" s="24">
+        <v>44925</v>
+      </c>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
+      <c r="AC5" s="9">
+        <v>11852197.665036507</v>
+      </c>
       <c r="AD5" s="17"/>
       <c r="AE5" s="9"/>
       <c r="AF5" s="9"/>
@@ -40305,7 +41249,10 @@
       </c>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
-      <c r="AC6" s="20"/>
+      <c r="AC6" s="20">
+        <f>IRR(AC3:AC5)</f>
+        <v>-7.7069388592168053E-3</v>
+      </c>
       <c r="AD6" s="9"/>
       <c r="AE6" s="9"/>
       <c r="AF6" s="20"/>
@@ -41362,6 +42309,71 @@
         <v>100.32182122410893</v>
       </c>
       <c r="P22" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="12.75">
+      <c r="A23" s="12">
+        <v>44985</v>
+      </c>
+      <c r="B23" s="13">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C23" s="13">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D23" s="14">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>30.732980897288492</v>
+      </c>
+      <c r="E23" s="14">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$F,6)</f>
+        <v>699600</v>
+      </c>
+      <c r="F23" s="14">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$I,9)</f>
+        <v>4885493.1924261088</v>
+      </c>
+      <c r="G23" s="14">
+        <f t="shared" si="9"/>
+        <v>174190.76894722995</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="0"/>
+        <v>228297.20358397876</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="4"/>
+        <v>17163503.669437684</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="1"/>
+        <v>13095753.496201664</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="5"/>
+        <v>12547577.289931525</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" si="2"/>
+        <v>13095753.496201664</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="3"/>
+        <v>548176.20627013966</v>
+      </c>
+      <c r="N23" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>-92.003912876830128</v>
+      </c>
+      <c r="P23" s="9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model4(1)" sheetId="9" r:id="rId1"/>
@@ -180,7 +180,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,7 +505,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1072,11 +1071,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71263360"/>
-        <c:axId val="80151680"/>
+        <c:axId val="134358912"/>
+        <c:axId val="134360448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="71263360"/>
+        <c:axId val="134358912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,14 +1118,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80151680"/>
+        <c:crossAx val="134360448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80151680"/>
+        <c:axId val="134360448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,7 +1176,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71263360"/>
+        <c:crossAx val="134358912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1191,7 +1190,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1414,8 +1412,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="80991744"/>
-        <c:axId val="80990208"/>
+        <c:axId val="136023040"/>
+        <c:axId val="136021504"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1591,11 +1589,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80986880"/>
-        <c:axId val="80988416"/>
+        <c:axId val="136014080"/>
+        <c:axId val="136019968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80986880"/>
+        <c:axId val="136014080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,14 +1636,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80988416"/>
+        <c:crossAx val="136019968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80988416"/>
+        <c:axId val="136019968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1696,12 +1694,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80986880"/>
+        <c:crossAx val="136014080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80990208"/>
+        <c:axId val="136021504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1738,12 +1736,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80991744"/>
+        <c:crossAx val="136023040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="80991744"/>
+        <c:axId val="136023040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,7 +1750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80990208"/>
+        <c:crossAx val="136021504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1960,8 +1958,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="264011776"/>
-        <c:axId val="82258560"/>
+        <c:axId val="134403200"/>
+        <c:axId val="134397312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2137,11 +2135,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80940416"/>
-        <c:axId val="82257024"/>
+        <c:axId val="134394240"/>
+        <c:axId val="134395776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80940416"/>
+        <c:axId val="134394240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2184,14 +2182,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82257024"/>
+        <c:crossAx val="134395776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="82257024"/>
+        <c:axId val="134395776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,12 +2240,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80940416"/>
+        <c:crossAx val="134394240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82258560"/>
+        <c:axId val="134397312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2284,12 +2282,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264011776"/>
+        <c:crossAx val="134403200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="264011776"/>
+        <c:axId val="134403200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2298,7 +2296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82258560"/>
+        <c:crossAx val="134397312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2391,6 +2389,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2957,11 +2956,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="478348800"/>
-        <c:axId val="478350336"/>
+        <c:axId val="135468544"/>
+        <c:axId val="135470080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="478348800"/>
+        <c:axId val="135468544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3004,14 +3003,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478350336"/>
+        <c:crossAx val="135470080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="478350336"/>
+        <c:axId val="135470080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3062,7 +3061,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478348800"/>
+        <c:crossAx val="135468544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3076,6 +3075,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3187,6 +3187,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3298,8 +3299,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="509874176"/>
-        <c:axId val="499689728"/>
+        <c:axId val="135516928"/>
+        <c:axId val="135511040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3475,11 +3476,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499270784"/>
-        <c:axId val="499688192"/>
+        <c:axId val="135507968"/>
+        <c:axId val="135509504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499270784"/>
+        <c:axId val="135507968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3522,14 +3523,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499688192"/>
+        <c:crossAx val="135509504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="499688192"/>
+        <c:axId val="135509504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3580,12 +3581,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499270784"/>
+        <c:crossAx val="135507968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="499689728"/>
+        <c:axId val="135511040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3622,12 +3623,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509874176"/>
+        <c:crossAx val="135516928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="509874176"/>
+        <c:axId val="135516928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3636,7 +3637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499689728"/>
+        <c:crossAx val="135511040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3729,7 +3730,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4296,11 +4296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="560081536"/>
-        <c:axId val="578421120"/>
+        <c:axId val="135660672"/>
+        <c:axId val="135662208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="560081536"/>
+        <c:axId val="135660672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4343,14 +4343,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578421120"/>
+        <c:crossAx val="135662208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="578421120"/>
+        <c:axId val="135662208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4401,7 +4401,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560081536"/>
+        <c:crossAx val="135660672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4415,7 +4415,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4638,8 +4637,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="80541952"/>
-        <c:axId val="80540416"/>
+        <c:axId val="135267072"/>
+        <c:axId val="135715840"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4815,11 +4814,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80537088"/>
-        <c:axId val="80538624"/>
+        <c:axId val="135712768"/>
+        <c:axId val="135714304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80537088"/>
+        <c:axId val="135712768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4862,14 +4861,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80538624"/>
+        <c:crossAx val="135714304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80538624"/>
+        <c:axId val="135714304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4920,12 +4919,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80537088"/>
+        <c:crossAx val="135712768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80540416"/>
+        <c:axId val="135715840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4962,12 +4961,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80541952"/>
+        <c:crossAx val="135267072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="80541952"/>
+        <c:axId val="135267072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4976,7 +4975,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80540416"/>
+        <c:crossAx val="135715840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5069,7 +5068,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5636,11 +5634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80886400"/>
-        <c:axId val="80892288"/>
+        <c:axId val="135312128"/>
+        <c:axId val="135313664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80886400"/>
+        <c:axId val="135312128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5683,14 +5681,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80892288"/>
+        <c:crossAx val="135313664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80892288"/>
+        <c:axId val="135313664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5741,7 +5739,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80886400"/>
+        <c:crossAx val="135312128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5755,7 +5753,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5978,8 +5975,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="80906112"/>
-        <c:axId val="80904576"/>
+        <c:axId val="135372160"/>
+        <c:axId val="135370624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6155,11 +6152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80901248"/>
-        <c:axId val="80902784"/>
+        <c:axId val="135363200"/>
+        <c:axId val="135369088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80901248"/>
+        <c:axId val="135363200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6202,14 +6199,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80902784"/>
+        <c:crossAx val="135369088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80902784"/>
+        <c:axId val="135369088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6260,12 +6257,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80901248"/>
+        <c:crossAx val="135363200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80904576"/>
+        <c:axId val="135370624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6302,12 +6299,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80906112"/>
+        <c:crossAx val="135372160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="80906112"/>
+        <c:axId val="135372160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6316,7 +6313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80904576"/>
+        <c:crossAx val="135370624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6976,11 +6973,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80967936"/>
-        <c:axId val="80969728"/>
+        <c:axId val="135450624"/>
+        <c:axId val="135452160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80967936"/>
+        <c:axId val="135450624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7023,14 +7020,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80969728"/>
+        <c:crossAx val="135452160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80969728"/>
+        <c:axId val="135452160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7081,7 +7078,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80967936"/>
+        <c:crossAx val="135450624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7802,7 +7799,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -7834,7 +7831,7 @@
     <col min="32" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
@@ -7873,7 +7870,7 @@
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:33" ht="14.1" customHeight="1">
+    <row r="2" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -7893,7 +7890,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:33" ht="14.1" customHeight="1">
+    <row r="3" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -7966,7 +7963,7 @@
         <v>-245217.81577195294</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="14.1" customHeight="1">
+    <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -8052,7 +8049,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
     </row>
-    <row r="5" spans="1:33" ht="14.1" customHeight="1">
+    <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -8134,7 +8131,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
     </row>
-    <row r="6" spans="1:33" ht="14.1" customHeight="1">
+    <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -8183,7 +8180,7 @@
       <c r="AD6" s="20"/>
       <c r="AE6" s="17"/>
     </row>
-    <row r="7" spans="1:33" ht="14.1" customHeight="1">
+    <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -8226,7 +8223,7 @@
       <c r="AA7" s="9"/>
       <c r="AG7" s="10"/>
     </row>
-    <row r="8" spans="1:33" ht="14.1" customHeight="1">
+    <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -8265,7 +8262,7 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:33" ht="14.1" customHeight="1">
+    <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -8307,7 +8304,7 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:33" ht="14.1" customHeight="1">
+    <row r="10" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -8349,7 +8346,7 @@
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="1:33" ht="14.1" customHeight="1">
+    <row r="11" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -8391,7 +8388,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:33" ht="14.1" customHeight="1">
+    <row r="12" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -8431,7 +8428,7 @@
       <c r="M12" s="9"/>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" spans="1:33" ht="14.1" customHeight="1">
+    <row r="13" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -8471,7 +8468,7 @@
       <c r="M13" s="9"/>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="1:33" ht="14.1" customHeight="1">
+    <row r="14" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -8510,7 +8507,7 @@
       </c>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:33" ht="14.1" customHeight="1">
+    <row r="15" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -8549,7 +8546,7 @@
       </c>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:33" ht="14.1" customHeight="1">
+    <row r="16" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -8588,7 +8585,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1">
+    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -8627,7 +8624,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" ht="14.1" customHeight="1">
+    <row r="18" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -8666,7 +8663,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" ht="12.75">
+    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -8704,7 +8701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12.75">
+    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -8742,7 +8739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12.75">
+    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -8780,7 +8777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.75">
+    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -8818,7 +8815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="12.75">
+    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>44985</v>
       </c>
@@ -8872,14 +8869,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -8911,7 +8908,7 @@
     <col min="38" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
@@ -8976,7 +8973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="14.1" customHeight="1">
+    <row r="2" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -9002,7 +8999,7 @@
       <c r="R2" s="22"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:39" ht="14.1" customHeight="1">
+    <row r="3" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -9087,7 +9084,7 @@
         <v>-245217.81577195294</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="14.1" customHeight="1">
+    <row r="4" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -9185,7 +9182,7 @@
       <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
     </row>
-    <row r="5" spans="1:39" ht="14.1" customHeight="1">
+    <row r="5" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -9279,7 +9276,7 @@
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
     </row>
-    <row r="6" spans="1:39" ht="14.1" customHeight="1">
+    <row r="6" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -9340,7 +9337,7 @@
       <c r="AJ6" s="20"/>
       <c r="AK6" s="17"/>
     </row>
-    <row r="7" spans="1:39" ht="14.1" customHeight="1">
+    <row r="7" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -9395,7 +9392,7 @@
       <c r="AG7" s="9"/>
       <c r="AM7" s="10"/>
     </row>
-    <row r="8" spans="1:39" ht="14.1" customHeight="1">
+    <row r="8" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -9446,7 +9443,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="9"/>
     </row>
-    <row r="9" spans="1:39" ht="14.1" customHeight="1">
+    <row r="9" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -9500,7 +9497,7 @@
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
     </row>
-    <row r="10" spans="1:39" ht="14.1" customHeight="1">
+    <row r="10" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -9554,7 +9551,7 @@
       <c r="AF10" s="9"/>
       <c r="AG10" s="9"/>
     </row>
-    <row r="11" spans="1:39" ht="14.1" customHeight="1">
+    <row r="11" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -9608,7 +9605,7 @@
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
     </row>
-    <row r="12" spans="1:39" ht="14.1" customHeight="1">
+    <row r="12" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -9660,7 +9657,7 @@
       <c r="S12" s="9"/>
       <c r="AE12" s="17"/>
     </row>
-    <row r="13" spans="1:39" ht="14.1" customHeight="1">
+    <row r="13" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -9712,7 +9709,7 @@
       <c r="S13" s="9"/>
       <c r="AG13" s="10"/>
     </row>
-    <row r="14" spans="1:39" ht="14.1" customHeight="1">
+    <row r="14" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -9763,7 +9760,7 @@
       <c r="R14" s="23"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:39" ht="14.1" customHeight="1">
+    <row r="15" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -9814,7 +9811,7 @@
       <c r="R15" s="23"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="1:39" ht="14.1" customHeight="1">
+    <row r="16" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -9879,7 +9876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.1" customHeight="1">
+    <row r="17" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -9944,7 +9941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.1" customHeight="1">
+    <row r="18" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -10009,7 +10006,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="12.75">
+    <row r="19" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -10074,7 +10071,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="12.75">
+    <row r="20" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -10139,7 +10136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="12.75">
+    <row r="21" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -10204,7 +10201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="12.75">
+    <row r="22" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -10269,7 +10266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="12.75">
+    <row r="23" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>44985</v>
       </c>
@@ -10332,12 +10329,6 @@
       </c>
       <c r="U23" s="11">
         <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="U24" s="11" t="e">
-        <f>IF(AND(#REF!&gt;100,#REF!&gt;#REF!),1.2,IF(AND(#REF!&lt;-100,#REF!&lt;#REF!),1.2,1))</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -10363,7 +10354,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -10395,7 +10386,7 @@
     <col min="32" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
@@ -10439,7 +10430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="14.1" customHeight="1">
+    <row r="2" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -10459,7 +10450,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:33" ht="14.1" customHeight="1">
+    <row r="3" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -10537,7 +10528,7 @@
         <v>-250495.57337637764</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="14.1" customHeight="1">
+    <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -10628,7 +10619,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
     </row>
-    <row r="5" spans="1:33" ht="14.1" customHeight="1">
+    <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -10715,7 +10706,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
     </row>
-    <row r="6" spans="1:33" ht="14.1" customHeight="1">
+    <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -10769,7 +10760,7 @@
       <c r="AD6" s="20"/>
       <c r="AE6" s="17"/>
     </row>
-    <row r="7" spans="1:33" ht="14.1" customHeight="1">
+    <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -10817,7 +10808,7 @@
       <c r="AA7" s="9"/>
       <c r="AG7" s="10"/>
     </row>
-    <row r="8" spans="1:33" ht="14.1" customHeight="1">
+    <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -10861,7 +10852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="14.1" customHeight="1">
+    <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -10908,7 +10899,7 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:33" ht="14.1" customHeight="1">
+    <row r="10" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -10955,7 +10946,7 @@
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="1:33" ht="14.1" customHeight="1">
+    <row r="11" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -11002,7 +10993,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:33" ht="14.1" customHeight="1">
+    <row r="12" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -11047,7 +11038,7 @@
       </c>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" spans="1:33" ht="14.1" customHeight="1">
+    <row r="13" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -11092,7 +11083,7 @@
       </c>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="1:33" ht="14.1" customHeight="1">
+    <row r="14" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -11136,7 +11127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="14.1" customHeight="1">
+    <row r="15" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -11180,7 +11171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="14.1" customHeight="1">
+    <row r="16" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -11224,7 +11215,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.1" customHeight="1">
+    <row r="17" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -11268,7 +11259,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.1" customHeight="1">
+    <row r="18" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -11312,7 +11303,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="12.75">
+    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -11356,7 +11347,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="12.75">
+    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -11400,7 +11391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="12.75">
+    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -11444,7 +11435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="12.75">
+    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -11488,7 +11479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="12.75">
+    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>44985</v>
       </c>
@@ -11555,7 +11546,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -11587,7 +11578,7 @@
     <col min="32" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
@@ -11631,7 +11622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="14.1" customHeight="1">
+    <row r="2" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -11651,7 +11642,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:33" ht="14.1" customHeight="1">
+    <row r="3" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -11729,7 +11720,7 @@
         <v>-919630.88726893254</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="14.1" customHeight="1">
+    <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -11820,7 +11811,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
     </row>
-    <row r="5" spans="1:33" ht="14.1" customHeight="1">
+    <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -11907,7 +11898,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
     </row>
-    <row r="6" spans="1:33" ht="14.1" customHeight="1">
+    <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -11961,7 +11952,7 @@
       <c r="AD6" s="20"/>
       <c r="AE6" s="17"/>
     </row>
-    <row r="7" spans="1:33" ht="14.1" customHeight="1">
+    <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -12009,7 +12000,7 @@
       <c r="AA7" s="9"/>
       <c r="AG7" s="10"/>
     </row>
-    <row r="8" spans="1:33" ht="14.1" customHeight="1">
+    <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -12053,7 +12044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="14.1" customHeight="1">
+    <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -12100,7 +12091,7 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:33" ht="14.1" customHeight="1">
+    <row r="10" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -12147,7 +12138,7 @@
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="1:33" ht="14.1" customHeight="1">
+    <row r="11" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -12194,7 +12185,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:33" ht="14.1" customHeight="1">
+    <row r="12" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -12239,7 +12230,7 @@
       </c>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" spans="1:33" ht="14.1" customHeight="1">
+    <row r="13" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -12284,7 +12275,7 @@
       </c>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="1:33" ht="14.1" customHeight="1">
+    <row r="14" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -12328,7 +12319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="14.1" customHeight="1">
+    <row r="15" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -12372,7 +12363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="14.1" customHeight="1">
+    <row r="16" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -12416,7 +12407,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.1" customHeight="1">
+    <row r="17" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -12460,7 +12451,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.1" customHeight="1">
+    <row r="18" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -12504,7 +12495,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="12.75">
+    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -12548,7 +12539,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="12.75">
+    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -12592,7 +12583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="12.75">
+    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -12636,7 +12627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="12.75">
+    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -12680,7 +12671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="12.75">
+    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>44985</v>
       </c>
@@ -12742,12 +12733,12 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -12779,7 +12770,7 @@
     <col min="34" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
@@ -12829,7 +12820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="14.1" customHeight="1">
+    <row r="2" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -12851,7 +12842,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:35" ht="14.1" customHeight="1">
+    <row r="3" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -12935,7 +12926,7 @@
         <v>-181466.76336656811</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="14.1" customHeight="1">
+    <row r="4" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -13032,7 +13023,7 @@
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
     </row>
-    <row r="5" spans="1:35" ht="14.1" customHeight="1">
+    <row r="5" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -13125,7 +13116,7 @@
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
     </row>
-    <row r="6" spans="1:35" ht="14.1" customHeight="1">
+    <row r="6" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -13185,7 +13176,7 @@
       <c r="AF6" s="20"/>
       <c r="AG6" s="17"/>
     </row>
-    <row r="7" spans="1:35" ht="14.1" customHeight="1">
+    <row r="7" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -13239,7 +13230,7 @@
       <c r="AC7" s="9"/>
       <c r="AI7" s="10"/>
     </row>
-    <row r="8" spans="1:35" ht="14.1" customHeight="1">
+    <row r="8" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -13289,7 +13280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="14.1" customHeight="1">
+    <row r="9" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -13342,7 +13333,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
     </row>
-    <row r="10" spans="1:35" ht="14.1" customHeight="1">
+    <row r="10" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -13395,7 +13386,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
     </row>
-    <row r="11" spans="1:35" ht="14.1" customHeight="1">
+    <row r="11" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -13448,7 +13439,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
     </row>
-    <row r="12" spans="1:35" ht="14.1" customHeight="1">
+    <row r="12" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -13499,7 +13490,7 @@
       </c>
       <c r="AA12" s="17"/>
     </row>
-    <row r="13" spans="1:35" ht="14.1" customHeight="1">
+    <row r="13" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -13550,7 +13541,7 @@
       </c>
       <c r="AC13" s="10"/>
     </row>
-    <row r="14" spans="1:35" ht="14.1" customHeight="1">
+    <row r="14" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -13600,7 +13591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="14.1" customHeight="1">
+    <row r="15" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -13650,7 +13641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="14.1" customHeight="1">
+    <row r="16" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -13700,7 +13691,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.1" customHeight="1">
+    <row r="17" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -13750,7 +13741,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -13800,7 +13791,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="12.75">
+    <row r="19" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -13850,7 +13841,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="12.75">
+    <row r="20" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -13900,7 +13891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="12.75">
+    <row r="21" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -13950,7 +13941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="12.75">
+    <row r="22" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -14000,7 +13991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="12.75">
+    <row r="23" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>44985</v>
       </c>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="model4(1)" sheetId="9" r:id="rId1"/>
@@ -180,7 +180,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +505,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -561,7 +562,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -624,6 +625,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -633,7 +637,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -696,6 +700,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4084731.4122017911</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4238408.0789196044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,7 +745,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -801,6 +808,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,7 +820,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -873,6 +883,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4095773.8939387267</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4292394.5410793964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,7 +928,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -978,6 +991,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,7 +1003,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1050,6 +1066,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>11042.481736935675</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53986.462159791961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,11 +1090,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="134358912"/>
-        <c:axId val="134360448"/>
+        <c:axId val="368923008"/>
+        <c:axId val="368926080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="134358912"/>
+        <c:axId val="368923008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,14 +1137,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134360448"/>
+        <c:crossAx val="368926080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="134360448"/>
+        <c:axId val="368926080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,7 +1195,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134358912"/>
+        <c:crossAx val="368923008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1190,6 +1209,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1335,7 +1355,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1398,6 +1418,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>174190.76894722995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>338455.28337654838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1412,8 +1435,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="136023040"/>
-        <c:axId val="136021504"/>
+        <c:axId val="574198912"/>
+        <c:axId val="574193024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1438,7 +1461,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1501,6 +1524,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1510,7 +1536,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1573,6 +1599,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7630000114440918</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77100002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,11 +1618,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136014080"/>
-        <c:axId val="136019968"/>
+        <c:axId val="574189952"/>
+        <c:axId val="574191488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="136014080"/>
+        <c:axId val="574189952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,14 +1665,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136019968"/>
+        <c:crossAx val="574191488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="136019968"/>
+        <c:axId val="574191488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,12 +1723,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136014080"/>
+        <c:crossAx val="574189952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136021504"/>
+        <c:axId val="574193024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1736,12 +1765,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136023040"/>
+        <c:crossAx val="574198912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="136023040"/>
+        <c:axId val="574198912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,7 +1779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136021504"/>
+        <c:crossAx val="574193024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1881,7 +1910,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1944,6 +1973,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>180130.89098694932</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>153676.66671781347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1958,8 +1990,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="134403200"/>
-        <c:axId val="134397312"/>
+        <c:axId val="473733376"/>
+        <c:axId val="473731840"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1984,7 +2016,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2047,6 +2079,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2056,7 +2091,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2119,6 +2154,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7630000114440918</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77100002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2135,11 +2173,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="134394240"/>
-        <c:axId val="134395776"/>
+        <c:axId val="473465600"/>
+        <c:axId val="473467520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="134394240"/>
+        <c:axId val="473465600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,14 +2220,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134395776"/>
+        <c:crossAx val="473467520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="134395776"/>
+        <c:axId val="473467520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,12 +2278,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134394240"/>
+        <c:crossAx val="473465600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134397312"/>
+        <c:axId val="473731840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2282,12 +2320,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134403200"/>
+        <c:crossAx val="473733376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="134403200"/>
+        <c:axId val="473733376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2296,7 +2334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134397312"/>
+        <c:crossAx val="473731840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2389,7 +2427,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2446,7 +2483,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2509,6 +2546,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2518,7 +2558,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2581,6 +2621,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4243119.0446234429</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4396795.7113412563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2623,7 +2666,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2686,6 +2729,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2695,7 +2741,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2758,6 +2804,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4270541.9159216853</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4468994.9968609307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2800,7 +2849,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2863,6 +2912,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,7 +2924,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2935,6 +2987,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>27422.87129824236</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>72199.28551967442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2956,11 +3011,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="135468544"/>
-        <c:axId val="135470080"/>
+        <c:axId val="643613440"/>
+        <c:axId val="643614976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="135468544"/>
+        <c:axId val="643613440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3003,14 +3058,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135470080"/>
+        <c:crossAx val="643614976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="135470080"/>
+        <c:axId val="643614976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3061,7 +3116,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135468544"/>
+        <c:crossAx val="643613440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3075,7 +3130,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3187,7 +3241,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3222,7 +3275,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3285,6 +3338,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>180130.89098694932</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>153676.66671781347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3299,8 +3355,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="135516928"/>
-        <c:axId val="135511040"/>
+        <c:axId val="670374144"/>
+        <c:axId val="670372608"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3325,7 +3381,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3388,6 +3444,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3397,7 +3456,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3460,6 +3519,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7630000114440918</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77100002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3476,11 +3538,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="135507968"/>
-        <c:axId val="135509504"/>
+        <c:axId val="670347264"/>
+        <c:axId val="670349184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="135507968"/>
+        <c:axId val="670347264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3523,14 +3585,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135509504"/>
+        <c:crossAx val="670349184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="135509504"/>
+        <c:axId val="670349184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3581,12 +3643,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135507968"/>
+        <c:crossAx val="670347264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135511040"/>
+        <c:axId val="670372608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3623,12 +3685,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135516928"/>
+        <c:crossAx val="670374144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="135516928"/>
+        <c:axId val="670374144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3637,7 +3699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135511040"/>
+        <c:crossAx val="670372608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3730,6 +3792,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3786,7 +3849,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3849,6 +3912,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3858,7 +3924,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3921,6 +3987,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4375341.7085634256</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4529018.3752812389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3963,7 +4032,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4026,6 +4095,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4035,7 +4107,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4098,6 +4170,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4394636.5915163374</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4594390.7988012535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4140,7 +4215,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4203,6 +4278,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4212,7 +4290,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4275,6 +4353,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>19294.882952911779</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>65372.423520014621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4296,11 +4377,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="135660672"/>
-        <c:axId val="135662208"/>
+        <c:axId val="572902016"/>
+        <c:axId val="572912000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="135660672"/>
+        <c:axId val="572902016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4343,14 +4424,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135662208"/>
+        <c:crossAx val="572912000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="135662208"/>
+        <c:axId val="572912000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4401,7 +4482,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135660672"/>
+        <c:crossAx val="572902016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4415,6 +4496,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4560,7 +4642,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4623,6 +4705,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>180130.89098694932</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>153676.66671781347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4637,8 +4722,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="135267072"/>
-        <c:axId val="135715840"/>
+        <c:axId val="573987072"/>
+        <c:axId val="573985536"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4663,7 +4748,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4726,6 +4811,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4735,7 +4823,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4798,6 +4886,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7630000114440918</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77100002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4814,11 +4905,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="135712768"/>
-        <c:axId val="135714304"/>
+        <c:axId val="573978112"/>
+        <c:axId val="573979648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="135712768"/>
+        <c:axId val="573978112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4861,14 +4952,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135714304"/>
+        <c:crossAx val="573979648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="135714304"/>
+        <c:axId val="573979648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4919,12 +5010,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135712768"/>
+        <c:crossAx val="573978112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135715840"/>
+        <c:axId val="573985536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4961,12 +5052,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135267072"/>
+        <c:crossAx val="573987072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="135267072"/>
+        <c:axId val="573987072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4975,7 +5066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135715840"/>
+        <c:crossAx val="573985536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5068,6 +5159,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5124,7 +5216,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5187,6 +5279,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5196,7 +5291,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5259,6 +5354,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>37181415.002649464</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38139961.865585305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5301,7 +5399,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5364,6 +5462,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5373,7 +5474,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5436,6 +5537,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>38005209.650892787</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39362239.199025139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5478,7 +5582,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5541,6 +5645,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5550,7 +5657,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5613,6 +5720,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>823794.64824332297</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1222277.3334398344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5634,11 +5744,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="135312128"/>
-        <c:axId val="135313664"/>
+        <c:axId val="574007936"/>
+        <c:axId val="574017920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="135312128"/>
+        <c:axId val="574007936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5681,14 +5791,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135313664"/>
+        <c:crossAx val="574017920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="135313664"/>
+        <c:axId val="574017920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5739,7 +5849,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135312128"/>
+        <c:crossAx val="574007936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5753,6 +5863,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5898,7 +6009,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5961,6 +6072,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>49810234.706238389</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51053486.105138242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5975,8 +6089,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="135372160"/>
-        <c:axId val="135370624"/>
+        <c:axId val="574101376"/>
+        <c:axId val="574099840"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6001,7 +6115,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6064,6 +6178,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6073,7 +6190,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6136,6 +6253,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7630000114440918</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77100002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6152,11 +6272,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="135363200"/>
-        <c:axId val="135369088"/>
+        <c:axId val="574076032"/>
+        <c:axId val="574077568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="135363200"/>
+        <c:axId val="574076032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6199,14 +6319,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135369088"/>
+        <c:crossAx val="574077568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="135369088"/>
+        <c:axId val="574077568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6257,12 +6377,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135363200"/>
+        <c:crossAx val="574076032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135370624"/>
+        <c:axId val="574099840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6299,12 +6419,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135372160"/>
+        <c:crossAx val="574101376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="135372160"/>
+        <c:axId val="574101376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6313,7 +6433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135370624"/>
+        <c:crossAx val="574099840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6463,7 +6583,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6526,6 +6646,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6535,7 +6658,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6598,6 +6721,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>12547577.289931525</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12886032.573308073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6640,7 +6766,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6703,6 +6829,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6712,7 +6841,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6775,6 +6904,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>13095753.496201664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13571517.087196391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6817,7 +6949,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6880,6 +7012,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6889,7 +7024,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6952,6 +7087,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>548176.20627013966</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>685484.51388831809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6973,11 +7111,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="135450624"/>
-        <c:axId val="135452160"/>
+        <c:axId val="574171008"/>
+        <c:axId val="574172544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="135450624"/>
+        <c:axId val="574171008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7020,14 +7158,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135452160"/>
+        <c:crossAx val="574172544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="135452160"/>
+        <c:axId val="574172544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7078,7 +7216,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135450624"/>
+        <c:crossAx val="574171008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7792,14 +7930,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG23"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -7831,7 +7969,7 @@
     <col min="32" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
@@ -7870,7 +8008,7 @@
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="14.1" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -7890,7 +8028,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="14.1" customHeight="1">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -7963,7 +8101,7 @@
         <v>-245217.81577195294</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -8049,7 +8187,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
     </row>
-    <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -8131,7 +8269,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
     </row>
-    <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -8180,7 +8318,7 @@
       <c r="AD6" s="20"/>
       <c r="AE6" s="17"/>
     </row>
-    <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -8223,7 +8361,7 @@
       <c r="AA7" s="9"/>
       <c r="AG7" s="10"/>
     </row>
-    <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -8262,7 +8400,7 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="14.1" customHeight="1">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -8304,7 +8442,7 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="14.1" customHeight="1">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -8346,7 +8484,7 @@
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="14.1" customHeight="1">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -8388,7 +8526,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="14.1" customHeight="1">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -8428,7 +8566,7 @@
       <c r="M12" s="9"/>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="14.1" customHeight="1">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -8468,7 +8606,7 @@
       <c r="M13" s="9"/>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="14.1" customHeight="1">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -8507,7 +8645,7 @@
       </c>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="14.1" customHeight="1">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -8546,7 +8684,7 @@
       </c>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="14.1" customHeight="1">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -8585,7 +8723,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -8624,7 +8762,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -8663,7 +8801,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="12.75">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -8701,7 +8839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="12.75">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -8739,7 +8877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="12.75">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -8777,7 +8915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="12.75">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -8815,7 +8953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="12.75">
       <c r="A23" s="12">
         <v>44985</v>
       </c>
@@ -8850,6 +8988,44 @@
         <v>11042.481736935675</v>
       </c>
       <c r="L23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="12.75">
+      <c r="A24" s="12">
+        <v>45016</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C24" s="13">
+        <v>24.159999849999998</v>
+      </c>
+      <c r="D24" s="14">
+        <v>30.397426021508249</v>
+      </c>
+      <c r="E24" s="14">
+        <v>153676.66671781347</v>
+      </c>
+      <c r="F24" s="15">
+        <v>199321.22075911172</v>
+      </c>
+      <c r="G24" s="15">
+        <v>5567307.8950802051</v>
+      </c>
+      <c r="H24" s="15">
+        <v>4292394.5410793964</v>
+      </c>
+      <c r="I24" s="15">
+        <v>4238408.0789196044</v>
+      </c>
+      <c r="J24" s="15">
+        <v>4292394.5410793964</v>
+      </c>
+      <c r="K24" s="15">
+        <v>53986.462159791961</v>
+      </c>
+      <c r="L24" s="14">
         <v>0</v>
       </c>
     </row>
@@ -8869,14 +9045,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -8908,7 +9084,7 @@
     <col min="38" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
@@ -8973,7 +9149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" ht="14.1" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -8999,7 +9175,7 @@
       <c r="R2" s="22"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" ht="14.1" customHeight="1">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -9084,7 +9260,7 @@
         <v>-245217.81577195294</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" ht="14.1" customHeight="1">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -9182,7 +9358,7 @@
       <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
     </row>
-    <row r="5" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" ht="14.1" customHeight="1">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -9276,7 +9452,7 @@
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
     </row>
-    <row r="6" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" ht="14.1" customHeight="1">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -9337,7 +9513,7 @@
       <c r="AJ6" s="20"/>
       <c r="AK6" s="17"/>
     </row>
-    <row r="7" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" ht="14.1" customHeight="1">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -9392,7 +9568,7 @@
       <c r="AG7" s="9"/>
       <c r="AM7" s="10"/>
     </row>
-    <row r="8" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" ht="14.1" customHeight="1">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -9443,7 +9619,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="9"/>
     </row>
-    <row r="9" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" ht="14.1" customHeight="1">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -9497,7 +9673,7 @@
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
     </row>
-    <row r="10" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" ht="14.1" customHeight="1">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -9551,7 +9727,7 @@
       <c r="AF10" s="9"/>
       <c r="AG10" s="9"/>
     </row>
-    <row r="11" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" ht="14.1" customHeight="1">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -9605,7 +9781,7 @@
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
     </row>
-    <row r="12" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" ht="14.1" customHeight="1">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -9657,7 +9833,7 @@
       <c r="S12" s="9"/>
       <c r="AE12" s="17"/>
     </row>
-    <row r="13" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" ht="14.1" customHeight="1">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -9709,7 +9885,7 @@
       <c r="S13" s="9"/>
       <c r="AG13" s="10"/>
     </row>
-    <row r="14" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" ht="14.1" customHeight="1">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -9760,7 +9936,7 @@
       <c r="R14" s="23"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" ht="14.1" customHeight="1">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -9811,7 +9987,7 @@
       <c r="R15" s="23"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" ht="14.1" customHeight="1">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -9876,7 +10052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -9941,7 +10117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -10006,7 +10182,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="12.75">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -10071,7 +10247,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="12.75">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -10136,7 +10312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="12.75">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -10201,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="12.75">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -10266,7 +10442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="12.75">
       <c r="A23" s="12">
         <v>44985</v>
       </c>
@@ -10328,6 +10504,71 @@
         <v>-6.163640682316041</v>
       </c>
       <c r="U23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="12.75">
+      <c r="A24" s="12">
+        <v>45016</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C24" s="13">
+        <v>24.159999849999998</v>
+      </c>
+      <c r="D24" s="14">
+        <v>30.397426021508249</v>
+      </c>
+      <c r="E24" s="14">
+        <v>153676.66671781347</v>
+      </c>
+      <c r="F24" s="15">
+        <v>199321.22075911172</v>
+      </c>
+      <c r="G24" s="15">
+        <v>5796361.655711459</v>
+      </c>
+      <c r="H24" s="15">
+        <v>4468994.9968609307</v>
+      </c>
+      <c r="I24" s="15">
+        <v>4396795.7113412563</v>
+      </c>
+      <c r="J24" s="15">
+        <v>4468994.9968609307</v>
+      </c>
+      <c r="K24" s="15">
+        <v>72199.28551967442</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0</v>
+      </c>
+      <c r="M24" s="23">
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="N24" s="23">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="O24" s="23">
+        <v>0.75799999634424842</v>
+      </c>
+      <c r="P24" s="23">
+        <v>0.76661904510997581</v>
+      </c>
+      <c r="Q24" s="23">
+        <v>-8.6190487657273884E-3</v>
+      </c>
+      <c r="R24" s="23">
+        <v>4.138095747856866E-2</v>
+      </c>
+      <c r="S24" s="9">
+        <v>6.2071436217852986E-4</v>
+      </c>
+      <c r="T24" s="9">
+        <v>-13.88569250351642</v>
+      </c>
+      <c r="U24" s="11">
         <v>1</v>
       </c>
     </row>
@@ -10347,14 +10588,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG23"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -10386,7 +10627,7 @@
     <col min="32" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
@@ -10430,7 +10671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="14.1" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -10450,7 +10691,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="14.1" customHeight="1">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -10528,7 +10769,7 @@
         <v>-250495.57337637764</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -10619,7 +10860,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
     </row>
-    <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -10706,7 +10947,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
     </row>
-    <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -10760,7 +11001,7 @@
       <c r="AD6" s="20"/>
       <c r="AE6" s="17"/>
     </row>
-    <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -10808,7 +11049,7 @@
       <c r="AA7" s="9"/>
       <c r="AG7" s="10"/>
     </row>
-    <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -10852,7 +11093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="14.1" customHeight="1">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -10899,7 +11140,7 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="14.1" customHeight="1">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -10946,7 +11187,7 @@
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="14.1" customHeight="1">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -10993,7 +11234,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="14.1" customHeight="1">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -11038,7 +11279,7 @@
       </c>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="14.1" customHeight="1">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -11083,7 +11324,7 @@
       </c>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="14.1" customHeight="1">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -11127,7 +11368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="14.1" customHeight="1">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -11171,7 +11412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="14.1" customHeight="1">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -11215,7 +11456,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -11259,7 +11500,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -11303,7 +11544,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="12.75">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -11347,7 +11588,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="12.75">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -11391,7 +11632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="12.75">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -11435,7 +11676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="12.75">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -11479,7 +11720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="12.75">
       <c r="A23" s="12">
         <v>44985</v>
       </c>
@@ -11520,6 +11761,50 @@
         <v>-92.003912876830128</v>
       </c>
       <c r="N23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="12.75">
+      <c r="A24" s="12">
+        <v>45016</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C24" s="13">
+        <v>24.159999849999998</v>
+      </c>
+      <c r="D24" s="14">
+        <v>30.397426021508249</v>
+      </c>
+      <c r="E24" s="14">
+        <v>153676.66671781347</v>
+      </c>
+      <c r="F24" s="15">
+        <v>199321.22075911172</v>
+      </c>
+      <c r="G24" s="15">
+        <v>5959002.1193200815</v>
+      </c>
+      <c r="H24" s="15">
+        <v>4594390.7988012535</v>
+      </c>
+      <c r="I24" s="15">
+        <v>4529018.3752812389</v>
+      </c>
+      <c r="J24" s="15">
+        <v>4594390.7988012535</v>
+      </c>
+      <c r="K24" s="15">
+        <v>65372.423520014621</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <v>121.19851098278713</v>
+      </c>
+      <c r="N24" s="9">
         <v>1</v>
       </c>
     </row>
@@ -11539,14 +11824,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG23"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -11578,7 +11863,7 @@
     <col min="32" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
@@ -11622,7 +11907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="14.1" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -11642,7 +11927,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="14.1" customHeight="1">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -11720,7 +12005,7 @@
         <v>-919630.88726893254</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -11811,7 +12096,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
     </row>
-    <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -11898,7 +12183,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
     </row>
-    <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -11952,7 +12237,7 @@
       <c r="AD6" s="20"/>
       <c r="AE6" s="17"/>
     </row>
-    <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -12000,7 +12285,7 @@
       <c r="AA7" s="9"/>
       <c r="AG7" s="10"/>
     </row>
-    <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -12044,7 +12329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="14.1" customHeight="1">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -12091,7 +12376,7 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="14.1" customHeight="1">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -12138,7 +12423,7 @@
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="14.1" customHeight="1">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -12185,7 +12470,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="14.1" customHeight="1">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -12230,7 +12515,7 @@
       </c>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="14.1" customHeight="1">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -12275,7 +12560,7 @@
       </c>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="14.1" customHeight="1">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -12319,7 +12604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="14.1" customHeight="1">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -12363,7 +12648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="14.1" customHeight="1">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -12407,7 +12692,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -12451,7 +12736,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -12495,7 +12780,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="12.75">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -12539,7 +12824,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="12.75">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -12583,7 +12868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="12.75">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -12627,7 +12912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="12.75">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -12671,7 +12956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="12.75">
       <c r="A23" s="12">
         <v>44985</v>
       </c>
@@ -12712,6 +12997,50 @@
         <v>-92.003912876830128</v>
       </c>
       <c r="N23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="12.75">
+      <c r="A24" s="12">
+        <v>45016</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C24" s="13">
+        <v>24.159999849999998</v>
+      </c>
+      <c r="D24" s="14">
+        <v>30.397426021508249</v>
+      </c>
+      <c r="E24" s="14">
+        <v>958546.8629358405</v>
+      </c>
+      <c r="F24" s="15">
+        <v>1243251.3988998567</v>
+      </c>
+      <c r="G24" s="15">
+        <v>51053486.105138242</v>
+      </c>
+      <c r="H24" s="15">
+        <v>39362239.199025139</v>
+      </c>
+      <c r="I24" s="15">
+        <v>38139961.865585305</v>
+      </c>
+      <c r="J24" s="15">
+        <v>39362239.199025139</v>
+      </c>
+      <c r="K24" s="15">
+        <v>1222277.3334398344</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <v>121.19851098278713</v>
+      </c>
+      <c r="N24" s="9">
         <v>1</v>
       </c>
     </row>
@@ -12731,14 +13060,14 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI23"/>
+  <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -12770,7 +13099,7 @@
     <col min="34" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
@@ -12820,7 +13149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="14.1" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -12842,7 +13171,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="14.1" customHeight="1">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -12926,7 +13255,7 @@
         <v>-181466.76336656811</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="14.1" customHeight="1">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -13023,7 +13352,7 @@
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
     </row>
-    <row r="5" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" ht="14.1" customHeight="1">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -13116,7 +13445,7 @@
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
     </row>
-    <row r="6" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="14.1" customHeight="1">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -13176,7 +13505,7 @@
       <c r="AF6" s="20"/>
       <c r="AG6" s="17"/>
     </row>
-    <row r="7" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="14.1" customHeight="1">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -13230,7 +13559,7 @@
       <c r="AC7" s="9"/>
       <c r="AI7" s="10"/>
     </row>
-    <row r="8" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="14.1" customHeight="1">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -13280,7 +13609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="14.1" customHeight="1">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -13333,7 +13662,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
     </row>
-    <row r="10" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="14.1" customHeight="1">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -13386,7 +13715,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
     </row>
-    <row r="11" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="14.1" customHeight="1">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -13439,7 +13768,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
     </row>
-    <row r="12" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="14.1" customHeight="1">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -13490,7 +13819,7 @@
       </c>
       <c r="AA12" s="17"/>
     </row>
-    <row r="13" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="14.1" customHeight="1">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -13541,7 +13870,7 @@
       </c>
       <c r="AC13" s="10"/>
     </row>
-    <row r="14" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="14.1" customHeight="1">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -13591,7 +13920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="14.1" customHeight="1">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -13641,7 +13970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="14.1" customHeight="1">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -13691,7 +14020,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -13741,7 +14070,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -13791,7 +14120,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="12.75">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -13841,7 +14170,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="12.75">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -13891,7 +14220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="12.75">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -13941,7 +14270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="12.75">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -13991,7 +14320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="12.75">
       <c r="A23" s="12">
         <v>44985</v>
       </c>
@@ -14038,6 +14367,56 @@
         <v>-92.003912876830128</v>
       </c>
       <c r="P23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="12.75">
+      <c r="A24" s="12">
+        <v>45016</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C24" s="13">
+        <v>24.159999849999998</v>
+      </c>
+      <c r="D24" s="14">
+        <v>30.397426021508249</v>
+      </c>
+      <c r="E24" s="14">
+        <v>1673001</v>
+      </c>
+      <c r="F24" s="14">
+        <v>4738143.9705710951</v>
+      </c>
+      <c r="G24" s="14">
+        <v>338455.28337654838</v>
+      </c>
+      <c r="H24" s="15">
+        <v>438982.19356136594</v>
+      </c>
+      <c r="I24" s="15">
+        <v>17602485.862999052</v>
+      </c>
+      <c r="J24" s="15">
+        <v>13571517.087196391</v>
+      </c>
+      <c r="K24" s="15">
+        <v>12886032.573308073</v>
+      </c>
+      <c r="L24" s="15">
+        <v>13571517.087196391</v>
+      </c>
+      <c r="M24" s="15">
+        <v>685484.51388831809</v>
+      </c>
+      <c r="N24" s="14">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>121.19851098278713</v>
+      </c>
+      <c r="P24" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -334,7 +334,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,6 +396,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -562,7 +565,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -628,6 +631,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -637,7 +649,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -703,6 +715,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4244668.8663569177</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4415397.7453730423</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4701076.0336823575</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4913912.8232615339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -745,7 +766,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -811,6 +832,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -820,7 +850,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -886,6 +916,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4297670.0194356609</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4356915.6669407403</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4462748.14001079</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4892523.8597752657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,7 +967,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -994,6 +1033,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,7 +1051,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1069,6 +1117,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>53001.153078743257</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-58482.078432301991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-238327.89367156755</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-21388.963486268185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1090,11 +1147,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="582702976"/>
-        <c:axId val="582704512"/>
+        <c:axId val="314172160"/>
+        <c:axId val="314173696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="582702976"/>
+        <c:axId val="314172160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,14 +1194,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582704512"/>
+        <c:crossAx val="314173696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="582704512"/>
+        <c:axId val="314173696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1195,7 +1252,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582702976"/>
+        <c:crossAx val="314172160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1356,7 +1413,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1422,6 +1479,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>337749.47190853907</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>467294.34002607979</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1041876.0484477298</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>807489.53701901867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1436,8 +1502,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="489934208"/>
-        <c:axId val="489932672"/>
+        <c:axId val="485069952"/>
+        <c:axId val="485068160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1462,7 +1528,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1528,6 +1594,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1537,7 +1612,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1603,6 +1678,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1619,11 +1703,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489929344"/>
-        <c:axId val="489931136"/>
+        <c:axId val="485065088"/>
+        <c:axId val="485066624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489929344"/>
+        <c:axId val="485065088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1666,14 +1750,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489931136"/>
+        <c:crossAx val="485066624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489931136"/>
+        <c:axId val="485066624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1724,12 +1808,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489929344"/>
+        <c:crossAx val="485065088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489932672"/>
+        <c:axId val="485068160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,12 +1850,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489934208"/>
+        <c:crossAx val="485069952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="489934208"/>
+        <c:axId val="485069952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1864,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489932672"/>
+        <c:crossAx val="485068160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1912,7 +1996,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1978,6 +2062,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>153462.94180681123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>170728.87901612459</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>285678.28830931569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>212836.78957917634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,8 +2085,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="613555584"/>
-        <c:axId val="613553664"/>
+        <c:axId val="546426880"/>
+        <c:axId val="503874304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2018,7 +2111,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2084,6 +2177,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2093,7 +2195,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2159,6 +2261,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2175,11 +2286,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="612407552"/>
-        <c:axId val="613552128"/>
+        <c:axId val="503439744"/>
+        <c:axId val="503441664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="612407552"/>
+        <c:axId val="503439744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2222,14 +2333,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613552128"/>
+        <c:crossAx val="503441664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613552128"/>
+        <c:axId val="503441664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,12 +2391,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612407552"/>
+        <c:crossAx val="503439744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="613553664"/>
+        <c:axId val="503874304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,12 +2433,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613555584"/>
+        <c:crossAx val="546426880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="613555584"/>
+        <c:axId val="546426880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2336,7 +2447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="613553664"/>
+        <c:crossAx val="503874304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2486,7 +2597,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2552,6 +2663,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2561,7 +2681,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2627,6 +2747,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4403044.6179841887</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4573773.4970003134</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4859451.7853096295</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5072288.5748888059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2669,7 +2798,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2735,6 +2864,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2744,7 +2882,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2810,6 +2948,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4474257.2299584523</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4528922.1365542552</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4627654.4851053022</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5065446.4775706353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2852,7 +2999,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2918,6 +3065,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2927,7 +3083,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2993,6 +3149,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>71212.611974263564</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-44851.360446058214</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-231797.30020432733</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6842.0973181705922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3014,11 +3179,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="654547200"/>
-        <c:axId val="656211968"/>
+        <c:axId val="551929344"/>
+        <c:axId val="551931264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="654547200"/>
+        <c:axId val="551929344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3061,14 +3226,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656211968"/>
+        <c:crossAx val="551931264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="656211968"/>
+        <c:axId val="551931264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3119,7 +3284,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654547200"/>
+        <c:crossAx val="551929344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3280,7 +3445,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3346,6 +3511,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>153462.94180681123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>170728.87901612459</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>285678.28830931569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>212836.78957917634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3360,8 +3534,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="693925376"/>
-        <c:axId val="679705600"/>
+        <c:axId val="606000256"/>
+        <c:axId val="585251840"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3386,7 +3560,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3452,6 +3626,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3461,7 +3644,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3527,6 +3710,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3543,11 +3735,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="671567232"/>
-        <c:axId val="679704064"/>
+        <c:axId val="567491968"/>
+        <c:axId val="585250304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="671567232"/>
+        <c:axId val="567491968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3590,14 +3782,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679704064"/>
+        <c:crossAx val="585250304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="679704064"/>
+        <c:axId val="585250304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3648,12 +3840,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671567232"/>
+        <c:crossAx val="567491968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="679705600"/>
+        <c:axId val="585251840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3690,12 +3882,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693925376"/>
+        <c:crossAx val="606000256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="693925376"/>
+        <c:axId val="606000256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3704,7 +3896,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="679705600"/>
+        <c:crossAx val="585251840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3854,7 +4046,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3920,6 +4112,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3929,7 +4130,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3995,6 +4196,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4536714.2101611272</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4707443.0891772518</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5050257.0351484306</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5263093.824727607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4037,7 +4247,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4103,6 +4313,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4112,7 +4331,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4178,6 +4397,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4600903.8633038895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4652283.5069824615</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4803059.3728076126</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5249377.9832880329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4220,7 +4448,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4286,6 +4514,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4295,7 +4532,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4361,6 +4598,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>64189.65314276237</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-55159.582194790244</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-247197.66234081797</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-13715.841439574026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4382,11 +4628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="719826944"/>
-        <c:axId val="719828864"/>
+        <c:axId val="609761536"/>
+        <c:axId val="666734592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="719826944"/>
+        <c:axId val="609761536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4429,14 +4675,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719828864"/>
+        <c:crossAx val="666734592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="719828864"/>
+        <c:axId val="666734592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4487,7 +4733,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719826944"/>
+        <c:crossAx val="609761536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4648,7 +4894,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4714,6 +4960,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>153462.94180681123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>170728.87901612459</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>342813.94597117882</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>212836.78957917634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4728,8 +4983,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="489554304"/>
-        <c:axId val="483449472"/>
+        <c:axId val="484222848"/>
+        <c:axId val="484221312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4754,7 +5009,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4820,6 +5075,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4829,7 +5093,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4895,6 +5159,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4911,11 +5184,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476577152"/>
-        <c:axId val="483447936"/>
+        <c:axId val="484217984"/>
+        <c:axId val="484219520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476577152"/>
+        <c:axId val="484217984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4958,14 +5231,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483447936"/>
+        <c:crossAx val="484219520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483447936"/>
+        <c:axId val="484219520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5016,12 +5289,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476577152"/>
+        <c:crossAx val="484217984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="483449472"/>
+        <c:axId val="484221312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5058,12 +5331,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489554304"/>
+        <c:crossAx val="484222848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="489554304"/>
+        <c:axId val="484222848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5072,7 +5345,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="483449472"/>
+        <c:crossAx val="484221312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5222,8 +5495,8 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
+                <c:ptCount val="25"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -5288,6 +5561,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5297,7 +5579,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5363,6 +5645,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>38215430.131634384</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39337867.031034373</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42253269.725288838</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43815595.153418921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5405,8 +5696,8 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
+                <c:ptCount val="25"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -5471,6 +5762,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5480,7 +5780,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5546,6 +5846,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>39425879.769634411</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39525594.016525604</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40809449.712371074</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44355565.864131629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5588,8 +5897,8 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
+                <c:ptCount val="25"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -5654,6 +5963,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5663,7 +5981,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5729,6 +6047,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1210449.6380000263</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>187726.98549123108</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1443820.0129177645</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>539970.71071270853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5750,17 +6077,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489612032"/>
-        <c:axId val="489613568"/>
+        <c:axId val="484418688"/>
+        <c:axId val="484420224"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="489612032"/>
+      <c:catAx>
+        <c:axId val="484418688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -5797,14 +6124,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489613568"/>
+        <c:crossAx val="484420224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="489613568"/>
+        <c:axId val="484420224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5855,7 +6183,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489612032"/>
+        <c:crossAx val="484418688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6016,7 +6344,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6082,6 +6410,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>51136028.995315179</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52630618.767142393</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56679789.014929585</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58749094.230820052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6096,8 +6433,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="489889792"/>
-        <c:axId val="489888000"/>
+        <c:axId val="484435456"/>
+        <c:axId val="484433920"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6122,8 +6459,8 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
+                <c:ptCount val="25"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -6188,6 +6525,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6197,7 +6543,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6263,6 +6609,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6279,17 +6634,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489884672"/>
-        <c:axId val="489886464"/>
+        <c:axId val="484430592"/>
+        <c:axId val="484432128"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="489884672"/>
+      <c:catAx>
+        <c:axId val="484430592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6326,14 +6681,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489886464"/>
+        <c:crossAx val="484432128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="489886464"/>
+        <c:axId val="484432128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6384,12 +6740,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489884672"/>
+        <c:crossAx val="484430592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489888000"/>
+        <c:axId val="484433920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6426,12 +6782,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489889792"/>
+        <c:crossAx val="484435456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="489889792"/>
+        <c:axId val="484435456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6440,7 +6796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489888000"/>
+        <c:crossAx val="484433920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6590,7 +6946,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6656,6 +7012,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6665,7 +7030,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6731,6 +7096,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>12903138.028113989</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13370432.36814007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14412308.4165878</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15219797.953606818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6773,7 +7147,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6839,6 +7213,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6848,7 +7231,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6914,6 +7297,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>13585768.294488385</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13700642.521946413</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14176980.14550392</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15673627.754978357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6956,7 +7348,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7022,6 +7414,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7031,7 +7432,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7097,6 +7498,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>682630.26637439616</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>330210.15380634367</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-235328.27108388022</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>453829.80137153901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7118,11 +7528,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489910656"/>
-        <c:axId val="489912192"/>
+        <c:axId val="485049088"/>
+        <c:axId val="485050624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489910656"/>
+        <c:axId val="485049088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7165,14 +7575,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489912192"/>
+        <c:crossAx val="485050624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489912192"/>
+        <c:axId val="485050624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7223,7 +7633,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489910656"/>
+        <c:crossAx val="485049088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7309,15 +7719,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7341,15 +7751,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
+      <xdr:colOff>38099</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7377,16 +7787,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7410,15 +7820,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:colOff>123824</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7937,7 +8347,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8174,11 +8584,11 @@
         <v>44925</v>
       </c>
       <c r="Z4" s="9">
-        <v>3511692.6815237701</v>
+        <v>3518640.0716485097</v>
       </c>
       <c r="AA4" s="9">
         <f>-Z4</f>
-        <v>-3511692.6815237701</v>
+        <v>-3518640.0716485097</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="9"/>
@@ -8247,14 +8657,14 @@
         <v>-4.8683698456729256E-2</v>
       </c>
       <c r="W5" s="19">
-        <v>-4.5572950047727101E-2</v>
+        <v>-4.5834423753382425E-2</v>
       </c>
       <c r="Y5" s="24">
         <v>44925</v>
       </c>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9">
-        <v>3575030.9949550489</v>
+        <v>3580619.3649953026</v>
       </c>
       <c r="AB5" s="17"/>
       <c r="AC5" s="9"/>
@@ -8304,7 +8714,7 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="20">
-        <v>-4.5572950047727101E-2</v>
+        <v>-4.5834423753382425E-2</v>
       </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
@@ -9019,6 +9429,120 @@
         <v>53001.153078743257</v>
       </c>
       <c r="L24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>170728.87901612459</v>
+      </c>
+      <c r="F25" s="15">
+        <v>227335.39539677446</v>
+      </c>
+      <c r="G25" s="15">
+        <v>5801485.6746106083</v>
+      </c>
+      <c r="H25" s="15">
+        <v>4356915.6669407403</v>
+      </c>
+      <c r="I25" s="15">
+        <v>4415397.7453730423</v>
+      </c>
+      <c r="J25" s="15">
+        <v>4356915.6669407403</v>
+      </c>
+      <c r="K25" s="15">
+        <v>-58482.078432301991</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>285678.28830931569</v>
+      </c>
+      <c r="F26" s="15">
+        <v>396775.38466316788</v>
+      </c>
+      <c r="G26" s="15">
+        <v>6198261.0592737757</v>
+      </c>
+      <c r="H26" s="15">
+        <v>4462748.14001079</v>
+      </c>
+      <c r="I26" s="15">
+        <v>4701076.0336823575</v>
+      </c>
+      <c r="J26" s="15">
+        <v>4462748.14001079</v>
+      </c>
+      <c r="K26" s="15">
+        <v>-238327.89367156755</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>212836.78957917634</v>
+      </c>
+      <c r="F27" s="15">
+        <v>281903.03433562221</v>
+      </c>
+      <c r="G27" s="15">
+        <v>6480164.0936093982</v>
+      </c>
+      <c r="H27" s="15">
+        <v>4892523.8597752657</v>
+      </c>
+      <c r="I27" s="15">
+        <v>4913912.8232615339</v>
+      </c>
+      <c r="J27" s="15">
+        <v>4892523.8597752657</v>
+      </c>
+      <c r="K27" s="15">
+        <v>-21388.963486268185</v>
+      </c>
+      <c r="L27" s="14">
         <v>0</v>
       </c>
     </row>
@@ -9038,7 +9562,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9331,11 +9855,11 @@
         <v>44925</v>
       </c>
       <c r="AF4" s="9">
-        <v>3670080.3139454219</v>
+        <v>3677015.8232757808</v>
       </c>
       <c r="AG4" s="9">
         <f>-AF4</f>
-        <v>-3670080.3139454219</v>
+        <v>-3677015.8232757808</v>
       </c>
       <c r="AH4" s="17"/>
       <c r="AI4" s="9"/>
@@ -9416,14 +9940,14 @@
         <v>-4.4877700886527275E-2</v>
       </c>
       <c r="AC5" s="19">
-        <v>-4.2085065559351986E-2</v>
+        <v>-4.2342539246702948E-2</v>
       </c>
       <c r="AE5" s="24">
         <v>44925</v>
       </c>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9">
-        <v>3740636.8615977974</v>
+        <v>3746212.8109874739</v>
       </c>
       <c r="AH5" s="17"/>
       <c r="AI5" s="9"/>
@@ -9485,7 +10009,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
       <c r="AG6" s="20">
-        <v>-4.2085065559351986E-2</v>
+        <v>-4.2342539246702948E-2</v>
       </c>
       <c r="AH6" s="9"/>
       <c r="AI6" s="9"/>
@@ -10548,6 +11072,201 @@
         <v>-13.88569250351642</v>
       </c>
       <c r="U24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>170728.87901612459</v>
+      </c>
+      <c r="F25" s="15">
+        <v>227335.39539677446</v>
+      </c>
+      <c r="G25" s="15">
+        <v>6030522.2559185578</v>
+      </c>
+      <c r="H25" s="15">
+        <v>4528922.1365542552</v>
+      </c>
+      <c r="I25" s="15">
+        <v>4573773.4970003134</v>
+      </c>
+      <c r="J25" s="15">
+        <v>4528922.1365542552</v>
+      </c>
+      <c r="K25" s="15">
+        <v>-44851.360446058214</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="23">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="N25" s="23">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="O25" s="23">
+        <v>0.75599999570846554</v>
+      </c>
+      <c r="P25" s="23">
+        <v>0.75769047179676241</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>-1.6904760882968661E-3</v>
+      </c>
+      <c r="R25" s="23">
+        <v>3.2738098541895536E-2</v>
+      </c>
+      <c r="S25" s="9">
+        <v>4.9107147812843305E-4</v>
+      </c>
+      <c r="T25" s="9">
+        <v>-3.4424236869540712</v>
+      </c>
+      <c r="U25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>285678.28830931569</v>
+      </c>
+      <c r="F26" s="15">
+        <v>396775.38466316788</v>
+      </c>
+      <c r="G26" s="15">
+        <v>6427297.6405817252</v>
+      </c>
+      <c r="H26" s="15">
+        <v>4627654.4851053022</v>
+      </c>
+      <c r="I26" s="15">
+        <v>4859451.7853096295</v>
+      </c>
+      <c r="J26" s="15">
+        <v>4627654.4851053022</v>
+      </c>
+      <c r="K26" s="15">
+        <v>-231797.30020432733</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="23">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="N26" s="23">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="O26" s="23">
+        <v>0.72733332713445031</v>
+      </c>
+      <c r="P26" s="23">
+        <v>0.75183332913262502</v>
+      </c>
+      <c r="Q26" s="23">
+        <v>-2.4500001998174703E-2</v>
+      </c>
+      <c r="R26" s="23">
+        <v>3.097619424547466E-2</v>
+      </c>
+      <c r="S26" s="9">
+        <v>4.646429136821199E-4</v>
+      </c>
+      <c r="T26" s="9">
+        <v>-52.728668137907079</v>
+      </c>
+      <c r="U26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>212836.78957917634</v>
+      </c>
+      <c r="F27" s="15">
+        <v>281903.03433562221</v>
+      </c>
+      <c r="G27" s="15">
+        <v>6709200.6749173477</v>
+      </c>
+      <c r="H27" s="15">
+        <v>5065446.4775706353</v>
+      </c>
+      <c r="I27" s="15">
+        <v>5072288.5748888059</v>
+      </c>
+      <c r="J27" s="15">
+        <v>5065446.4775706353</v>
+      </c>
+      <c r="K27" s="15">
+        <v>-6842.0973181705922</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="23">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="N27" s="23">
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="O27" s="23">
+        <v>0.74666666984558105</v>
+      </c>
+      <c r="P27" s="23">
+        <v>0.75338094954263612</v>
+      </c>
+      <c r="Q27" s="23">
+        <v>-6.71427969705507E-3</v>
+      </c>
+      <c r="R27" s="23">
+        <v>2.9428573835463736E-2</v>
+      </c>
+      <c r="S27" s="9">
+        <v>4.4142860753195601E-4</v>
+      </c>
+      <c r="T27" s="9">
+        <v>-15.21034111177085</v>
+      </c>
+      <c r="U27" s="11">
         <v>1</v>
       </c>
     </row>
@@ -10567,7 +11286,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10819,11 +11538,11 @@
         <v>44925</v>
       </c>
       <c r="Z4" s="9">
-        <v>3797025.2202809798</v>
+        <v>3805407.6578482944</v>
       </c>
       <c r="AA4" s="9">
         <f>-Z4</f>
-        <v>-3797025.2202809798</v>
+        <v>-3805407.6578482944</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="9"/>
@@ -10897,14 +11616,14 @@
         <v>-4.7074202025435531E-2</v>
       </c>
       <c r="W5" s="19">
-        <v>-4.4156016867989423E-2</v>
+        <v>-4.4450912908414297E-2</v>
       </c>
       <c r="Y5" s="24">
         <v>44925</v>
       </c>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9">
-        <v>3858225.9151582182</v>
+        <v>3864974.823122385</v>
       </c>
       <c r="AB5" s="17"/>
       <c r="AC5" s="9"/>
@@ -10959,7 +11678,7 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="20">
-        <v>-4.4156016867989423E-2</v>
+        <v>-4.4450912908414297E-2</v>
       </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
@@ -11770,6 +12489,138 @@
         <v>121.19851098278713</v>
       </c>
       <c r="N24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>170728.87901612459</v>
+      </c>
+      <c r="F25" s="15">
+        <v>227335.39539677446</v>
+      </c>
+      <c r="G25" s="15">
+        <v>6194785.0688919602</v>
+      </c>
+      <c r="H25" s="15">
+        <v>4652283.5069824615</v>
+      </c>
+      <c r="I25" s="15">
+        <v>4707443.0891772518</v>
+      </c>
+      <c r="J25" s="15">
+        <v>4652283.5069824615</v>
+      </c>
+      <c r="K25" s="15">
+        <v>-55159.582194790244</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>-64.205140990854673</v>
+      </c>
+      <c r="N25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>342813.94597117882</v>
+      </c>
+      <c r="F26" s="15">
+        <v>476130.46159580146</v>
+      </c>
+      <c r="G26" s="15">
+        <v>6670915.5304877618</v>
+      </c>
+      <c r="H26" s="15">
+        <v>4803059.3728076126</v>
+      </c>
+      <c r="I26" s="15">
+        <v>5050257.0351484306</v>
+      </c>
+      <c r="J26" s="15">
+        <v>4803059.3728076126</v>
+      </c>
+      <c r="K26" s="15">
+        <v>-247197.66234081797</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>-122.69771180703479</v>
+      </c>
+      <c r="N26" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>212836.78957917634</v>
+      </c>
+      <c r="F27" s="15">
+        <v>281903.03433562221</v>
+      </c>
+      <c r="G27" s="15">
+        <v>6952818.5648233844</v>
+      </c>
+      <c r="H27" s="15">
+        <v>5249377.9832880329</v>
+      </c>
+      <c r="I27" s="15">
+        <v>5263093.824727607</v>
+      </c>
+      <c r="J27" s="15">
+        <v>5249377.9832880329</v>
+      </c>
+      <c r="K27" s="15">
+        <v>-13715.841439574026</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>24.912007435828137</v>
+      </c>
+      <c r="N27" s="9">
         <v>1</v>
       </c>
     </row>
@@ -11789,7 +12640,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11893,7 +12744,7 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:33" ht="14.1" customHeight="1">
-      <c r="A3" s="12">
+      <c r="A3" s="31">
         <v>44377</v>
       </c>
       <c r="B3" s="13">
@@ -12041,11 +12892,11 @@
         <v>44925</v>
       </c>
       <c r="Z4" s="9">
-        <v>34142279.472042665</v>
+        <v>34224314.893007115</v>
       </c>
       <c r="AA4" s="9">
         <f>-Z4</f>
-        <v>-34142279.472042665</v>
+        <v>-34224314.893007115</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="9"/>
@@ -12119,14 +12970,14 @@
         <v>-2.9749697268164746E-2</v>
       </c>
       <c r="W5" s="19">
-        <v>-2.862734196784178E-2</v>
+        <v>-2.9012536271850409E-2</v>
       </c>
       <c r="Y5" s="24">
         <v>44925</v>
       </c>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9">
-        <v>34032608.133750223</v>
+        <v>34098424.032504037</v>
       </c>
       <c r="AB5" s="17"/>
       <c r="AC5" s="9"/>
@@ -12181,7 +13032,7 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="20">
-        <v>-2.862734196784178E-2</v>
+        <v>-2.9012536271850409E-2</v>
       </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
@@ -12992,6 +13843,138 @@
         <v>121.19851098278713</v>
       </c>
       <c r="N24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1122436.8993999888</v>
+      </c>
+      <c r="F25" s="15">
+        <v>1494589.771827216</v>
+      </c>
+      <c r="G25" s="15">
+        <v>52630618.767142393</v>
+      </c>
+      <c r="H25" s="15">
+        <v>39525594.016525604</v>
+      </c>
+      <c r="I25" s="15">
+        <v>39337867.031034373</v>
+      </c>
+      <c r="J25" s="15">
+        <v>39525594.016525604</v>
+      </c>
+      <c r="K25" s="15">
+        <v>187726.98549123108</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>-64.205140990854673</v>
+      </c>
+      <c r="N25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>2915402.6942544663</v>
+      </c>
+      <c r="F26" s="15">
+        <v>4049170.2477871892</v>
+      </c>
+      <c r="G26" s="15">
+        <v>56679789.014929585</v>
+      </c>
+      <c r="H26" s="15">
+        <v>40809449.712371074</v>
+      </c>
+      <c r="I26" s="15">
+        <v>42253269.725288838</v>
+      </c>
+      <c r="J26" s="15">
+        <v>40809449.712371074</v>
+      </c>
+      <c r="K26" s="15">
+        <v>-1443820.0129177645</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>-122.69771180703479</v>
+      </c>
+      <c r="N26" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1562325.4281300842</v>
+      </c>
+      <c r="F27" s="15">
+        <v>2069305.2158904641</v>
+      </c>
+      <c r="G27" s="15">
+        <v>58749094.230820052</v>
+      </c>
+      <c r="H27" s="15">
+        <v>44355565.864131629</v>
+      </c>
+      <c r="I27" s="15">
+        <v>43815595.153418921</v>
+      </c>
+      <c r="J27" s="15">
+        <v>44355565.864131629</v>
+      </c>
+      <c r="K27" s="15">
+        <v>539970.71071270853</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>24.912007435828137</v>
+      </c>
+      <c r="N27" s="9">
         <v>1</v>
       </c>
     </row>
@@ -13011,7 +13994,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI24"/>
+  <dimension ref="A1:AI27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13283,11 +14266,11 @@
         <v>44925</v>
       </c>
       <c r="AB4" s="9">
-        <v>11764183.069249377</v>
+        <v>11783345.139712771</v>
       </c>
       <c r="AC4" s="9">
         <f>-AB4</f>
-        <v>-11764183.069249377</v>
+        <v>-11783345.139712771</v>
       </c>
       <c r="AD4" s="17"/>
       <c r="AE4" s="9"/>
@@ -13367,14 +14350,14 @@
         <v>-8.1354882994792571E-3</v>
       </c>
       <c r="Y5" s="19">
-        <v>-7.7069388592168053E-3</v>
+        <v>-8.0149029262136517E-3</v>
       </c>
       <c r="AA5" s="24">
         <v>44925</v>
       </c>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9">
-        <v>11852197.665036507</v>
+        <v>11867472.315836368</v>
       </c>
       <c r="AD5" s="17"/>
       <c r="AE5" s="9"/>
@@ -13435,7 +14418,7 @@
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="20">
-        <v>-7.7069388592168053E-3</v>
+        <v>-8.0149029262136517E-3</v>
       </c>
       <c r="AD6" s="9"/>
       <c r="AE6" s="9"/>
@@ -14354,6 +15337,156 @@
         <v>121.19851098278713</v>
       </c>
       <c r="P24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1925900</v>
+      </c>
+      <c r="F25" s="14">
+        <v>4625994.8803013396</v>
+      </c>
+      <c r="G25" s="14">
+        <v>467294.34002607979</v>
+      </c>
+      <c r="H25" s="15">
+        <v>622229.49139419128</v>
+      </c>
+      <c r="I25" s="15">
+        <v>18243199.409880649</v>
+      </c>
+      <c r="J25" s="15">
+        <v>13700642.521946413</v>
+      </c>
+      <c r="K25" s="15">
+        <v>13370432.36814007</v>
+      </c>
+      <c r="L25" s="15">
+        <v>13700642.521946413</v>
+      </c>
+      <c r="M25" s="15">
+        <v>330210.15380634367</v>
+      </c>
+      <c r="N25" s="14">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <v>-64.205140990854673</v>
+      </c>
+      <c r="P25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1602700</v>
+      </c>
+      <c r="F26" s="14">
+        <v>4484713.805488782</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1041876.0484477298</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1447050.0097879125</v>
+      </c>
+      <c r="I26" s="15">
+        <v>19690249.419668563</v>
+      </c>
+      <c r="J26" s="15">
+        <v>14176980.14550392</v>
+      </c>
+      <c r="K26" s="15">
+        <v>14412308.4165878</v>
+      </c>
+      <c r="L26" s="15">
+        <v>14176980.14550392</v>
+      </c>
+      <c r="M26" s="15">
+        <v>-235328.27108388022</v>
+      </c>
+      <c r="N26" s="14">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>-122.69771180703479</v>
+      </c>
+      <c r="P26" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>2280700</v>
+      </c>
+      <c r="F27" s="14">
+        <v>4412683.3111552252</v>
+      </c>
+      <c r="G27" s="14">
+        <v>807489.53701901867</v>
+      </c>
+      <c r="H27" s="15">
+        <v>1069522.5723429136</v>
+      </c>
+      <c r="I27" s="15">
+        <v>20759771.992011476</v>
+      </c>
+      <c r="J27" s="15">
+        <v>15673627.754978357</v>
+      </c>
+      <c r="K27" s="15">
+        <v>15219797.953606818</v>
+      </c>
+      <c r="L27" s="15">
+        <v>15673627.754978357</v>
+      </c>
+      <c r="M27" s="15">
+        <v>453829.80137153901</v>
+      </c>
+      <c r="N27" s="14">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
+        <v>24.912007435828137</v>
+      </c>
+      <c r="P27" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -565,7 +565,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -640,6 +640,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -649,7 +652,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -724,6 +727,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4913912.8232615339</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5099420.2574212886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -766,7 +772,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -841,6 +847,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -850,7 +859,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -925,6 +934,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4892523.8597752657</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5116912.1641673045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,7 +979,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1042,6 +1054,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1051,7 +1066,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1126,6 +1141,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-21388.963486268185</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17491.906746015884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1147,11 +1165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="314172160"/>
-        <c:axId val="314173696"/>
+        <c:axId val="383751680"/>
+        <c:axId val="383753216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="314172160"/>
+        <c:axId val="383751680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,14 +1212,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314173696"/>
+        <c:crossAx val="383753216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="314173696"/>
+        <c:axId val="383753216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1270,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314172160"/>
+        <c:crossAx val="383751680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1413,7 +1431,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1488,6 +1506,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>807489.53701901867</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>620567.12226842251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,8 +1523,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485069952"/>
-        <c:axId val="485068160"/>
+        <c:axId val="396606080"/>
+        <c:axId val="396604544"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1528,7 +1549,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1603,6 +1624,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1612,7 +1636,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1687,6 +1711,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1703,11 +1730,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485065088"/>
-        <c:axId val="485066624"/>
+        <c:axId val="396601216"/>
+        <c:axId val="396602752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485065088"/>
+        <c:axId val="396601216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,14 +1777,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485066624"/>
+        <c:crossAx val="396602752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485066624"/>
+        <c:axId val="396602752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1808,12 +1835,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485065088"/>
+        <c:crossAx val="396601216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485068160"/>
+        <c:axId val="396604544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1850,12 +1877,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485069952"/>
+        <c:crossAx val="396606080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="485069952"/>
+        <c:axId val="396606080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1864,7 +1891,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485068160"/>
+        <c:crossAx val="396604544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1996,7 +2023,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2071,6 +2098,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>212836.78957917634</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>185507.43415975483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2085,8 +2115,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="546426880"/>
-        <c:axId val="503874304"/>
+        <c:axId val="603287936"/>
+        <c:axId val="571361536"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2111,7 +2141,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2186,6 +2216,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2195,7 +2228,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2270,6 +2303,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2286,11 +2322,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="503439744"/>
-        <c:axId val="503441664"/>
+        <c:axId val="521067136"/>
+        <c:axId val="571359616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="503439744"/>
+        <c:axId val="521067136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2333,14 +2369,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503441664"/>
+        <c:crossAx val="571359616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503441664"/>
+        <c:axId val="571359616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,12 +2427,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503439744"/>
+        <c:crossAx val="521067136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="503874304"/>
+        <c:axId val="571361536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,12 +2469,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546426880"/>
+        <c:crossAx val="603287936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="546426880"/>
+        <c:axId val="603287936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2447,7 +2483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="503874304"/>
+        <c:crossAx val="571361536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2597,7 +2633,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2672,6 +2708,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2681,7 +2720,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2756,6 +2795,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5072288.5748888059</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5257796.0090485606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2798,7 +2840,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2873,6 +2915,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2882,7 +2927,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2957,6 +3002,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5065446.4775706353</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5291208.9974096352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2999,7 +3047,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3074,6 +3122,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3083,7 +3134,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3158,6 +3209,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-6842.0973181705922</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33412.988361074589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3179,11 +3233,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="551929344"/>
-        <c:axId val="551931264"/>
+        <c:axId val="390835584"/>
+        <c:axId val="390845568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="551929344"/>
+        <c:axId val="390835584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3226,14 +3280,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551931264"/>
+        <c:crossAx val="390845568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="551931264"/>
+        <c:axId val="390845568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3284,7 +3338,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551929344"/>
+        <c:crossAx val="390835584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3445,7 +3499,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3520,6 +3574,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>212836.78957917634</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>185507.43415975483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3534,8 +3591,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="606000256"/>
-        <c:axId val="585251840"/>
+        <c:axId val="391458816"/>
+        <c:axId val="391457024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3560,7 +3617,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3635,6 +3692,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3644,7 +3704,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3719,6 +3779,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3735,11 +3798,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567491968"/>
-        <c:axId val="585250304"/>
+        <c:axId val="390855680"/>
+        <c:axId val="391455488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="567491968"/>
+        <c:axId val="390855680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3782,14 +3845,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585250304"/>
+        <c:crossAx val="391455488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="585250304"/>
+        <c:axId val="391455488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3840,12 +3903,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567491968"/>
+        <c:crossAx val="390855680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="585251840"/>
+        <c:axId val="391457024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3882,12 +3945,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606000256"/>
+        <c:crossAx val="391458816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="606000256"/>
+        <c:axId val="391458816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3896,7 +3959,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="585251840"/>
+        <c:crossAx val="391457024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4046,7 +4109,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4121,6 +4184,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4130,7 +4196,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4205,6 +4271,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5263093.824727607</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5448601.2588873617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4247,7 +4316,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4322,6 +4391,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4331,7 +4403,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4406,6 +4478,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5249377.9832880329</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5476602.2061683256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4448,7 +4523,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4523,6 +4598,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4532,7 +4610,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4607,6 +4685,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-13715.841439574026</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28000.947280963883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4628,11 +4709,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609761536"/>
-        <c:axId val="666734592"/>
+        <c:axId val="391474560"/>
+        <c:axId val="391480448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="609761536"/>
+        <c:axId val="391474560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4675,14 +4756,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666734592"/>
+        <c:crossAx val="391480448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="666734592"/>
+        <c:axId val="391480448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4733,7 +4814,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609761536"/>
+        <c:crossAx val="391474560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4894,7 +4975,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4969,6 +5050,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>212836.78957917634</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>185507.43415975483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4983,8 +5067,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484222848"/>
-        <c:axId val="484221312"/>
+        <c:axId val="391499776"/>
+        <c:axId val="391497984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5009,7 +5093,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5084,6 +5168,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5093,7 +5180,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5168,6 +5255,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5184,11 +5274,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484217984"/>
-        <c:axId val="484219520"/>
+        <c:axId val="391494656"/>
+        <c:axId val="391496448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484217984"/>
+        <c:axId val="391494656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5231,14 +5321,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484219520"/>
+        <c:crossAx val="391496448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484219520"/>
+        <c:axId val="391496448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5289,12 +5379,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484217984"/>
+        <c:crossAx val="391494656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484221312"/>
+        <c:axId val="391497984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5331,12 +5421,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484222848"/>
+        <c:crossAx val="391499776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="484222848"/>
+        <c:axId val="391499776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5345,7 +5435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484221312"/>
+        <c:crossAx val="391497984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5495,7 +5585,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5570,6 +5660,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5579,7 +5672,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5654,6 +5747,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>43815595.153418921</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45086881.638241291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5696,7 +5792,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5771,6 +5867,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5780,7 +5879,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5855,6 +5954,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44355565.864131629</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45979345.877830125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5897,7 +5999,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5972,6 +6074,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5981,7 +6086,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6056,6 +6161,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>539970.71071270853</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>892464.23958883435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6077,11 +6185,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484418688"/>
-        <c:axId val="484420224"/>
+        <c:axId val="395549696"/>
+        <c:axId val="395555584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="484418688"/>
+        <c:axId val="395549696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6124,7 +6232,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484420224"/>
+        <c:crossAx val="395555584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6132,7 +6240,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="484420224"/>
+        <c:axId val="395555584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6183,7 +6291,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484418688"/>
+        <c:crossAx val="395549696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6344,7 +6452,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6419,6 +6527,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>58749094.230820052</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60419641.566249207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6433,8 +6544,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484435456"/>
-        <c:axId val="484433920"/>
+        <c:axId val="395578368"/>
+        <c:axId val="395576832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6459,7 +6570,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6534,6 +6645,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6543,7 +6657,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6618,6 +6732,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6634,11 +6751,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484430592"/>
-        <c:axId val="484432128"/>
+        <c:axId val="395573504"/>
+        <c:axId val="395575296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="484430592"/>
+        <c:axId val="395573504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6681,7 +6798,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484432128"/>
+        <c:crossAx val="395575296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6689,7 +6806,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="484432128"/>
+        <c:axId val="395575296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6740,12 +6857,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484430592"/>
+        <c:crossAx val="395573504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484433920"/>
+        <c:axId val="395576832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6782,12 +6899,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484435456"/>
+        <c:crossAx val="395578368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="484435456"/>
+        <c:axId val="395578368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6796,7 +6913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484433920"/>
+        <c:crossAx val="395576832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6946,7 +7063,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7021,6 +7138,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7030,7 +7150,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7105,6 +7225,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>15219797.953606818</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15840365.075875241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7147,7 +7270,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7222,6 +7345,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7231,7 +7357,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7306,6 +7432,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>15673627.754978357</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16418753.142934715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7348,7 +7477,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7423,6 +7552,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7432,7 +7564,7 @@
               <c:f>'model4(3)turnover&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7507,6 +7639,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>453829.80137153901</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>578388.06705947407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7528,11 +7663,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485049088"/>
-        <c:axId val="485050624"/>
+        <c:axId val="396568832"/>
+        <c:axId val="396582912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485049088"/>
+        <c:axId val="396568832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7575,14 +7710,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485050624"/>
+        <c:crossAx val="396582912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485050624"/>
+        <c:axId val="396582912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7633,7 +7768,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485049088"/>
+        <c:crossAx val="396568832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8347,7 +8482,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9546,6 +9681,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:13" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>185507.43415975483</v>
+      </c>
+      <c r="F28" s="15">
+        <v>243767.98899201537</v>
+      </c>
+      <c r="G28" s="15">
+        <v>6723932.0826014131</v>
+      </c>
+      <c r="H28" s="15">
+        <v>5116912.1641673045</v>
+      </c>
+      <c r="I28" s="15">
+        <v>5099420.2574212886</v>
+      </c>
+      <c r="J28" s="15">
+        <v>5116912.1641673045</v>
+      </c>
+      <c r="K28" s="15">
+        <v>17491.906746015884</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -9562,7 +9735,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11270,6 +11443,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:21" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>185507.43415975483</v>
+      </c>
+      <c r="F28" s="15">
+        <v>243767.98899201537</v>
+      </c>
+      <c r="G28" s="15">
+        <v>6952968.6639093626</v>
+      </c>
+      <c r="H28" s="15">
+        <v>5291208.9974096352</v>
+      </c>
+      <c r="I28" s="15">
+        <v>5257796.0090485606</v>
+      </c>
+      <c r="J28" s="15">
+        <v>5291208.9974096352</v>
+      </c>
+      <c r="K28" s="15">
+        <v>33412.988361074589</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="23">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="N28" s="23">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="O28" s="23">
+        <v>0.75533334414164222</v>
+      </c>
+      <c r="P28" s="23">
+        <v>0.75549999826295033</v>
+      </c>
+      <c r="Q28" s="23">
+        <v>-1.6665412130811852E-4</v>
+      </c>
+      <c r="R28" s="23">
+        <v>2.7309525115149353E-2</v>
+      </c>
+      <c r="S28" s="9">
+        <v>4.0964287672724028E-4</v>
+      </c>
+      <c r="T28" s="9">
+        <v>-0.40682782681238899</v>
+      </c>
+      <c r="U28" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11286,7 +11524,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12624,6 +12862,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:14" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>185507.43415975483</v>
+      </c>
+      <c r="F28" s="15">
+        <v>243767.98899201537</v>
+      </c>
+      <c r="G28" s="15">
+        <v>7196586.5538154002</v>
+      </c>
+      <c r="H28" s="15">
+        <v>5476602.2061683256</v>
+      </c>
+      <c r="I28" s="15">
+        <v>5448601.2588873617</v>
+      </c>
+      <c r="J28" s="15">
+        <v>5476602.2061683256</v>
+      </c>
+      <c r="K28" s="15">
+        <v>28000.947280963883</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>132.15337272513426</v>
+      </c>
+      <c r="N28" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12640,7 +12922,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13978,6 +14260,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:14" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1271286.4848223685</v>
+      </c>
+      <c r="F28" s="15">
+        <v>1670547.3354291506</v>
+      </c>
+      <c r="G28" s="15">
+        <v>60419641.566249207</v>
+      </c>
+      <c r="H28" s="15">
+        <v>45979345.877830125</v>
+      </c>
+      <c r="I28" s="15">
+        <v>45086881.638241291</v>
+      </c>
+      <c r="J28" s="15">
+        <v>45979345.877830125</v>
+      </c>
+      <c r="K28" s="15">
+        <v>892464.23958883435</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>132.15337272513426</v>
+      </c>
+      <c r="N28" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13994,7 +14320,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI27"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15490,6 +15816,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:16" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>2111506</v>
+      </c>
+      <c r="F28" s="14">
+        <v>4325606.2786714146</v>
+      </c>
+      <c r="G28" s="14">
+        <v>620567.12226842251</v>
+      </c>
+      <c r="H28" s="15">
+        <v>815462.73396063119</v>
+      </c>
+      <c r="I28" s="15">
+        <v>21575234.725972109</v>
+      </c>
+      <c r="J28" s="15">
+        <v>16418753.142934715</v>
+      </c>
+      <c r="K28" s="15">
+        <v>15840365.075875241</v>
+      </c>
+      <c r="L28" s="15">
+        <v>16418753.142934715</v>
+      </c>
+      <c r="M28" s="15">
+        <v>578388.06705947407</v>
+      </c>
+      <c r="N28" s="14">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
+        <v>132.15337272513426</v>
+      </c>
+      <c r="P28" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -11,44 +11,44 @@
     <sheet name="model4(1)&amp;CCI_per_month" sheetId="6" r:id="rId2"/>
     <sheet name="model4(1)&amp;CCI_per_day" sheetId="5" r:id="rId3"/>
     <sheet name="model4(3)&amp;CCI_per_day" sheetId="7" r:id="rId4"/>
-    <sheet name="model4(3)turnover&amp;CCI_per_day" sheetId="8" r:id="rId5"/>
+    <sheet name="model4(3)vol&amp;CCI_per_day" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model4(1)'!$P$1:$P$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'model4(1)&amp;CCI_per_day'!$P$1:$P$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model4(1)&amp;CCI_per_month'!$V$1:$V$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'model4(3)&amp;CCI_per_day'!$P$1:$P$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'model4(3)turnover&amp;CCI_per_day'!$R$1:$R$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'model4(3)vol&amp;CCI_per_day'!$R$1:$R$23</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model4(1)'!K1,0,0,COUNTA('model4(1)'!K:K)-1)</definedName>
     <definedName name="金额" localSheetId="2">OFFSET('model4(1)&amp;CCI_per_day'!K1,0,0,COUNTA('model4(1)&amp;CCI_per_day'!K:K)-1)</definedName>
     <definedName name="金额" localSheetId="1">OFFSET('model4(1)&amp;CCI_per_month'!K1,0,0,COUNTA('model4(1)&amp;CCI_per_month'!K:K)-1)</definedName>
     <definedName name="金额" localSheetId="3">OFFSET('model4(3)&amp;CCI_per_day'!K1,0,0,COUNTA('model4(3)&amp;CCI_per_day'!K:K)-1)</definedName>
-    <definedName name="金额" localSheetId="4">OFFSET('model4(3)turnover&amp;CCI_per_day'!M1,0,0,COUNTA('model4(3)turnover&amp;CCI_per_day'!M:M)-1)</definedName>
+    <definedName name="金额" localSheetId="4">OFFSET('model4(3)vol&amp;CCI_per_day'!M1,0,0,COUNTA('model4(3)vol&amp;CCI_per_day'!M:M)-1)</definedName>
     <definedName name="买卖" localSheetId="0">OFFSET('model4(1)'!E1,0,0,COUNTA('model4(1)'!E:E)-1)</definedName>
     <definedName name="买卖" localSheetId="2">OFFSET('model4(1)&amp;CCI_per_day'!E1,0,0,COUNTA('model4(1)&amp;CCI_per_day'!E:E)-1)</definedName>
     <definedName name="买卖" localSheetId="1">OFFSET('model4(1)&amp;CCI_per_month'!E1,0,0,COUNTA('model4(1)&amp;CCI_per_month'!E:E)-1)</definedName>
     <definedName name="买卖" localSheetId="3">OFFSET('model4(3)&amp;CCI_per_day'!G1,0,0,COUNTA('model4(3)&amp;CCI_per_day'!G:G)-1)</definedName>
-    <definedName name="买卖" localSheetId="4">OFFSET('model4(3)turnover&amp;CCI_per_day'!G1,0,0,COUNTA('model4(3)turnover&amp;CCI_per_day'!G:G)-1)</definedName>
+    <definedName name="买卖" localSheetId="4">OFFSET('model4(3)vol&amp;CCI_per_day'!G1,0,0,COUNTA('model4(3)vol&amp;CCI_per_day'!G:G)-1)</definedName>
     <definedName name="时间" localSheetId="0">OFFSET('model4(1)'!A1,0,0,COUNTA('model4(1)'!A:A)-1)</definedName>
     <definedName name="时间" localSheetId="2">OFFSET('model4(1)&amp;CCI_per_day'!A1,0,0,COUNTA('model4(1)&amp;CCI_per_day'!A:A)-1)</definedName>
     <definedName name="时间" localSheetId="1">OFFSET('model4(1)&amp;CCI_per_month'!A1,0,0,COUNTA('model4(1)&amp;CCI_per_month'!A:A)-1)</definedName>
     <definedName name="时间" localSheetId="3">OFFSET('model4(3)&amp;CCI_per_day'!A1,0,0,COUNTA('model4(3)&amp;CCI_per_day'!A:A)-1)</definedName>
-    <definedName name="时间" localSheetId="4">OFFSET('model4(3)turnover&amp;CCI_per_day'!A1,0,0,COUNTA('model4(3)turnover&amp;CCI_per_day'!A:A)-1)</definedName>
+    <definedName name="时间" localSheetId="4">OFFSET('model4(3)vol&amp;CCI_per_day'!A1,0,0,COUNTA('model4(3)vol&amp;CCI_per_day'!A:A)-1)</definedName>
     <definedName name="指数" localSheetId="0">OFFSET('model4(1)'!B1,0,0,COUNTA('model4(1)'!B:B)-1)</definedName>
     <definedName name="指数" localSheetId="2">OFFSET('model4(1)&amp;CCI_per_day'!B1,0,0,COUNTA('model4(1)&amp;CCI_per_day'!B:B)-1)</definedName>
     <definedName name="指数" localSheetId="1">OFFSET('model4(1)&amp;CCI_per_month'!B1,0,0,COUNTA('model4(1)&amp;CCI_per_month'!B:B)-1)</definedName>
     <definedName name="指数" localSheetId="3">OFFSET('model4(3)&amp;CCI_per_day'!B1,0,0,COUNTA('model4(3)&amp;CCI_per_day'!B:B)-1)</definedName>
-    <definedName name="指数" localSheetId="4">OFFSET('model4(3)turnover&amp;CCI_per_day'!B1,0,0,COUNTA('model4(3)turnover&amp;CCI_per_day'!B:B)-1)</definedName>
+    <definedName name="指数" localSheetId="4">OFFSET('model4(3)vol&amp;CCI_per_day'!B1,0,0,COUNTA('model4(3)vol&amp;CCI_per_day'!B:B)-1)</definedName>
     <definedName name="资产" localSheetId="0">OFFSET('model4(1)'!J1,0,0,COUNTA('model4(1)'!J:J)-1)</definedName>
     <definedName name="资产" localSheetId="2">OFFSET('model4(1)&amp;CCI_per_day'!J1,0,0,COUNTA('model4(1)&amp;CCI_per_day'!J:J)-1)</definedName>
     <definedName name="资产" localSheetId="1">OFFSET('model4(1)&amp;CCI_per_month'!J1,0,0,COUNTA('model4(1)&amp;CCI_per_month'!J:J)-1)</definedName>
     <definedName name="资产" localSheetId="3">OFFSET('model4(3)&amp;CCI_per_day'!J1,0,0,COUNTA('model4(3)&amp;CCI_per_day'!J:J)-1)</definedName>
-    <definedName name="资产" localSheetId="4">OFFSET('model4(3)turnover&amp;CCI_per_day'!L1,0,0,COUNTA('model4(3)turnover&amp;CCI_per_day'!L:L)-1)</definedName>
+    <definedName name="资产" localSheetId="4">OFFSET('model4(3)vol&amp;CCI_per_day'!L1,0,0,COUNTA('model4(3)vol&amp;CCI_per_day'!L:L)-1)</definedName>
     <definedName name="资金" localSheetId="0">OFFSET('model4(1)'!I1,0,0,COUNTA('model4(1)'!I:I)-1)</definedName>
     <definedName name="资金" localSheetId="2">OFFSET('model4(1)&amp;CCI_per_day'!I1,0,0,COUNTA('model4(1)&amp;CCI_per_day'!I:I)-1)</definedName>
     <definedName name="资金" localSheetId="1">OFFSET('model4(1)&amp;CCI_per_month'!I1,0,0,COUNTA('model4(1)&amp;CCI_per_month'!I:I)-1)</definedName>
     <definedName name="资金" localSheetId="3">OFFSET('model4(3)&amp;CCI_per_day'!I1,0,0,COUNTA('model4(3)&amp;CCI_per_day'!I:I)-1)</definedName>
-    <definedName name="资金" localSheetId="4">OFFSET('model4(3)turnover&amp;CCI_per_day'!K1,0,0,COUNTA('model4(3)turnover&amp;CCI_per_day'!K:K)-1)</definedName>
+    <definedName name="资金" localSheetId="4">OFFSET('model4(3)vol&amp;CCI_per_day'!K1,0,0,COUNTA('model4(3)vol&amp;CCI_per_day'!K:K)-1)</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -163,11 +163,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>turnover</t>
+    <t>vol</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>turnover mean</t>
+    <t>vol mean</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +565,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -643,6 +643,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -652,7 +655,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -730,6 +733,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5099420.2574212886</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5355510.8810719606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -772,7 +778,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -850,6 +856,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -859,7 +868,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -937,6 +946,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5116912.1641673045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5056978.0408539018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,7 +991,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1057,6 +1069,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1066,7 +1081,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1144,6 +1159,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>17491.906746015884</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-298532.84021805879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1165,11 +1183,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="383751680"/>
-        <c:axId val="383753216"/>
+        <c:axId val="97239808"/>
+        <c:axId val="97241344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="383751680"/>
+        <c:axId val="97239808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,14 +1230,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383753216"/>
+        <c:crossAx val="97241344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="383753216"/>
+        <c:axId val="97241344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,7 +1288,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383751680"/>
+        <c:crossAx val="97239808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1428,10 +1446,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'model4(3)turnover&amp;CCI_per_day'!买卖</c:f>
+              <c:f>'model4(3)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1509,6 +1527,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>620567.12226842251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1542224.4036726714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,8 +1544,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="396606080"/>
-        <c:axId val="396604544"/>
+        <c:axId val="495849856"/>
+        <c:axId val="493025920"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1546,10 +1567,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
+              <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1627,16 +1648,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model4(3)turnover&amp;CCI_per_day'!指数</c:f>
+              <c:f>'model4(3)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1714,6 +1738,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1730,11 +1757,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="396601216"/>
-        <c:axId val="396602752"/>
+        <c:axId val="493018496"/>
+        <c:axId val="493024384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="396601216"/>
+        <c:axId val="493018496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,14 +1804,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396602752"/>
+        <c:crossAx val="493024384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396602752"/>
+        <c:axId val="493024384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1835,12 +1862,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396601216"/>
+        <c:crossAx val="493018496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396604544"/>
+        <c:axId val="493025920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1877,12 +1904,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396606080"/>
+        <c:crossAx val="495849856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="396606080"/>
+        <c:axId val="495849856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1891,7 +1918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="396604544"/>
+        <c:crossAx val="493025920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2023,7 +2050,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2101,6 +2128,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>185507.43415975483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>256090.62365067154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2115,8 +2145,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="603287936"/>
-        <c:axId val="571361536"/>
+        <c:axId val="495966080"/>
+        <c:axId val="495964160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2141,7 +2171,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2219,6 +2249,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2228,7 +2261,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2306,6 +2339,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2322,11 +2358,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521067136"/>
-        <c:axId val="571359616"/>
+        <c:axId val="495853952"/>
+        <c:axId val="495855872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521067136"/>
+        <c:axId val="495853952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2369,14 +2405,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571359616"/>
+        <c:crossAx val="495855872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="571359616"/>
+        <c:axId val="495855872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,12 +2463,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521067136"/>
+        <c:crossAx val="495853952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="571361536"/>
+        <c:axId val="495964160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,12 +2505,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603287936"/>
+        <c:crossAx val="495966080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="603287936"/>
+        <c:axId val="495966080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2483,7 +2519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="571361536"/>
+        <c:crossAx val="495964160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2633,7 +2669,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2711,6 +2747,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2720,7 +2759,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2798,6 +2837,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5257796.0090485606</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5513886.6326992325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2840,7 +2882,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2918,6 +2960,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2927,7 +2972,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3005,6 +3050,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5291208.9974096352</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5220510.1568498099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3047,7 +3095,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3125,6 +3173,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3134,7 +3185,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3212,6 +3263,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>33412.988361074589</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-293376.47584942263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3233,11 +3287,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="390835584"/>
-        <c:axId val="390845568"/>
+        <c:axId val="502914048"/>
+        <c:axId val="508564224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="390835584"/>
+        <c:axId val="502914048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3280,14 +3334,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390845568"/>
+        <c:crossAx val="508564224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="390845568"/>
+        <c:axId val="508564224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3338,7 +3392,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390835584"/>
+        <c:crossAx val="502914048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3499,7 +3553,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3577,6 +3631,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>185507.43415975483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>256090.62365067154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3591,8 +3648,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="391458816"/>
-        <c:axId val="391457024"/>
+        <c:axId val="461530624"/>
+        <c:axId val="461529088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3617,7 +3674,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3695,6 +3752,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3704,7 +3764,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3782,6 +3842,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3798,11 +3861,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="390855680"/>
-        <c:axId val="391455488"/>
+        <c:axId val="609555200"/>
+        <c:axId val="609556736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="390855680"/>
+        <c:axId val="609555200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3845,14 +3908,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391455488"/>
+        <c:crossAx val="609556736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391455488"/>
+        <c:axId val="609556736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3903,12 +3966,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390855680"/>
+        <c:crossAx val="609555200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391457024"/>
+        <c:axId val="461529088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3945,12 +4008,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391458816"/>
+        <c:crossAx val="461530624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="391458816"/>
+        <c:axId val="461530624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3959,7 +4022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391457024"/>
+        <c:crossAx val="461529088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4109,7 +4172,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4187,6 +4250,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4196,7 +4262,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4274,6 +4340,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5448601.2588873617</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5704691.8825380336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4316,7 +4385,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4394,6 +4463,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4403,7 +4475,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4481,6 +4553,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5476602.2061683256</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5394453.3269900708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4523,7 +4598,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4601,6 +4676,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4610,7 +4688,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4688,6 +4766,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>28000.947280963883</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-310238.5555479629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4709,11 +4790,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391474560"/>
-        <c:axId val="391480448"/>
+        <c:axId val="461542144"/>
+        <c:axId val="461543680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="391474560"/>
+        <c:axId val="461542144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4756,14 +4837,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391480448"/>
+        <c:crossAx val="461543680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391480448"/>
+        <c:axId val="461543680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4814,7 +4895,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391474560"/>
+        <c:crossAx val="461542144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4975,7 +5056,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5053,6 +5134,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>185507.43415975483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>256090.62365067154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5067,8 +5151,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="391499776"/>
-        <c:axId val="391497984"/>
+        <c:axId val="464249984"/>
+        <c:axId val="461569408"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5093,7 +5177,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5171,6 +5255,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5180,7 +5267,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5258,6 +5345,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5274,11 +5364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391494656"/>
-        <c:axId val="391496448"/>
+        <c:axId val="461566336"/>
+        <c:axId val="461567872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="391494656"/>
+        <c:axId val="461566336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5321,14 +5411,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391496448"/>
+        <c:crossAx val="461567872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391496448"/>
+        <c:axId val="461567872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5379,12 +5469,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391494656"/>
+        <c:crossAx val="461566336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391497984"/>
+        <c:axId val="461569408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5421,12 +5511,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391499776"/>
+        <c:crossAx val="464249984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="391499776"/>
+        <c:axId val="464249984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5435,7 +5525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391497984"/>
+        <c:crossAx val="461569408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5585,7 +5675,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5663,6 +5753,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5672,7 +5765,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5750,6 +5843,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45086881.638241291</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47148897.343884908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5792,7 +5888,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5870,6 +5966,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5879,7 +5978,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5957,6 +6056,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45979345.877830125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45201638.977256298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5999,7 +6101,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6077,6 +6179,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6086,7 +6191,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6164,6 +6269,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>892464.23958883435</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1947258.3666286096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6185,11 +6293,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395549696"/>
-        <c:axId val="395555584"/>
+        <c:axId val="490070400"/>
+        <c:axId val="490071936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="395549696"/>
+        <c:axId val="490070400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6232,7 +6340,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395555584"/>
+        <c:crossAx val="490071936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6240,7 +6348,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="395555584"/>
+        <c:axId val="490071936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6291,7 +6399,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395549696"/>
+        <c:crossAx val="490070400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6452,7 +6560,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6530,6 +6638,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>60419641.566249207</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63307618.799025491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6544,8 +6655,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="395578368"/>
-        <c:axId val="395576832"/>
+        <c:axId val="492978944"/>
+        <c:axId val="492973056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6570,7 +6681,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6648,6 +6759,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6657,7 +6771,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6735,6 +6849,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6751,11 +6868,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395573504"/>
-        <c:axId val="395575296"/>
+        <c:axId val="492969984"/>
+        <c:axId val="492971520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="395573504"/>
+        <c:axId val="492969984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6798,7 +6915,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395575296"/>
+        <c:crossAx val="492971520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6806,7 +6923,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="395575296"/>
+        <c:axId val="492971520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6857,12 +6974,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395573504"/>
+        <c:crossAx val="492969984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="395576832"/>
+        <c:axId val="492973056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6899,12 +7016,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395578368"/>
+        <c:crossAx val="492978944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="395578368"/>
+        <c:axId val="492978944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6913,7 +7030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395576832"/>
+        <c:crossAx val="492973056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7037,7 +7154,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model4(3)turnover&amp;CCI_per_day'!$K$1</c:f>
+              <c:f>'model4(3)vol&amp;CCI_per_day'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7060,10 +7177,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
+              <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7141,16 +7258,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model4(3)turnover&amp;CCI_per_day'!资金</c:f>
+              <c:f>'model4(3)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7228,6 +7348,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>15840365.075875241</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17382589.479547914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7244,7 +7367,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model4(3)turnover&amp;CCI_per_day'!$L$1</c:f>
+              <c:f>'model4(3)vol&amp;CCI_per_day'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7267,10 +7390,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
+              <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7348,16 +7471,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model4(3)turnover&amp;CCI_per_day'!资产</c:f>
+              <c:f>'model4(3)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7435,6 +7561,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>16418753.142934715</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16946941.709956296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7451,7 +7580,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model4(3)turnover&amp;CCI_per_day'!$M$1</c:f>
+              <c:f>'model4(3)vol&amp;CCI_per_day'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7474,10 +7603,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model4(3)turnover&amp;CCI_per_day'!时间</c:f>
+              <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7555,16 +7684,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model4(3)turnover&amp;CCI_per_day'!金额</c:f>
+              <c:f>'model4(3)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7642,6 +7774,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>578388.06705947407</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-435647.76959161833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7663,11 +7798,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="396568832"/>
-        <c:axId val="396582912"/>
+        <c:axId val="492998656"/>
+        <c:axId val="493000192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="396568832"/>
+        <c:axId val="492998656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7710,14 +7845,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396582912"/>
+        <c:crossAx val="493000192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396582912"/>
+        <c:axId val="493000192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7768,7 +7903,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396568832"/>
+        <c:crossAx val="492998656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8482,7 +8617,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9719,6 +9854,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:13" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>256090.62365067154</v>
+      </c>
+      <c r="F29" s="15">
+        <v>358670.347954394</v>
+      </c>
+      <c r="G29" s="15">
+        <v>7082602.4305558074</v>
+      </c>
+      <c r="H29" s="15">
+        <v>5056978.0408539018</v>
+      </c>
+      <c r="I29" s="15">
+        <v>5355510.8810719606</v>
+      </c>
+      <c r="J29" s="15">
+        <v>5056978.0408539018</v>
+      </c>
+      <c r="K29" s="15">
+        <v>-298532.84021805879</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -9735,7 +9908,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11508,6 +11681,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:21" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>256090.62365067154</v>
+      </c>
+      <c r="F29" s="15">
+        <v>358670.347954394</v>
+      </c>
+      <c r="G29" s="15">
+        <v>7311639.0118637569</v>
+      </c>
+      <c r="H29" s="15">
+        <v>5220510.1568498099</v>
+      </c>
+      <c r="I29" s="15">
+        <v>5513886.6326992325</v>
+      </c>
+      <c r="J29" s="15">
+        <v>5220510.1568498099</v>
+      </c>
+      <c r="K29" s="15">
+        <v>-293376.47584942263</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="23">
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="N29" s="23">
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="O29" s="23">
+        <v>0.72366664807001746</v>
+      </c>
+      <c r="P29" s="23">
+        <v>0.74888094787370585</v>
+      </c>
+      <c r="Q29" s="23">
+        <v>-2.5214299803688389E-2</v>
+      </c>
+      <c r="R29" s="23">
+        <v>2.5214288450422728E-2</v>
+      </c>
+      <c r="S29" s="9">
+        <v>3.7821432675634093E-4</v>
+      </c>
+      <c r="T29" s="9">
+        <v>-66.6666966847407</v>
+      </c>
+      <c r="U29" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11524,7 +11762,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12906,6 +13144,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:14" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>256090.62365067154</v>
+      </c>
+      <c r="F29" s="15">
+        <v>358670.347954394</v>
+      </c>
+      <c r="G29" s="15">
+        <v>7555256.9017697945</v>
+      </c>
+      <c r="H29" s="15">
+        <v>5394453.3269900708</v>
+      </c>
+      <c r="I29" s="15">
+        <v>5704691.8825380336</v>
+      </c>
+      <c r="J29" s="15">
+        <v>5394453.3269900708</v>
+      </c>
+      <c r="K29" s="15">
+        <v>-310238.5555479629</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>19.588439525500419</v>
+      </c>
+      <c r="N29" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12922,7 +13204,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14304,6 +14586,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:14" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>2062015.7056436134</v>
+      </c>
+      <c r="F29" s="15">
+        <v>2887977.2327762875</v>
+      </c>
+      <c r="G29" s="15">
+        <v>63307618.799025491</v>
+      </c>
+      <c r="H29" s="15">
+        <v>45201638.977256298</v>
+      </c>
+      <c r="I29" s="15">
+        <v>47148897.343884908</v>
+      </c>
+      <c r="J29" s="15">
+        <v>45201638.977256298</v>
+      </c>
+      <c r="K29" s="15">
+        <v>-1947258.3666286096</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>19.588439525500419</v>
+      </c>
+      <c r="N29" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14320,7 +14646,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI28"/>
+  <dimension ref="A1:AI29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15866,6 +16192,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:16" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>3152600</v>
+      </c>
+      <c r="F29" s="14">
+        <v>4215152.2814262221</v>
+      </c>
+      <c r="G29" s="14">
+        <v>1542224.4036726714</v>
+      </c>
+      <c r="H29" s="15">
+        <v>2159978.196794806</v>
+      </c>
+      <c r="I29" s="15">
+        <v>23735212.922766916</v>
+      </c>
+      <c r="J29" s="15">
+        <v>16946941.709956296</v>
+      </c>
+      <c r="K29" s="15">
+        <v>17382589.479547914</v>
+      </c>
+      <c r="L29" s="15">
+        <v>16946941.709956296</v>
+      </c>
+      <c r="M29" s="15">
+        <v>-435647.76959161833</v>
+      </c>
+      <c r="N29" s="14">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>19.588439525500419</v>
+      </c>
+      <c r="P29" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -565,7 +565,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -646,6 +646,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,7 +658,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -736,6 +739,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5355510.8810719606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5703941.5221370691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,7 +784,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -859,6 +865,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -868,7 +877,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -949,6 +958,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5056978.0408539018</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5200013.3228820767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -991,7 +1003,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1072,6 +1084,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1081,7 +1096,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1162,6 +1177,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-298532.84021805879</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-503928.19925499242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1183,11 +1201,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97239808"/>
-        <c:axId val="97241344"/>
+        <c:axId val="91594112"/>
+        <c:axId val="296956672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97239808"/>
+        <c:axId val="91594112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1230,14 +1248,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97241344"/>
+        <c:crossAx val="296956672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97241344"/>
+        <c:axId val="296956672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,7 +1306,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97239808"/>
+        <c:crossAx val="91594112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1449,7 +1467,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1530,6 +1548,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1542224.4036726714</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1288917.1577942353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1544,8 +1565,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="495849856"/>
-        <c:axId val="493025920"/>
+        <c:axId val="93434624"/>
+        <c:axId val="93428736"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1570,7 +1591,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1651,6 +1672,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1660,7 +1684,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1741,6 +1765,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1757,11 +1784,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493018496"/>
-        <c:axId val="493024384"/>
+        <c:axId val="93425664"/>
+        <c:axId val="93427200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493018496"/>
+        <c:axId val="93425664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1804,14 +1831,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493024384"/>
+        <c:crossAx val="93427200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493024384"/>
+        <c:axId val="93427200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,12 +1889,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493018496"/>
+        <c:crossAx val="93425664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493025920"/>
+        <c:axId val="93428736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1904,12 +1931,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495849856"/>
+        <c:crossAx val="93434624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="495849856"/>
+        <c:axId val="93434624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1918,7 +1945,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493025920"/>
+        <c:crossAx val="93428736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2050,7 +2077,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2131,6 +2158,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>256090.62365067154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>348430.64106510871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2145,8 +2175,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="495966080"/>
-        <c:axId val="495964160"/>
+        <c:axId val="429766912"/>
+        <c:axId val="429765376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2171,7 +2201,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2252,6 +2282,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2261,7 +2294,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2342,6 +2375,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2358,11 +2394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495853952"/>
-        <c:axId val="495855872"/>
+        <c:axId val="424454784"/>
+        <c:axId val="429627648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="495853952"/>
+        <c:axId val="424454784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,14 +2441,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495855872"/>
+        <c:crossAx val="429627648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="495855872"/>
+        <c:axId val="429627648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2463,12 +2499,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495853952"/>
+        <c:crossAx val="424454784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="495964160"/>
+        <c:axId val="429765376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2505,12 +2541,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495966080"/>
+        <c:crossAx val="429766912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="495966080"/>
+        <c:axId val="429766912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2519,7 +2555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="495964160"/>
+        <c:crossAx val="429765376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2669,7 +2705,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2750,6 +2786,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2759,7 +2798,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2840,6 +2879,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5513886.6326992325</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5932003.401977363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2882,7 +2924,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2963,6 +3005,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2972,7 +3017,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3053,6 +3098,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5220510.1568498099</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5426589.5098371096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3095,7 +3143,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3176,6 +3224,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3185,7 +3236,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3266,6 +3317,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-293376.47584942263</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-505413.89214025345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3287,11 +3341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502914048"/>
-        <c:axId val="508564224"/>
+        <c:axId val="453792128"/>
+        <c:axId val="453794048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502914048"/>
+        <c:axId val="453792128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3334,14 +3388,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508564224"/>
+        <c:crossAx val="453794048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508564224"/>
+        <c:axId val="453794048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3392,7 +3446,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502914048"/>
+        <c:crossAx val="453792128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3553,7 +3607,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3634,6 +3688,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>256090.62365067154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>418116.76927813044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3648,8 +3705,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="461530624"/>
-        <c:axId val="461529088"/>
+        <c:axId val="561207168"/>
+        <c:axId val="561205632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3674,7 +3731,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3755,6 +3812,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3764,7 +3824,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3845,6 +3905,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3861,11 +3924,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609555200"/>
-        <c:axId val="609556736"/>
+        <c:axId val="554472192"/>
+        <c:axId val="554473728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="609555200"/>
+        <c:axId val="554472192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3908,14 +3971,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609556736"/>
+        <c:crossAx val="554473728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="609556736"/>
+        <c:axId val="554473728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3966,12 +4029,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609555200"/>
+        <c:crossAx val="554472192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461529088"/>
+        <c:axId val="561205632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4008,12 +4071,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461530624"/>
+        <c:crossAx val="561207168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="461530624"/>
+        <c:axId val="561207168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4022,7 +4085,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="461529088"/>
+        <c:crossAx val="561205632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4172,7 +4235,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4253,6 +4316,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4262,7 +4328,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4343,6 +4409,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5704691.8825380336</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6053122.5236031422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4385,7 +4454,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4466,6 +4535,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4475,7 +4547,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4556,6 +4628,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5394453.3269900708</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5523781.636790554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4598,7 +4673,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4679,6 +4754,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4688,7 +4766,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4769,6 +4847,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-310238.5555479629</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-529340.8868125882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4790,11 +4871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461542144"/>
-        <c:axId val="461543680"/>
+        <c:axId val="79443456"/>
+        <c:axId val="79444992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461542144"/>
+        <c:axId val="79443456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4837,14 +4918,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461543680"/>
+        <c:crossAx val="79444992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461543680"/>
+        <c:axId val="79444992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4895,7 +4976,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461542144"/>
+        <c:crossAx val="79443456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5056,7 +5137,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5137,6 +5218,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>256090.62365067154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>348430.64106510871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5151,8 +5235,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="464249984"/>
-        <c:axId val="461569408"/>
+        <c:axId val="79472512"/>
+        <c:axId val="79470976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5177,7 +5261,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5258,6 +5342,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5267,7 +5354,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5348,6 +5435,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5364,11 +5454,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461566336"/>
-        <c:axId val="461567872"/>
+        <c:axId val="79463552"/>
+        <c:axId val="79465088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461566336"/>
+        <c:axId val="79463552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5411,14 +5501,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461567872"/>
+        <c:crossAx val="79465088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461567872"/>
+        <c:axId val="79465088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5469,12 +5559,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461566336"/>
+        <c:crossAx val="79463552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461569408"/>
+        <c:axId val="79470976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5511,12 +5601,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464249984"/>
+        <c:crossAx val="79472512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="464249984"/>
+        <c:axId val="79472512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5525,7 +5615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="461569408"/>
+        <c:crossAx val="79470976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5675,7 +5765,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5756,6 +5846,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5765,7 +5858,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5846,6 +5939,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>47148897.343884908</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50421369.515802942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5888,7 +5984,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5969,6 +6065,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5978,7 +6077,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6059,6 +6158,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45201638.977256298</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46638191.200187624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6101,7 +6203,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6182,6 +6284,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6191,7 +6296,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6272,6 +6377,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-1947258.3666286096</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3783178.3156153187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6293,11 +6401,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490070400"/>
-        <c:axId val="490071936"/>
+        <c:axId val="79520896"/>
+        <c:axId val="79522432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="490070400"/>
+        <c:axId val="79520896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6340,7 +6448,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490071936"/>
+        <c:crossAx val="79522432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6348,7 +6456,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="490071936"/>
+        <c:axId val="79522432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6399,7 +6507,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490070400"/>
+        <c:crossAx val="79520896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6560,7 +6668,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6641,6 +6749,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>63307618.799025491</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68084950.420234233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6655,8 +6766,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="492978944"/>
-        <c:axId val="492973056"/>
+        <c:axId val="79558144"/>
+        <c:axId val="79556608"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6681,7 +6792,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6762,6 +6873,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6771,7 +6885,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6852,6 +6966,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6868,11 +6985,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492969984"/>
-        <c:axId val="492971520"/>
+        <c:axId val="79549184"/>
+        <c:axId val="79550720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="492969984"/>
+        <c:axId val="79549184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6915,7 +7032,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492971520"/>
+        <c:crossAx val="79550720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6923,7 +7040,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="492971520"/>
+        <c:axId val="79550720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6974,12 +7091,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492969984"/>
+        <c:crossAx val="79549184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492973056"/>
+        <c:axId val="79556608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7016,12 +7133,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492978944"/>
+        <c:crossAx val="79558144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="492978944"/>
+        <c:axId val="79558144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7030,7 +7147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492973056"/>
+        <c:crossAx val="79556608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7180,7 +7297,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7261,6 +7378,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7270,7 +7390,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7351,6 +7471,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>17382589.479547914</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18671506.637342148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7393,7 +7516,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7474,6 +7597,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7483,7 +7609,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7564,6 +7690,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>16946941.709956296</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17547538.066478729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7606,7 +7735,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7687,6 +7816,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7696,7 +7828,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7777,6 +7909,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-435647.76959161833</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1123968.5708634183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7798,11 +7933,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492998656"/>
-        <c:axId val="493000192"/>
+        <c:axId val="93397760"/>
+        <c:axId val="93399296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492998656"/>
+        <c:axId val="93397760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7845,14 +7980,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493000192"/>
+        <c:crossAx val="93399296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493000192"/>
+        <c:axId val="93399296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7903,7 +8038,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492998656"/>
+        <c:crossAx val="93397760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8617,7 +8752,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9892,6 +10027,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:13" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>348430.64106510871</v>
+      </c>
+      <c r="F30" s="15">
+        <v>508657.86839762604</v>
+      </c>
+      <c r="G30" s="15">
+        <v>7591260.2989534335</v>
+      </c>
+      <c r="H30" s="15">
+        <v>5200013.3228820767</v>
+      </c>
+      <c r="I30" s="15">
+        <v>5703941.5221370691</v>
+      </c>
+      <c r="J30" s="15">
+        <v>5200013.3228820767</v>
+      </c>
+      <c r="K30" s="15">
+        <v>-503928.19925499242</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -9908,7 +10081,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11746,6 +11919,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:21" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>418116.76927813044</v>
+      </c>
+      <c r="F30" s="15">
+        <v>610389.44207715127</v>
+      </c>
+      <c r="G30" s="15">
+        <v>7922028.4539409084</v>
+      </c>
+      <c r="H30" s="15">
+        <v>5426589.5098371096</v>
+      </c>
+      <c r="I30" s="15">
+        <v>5932003.401977363</v>
+      </c>
+      <c r="J30" s="15">
+        <v>5426589.5098371096</v>
+      </c>
+      <c r="K30" s="15">
+        <v>-505413.89214025345</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="23">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="N30" s="23">
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="O30" s="23">
+        <v>0.69533334175745642</v>
+      </c>
+      <c r="P30" s="23">
+        <v>0.7400238055161068</v>
+      </c>
+      <c r="Q30" s="23">
+        <v>-4.4690463758650378E-2</v>
+      </c>
+      <c r="R30" s="23">
+        <v>2.3690478676841358E-2</v>
+      </c>
+      <c r="S30" s="9">
+        <v>3.5535718015262035E-4</v>
+      </c>
+      <c r="T30" s="9">
+        <v>-125.76209587057316</v>
+      </c>
+      <c r="U30" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11762,7 +12000,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13188,6 +13426,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:14" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>348430.64106510871</v>
+      </c>
+      <c r="F30" s="15">
+        <v>508657.86839762604</v>
+      </c>
+      <c r="G30" s="15">
+        <v>8063914.7701674206</v>
+      </c>
+      <c r="H30" s="15">
+        <v>5523781.636790554</v>
+      </c>
+      <c r="I30" s="15">
+        <v>6053122.5236031422</v>
+      </c>
+      <c r="J30" s="15">
+        <v>5523781.636790554</v>
+      </c>
+      <c r="K30" s="15">
+        <v>-529340.8868125882</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>-38.600823638801678</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13204,7 +13486,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14630,6 +14912,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:14" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>3272472.1719180341</v>
+      </c>
+      <c r="F30" s="15">
+        <v>4777331.6212087413</v>
+      </c>
+      <c r="G30" s="15">
+        <v>68084950.420234233</v>
+      </c>
+      <c r="H30" s="15">
+        <v>46638191.200187624</v>
+      </c>
+      <c r="I30" s="15">
+        <v>50421369.515802942</v>
+      </c>
+      <c r="J30" s="15">
+        <v>46638191.200187624</v>
+      </c>
+      <c r="K30" s="15">
+        <v>-3783178.3156153187</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>-38.600823638801678</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14646,7 +14972,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI29"/>
+  <dimension ref="A1:AI30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16242,6 +16568,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:16" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1644900</v>
+      </c>
+      <c r="F30" s="14">
+        <v>4176288.16796875</v>
+      </c>
+      <c r="G30" s="14">
+        <v>1288917.1577942353</v>
+      </c>
+      <c r="H30" s="15">
+        <v>1881630.8807417192</v>
+      </c>
+      <c r="I30" s="15">
+        <v>25616843.803508636</v>
+      </c>
+      <c r="J30" s="15">
+        <v>17547538.066478729</v>
+      </c>
+      <c r="K30" s="15">
+        <v>18671506.637342148</v>
+      </c>
+      <c r="L30" s="15">
+        <v>17547538.066478729</v>
+      </c>
+      <c r="M30" s="15">
+        <v>-1123968.5708634183</v>
+      </c>
+      <c r="N30" s="14">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9">
+        <v>-38.600823638801678</v>
+      </c>
+      <c r="P30" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -334,7 +334,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,9 +396,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -565,7 +562,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -649,6 +646,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -658,7 +658,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -742,6 +742,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5703941.5221370691</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6068134.445580963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -784,7 +787,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -868,6 +871,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -877,7 +883,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -961,6 +967,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5200013.3228820767</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5397198.4075353509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,7 +1012,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1087,6 +1096,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,7 +1108,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1180,6 +1192,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-503928.19925499242</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-670936.03804561216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1201,11 +1216,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91594112"/>
-        <c:axId val="296956672"/>
+        <c:axId val="40785024"/>
+        <c:axId val="40786560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91594112"/>
+        <c:axId val="40785024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1248,14 +1263,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296956672"/>
+        <c:crossAx val="40786560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="296956672"/>
+        <c:axId val="40786560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1321,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91594112"/>
+        <c:crossAx val="40785024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1467,7 +1482,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1551,6 +1566,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1288917.1577942353</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2762891.4536756147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,8 +1583,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="93434624"/>
-        <c:axId val="93428736"/>
+        <c:axId val="477162880"/>
+        <c:axId val="477161344"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1591,7 +1609,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1675,6 +1693,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1684,7 +1705,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1768,6 +1789,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1784,11 +1808,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93425664"/>
-        <c:axId val="93427200"/>
+        <c:axId val="477153920"/>
+        <c:axId val="477159808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93425664"/>
+        <c:axId val="477153920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,14 +1855,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93427200"/>
+        <c:crossAx val="477159808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93427200"/>
+        <c:axId val="477159808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1889,12 +1913,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93425664"/>
+        <c:crossAx val="477153920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93428736"/>
+        <c:axId val="477161344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,12 +1955,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93434624"/>
+        <c:crossAx val="477162880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="93434624"/>
+        <c:axId val="477162880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1945,7 +1969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93428736"/>
+        <c:crossAx val="477161344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2077,7 +2101,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2161,6 +2185,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>348430.64106510871</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>364192.92344389425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2175,8 +2202,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="429766912"/>
-        <c:axId val="429765376"/>
+        <c:axId val="447621760"/>
+        <c:axId val="447619840"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2201,7 +2228,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2285,6 +2312,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2294,7 +2324,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2378,6 +2408,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2394,11 +2427,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="424454784"/>
-        <c:axId val="429627648"/>
+        <c:axId val="444489088"/>
+        <c:axId val="447552128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="424454784"/>
+        <c:axId val="444489088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,14 +2474,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429627648"/>
+        <c:crossAx val="447552128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="429627648"/>
+        <c:axId val="447552128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,12 +2532,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424454784"/>
+        <c:crossAx val="444489088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429765376"/>
+        <c:axId val="447619840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2541,12 +2574,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429766912"/>
+        <c:crossAx val="447621760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="429766912"/>
+        <c:axId val="447621760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,7 +2588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429765376"/>
+        <c:crossAx val="447619840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2705,7 +2738,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2789,6 +2822,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2798,7 +2834,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2882,6 +2918,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5932003.401977363</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6369034.9101100359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2924,7 +2963,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3008,6 +3047,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3017,7 +3059,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3101,6 +3143,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5426589.5098371096</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5689336.2748800395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3143,7 +3188,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3227,6 +3272,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3236,7 +3284,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3320,6 +3368,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-505413.89214025345</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-679698.63522999641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,11 +3392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="453792128"/>
-        <c:axId val="453794048"/>
+        <c:axId val="472353792"/>
+        <c:axId val="474174208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="453792128"/>
+        <c:axId val="472353792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3388,14 +3439,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453794048"/>
+        <c:crossAx val="474174208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="453794048"/>
+        <c:axId val="474174208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3446,7 +3497,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453792128"/>
+        <c:crossAx val="472353792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3607,7 +3658,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3691,6 +3742,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>418116.76927813044</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>437031.5081326731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3705,8 +3759,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="561207168"/>
-        <c:axId val="561205632"/>
+        <c:axId val="505694464"/>
+        <c:axId val="505692544"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3731,7 +3785,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3815,6 +3869,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3824,7 +3881,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3908,6 +3965,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3924,11 +3984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="554472192"/>
-        <c:axId val="554473728"/>
+        <c:axId val="504878208"/>
+        <c:axId val="504879744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="554472192"/>
+        <c:axId val="504878208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3971,14 +4031,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554473728"/>
+        <c:crossAx val="504879744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="554473728"/>
+        <c:axId val="504879744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4029,12 +4089,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554472192"/>
+        <c:crossAx val="504878208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561205632"/>
+        <c:axId val="505692544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4071,12 +4131,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561207168"/>
+        <c:crossAx val="505694464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="561207168"/>
+        <c:axId val="505694464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4085,7 +4145,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="561205632"/>
+        <c:crossAx val="505692544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4235,7 +4295,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4319,6 +4379,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4328,7 +4391,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4412,6 +4475,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>6053122.5236031422</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6417315.4470470361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4454,7 +4520,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4538,6 +4604,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4547,7 +4616,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4631,6 +4700,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5523781.636790554</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5710568.3160903649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4673,7 +4745,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4757,6 +4829,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4766,7 +4841,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4850,6 +4925,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-529340.8868125882</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-706747.1309566712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4871,11 +4949,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79443456"/>
-        <c:axId val="79444992"/>
+        <c:axId val="465858944"/>
+        <c:axId val="465860480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79443456"/>
+        <c:axId val="465858944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4918,14 +4996,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79444992"/>
+        <c:crossAx val="465860480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79444992"/>
+        <c:axId val="465860480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4976,7 +5054,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79443456"/>
+        <c:crossAx val="465858944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5137,7 +5215,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5221,6 +5299,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>348430.64106510871</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>364192.92344389425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5235,8 +5316,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="79472512"/>
-        <c:axId val="79470976"/>
+        <c:axId val="465892096"/>
+        <c:axId val="465890304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5261,7 +5342,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5345,6 +5426,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5354,7 +5438,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5438,6 +5522,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5454,11 +5541,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79463552"/>
-        <c:axId val="79465088"/>
+        <c:axId val="465887232"/>
+        <c:axId val="465888768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79463552"/>
+        <c:axId val="465887232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5501,14 +5588,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79465088"/>
+        <c:crossAx val="465888768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79465088"/>
+        <c:axId val="465888768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5559,12 +5646,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79463552"/>
+        <c:crossAx val="465887232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79470976"/>
+        <c:axId val="465890304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5601,12 +5688,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79472512"/>
+        <c:crossAx val="465892096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="79472512"/>
+        <c:axId val="465892096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5615,7 +5702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79470976"/>
+        <c:crossAx val="465890304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5765,8 +5852,8 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -5849,6 +5936,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5858,7 +5948,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5942,6 +6032,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>50421369.515802942</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>53918394.269471437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5984,8 +6077,8 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -6068,6 +6161,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6077,7 +6173,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6161,6 +6257,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>46638191.200187624</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48637346.038182497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6203,8 +6302,8 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -6287,6 +6386,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6296,7 +6398,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6380,6 +6482,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-3783178.3156153187</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5281048.2312889397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6401,17 +6506,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79520896"/>
-        <c:axId val="79522432"/>
+        <c:axId val="474161152"/>
+        <c:axId val="474162688"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="79520896"/>
+      <c:dateAx>
+        <c:axId val="474161152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -6448,15 +6553,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79522432"/>
+        <c:crossAx val="474162688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="79522432"/>
+        <c:axId val="474162688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6507,7 +6611,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79520896"/>
+        <c:crossAx val="474161152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6668,7 +6772,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6752,6 +6856,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>68084950.420234233</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>73359497.658637092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6766,8 +6873,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="79558144"/>
-        <c:axId val="79556608"/>
+        <c:axId val="474194304"/>
+        <c:axId val="474192512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6792,8 +6899,8 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -6876,6 +6983,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6885,7 +6995,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6969,6 +7079,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6985,17 +7098,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79549184"/>
-        <c:axId val="79550720"/>
+        <c:axId val="474185088"/>
+        <c:axId val="474190976"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="79549184"/>
+      <c:dateAx>
+        <c:axId val="474185088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7032,15 +7145,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79550720"/>
+        <c:crossAx val="474190976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="79550720"/>
+        <c:axId val="474190976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7091,12 +7203,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79549184"/>
+        <c:crossAx val="474185088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79556608"/>
+        <c:axId val="474192512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7133,12 +7245,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79558144"/>
+        <c:crossAx val="474194304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="79558144"/>
+        <c:axId val="474194304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7147,7 +7259,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79556608"/>
+        <c:crossAx val="474192512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7297,7 +7409,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7381,6 +7493,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7390,7 +7505,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7474,6 +7589,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>18671506.637342148</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21434398.09101776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7516,7 +7634,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7600,6 +7718,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7609,7 +7730,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7693,6 +7814,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>17547538.066478729</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19746858.577810202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7735,7 +7859,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7819,6 +7943,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7828,7 +7955,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7912,6 +8039,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-1123968.5708634183</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1687539.5132075585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7933,11 +8063,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93397760"/>
-        <c:axId val="93399296"/>
+        <c:axId val="477133824"/>
+        <c:axId val="477135616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93397760"/>
+        <c:axId val="477133824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7980,14 +8110,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93399296"/>
+        <c:crossAx val="477135616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93399296"/>
+        <c:axId val="477135616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8038,7 +8168,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93397760"/>
+        <c:crossAx val="477133824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8752,7 +8882,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10065,6 +10195,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:13" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>364192.92344389425</v>
+      </c>
+      <c r="F31" s="15">
+        <v>549310.60370153643</v>
+      </c>
+      <c r="G31" s="15">
+        <v>8140570.9026549701</v>
+      </c>
+      <c r="H31" s="15">
+        <v>5397198.4075353509</v>
+      </c>
+      <c r="I31" s="15">
+        <v>6068134.445580963</v>
+      </c>
+      <c r="J31" s="15">
+        <v>5397198.4075353509</v>
+      </c>
+      <c r="K31" s="15">
+        <v>-670936.03804561216</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10081,7 +10249,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11984,6 +12152,71 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="31" spans="1:21" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>437031.5081326731</v>
+      </c>
+      <c r="F31" s="15">
+        <v>659172.72444184369</v>
+      </c>
+      <c r="G31" s="15">
+        <v>8581201.1783827525</v>
+      </c>
+      <c r="H31" s="15">
+        <v>5689336.2748800395</v>
+      </c>
+      <c r="I31" s="15">
+        <v>6369034.9101100359</v>
+      </c>
+      <c r="J31" s="15">
+        <v>5689336.2748800395</v>
+      </c>
+      <c r="K31" s="15">
+        <v>-679698.63522999641</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="23">
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="N31" s="23">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="O31" s="23">
+        <v>0.66433332363764441</v>
+      </c>
+      <c r="P31" s="23">
+        <v>0.73140475675037919</v>
+      </c>
+      <c r="Q31" s="23">
+        <v>-6.707143311273478E-2</v>
+      </c>
+      <c r="R31" s="23">
+        <v>2.4653063212933164E-2</v>
+      </c>
+      <c r="S31" s="9">
+        <v>3.6979594819399746E-4</v>
+      </c>
+      <c r="T31" s="9">
+        <v>-181.37416983689786</v>
+      </c>
+      <c r="U31" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12000,7 +12233,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13470,6 +13703,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31" spans="1:14" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>364192.92344389425</v>
+      </c>
+      <c r="F31" s="15">
+        <v>549310.60370153643</v>
+      </c>
+      <c r="G31" s="15">
+        <v>8613225.3738689572</v>
+      </c>
+      <c r="H31" s="15">
+        <v>5710568.3160903649</v>
+      </c>
+      <c r="I31" s="15">
+        <v>6417315.4470470361</v>
+      </c>
+      <c r="J31" s="15">
+        <v>5710568.3160903649</v>
+      </c>
+      <c r="K31" s="15">
+        <v>-706747.1309566712</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>11.750560187063723</v>
+      </c>
+      <c r="N31" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13486,7 +13763,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13590,7 +13867,7 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:33" ht="14.1" customHeight="1">
-      <c r="A3" s="31">
+      <c r="A3" s="12">
         <v>44377</v>
       </c>
       <c r="B3" s="13">
@@ -14953,6 +15230,50 @@
         <v>-38.600823638801678</v>
       </c>
       <c r="N30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>3497024.7536684927</v>
+      </c>
+      <c r="F31" s="15">
+        <v>5274547.2384028593</v>
+      </c>
+      <c r="G31" s="15">
+        <v>73359497.658637092</v>
+      </c>
+      <c r="H31" s="15">
+        <v>48637346.038182497</v>
+      </c>
+      <c r="I31" s="15">
+        <v>53918394.269471437</v>
+      </c>
+      <c r="J31" s="15">
+        <v>48637346.038182497</v>
+      </c>
+      <c r="K31" s="15">
+        <v>-5281048.2312889397</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>11.750560187063723</v>
+      </c>
+      <c r="N31" s="9">
         <v>1</v>
       </c>
     </row>
@@ -14972,7 +15293,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI30"/>
+  <dimension ref="A1:AI31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16618,6 +16939,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31" spans="1:16" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>3279702</v>
+      </c>
+      <c r="F31" s="14">
+        <v>4151158.042563708</v>
+      </c>
+      <c r="G31" s="14">
+        <v>2762891.4536756147</v>
+      </c>
+      <c r="H31" s="15">
+        <v>4167257.1724589658</v>
+      </c>
+      <c r="I31" s="15">
+        <v>29784100.975967601</v>
+      </c>
+      <c r="J31" s="15">
+        <v>19746858.577810202</v>
+      </c>
+      <c r="K31" s="15">
+        <v>21434398.09101776</v>
+      </c>
+      <c r="L31" s="15">
+        <v>19746858.577810202</v>
+      </c>
+      <c r="M31" s="15">
+        <v>-1687539.5132075585</v>
+      </c>
+      <c r="N31" s="14">
+        <v>0</v>
+      </c>
+      <c r="O31" s="9">
+        <v>11.750560187063723</v>
+      </c>
+      <c r="P31" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="model4(1)" sheetId="9" r:id="rId1"/>
@@ -562,7 +562,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -649,6 +649,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -658,7 +664,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -745,6 +751,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6068134.445580963</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6471218.9630682301</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6865089.2319875453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,7 +799,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -874,6 +886,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -883,7 +901,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -970,6 +988,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5397198.4075353509</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5702596.3614385333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6043907.7728215661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1012,7 +1036,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1099,6 +1123,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1108,7 +1138,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1195,6 +1225,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-670936.03804561216</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-768622.60162969679</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-821181.45916597918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,11 +1252,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40785024"/>
-        <c:axId val="40786560"/>
+        <c:axId val="492738816"/>
+        <c:axId val="493711360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="40785024"/>
+        <c:axId val="492738816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,14 +1299,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40786560"/>
+        <c:crossAx val="493711360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="40786560"/>
+        <c:axId val="493711360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,7 +1357,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40785024"/>
+        <c:crossAx val="492738816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1482,7 +1518,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1569,6 +1605,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2762891.4536756147</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4076946.3995297765</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5334579.4633873561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1583,8 +1625,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="477162880"/>
-        <c:axId val="477161344"/>
+        <c:axId val="436323840"/>
+        <c:axId val="436322304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1609,7 +1651,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1696,6 +1738,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1705,7 +1753,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1792,6 +1840,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1808,11 +1862,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477153920"/>
-        <c:axId val="477159808"/>
+        <c:axId val="436310784"/>
+        <c:axId val="436312320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477153920"/>
+        <c:axId val="436310784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1855,14 +1909,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477159808"/>
+        <c:crossAx val="436312320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477159808"/>
+        <c:axId val="436312320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,12 +1967,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477153920"/>
+        <c:crossAx val="436310784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="477161344"/>
+        <c:axId val="436322304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,12 +2009,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477162880"/>
+        <c:crossAx val="436323840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="477162880"/>
+        <c:axId val="436323840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,7 +2023,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="477161344"/>
+        <c:crossAx val="436322304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2101,7 +2155,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2188,6 +2242,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>364192.92344389425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>403084.51748726668</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>393870.26891931542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2202,8 +2262,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="447621760"/>
-        <c:axId val="447619840"/>
+        <c:axId val="516182016"/>
+        <c:axId val="516175744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2228,7 +2288,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2315,6 +2375,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2324,7 +2390,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2411,6 +2477,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2427,11 +2499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="444489088"/>
-        <c:axId val="447552128"/>
+        <c:axId val="511731968"/>
+        <c:axId val="516174208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="444489088"/>
+        <c:axId val="511731968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2474,14 +2546,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447552128"/>
+        <c:crossAx val="516174208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="447552128"/>
+        <c:axId val="516174208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,12 +2604,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444489088"/>
+        <c:crossAx val="511731968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="447619840"/>
+        <c:axId val="516175744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2574,12 +2646,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447621760"/>
+        <c:crossAx val="516182016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="447621760"/>
+        <c:axId val="516182016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2588,7 +2660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="447619840"/>
+        <c:crossAx val="516175744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2738,7 +2810,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2825,6 +2897,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2834,7 +2912,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2921,6 +2999,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6369034.9101100359</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6852736.3310947558</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7325380.6537979338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2963,7 +3047,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3050,6 +3134,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3059,7 +3149,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3146,6 +3236,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5689336.2748800395</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6070063.58452</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6486762.2314372649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3188,7 +3284,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3275,6 +3371,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3284,7 +3386,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3371,6 +3473,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-679698.63522999641</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-782672.74657475576</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-838618.42236066889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3392,11 +3500,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472353792"/>
-        <c:axId val="474174208"/>
+        <c:axId val="586918144"/>
+        <c:axId val="314028032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472353792"/>
+        <c:axId val="586918144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,14 +3547,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474174208"/>
+        <c:crossAx val="314028032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474174208"/>
+        <c:axId val="314028032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3497,7 +3605,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472353792"/>
+        <c:crossAx val="586918144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3658,7 +3766,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3745,6 +3853,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>437031.5081326731</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>483701.42098472</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>472644.32270317851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3759,8 +3873,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="505694464"/>
-        <c:axId val="505692544"/>
+        <c:axId val="314043008"/>
+        <c:axId val="314041472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3785,7 +3899,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3872,6 +3986,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3881,7 +4001,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3968,6 +4088,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3984,11 +4110,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504878208"/>
-        <c:axId val="504879744"/>
+        <c:axId val="314038144"/>
+        <c:axId val="314039680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504878208"/>
+        <c:axId val="314038144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4031,14 +4157,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504879744"/>
+        <c:crossAx val="314039680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504879744"/>
+        <c:axId val="314039680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4089,12 +4215,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504878208"/>
+        <c:crossAx val="314038144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="505692544"/>
+        <c:axId val="314041472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4131,12 +4257,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505694464"/>
+        <c:crossAx val="314043008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="505694464"/>
+        <c:axId val="314043008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4145,7 +4271,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="505692544"/>
+        <c:crossAx val="314041472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4295,7 +4421,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4382,6 +4508,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4391,7 +4523,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4478,6 +4610,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6417315.4470470361</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6901016.868031756</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7294887.1369510712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4520,7 +4658,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4607,6 +4745,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4616,7 +4760,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4703,6 +4847,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5710568.3160903649</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6090911.3365144944</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6428643.7831311915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4745,7 +4895,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4832,6 +4982,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4841,7 +4997,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4928,6 +5084,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-706747.1309566712</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-810105.53151726164</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-866243.3538198797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4949,11 +5111,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465858944"/>
-        <c:axId val="465860480"/>
+        <c:axId val="435177344"/>
+        <c:axId val="435178880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465858944"/>
+        <c:axId val="435177344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4996,14 +5158,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465860480"/>
+        <c:crossAx val="435178880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465860480"/>
+        <c:axId val="435178880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5054,7 +5216,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465858944"/>
+        <c:crossAx val="435177344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5215,7 +5377,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5302,6 +5464,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>364192.92344389425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>483701.42098472</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>393870.26891931542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5316,8 +5484,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="465892096"/>
-        <c:axId val="465890304"/>
+        <c:axId val="435206784"/>
+        <c:axId val="435205248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5342,7 +5510,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5429,6 +5597,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5438,7 +5612,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5525,6 +5699,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5541,11 +5721,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465887232"/>
-        <c:axId val="465888768"/>
+        <c:axId val="435201920"/>
+        <c:axId val="435203456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465887232"/>
+        <c:axId val="435201920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5588,14 +5768,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465888768"/>
+        <c:crossAx val="435203456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465888768"/>
+        <c:axId val="435203456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5646,12 +5826,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465887232"/>
+        <c:crossAx val="435201920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="465890304"/>
+        <c:axId val="435205248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5688,12 +5868,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465892096"/>
+        <c:crossAx val="435206784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="465892096"/>
+        <c:axId val="435206784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5702,7 +5882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465890304"/>
+        <c:crossAx val="435205248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5852,7 +6032,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5939,6 +6119,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5948,7 +6134,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6035,6 +6221,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>53918394.269471437</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58804657.6645867</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62737723.820857614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6077,7 +6269,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6164,6 +6356,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6173,7 +6371,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6260,6 +6458,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>48637346.038182497</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>52643298.049953662</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56091169.142944716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6302,7 +6506,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6389,6 +6593,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6398,7 +6608,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6485,6 +6695,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-5281048.2312889397</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-6161359.6146330386</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6646554.6779128984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6506,11 +6722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474161152"/>
-        <c:axId val="474162688"/>
+        <c:axId val="435218304"/>
+        <c:axId val="435219840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474161152"/>
+        <c:axId val="435218304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6553,14 +6769,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474162688"/>
+        <c:crossAx val="435219840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474162688"/>
+        <c:axId val="435219840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6611,7 +6827,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474161152"/>
+        <c:crossAx val="435218304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6772,7 +6988,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6859,6 +7075,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>73359497.658637092</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>80865278.339622617</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>86963055.506408319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6873,8 +7095,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="474194304"/>
-        <c:axId val="474192512"/>
+        <c:axId val="435251456"/>
+        <c:axId val="435249920"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6899,7 +7121,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6986,6 +7208,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6995,7 +7223,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7082,6 +7310,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7098,11 +7332,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474185088"/>
-        <c:axId val="474190976"/>
+        <c:axId val="435246592"/>
+        <c:axId val="435248128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474185088"/>
+        <c:axId val="435246592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7145,14 +7379,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474190976"/>
+        <c:crossAx val="435248128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474190976"/>
+        <c:axId val="435248128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7203,12 +7437,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474185088"/>
+        <c:crossAx val="435246592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474192512"/>
+        <c:axId val="435249920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7245,12 +7479,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474194304"/>
+        <c:crossAx val="435251456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="474194304"/>
+        <c:axId val="435251456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7259,7 +7493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474192512"/>
+        <c:crossAx val="435249920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7409,7 +7643,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7496,6 +7730,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7505,7 +7745,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7592,6 +7832,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>21434398.09101776</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25511344.490547538</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30845923.953934893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7634,7 +7880,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7721,6 +7967,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7730,7 +7982,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7817,6 +8069,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>19746858.577810202</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23466396.816588655</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28584694.620009139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7859,7 +8117,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7946,6 +8204,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7955,7 +8219,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8042,6 +8306,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-1687539.5132075585</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2044947.6739588827</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2261229.3339257538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8063,11 +8333,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477133824"/>
-        <c:axId val="477135616"/>
+        <c:axId val="436290688"/>
+        <c:axId val="436292224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477133824"/>
+        <c:axId val="436290688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8110,14 +8380,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477135616"/>
+        <c:crossAx val="436292224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477135616"/>
+        <c:axId val="436292224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8168,7 +8438,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477133824"/>
+        <c:crossAx val="436290688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8882,7 +9152,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10233,6 +10503,82 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:13" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>403084.51748726668</v>
+      </c>
+      <c r="F32" s="15">
+        <v>619177.42444764997</v>
+      </c>
+      <c r="G32" s="15">
+        <v>8759748.3271026202</v>
+      </c>
+      <c r="H32" s="15">
+        <v>5702596.3614385333</v>
+      </c>
+      <c r="I32" s="15">
+        <v>6471218.9630682301</v>
+      </c>
+      <c r="J32" s="15">
+        <v>5702596.3614385333</v>
+      </c>
+      <c r="K32" s="15">
+        <v>-768622.60162969679</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>393870.26891931542</v>
+      </c>
+      <c r="F33" s="15">
+        <v>610651.59777762846</v>
+      </c>
+      <c r="G33" s="15">
+        <v>9370399.9248802494</v>
+      </c>
+      <c r="H33" s="15">
+        <v>6043907.7728215661</v>
+      </c>
+      <c r="I33" s="15">
+        <v>6865089.2319875453</v>
+      </c>
+      <c r="J33" s="15">
+        <v>6043907.7728215661</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-821181.45916597918</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10249,7 +10595,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12217,6 +12563,136 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="32" spans="1:21" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>483701.42098472</v>
+      </c>
+      <c r="F32" s="15">
+        <v>743012.90933717985</v>
+      </c>
+      <c r="G32" s="15">
+        <v>9324214.0877199322</v>
+      </c>
+      <c r="H32" s="15">
+        <v>6070063.58452</v>
+      </c>
+      <c r="I32" s="15">
+        <v>6852736.3310947558</v>
+      </c>
+      <c r="J32" s="15">
+        <v>6070063.58452</v>
+      </c>
+      <c r="K32" s="15">
+        <v>-782672.74657475576</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+      <c r="M32" s="23">
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="N32" s="23">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="O32" s="23">
+        <v>0.66000000635782874</v>
+      </c>
+      <c r="P32" s="23">
+        <v>0.72697618699073774</v>
+      </c>
+      <c r="Q32" s="23">
+        <v>-6.6976180632908999E-2</v>
+      </c>
+      <c r="R32" s="23">
+        <v>2.8551020190829352E-2</v>
+      </c>
+      <c r="S32" s="9">
+        <v>4.2826530286244025E-4</v>
+      </c>
+      <c r="T32" s="9">
+        <v>-156.38946275884015</v>
+      </c>
+      <c r="U32" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>472644.32270317851</v>
+      </c>
+      <c r="F33" s="15">
+        <v>732781.91733315412</v>
+      </c>
+      <c r="G33" s="15">
+        <v>10056996.005053086</v>
+      </c>
+      <c r="H33" s="15">
+        <v>6486762.2314372649</v>
+      </c>
+      <c r="I33" s="15">
+        <v>7325380.6537979338</v>
+      </c>
+      <c r="J33" s="15">
+        <v>6486762.2314372649</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-838618.42236066889</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+      <c r="M33" s="23">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="N33" s="23">
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="O33" s="23">
+        <v>0.63599999745686853</v>
+      </c>
+      <c r="P33" s="23">
+        <v>0.72223809314909437</v>
+      </c>
+      <c r="Q33" s="23">
+        <v>-8.6238095692225847E-2</v>
+      </c>
+      <c r="R33" s="23">
+        <v>3.4170063855696688E-2</v>
+      </c>
+      <c r="S33" s="9">
+        <v>5.1255095783545035E-4</v>
+      </c>
+      <c r="T33" s="9">
+        <v>-168.25272565369349</v>
+      </c>
+      <c r="U33" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12233,7 +12709,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13747,6 +14223,94 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:14" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>483701.42098472</v>
+      </c>
+      <c r="F32" s="15">
+        <v>743012.90933717985</v>
+      </c>
+      <c r="G32" s="15">
+        <v>9356238.2832061369</v>
+      </c>
+      <c r="H32" s="15">
+        <v>6090911.3365144944</v>
+      </c>
+      <c r="I32" s="15">
+        <v>6901016.868031756</v>
+      </c>
+      <c r="J32" s="15">
+        <v>6090911.3365144944</v>
+      </c>
+      <c r="K32" s="15">
+        <v>-810105.53151726164</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>-113.41457128255375</v>
+      </c>
+      <c r="N32" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>393870.26891931542</v>
+      </c>
+      <c r="F33" s="15">
+        <v>610651.59777762846</v>
+      </c>
+      <c r="G33" s="15">
+        <v>9966889.8809837662</v>
+      </c>
+      <c r="H33" s="15">
+        <v>6428643.7831311915</v>
+      </c>
+      <c r="I33" s="15">
+        <v>7294887.1369510712</v>
+      </c>
+      <c r="J33" s="15">
+        <v>6428643.7831311915</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-866243.3538198797</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>134.00503901876459</v>
+      </c>
+      <c r="N33" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13763,7 +14327,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15277,6 +15841,94 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:14" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>4886263.3951152666</v>
+      </c>
+      <c r="F32" s="15">
+        <v>7505780.6809855308</v>
+      </c>
+      <c r="G32" s="15">
+        <v>80865278.339622617</v>
+      </c>
+      <c r="H32" s="15">
+        <v>52643298.049953662</v>
+      </c>
+      <c r="I32" s="15">
+        <v>58804657.6645867</v>
+      </c>
+      <c r="J32" s="15">
+        <v>52643298.049953662</v>
+      </c>
+      <c r="K32" s="15">
+        <v>-6161359.6146330386</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>-113.41457128255375</v>
+      </c>
+      <c r="N32" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>3933066.1562709101</v>
+      </c>
+      <c r="F33" s="15">
+        <v>6097777.1667857049</v>
+      </c>
+      <c r="G33" s="15">
+        <v>86963055.506408319</v>
+      </c>
+      <c r="H33" s="15">
+        <v>56091169.142944716</v>
+      </c>
+      <c r="I33" s="15">
+        <v>62737723.820857614</v>
+      </c>
+      <c r="J33" s="15">
+        <v>56091169.142944716</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-6646554.6779128984</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>134.00503901876459</v>
+      </c>
+      <c r="N33" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15293,7 +15945,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI31"/>
+  <dimension ref="A1:AI33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16989,6 +17641,106 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:16" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>3444800</v>
+      </c>
+      <c r="F32" s="14">
+        <v>4128629.2469860404</v>
+      </c>
+      <c r="G32" s="14">
+        <v>4076946.3995297765</v>
+      </c>
+      <c r="H32" s="15">
+        <v>6262590.2552848859</v>
+      </c>
+      <c r="I32" s="15">
+        <v>36046691.231252484</v>
+      </c>
+      <c r="J32" s="15">
+        <v>23466396.816588655</v>
+      </c>
+      <c r="K32" s="15">
+        <v>25511344.490547538</v>
+      </c>
+      <c r="L32" s="15">
+        <v>23466396.816588655</v>
+      </c>
+      <c r="M32" s="15">
+        <v>-2044947.6739588827</v>
+      </c>
+      <c r="N32" s="14">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
+        <v>-113.41457128255375</v>
+      </c>
+      <c r="P32" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>5609700</v>
+      </c>
+      <c r="F33" s="14">
+        <v>4135906.376174428</v>
+      </c>
+      <c r="G33" s="14">
+        <v>5334579.4633873561</v>
+      </c>
+      <c r="H33" s="15">
+        <v>8270666.0792833995</v>
+      </c>
+      <c r="I33" s="15">
+        <v>44317357.310535885</v>
+      </c>
+      <c r="J33" s="15">
+        <v>28584694.620009139</v>
+      </c>
+      <c r="K33" s="15">
+        <v>30845923.953934893</v>
+      </c>
+      <c r="L33" s="15">
+        <v>28584694.620009139</v>
+      </c>
+      <c r="M33" s="15">
+        <v>-2261229.3339257538</v>
+      </c>
+      <c r="N33" s="14">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <v>134.00503901876459</v>
+      </c>
+      <c r="P33" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -655,6 +655,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -664,7 +667,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -757,6 +760,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6865089.2319875453</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7429784.6436091401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -799,7 +805,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -892,6 +898,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -901,7 +910,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -994,6 +1003,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6043907.7728215661</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5821489.671180008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1036,7 +1048,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1129,6 +1141,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1138,7 +1153,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1231,6 +1246,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-821181.45916597918</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1608294.9724291321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1252,11 +1270,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492738816"/>
-        <c:axId val="493711360"/>
+        <c:axId val="404257792"/>
+        <c:axId val="422695680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492738816"/>
+        <c:axId val="404257792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,14 +1317,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493711360"/>
+        <c:crossAx val="422695680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493711360"/>
+        <c:axId val="422695680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1357,7 +1375,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492738816"/>
+        <c:crossAx val="404257792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1518,7 +1536,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1611,6 +1629,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>5334579.4633873561</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20793795.79339486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1625,8 +1646,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="436323840"/>
-        <c:axId val="436322304"/>
+        <c:axId val="370774400"/>
+        <c:axId val="370772608"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1651,7 +1672,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1744,6 +1765,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1753,7 +1777,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1846,6 +1870,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1862,11 +1889,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436310784"/>
-        <c:axId val="436312320"/>
+        <c:axId val="370756992"/>
+        <c:axId val="370771072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436310784"/>
+        <c:axId val="370756992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,14 +1936,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436312320"/>
+        <c:crossAx val="370771072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436312320"/>
+        <c:axId val="370771072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,12 +1994,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436310784"/>
+        <c:crossAx val="370756992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="436322304"/>
+        <c:axId val="370772608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2009,12 +2036,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436323840"/>
+        <c:crossAx val="370774400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="436323840"/>
+        <c:axId val="370774400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2023,7 +2050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="436322304"/>
+        <c:crossAx val="370772608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2155,7 +2182,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2248,6 +2275,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>393870.26891931542</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>564695.41162159434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2262,8 +2292,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="516182016"/>
-        <c:axId val="516175744"/>
+        <c:axId val="458293632"/>
+        <c:axId val="457933952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2288,7 +2318,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2381,6 +2411,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2390,7 +2423,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2483,6 +2516,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2499,11 +2535,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511731968"/>
-        <c:axId val="516174208"/>
+        <c:axId val="454866432"/>
+        <c:axId val="454868352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511731968"/>
+        <c:axId val="454866432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,14 +2582,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516174208"/>
+        <c:crossAx val="454868352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516174208"/>
+        <c:axId val="454868352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2604,12 +2640,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511731968"/>
+        <c:crossAx val="454866432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516175744"/>
+        <c:axId val="457933952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,12 +2682,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516182016"/>
+        <c:crossAx val="458293632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="516182016"/>
+        <c:axId val="458293632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2660,7 +2696,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516175744"/>
+        <c:crossAx val="457933952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2810,7 +2846,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2903,6 +2939,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2912,7 +2951,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3005,6 +3044,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7325380.6537979338</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8003015.1477438472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3047,7 +3089,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3140,6 +3182,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3149,7 +3194,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3242,6 +3287,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6486762.2314372649</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6319609.1472786088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3284,7 +3332,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3377,6 +3425,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3386,7 +3437,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3479,6 +3530,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-838618.42236066889</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1683406.0004652385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3500,11 +3554,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="586918144"/>
-        <c:axId val="314028032"/>
+        <c:axId val="362849408"/>
+        <c:axId val="362850944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="586918144"/>
+        <c:axId val="362849408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3547,14 +3601,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314028032"/>
+        <c:crossAx val="362850944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="314028032"/>
+        <c:axId val="362850944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3605,7 +3659,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586918144"/>
+        <c:crossAx val="362849408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3766,7 +3820,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3859,6 +3913,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>472644.32270317851</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>677634.49394591316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3873,8 +3930,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="314043008"/>
-        <c:axId val="314041472"/>
+        <c:axId val="370288512"/>
+        <c:axId val="370286976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3899,7 +3956,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3992,6 +4049,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4001,7 +4061,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4094,6 +4154,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4110,11 +4173,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="314038144"/>
-        <c:axId val="314039680"/>
+        <c:axId val="362865792"/>
+        <c:axId val="362867328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="314038144"/>
+        <c:axId val="362865792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4157,14 +4220,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314039680"/>
+        <c:crossAx val="362867328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="314039680"/>
+        <c:axId val="362867328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4215,12 +4278,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314038144"/>
+        <c:crossAx val="362865792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="314041472"/>
+        <c:axId val="370286976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4257,12 +4320,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314043008"/>
+        <c:crossAx val="370288512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="314043008"/>
+        <c:axId val="370288512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4271,7 +4334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="314041472"/>
+        <c:crossAx val="370286976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4421,7 +4484,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4514,6 +4577,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4523,7 +4589,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4616,6 +4682,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7294887.1369510712</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7972521.6308969846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4658,7 +4727,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4751,6 +4820,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4760,7 +4832,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4853,6 +4925,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6428643.7831311915</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6269059.6126209693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4895,7 +4970,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4988,6 +5063,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4997,7 +5075,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5090,6 +5168,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-866243.3538198797</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1703462.0182760153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5111,11 +5192,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435177344"/>
-        <c:axId val="435178880"/>
+        <c:axId val="370340992"/>
+        <c:axId val="370342528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435177344"/>
+        <c:axId val="370340992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5158,14 +5239,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435178880"/>
+        <c:crossAx val="370342528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435178880"/>
+        <c:axId val="370342528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5216,7 +5297,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435177344"/>
+        <c:crossAx val="370340992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5377,7 +5458,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5470,6 +5551,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>393870.26891931542</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>677634.49394591316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5484,8 +5568,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="435206784"/>
-        <c:axId val="435205248"/>
+        <c:axId val="370492928"/>
+        <c:axId val="370491392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5510,7 +5594,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5603,6 +5687,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5612,7 +5699,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5705,6 +5792,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5721,11 +5811,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435201920"/>
-        <c:axId val="435203456"/>
+        <c:axId val="370483968"/>
+        <c:axId val="370485504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435201920"/>
+        <c:axId val="370483968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5768,14 +5858,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435203456"/>
+        <c:crossAx val="370485504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435203456"/>
+        <c:axId val="370485504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5826,12 +5916,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435201920"/>
+        <c:crossAx val="370483968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="435205248"/>
+        <c:axId val="370491392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5868,12 +5958,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435206784"/>
+        <c:crossAx val="370492928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="435206784"/>
+        <c:axId val="370492928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5882,7 +5972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="435205248"/>
+        <c:crossAx val="370491392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6032,7 +6122,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6125,6 +6215,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6134,7 +6227,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6227,6 +6320,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>62737723.820857614</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70839944.850778222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6269,7 +6365,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6362,6 +6458,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6371,7 +6470,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6464,6 +6563,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>56091169.142944716</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56888494.256736919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6506,7 +6608,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6599,6 +6701,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6608,7 +6713,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6701,6 +6806,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-6646554.6779128984</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-13951450.594041303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6722,11 +6830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435218304"/>
-        <c:axId val="435219840"/>
+        <c:axId val="370512256"/>
+        <c:axId val="370513792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435218304"/>
+        <c:axId val="370512256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6769,14 +6877,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435219840"/>
+        <c:crossAx val="370513792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435219840"/>
+        <c:axId val="370513792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6827,7 +6935,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435218304"/>
+        <c:crossAx val="370512256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6988,7 +7096,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7081,6 +7189,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>86963055.506408319</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>101405517.50538883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7095,8 +7206,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="435251456"/>
-        <c:axId val="435249920"/>
+        <c:axId val="370676480"/>
+        <c:axId val="370674688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7121,7 +7232,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7214,6 +7325,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7223,7 +7337,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7316,6 +7430,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7332,11 +7449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435246592"/>
-        <c:axId val="435248128"/>
+        <c:axId val="370671616"/>
+        <c:axId val="370673152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435246592"/>
+        <c:axId val="370671616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7379,14 +7496,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435248128"/>
+        <c:crossAx val="370673152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435248128"/>
+        <c:axId val="370673152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7437,12 +7554,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435246592"/>
+        <c:crossAx val="370671616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="435249920"/>
+        <c:axId val="370674688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7479,12 +7596,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435251456"/>
+        <c:crossAx val="370676480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="435251456"/>
+        <c:axId val="370676480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7493,7 +7610,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="435249920"/>
+        <c:crossAx val="370674688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7643,7 +7760,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7736,6 +7853,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7745,7 +7865,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7838,6 +7958,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>30845923.953934893</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51639719.747329757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7880,7 +8003,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7973,6 +8096,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7982,7 +8108,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8075,6 +8201,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>28584694.620009139</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45655832.779697917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8117,7 +8246,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8210,6 +8339,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8219,7 +8351,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8312,6 +8444,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-2261229.3339257538</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5983886.9676318392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8333,11 +8468,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436290688"/>
-        <c:axId val="436292224"/>
+        <c:axId val="370728960"/>
+        <c:axId val="370730496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436290688"/>
+        <c:axId val="370728960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8380,14 +8515,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436292224"/>
+        <c:crossAx val="370730496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436292224"/>
+        <c:axId val="370730496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8438,7 +8573,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436290688"/>
+        <c:crossAx val="370728960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9152,7 +9287,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10579,6 +10714,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:12" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>564695.41162159434</v>
+      </c>
+      <c r="F34" s="15">
+        <v>1006587.2053139294</v>
+      </c>
+      <c r="G34" s="15">
+        <v>10376987.13019418</v>
+      </c>
+      <c r="H34" s="15">
+        <v>5821489.671180008</v>
+      </c>
+      <c r="I34" s="15">
+        <v>7429784.6436091401</v>
+      </c>
+      <c r="J34" s="15">
+        <v>5821489.671180008</v>
+      </c>
+      <c r="K34" s="15">
+        <v>-1608294.9724291321</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10595,7 +10768,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12693,6 +12866,71 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="34" spans="1:21" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>677634.49394591316</v>
+      </c>
+      <c r="F34" s="15">
+        <v>1207904.646376715</v>
+      </c>
+      <c r="G34" s="15">
+        <v>11264900.651429802</v>
+      </c>
+      <c r="H34" s="15">
+        <v>6319609.1472786088</v>
+      </c>
+      <c r="I34" s="15">
+        <v>8003015.1477438472</v>
+      </c>
+      <c r="J34" s="15">
+        <v>6319609.1472786088</v>
+      </c>
+      <c r="K34" s="15">
+        <v>-1683406.0004652385</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+      <c r="M34" s="23">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="N34" s="23">
+        <v>0.55900001525878906</v>
+      </c>
+      <c r="O34" s="23">
+        <v>0.58833332856496179</v>
+      </c>
+      <c r="P34" s="23">
+        <v>0.71309523450760626</v>
+      </c>
+      <c r="Q34" s="23">
+        <v>-0.12476190594264447</v>
+      </c>
+      <c r="R34" s="23">
+        <v>4.5925167823324356E-2</v>
+      </c>
+      <c r="S34" s="9">
+        <v>6.8887751734986527E-4</v>
+      </c>
+      <c r="T34" s="9">
+        <v>-181.10898207653469</v>
+      </c>
+      <c r="U34" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12709,7 +12947,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14311,6 +14549,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="34" spans="1:14" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>677634.49394591316</v>
+      </c>
+      <c r="F34" s="15">
+        <v>1207904.646376715</v>
+      </c>
+      <c r="G34" s="15">
+        <v>11174794.52736048</v>
+      </c>
+      <c r="H34" s="15">
+        <v>6269059.6126209693</v>
+      </c>
+      <c r="I34" s="15">
+        <v>7972521.6308969846</v>
+      </c>
+      <c r="J34" s="15">
+        <v>6269059.6126209693</v>
+      </c>
+      <c r="K34" s="15">
+        <v>-1703462.0182760153</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
+        <v>-202.99979347003418</v>
+      </c>
+      <c r="N34" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14327,7 +14609,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15929,6 +16211,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="34" spans="1:14" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>8102221.0299206059</v>
+      </c>
+      <c r="F34" s="15">
+        <v>14442461.998980502</v>
+      </c>
+      <c r="G34" s="15">
+        <v>101405517.50538883</v>
+      </c>
+      <c r="H34" s="15">
+        <v>56888494.256736919</v>
+      </c>
+      <c r="I34" s="15">
+        <v>70839944.850778222</v>
+      </c>
+      <c r="J34" s="15">
+        <v>56888494.256736919</v>
+      </c>
+      <c r="K34" s="15">
+        <v>-13951450.594041303</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
+        <v>-202.99979347003418</v>
+      </c>
+      <c r="N34" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15945,7 +16271,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI33"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17741,6 +18067,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="34" spans="1:16" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>10787006</v>
+      </c>
+      <c r="F34" s="14">
+        <v>4203114.608389196</v>
+      </c>
+      <c r="G34" s="14">
+        <v>20793795.79339486</v>
+      </c>
+      <c r="H34" s="15">
+        <v>37065590.342653081</v>
+      </c>
+      <c r="I34" s="15">
+        <v>81382947.653188974</v>
+      </c>
+      <c r="J34" s="15">
+        <v>45655832.779697917</v>
+      </c>
+      <c r="K34" s="15">
+        <v>51639719.747329757</v>
+      </c>
+      <c r="L34" s="15">
+        <v>45655832.779697917</v>
+      </c>
+      <c r="M34" s="15">
+        <v>-5983886.9676318392</v>
+      </c>
+      <c r="N34" s="14">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <v>-202.99979347003418</v>
+      </c>
+      <c r="P34" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -658,6 +658,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -667,7 +670,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -763,6 +766,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7429784.6436091401</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7795825.7760371994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -805,7 +811,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -901,6 +907,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,7 +919,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1006,6 +1015,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5821489.671180008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6986559.0402471395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,7 +1060,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1144,6 +1156,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1153,7 +1168,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1249,6 +1264,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1608294.9724291321</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-809266.7357900599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,11 +1288,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="404257792"/>
-        <c:axId val="422695680"/>
+        <c:axId val="92246400"/>
+        <c:axId val="92247936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="404257792"/>
+        <c:axId val="92246400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,14 +1335,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422695680"/>
+        <c:crossAx val="92247936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="422695680"/>
+        <c:axId val="92247936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1393,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404257792"/>
+        <c:crossAx val="92246400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1536,7 +1554,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1632,6 +1650,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>20793795.79339486</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10424510.063189363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,8 +1667,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="370774400"/>
-        <c:axId val="370772608"/>
+        <c:axId val="98057216"/>
+        <c:axId val="98055680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1672,7 +1693,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1768,6 +1789,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1777,7 +1801,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1873,6 +1897,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1889,11 +1916,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370756992"/>
-        <c:axId val="370771072"/>
+        <c:axId val="98044160"/>
+        <c:axId val="98054144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370756992"/>
+        <c:axId val="98044160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,14 +1963,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370771072"/>
+        <c:crossAx val="98054144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370771072"/>
+        <c:axId val="98054144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,12 +2021,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370756992"/>
+        <c:crossAx val="98044160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370772608"/>
+        <c:axId val="98055680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2036,12 +2063,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370774400"/>
+        <c:crossAx val="98057216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="370774400"/>
+        <c:axId val="98057216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,7 +2077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370772608"/>
+        <c:crossAx val="98055680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2182,7 +2209,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2278,6 +2305,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>564695.41162159434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>366041.13242805976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,8 +2322,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="458293632"/>
-        <c:axId val="457933952"/>
+        <c:axId val="405009536"/>
+        <c:axId val="371875200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2318,7 +2348,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2414,6 +2444,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,7 +2456,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2519,6 +2552,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2535,11 +2571,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454866432"/>
-        <c:axId val="454868352"/>
+        <c:axId val="371871744"/>
+        <c:axId val="371873664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454866432"/>
+        <c:axId val="371871744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2582,14 +2618,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454868352"/>
+        <c:crossAx val="371873664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="454868352"/>
+        <c:axId val="371873664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2640,12 +2676,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454866432"/>
+        <c:crossAx val="371871744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="457933952"/>
+        <c:axId val="371875200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2682,12 +2718,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458293632"/>
+        <c:crossAx val="405009536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="458293632"/>
+        <c:axId val="405009536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2696,7 +2732,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="457933952"/>
+        <c:crossAx val="371875200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2846,7 +2882,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2942,6 +2978,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2951,7 +2990,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3047,6 +3086,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>8003015.1477438472</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8442264.5066575184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3089,7 +3131,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3185,6 +3227,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3194,7 +3239,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3290,6 +3335,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6319609.1472786088</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7626256.1034424435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3332,7 +3380,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3428,6 +3476,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3437,7 +3488,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3533,6 +3584,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1683406.0004652385</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-816008.40321507491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3554,11 +3608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="362849408"/>
-        <c:axId val="362850944"/>
+        <c:axId val="426973440"/>
+        <c:axId val="427020288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="362849408"/>
+        <c:axId val="426973440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3601,14 +3655,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362850944"/>
+        <c:crossAx val="427020288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="362850944"/>
+        <c:axId val="427020288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3659,7 +3713,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362849408"/>
+        <c:crossAx val="426973440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3820,7 +3874,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3916,6 +3970,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>677634.49394591316</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>439249.35891367169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3930,8 +3987,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="370288512"/>
-        <c:axId val="370286976"/>
+        <c:axId val="490517632"/>
+        <c:axId val="463482240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3956,7 +4013,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4052,6 +4109,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4061,7 +4121,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4157,6 +4217,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4173,11 +4236,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="362865792"/>
-        <c:axId val="362867328"/>
+        <c:axId val="458575232"/>
+        <c:axId val="463480704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="362865792"/>
+        <c:axId val="458575232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4220,14 +4283,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362867328"/>
+        <c:crossAx val="463480704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="362867328"/>
+        <c:axId val="463480704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4278,12 +4341,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362865792"/>
+        <c:crossAx val="458575232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370286976"/>
+        <c:axId val="463482240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4320,12 +4383,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370288512"/>
+        <c:crossAx val="490517632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="370288512"/>
+        <c:axId val="490517632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4334,7 +4397,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370286976"/>
+        <c:crossAx val="463482240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4484,7 +4547,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4580,6 +4643,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4589,7 +4655,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4685,6 +4751,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7972521.6308969846</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8338562.763325044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4727,7 +4796,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4823,6 +4892,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4832,7 +4904,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4928,6 +5000,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6269059.6126209693</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7495560.1687694201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4970,7 +5045,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5066,6 +5141,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5075,7 +5153,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5171,6 +5249,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1703462.0182760153</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-843002.59455562383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5192,11 +5273,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370340992"/>
-        <c:axId val="370342528"/>
+        <c:axId val="89706496"/>
+        <c:axId val="89708032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370340992"/>
+        <c:axId val="89706496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5239,14 +5320,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370342528"/>
+        <c:crossAx val="89708032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370342528"/>
+        <c:axId val="89708032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5297,7 +5378,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370340992"/>
+        <c:crossAx val="89706496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5458,7 +5539,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5554,6 +5635,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>677634.49394591316</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>366041.13242805976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5568,8 +5652,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="370492928"/>
-        <c:axId val="370491392"/>
+        <c:axId val="97538432"/>
+        <c:axId val="97532544"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5594,7 +5678,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5690,6 +5774,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5699,7 +5786,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5795,6 +5882,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5811,11 +5901,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370483968"/>
-        <c:axId val="370485504"/>
+        <c:axId val="97529216"/>
+        <c:axId val="97531008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370483968"/>
+        <c:axId val="97529216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5858,14 +5948,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370485504"/>
+        <c:crossAx val="97531008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370485504"/>
+        <c:axId val="97531008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5916,12 +6006,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370483968"/>
+        <c:crossAx val="97529216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370491392"/>
+        <c:axId val="97532544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5958,12 +6048,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370492928"/>
+        <c:crossAx val="97538432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="370492928"/>
+        <c:axId val="97538432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5972,7 +6062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370491392"/>
+        <c:crossAx val="97532544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6122,7 +6212,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6218,6 +6308,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6227,7 +6320,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6323,6 +6416,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>70839944.850778222</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74363623.440136388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6365,7 +6461,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6461,6 +6557,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6470,7 +6569,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6566,6 +6665,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>56888494.256736919</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>68220399.918290302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6608,7 +6710,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6704,6 +6806,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6713,7 +6818,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6809,6 +6914,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-13951450.594041303</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-6143223.5218460858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6830,11 +6938,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370512256"/>
-        <c:axId val="370513792"/>
+        <c:axId val="97660288"/>
+        <c:axId val="97662080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370512256"/>
+        <c:axId val="97660288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6877,14 +6985,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370513792"/>
+        <c:crossAx val="97662080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370513792"/>
+        <c:axId val="97662080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6935,7 +7043,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370512256"/>
+        <c:crossAx val="97660288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7096,7 +7204,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7192,6 +7300,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>101405517.50538883</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>106928524.59967154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7206,8 +7317,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="370676480"/>
-        <c:axId val="370674688"/>
+        <c:axId val="97689600"/>
+        <c:axId val="97687808"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7232,7 +7343,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7328,6 +7439,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7337,7 +7451,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7433,6 +7547,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7449,11 +7566,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370671616"/>
-        <c:axId val="370673152"/>
+        <c:axId val="97680384"/>
+        <c:axId val="97686272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370671616"/>
+        <c:axId val="97680384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7496,14 +7613,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370673152"/>
+        <c:crossAx val="97686272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370673152"/>
+        <c:axId val="97686272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7554,12 +7671,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370671616"/>
+        <c:crossAx val="97680384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370674688"/>
+        <c:axId val="97687808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7596,12 +7713,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370676480"/>
+        <c:crossAx val="97689600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="370676480"/>
+        <c:axId val="97689600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7610,7 +7727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370674688"/>
+        <c:crossAx val="97687808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7760,7 +7877,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7856,6 +7973,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7865,7 +7985,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7961,6 +8081,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>51639719.747329757</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62064229.810519122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8003,7 +8126,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8099,6 +8222,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8108,7 +8234,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8204,6 +8330,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45655832.779697917</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62346831.59727785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8246,7 +8375,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8342,6 +8471,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8351,7 +8483,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8447,6 +8579,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-5983886.9676318392</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>282601.78675872833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8468,11 +8603,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370728960"/>
-        <c:axId val="370730496"/>
+        <c:axId val="97708672"/>
+        <c:axId val="97710464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370728960"/>
+        <c:axId val="97708672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8515,14 +8650,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370730496"/>
+        <c:crossAx val="97710464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370730496"/>
+        <c:axId val="97710464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8573,7 +8708,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370728960"/>
+        <c:crossAx val="97708672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9287,7 +9422,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10752,6 +10887,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:12" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>366041.13242805976</v>
+      </c>
+      <c r="F35" s="15">
+        <v>573732.17219783086</v>
+      </c>
+      <c r="G35" s="15">
+        <v>10950719.30239201</v>
+      </c>
+      <c r="H35" s="15">
+        <v>6986559.0402471395</v>
+      </c>
+      <c r="I35" s="15">
+        <v>7795825.7760371994</v>
+      </c>
+      <c r="J35" s="15">
+        <v>6986559.0402471395</v>
+      </c>
+      <c r="K35" s="15">
+        <v>-809266.7357900599</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10768,7 +10941,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AM35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12931,6 +13104,71 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="35" spans="1:21" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>439249.35891367169</v>
+      </c>
+      <c r="F35" s="15">
+        <v>688478.60663739708</v>
+      </c>
+      <c r="G35" s="15">
+        <v>11953379.2580672</v>
+      </c>
+      <c r="H35" s="15">
+        <v>7626256.1034424435</v>
+      </c>
+      <c r="I35" s="15">
+        <v>8442264.5066575184</v>
+      </c>
+      <c r="J35" s="15">
+        <v>7626256.1034424435</v>
+      </c>
+      <c r="K35" s="15">
+        <v>-816008.40321507491</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+      <c r="M35" s="23">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="N35" s="23">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="O35" s="23">
+        <v>0.60466667016347253</v>
+      </c>
+      <c r="P35" s="23">
+        <v>0.70433333043825086</v>
+      </c>
+      <c r="Q35" s="23">
+        <v>-9.9666660274778329E-2</v>
+      </c>
+      <c r="R35" s="23">
+        <v>5.3904759241610103E-2</v>
+      </c>
+      <c r="S35" s="9">
+        <v>8.0857138862415153E-4</v>
+      </c>
+      <c r="T35" s="9">
+        <v>-123.2626601398413</v>
+      </c>
+      <c r="U35" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12947,7 +13185,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14593,6 +14831,50 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="35" spans="1:14" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>366041.13242805976</v>
+      </c>
+      <c r="F35" s="15">
+        <v>573732.17219783086</v>
+      </c>
+      <c r="G35" s="15">
+        <v>11748526.69955831</v>
+      </c>
+      <c r="H35" s="15">
+        <v>7495560.1687694201</v>
+      </c>
+      <c r="I35" s="15">
+        <v>8338562.763325044</v>
+      </c>
+      <c r="J35" s="15">
+        <v>7495560.1687694201</v>
+      </c>
+      <c r="K35" s="15">
+        <v>-843002.59455562383</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>102.81793481326457</v>
+      </c>
+      <c r="N35" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14609,7 +14891,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16255,6 +16537,50 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="35" spans="1:14" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>3523678.5893581696</v>
+      </c>
+      <c r="F35" s="15">
+        <v>5523007.0942827109</v>
+      </c>
+      <c r="G35" s="15">
+        <v>106928524.59967154</v>
+      </c>
+      <c r="H35" s="15">
+        <v>68220399.918290302</v>
+      </c>
+      <c r="I35" s="15">
+        <v>74363623.440136388</v>
+      </c>
+      <c r="J35" s="15">
+        <v>68220399.918290302</v>
+      </c>
+      <c r="K35" s="15">
+        <v>-6143223.5218460858</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>102.81793481326457</v>
+      </c>
+      <c r="N35" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16271,7 +16597,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18117,6 +18443,56 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="35" spans="1:16" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>12736000</v>
+      </c>
+      <c r="F35" s="14">
+        <v>4305005.2464849772</v>
+      </c>
+      <c r="G35" s="14">
+        <v>10424510.063189363</v>
+      </c>
+      <c r="H35" s="15">
+        <v>16339357.17272768</v>
+      </c>
+      <c r="I35" s="15">
+        <v>97722304.825916648</v>
+      </c>
+      <c r="J35" s="15">
+        <v>62346831.59727785</v>
+      </c>
+      <c r="K35" s="15">
+        <v>62064229.810519122</v>
+      </c>
+      <c r="L35" s="15">
+        <v>62346831.59727785</v>
+      </c>
+      <c r="M35" s="15">
+        <v>282601.78675872833</v>
+      </c>
+      <c r="N35" s="14">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
+        <v>102.81793481326457</v>
+      </c>
+      <c r="P35" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -661,6 +661,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,7 +673,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -769,6 +772,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7795825.7760371994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8128674.1780120125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,7 +817,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -910,6 +916,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -919,7 +928,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1018,6 +1027,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>6986559.0402471395</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7407013.3741792245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1060,7 +1072,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1159,6 +1171,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,7 +1183,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1267,6 +1282,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-809266.7357900599</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-721660.80383278802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,11 +1306,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92246400"/>
-        <c:axId val="92247936"/>
+        <c:axId val="524008448"/>
+        <c:axId val="524125696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92246400"/>
+        <c:axId val="524008448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,14 +1353,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92247936"/>
+        <c:crossAx val="524125696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92247936"/>
+        <c:axId val="524125696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,7 +1411,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92246400"/>
+        <c:crossAx val="524008448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1554,7 +1572,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1653,6 +1671,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>10424510.063189363</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5902723.3579780655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,8 +1688,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="98057216"/>
-        <c:axId val="98055680"/>
+        <c:axId val="426682240"/>
+        <c:axId val="426680704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1693,7 +1714,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1792,6 +1813,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1801,7 +1825,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1900,6 +1924,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1916,11 +1943,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98044160"/>
-        <c:axId val="98054144"/>
+        <c:axId val="426677376"/>
+        <c:axId val="426678912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="98044160"/>
+        <c:axId val="426677376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1963,14 +1990,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98054144"/>
+        <c:crossAx val="426678912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="98054144"/>
+        <c:axId val="426678912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2021,12 +2048,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98044160"/>
+        <c:crossAx val="426677376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98055680"/>
+        <c:axId val="426680704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2063,12 +2090,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98057216"/>
+        <c:crossAx val="426682240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="98057216"/>
+        <c:axId val="426682240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,7 +2104,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98055680"/>
+        <c:crossAx val="426680704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2209,7 +2236,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2308,6 +2335,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>366041.13242805976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>332848.40197481349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2322,8 +2352,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="405009536"/>
-        <c:axId val="371875200"/>
+        <c:axId val="617499648"/>
+        <c:axId val="567380608"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2348,7 +2378,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2447,6 +2477,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2456,7 +2489,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2555,6 +2588,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2571,11 +2607,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="371871744"/>
-        <c:axId val="371873664"/>
+        <c:axId val="564300032"/>
+        <c:axId val="567378688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="371871744"/>
+        <c:axId val="564300032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2618,14 +2654,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371873664"/>
+        <c:crossAx val="567378688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="371873664"/>
+        <c:axId val="567378688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2676,12 +2712,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371871744"/>
+        <c:crossAx val="564300032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="371875200"/>
+        <c:axId val="567380608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2718,12 +2754,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405009536"/>
+        <c:crossAx val="617499648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="405009536"/>
+        <c:axId val="617499648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2732,7 +2768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371875200"/>
+        <c:crossAx val="567380608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2882,7 +2918,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2981,6 +3017,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2990,7 +3029,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3089,6 +3128,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>8442264.5066575184</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8775112.9086323325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3131,7 +3173,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3230,6 +3272,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3239,7 +3284,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3338,6 +3383,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7626256.1034424435</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8054731.7332755178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3380,7 +3428,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3479,6 +3527,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3488,7 +3539,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3587,6 +3638,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-816008.40321507491</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-720381.17535681464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3608,11 +3662,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426973440"/>
-        <c:axId val="427020288"/>
+        <c:axId val="617584512"/>
+        <c:axId val="617586048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="426973440"/>
+        <c:axId val="617584512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3655,14 +3709,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427020288"/>
+        <c:crossAx val="617586048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="427020288"/>
+        <c:axId val="617586048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3713,7 +3767,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426973440"/>
+        <c:crossAx val="617584512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3874,7 +3928,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3973,6 +4027,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>439249.35891367169</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>332848.40197481349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3987,8 +4044,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="490517632"/>
-        <c:axId val="463482240"/>
+        <c:axId val="617628032"/>
+        <c:axId val="617625472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4013,7 +4070,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4112,6 +4169,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4121,7 +4181,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4220,6 +4280,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4236,11 +4299,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458575232"/>
-        <c:axId val="463480704"/>
+        <c:axId val="617616512"/>
+        <c:axId val="617623936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="458575232"/>
+        <c:axId val="617616512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4283,14 +4346,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463480704"/>
+        <c:crossAx val="617623936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="463480704"/>
+        <c:axId val="617623936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4341,12 +4404,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458575232"/>
+        <c:crossAx val="617616512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="463482240"/>
+        <c:axId val="617625472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4383,12 +4446,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490517632"/>
+        <c:crossAx val="617628032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="490517632"/>
+        <c:axId val="617628032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4397,7 +4460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="463482240"/>
+        <c:crossAx val="617625472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4547,7 +4610,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4646,6 +4709,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4655,7 +4721,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4754,6 +4820,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>8338562.763325044</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8671411.165299857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4796,7 +4865,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4895,6 +4964,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4904,7 +4976,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5003,6 +5075,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7495560.1687694201</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7922396.9748132583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5045,7 +5120,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5144,6 +5219,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5153,7 +5231,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5252,6 +5330,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-843002.59455562383</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-749014.19048659876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5273,11 +5354,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89706496"/>
-        <c:axId val="89708032"/>
+        <c:axId val="617767680"/>
+        <c:axId val="617769216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89706496"/>
+        <c:axId val="617767680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5320,14 +5401,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89708032"/>
+        <c:crossAx val="617769216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89708032"/>
+        <c:axId val="617769216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5378,7 +5459,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89706496"/>
+        <c:crossAx val="617767680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5539,7 +5620,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5638,6 +5719,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>366041.13242805976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>332848.40197481349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5652,8 +5736,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97538432"/>
-        <c:axId val="97532544"/>
+        <c:axId val="618014592"/>
+        <c:axId val="617974016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5678,7 +5762,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5777,6 +5861,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5786,7 +5873,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5885,6 +5972,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5901,11 +5991,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97529216"/>
-        <c:axId val="97531008"/>
+        <c:axId val="617932288"/>
+        <c:axId val="617934208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97529216"/>
+        <c:axId val="617932288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5948,14 +6038,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97531008"/>
+        <c:crossAx val="617934208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97531008"/>
+        <c:axId val="617934208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6006,12 +6096,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97529216"/>
+        <c:crossAx val="617932288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97532544"/>
+        <c:axId val="617974016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6048,12 +6138,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97538432"/>
+        <c:crossAx val="618014592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="97538432"/>
+        <c:axId val="618014592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6062,7 +6152,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97532544"/>
+        <c:crossAx val="617974016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6212,7 +6302,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6311,6 +6401,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6320,7 +6413,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6419,6 +6512,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>74363623.440136388</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>77419045.194995031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6461,7 +6557,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6560,6 +6656,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6569,7 +6668,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6668,6 +6767,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>68220399.918290302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>72131251.603521094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6710,7 +6812,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6809,6 +6911,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6818,7 +6923,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6917,6 +7022,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-6143223.5218460858</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-5287793.591473937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6938,11 +7046,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97660288"/>
-        <c:axId val="97662080"/>
+        <c:axId val="618169472"/>
+        <c:axId val="618233856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97660288"/>
+        <c:axId val="618169472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6985,14 +7093,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97662080"/>
+        <c:crossAx val="618233856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97662080"/>
+        <c:axId val="618233856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7043,7 +7151,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97660288"/>
+        <c:crossAx val="618169472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7204,7 +7312,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7303,6 +7411,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>106928524.59967154</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>111658279.43566212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7317,8 +7428,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97689600"/>
-        <c:axId val="97687808"/>
+        <c:axId val="631513088"/>
+        <c:axId val="631297536"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7343,7 +7454,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7442,6 +7553,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7451,7 +7565,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7550,6 +7664,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7566,11 +7683,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97680384"/>
-        <c:axId val="97686272"/>
+        <c:axId val="631091968"/>
+        <c:axId val="631094272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97680384"/>
+        <c:axId val="631091968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7613,14 +7730,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97686272"/>
+        <c:crossAx val="631094272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97686272"/>
+        <c:axId val="631094272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7671,12 +7788,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97680384"/>
+        <c:crossAx val="631091968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97687808"/>
+        <c:axId val="631297536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7713,12 +7830,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97689600"/>
+        <c:crossAx val="631513088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="97689600"/>
+        <c:axId val="631513088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7727,7 +7844,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97687808"/>
+        <c:crossAx val="631297536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7877,7 +7994,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7976,6 +8093,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7985,7 +8105,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8084,6 +8204,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>62064229.810519122</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>67966953.16849719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8126,7 +8249,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8225,6 +8348,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8234,7 +8360,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8333,6 +8459,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>62346831.59727785</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>69031334.978182539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8375,7 +8504,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8474,6 +8603,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8483,7 +8615,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8582,6 +8714,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>282601.78675872833</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1064381.8096853495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8603,11 +8738,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97708672"/>
-        <c:axId val="97710464"/>
+        <c:axId val="426657280"/>
+        <c:axId val="426658816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97708672"/>
+        <c:axId val="426657280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8650,14 +8785,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97710464"/>
+        <c:crossAx val="426658816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97710464"/>
+        <c:axId val="426658816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8708,7 +8843,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97708672"/>
+        <c:crossAx val="426657280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9422,7 +9557,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10925,6 +11060,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:12" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>332848.40197481349</v>
+      </c>
+      <c r="F36" s="15">
+        <v>515245.18223669764</v>
+      </c>
+      <c r="G36" s="15">
+        <v>11465964.484628707</v>
+      </c>
+      <c r="H36" s="15">
+        <v>7407013.3741792245</v>
+      </c>
+      <c r="I36" s="15">
+        <v>8128674.1780120125</v>
+      </c>
+      <c r="J36" s="15">
+        <v>7407013.3741792245</v>
+      </c>
+      <c r="K36" s="15">
+        <v>-721660.80383278802</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10941,7 +11114,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13169,6 +13342,71 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="36" spans="1:21" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>332848.40197481349</v>
+      </c>
+      <c r="F36" s="15">
+        <v>515245.18223669764</v>
+      </c>
+      <c r="G36" s="15">
+        <v>12468624.440303897</v>
+      </c>
+      <c r="H36" s="15">
+        <v>8054731.7332755178</v>
+      </c>
+      <c r="I36" s="15">
+        <v>8775112.9086323325</v>
+      </c>
+      <c r="J36" s="15">
+        <v>8054731.7332755178</v>
+      </c>
+      <c r="K36" s="15">
+        <v>-720381.17535681464</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
+      <c r="M36" s="23">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="N36" s="23">
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="O36" s="23">
+        <v>0.6500000158945719</v>
+      </c>
+      <c r="P36" s="23">
+        <v>0.69566666607629701</v>
+      </c>
+      <c r="Q36" s="23">
+        <v>-4.566665018172511E-2</v>
+      </c>
+      <c r="R36" s="23">
+        <v>5.2999996957324789E-2</v>
+      </c>
+      <c r="S36" s="9">
+        <v>7.9499995435987185E-4</v>
+      </c>
+      <c r="T36" s="9">
+        <v>-57.442330570315015</v>
+      </c>
+      <c r="U36" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13185,7 +13423,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14875,6 +15113,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:14" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>332848.40197481349</v>
+      </c>
+      <c r="F36" s="15">
+        <v>515245.18223669764</v>
+      </c>
+      <c r="G36" s="15">
+        <v>12263771.881795008</v>
+      </c>
+      <c r="H36" s="15">
+        <v>7922396.9748132583</v>
+      </c>
+      <c r="I36" s="15">
+        <v>8671411.165299857</v>
+      </c>
+      <c r="J36" s="15">
+        <v>7922396.9748132583</v>
+      </c>
+      <c r="K36" s="15">
+        <v>-749014.19048659876</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9">
+        <v>-98.887766665906639</v>
+      </c>
+      <c r="N36" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14891,7 +15173,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16581,6 +16863,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:14" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>3055421.7548586358</v>
+      </c>
+      <c r="F36" s="15">
+        <v>4729754.8359905733</v>
+      </c>
+      <c r="G36" s="15">
+        <v>111658279.43566212</v>
+      </c>
+      <c r="H36" s="15">
+        <v>72131251.603521094</v>
+      </c>
+      <c r="I36" s="15">
+        <v>77419045.194995031</v>
+      </c>
+      <c r="J36" s="15">
+        <v>72131251.603521094</v>
+      </c>
+      <c r="K36" s="15">
+        <v>-5287793.591473937</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9">
+        <v>-98.887766665906639</v>
+      </c>
+      <c r="N36" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16597,7 +16923,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI35"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18493,6 +18819,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:16" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>8545319</v>
+      </c>
+      <c r="F36" s="14">
+        <v>4423306.3268190296</v>
+      </c>
+      <c r="G36" s="14">
+        <v>5902723.3579780655</v>
+      </c>
+      <c r="H36" s="15">
+        <v>9137342.2682208288</v>
+      </c>
+      <c r="I36" s="15">
+        <v>106859647.09413747</v>
+      </c>
+      <c r="J36" s="15">
+        <v>69031334.978182539</v>
+      </c>
+      <c r="K36" s="15">
+        <v>67966953.16849719</v>
+      </c>
+      <c r="L36" s="15">
+        <v>69031334.978182539</v>
+      </c>
+      <c r="M36" s="15">
+        <v>1064381.8096853495</v>
+      </c>
+      <c r="N36" s="14">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <v>-98.887766665906639</v>
+      </c>
+      <c r="P36" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -562,7 +562,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -664,6 +664,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -673,7 +676,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -775,6 +778,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8128674.1780120125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8413009.3176757134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -817,7 +823,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -919,6 +925,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,7 +937,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1030,6 +1039,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7407013.3741792245</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7897735.2676850744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1072,7 +1084,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1174,6 +1186,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1183,7 +1198,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1285,6 +1300,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-721660.80383278802</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-515274.04999063909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1306,11 +1324,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524008448"/>
-        <c:axId val="524125696"/>
+        <c:axId val="89941888"/>
+        <c:axId val="103567360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524008448"/>
+        <c:axId val="89941888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,14 +1371,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524125696"/>
+        <c:crossAx val="103567360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524125696"/>
+        <c:axId val="103567360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1429,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524008448"/>
+        <c:crossAx val="89941888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1572,7 +1590,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1673,7 +1691,10 @@
                   <c:v>10424510.063189363</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5902723.3579780655</c:v>
+                  <c:v>5825999.8957356149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2781940.8148546959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1688,8 +1709,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="426682240"/>
-        <c:axId val="426680704"/>
+        <c:axId val="476963968"/>
+        <c:axId val="476962176"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1714,7 +1735,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1816,6 +1837,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1825,7 +1849,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1927,6 +1951,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1943,11 +1970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426677376"/>
-        <c:axId val="426678912"/>
+        <c:axId val="476959104"/>
+        <c:axId val="476960640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="426677376"/>
+        <c:axId val="476959104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1990,14 +2017,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426678912"/>
+        <c:crossAx val="476960640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="426678912"/>
+        <c:axId val="476960640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2048,12 +2075,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426677376"/>
+        <c:crossAx val="476959104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="426680704"/>
+        <c:axId val="476962176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2090,12 +2117,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426682240"/>
+        <c:crossAx val="476963968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="426682240"/>
+        <c:axId val="476963968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,7 +2131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="426680704"/>
+        <c:crossAx val="476962176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2236,7 +2263,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2338,6 +2365,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>332848.40197481349</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>284335.13966370182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2352,8 +2382,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617499648"/>
-        <c:axId val="567380608"/>
+        <c:axId val="446073472"/>
+        <c:axId val="439254016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2378,7 +2408,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2480,6 +2510,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2489,7 +2522,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2591,6 +2624,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2607,11 +2643,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564300032"/>
-        <c:axId val="567378688"/>
+        <c:axId val="407894656"/>
+        <c:axId val="416576640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564300032"/>
+        <c:axId val="407894656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,14 +2690,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567378688"/>
+        <c:crossAx val="416576640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567378688"/>
+        <c:axId val="416576640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2712,12 +2748,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564300032"/>
+        <c:crossAx val="407894656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="567380608"/>
+        <c:axId val="439254016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2754,12 +2790,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617499648"/>
+        <c:crossAx val="446073472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617499648"/>
+        <c:axId val="446073472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2768,7 +2804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567380608"/>
+        <c:crossAx val="439254016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2918,7 +2954,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3020,6 +3056,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3029,7 +3068,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3131,6 +3170,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8775112.9086323325</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9059448.0482960343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3173,7 +3215,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3275,6 +3317,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3284,7 +3329,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3386,6 +3431,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8054731.7332755178</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8563501.4529138077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3428,7 +3476,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3530,6 +3578,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3539,7 +3590,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3641,6 +3692,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-720381.17535681464</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-495946.59538222663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3662,11 +3716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617584512"/>
-        <c:axId val="617586048"/>
+        <c:axId val="475282816"/>
+        <c:axId val="481957376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617584512"/>
+        <c:axId val="475282816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3709,14 +3763,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617586048"/>
+        <c:crossAx val="481957376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617586048"/>
+        <c:axId val="481957376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3767,7 +3821,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617584512"/>
+        <c:crossAx val="475282816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3928,7 +3982,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4030,6 +4084,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>332848.40197481349</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>284335.13966370182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4044,8 +4101,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617628032"/>
-        <c:axId val="617625472"/>
+        <c:axId val="533969920"/>
+        <c:axId val="533968000"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4070,7 +4127,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4172,6 +4229,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4181,7 +4241,7 @@
               <c:f>'model4(1)&amp;CCI_per_month'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4283,6 +4343,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4299,11 +4362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617616512"/>
-        <c:axId val="617623936"/>
+        <c:axId val="503011200"/>
+        <c:axId val="503012736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617616512"/>
+        <c:axId val="503011200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4346,14 +4409,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617623936"/>
+        <c:crossAx val="503012736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617623936"/>
+        <c:axId val="503012736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4404,12 +4467,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617616512"/>
+        <c:crossAx val="503011200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617625472"/>
+        <c:axId val="533968000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4446,12 +4509,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617628032"/>
+        <c:crossAx val="533969920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617628032"/>
+        <c:axId val="533969920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4460,7 +4523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617625472"/>
+        <c:crossAx val="533968000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4610,7 +4673,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4712,6 +4775,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4721,7 +4787,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4823,6 +4889,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8671411.165299857</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8955746.3049635589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4865,7 +4934,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4967,6 +5036,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4976,7 +5048,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5078,6 +5150,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7922396.9748132583</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8427479.3592410143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5120,7 +5195,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5222,6 +5297,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5231,7 +5309,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5333,6 +5411,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-749014.19048659876</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-528266.94572254457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5354,11 +5435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617767680"/>
-        <c:axId val="617769216"/>
+        <c:axId val="555021056"/>
+        <c:axId val="555022592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617767680"/>
+        <c:axId val="555021056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5401,14 +5482,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617769216"/>
+        <c:crossAx val="555022592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617769216"/>
+        <c:axId val="555022592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5459,7 +5540,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617767680"/>
+        <c:crossAx val="555021056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5620,7 +5701,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5722,6 +5803,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>332848.40197481349</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>284335.13966370182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5736,8 +5820,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="618014592"/>
-        <c:axId val="617974016"/>
+        <c:axId val="413899008"/>
+        <c:axId val="413897472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5762,7 +5846,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5864,6 +5948,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5873,7 +5960,7 @@
               <c:f>'model4(1)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5975,6 +6062,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5991,11 +6081,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617932288"/>
-        <c:axId val="617934208"/>
+        <c:axId val="413885952"/>
+        <c:axId val="413887488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617932288"/>
+        <c:axId val="413885952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6038,14 +6128,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617934208"/>
+        <c:crossAx val="413887488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617934208"/>
+        <c:axId val="413887488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6096,12 +6186,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617932288"/>
+        <c:crossAx val="413885952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617974016"/>
+        <c:axId val="413897472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6138,12 +6228,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618014592"/>
+        <c:crossAx val="413899008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="618014592"/>
+        <c:axId val="413899008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6152,7 +6242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617974016"/>
+        <c:crossAx val="413897472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6302,7 +6392,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6404,6 +6494,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6413,7 +6506,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6515,6 +6608,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>77419045.194995031</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>79831433.727593049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6557,7 +6653,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6659,6 +6755,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6668,7 +6767,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6770,6 +6869,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>72131251.603521094</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>76553483.256008387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6812,7 +6914,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6914,6 +7016,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6923,7 +7028,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7025,6 +7130,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-5287793.591473937</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3277950.4715846628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7046,11 +7154,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="618169472"/>
-        <c:axId val="618233856"/>
+        <c:axId val="461895168"/>
+        <c:axId val="461896704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="618169472"/>
+        <c:axId val="461895168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7093,14 +7201,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618233856"/>
+        <c:crossAx val="461896704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="618233856"/>
+        <c:axId val="461896704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7151,7 +7259,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618169472"/>
+        <c:crossAx val="461895168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7312,7 +7420,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7414,6 +7522,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>111658279.43566212</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>115291394.83387817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7428,8 +7539,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="631513088"/>
-        <c:axId val="631297536"/>
+        <c:axId val="476915584"/>
+        <c:axId val="476914048"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7454,7 +7565,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7556,6 +7667,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7565,7 +7679,7 @@
               <c:f>'model4(3)&amp;CCI_per_day'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7667,6 +7781,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7683,11 +7800,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="631091968"/>
-        <c:axId val="631094272"/>
+        <c:axId val="476906624"/>
+        <c:axId val="476908160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="631091968"/>
+        <c:axId val="476906624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7730,14 +7847,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631094272"/>
+        <c:crossAx val="476908160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="631094272"/>
+        <c:axId val="476908160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7788,12 +7905,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631091968"/>
+        <c:crossAx val="476906624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="631297536"/>
+        <c:axId val="476914048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7830,12 +7947,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631513088"/>
+        <c:crossAx val="476915584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="631513088"/>
+        <c:axId val="476915584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7844,7 +7961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="631297536"/>
+        <c:crossAx val="476914048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7994,7 +8111,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8096,6 +8213,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8105,7 +8225,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8206,7 +8326,10 @@
                   <c:v>62064229.810519122</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>67966953.16849719</c:v>
+                  <c:v>67890229.706254736</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70672170.521109432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8249,7 +8372,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8351,6 +8474,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8360,7 +8486,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8461,7 +8587,10 @@
                   <c:v>62346831.59727785</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>69031334.978182539</c:v>
+                  <c:v>68954611.515940085</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>73657882.523451313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8504,7 +8633,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8606,6 +8735,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8615,7 +8747,7 @@
               <c:f>'model4(3)vol&amp;CCI_per_day'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8717,6 +8849,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1064381.8096853495</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2985712.0023418814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8738,11 +8873,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426657280"/>
-        <c:axId val="426658816"/>
+        <c:axId val="476939008"/>
+        <c:axId val="476940544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="426657280"/>
+        <c:axId val="476939008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8785,14 +8920,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426658816"/>
+        <c:crossAx val="476940544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="426658816"/>
+        <c:axId val="476940544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8843,7 +8978,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426657280"/>
+        <c:crossAx val="476939008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9557,7 +9692,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11098,6 +11233,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:12" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>284335.13966370182</v>
+      </c>
+      <c r="F37" s="15">
+        <v>428215.58808091015</v>
+      </c>
+      <c r="G37" s="15">
+        <v>11894180.072709618</v>
+      </c>
+      <c r="H37" s="15">
+        <v>7897735.2676850744</v>
+      </c>
+      <c r="I37" s="15">
+        <v>8413009.3176757134</v>
+      </c>
+      <c r="J37" s="15">
+        <v>7897735.2676850744</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-515274.04999063909</v>
+      </c>
+      <c r="L37" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11114,7 +11287,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13407,6 +13580,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="1:21" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>284335.13966370182</v>
+      </c>
+      <c r="F37" s="15">
+        <v>428215.58808091015</v>
+      </c>
+      <c r="G37" s="15">
+        <v>12896840.028384808</v>
+      </c>
+      <c r="H37" s="15">
+        <v>8563501.4529138077</v>
+      </c>
+      <c r="I37" s="15">
+        <v>9059448.0482960343</v>
+      </c>
+      <c r="J37" s="15">
+        <v>8563501.4529138077</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-495946.59538222663</v>
+      </c>
+      <c r="L37" s="14">
+        <v>0</v>
+      </c>
+      <c r="M37" s="23">
+        <v>0.67299997806549072</v>
+      </c>
+      <c r="N37" s="23">
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="O37" s="23">
+        <v>0.65533332029978431</v>
+      </c>
+      <c r="P37" s="23">
+        <v>0.68721428466978529</v>
+      </c>
+      <c r="Q37" s="23">
+        <v>-3.1880964370000986E-2</v>
+      </c>
+      <c r="R37" s="23">
+        <v>5.026190433048066E-2</v>
+      </c>
+      <c r="S37" s="9">
+        <v>7.5392856495720988E-4</v>
+      </c>
+      <c r="T37" s="9">
+        <v>-42.286452393285337</v>
+      </c>
+      <c r="U37" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13423,7 +13661,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15157,6 +15395,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="1:14" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>284335.13966370182</v>
+      </c>
+      <c r="F37" s="15">
+        <v>428215.58808091015</v>
+      </c>
+      <c r="G37" s="15">
+        <v>12691987.469875919</v>
+      </c>
+      <c r="H37" s="15">
+        <v>8427479.3592410143</v>
+      </c>
+      <c r="I37" s="15">
+        <v>8955746.3049635589</v>
+      </c>
+      <c r="J37" s="15">
+        <v>8427479.3592410143</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-528266.94572254457</v>
+      </c>
+      <c r="L37" s="14">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>191.90436156354073</v>
+      </c>
+      <c r="N37" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15173,7 +15455,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16907,6 +17189,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="1:14" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>2412388.5325980242</v>
+      </c>
+      <c r="F37" s="15">
+        <v>3633115.398216052</v>
+      </c>
+      <c r="G37" s="15">
+        <v>115291394.83387817</v>
+      </c>
+      <c r="H37" s="15">
+        <v>76553483.256008387</v>
+      </c>
+      <c r="I37" s="15">
+        <v>79831433.727593049</v>
+      </c>
+      <c r="J37" s="15">
+        <v>76553483.256008387</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-3277950.4715846628</v>
+      </c>
+      <c r="L37" s="14">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>191.90436156354073</v>
+      </c>
+      <c r="N37" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16923,7 +17249,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI36"/>
+  <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18827,10 +19153,10 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="13">
-        <v>17.659999849999998</v>
+        <v>17.700000760000002</v>
       </c>
       <c r="D36" s="14">
-        <v>26.839619570961851</v>
+        <v>26.839674744630816</v>
       </c>
       <c r="E36" s="14">
         <v>8545319</v>
@@ -18839,22 +19165,22 @@
         <v>4423306.3268190296</v>
       </c>
       <c r="G36" s="14">
-        <v>5902723.3579780655</v>
+        <v>5825999.8957356149</v>
       </c>
       <c r="H36" s="15">
-        <v>9137342.2682208288</v>
+        <v>9018575.3038899209</v>
       </c>
       <c r="I36" s="15">
-        <v>106859647.09413747</v>
+        <v>106740880.12980656</v>
       </c>
       <c r="J36" s="15">
-        <v>69031334.978182539</v>
+        <v>68954611.515940085</v>
       </c>
       <c r="K36" s="15">
-        <v>67966953.16849719</v>
+        <v>67890229.706254736</v>
       </c>
       <c r="L36" s="15">
-        <v>69031334.978182539</v>
+        <v>68954611.515940085</v>
       </c>
       <c r="M36" s="15">
         <v>1064381.8096853495</v>
@@ -18866,6 +19192,56 @@
         <v>-98.887766665906639</v>
       </c>
       <c r="P36" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>5195700</v>
+      </c>
+      <c r="F37" s="14">
+        <v>4505504.5858242754</v>
+      </c>
+      <c r="G37" s="14">
+        <v>2781940.8148546959</v>
+      </c>
+      <c r="H37" s="15">
+        <v>4189670.061351785</v>
+      </c>
+      <c r="I37" s="15">
+        <v>110930550.19115835</v>
+      </c>
+      <c r="J37" s="15">
+        <v>73657882.523451313</v>
+      </c>
+      <c r="K37" s="15">
+        <v>70672170.521109432</v>
+      </c>
+      <c r="L37" s="15">
+        <v>73657882.523451313</v>
+      </c>
+      <c r="M37" s="15">
+        <v>2985712.0023418814</v>
+      </c>
+      <c r="N37" s="14">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>191.90436156354073</v>
+      </c>
+      <c r="P37" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI).xlsx
@@ -690,97 +690,97 @@
                   <c:v>118000.41627521692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>152459.79800511256</c:v>
+                  <c:v>152459.79807254951</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>194066.21520416852</c:v>
+                  <c:v>194066.19582754181</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>245217.81577195294</c:v>
+                  <c:v>245217.76659387304</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>421993.94262992905</c:v>
+                  <c:v>421993.87033494248</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>574770.33011790307</c:v>
+                  <c:v>574770.25858560856</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>873748.72137354803</c:v>
+                  <c:v>873748.65103853145</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1303953.1803997997</c:v>
+                  <c:v>1303953.1113054687</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1748619.051288621</c:v>
+                  <c:v>1748618.9833667437</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1905837.841657989</c:v>
+                  <c:v>1905837.7746216871</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2118397.2509896131</c:v>
+                  <c:v>2118397.184483476</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2371020.8876625844</c:v>
+                  <c:v>2371020.8222192409</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2768369.3019894157</c:v>
+                  <c:v>2768369.1890627099</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3162899.6457989421</c:v>
+                  <c:v>3162899.5336230397</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3476310.5183002278</c:v>
+                  <c:v>3476310.4071172546</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3763857.8874204624</c:v>
+                  <c:v>3763857.7768067433</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3911317.9709112705</c:v>
+                  <c:v>3911317.8607424269</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4091205.9245501067</c:v>
+                  <c:v>4091205.8147317846</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4244668.8663569177</c:v>
+                  <c:v>4244668.7570795827</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4415397.7453730423</c:v>
+                  <c:v>4415397.6363248602</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4701076.0336823575</c:v>
+                  <c:v>4701075.9249096429</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4913912.8232615339</c:v>
+                  <c:v>4913912.7147547342</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5099420.2574212886</c:v>
+                  <c:v>5099420.1494478136</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5355510.8810719606</c:v>
+                  <c:v>5355510.7736349721</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5703941.5221370691</c:v>
+                  <c:v>5703941.4151998181</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6068134.445580963</c:v>
+                  <c:v>6068134.3393089483</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6471218.9630682301</c:v>
+                  <c:v>6471218.857686583</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6865089.2319875453</c:v>
+                  <c:v>6865089.1267393492</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7429784.6436091401</c:v>
+                  <c:v>7429784.5385041367</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7795825.7760371994</c:v>
+                  <c:v>7795825.671208417</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8128674.1780120125</c:v>
+                  <c:v>8125783.5515639195</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8413009.3176757134</c:v>
+                  <c:v>8410118.6915784068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -951,97 +951,97 @@
                   <c:v>117686.96186391918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156065.15665986782</c:v>
+                  <c:v>156065.15672730474</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200500.56000818868</c:v>
+                  <c:v>200500.54063278442</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>247884.08816460447</c:v>
+                  <c:v>247884.03935187534</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>399422.0133770096</c:v>
+                  <c:v>399421.94641721889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>548163.86017378466</c:v>
+                  <c:v>548163.79465304315</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>791207.144756419</c:v>
+                  <c:v>791207.08711874788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1148484.6684023435</c:v>
+                  <c:v>1148484.6173179222</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1637875.9471351712</c:v>
+                  <c:v>1637875.8952338244</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2009970.1438653474</c:v>
+                  <c:v>2009970.0860405604</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2117868.3191635306</c:v>
+                  <c:v>2117868.2648799052</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2275306.8274254464</c:v>
+                  <c:v>2275306.7766443291</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2467431.4678339562</c:v>
+                  <c:v>2467431.3741497351</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2830055.3574977322</c:v>
+                  <c:v>2830055.2657757485</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3279407.9724539556</c:v>
+                  <c:v>3279407.8773190342</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3580619.3649953026</c:v>
+                  <c:v>3580619.270033245</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4054940.8962410595</c:v>
+                  <c:v>4054940.7930551437</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4101206.1403790722</c:v>
+                  <c:v>4101206.040943969</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4297670.0194356609</c:v>
+                  <c:v>4297669.9194989735</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4356915.6669407403</c:v>
+                  <c:v>4356915.5698256027</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4462748.14001079</c:v>
+                  <c:v>4462748.047179861</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4892523.8597752657</c:v>
+                  <c:v>4892523.7626976408</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5116912.1641673045</c:v>
+                  <c:v>5116912.0668515284</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5056978.0408539018</c:v>
+                  <c:v>5056977.9500849163</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5200013.3228820767</c:v>
+                  <c:v>5200013.2362995222</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5397198.4075353509</c:v>
+                  <c:v>5397198.3243987877</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5702596.3614385333</c:v>
+                  <c:v>5702596.2806970682</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6043907.7728215661</c:v>
+                  <c:v>6043907.692957717</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5821489.671180008</c:v>
+                  <c:v>5821489.6018602243</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6986559.0402471395</c:v>
+                  <c:v>6986558.9616890932</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7407013.3741792245</c:v>
+                  <c:v>7404122.7730168113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7897735.2676850744</c:v>
+                  <c:v>7894764.1240472868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,97 +1212,97 @@
                   <c:v>-313.45441129774554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3605.358654755255</c:v>
+                  <c:v>3605.3586547552259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6434.344804020162</c:v>
+                  <c:v>6434.3448052426102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2666.2723926515318</c:v>
+                  <c:v>2666.2727580023056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-22571.92925291945</c:v>
+                  <c:v>-22571.923917723587</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-26606.469944118406</c:v>
+                  <c:v>-26606.463932565413</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-82541.576617129031</c:v>
+                  <c:v>-82541.56391978357</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-155468.5119974562</c:v>
+                  <c:v>-155468.49398754654</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-110743.10415344988</c:v>
+                  <c:v>-110743.08813291928</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>104132.30220735841</c:v>
+                  <c:v>104132.31141887326</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-528.93182608252391</c:v>
+                  <c:v>-528.91960357083008</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-95714.060237138066</c:v>
+                  <c:v>-95714.04557491187</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-300937.83415545942</c:v>
+                  <c:v>-300937.81491297483</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-332844.28830120992</c:v>
+                  <c:v>-332844.26784729119</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-196902.54584627226</c:v>
+                  <c:v>-196902.52979822038</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-183238.52242515981</c:v>
+                  <c:v>-183238.50677349837</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>143622.92532978905</c:v>
+                  <c:v>143622.93231271673</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10000.215828965418</c:v>
+                  <c:v>10000.226212184411</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>53001.153078743257</c:v>
+                  <c:v>53001.162419390865</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-58482.078432301991</c:v>
+                  <c:v>-58482.06649925746</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-238327.89367156755</c:v>
+                  <c:v>-238327.8777297819</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-21388.963486268185</c:v>
+                  <c:v>-21388.952057093382</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17491.906746015884</c:v>
+                  <c:v>17491.917403714731</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-298532.84021805879</c:v>
+                  <c:v>-298532.82355005573</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-503928.19925499242</c:v>
+                  <c:v>-503928.17890029587</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-670936.03804561216</c:v>
+                  <c:v>-670936.01491016056</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-768622.60162969679</c:v>
+                  <c:v>-768622.57698951475</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-821181.45916597918</c:v>
+                  <c:v>-821181.43378163222</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1608294.9724291321</c:v>
+                  <c:v>-1608294.9366439125</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-809266.7357900599</c:v>
+                  <c:v>-809266.70951932389</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-721660.80383278802</c:v>
+                  <c:v>-721660.77854710817</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-515274.04999063909</c:v>
+                  <c:v>-515354.56753112003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1324,11 +1324,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89941888"/>
-        <c:axId val="103567360"/>
+        <c:axId val="499823360"/>
+        <c:axId val="499825280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89941888"/>
+        <c:axId val="499823360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,14 +1371,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103567360"/>
+        <c:crossAx val="499825280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="103567360"/>
+        <c:axId val="499825280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,7 +1429,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89941888"/>
+        <c:crossAx val="499823360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1604,97 +1604,97 @@
                   <c:v>66296.209001915733</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27895.335364311264</c:v>
+                  <c:v>27895.335446197947</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34174.930545493</c:v>
+                  <c:v>34174.906588871941</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35060.665994874435</c:v>
+                  <c:v>35060.635354817241</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>338522.32488434826</c:v>
+                  <c:v>338522.25848181249</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99049.61217090048</c:v>
+                  <c:v>99049.612912615383</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>465299.52500052168</c:v>
+                  <c:v>465299.52779550402</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1616152.7021422465</c:v>
+                  <c:v>1616152.709133588</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>790298.37825611304</c:v>
+                  <c:v>790298.38138179085</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>422822.47202923073</c:v>
+                  <c:v>422822.47560171632</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>665628.43999090604</c:v>
+                  <c:v>665628.44248121756</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>299985.20462374151</c:v>
+                  <c:v>299985.20651680883</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1831854.9859052955</c:v>
+                  <c:v>1831854.6575437326</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2954724.6717374586</c:v>
+                  <c:v>2954724.6801718567</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1328769.664256817</c:v>
+                  <c:v>1328769.6705714073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>970237.15871519432</c:v>
+                  <c:v>970237.1615963456</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>426738.15445262822</c:v>
+                  <c:v>426738.15638378076</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>173838.49867348265</c:v>
+                  <c:v>173838.49918158347</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>337749.47190853907</c:v>
+                  <c:v>337749.47369448788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>467294.34002607979</c:v>
+                  <c:v>467294.34096688603</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1041876.0484477298</c:v>
+                  <c:v>1041876.0499546814</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>807489.53701901867</c:v>
+                  <c:v>807489.53853231715</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>620567.12226842251</c:v>
+                  <c:v>620567.12494457338</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1542224.4036726714</c:v>
+                  <c:v>1542224.4085189023</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1288917.1577942353</c:v>
+                  <c:v>1288917.1605671854</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2762891.4536756147</c:v>
+                  <c:v>2762891.4612456765</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4076946.3995297765</c:v>
+                  <c:v>4076946.41303804</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5334579.4633873561</c:v>
+                  <c:v>5334579.4660985358</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20793795.79339486</c:v>
+                  <c:v>20793795.80130408</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10424510.063189363</c:v>
+                  <c:v>10424510.074989114</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5825999.8957356149</c:v>
+                  <c:v>5825999.9010702651</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2781940.8148546959</c:v>
+                  <c:v>2781940.8200028366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,8 +1709,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="476963968"/>
-        <c:axId val="476962176"/>
+        <c:axId val="493023616"/>
+        <c:axId val="493021824"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1970,11 +1970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476959104"/>
-        <c:axId val="476960640"/>
+        <c:axId val="493018496"/>
+        <c:axId val="493020288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476959104"/>
+        <c:axId val="493018496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,14 +2017,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476960640"/>
+        <c:crossAx val="493020288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476960640"/>
+        <c:axId val="493020288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2075,12 +2075,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476959104"/>
+        <c:crossAx val="493018496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="476962176"/>
+        <c:axId val="493021824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2117,12 +2117,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476963968"/>
+        <c:crossAx val="493023616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="476963968"/>
+        <c:axId val="493023616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,7 +2131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="476962176"/>
+        <c:crossAx val="493021824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2277,97 +2277,97 @@
                   <c:v>87657.679798291982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34459.381729895649</c:v>
+                  <c:v>34459.3817973326</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41606.417199055955</c:v>
+                  <c:v>41606.397754992307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51151.60056778443</c:v>
+                  <c:v>51151.570766331228</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>176776.12685797611</c:v>
+                  <c:v>176776.10374106947</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>152776.38748797405</c:v>
+                  <c:v>152776.38825066606</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>298978.39125564491</c:v>
+                  <c:v>298978.39245292288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>430204.45902625163</c:v>
+                  <c:v>430204.46026693727</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>444665.87088882137</c:v>
+                  <c:v>444665.872061275</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>157218.79036936784</c:v>
+                  <c:v>157218.79125494338</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>212559.40933162411</c:v>
+                  <c:v>212559.40986178888</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>252623.6366729713</c:v>
+                  <c:v>252623.63773576493</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>397348.414326831</c:v>
+                  <c:v>397348.36684346898</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>394530.34380952618</c:v>
+                  <c:v>394530.34456032957</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>313410.87250128563</c:v>
+                  <c:v>313410.87349421479</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>287547.36912023439</c:v>
+                  <c:v>287547.36968948861</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>147460.08349080823</c:v>
+                  <c:v>147460.08393568356</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>179887.95363883613</c:v>
+                  <c:v>179887.95398935772</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>153462.94180681123</c:v>
+                  <c:v>153462.94234779794</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>170728.87901612459</c:v>
+                  <c:v>170728.87924527752</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>285678.28830931569</c:v>
+                  <c:v>285678.28858478251</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>212836.78957917634</c:v>
+                  <c:v>212836.78984509152</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>185507.43415975483</c:v>
+                  <c:v>185507.43469307973</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>256090.62365067154</c:v>
+                  <c:v>256090.62418715825</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>348430.64106510871</c:v>
+                  <c:v>348430.6415648465</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>364192.92344389425</c:v>
+                  <c:v>364192.9241091304</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>403084.51748726668</c:v>
+                  <c:v>403084.51837763441</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>393870.26891931542</c:v>
+                  <c:v>393870.26905276586</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>564695.41162159434</c:v>
+                  <c:v>564695.41176478763</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>366041.13242805976</c:v>
+                  <c:v>366041.1327042802</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>332848.40197481349</c:v>
+                  <c:v>329957.88035550242</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>284335.13966370182</c:v>
+                  <c:v>284335.14001448749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2382,8 +2382,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="446073472"/>
-        <c:axId val="439254016"/>
+        <c:axId val="543347072"/>
+        <c:axId val="520544640"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2643,11 +2643,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="407894656"/>
-        <c:axId val="416576640"/>
+        <c:axId val="513743104"/>
+        <c:axId val="520520448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="407894656"/>
+        <c:axId val="513743104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2690,14 +2690,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416576640"/>
+        <c:crossAx val="520520448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="416576640"/>
+        <c:axId val="520520448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,12 +2748,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407894656"/>
+        <c:crossAx val="513743104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439254016"/>
+        <c:axId val="520544640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2790,12 +2790,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446073472"/>
+        <c:crossAx val="543347072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="446073472"/>
+        <c:axId val="543347072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2804,7 +2804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439254016"/>
+        <c:crossAx val="520544640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3082,97 +3082,97 @@
                   <c:v>118000.41627521692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>152459.79800511256</c:v>
+                  <c:v>152459.79807254951</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>194066.21520416852</c:v>
+                  <c:v>194066.19582754181</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>245217.81577195294</c:v>
+                  <c:v>245217.76659387304</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>421993.94262992905</c:v>
+                  <c:v>421993.87033494248</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>574770.33011790307</c:v>
+                  <c:v>574770.25858560856</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>873748.72137354803</c:v>
+                  <c:v>873748.65103853145</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1303953.1803997997</c:v>
+                  <c:v>1303953.1113054687</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1748619.051288621</c:v>
+                  <c:v>1748618.9833667437</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1905837.841657989</c:v>
+                  <c:v>1905837.7746216871</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2118397.2509896131</c:v>
+                  <c:v>2118397.184483476</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2371020.8876625844</c:v>
+                  <c:v>2371020.8222192409</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2847838.9848547815</c:v>
+                  <c:v>2847838.8624314037</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3321275.3974262131</c:v>
+                  <c:v>3321275.2759037991</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3634686.2699274989</c:v>
+                  <c:v>3634686.1493980139</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3922233.6390477335</c:v>
+                  <c:v>3922233.5190875027</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4069693.7225385415</c:v>
+                  <c:v>4069693.6030231863</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4249581.6761773778</c:v>
+                  <c:v>4249581.557012544</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4403044.6179841887</c:v>
+                  <c:v>4403044.4993603416</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4573773.4970003134</c:v>
+                  <c:v>4573773.3786056191</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4859451.7853096295</c:v>
+                  <c:v>4859451.6671904018</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5072288.5748888059</c:v>
+                  <c:v>5072288.4570354931</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5257796.0090485606</c:v>
+                  <c:v>5257795.8917285725</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5513886.6326992325</c:v>
+                  <c:v>5513886.515915731</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5932003.401977363</c:v>
+                  <c:v>5932003.2857935466</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6369034.9101100359</c:v>
+                  <c:v>6369034.7947245035</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6852736.3310947558</c:v>
+                  <c:v>6852736.2167776646</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7325380.6537979338</c:v>
+                  <c:v>7325380.5396409836</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8003015.1477438472</c:v>
+                  <c:v>8003015.0337587288</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8442264.5066575184</c:v>
+                  <c:v>8442264.3930038642</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8775112.9086323325</c:v>
+                  <c:v>8772222.2733593658</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9059448.0482960343</c:v>
+                  <c:v>9056557.413373854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3343,97 +3343,97 @@
                   <c:v>117686.96186391918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156065.15665986782</c:v>
+                  <c:v>156065.15672730474</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200500.56000818868</c:v>
+                  <c:v>200500.54063278442</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>247884.08816460447</c:v>
+                  <c:v>247884.03935187534</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>399422.0133770096</c:v>
+                  <c:v>399421.94641721889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>548163.86017378466</c:v>
+                  <c:v>548163.79465304315</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>791207.144756419</c:v>
+                  <c:v>791207.08711874788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1148484.6684023435</c:v>
+                  <c:v>1148484.6173179222</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1637875.9471351712</c:v>
+                  <c:v>1637875.8952338244</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2009970.1438653474</c:v>
+                  <c:v>2009970.0860405604</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2117868.3191635306</c:v>
+                  <c:v>2117868.2648799052</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2275306.8274254464</c:v>
+                  <c:v>2275306.7766443291</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2546901.1506993226</c:v>
+                  <c:v>2546901.0475184289</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2987403.483504849</c:v>
+                  <c:v>2987403.3825591556</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3444314.3175484682</c:v>
+                  <c:v>3444314.2127467762</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3746212.8109874739</c:v>
+                  <c:v>3746212.7063183677</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4235650.7531047342</c:v>
+                  <c:v>4235650.6393256495</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4275961.0545381531</c:v>
+                  <c:v>4275960.9448589589</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4474257.2299584523</c:v>
+                  <c:v>4474257.1196702644</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4528922.1365542552</c:v>
+                  <c:v>4528922.0293561388</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4627654.4851053022</c:v>
+                  <c:v>4627654.3826076025</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5065446.4775706353</c:v>
+                  <c:v>5065446.3703563279</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5291208.9974096352</c:v>
+                  <c:v>5291208.8898766218</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5220510.1568498099</c:v>
+                  <c:v>5220510.0564946113</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5426589.5098371096</c:v>
+                  <c:v>5426589.4141576458</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5689336.2748800395</c:v>
+                  <c:v>5689336.1830717782</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6070063.58452</c:v>
+                  <c:v>6070063.4954418624</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6486762.2314372649</c:v>
+                  <c:v>6486762.14334027</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6319609.1472786088</c:v>
+                  <c:v>6319609.0708265407</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7626256.1034424435</c:v>
+                  <c:v>7626256.0168284159</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8054731.7332755178</c:v>
+                  <c:v>8051841.1239561085</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8563501.4529138077</c:v>
+                  <c:v>8560530.3008917402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3604,97 +3604,97 @@
                   <c:v>-313.45441129774554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3605.358654755255</c:v>
+                  <c:v>3605.3586547552259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6434.344804020162</c:v>
+                  <c:v>6434.3448052426102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2666.2723926515318</c:v>
+                  <c:v>2666.2727580023056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-22571.92925291945</c:v>
+                  <c:v>-22571.923917723587</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-26606.469944118406</c:v>
+                  <c:v>-26606.463932565413</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-82541.576617129031</c:v>
+                  <c:v>-82541.56391978357</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-155468.5119974562</c:v>
+                  <c:v>-155468.49398754654</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-110743.10415344988</c:v>
+                  <c:v>-110743.08813291928</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>104132.30220735841</c:v>
+                  <c:v>104132.31141887326</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-528.93182608252391</c:v>
+                  <c:v>-528.91960357083008</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-95714.060237138066</c:v>
+                  <c:v>-95714.04557491187</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-300937.83415545896</c:v>
+                  <c:v>-300937.81491297483</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-333871.91392136412</c:v>
+                  <c:v>-333871.89334464353</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-190371.95237903064</c:v>
+                  <c:v>-190371.93665123777</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-176020.82806025958</c:v>
+                  <c:v>-176020.81276913499</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>165957.0305661927</c:v>
+                  <c:v>165957.03630246315</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26379.378360775299</c:v>
+                  <c:v>26379.387846414931</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>71212.611974263564</c:v>
+                  <c:v>71212.620309922844</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-44851.360446058214</c:v>
+                  <c:v>-44851.349249480292</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-231797.30020432733</c:v>
+                  <c:v>-231797.2845827993</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-6842.0973181705922</c:v>
+                  <c:v>-6842.0866791652516</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>33412.988361074589</c:v>
+                  <c:v>33412.998148049228</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-293376.47584942263</c:v>
+                  <c:v>-293376.45942111965</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-505413.89214025345</c:v>
+                  <c:v>-505413.87163590081</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-679698.63522999641</c:v>
+                  <c:v>-679698.61165272538</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-782672.74657475576</c:v>
+                  <c:v>-782672.72133580223</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-838618.42236066889</c:v>
+                  <c:v>-838618.39630071353</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1683406.0004652385</c:v>
+                  <c:v>-1683405.9629321881</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-816008.40321507491</c:v>
+                  <c:v>-816008.3761754483</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-720381.17535681464</c:v>
+                  <c:v>-720381.1494032573</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-495946.59538222663</c:v>
+                  <c:v>-496027.11248211376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3716,11 +3716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="475282816"/>
-        <c:axId val="481957376"/>
+        <c:axId val="608936704"/>
+        <c:axId val="608939008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="475282816"/>
+        <c:axId val="608936704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3763,14 +3763,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481957376"/>
+        <c:crossAx val="608939008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481957376"/>
+        <c:axId val="608939008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3821,7 +3821,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475282816"/>
+        <c:crossAx val="608936704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3996,97 +3996,97 @@
                   <c:v>87657.679798291982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34459.381729895649</c:v>
+                  <c:v>34459.3817973326</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41606.417199055955</c:v>
+                  <c:v>41606.397754992307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51151.60056778443</c:v>
+                  <c:v>51151.570766331228</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>176776.12685797611</c:v>
+                  <c:v>176776.10374106947</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>152776.38748797405</c:v>
+                  <c:v>152776.38825066606</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>298978.39125564491</c:v>
+                  <c:v>298978.39245292288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>430204.45902625163</c:v>
+                  <c:v>430204.46026693727</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>444665.87088882137</c:v>
+                  <c:v>444665.872061275</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>157218.79036936784</c:v>
+                  <c:v>157218.79125494338</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>212559.40933162411</c:v>
+                  <c:v>212559.40986178888</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>252623.6366729713</c:v>
+                  <c:v>252623.63773576493</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>476818.09719219716</c:v>
+                  <c:v>476818.04021216277</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>473436.41257143137</c:v>
+                  <c:v>473436.41347239545</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>313410.87250128563</c:v>
+                  <c:v>313410.87349421479</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>287547.36912023439</c:v>
+                  <c:v>287547.36968948861</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>147460.08349080823</c:v>
+                  <c:v>147460.08393568356</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>179887.95363883613</c:v>
+                  <c:v>179887.95398935772</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>153462.94180681123</c:v>
+                  <c:v>153462.94234779794</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>170728.87901612459</c:v>
+                  <c:v>170728.87924527752</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>285678.28830931569</c:v>
+                  <c:v>285678.28858478251</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>212836.78957917634</c:v>
+                  <c:v>212836.78984509152</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>185507.43415975483</c:v>
+                  <c:v>185507.43469307973</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>256090.62365067154</c:v>
+                  <c:v>256090.62418715825</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>418116.76927813044</c:v>
+                  <c:v>418116.76987781579</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>437031.5081326731</c:v>
+                  <c:v>437031.50893095648</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>483701.42098472</c:v>
+                  <c:v>483701.42205316125</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>472644.32270317851</c:v>
+                  <c:v>472644.32286331902</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>677634.49394591316</c:v>
+                  <c:v>677634.49411774508</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>439249.35891367169</c:v>
+                  <c:v>439249.35924513621</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>332848.40197481349</c:v>
+                  <c:v>329957.88035550242</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>284335.13966370182</c:v>
+                  <c:v>284335.14001448749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4101,8 +4101,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="533969920"/>
-        <c:axId val="533968000"/>
+        <c:axId val="617353216"/>
+        <c:axId val="617334656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4362,11 +4362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="503011200"/>
-        <c:axId val="503012736"/>
+        <c:axId val="617187584"/>
+        <c:axId val="617333120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="503011200"/>
+        <c:axId val="617187584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4409,14 +4409,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503012736"/>
+        <c:crossAx val="617333120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503012736"/>
+        <c:axId val="617333120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4467,12 +4467,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503011200"/>
+        <c:crossAx val="617187584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="533968000"/>
+        <c:axId val="617334656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4509,12 +4509,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533969920"/>
+        <c:crossAx val="617353216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="533969920"/>
+        <c:axId val="617353216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4523,7 +4523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="533968000"/>
+        <c:crossAx val="617334656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4801,97 +4801,97 @@
                   <c:v>123278.17387964162</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>157737.55560953726</c:v>
+                  <c:v>157737.55567697421</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>199343.97280859321</c:v>
+                  <c:v>199343.95343196651</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>250495.57337637764</c:v>
+                  <c:v>250495.52419829773</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>462626.92560594896</c:v>
+                  <c:v>462626.84868758108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>615403.31309392303</c:v>
+                  <c:v>615403.23693824711</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>914381.70434956788</c:v>
+                  <c:v>914381.62939116999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1344586.1633758196</c:v>
+                  <c:v>1344586.0896581071</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1789252.0342646409</c:v>
+                  <c:v>1789251.9617193821</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1946470.8246340088</c:v>
+                  <c:v>1946470.7529743256</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2201542.1158319577</c:v>
+                  <c:v>2201542.044808472</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2504690.4798395233</c:v>
+                  <c:v>2504690.4100913899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2981508.5770317204</c:v>
+                  <c:v>2981508.4503035527</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3454944.9896031516</c:v>
+                  <c:v>3454944.8637759481</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3768355.8621044373</c:v>
+                  <c:v>3768355.7372701629</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4055903.2312246719</c:v>
+                  <c:v>4055903.1069596517</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4203363.3147154804</c:v>
+                  <c:v>4203363.1908953348</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4383251.2683543162</c:v>
+                  <c:v>4383251.1448846925</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4536714.2101611272</c:v>
+                  <c:v>4536714.0872324901</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4707443.0891772518</c:v>
+                  <c:v>4707442.9664777676</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5050257.0351484306</c:v>
+                  <c:v>5050256.9127795063</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5263093.824727607</c:v>
+                  <c:v>5263093.7026245976</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5448601.2588873617</c:v>
+                  <c:v>5448601.137317677</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5704691.8825380336</c:v>
+                  <c:v>5704691.7615048354</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6053122.5236031422</c:v>
+                  <c:v>6053122.4030696824</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6417315.4470470361</c:v>
+                  <c:v>6417315.3271788126</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6901016.868031756</c:v>
+                  <c:v>6901016.7492319737</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7294887.1369510712</c:v>
+                  <c:v>7294887.0182847399</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7972521.6308969846</c:v>
+                  <c:v>7972521.5124024851</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8338562.763325044</c:v>
+                  <c:v>8338562.6451067654</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8671411.165299857</c:v>
+                  <c:v>8668520.5254622679</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8955746.3049635589</c:v>
+                  <c:v>8952855.6654767562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5062,97 +5062,97 @@
                   <c:v>122937.40188239964</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>161490.42906947364</c:v>
+                  <c:v>161490.42913691059</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>206024.17608931765</c:v>
+                  <c:v>206024.1567139134</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>253303.89712736208</c:v>
+                  <c:v>253303.84831463292</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>439645.2324153693</c:v>
+                  <c:v>439645.16083219717</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>587980.7865980512</c:v>
+                  <c:v>587980.71650062886</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>826961.11813188985</c:v>
+                  <c:v>826961.05638454598</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1180943.1360139658</c:v>
+                  <c:v>1180943.0811986674</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1671598.4439862443</c:v>
+                  <c:v>1671598.3882087287</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2048116.745745284</c:v>
+                  <c:v>2048116.6835358078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2196540.4697102061</c:v>
+                  <c:v>2196540.4113762402</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2400967.8770003007</c:v>
+                  <c:v>2400967.8225634391</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2661228.0652390928</c:v>
+                  <c:v>2661227.9587321887</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3100252.0321795726</c:v>
+                  <c:v>3100251.9279508772</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3562583.5475889151</c:v>
+                  <c:v>3562583.4393465216</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3864974.823122385</c:v>
+                  <c:v>3864974.714998242</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4365254.1083894381</c:v>
+                  <c:v>4365253.9908399191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4401293.5827166978</c:v>
+                  <c:v>4401293.4693913162</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4600903.8633038895</c:v>
+                  <c:v>4600903.7493312843</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4652283.5069824615</c:v>
+                  <c:v>4652283.396195503</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4803059.3728076126</c:v>
+                  <c:v>4803059.2669243049</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5249377.9832880329</c:v>
+                  <c:v>5249377.8725235397</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5476602.2061683256</c:v>
+                  <c:v>5476602.095056911</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5394453.3269900708</c:v>
+                  <c:v>5394453.2232774766</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5523781.636790554</c:v>
+                  <c:v>5523781.5377901113</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5710568.3160903649</c:v>
+                  <c:v>5710568.2209347375</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6090911.3365144944</c:v>
+                  <c:v>6090911.2441495769</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6428643.7831311915</c:v>
+                  <c:v>6428643.6917510191</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6269059.6126209693</c:v>
+                  <c:v>6269059.5333133023</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7495560.1687694201</c:v>
+                  <c:v>7495560.0788526041</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7922396.9748132583</c:v>
+                  <c:v>7919506.3621496465</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8427479.3592410143</c:v>
+                  <c:v>8424508.2037815619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5326,94 +5326,94 @@
                   <c:v>3752.8734599363816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6680.2032807244395</c:v>
+                  <c:v>6680.2032819468877</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2808.3237509844475</c:v>
+                  <c:v>2808.3241163351922</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-22981.693190579652</c:v>
+                  <c:v>-22981.687855383905</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-27422.526495871833</c:v>
+                  <c:v>-27422.520437618252</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-87420.586217678036</c:v>
+                  <c:v>-87420.573006624007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-163643.02736185375</c:v>
+                  <c:v>-163643.00845943973</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-117653.59027839662</c:v>
+                  <c:v>-117653.57351065334</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>101645.92111127521</c:v>
+                  <c:v>101645.93056148221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5001.6461217515171</c:v>
+                  <c:v>-5001.6334322318435</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-103722.60283922264</c:v>
+                  <c:v>-103722.58752795076</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-320280.51179262763</c:v>
+                  <c:v>-320280.49157136399</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-354692.95742357895</c:v>
+                  <c:v>-354692.93582507083</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-205772.31451552222</c:v>
+                  <c:v>-205772.29792364128</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-190928.40810228698</c:v>
+                  <c:v>-190928.39196140971</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>161890.7936739577</c:v>
+                  <c:v>161890.79994458426</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18042.314362381585</c:v>
+                  <c:v>18042.32450662367</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>64189.65314276237</c:v>
+                  <c:v>64189.662098794244</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-55159.582194790244</c:v>
+                  <c:v>-55159.570282264613</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-247197.66234081797</c:v>
+                  <c:v>-247197.64585520141</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-13715.841439574026</c:v>
+                  <c:v>-13715.830101057887</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28000.947280963883</c:v>
+                  <c:v>28000.957739233971</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-310238.5555479629</c:v>
+                  <c:v>-310238.53822735883</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-529340.8868125882</c:v>
+                  <c:v>-529340.86527957115</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-706747.1309566712</c:v>
+                  <c:v>-706747.10624407511</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-810105.53151726164</c:v>
+                  <c:v>-810105.50508239679</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-866243.3538198797</c:v>
+                  <c:v>-866243.32653372083</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1703462.0182760153</c:v>
+                  <c:v>-1703461.9790891828</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-843002.59455562383</c:v>
+                  <c:v>-843002.5662541613</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-749014.19048659876</c:v>
+                  <c:v>-749014.16331262141</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-528266.94572254457</c:v>
+                  <c:v>-528347.46169519424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5435,11 +5435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555021056"/>
-        <c:axId val="555022592"/>
+        <c:axId val="617632512"/>
+        <c:axId val="617644032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="555021056"/>
+        <c:axId val="617632512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5482,14 +5482,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555022592"/>
+        <c:crossAx val="617644032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="555022592"/>
+        <c:axId val="617644032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5540,7 +5540,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555021056"/>
+        <c:crossAx val="617632512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5715,97 +5715,97 @@
                   <c:v>87657.679798291982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34459.381729895649</c:v>
+                  <c:v>34459.3817973326</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41606.417199055955</c:v>
+                  <c:v>41606.397754992307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51151.60056778443</c:v>
+                  <c:v>51151.570766331228</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>212131.35222957132</c:v>
+                  <c:v>212131.32448928335</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>152776.38748797405</c:v>
+                  <c:v>152776.38825066606</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>298978.39125564491</c:v>
+                  <c:v>298978.39245292288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>430204.45902625163</c:v>
+                  <c:v>430204.46026693727</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>444665.87088882137</c:v>
+                  <c:v>444665.872061275</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>157218.79036936784</c:v>
+                  <c:v>157218.79125494338</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>255071.29119794891</c:v>
+                  <c:v>255071.29183414666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>303148.36400756554</c:v>
+                  <c:v>303148.36528291792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>476818.09719219716</c:v>
+                  <c:v>476818.04021216277</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>473436.41257143137</c:v>
+                  <c:v>473436.41347239545</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>313410.87250128563</c:v>
+                  <c:v>313410.87349421479</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>287547.36912023439</c:v>
+                  <c:v>287547.36968948861</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>147460.08349080823</c:v>
+                  <c:v>147460.08393568356</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>179887.95363883613</c:v>
+                  <c:v>179887.95398935772</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>153462.94180681123</c:v>
+                  <c:v>153462.94234779794</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>170728.87901612459</c:v>
+                  <c:v>170728.87924527752</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>342813.94597117882</c:v>
+                  <c:v>342813.94630173902</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>212836.78957917634</c:v>
+                  <c:v>212836.78984509152</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>185507.43415975483</c:v>
+                  <c:v>185507.43469307973</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>256090.62365067154</c:v>
+                  <c:v>256090.62418715825</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>348430.64106510871</c:v>
+                  <c:v>348430.6415648465</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>364192.92344389425</c:v>
+                  <c:v>364192.9241091304</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>483701.42098472</c:v>
+                  <c:v>483701.42205316125</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>393870.26891931542</c:v>
+                  <c:v>393870.26905276586</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>677634.49394591316</c:v>
+                  <c:v>677634.49411774508</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>366041.13242805976</c:v>
+                  <c:v>366041.1327042802</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>332848.40197481349</c:v>
+                  <c:v>329957.88035550242</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>284335.13966370182</c:v>
+                  <c:v>284335.14001448749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5820,8 +5820,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="413899008"/>
-        <c:axId val="413897472"/>
+        <c:axId val="617936000"/>
+        <c:axId val="617761792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6081,11 +6081,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="413885952"/>
-        <c:axId val="413887488"/>
+        <c:axId val="617758720"/>
+        <c:axId val="617760256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="413885952"/>
+        <c:axId val="617758720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6128,14 +6128,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413887488"/>
+        <c:crossAx val="617760256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="413887488"/>
+        <c:axId val="617760256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6186,12 +6186,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413885952"/>
+        <c:crossAx val="617758720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="413897472"/>
+        <c:axId val="617761792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6228,12 +6228,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413899008"/>
+        <c:crossAx val="617936000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="413899008"/>
+        <c:axId val="617936000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6242,7 +6242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413897472"/>
+        <c:crossAx val="617761792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6520,97 +6520,97 @@
                   <c:v>498744.12134541036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>600524.17460478598</c:v>
+                  <c:v>600524.17490356101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>735557.8011562496</c:v>
+                  <c:v>735557.70679647312</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>919630.88726893254</c:v>
+                  <c:v>919630.63204484491</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2338747.616428772</c:v>
+                  <c:v>2338747.0828391453</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3288883.6898427159</c:v>
+                  <c:v>3288883.1633680095</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5890008.2708201017</c:v>
+                  <c:v>5890007.7599699479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10379671.993586306</c:v>
+                  <c:v>10379671.502158061</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15097609.116637221</c:v>
+                  <c:v>15097608.643868702</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16089486.820450598</c:v>
+                  <c:v>16089486.356062591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17960613.538194045</c:v>
+                  <c:v>17960613.080806471</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20384954.349273384</c:v>
+                  <c:v>20384953.907184701</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25167288.574719138</c:v>
+                  <c:v>25167287.275392979</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29898837.276690625</c:v>
+                  <c:v>29898835.990870889</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32690561.66064306</c:v>
+                  <c:v>32690560.388090178</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35143945.780276045</c:v>
+                  <c:v>35143944.515008569</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36044921.66178982</c:v>
+                  <c:v>36044920.400599599</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37258882.213320516</c:v>
+                  <c:v>37258880.9556785</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>38215430.131634384</c:v>
+                  <c:v>38215428.879050389</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39337867.031034373</c:v>
+                  <c:v>39337865.780710183</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42253269.725288838</c:v>
+                  <c:v>42253268.479181439</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43815595.153418921</c:v>
+                  <c:v>43815593.910239443</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45086881.638241291</c:v>
+                  <c:v>45086880.400544144</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47148897.343884908</c:v>
+                  <c:v>47148896.112667359</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50421369.515802942</c:v>
+                  <c:v>50421368.291625723</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>53918394.269471437</c:v>
+                  <c:v>53918393.054875731</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>58804657.6645867</c:v>
+                  <c:v>58804656.466180794</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62737723.820857614</c:v>
+                  <c:v>62737722.624450594</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>70839944.850778222</c:v>
+                  <c:v>70839943.657453001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>74363623.440136388</c:v>
+                  <c:v>74363622.250799701</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>77419045.194995031</c:v>
+                  <c:v>77379329.706829265</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>79831433.727593049</c:v>
+                  <c:v>79791718.243891552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6781,97 +6781,97 @@
                   <c:v>498143.51889460301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>616511.06238820706</c:v>
+                  <c:v>616511.06268698222</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>762720.1575304335</c:v>
+                  <c:v>762720.06317607302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>932459.19498475967</c:v>
+                  <c:v>932458.94153932028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2256638.0305365794</c:v>
+                  <c:v>2256637.5245300289</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3183979.9222214525</c:v>
+                  <c:v>3183979.4284409676</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5460208.4829874383</c:v>
+                  <c:v>5460208.0552172875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9446595.3156991061</c:v>
+                  <c:v>9446594.9467791822</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14532410.948455915</c:v>
+                  <c:v>14532410.58382888</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17430817.479079165</c:v>
+                  <c:v>17430817.074996673</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18394303.417609964</c:v>
+                  <c:v>18394303.041568905</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19991933.655140217</c:v>
+                  <c:v>19991933.311298776</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22971073.68137769</c:v>
+                  <c:v>22971072.511311926</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27405582.518757947</c:v>
+                  <c:v>27405581.377328776</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31513734.382025342</c:v>
+                  <c:v>31513733.19903446</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34098424.032504037</c:v>
+                  <c:v>34098422.851869494</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38112118.443774462</c:v>
+                  <c:v>38112117.159441441</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38070168.080304071</c:v>
+                  <c:v>38070166.841841951</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39425879.769634411</c:v>
+                  <c:v>39425878.523245104</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39525594.016525604</c:v>
+                  <c:v>39525592.804727919</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40809449.712371074</c:v>
+                  <c:v>40809448.55481106</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44355565.864131629</c:v>
+                  <c:v>44355564.653229311</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45979345.877830125</c:v>
+                  <c:v>45979344.662787095</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45201638.977256298</c:v>
+                  <c:v>45201637.843734942</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46638191.200187624</c:v>
+                  <c:v>46638190.119745962</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>48637346.038182497</c:v>
+                  <c:v>48637345.002022691</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>52643298.049953662</c:v>
+                  <c:v>52643297.048737623</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>56091169.142944716</c:v>
+                  <c:v>56091168.152955428</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>56888494.256736919</c:v>
+                  <c:v>56888493.398758255</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>68220399.918290302</c:v>
+                  <c:v>68220398.946538344</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>72131251.603521094</c:v>
+                  <c:v>72091536.320755079</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>76553483.256008387</c:v>
+                  <c:v>76512661.363221973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7042,97 +7042,97 @@
                   <c:v>-600.60245080734603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15986.887783421087</c:v>
+                  <c:v>15986.887783421203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27162.356374183903</c:v>
+                  <c:v>27162.356379599893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12828.307715827134</c:v>
+                  <c:v>12828.309494475368</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-82109.585892192554</c:v>
+                  <c:v>-82109.558309116401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-104903.7676212634</c:v>
+                  <c:v>-104903.73492704192</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-429799.78783266339</c:v>
+                  <c:v>-429799.70475266036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-933076.67788719945</c:v>
+                  <c:v>-933076.55537887849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-565198.16818130575</c:v>
+                  <c:v>-565198.06003982201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1341330.6586285662</c:v>
+                  <c:v>1341330.7189340815</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>433689.87941591814</c:v>
+                  <c:v>433689.96076243371</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-393020.69413316622</c:v>
+                  <c:v>-393020.59588592499</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2196214.8933414482</c:v>
+                  <c:v>-2196214.7640810534</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2493254.7579326779</c:v>
+                  <c:v>-2493254.6135421135</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1176827.2786177173</c:v>
+                  <c:v>-1176827.1890557185</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1045521.7477720082</c:v>
+                  <c:v>-1045521.663139075</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2067196.7819846421</c:v>
+                  <c:v>2067196.7588418424</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>811285.86698355526</c:v>
+                  <c:v>811285.88616345078</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1210449.6380000263</c:v>
+                  <c:v>1210449.6441947147</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>187726.98549123108</c:v>
+                  <c:v>187727.02401773632</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1443820.0129177645</c:v>
+                  <c:v>-1443819.9243703783</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>539970.71071270853</c:v>
+                  <c:v>539970.74298986793</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>892464.23958883435</c:v>
+                  <c:v>892464.2622429505</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1947258.3666286096</c:v>
+                  <c:v>-1947258.268932417</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3783178.3156153187</c:v>
+                  <c:v>-3783178.1718797609</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-5281048.2312889397</c:v>
+                  <c:v>-5281048.0528530404</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-6161359.6146330386</c:v>
+                  <c:v>-6161359.4174431711</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-6646554.6779128984</c:v>
+                  <c:v>-6646554.4714951664</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-13951450.594041303</c:v>
+                  <c:v>-13951450.258694746</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-6143223.5218460858</c:v>
+                  <c:v>-6143223.3042613566</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-5287793.591473937</c:v>
+                  <c:v>-5287793.3860741854</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-3277950.4715846628</c:v>
+                  <c:v>-3279056.8806695789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7154,11 +7154,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461895168"/>
-        <c:axId val="461896704"/>
+        <c:axId val="618094976"/>
+        <c:axId val="618491904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461895168"/>
+        <c:axId val="618094976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7201,14 +7201,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461896704"/>
+        <c:crossAx val="618491904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461896704"/>
+        <c:axId val="618491904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7259,7 +7259,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461895168"/>
+        <c:crossAx val="618094976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7434,97 +7434,97 @@
                   <c:v>518359.5409933434</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>620857.08000716846</c:v>
+                  <c:v>620857.0803080498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>754421.49304748746</c:v>
+                  <c:v>754421.39971973572</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>939979.04256465274</c:v>
+                  <c:v>939978.7870752943</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2532702.6929009254</c:v>
+                  <c:v>2532702.1249923217</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3609954.441290779</c:v>
+                  <c:v>3609953.8814489776</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6894202.6673915992</c:v>
+                  <c:v>6894202.1272777691</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13138519.546267886</c:v>
+                  <c:v>13138519.03316645</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19454365.939256702</c:v>
+                  <c:v>19454365.45113482</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20628185.66733969</c:v>
+                  <c:v>20628185.189135574</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22964174.081785653</c:v>
+                  <c:v>22964173.612321157</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26133247.09670499</c:v>
+                  <c:v>26133246.647239044</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33004417.158566743</c:v>
+                  <c:v>33004415.477437727</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39891678.967726134</c:v>
+                  <c:v>39891677.306257121</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43769073.791364022</c:v>
+                  <c:v>43769072.148321196</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47162412.869666174</c:v>
+                  <c:v>47162411.236699983</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48304334.175588645</c:v>
+                  <c:v>48304332.54779008</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49895370.261201665</c:v>
+                  <c:v>49895368.638053432</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51136028.995315179</c:v>
+                  <c:v>51136027.378727287</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52630618.767142393</c:v>
+                  <c:v>52630617.153563567</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>56679789.014929585</c:v>
+                  <c:v>56679787.407207407</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>58749094.230820052</c:v>
+                  <c:v>58749092.626975909</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>60419641.566249207</c:v>
+                  <c:v>60419639.969609171</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>63307618.799025491</c:v>
+                  <c:v>63307617.211460538</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>68084950.420234233</c:v>
+                  <c:v>68084948.84294714</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>73359497.658637092</c:v>
+                  <c:v>73359496.095801756</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>80865278.339622617</c:v>
+                  <c:v>80865276.80165641</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>86963055.506408319</c:v>
+                  <c:v>86963053.971541166</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>101405517.50538883</c:v>
+                  <c:v>101405515.97601506</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>106928524.59967154</c:v>
+                  <c:v>106928523.0765494</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>111658279.43566212</c:v>
+                  <c:v>111596800.67240249</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>115291394.83387817</c:v>
+                  <c:v>115229916.07734182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7539,8 +7539,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="476915584"/>
-        <c:axId val="476914048"/>
+        <c:axId val="492978944"/>
+        <c:axId val="492977152"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7800,11 +7800,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476906624"/>
-        <c:axId val="476908160"/>
+        <c:axId val="492974080"/>
+        <c:axId val="492975616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476906624"/>
+        <c:axId val="492974080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7847,14 +7847,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476908160"/>
+        <c:crossAx val="492975616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476908160"/>
+        <c:axId val="492975616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7905,12 +7905,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476906624"/>
+        <c:crossAx val="492974080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="476914048"/>
+        <c:axId val="492977152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7947,12 +7947,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476915584"/>
+        <c:crossAx val="492978944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="476915584"/>
+        <c:axId val="492978944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7961,7 +7961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="476914048"/>
+        <c:crossAx val="492977152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8239,97 +8239,97 @@
                   <c:v>84335.831461889407</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112231.16682620067</c:v>
+                  <c:v>112231.16690808735</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>146406.09737169367</c:v>
+                  <c:v>146406.07349695929</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>181466.76336656811</c:v>
+                  <c:v>181466.70885177652</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>519989.08825091633</c:v>
+                  <c:v>519988.96733358898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>619038.70042181679</c:v>
+                  <c:v>619038.58024620439</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1084338.2254223386</c:v>
+                  <c:v>1084338.1080417084</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2700490.9275645851</c:v>
+                  <c:v>2700490.8171752961</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3490789.3058206979</c:v>
+                  <c:v>3490789.1985570872</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3913611.7778499285</c:v>
+                  <c:v>3913611.6741588037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4579240.2178408345</c:v>
+                  <c:v>4579240.1166400211</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4879225.4224645756</c:v>
+                  <c:v>4879225.3231568299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6711080.4083698709</c:v>
+                  <c:v>6711079.9807005627</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9665805.0801073294</c:v>
+                  <c:v>9665804.6608724184</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10994574.744364146</c:v>
+                  <c:v>10994574.331443826</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11964811.90307934</c:v>
+                  <c:v>11964811.493040171</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12391550.057531968</c:v>
+                  <c:v>12391549.649423951</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12565388.55620545</c:v>
+                  <c:v>12565388.148605535</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12903138.028113989</c:v>
+                  <c:v>12903137.622300023</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13370432.36814007</c:v>
+                  <c:v>13370431.963266909</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14412308.4165878</c:v>
+                  <c:v>14412308.01322159</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15219797.953606818</c:v>
+                  <c:v>15219797.551753907</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15840365.075875241</c:v>
+                  <c:v>15840364.67669848</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17382589.479547914</c:v>
+                  <c:v>17382589.085217383</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18671506.637342148</c:v>
+                  <c:v>18671506.24578457</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21434398.09101776</c:v>
+                  <c:v>21434397.707030244</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>25511344.490547538</c:v>
+                  <c:v>25511344.120068286</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30845923.953934893</c:v>
+                  <c:v>30845923.586166821</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>51639719.747329757</c:v>
+                  <c:v>51639719.387470901</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>62064229.810519122</c:v>
+                  <c:v>62064229.462460011</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>67890229.706254736</c:v>
+                  <c:v>67890229.363530278</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70672170.521109432</c:v>
+                  <c:v>70672170.183533117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8500,97 +8500,97 @@
                   <c:v>84200.697806661454</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114899.79995626083</c:v>
+                  <c:v>114899.8000381475</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>151157.51406207148</c:v>
+                  <c:v>151157.49018882145</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>183377.42759977028</c:v>
+                  <c:v>183377.3735351208</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>503229.26609155978</c:v>
+                  <c:v>503229.15112894133</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>597195.78598649136</c:v>
+                  <c:v>597195.67292681918</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1001556.9448874374</c:v>
+                  <c:v>1001556.8461594526</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2525394.4055867996</c:v>
+                  <c:v>2525394.3229500861</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3414039.1508988747</c:v>
+                  <c:v>3414039.06816972</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4284754.5486189919</c:v>
+                  <c:v>4284754.4586089617</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4727271.3667992093</c:v>
+                  <c:v>4727271.2839664062</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4814794.8579107495</c:v>
+                  <c:v>4814794.7806938384</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6212374.1850465257</c:v>
+                  <c:v>6212373.7864327151</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9086766.3998726532</c:v>
+                  <c:v>9086766.0148477331</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10852018.995252015</c:v>
+                  <c:v>10852018.598047007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11867472.315836368</c:v>
+                  <c:v>11867471.919857511</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13377547.956609925</c:v>
+                  <c:v>13377547.52641478</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13110555.318608521</c:v>
+                  <c:v>13110554.903097723</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13585768.294488385</c:v>
+                  <c:v>13585767.876406925</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13700642.521946413</c:v>
+                  <c:v>13700642.115650954</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14176980.14550392</c:v>
+                  <c:v>14176979.757486574</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15673627.754978357</c:v>
+                  <c:v>15673627.349612376</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16418753.142934715</c:v>
+                  <c:v>16418752.737023439</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16946941.709956296</c:v>
+                  <c:v>16946941.333960671</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17547538.066478729</c:v>
+                  <c:v>17547537.708527576</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19746858.577810202</c:v>
+                  <c:v>19746858.23892536</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>23466396.816588655</c:v>
+                  <c:v>23466396.497345719</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28584694.620009139</c:v>
+                  <c:v>28584694.306419734</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>45655832.779697917</c:v>
+                  <c:v>45655832.514857277</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>62346831.59727785</c:v>
+                  <c:v>62346831.30788628</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68954611.515940085</c:v>
+                  <c:v>68954611.228254423</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>73657882.523451313</c:v>
+                  <c:v>73657882.232897803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8761,97 +8761,97 @@
                   <c:v>-135.13365522795357</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2668.6331300601596</c:v>
+                  <c:v>2668.633130060145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4751.4166903778096</c:v>
+                  <c:v>4751.4166918621631</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1910.6642332021729</c:v>
+                  <c:v>1910.6646833442792</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-16759.822159356554</c:v>
+                  <c:v>-16759.81620464765</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-21842.914435325423</c:v>
+                  <c:v>-21842.907319385209</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-82781.280534901191</c:v>
+                  <c:v>-82781.261882255785</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-175096.52197778551</c:v>
+                  <c:v>-175096.49422521004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-76750.154921823181</c:v>
+                  <c:v>-76750.130387367215</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>371142.77076906338</c:v>
+                  <c:v>371142.78445015801</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>148031.14895837475</c:v>
+                  <c:v>148031.16732638516</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-64430.564553826116</c:v>
+                  <c:v>-64430.542462991551</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-498706.22332334518</c:v>
+                  <c:v>-498706.19426784758</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-579038.68023467623</c:v>
+                  <c:v>-579038.64602468535</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-142555.74911213107</c:v>
+                  <c:v>-142555.73339681886</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-97339.587242972106</c:v>
+                  <c:v>-97339.573182659224</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>985997.8990779575</c:v>
+                  <c:v>985997.87699082866</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>545166.76240307093</c:v>
+                  <c:v>545166.75449218787</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>682630.26637439616</c:v>
+                  <c:v>682630.25410690159</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>330210.15380634367</c:v>
+                  <c:v>330210.1523840446</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-235328.27108388022</c:v>
+                  <c:v>-235328.2557350155</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>453829.80137153901</c:v>
+                  <c:v>453829.79785846919</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>578388.06705947407</c:v>
+                  <c:v>578388.06032495946</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-435647.76959161833</c:v>
+                  <c:v>-435647.75125671178</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1123968.5708634183</c:v>
+                  <c:v>-1123968.5372569934</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1687539.5132075585</c:v>
+                  <c:v>-1687539.468104884</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2044947.6739588827</c:v>
+                  <c:v>-2044947.6227225661</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-2261229.3339257538</c:v>
+                  <c:v>-2261229.2797470875</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-5983886.9676318392</c:v>
+                  <c:v>-5983886.8726136237</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>282601.78675872833</c:v>
+                  <c:v>282601.84542626888</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1064381.8096853495</c:v>
+                  <c:v>1064381.8647241443</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2985712.0023418814</c:v>
+                  <c:v>2985712.049364686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8873,11 +8873,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476939008"/>
-        <c:axId val="476940544"/>
+        <c:axId val="492998656"/>
+        <c:axId val="493000192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476939008"/>
+        <c:axId val="492998656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8920,14 +8920,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476940544"/>
+        <c:crossAx val="493000192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476940544"/>
+        <c:axId val="493000192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8978,7 +8978,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476939008"/>
+        <c:crossAx val="492998656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9905,25 +9905,25 @@
         <v>44561</v>
       </c>
       <c r="Q4" s="18">
-        <v>245217.81577195294</v>
+        <v>245217.76659387304</v>
       </c>
       <c r="R4" s="8">
-        <v>245217.81577195294</v>
+        <v>245217.76659387304</v>
       </c>
       <c r="S4" s="8">
-        <v>247884.08816460447</v>
+        <v>247884.03935187534</v>
       </c>
       <c r="T4" s="8">
-        <v>2666.2723926515318</v>
+        <v>2666.2727580023056</v>
       </c>
       <c r="U4" s="8">
         <v>0</v>
       </c>
       <c r="V4" s="19">
-        <v>1.0873077815565837E-2</v>
+        <v>1.0873081486049733E-2</v>
       </c>
       <c r="W4" s="19">
-        <v>1.0873077815565837E-2</v>
+        <v>1.0873081486049733E-2</v>
       </c>
       <c r="Y4" s="24">
         <v>44925</v>
@@ -9984,22 +9984,22 @@
         <v>44925</v>
       </c>
       <c r="Q5" s="18">
-        <v>3518640.0716485097</v>
+        <v>3518640.0102128703</v>
       </c>
       <c r="R5" s="8">
-        <v>3763857.8874204624</v>
+        <v>3763857.7768067433</v>
       </c>
       <c r="S5" s="8">
-        <v>3580619.3649953026</v>
+        <v>3580619.270033245</v>
       </c>
       <c r="T5" s="8">
-        <v>-183238.52242515981</v>
+        <v>-183238.50677349837</v>
       </c>
       <c r="U5" s="8">
         <v>0</v>
       </c>
       <c r="V5" s="19">
-        <v>-4.8683698456729256E-2</v>
+        <v>-4.8683695729055391E-2</v>
       </c>
       <c r="W5" s="19">
         <v>-4.5834423753382425E-2</v>
@@ -10074,31 +10074,31 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="13">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D7" s="14">
-        <v>39.253623134275358</v>
+        <v>39.253623134226025</v>
       </c>
       <c r="E7" s="14">
-        <v>34459.381729895649</v>
+        <v>34459.3817973326</v>
       </c>
       <c r="F7" s="15">
-        <v>34702.298831101441</v>
+        <v>34702.298899013775</v>
       </c>
       <c r="G7" s="15">
-        <v>157165.31846056989</v>
+        <v>157165.31852848222</v>
       </c>
       <c r="H7" s="15">
-        <v>156065.15665986782</v>
+        <v>156065.15672730474</v>
       </c>
       <c r="I7" s="15">
-        <v>152459.79800511256</v>
+        <v>152459.79807254951</v>
       </c>
       <c r="J7" s="15">
-        <v>156065.15665986782</v>
+        <v>156065.15672730474</v>
       </c>
       <c r="K7" s="15">
-        <v>3605.358654755255</v>
+        <v>3605.3586547552259</v>
       </c>
       <c r="L7" s="14">
         <v>0</v>
@@ -10117,31 +10117,31 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="13">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D8" s="14">
-        <v>38.695499988749994</v>
+        <v>38.695499993324269</v>
       </c>
       <c r="E8" s="14">
-        <v>41606.417199055955</v>
+        <v>41606.397754992307</v>
       </c>
       <c r="F8" s="15">
-        <v>41153.724696748955</v>
+        <v>41153.705464243583</v>
       </c>
       <c r="G8" s="15">
-        <v>198319.04315731884</v>
+        <v>198319.02399272582</v>
       </c>
       <c r="H8" s="15">
-        <v>200500.56000818868</v>
+        <v>200500.54063278442</v>
       </c>
       <c r="I8" s="15">
-        <v>194066.21520416852</v>
+        <v>194066.19582754181</v>
       </c>
       <c r="J8" s="15">
-        <v>200500.56000818868</v>
+        <v>200500.54063278442</v>
       </c>
       <c r="K8" s="15">
-        <v>6434.344804020162</v>
+        <v>6434.3448052426102</v>
       </c>
       <c r="L8" s="14">
         <v>0</v>
@@ -10156,31 +10156,31 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="13">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D9" s="14">
-        <v>38.228579205136612</v>
+        <v>38.2285792249669</v>
       </c>
       <c r="E9" s="14">
-        <v>51151.60056778443</v>
+        <v>51151.570766331228</v>
       </c>
       <c r="F9" s="15">
-        <v>51564.11431831224</v>
+        <v>51564.084276524249</v>
       </c>
       <c r="G9" s="15">
-        <v>249883.15747563107</v>
+        <v>249883.10826925008</v>
       </c>
       <c r="H9" s="15">
-        <v>247884.08816460447</v>
+        <v>247884.03935187534</v>
       </c>
       <c r="I9" s="15">
-        <v>245217.81577195294</v>
+        <v>245217.76659387304</v>
       </c>
       <c r="J9" s="15">
-        <v>247884.08816460447</v>
+        <v>247884.03935187534</v>
       </c>
       <c r="K9" s="15">
-        <v>2666.2723926515318</v>
+        <v>2666.2727580023056</v>
       </c>
       <c r="L9" s="14">
         <v>0</v>
@@ -10198,31 +10198,31 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="13">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D10" s="14">
-        <v>37.709801928118821</v>
+        <v>37.709801948471814</v>
       </c>
       <c r="E10" s="14">
-        <v>176776.12685797611</v>
+        <v>176776.10374106947</v>
       </c>
       <c r="F10" s="15">
-        <v>198401.94416440517</v>
+        <v>198401.91821950354</v>
       </c>
       <c r="G10" s="15">
-        <v>448285.10164003621</v>
+        <v>448285.02648875362</v>
       </c>
       <c r="H10" s="15">
-        <v>399422.0133770096</v>
+        <v>399421.94641721889</v>
       </c>
       <c r="I10" s="15">
-        <v>421993.94262992905</v>
+        <v>421993.87033494248</v>
       </c>
       <c r="J10" s="15">
-        <v>399422.0133770096</v>
+        <v>399421.94641721889</v>
       </c>
       <c r="K10" s="15">
-        <v>-22571.92925291945</v>
+        <v>-22571.923917723587</v>
       </c>
       <c r="L10" s="14">
         <v>0</v>
@@ -10240,31 +10240,31 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="13">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D11" s="14">
-        <v>37.189128385091756</v>
+        <v>37.189128403969853</v>
       </c>
       <c r="E11" s="14">
-        <v>152776.38748797405</v>
+        <v>152776.38825066606</v>
       </c>
       <c r="F11" s="15">
-        <v>173215.85311749773</v>
+        <v>173215.85398222785</v>
       </c>
       <c r="G11" s="15">
-        <v>621500.95475753397</v>
+        <v>621500.88047098147</v>
       </c>
       <c r="H11" s="15">
-        <v>548163.86017378466</v>
+        <v>548163.79465304315</v>
       </c>
       <c r="I11" s="15">
-        <v>574770.33011790307</v>
+        <v>574770.25858560856</v>
       </c>
       <c r="J11" s="15">
-        <v>548163.86017378466</v>
+        <v>548163.79465304315</v>
       </c>
       <c r="K11" s="15">
-        <v>-26606.469944118406</v>
+        <v>-26606.463932565413</v>
       </c>
       <c r="L11" s="14">
         <v>0</v>
@@ -10282,31 +10282,31 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="13">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D12" s="14">
-        <v>36.340041456763494</v>
+        <v>36.340041473831867</v>
       </c>
       <c r="E12" s="14">
-        <v>298978.39125564491</v>
+        <v>298978.39245292288</v>
       </c>
       <c r="F12" s="15">
-        <v>377497.97080263944</v>
+        <v>377497.97231435409</v>
       </c>
       <c r="G12" s="15">
-        <v>998998.92556017335</v>
+        <v>998998.85278533562</v>
       </c>
       <c r="H12" s="15">
-        <v>791207.144756419</v>
+        <v>791207.08711874788</v>
       </c>
       <c r="I12" s="15">
-        <v>873748.72137354803</v>
+        <v>873748.65103853145</v>
       </c>
       <c r="J12" s="15">
-        <v>791207.144756419</v>
+        <v>791207.08711874788</v>
       </c>
       <c r="K12" s="15">
-        <v>-82541.576617129031</v>
+        <v>-82541.56391978357</v>
       </c>
       <c r="L12" s="14">
         <v>0</v>
@@ -10322,31 +10322,31 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="13">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D13" s="14">
-        <v>35.566115356769217</v>
+        <v>35.566115372584406</v>
       </c>
       <c r="E13" s="14">
-        <v>430204.45902625163</v>
+        <v>430204.46026693727</v>
       </c>
       <c r="F13" s="15">
-        <v>598337.23208346288</v>
+        <v>598337.23380903399</v>
       </c>
       <c r="G13" s="15">
-        <v>1597336.1576436362</v>
+        <v>1597336.0865943697</v>
       </c>
       <c r="H13" s="15">
-        <v>1148484.6684023435</v>
+        <v>1148484.6173179222</v>
       </c>
       <c r="I13" s="15">
-        <v>1303953.1803997997</v>
+        <v>1303953.1113054687</v>
       </c>
       <c r="J13" s="15">
-        <v>1148484.6684023435</v>
+        <v>1148484.6173179222</v>
       </c>
       <c r="K13" s="15">
-        <v>-155468.5119974562</v>
+        <v>-155468.49398754654</v>
       </c>
       <c r="L13" s="14">
         <v>0</v>
@@ -10362,31 +10362,31 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="13">
-        <v>24.129999160000001</v>
+        <v>24.129999160766602</v>
       </c>
       <c r="D14" s="14">
-        <v>34.740071647956981</v>
+        <v>34.740071662711408</v>
       </c>
       <c r="E14" s="14">
-        <v>444665.87088882137</v>
+        <v>444665.872061275</v>
       </c>
       <c r="F14" s="15">
-        <v>595268.92018481973</v>
+        <v>595268.92175436951</v>
       </c>
       <c r="G14" s="15">
-        <v>2192605.0778284557</v>
+        <v>2192605.0083487392</v>
       </c>
       <c r="H14" s="15">
-        <v>1637875.9471351712</v>
+        <v>1637875.8952338244</v>
       </c>
       <c r="I14" s="15">
-        <v>1748619.051288621</v>
+        <v>1748618.9833667437</v>
       </c>
       <c r="J14" s="15">
-        <v>1637875.9471351712</v>
+        <v>1637875.8952338244</v>
       </c>
       <c r="K14" s="15">
-        <v>-110743.10415344988</v>
+        <v>-110743.08813291928</v>
       </c>
       <c r="L14" s="14">
         <v>0</v>
@@ -10401,31 +10401,31 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="13">
-        <v>27.809999470000001</v>
+        <v>27.809999465942383</v>
       </c>
       <c r="D15" s="14">
-        <v>34.118899961366665</v>
+        <v>34.118899975077305</v>
       </c>
       <c r="E15" s="14">
-        <v>157218.79036936784</v>
+        <v>157218.79125494338</v>
       </c>
       <c r="F15" s="15">
-        <v>186057.73378250105</v>
+        <v>186057.73483051939</v>
       </c>
       <c r="G15" s="15">
-        <v>2378662.8116109567</v>
+        <v>2378662.7431792584</v>
       </c>
       <c r="H15" s="15">
-        <v>2009970.1438653474</v>
+        <v>2009970.0860405604</v>
       </c>
       <c r="I15" s="15">
-        <v>1905837.841657989</v>
+        <v>1905837.7746216871</v>
       </c>
       <c r="J15" s="15">
-        <v>2009970.1438653474</v>
+        <v>2009970.0860405604</v>
       </c>
       <c r="K15" s="15">
-        <v>104132.30220735841</v>
+        <v>104132.31141887326</v>
       </c>
       <c r="L15" s="14">
         <v>0</v>
@@ -10440,31 +10440,31 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="13">
-        <v>26.329999919999999</v>
+        <v>26.329999923706055</v>
       </c>
       <c r="D16" s="14">
-        <v>33.665700887975071</v>
+        <v>33.665700900829464</v>
       </c>
       <c r="E16" s="14">
-        <v>212559.40933162411</v>
+        <v>212559.40986178888</v>
       </c>
       <c r="F16" s="15">
-        <v>265367.55254019768</v>
+        <v>265367.55320207629</v>
       </c>
       <c r="G16" s="15">
-        <v>2644030.3641511542</v>
+        <v>2644030.2963813348</v>
       </c>
       <c r="H16" s="15">
-        <v>2117868.3191635306</v>
+        <v>2117868.2648799052</v>
       </c>
       <c r="I16" s="15">
-        <v>2118397.2509896131</v>
+        <v>2118397.184483476</v>
       </c>
       <c r="J16" s="15">
-        <v>2117868.3191635306</v>
+        <v>2117868.2648799052</v>
       </c>
       <c r="K16" s="15">
-        <v>-528.93182608252391</v>
+        <v>-528.91960357083008</v>
       </c>
       <c r="L16" s="14">
         <v>0</v>
@@ -10479,31 +10479,31 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="13">
-        <v>25.18000031</v>
+        <v>25.180000305175781</v>
       </c>
       <c r="D17" s="14">
-        <v>33.177209264156971</v>
+        <v>33.177209276154976</v>
       </c>
       <c r="E17" s="14">
-        <v>252623.6366729713</v>
+        <v>252623.63773576493</v>
       </c>
       <c r="F17" s="15">
-        <v>330226.98221817799</v>
+        <v>330226.98360745073</v>
       </c>
       <c r="G17" s="15">
-        <v>2974257.3463693322</v>
+        <v>2974257.2799887853</v>
       </c>
       <c r="H17" s="15">
-        <v>2275306.8274254464</v>
+        <v>2275306.7766443291</v>
       </c>
       <c r="I17" s="15">
-        <v>2371020.8876625844</v>
+        <v>2371020.8222192409</v>
       </c>
       <c r="J17" s="15">
-        <v>2275306.8274254464</v>
+        <v>2275306.7766443291</v>
       </c>
       <c r="K17" s="15">
-        <v>-95714.060237138066</v>
+        <v>-95714.04557491187</v>
       </c>
       <c r="L17" s="14">
         <v>0</v>
@@ -10518,31 +10518,31 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="13">
-        <v>22.61</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D18" s="14">
-        <v>32.639682710465742</v>
+        <v>32.639682721540886</v>
       </c>
       <c r="E18" s="14">
-        <v>397348.414326831</v>
+        <v>397348.36684346898</v>
       </c>
       <c r="F18" s="15">
-        <v>570902.91057528066</v>
+        <v>570902.84235205734</v>
       </c>
       <c r="G18" s="15">
-        <v>3545160.2569446126</v>
+        <v>3545160.1223408426</v>
       </c>
       <c r="H18" s="15">
-        <v>2467431.4678339562</v>
+        <v>2467431.3741497351</v>
       </c>
       <c r="I18" s="15">
-        <v>2768369.3019894157</v>
+        <v>2768369.1890627099</v>
       </c>
       <c r="J18" s="15">
-        <v>2467431.4678339562</v>
+        <v>2467431.3741497351</v>
       </c>
       <c r="K18" s="15">
-        <v>-300937.83415545942</v>
+        <v>-300937.81491297483</v>
       </c>
       <c r="L18" s="14">
         <v>0</v>
@@ -10557,31 +10557,31 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="13">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D19" s="14">
-        <v>32.234052986719142</v>
+        <v>32.234052997346801</v>
       </c>
       <c r="E19" s="14">
-        <v>394530.34380952618</v>
+        <v>394530.34456032957</v>
       </c>
       <c r="F19" s="15">
-        <v>574279.99596446904</v>
+        <v>574279.9970573415</v>
       </c>
       <c r="G19" s="15">
-        <v>4119440.2529090815</v>
+        <v>4119440.1193981841</v>
       </c>
       <c r="H19" s="15">
-        <v>2830055.3574977322</v>
+        <v>2830055.2657757485</v>
       </c>
       <c r="I19" s="15">
-        <v>3162899.6457989421</v>
+        <v>3162899.5336230397</v>
       </c>
       <c r="J19" s="15">
-        <v>2830055.3574977322</v>
+        <v>2830055.2657757485</v>
       </c>
       <c r="K19" s="15">
-        <v>-332844.28830120992</v>
+        <v>-332844.26784729119</v>
       </c>
       <c r="L19" s="14">
         <v>0</v>
@@ -10595,31 +10595,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="13">
-        <v>22.809999470000001</v>
+        <v>22.809999465942383</v>
       </c>
       <c r="D20" s="14">
-        <v>31.717553830421821</v>
+        <v>31.717553840474388</v>
       </c>
       <c r="E20" s="14">
-        <v>313410.87250128563</v>
+        <v>313410.87349421479</v>
       </c>
       <c r="F20" s="15">
-        <v>435292.86117702356</v>
+        <v>435292.8625560918</v>
       </c>
       <c r="G20" s="15">
-        <v>4554733.1140861055</v>
+        <v>4554732.9819542756</v>
       </c>
       <c r="H20" s="15">
-        <v>3279407.9724539556</v>
+        <v>3279407.8773190342</v>
       </c>
       <c r="I20" s="15">
-        <v>3476310.5183002278</v>
+        <v>3476310.4071172546</v>
       </c>
       <c r="J20" s="15">
-        <v>3279407.9724539556</v>
+        <v>3279407.8773190342</v>
       </c>
       <c r="K20" s="15">
-        <v>-196902.54584627226</v>
+        <v>-196902.52979822038</v>
       </c>
       <c r="L20" s="14">
         <v>0</v>
@@ -10633,31 +10633,31 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="13">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D21" s="14">
-        <v>31.272103983435283</v>
+        <v>31.2721039929989</v>
       </c>
       <c r="E21" s="14">
-        <v>287547.36912023439</v>
+        <v>287547.36968948861</v>
       </c>
       <c r="F21" s="15">
-        <v>397714.20899415982</v>
+        <v>397714.20978151012</v>
       </c>
       <c r="G21" s="15">
-        <v>4952447.323080265</v>
+        <v>4952447.1917357855</v>
       </c>
       <c r="H21" s="15">
-        <v>3580619.3649953026</v>
+        <v>3580619.270033245</v>
       </c>
       <c r="I21" s="15">
-        <v>3763857.8874204624</v>
+        <v>3763857.7768067433</v>
       </c>
       <c r="J21" s="15">
-        <v>3580619.3649953026</v>
+        <v>3580619.270033245</v>
       </c>
       <c r="K21" s="15">
-        <v>-183238.52242515981</v>
+        <v>-183238.50677349837</v>
       </c>
       <c r="L21" s="14">
         <v>0</v>
@@ -10674,28 +10674,28 @@
         <v>24.899999618530273</v>
       </c>
       <c r="D22" s="14">
-        <v>31.009964160696924</v>
+        <v>31.009964169913562</v>
       </c>
       <c r="E22" s="14">
-        <v>147460.08349080823</v>
+        <v>147460.08393568356</v>
       </c>
       <c r="F22" s="15">
-        <v>186894.91535372063</v>
+        <v>186894.91591756771</v>
       </c>
       <c r="G22" s="15">
-        <v>5139342.238433986</v>
+        <v>5139342.1076533534</v>
       </c>
       <c r="H22" s="15">
-        <v>4054940.8962410595</v>
+        <v>4054940.7930551437</v>
       </c>
       <c r="I22" s="15">
-        <v>3911317.9709112705</v>
+        <v>3911317.8607424269</v>
       </c>
       <c r="J22" s="15">
-        <v>4054940.8962410595</v>
+        <v>4054940.7930551437</v>
       </c>
       <c r="K22" s="15">
-        <v>143622.92532978905</v>
+        <v>143622.93231271673</v>
       </c>
       <c r="L22" s="14">
         <v>0</v>
@@ -10709,31 +10709,31 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="C23" s="13">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D23" s="14">
-        <v>30.728425585070163</v>
+        <v>30.72842559388133</v>
       </c>
       <c r="E23" s="14">
-        <v>179887.95363883613</v>
+        <v>179887.95398935772</v>
       </c>
       <c r="F23" s="15">
-        <v>235764.02482402488</v>
+        <v>235764.02528342407</v>
       </c>
       <c r="G23" s="15">
-        <v>5375106.2632580111</v>
+        <v>5375106.1329367775</v>
       </c>
       <c r="H23" s="15">
-        <v>4101206.1403790722</v>
+        <v>4101206.040943969</v>
       </c>
       <c r="I23" s="15">
-        <v>4091205.9245501067</v>
+        <v>4091205.8147317846</v>
       </c>
       <c r="J23" s="15">
-        <v>4101206.1403790722</v>
+        <v>4101206.040943969</v>
       </c>
       <c r="K23" s="15">
-        <v>10000.215828965418</v>
+        <v>10000.226212184411</v>
       </c>
       <c r="L23" s="14">
         <v>0</v>
@@ -10747,31 +10747,31 @@
         <v>0.77100002765655518</v>
       </c>
       <c r="C24" s="13">
-        <v>24.159999849999998</v>
+        <v>24.159999847412109</v>
       </c>
       <c r="D24" s="14">
-        <v>30.393087180738309</v>
+        <v>30.393087189136843</v>
       </c>
       <c r="E24" s="14">
-        <v>153462.94180681123</v>
+        <v>153462.94234779794</v>
       </c>
       <c r="F24" s="15">
-        <v>199044.01595582286</v>
+        <v>199044.01665749171</v>
       </c>
       <c r="G24" s="15">
-        <v>5574150.2792138336</v>
+        <v>5574150.1495942697</v>
       </c>
       <c r="H24" s="15">
-        <v>4297670.0194356609</v>
+        <v>4297669.9194989735</v>
       </c>
       <c r="I24" s="15">
-        <v>4244668.8663569177</v>
+        <v>4244668.7570795827</v>
       </c>
       <c r="J24" s="15">
-        <v>4297670.0194356609</v>
+        <v>4297669.9194989735</v>
       </c>
       <c r="K24" s="15">
-        <v>53001.153078743257</v>
+        <v>53001.162419390865</v>
       </c>
       <c r="L24" s="14">
         <v>0</v>
@@ -10785,31 +10785,31 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="13">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D25" s="14">
-        <v>30.154382097569265</v>
+        <v>30.1543821056874</v>
       </c>
       <c r="E25" s="14">
-        <v>170728.87901612459</v>
+        <v>170728.87924527752</v>
       </c>
       <c r="F25" s="15">
-        <v>227335.39539677446</v>
+        <v>227335.39570190487</v>
       </c>
       <c r="G25" s="15">
-        <v>5801485.6746106083</v>
+        <v>5801485.5452961745</v>
       </c>
       <c r="H25" s="15">
-        <v>4356915.6669407403</v>
+        <v>4356915.5698256027</v>
       </c>
       <c r="I25" s="15">
-        <v>4415397.7453730423</v>
+        <v>4415397.6363248602</v>
       </c>
       <c r="J25" s="15">
-        <v>4356915.6669407403</v>
+        <v>4356915.5698256027</v>
       </c>
       <c r="K25" s="15">
-        <v>-58482.078432301991</v>
+        <v>-58482.06649925746</v>
       </c>
       <c r="L25" s="14">
         <v>0</v>
@@ -10823,31 +10823,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="13">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D26" s="14">
-        <v>29.834329246495866</v>
+        <v>29.834329254302094</v>
       </c>
       <c r="E26" s="14">
-        <v>285678.28830931569</v>
+        <v>285678.28858478251</v>
       </c>
       <c r="F26" s="15">
-        <v>396775.38466316788</v>
+        <v>396775.38504576066</v>
       </c>
       <c r="G26" s="15">
-        <v>6198261.0592737757</v>
+        <v>6198260.9303419348</v>
       </c>
       <c r="H26" s="15">
-        <v>4462748.14001079</v>
+        <v>4462748.047179861</v>
       </c>
       <c r="I26" s="15">
-        <v>4701076.0336823575</v>
+        <v>4701075.9249096429</v>
       </c>
       <c r="J26" s="15">
-        <v>4462748.14001079</v>
+        <v>4462748.047179861</v>
       </c>
       <c r="K26" s="15">
-        <v>-238327.89367156755</v>
+        <v>-238327.8777297819</v>
       </c>
       <c r="L26" s="14">
         <v>0</v>
@@ -10861,31 +10861,31 @@
         <v>0.75499999523162842</v>
       </c>
       <c r="C27" s="13">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D27" s="14">
-        <v>29.540486543586262</v>
+        <v>29.540486551111261</v>
       </c>
       <c r="E27" s="14">
-        <v>212836.78957917634</v>
+        <v>212836.78984509152</v>
       </c>
       <c r="F27" s="15">
-        <v>281903.03433562221</v>
+        <v>281903.03468782775</v>
       </c>
       <c r="G27" s="15">
-        <v>6480164.0936093982</v>
+        <v>6480163.9650297621</v>
       </c>
       <c r="H27" s="15">
-        <v>4892523.8597752657</v>
+        <v>4892523.7626976408</v>
       </c>
       <c r="I27" s="15">
-        <v>4913912.8232615339</v>
+        <v>4913912.7147547342</v>
       </c>
       <c r="J27" s="15">
-        <v>4892523.8597752657</v>
+        <v>4892523.7626976408</v>
       </c>
       <c r="K27" s="15">
-        <v>-21388.963486268185</v>
+        <v>-21388.952057093382</v>
       </c>
       <c r="L27" s="14">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>0.76099997758865356</v>
       </c>
       <c r="C28" s="13">
-        <v>22.409999849999998</v>
+        <v>22.409999847412109</v>
       </c>
       <c r="D28" s="14">
-        <v>29.263021620154856</v>
+        <v>29.26302162741802</v>
       </c>
       <c r="E28" s="14">
-        <v>185507.43415975483</v>
+        <v>185507.43469307973</v>
       </c>
       <c r="F28" s="15">
-        <v>243767.98899201537</v>
+        <v>243767.98969283653</v>
       </c>
       <c r="G28" s="15">
-        <v>6723932.0826014131</v>
+        <v>6723931.9547225982</v>
       </c>
       <c r="H28" s="15">
-        <v>5116912.1641673045</v>
+        <v>5116912.0668515284</v>
       </c>
       <c r="I28" s="15">
-        <v>5099420.2574212886</v>
+        <v>5099420.1494478136</v>
       </c>
       <c r="J28" s="15">
-        <v>5116912.1641673045</v>
+        <v>5116912.0668515284</v>
       </c>
       <c r="K28" s="15">
-        <v>17491.906746015884</v>
+        <v>17491.917403714731</v>
       </c>
       <c r="L28" s="14">
         <v>0</v>
@@ -10937,31 +10937,31 @@
         <v>0.71399998664855957</v>
       </c>
       <c r="C29" s="13">
-        <v>20.899999619999999</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="D29" s="14">
-        <v>28.951898109092557</v>
+        <v>28.951898116056832</v>
       </c>
       <c r="E29" s="14">
-        <v>256090.62365067154</v>
+        <v>256090.62418715825</v>
       </c>
       <c r="F29" s="15">
-        <v>358670.347954394</v>
+        <v>358670.34870577598</v>
       </c>
       <c r="G29" s="15">
-        <v>7082602.4305558074</v>
+        <v>7082602.3034283742</v>
       </c>
       <c r="H29" s="15">
-        <v>5056978.0408539018</v>
+        <v>5056977.9500849163</v>
       </c>
       <c r="I29" s="15">
-        <v>5355510.8810719606</v>
+        <v>5355510.7736349721</v>
       </c>
       <c r="J29" s="15">
-        <v>5056978.0408539018</v>
+        <v>5056977.9500849163</v>
       </c>
       <c r="K29" s="15">
-        <v>-298532.84021805879</v>
+        <v>-298532.82355005573</v>
       </c>
       <c r="L29" s="14">
         <v>0</v>
@@ -10978,28 +10978,28 @@
         <v>19.25</v>
       </c>
       <c r="D30" s="14">
-        <v>28.642033266404177</v>
+        <v>28.642033273139454</v>
       </c>
       <c r="E30" s="14">
-        <v>348430.64106510871</v>
+        <v>348430.6415648465</v>
       </c>
       <c r="F30" s="15">
-        <v>508657.86839762604</v>
+        <v>508657.8691271703</v>
       </c>
       <c r="G30" s="15">
-        <v>7591260.2989534335</v>
+        <v>7591260.1725555444</v>
       </c>
       <c r="H30" s="15">
-        <v>5200013.3228820767</v>
+        <v>5200013.2362995222</v>
       </c>
       <c r="I30" s="15">
-        <v>5703941.5221370691</v>
+        <v>5703941.4151998181</v>
       </c>
       <c r="J30" s="15">
-        <v>5200013.3228820767</v>
+        <v>5200013.2362995222</v>
       </c>
       <c r="K30" s="15">
-        <v>-503928.19925499242</v>
+        <v>-503928.17890029587</v>
       </c>
       <c r="L30" s="14">
         <v>0</v>
@@ -11013,31 +11013,31 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="13">
-        <v>18.770000459999999</v>
+        <v>18.770000457763672</v>
       </c>
       <c r="D31" s="14">
-        <v>28.372122106405978</v>
+        <v>28.372122112939287</v>
       </c>
       <c r="E31" s="14">
-        <v>364192.92344389425</v>
+        <v>364192.9241091304</v>
       </c>
       <c r="F31" s="15">
-        <v>549310.60370153643</v>
+        <v>549310.60470490914</v>
       </c>
       <c r="G31" s="15">
-        <v>8140570.9026549701</v>
+        <v>8140570.7772604534</v>
       </c>
       <c r="H31" s="15">
-        <v>5397198.4075353509</v>
+        <v>5397198.3243987877</v>
       </c>
       <c r="I31" s="15">
-        <v>6068134.445580963</v>
+        <v>6068134.3393089483</v>
       </c>
       <c r="J31" s="15">
-        <v>5397198.4075353509</v>
+        <v>5397198.3243987877</v>
       </c>
       <c r="K31" s="15">
-        <v>-670936.03804561216</v>
+        <v>-670936.01491016056</v>
       </c>
       <c r="L31" s="14">
         <v>0</v>
@@ -11051,31 +11051,31 @@
         <v>0.65100002288818359</v>
       </c>
       <c r="C32" s="13">
-        <v>17.93000031</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="D32" s="14">
-        <v>28.031817636002071</v>
+        <v>28.031817642334733</v>
       </c>
       <c r="E32" s="14">
-        <v>403084.51748726668</v>
+        <v>403084.51837763441</v>
       </c>
       <c r="F32" s="15">
-        <v>619177.42444764997</v>
+        <v>619177.42581534223</v>
       </c>
       <c r="G32" s="15">
-        <v>8759748.3271026202</v>
+        <v>8759748.2030757964</v>
       </c>
       <c r="H32" s="15">
-        <v>5702596.3614385333</v>
+        <v>5702596.2806970682</v>
       </c>
       <c r="I32" s="15">
-        <v>6471218.9630682301</v>
+        <v>6471218.857686583</v>
       </c>
       <c r="J32" s="15">
-        <v>5702596.3614385333</v>
+        <v>5702596.2806970682</v>
       </c>
       <c r="K32" s="15">
-        <v>-768622.60162969679</v>
+        <v>-768622.57698951475</v>
       </c>
       <c r="L32" s="14">
         <v>0</v>
@@ -11089,31 +11089,31 @@
         <v>0.64499998092651367</v>
       </c>
       <c r="C33" s="13">
-        <v>17.709999079999999</v>
+        <v>17.709999084472656</v>
       </c>
       <c r="D33" s="14">
-        <v>27.695688446862572</v>
+        <v>27.695688453026897</v>
       </c>
       <c r="E33" s="14">
-        <v>393870.26891931542</v>
+        <v>393870.26905276586</v>
       </c>
       <c r="F33" s="15">
-        <v>610651.59777762846</v>
+        <v>610651.59798452829</v>
       </c>
       <c r="G33" s="15">
-        <v>9370399.9248802494</v>
+        <v>9370399.8010603245</v>
       </c>
       <c r="H33" s="15">
-        <v>6043907.7728215661</v>
+        <v>6043907.692957717</v>
       </c>
       <c r="I33" s="15">
-        <v>6865089.2319875453</v>
+        <v>6865089.1267393492</v>
       </c>
       <c r="J33" s="15">
-        <v>6043907.7728215661</v>
+        <v>6043907.692957717</v>
       </c>
       <c r="K33" s="15">
-        <v>-821181.45916597918</v>
+        <v>-821181.43378163222</v>
       </c>
       <c r="L33" s="14">
         <v>0</v>
@@ -11127,31 +11127,31 @@
         <v>0.56099998950958252</v>
       </c>
       <c r="C34" s="13">
-        <v>15.380000109999999</v>
+        <v>15.380000114440918</v>
       </c>
       <c r="D34" s="14">
-        <v>27.336624370286405</v>
+        <v>27.336624376243282</v>
       </c>
       <c r="E34" s="14">
-        <v>564695.41162159434</v>
+        <v>564695.41176478763</v>
       </c>
       <c r="F34" s="15">
-        <v>1006587.2053139294</v>
+        <v>1006587.2055691759</v>
       </c>
       <c r="G34" s="15">
-        <v>10376987.13019418</v>
+        <v>10376987.006629501</v>
       </c>
       <c r="H34" s="15">
-        <v>5821489.671180008</v>
+        <v>5821489.6018602243</v>
       </c>
       <c r="I34" s="15">
-        <v>7429784.6436091401</v>
+        <v>7429784.5385041367</v>
       </c>
       <c r="J34" s="15">
-        <v>5821489.671180008</v>
+        <v>5821489.6018602243</v>
       </c>
       <c r="K34" s="15">
-        <v>-1608294.9724291321</v>
+        <v>-1608294.9366439125</v>
       </c>
       <c r="L34" s="14">
         <v>0</v>
@@ -11165,31 +11165,31 @@
         <v>0.6380000114440918</v>
       </c>
       <c r="C35" s="13">
-        <v>17.479999540000001</v>
+        <v>17.479999542236328</v>
       </c>
       <c r="D35" s="14">
-        <v>27.106454812893954</v>
+        <v>27.106454818762419</v>
       </c>
       <c r="E35" s="14">
-        <v>366041.13242805976</v>
+        <v>366041.1327042802</v>
       </c>
       <c r="F35" s="15">
-        <v>573732.17219783086</v>
+        <v>573732.17263077828</v>
       </c>
       <c r="G35" s="15">
-        <v>10950719.30239201</v>
+        <v>10950719.179260278</v>
       </c>
       <c r="H35" s="15">
-        <v>6986559.0402471395</v>
+        <v>6986558.9616890932</v>
       </c>
       <c r="I35" s="15">
-        <v>7795825.7760371994</v>
+        <v>7795825.671208417</v>
       </c>
       <c r="J35" s="15">
-        <v>6986559.0402471395</v>
+        <v>6986558.9616890932</v>
       </c>
       <c r="K35" s="15">
-        <v>-809266.7357900599</v>
+        <v>-809266.70951932389</v>
       </c>
       <c r="L35" s="14">
         <v>0</v>
@@ -11203,31 +11203,31 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="13">
-        <v>17.659999849999998</v>
+        <v>17.700000762939453</v>
       </c>
       <c r="D36" s="14">
-        <v>26.839619570961851</v>
+        <v>26.839674750359887</v>
       </c>
       <c r="E36" s="14">
-        <v>332848.40197481349</v>
+        <v>329957.88035550242</v>
       </c>
       <c r="F36" s="15">
-        <v>515245.18223669764</v>
+        <v>510770.69075749943</v>
       </c>
       <c r="G36" s="15">
-        <v>11465964.484628707</v>
+        <v>11461489.870017778</v>
       </c>
       <c r="H36" s="15">
-        <v>7407013.3741792245</v>
+        <v>7404122.7730168113</v>
       </c>
       <c r="I36" s="15">
-        <v>8128674.1780120125</v>
+        <v>8125783.5515639195</v>
       </c>
       <c r="J36" s="15">
-        <v>7407013.3741792245</v>
+        <v>7404122.7730168113</v>
       </c>
       <c r="K36" s="15">
-        <v>-721660.80383278802</v>
+        <v>-721660.77854710817</v>
       </c>
       <c r="L36" s="14">
         <v>0</v>
@@ -11241,31 +11241,31 @@
         <v>0.66399997472763062</v>
       </c>
       <c r="C37" s="13">
-        <v>18.11000061</v>
+        <v>18.110000610351563</v>
       </c>
       <c r="D37" s="14">
-        <v>26.594314351352136</v>
+        <v>26.594314356937268</v>
       </c>
       <c r="E37" s="14">
-        <v>284335.13966370182</v>
+        <v>284335.14001448749</v>
       </c>
       <c r="F37" s="15">
-        <v>428215.58808091015</v>
+        <v>428215.58860920183</v>
       </c>
       <c r="G37" s="15">
-        <v>11894180.072709618</v>
+        <v>11889705.45862698</v>
       </c>
       <c r="H37" s="15">
-        <v>7897735.2676850744</v>
+        <v>7894764.1240472868</v>
       </c>
       <c r="I37" s="15">
-        <v>8413009.3176757134</v>
+        <v>8410118.6915784068</v>
       </c>
       <c r="J37" s="15">
-        <v>7897735.2676850744</v>
+        <v>7894764.1240472868</v>
       </c>
       <c r="K37" s="15">
-        <v>-515274.04999063909</v>
+        <v>-515354.56753112003</v>
       </c>
       <c r="L37" s="14">
         <v>0</v>
@@ -11556,25 +11556,25 @@
         <v>44561</v>
       </c>
       <c r="W4" s="18">
-        <v>245217.81577195294</v>
+        <v>245217.76659387304</v>
       </c>
       <c r="X4" s="8">
-        <v>245217.81577195294</v>
+        <v>245217.76659387304</v>
       </c>
       <c r="Y4" s="8">
-        <v>247884.08816460447</v>
+        <v>247884.03935187534</v>
       </c>
       <c r="Z4" s="8">
-        <v>2666.2723926515318</v>
+        <v>2666.2727580023056</v>
       </c>
       <c r="AA4" s="8">
         <v>0</v>
       </c>
       <c r="AB4" s="19">
-        <v>1.0873077815565837E-2</v>
+        <v>1.0873081486049733E-2</v>
       </c>
       <c r="AC4" s="19">
-        <v>1.0873077815565837E-2</v>
+        <v>1.0873081486049733E-2</v>
       </c>
       <c r="AE4" s="24">
         <v>44925</v>
@@ -11647,22 +11647,22 @@
         <v>44925</v>
       </c>
       <c r="W5" s="18">
-        <v>3677015.8232757808</v>
+        <v>3677015.7524936297</v>
       </c>
       <c r="X5" s="8">
-        <v>3922233.6390477335</v>
+        <v>3922233.5190875027</v>
       </c>
       <c r="Y5" s="8">
-        <v>3746212.8109874739</v>
+        <v>3746212.7063183677</v>
       </c>
       <c r="Z5" s="8">
-        <v>-176020.82806025958</v>
+        <v>-176020.81276913499</v>
       </c>
       <c r="AA5" s="8">
         <v>0</v>
       </c>
       <c r="AB5" s="19">
-        <v>-4.4877700886527275E-2</v>
+        <v>-4.4877698360521322E-2</v>
       </c>
       <c r="AC5" s="19">
         <v>-4.2342539246702948E-2</v>
@@ -11749,31 +11749,31 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="13">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D7" s="14">
-        <v>39.253623134275358</v>
+        <v>39.253623134226025</v>
       </c>
       <c r="E7" s="14">
-        <v>34459.381729895649</v>
+        <v>34459.3817973326</v>
       </c>
       <c r="F7" s="15">
-        <v>34702.298831101441</v>
+        <v>34702.298899013775</v>
       </c>
       <c r="G7" s="15">
-        <v>157165.31846056989</v>
+        <v>157165.31852848222</v>
       </c>
       <c r="H7" s="15">
-        <v>156065.15665986782</v>
+        <v>156065.15672730474</v>
       </c>
       <c r="I7" s="15">
-        <v>152459.79800511256</v>
+        <v>152459.79807254951</v>
       </c>
       <c r="J7" s="15">
-        <v>156065.15665986782</v>
+        <v>156065.15672730474</v>
       </c>
       <c r="K7" s="15">
-        <v>3605.358654755255</v>
+        <v>3605.3586547552259</v>
       </c>
       <c r="L7" s="14">
         <v>0</v>
@@ -11804,31 +11804,31 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="13">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D8" s="14">
-        <v>38.695499988749994</v>
+        <v>38.695499993324269</v>
       </c>
       <c r="E8" s="14">
-        <v>41606.417199055955</v>
+        <v>41606.397754992307</v>
       </c>
       <c r="F8" s="15">
-        <v>41153.724696748955</v>
+        <v>41153.705464243583</v>
       </c>
       <c r="G8" s="15">
-        <v>198319.04315731884</v>
+        <v>198319.02399272582</v>
       </c>
       <c r="H8" s="15">
-        <v>200500.56000818868</v>
+        <v>200500.54063278442</v>
       </c>
       <c r="I8" s="15">
-        <v>194066.21520416852</v>
+        <v>194066.19582754181</v>
       </c>
       <c r="J8" s="15">
-        <v>200500.56000818868</v>
+        <v>200500.54063278442</v>
       </c>
       <c r="K8" s="15">
-        <v>6434.344804020162</v>
+        <v>6434.3448052426102</v>
       </c>
       <c r="L8" s="14">
         <v>0</v>
@@ -11855,31 +11855,31 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="13">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D9" s="14">
-        <v>38.228579205136612</v>
+        <v>38.2285792249669</v>
       </c>
       <c r="E9" s="14">
-        <v>51151.60056778443</v>
+        <v>51151.570766331228</v>
       </c>
       <c r="F9" s="15">
-        <v>51564.11431831224</v>
+        <v>51564.084276524249</v>
       </c>
       <c r="G9" s="15">
-        <v>249883.15747563107</v>
+        <v>249883.10826925008</v>
       </c>
       <c r="H9" s="15">
-        <v>247884.08816460447</v>
+        <v>247884.03935187534</v>
       </c>
       <c r="I9" s="15">
-        <v>245217.81577195294</v>
+        <v>245217.76659387304</v>
       </c>
       <c r="J9" s="15">
-        <v>247884.08816460447</v>
+        <v>247884.03935187534</v>
       </c>
       <c r="K9" s="15">
-        <v>2666.2723926515318</v>
+        <v>2666.2727580023056</v>
       </c>
       <c r="L9" s="14">
         <v>0</v>
@@ -11909,31 +11909,31 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="13">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D10" s="14">
-        <v>37.709801928118821</v>
+        <v>37.709801948471814</v>
       </c>
       <c r="E10" s="14">
-        <v>176776.12685797611</v>
+        <v>176776.10374106947</v>
       </c>
       <c r="F10" s="15">
-        <v>198401.94416440517</v>
+        <v>198401.91821950354</v>
       </c>
       <c r="G10" s="15">
-        <v>448285.10164003621</v>
+        <v>448285.02648875362</v>
       </c>
       <c r="H10" s="15">
-        <v>399422.0133770096</v>
+        <v>399421.94641721889</v>
       </c>
       <c r="I10" s="15">
-        <v>421993.94262992905</v>
+        <v>421993.87033494248</v>
       </c>
       <c r="J10" s="15">
-        <v>399422.0133770096</v>
+        <v>399421.94641721889</v>
       </c>
       <c r="K10" s="15">
-        <v>-22571.92925291945</v>
+        <v>-22571.923917723587</v>
       </c>
       <c r="L10" s="14">
         <v>0</v>
@@ -11963,31 +11963,31 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="13">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D11" s="14">
-        <v>37.189128385091756</v>
+        <v>37.189128403969853</v>
       </c>
       <c r="E11" s="14">
-        <v>152776.38748797405</v>
+        <v>152776.38825066606</v>
       </c>
       <c r="F11" s="15">
-        <v>173215.85311749773</v>
+        <v>173215.85398222785</v>
       </c>
       <c r="G11" s="15">
-        <v>621500.95475753397</v>
+        <v>621500.88047098147</v>
       </c>
       <c r="H11" s="15">
-        <v>548163.86017378466</v>
+        <v>548163.79465304315</v>
       </c>
       <c r="I11" s="15">
-        <v>574770.33011790307</v>
+        <v>574770.25858560856</v>
       </c>
       <c r="J11" s="15">
-        <v>548163.86017378466</v>
+        <v>548163.79465304315</v>
       </c>
       <c r="K11" s="15">
-        <v>-26606.469944118406</v>
+        <v>-26606.463932565413</v>
       </c>
       <c r="L11" s="14">
         <v>0</v>
@@ -12017,31 +12017,31 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="13">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D12" s="14">
-        <v>36.340041456763494</v>
+        <v>36.340041473831867</v>
       </c>
       <c r="E12" s="14">
-        <v>298978.39125564491</v>
+        <v>298978.39245292288</v>
       </c>
       <c r="F12" s="15">
-        <v>377497.97080263944</v>
+        <v>377497.97231435409</v>
       </c>
       <c r="G12" s="15">
-        <v>998998.92556017335</v>
+        <v>998998.85278533562</v>
       </c>
       <c r="H12" s="15">
-        <v>791207.144756419</v>
+        <v>791207.08711874788</v>
       </c>
       <c r="I12" s="15">
-        <v>873748.72137354803</v>
+        <v>873748.65103853145</v>
       </c>
       <c r="J12" s="15">
-        <v>791207.144756419</v>
+        <v>791207.08711874788</v>
       </c>
       <c r="K12" s="15">
-        <v>-82541.576617129031</v>
+        <v>-82541.56391978357</v>
       </c>
       <c r="L12" s="14">
         <v>0</v>
@@ -12069,31 +12069,31 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="13">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D13" s="14">
-        <v>35.566115356769217</v>
+        <v>35.566115372584406</v>
       </c>
       <c r="E13" s="14">
-        <v>430204.45902625163</v>
+        <v>430204.46026693727</v>
       </c>
       <c r="F13" s="15">
-        <v>598337.23208346288</v>
+        <v>598337.23380903399</v>
       </c>
       <c r="G13" s="15">
-        <v>1597336.1576436362</v>
+        <v>1597336.0865943697</v>
       </c>
       <c r="H13" s="15">
-        <v>1148484.6684023435</v>
+        <v>1148484.6173179222</v>
       </c>
       <c r="I13" s="15">
-        <v>1303953.1803997997</v>
+        <v>1303953.1113054687</v>
       </c>
       <c r="J13" s="15">
-        <v>1148484.6684023435</v>
+        <v>1148484.6173179222</v>
       </c>
       <c r="K13" s="15">
-        <v>-155468.5119974562</v>
+        <v>-155468.49398754654</v>
       </c>
       <c r="L13" s="14">
         <v>0</v>
@@ -12121,31 +12121,31 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="13">
-        <v>24.129999160000001</v>
+        <v>24.129999160766602</v>
       </c>
       <c r="D14" s="14">
-        <v>34.740071647956981</v>
+        <v>34.740071662711408</v>
       </c>
       <c r="E14" s="14">
-        <v>444665.87088882137</v>
+        <v>444665.872061275</v>
       </c>
       <c r="F14" s="15">
-        <v>595268.92018481973</v>
+        <v>595268.92175436951</v>
       </c>
       <c r="G14" s="15">
-        <v>2192605.0778284557</v>
+        <v>2192605.0083487392</v>
       </c>
       <c r="H14" s="15">
-        <v>1637875.9471351712</v>
+        <v>1637875.8952338244</v>
       </c>
       <c r="I14" s="15">
-        <v>1748619.051288621</v>
+        <v>1748618.9833667437</v>
       </c>
       <c r="J14" s="15">
-        <v>1637875.9471351712</v>
+        <v>1637875.8952338244</v>
       </c>
       <c r="K14" s="15">
-        <v>-110743.10415344988</v>
+        <v>-110743.08813291928</v>
       </c>
       <c r="L14" s="14">
         <v>0</v>
@@ -12172,31 +12172,31 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="13">
-        <v>27.809999470000001</v>
+        <v>27.809999465942383</v>
       </c>
       <c r="D15" s="14">
-        <v>34.118899961366665</v>
+        <v>34.118899975077305</v>
       </c>
       <c r="E15" s="14">
-        <v>157218.79036936784</v>
+        <v>157218.79125494338</v>
       </c>
       <c r="F15" s="15">
-        <v>186057.73378250105</v>
+        <v>186057.73483051939</v>
       </c>
       <c r="G15" s="15">
-        <v>2378662.8116109567</v>
+        <v>2378662.7431792584</v>
       </c>
       <c r="H15" s="15">
-        <v>2009970.1438653474</v>
+        <v>2009970.0860405604</v>
       </c>
       <c r="I15" s="15">
-        <v>1905837.841657989</v>
+        <v>1905837.7746216871</v>
       </c>
       <c r="J15" s="15">
-        <v>2009970.1438653474</v>
+        <v>2009970.0860405604</v>
       </c>
       <c r="K15" s="15">
-        <v>104132.30220735841</v>
+        <v>104132.31141887326</v>
       </c>
       <c r="L15" s="14">
         <v>0</v>
@@ -12223,31 +12223,31 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="13">
-        <v>26.329999919999999</v>
+        <v>26.329999923706055</v>
       </c>
       <c r="D16" s="14">
-        <v>33.665700887975071</v>
+        <v>33.665700900829464</v>
       </c>
       <c r="E16" s="14">
-        <v>212559.40933162411</v>
+        <v>212559.40986178888</v>
       </c>
       <c r="F16" s="15">
-        <v>265367.55254019768</v>
+        <v>265367.55320207629</v>
       </c>
       <c r="G16" s="15">
-        <v>2644030.3641511542</v>
+        <v>2644030.2963813348</v>
       </c>
       <c r="H16" s="15">
-        <v>2117868.3191635306</v>
+        <v>2117868.2648799052</v>
       </c>
       <c r="I16" s="15">
-        <v>2118397.2509896131</v>
+        <v>2118397.184483476</v>
       </c>
       <c r="J16" s="15">
-        <v>2117868.3191635306</v>
+        <v>2117868.2648799052</v>
       </c>
       <c r="K16" s="15">
-        <v>-528.93182608252391</v>
+        <v>-528.91960357083008</v>
       </c>
       <c r="L16" s="14">
         <v>0</v>
@@ -12288,31 +12288,31 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="13">
-        <v>25.18000031</v>
+        <v>25.180000305175781</v>
       </c>
       <c r="D17" s="14">
-        <v>33.177209264156971</v>
+        <v>33.177209276154976</v>
       </c>
       <c r="E17" s="14">
-        <v>252623.6366729713</v>
+        <v>252623.63773576493</v>
       </c>
       <c r="F17" s="15">
-        <v>330226.98221817799</v>
+        <v>330226.98360745073</v>
       </c>
       <c r="G17" s="15">
-        <v>2974257.3463693322</v>
+        <v>2974257.2799887853</v>
       </c>
       <c r="H17" s="15">
-        <v>2275306.8274254464</v>
+        <v>2275306.7766443291</v>
       </c>
       <c r="I17" s="15">
-        <v>2371020.8876625844</v>
+        <v>2371020.8222192409</v>
       </c>
       <c r="J17" s="15">
-        <v>2275306.8274254464</v>
+        <v>2275306.7766443291</v>
       </c>
       <c r="K17" s="15">
-        <v>-95714.060237138066</v>
+        <v>-95714.04557491187</v>
       </c>
       <c r="L17" s="14">
         <v>0</v>
@@ -12353,31 +12353,31 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="13">
-        <v>22.61</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D18" s="14">
-        <v>32.639682710465742</v>
+        <v>32.639682721540886</v>
       </c>
       <c r="E18" s="14">
-        <v>476818.09719219716</v>
+        <v>476818.04021216277</v>
       </c>
       <c r="F18" s="15">
-        <v>685083.49269033666</v>
+        <v>685083.41082246881</v>
       </c>
       <c r="G18" s="15">
-        <v>3659340.8390596686</v>
+        <v>3659340.6908112541</v>
       </c>
       <c r="H18" s="15">
-        <v>2546901.1506993226</v>
+        <v>2546901.0475184289</v>
       </c>
       <c r="I18" s="15">
-        <v>2847838.9848547815</v>
+        <v>2847838.8624314037</v>
       </c>
       <c r="J18" s="15">
-        <v>2546901.1506993226</v>
+        <v>2546901.0475184289</v>
       </c>
       <c r="K18" s="15">
-        <v>-300937.83415545896</v>
+        <v>-300937.81491297483</v>
       </c>
       <c r="L18" s="14">
         <v>0</v>
@@ -12418,31 +12418,31 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="13">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D19" s="14">
-        <v>32.234052986719142</v>
+        <v>32.234052997346801</v>
       </c>
       <c r="E19" s="14">
-        <v>473436.41257143137</v>
+        <v>473436.41347239545</v>
       </c>
       <c r="F19" s="15">
-        <v>689135.99515736278</v>
+        <v>689135.99646880978</v>
       </c>
       <c r="G19" s="15">
-        <v>4348476.8342170315</v>
+        <v>4348476.6872800635</v>
       </c>
       <c r="H19" s="15">
-        <v>2987403.483504849</v>
+        <v>2987403.3825591556</v>
       </c>
       <c r="I19" s="15">
-        <v>3321275.3974262131</v>
+        <v>3321275.2759037991</v>
       </c>
       <c r="J19" s="15">
-        <v>2987403.483504849</v>
+        <v>2987403.3825591556</v>
       </c>
       <c r="K19" s="15">
-        <v>-333871.91392136412</v>
+        <v>-333871.89334464353</v>
       </c>
       <c r="L19" s="14">
         <v>0</v>
@@ -12483,31 +12483,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="13">
-        <v>22.809999470000001</v>
+        <v>22.809999465942383</v>
       </c>
       <c r="D20" s="14">
-        <v>31.717553830421821</v>
+        <v>31.717553840474388</v>
       </c>
       <c r="E20" s="14">
-        <v>313410.87250128563</v>
+        <v>313410.87349421479</v>
       </c>
       <c r="F20" s="15">
-        <v>435292.86117702356</v>
+        <v>435292.8625560918</v>
       </c>
       <c r="G20" s="15">
-        <v>4783769.695394055</v>
+        <v>4783769.549836155</v>
       </c>
       <c r="H20" s="15">
-        <v>3444314.3175484682</v>
+        <v>3444314.2127467762</v>
       </c>
       <c r="I20" s="15">
-        <v>3634686.2699274989</v>
+        <v>3634686.1493980139</v>
       </c>
       <c r="J20" s="15">
-        <v>3444314.3175484682</v>
+        <v>3444314.2127467762</v>
       </c>
       <c r="K20" s="15">
-        <v>-190371.95237903064</v>
+        <v>-190371.93665123777</v>
       </c>
       <c r="L20" s="14">
         <v>0</v>
@@ -12548,31 +12548,31 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="13">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D21" s="14">
-        <v>31.272103983435283</v>
+        <v>31.2721039929989</v>
       </c>
       <c r="E21" s="14">
-        <v>287547.36912023439</v>
+        <v>287547.36968948861</v>
       </c>
       <c r="F21" s="15">
-        <v>397714.20899415982</v>
+        <v>397714.20978151012</v>
       </c>
       <c r="G21" s="15">
-        <v>5181483.9043882145</v>
+        <v>5181483.7596176649</v>
       </c>
       <c r="H21" s="15">
-        <v>3746212.8109874739</v>
+        <v>3746212.7063183677</v>
       </c>
       <c r="I21" s="15">
-        <v>3922233.6390477335</v>
+        <v>3922233.5190875027</v>
       </c>
       <c r="J21" s="15">
-        <v>3746212.8109874739</v>
+        <v>3746212.7063183677</v>
       </c>
       <c r="K21" s="15">
-        <v>-176020.82806025958</v>
+        <v>-176020.81276913499</v>
       </c>
       <c r="L21" s="14">
         <v>0</v>
@@ -12616,28 +12616,28 @@
         <v>24.899999618530273</v>
       </c>
       <c r="D22" s="14">
-        <v>31.009964160696924</v>
+        <v>31.009964169913562</v>
       </c>
       <c r="E22" s="14">
-        <v>147460.08349080823</v>
+        <v>147460.08393568356</v>
       </c>
       <c r="F22" s="15">
-        <v>186894.91535372063</v>
+        <v>186894.91591756771</v>
       </c>
       <c r="G22" s="15">
-        <v>5368378.8197419355</v>
+        <v>5368378.6755352328</v>
       </c>
       <c r="H22" s="15">
-        <v>4235650.7531047342</v>
+        <v>4235650.6393256495</v>
       </c>
       <c r="I22" s="15">
-        <v>4069693.7225385415</v>
+        <v>4069693.6030231863</v>
       </c>
       <c r="J22" s="15">
-        <v>4235650.7531047342</v>
+        <v>4235650.6393256495</v>
       </c>
       <c r="K22" s="15">
-        <v>165957.0305661927</v>
+        <v>165957.03630246315</v>
       </c>
       <c r="L22" s="14">
         <v>0</v>
@@ -12678,31 +12678,31 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="C23" s="13">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D23" s="14">
-        <v>30.728425585070163</v>
+        <v>30.72842559388133</v>
       </c>
       <c r="E23" s="14">
-        <v>179887.95363883613</v>
+        <v>179887.95398935772</v>
       </c>
       <c r="F23" s="15">
-        <v>235764.02482402488</v>
+        <v>235764.02528342407</v>
       </c>
       <c r="G23" s="15">
-        <v>5604142.8445659606</v>
+        <v>5604142.7008186569</v>
       </c>
       <c r="H23" s="15">
-        <v>4275961.0545381531</v>
+        <v>4275960.9448589589</v>
       </c>
       <c r="I23" s="15">
-        <v>4249581.6761773778</v>
+        <v>4249581.557012544</v>
       </c>
       <c r="J23" s="15">
-        <v>4275961.0545381531</v>
+        <v>4275960.9448589589</v>
       </c>
       <c r="K23" s="15">
-        <v>26379.378360775299</v>
+        <v>26379.387846414931</v>
       </c>
       <c r="L23" s="14">
         <v>0</v>
@@ -12743,31 +12743,31 @@
         <v>0.77100002765655518</v>
       </c>
       <c r="C24" s="13">
-        <v>24.159999849999998</v>
+        <v>24.159999847412109</v>
       </c>
       <c r="D24" s="14">
-        <v>30.393087180738309</v>
+        <v>30.393087189136843</v>
       </c>
       <c r="E24" s="14">
-        <v>153462.94180681123</v>
+        <v>153462.94234779794</v>
       </c>
       <c r="F24" s="15">
-        <v>199044.01595582286</v>
+        <v>199044.01665749171</v>
       </c>
       <c r="G24" s="15">
-        <v>5803186.8605217831</v>
+        <v>5803186.7174761491</v>
       </c>
       <c r="H24" s="15">
-        <v>4474257.2299584523</v>
+        <v>4474257.1196702644</v>
       </c>
       <c r="I24" s="15">
-        <v>4403044.6179841887</v>
+        <v>4403044.4993603416</v>
       </c>
       <c r="J24" s="15">
-        <v>4474257.2299584523</v>
+        <v>4474257.1196702644</v>
       </c>
       <c r="K24" s="15">
-        <v>71212.611974263564</v>
+        <v>71212.620309922844</v>
       </c>
       <c r="L24" s="14">
         <v>0</v>
@@ -12808,31 +12808,31 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="13">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D25" s="14">
-        <v>30.154382097569265</v>
+        <v>30.1543821056874</v>
       </c>
       <c r="E25" s="14">
-        <v>170728.87901612459</v>
+        <v>170728.87924527752</v>
       </c>
       <c r="F25" s="15">
-        <v>227335.39539677446</v>
+        <v>227335.39570190487</v>
       </c>
       <c r="G25" s="15">
-        <v>6030522.2559185578</v>
+        <v>6030522.1131780539</v>
       </c>
       <c r="H25" s="15">
-        <v>4528922.1365542552</v>
+        <v>4528922.0293561388</v>
       </c>
       <c r="I25" s="15">
-        <v>4573773.4970003134</v>
+        <v>4573773.3786056191</v>
       </c>
       <c r="J25" s="15">
-        <v>4528922.1365542552</v>
+        <v>4528922.0293561388</v>
       </c>
       <c r="K25" s="15">
-        <v>-44851.360446058214</v>
+        <v>-44851.349249480292</v>
       </c>
       <c r="L25" s="14">
         <v>0</v>
@@ -12873,31 +12873,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="13">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D26" s="14">
-        <v>29.834329246495866</v>
+        <v>29.834329254302094</v>
       </c>
       <c r="E26" s="14">
-        <v>285678.28830931569</v>
+        <v>285678.28858478251</v>
       </c>
       <c r="F26" s="15">
-        <v>396775.38466316788</v>
+        <v>396775.38504576066</v>
       </c>
       <c r="G26" s="15">
-        <v>6427297.6405817252</v>
+        <v>6427297.4982238142</v>
       </c>
       <c r="H26" s="15">
-        <v>4627654.4851053022</v>
+        <v>4627654.3826076025</v>
       </c>
       <c r="I26" s="15">
-        <v>4859451.7853096295</v>
+        <v>4859451.6671904018</v>
       </c>
       <c r="J26" s="15">
-        <v>4627654.4851053022</v>
+        <v>4627654.3826076025</v>
       </c>
       <c r="K26" s="15">
-        <v>-231797.30020432733</v>
+        <v>-231797.2845827993</v>
       </c>
       <c r="L26" s="14">
         <v>0</v>
@@ -12938,31 +12938,31 @@
         <v>0.75499999523162842</v>
       </c>
       <c r="C27" s="13">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D27" s="14">
-        <v>29.540486543586262</v>
+        <v>29.540486551111261</v>
       </c>
       <c r="E27" s="14">
-        <v>212836.78957917634</v>
+        <v>212836.78984509152</v>
       </c>
       <c r="F27" s="15">
-        <v>281903.03433562221</v>
+        <v>281903.03468782775</v>
       </c>
       <c r="G27" s="15">
-        <v>6709200.6749173477</v>
+        <v>6709200.5329116415</v>
       </c>
       <c r="H27" s="15">
-        <v>5065446.4775706353</v>
+        <v>5065446.3703563279</v>
       </c>
       <c r="I27" s="15">
-        <v>5072288.5748888059</v>
+        <v>5072288.4570354931</v>
       </c>
       <c r="J27" s="15">
-        <v>5065446.4775706353</v>
+        <v>5065446.3703563279</v>
       </c>
       <c r="K27" s="15">
-        <v>-6842.0973181705922</v>
+        <v>-6842.0866791652516</v>
       </c>
       <c r="L27" s="14">
         <v>0</v>
@@ -13003,31 +13003,31 @@
         <v>0.76099997758865356</v>
       </c>
       <c r="C28" s="13">
-        <v>22.409999849999998</v>
+        <v>22.409999847412109</v>
       </c>
       <c r="D28" s="14">
-        <v>29.263021620154856</v>
+        <v>29.26302162741802</v>
       </c>
       <c r="E28" s="14">
-        <v>185507.43415975483</v>
+        <v>185507.43469307973</v>
       </c>
       <c r="F28" s="15">
-        <v>243767.98899201537</v>
+        <v>243767.98969283653</v>
       </c>
       <c r="G28" s="15">
-        <v>6952968.6639093626</v>
+        <v>6952968.5226044785</v>
       </c>
       <c r="H28" s="15">
-        <v>5291208.9974096352</v>
+        <v>5291208.8898766218</v>
       </c>
       <c r="I28" s="15">
-        <v>5257796.0090485606</v>
+        <v>5257795.8917285725</v>
       </c>
       <c r="J28" s="15">
-        <v>5291208.9974096352</v>
+        <v>5291208.8898766218</v>
       </c>
       <c r="K28" s="15">
-        <v>33412.988361074589</v>
+        <v>33412.998148049228</v>
       </c>
       <c r="L28" s="14">
         <v>0</v>
@@ -13068,31 +13068,31 @@
         <v>0.71399998664855957</v>
       </c>
       <c r="C29" s="13">
-        <v>20.899999619999999</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="D29" s="14">
-        <v>28.951898109092557</v>
+        <v>28.951898116056832</v>
       </c>
       <c r="E29" s="14">
-        <v>256090.62365067154</v>
+        <v>256090.62418715825</v>
       </c>
       <c r="F29" s="15">
-        <v>358670.347954394</v>
+        <v>358670.34870577598</v>
       </c>
       <c r="G29" s="15">
-        <v>7311639.0118637569</v>
+        <v>7311638.8713102546</v>
       </c>
       <c r="H29" s="15">
-        <v>5220510.1568498099</v>
+        <v>5220510.0564946113</v>
       </c>
       <c r="I29" s="15">
-        <v>5513886.6326992325</v>
+        <v>5513886.515915731</v>
       </c>
       <c r="J29" s="15">
-        <v>5220510.1568498099</v>
+        <v>5220510.0564946113</v>
       </c>
       <c r="K29" s="15">
-        <v>-293376.47584942263</v>
+        <v>-293376.45942111965</v>
       </c>
       <c r="L29" s="14">
         <v>0</v>
@@ -13136,28 +13136,28 @@
         <v>19.25</v>
       </c>
       <c r="D30" s="14">
-        <v>28.642033266404177</v>
+        <v>28.642033273139454</v>
       </c>
       <c r="E30" s="14">
-        <v>418116.76927813044</v>
+        <v>418116.76987781579</v>
       </c>
       <c r="F30" s="15">
-        <v>610389.44207715127</v>
+        <v>610389.44295260427</v>
       </c>
       <c r="G30" s="15">
-        <v>7922028.4539409084</v>
+        <v>7922028.3142628586</v>
       </c>
       <c r="H30" s="15">
-        <v>5426589.5098371096</v>
+        <v>5426589.4141576458</v>
       </c>
       <c r="I30" s="15">
-        <v>5932003.401977363</v>
+        <v>5932003.2857935466</v>
       </c>
       <c r="J30" s="15">
-        <v>5426589.5098371096</v>
+        <v>5426589.4141576458</v>
       </c>
       <c r="K30" s="15">
-        <v>-505413.89214025345</v>
+        <v>-505413.87163590081</v>
       </c>
       <c r="L30" s="14">
         <v>0</v>
@@ -13198,31 +13198,31 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="13">
-        <v>18.770000459999999</v>
+        <v>18.770000457763672</v>
       </c>
       <c r="D31" s="14">
-        <v>28.372122106405978</v>
+        <v>28.372122112939287</v>
       </c>
       <c r="E31" s="14">
-        <v>437031.5081326731</v>
+        <v>437031.50893095648</v>
       </c>
       <c r="F31" s="15">
-        <v>659172.72444184369</v>
+        <v>659172.72564589104</v>
       </c>
       <c r="G31" s="15">
-        <v>8581201.1783827525</v>
+        <v>8581201.03990875</v>
       </c>
       <c r="H31" s="15">
-        <v>5689336.2748800395</v>
+        <v>5689336.1830717782</v>
       </c>
       <c r="I31" s="15">
-        <v>6369034.9101100359</v>
+        <v>6369034.7947245035</v>
       </c>
       <c r="J31" s="15">
-        <v>5689336.2748800395</v>
+        <v>5689336.1830717782</v>
       </c>
       <c r="K31" s="15">
-        <v>-679698.63522999641</v>
+        <v>-679698.61165272538</v>
       </c>
       <c r="L31" s="14">
         <v>0</v>
@@ -13263,31 +13263,31 @@
         <v>0.65100002288818359</v>
       </c>
       <c r="C32" s="13">
-        <v>17.93000031</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="D32" s="14">
-        <v>28.031817636002071</v>
+        <v>28.031817642334733</v>
       </c>
       <c r="E32" s="14">
-        <v>483701.42098472</v>
+        <v>483701.42205316125</v>
       </c>
       <c r="F32" s="15">
-        <v>743012.90933717985</v>
+        <v>743012.91097841063</v>
       </c>
       <c r="G32" s="15">
-        <v>9324214.0877199322</v>
+        <v>9324213.9508871604</v>
       </c>
       <c r="H32" s="15">
-        <v>6070063.58452</v>
+        <v>6070063.4954418624</v>
       </c>
       <c r="I32" s="15">
-        <v>6852736.3310947558</v>
+        <v>6852736.2167776646</v>
       </c>
       <c r="J32" s="15">
-        <v>6070063.58452</v>
+        <v>6070063.4954418624</v>
       </c>
       <c r="K32" s="15">
-        <v>-782672.74657475576</v>
+        <v>-782672.72133580223</v>
       </c>
       <c r="L32" s="14">
         <v>0</v>
@@ -13328,31 +13328,31 @@
         <v>0.64499998092651367</v>
       </c>
       <c r="C33" s="13">
-        <v>17.709999079999999</v>
+        <v>17.709999084472656</v>
       </c>
       <c r="D33" s="14">
-        <v>27.695688446862572</v>
+        <v>27.695688453026897</v>
       </c>
       <c r="E33" s="14">
-        <v>472644.32270317851</v>
+        <v>472644.32286331902</v>
       </c>
       <c r="F33" s="15">
-        <v>732781.91733315412</v>
+        <v>732781.91758143401</v>
       </c>
       <c r="G33" s="15">
-        <v>10056996.005053086</v>
+        <v>10056995.868468594</v>
       </c>
       <c r="H33" s="15">
-        <v>6486762.2314372649</v>
+        <v>6486762.14334027</v>
       </c>
       <c r="I33" s="15">
-        <v>7325380.6537979338</v>
+        <v>7325380.5396409836</v>
       </c>
       <c r="J33" s="15">
-        <v>6486762.2314372649</v>
+        <v>6486762.14334027</v>
       </c>
       <c r="K33" s="15">
-        <v>-838618.42236066889</v>
+        <v>-838618.39630071353</v>
       </c>
       <c r="L33" s="14">
         <v>0</v>
@@ -13393,31 +13393,31 @@
         <v>0.56099998950958252</v>
       </c>
       <c r="C34" s="13">
-        <v>15.380000109999999</v>
+        <v>15.380000114440918</v>
       </c>
       <c r="D34" s="14">
-        <v>27.336624370286405</v>
+        <v>27.336624376243282</v>
       </c>
       <c r="E34" s="14">
-        <v>677634.49394591316</v>
+        <v>677634.49411774508</v>
       </c>
       <c r="F34" s="15">
-        <v>1207904.646376715</v>
+        <v>1207904.646683011</v>
       </c>
       <c r="G34" s="15">
-        <v>11264900.651429802</v>
+        <v>11264900.515151605</v>
       </c>
       <c r="H34" s="15">
-        <v>6319609.1472786088</v>
+        <v>6319609.0708265407</v>
       </c>
       <c r="I34" s="15">
-        <v>8003015.1477438472</v>
+        <v>8003015.0337587288</v>
       </c>
       <c r="J34" s="15">
-        <v>6319609.1472786088</v>
+        <v>6319609.0708265407</v>
       </c>
       <c r="K34" s="15">
-        <v>-1683406.0004652385</v>
+        <v>-1683405.9629321881</v>
       </c>
       <c r="L34" s="14">
         <v>0</v>
@@ -13458,31 +13458,31 @@
         <v>0.6380000114440918</v>
       </c>
       <c r="C35" s="13">
-        <v>17.479999540000001</v>
+        <v>17.479999542236328</v>
       </c>
       <c r="D35" s="14">
-        <v>27.106454812893954</v>
+        <v>27.106454818762419</v>
       </c>
       <c r="E35" s="14">
-        <v>439249.35891367169</v>
+        <v>439249.35924513621</v>
       </c>
       <c r="F35" s="15">
-        <v>688478.60663739708</v>
+        <v>688478.60715693387</v>
       </c>
       <c r="G35" s="15">
-        <v>11953379.2580672</v>
+        <v>11953379.122308539</v>
       </c>
       <c r="H35" s="15">
-        <v>7626256.1034424435</v>
+        <v>7626256.0168284159</v>
       </c>
       <c r="I35" s="15">
-        <v>8442264.5066575184</v>
+        <v>8442264.3930038642</v>
       </c>
       <c r="J35" s="15">
-        <v>7626256.1034424435</v>
+        <v>7626256.0168284159</v>
       </c>
       <c r="K35" s="15">
-        <v>-816008.40321507491</v>
+        <v>-816008.3761754483</v>
       </c>
       <c r="L35" s="14">
         <v>0</v>
@@ -13523,31 +13523,31 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="13">
-        <v>17.659999849999998</v>
+        <v>17.700000762939453</v>
       </c>
       <c r="D36" s="14">
-        <v>26.839619570961851</v>
+        <v>26.839674750359887</v>
       </c>
       <c r="E36" s="14">
-        <v>332848.40197481349</v>
+        <v>329957.88035550242</v>
       </c>
       <c r="F36" s="15">
-        <v>515245.18223669764</v>
+        <v>510770.69075749943</v>
       </c>
       <c r="G36" s="15">
-        <v>12468624.440303897</v>
+        <v>12464149.813066039</v>
       </c>
       <c r="H36" s="15">
-        <v>8054731.7332755178</v>
+        <v>8051841.1239561085</v>
       </c>
       <c r="I36" s="15">
-        <v>8775112.9086323325</v>
+        <v>8772222.2733593658</v>
       </c>
       <c r="J36" s="15">
-        <v>8054731.7332755178</v>
+        <v>8051841.1239561085</v>
       </c>
       <c r="K36" s="15">
-        <v>-720381.17535681464</v>
+        <v>-720381.1494032573</v>
       </c>
       <c r="L36" s="14">
         <v>0</v>
@@ -13588,31 +13588,31 @@
         <v>0.66399997472763062</v>
       </c>
       <c r="C37" s="13">
-        <v>18.11000061</v>
+        <v>18.110000610351563</v>
       </c>
       <c r="D37" s="14">
-        <v>26.594314351352136</v>
+        <v>26.594314356937268</v>
       </c>
       <c r="E37" s="14">
-        <v>284335.13966370182</v>
+        <v>284335.14001448749</v>
       </c>
       <c r="F37" s="15">
-        <v>428215.58808091015</v>
+        <v>428215.58860920183</v>
       </c>
       <c r="G37" s="15">
-        <v>12896840.028384808</v>
+        <v>12892365.401675241</v>
       </c>
       <c r="H37" s="15">
-        <v>8563501.4529138077</v>
+        <v>8560530.3008917402</v>
       </c>
       <c r="I37" s="15">
-        <v>9059448.0482960343</v>
+        <v>9056557.413373854</v>
       </c>
       <c r="J37" s="15">
-        <v>8563501.4529138077</v>
+        <v>8560530.3008917402</v>
       </c>
       <c r="K37" s="15">
-        <v>-495946.59538222663</v>
+        <v>-496027.11248211376</v>
       </c>
       <c r="L37" s="14">
         <v>0</v>
@@ -13889,25 +13889,25 @@
         <v>44561</v>
       </c>
       <c r="Q4" s="18">
-        <v>250495.57337637764</v>
+        <v>250495.52419829773</v>
       </c>
       <c r="R4" s="8">
-        <v>250495.57337637764</v>
+        <v>250495.52419829773</v>
       </c>
       <c r="S4" s="8">
-        <v>253303.89712736208</v>
+        <v>253303.84831463292</v>
       </c>
       <c r="T4" s="8">
-        <v>2808.3237509844475</v>
+        <v>2808.3241163351922</v>
       </c>
       <c r="U4" s="8">
         <v>0</v>
       </c>
       <c r="V4" s="19">
-        <v>1.1211071369971281E-2</v>
+        <v>1.121107502947662E-2</v>
       </c>
       <c r="W4" s="19">
-        <v>1.1211071369971281E-2</v>
+        <v>1.121107502947662E-2</v>
       </c>
       <c r="Y4" s="24">
         <v>44925</v>
@@ -13973,22 +13973,22 @@
         <v>44925</v>
       </c>
       <c r="Q5" s="18">
-        <v>3805407.6578482944</v>
+        <v>3805407.5827613538</v>
       </c>
       <c r="R5" s="8">
-        <v>4055903.2312246719</v>
+        <v>4055903.1069596517</v>
       </c>
       <c r="S5" s="8">
-        <v>3864974.823122385</v>
+        <v>3864974.714998242</v>
       </c>
       <c r="T5" s="8">
-        <v>-190928.40810228698</v>
+        <v>-190928.39196140971</v>
       </c>
       <c r="U5" s="8">
         <v>0</v>
       </c>
       <c r="V5" s="19">
-        <v>-4.7074202025435531E-2</v>
+        <v>-4.7074199488096664E-2</v>
       </c>
       <c r="W5" s="19">
         <v>-4.4450912908414297E-2</v>
@@ -14068,28 +14068,28 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="13">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D7" s="14">
-        <v>39.253623134275358</v>
+        <v>39.253623134226025</v>
       </c>
       <c r="E7" s="14">
-        <v>34459.381729895649</v>
+        <v>34459.3817973326</v>
       </c>
       <c r="F7" s="15">
-        <v>34702.298831101441</v>
+        <v>34702.298899013775</v>
       </c>
       <c r="G7" s="15">
-        <v>162628.83564941533</v>
+        <v>162628.83571732766</v>
       </c>
       <c r="H7" s="15">
-        <v>161490.42906947364</v>
+        <v>161490.42913691059</v>
       </c>
       <c r="I7" s="15">
-        <v>157737.55560953726</v>
+        <v>157737.55567697421</v>
       </c>
       <c r="J7" s="15">
-        <v>161490.42906947364</v>
+        <v>161490.42913691059</v>
       </c>
       <c r="K7" s="15">
         <v>3752.8734599363816</v>
@@ -14116,31 +14116,31 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="13">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D8" s="14">
-        <v>38.695499988749994</v>
+        <v>38.695499993324269</v>
       </c>
       <c r="E8" s="14">
-        <v>41606.417199055955</v>
+        <v>41606.397754992307</v>
       </c>
       <c r="F8" s="15">
-        <v>41153.724696748955</v>
+        <v>41153.705464243583</v>
       </c>
       <c r="G8" s="15">
-        <v>203782.56034616427</v>
+        <v>203782.54118157126</v>
       </c>
       <c r="H8" s="15">
-        <v>206024.17608931765</v>
+        <v>206024.1567139134</v>
       </c>
       <c r="I8" s="15">
-        <v>199343.97280859321</v>
+        <v>199343.95343196651</v>
       </c>
       <c r="J8" s="15">
-        <v>206024.17608931765</v>
+        <v>206024.1567139134</v>
       </c>
       <c r="K8" s="15">
-        <v>6680.2032807244395</v>
+        <v>6680.2032819468877</v>
       </c>
       <c r="L8" s="14">
         <v>0</v>
@@ -14160,31 +14160,31 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="13">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D9" s="14">
-        <v>38.228579205136612</v>
+        <v>38.2285792249669</v>
       </c>
       <c r="E9" s="14">
-        <v>51151.60056778443</v>
+        <v>51151.570766331228</v>
       </c>
       <c r="F9" s="15">
-        <v>51564.11431831224</v>
+        <v>51564.084276524249</v>
       </c>
       <c r="G9" s="15">
-        <v>255346.67466447651</v>
+        <v>255346.62545809551</v>
       </c>
       <c r="H9" s="15">
-        <v>253303.89712736208</v>
+        <v>253303.84831463292</v>
       </c>
       <c r="I9" s="15">
-        <v>250495.57337637764</v>
+        <v>250495.52419829773</v>
       </c>
       <c r="J9" s="15">
-        <v>253303.89712736208</v>
+        <v>253303.84831463292</v>
       </c>
       <c r="K9" s="15">
-        <v>2808.3237509844475</v>
+        <v>2808.3241163351922</v>
       </c>
       <c r="L9" s="14">
         <v>0</v>
@@ -14207,31 +14207,31 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="13">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D10" s="14">
-        <v>37.709801928118821</v>
+        <v>37.709801948471814</v>
       </c>
       <c r="E10" s="14">
-        <v>212131.35222957132</v>
+        <v>212131.32448928335</v>
       </c>
       <c r="F10" s="15">
-        <v>238082.3329972862</v>
+        <v>238082.30186340422</v>
       </c>
       <c r="G10" s="15">
-        <v>493429.00766176271</v>
+        <v>493428.92732149974</v>
       </c>
       <c r="H10" s="15">
-        <v>439645.2324153693</v>
+        <v>439645.16083219717</v>
       </c>
       <c r="I10" s="15">
-        <v>462626.92560594896</v>
+        <v>462626.84868758108</v>
       </c>
       <c r="J10" s="15">
-        <v>439645.2324153693</v>
+        <v>439645.16083219717</v>
       </c>
       <c r="K10" s="15">
-        <v>-22981.693190579652</v>
+        <v>-22981.687855383905</v>
       </c>
       <c r="L10" s="14">
         <v>0</v>
@@ -14254,31 +14254,31 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="13">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D11" s="14">
-        <v>37.189128385091756</v>
+        <v>37.189128403969853</v>
       </c>
       <c r="E11" s="14">
-        <v>152776.38748797405</v>
+        <v>152776.38825066606</v>
       </c>
       <c r="F11" s="15">
-        <v>173215.85311749773</v>
+        <v>173215.85398222785</v>
       </c>
       <c r="G11" s="15">
-        <v>666644.8607792604</v>
+        <v>666644.78130372753</v>
       </c>
       <c r="H11" s="15">
-        <v>587980.7865980512</v>
+        <v>587980.71650062886</v>
       </c>
       <c r="I11" s="15">
-        <v>615403.31309392303</v>
+        <v>615403.23693824711</v>
       </c>
       <c r="J11" s="15">
-        <v>587980.7865980512</v>
+        <v>587980.71650062886</v>
       </c>
       <c r="K11" s="15">
-        <v>-27422.526495871833</v>
+        <v>-27422.520437618252</v>
       </c>
       <c r="L11" s="14">
         <v>0</v>
@@ -14301,31 +14301,31 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="13">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D12" s="14">
-        <v>36.340041456763494</v>
+        <v>36.340041473831867</v>
       </c>
       <c r="E12" s="14">
-        <v>298978.39125564491</v>
+        <v>298978.39245292288</v>
       </c>
       <c r="F12" s="15">
-        <v>377497.97080263944</v>
+        <v>377497.97231435409</v>
       </c>
       <c r="G12" s="15">
-        <v>1044142.8315818999</v>
+        <v>1044142.7536180816</v>
       </c>
       <c r="H12" s="15">
-        <v>826961.11813188985</v>
+        <v>826961.05638454598</v>
       </c>
       <c r="I12" s="15">
-        <v>914381.70434956788</v>
+        <v>914381.62939116999</v>
       </c>
       <c r="J12" s="15">
-        <v>826961.11813188985</v>
+        <v>826961.05638454598</v>
       </c>
       <c r="K12" s="15">
-        <v>-87420.586217678036</v>
+        <v>-87420.573006624007</v>
       </c>
       <c r="L12" s="14">
         <v>0</v>
@@ -14346,31 +14346,31 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="13">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D13" s="14">
-        <v>35.566115356769217</v>
+        <v>35.566115372584406</v>
       </c>
       <c r="E13" s="14">
-        <v>430204.45902625163</v>
+        <v>430204.46026693727</v>
       </c>
       <c r="F13" s="15">
-        <v>598337.23208346288</v>
+        <v>598337.23380903399</v>
       </c>
       <c r="G13" s="15">
-        <v>1642480.0636653628</v>
+        <v>1642479.9874271154</v>
       </c>
       <c r="H13" s="15">
-        <v>1180943.1360139658</v>
+        <v>1180943.0811986674</v>
       </c>
       <c r="I13" s="15">
-        <v>1344586.1633758196</v>
+        <v>1344586.0896581071</v>
       </c>
       <c r="J13" s="15">
-        <v>1180943.1360139658</v>
+        <v>1180943.0811986674</v>
       </c>
       <c r="K13" s="15">
-        <v>-163643.02736185375</v>
+        <v>-163643.00845943973</v>
       </c>
       <c r="L13" s="14">
         <v>0</v>
@@ -14391,31 +14391,31 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="13">
-        <v>24.129999160000001</v>
+        <v>24.129999160766602</v>
       </c>
       <c r="D14" s="14">
-        <v>34.740071647956981</v>
+        <v>34.740071662711408</v>
       </c>
       <c r="E14" s="14">
-        <v>444665.87088882137</v>
+        <v>444665.872061275</v>
       </c>
       <c r="F14" s="15">
-        <v>595268.92018481973</v>
+        <v>595268.92175436951</v>
       </c>
       <c r="G14" s="15">
-        <v>2237748.9838501825</v>
+        <v>2237748.909181485</v>
       </c>
       <c r="H14" s="15">
-        <v>1671598.4439862443</v>
+        <v>1671598.3882087287</v>
       </c>
       <c r="I14" s="15">
-        <v>1789252.0342646409</v>
+        <v>1789251.9617193821</v>
       </c>
       <c r="J14" s="15">
-        <v>1671598.4439862443</v>
+        <v>1671598.3882087287</v>
       </c>
       <c r="K14" s="15">
-        <v>-117653.59027839662</v>
+        <v>-117653.57351065334</v>
       </c>
       <c r="L14" s="14">
         <v>0</v>
@@ -14435,31 +14435,31 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="13">
-        <v>27.809999470000001</v>
+        <v>27.809999465942383</v>
       </c>
       <c r="D15" s="14">
-        <v>34.118899961366665</v>
+        <v>34.118899975077305</v>
       </c>
       <c r="E15" s="14">
-        <v>157218.79036936784</v>
+        <v>157218.79125494338</v>
       </c>
       <c r="F15" s="15">
-        <v>186057.73378250105</v>
+        <v>186057.73483051939</v>
       </c>
       <c r="G15" s="15">
-        <v>2423806.7176326835</v>
+        <v>2423806.6440120041</v>
       </c>
       <c r="H15" s="15">
-        <v>2048116.745745284</v>
+        <v>2048116.6835358078</v>
       </c>
       <c r="I15" s="15">
-        <v>1946470.8246340088</v>
+        <v>1946470.7529743256</v>
       </c>
       <c r="J15" s="15">
-        <v>2048116.745745284</v>
+        <v>2048116.6835358078</v>
       </c>
       <c r="K15" s="15">
-        <v>101645.92111127521</v>
+        <v>101645.93056148221</v>
       </c>
       <c r="L15" s="14">
         <v>0</v>
@@ -14479,31 +14479,31 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="13">
-        <v>26.329999919999999</v>
+        <v>26.329999923706055</v>
       </c>
       <c r="D16" s="14">
-        <v>33.665700887975071</v>
+        <v>33.665700900829464</v>
       </c>
       <c r="E16" s="14">
-        <v>255071.29119794891</v>
+        <v>255071.29183414666</v>
       </c>
       <c r="F16" s="15">
-        <v>318441.06304823718</v>
+        <v>318441.06384249154</v>
       </c>
       <c r="G16" s="15">
-        <v>2742247.7806809205</v>
+        <v>2742247.7078544958</v>
       </c>
       <c r="H16" s="15">
-        <v>2196540.4697102061</v>
+        <v>2196540.4113762402</v>
       </c>
       <c r="I16" s="15">
-        <v>2201542.1158319577</v>
+        <v>2201542.044808472</v>
       </c>
       <c r="J16" s="15">
-        <v>2196540.4697102061</v>
+        <v>2196540.4113762402</v>
       </c>
       <c r="K16" s="15">
-        <v>-5001.6461217515171</v>
+        <v>-5001.6334322318435</v>
       </c>
       <c r="L16" s="14">
         <v>0</v>
@@ -14523,31 +14523,31 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="13">
-        <v>25.18000031</v>
+        <v>25.180000305175781</v>
       </c>
       <c r="D17" s="14">
-        <v>33.177209264156971</v>
+        <v>33.177209276154976</v>
       </c>
       <c r="E17" s="14">
-        <v>303148.36400756554</v>
+        <v>303148.36528291792</v>
       </c>
       <c r="F17" s="15">
-        <v>396272.37866181356</v>
+        <v>396272.38032894093</v>
       </c>
       <c r="G17" s="15">
-        <v>3138520.1593427341</v>
+        <v>3138520.0881834365</v>
       </c>
       <c r="H17" s="15">
-        <v>2400967.8770003007</v>
+        <v>2400967.8225634391</v>
       </c>
       <c r="I17" s="15">
-        <v>2504690.4798395233</v>
+        <v>2504690.4100913899</v>
       </c>
       <c r="J17" s="15">
-        <v>2400967.8770003007</v>
+        <v>2400967.8225634391</v>
       </c>
       <c r="K17" s="15">
-        <v>-103722.60283922264</v>
+        <v>-103722.58752795076</v>
       </c>
       <c r="L17" s="14">
         <v>0</v>
@@ -14567,31 +14567,31 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="13">
-        <v>22.61</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D18" s="14">
-        <v>32.639682710465742</v>
+        <v>32.639682721540886</v>
       </c>
       <c r="E18" s="14">
-        <v>476818.09719219716</v>
+        <v>476818.04021216277</v>
       </c>
       <c r="F18" s="15">
-        <v>685083.49269033666</v>
+        <v>685083.41082246881</v>
       </c>
       <c r="G18" s="15">
-        <v>3823603.652033071</v>
+        <v>3823603.4990059054</v>
       </c>
       <c r="H18" s="15">
-        <v>2661228.0652390928</v>
+        <v>2661227.9587321887</v>
       </c>
       <c r="I18" s="15">
-        <v>2981508.5770317204</v>
+        <v>2981508.4503035527</v>
       </c>
       <c r="J18" s="15">
-        <v>2661228.0652390928</v>
+        <v>2661227.9587321887</v>
       </c>
       <c r="K18" s="15">
-        <v>-320280.51179262763</v>
+        <v>-320280.49157136399</v>
       </c>
       <c r="L18" s="14">
         <v>0</v>
@@ -14611,31 +14611,31 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="13">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D19" s="14">
-        <v>32.234052986719142</v>
+        <v>32.234052997346801</v>
       </c>
       <c r="E19" s="14">
-        <v>473436.41257143137</v>
+        <v>473436.41347239545</v>
       </c>
       <c r="F19" s="15">
-        <v>689135.99515736278</v>
+        <v>689135.99646880978</v>
       </c>
       <c r="G19" s="15">
-        <v>4512739.6471904339</v>
+        <v>4512739.4954747148</v>
       </c>
       <c r="H19" s="15">
-        <v>3100252.0321795726</v>
+        <v>3100251.9279508772</v>
       </c>
       <c r="I19" s="15">
-        <v>3454944.9896031516</v>
+        <v>3454944.8637759481</v>
       </c>
       <c r="J19" s="15">
-        <v>3100252.0321795726</v>
+        <v>3100251.9279508772</v>
       </c>
       <c r="K19" s="15">
-        <v>-354692.95742357895</v>
+        <v>-354692.93582507083</v>
       </c>
       <c r="L19" s="14">
         <v>0</v>
@@ -14655,31 +14655,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="13">
-        <v>22.809999470000001</v>
+        <v>22.809999465942383</v>
       </c>
       <c r="D20" s="14">
-        <v>31.717553830421821</v>
+        <v>31.717553840474388</v>
       </c>
       <c r="E20" s="14">
-        <v>313410.87250128563</v>
+        <v>313410.87349421479</v>
       </c>
       <c r="F20" s="15">
-        <v>435292.86117702356</v>
+        <v>435292.8625560918</v>
       </c>
       <c r="G20" s="15">
-        <v>4948032.5083674574</v>
+        <v>4948032.3580308063</v>
       </c>
       <c r="H20" s="15">
-        <v>3562583.5475889151</v>
+        <v>3562583.4393465216</v>
       </c>
       <c r="I20" s="15">
-        <v>3768355.8621044373</v>
+        <v>3768355.7372701629</v>
       </c>
       <c r="J20" s="15">
-        <v>3562583.5475889151</v>
+        <v>3562583.4393465216</v>
       </c>
       <c r="K20" s="15">
-        <v>-205772.31451552222</v>
+        <v>-205772.29792364128</v>
       </c>
       <c r="L20" s="14">
         <v>0</v>
@@ -14699,31 +14699,31 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="13">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D21" s="14">
-        <v>31.272103983435283</v>
+        <v>31.2721039929989</v>
       </c>
       <c r="E21" s="14">
-        <v>287547.36912023439</v>
+        <v>287547.36968948861</v>
       </c>
       <c r="F21" s="15">
-        <v>397714.20899415982</v>
+        <v>397714.20978151012</v>
       </c>
       <c r="G21" s="15">
-        <v>5345746.7173616169</v>
+        <v>5345746.5678123161</v>
       </c>
       <c r="H21" s="15">
-        <v>3864974.823122385</v>
+        <v>3864974.714998242</v>
       </c>
       <c r="I21" s="15">
-        <v>4055903.2312246719</v>
+        <v>4055903.1069596517</v>
       </c>
       <c r="J21" s="15">
-        <v>3864974.823122385</v>
+        <v>3864974.714998242</v>
       </c>
       <c r="K21" s="15">
-        <v>-190928.40810228698</v>
+        <v>-190928.39196140971</v>
       </c>
       <c r="L21" s="14">
         <v>0</v>
@@ -14746,28 +14746,28 @@
         <v>24.899999618530273</v>
       </c>
       <c r="D22" s="14">
-        <v>31.009964160696924</v>
+        <v>31.009964169913562</v>
       </c>
       <c r="E22" s="14">
-        <v>147460.08349080823</v>
+        <v>147460.08393568356</v>
       </c>
       <c r="F22" s="15">
-        <v>186894.91535372063</v>
+        <v>186894.91591756771</v>
       </c>
       <c r="G22" s="15">
-        <v>5532641.6327153379</v>
+        <v>5532641.483729884</v>
       </c>
       <c r="H22" s="15">
-        <v>4365254.1083894381</v>
+        <v>4365253.9908399191</v>
       </c>
       <c r="I22" s="15">
-        <v>4203363.3147154804</v>
+        <v>4203363.1908953348</v>
       </c>
       <c r="J22" s="15">
-        <v>4365254.1083894381</v>
+        <v>4365253.9908399191</v>
       </c>
       <c r="K22" s="15">
-        <v>161890.7936739577</v>
+        <v>161890.79994458426</v>
       </c>
       <c r="L22" s="14">
         <v>0</v>
@@ -14787,31 +14787,31 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="C23" s="13">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D23" s="14">
-        <v>30.728425585070163</v>
+        <v>30.72842559388133</v>
       </c>
       <c r="E23" s="14">
-        <v>179887.95363883613</v>
+        <v>179887.95398935772</v>
       </c>
       <c r="F23" s="15">
-        <v>235764.02482402488</v>
+        <v>235764.02528342407</v>
       </c>
       <c r="G23" s="15">
-        <v>5768405.657539363</v>
+        <v>5768405.5090133082</v>
       </c>
       <c r="H23" s="15">
-        <v>4401293.5827166978</v>
+        <v>4401293.4693913162</v>
       </c>
       <c r="I23" s="15">
-        <v>4383251.2683543162</v>
+        <v>4383251.1448846925</v>
       </c>
       <c r="J23" s="15">
-        <v>4401293.5827166978</v>
+        <v>4401293.4693913162</v>
       </c>
       <c r="K23" s="15">
-        <v>18042.314362381585</v>
+        <v>18042.32450662367</v>
       </c>
       <c r="L23" s="14">
         <v>0</v>
@@ -14831,31 +14831,31 @@
         <v>0.77100002765655518</v>
       </c>
       <c r="C24" s="13">
-        <v>24.159999849999998</v>
+        <v>24.159999847412109</v>
       </c>
       <c r="D24" s="14">
-        <v>30.393087180738309</v>
+        <v>30.393087189136843</v>
       </c>
       <c r="E24" s="14">
-        <v>153462.94180681123</v>
+        <v>153462.94234779794</v>
       </c>
       <c r="F24" s="15">
-        <v>199044.01595582286</v>
+        <v>199044.01665749171</v>
       </c>
       <c r="G24" s="15">
-        <v>5967449.6734951856</v>
+        <v>5967449.5256708004</v>
       </c>
       <c r="H24" s="15">
-        <v>4600903.8633038895</v>
+        <v>4600903.7493312843</v>
       </c>
       <c r="I24" s="15">
-        <v>4536714.2101611272</v>
+        <v>4536714.0872324901</v>
       </c>
       <c r="J24" s="15">
-        <v>4600903.8633038895</v>
+        <v>4600903.7493312843</v>
       </c>
       <c r="K24" s="15">
-        <v>64189.65314276237</v>
+        <v>64189.662098794244</v>
       </c>
       <c r="L24" s="14">
         <v>0</v>
@@ -14875,31 +14875,31 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="13">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D25" s="14">
-        <v>30.154382097569265</v>
+        <v>30.1543821056874</v>
       </c>
       <c r="E25" s="14">
-        <v>170728.87901612459</v>
+        <v>170728.87924527752</v>
       </c>
       <c r="F25" s="15">
-        <v>227335.39539677446</v>
+        <v>227335.39570190487</v>
       </c>
       <c r="G25" s="15">
-        <v>6194785.0688919602</v>
+        <v>6194784.9213727051</v>
       </c>
       <c r="H25" s="15">
-        <v>4652283.5069824615</v>
+        <v>4652283.396195503</v>
       </c>
       <c r="I25" s="15">
-        <v>4707443.0891772518</v>
+        <v>4707442.9664777676</v>
       </c>
       <c r="J25" s="15">
-        <v>4652283.5069824615</v>
+        <v>4652283.396195503</v>
       </c>
       <c r="K25" s="15">
-        <v>-55159.582194790244</v>
+        <v>-55159.570282264613</v>
       </c>
       <c r="L25" s="14">
         <v>0</v>
@@ -14919,31 +14919,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="13">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D26" s="14">
-        <v>29.834329246495866</v>
+        <v>29.834329254302094</v>
       </c>
       <c r="E26" s="14">
-        <v>342813.94597117882</v>
+        <v>342813.94630173902</v>
       </c>
       <c r="F26" s="15">
-        <v>476130.46159580146</v>
+        <v>476130.46205491282</v>
       </c>
       <c r="G26" s="15">
-        <v>6670915.5304877618</v>
+        <v>6670915.3834276181</v>
       </c>
       <c r="H26" s="15">
-        <v>4803059.3728076126</v>
+        <v>4803059.2669243049</v>
       </c>
       <c r="I26" s="15">
-        <v>5050257.0351484306</v>
+        <v>5050256.9127795063</v>
       </c>
       <c r="J26" s="15">
-        <v>4803059.3728076126</v>
+        <v>4803059.2669243049</v>
       </c>
       <c r="K26" s="15">
-        <v>-247197.66234081797</v>
+        <v>-247197.64585520141</v>
       </c>
       <c r="L26" s="14">
         <v>0</v>
@@ -14963,31 +14963,31 @@
         <v>0.75499999523162842</v>
       </c>
       <c r="C27" s="13">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D27" s="14">
-        <v>29.540486543586262</v>
+        <v>29.540486551111261</v>
       </c>
       <c r="E27" s="14">
-        <v>212836.78957917634</v>
+        <v>212836.78984509152</v>
       </c>
       <c r="F27" s="15">
-        <v>281903.03433562221</v>
+        <v>281903.03468782775</v>
       </c>
       <c r="G27" s="15">
-        <v>6952818.5648233844</v>
+        <v>6952818.4181154454</v>
       </c>
       <c r="H27" s="15">
-        <v>5249377.9832880329</v>
+        <v>5249377.8725235397</v>
       </c>
       <c r="I27" s="15">
-        <v>5263093.824727607</v>
+        <v>5263093.7026245976</v>
       </c>
       <c r="J27" s="15">
-        <v>5249377.9832880329</v>
+        <v>5249377.8725235397</v>
       </c>
       <c r="K27" s="15">
-        <v>-13715.841439574026</v>
+        <v>-13715.830101057887</v>
       </c>
       <c r="L27" s="14">
         <v>0</v>
@@ -15007,31 +15007,31 @@
         <v>0.76099997758865356</v>
       </c>
       <c r="C28" s="13">
-        <v>22.409999849999998</v>
+        <v>22.409999847412109</v>
       </c>
       <c r="D28" s="14">
-        <v>29.263021620154856</v>
+        <v>29.26302162741802</v>
       </c>
       <c r="E28" s="14">
-        <v>185507.43415975483</v>
+        <v>185507.43469307973</v>
       </c>
       <c r="F28" s="15">
-        <v>243767.98899201537</v>
+        <v>243767.98969283653</v>
       </c>
       <c r="G28" s="15">
-        <v>7196586.5538154002</v>
+        <v>7196586.4078082815</v>
       </c>
       <c r="H28" s="15">
-        <v>5476602.2061683256</v>
+        <v>5476602.095056911</v>
       </c>
       <c r="I28" s="15">
-        <v>5448601.2588873617</v>
+        <v>5448601.137317677</v>
       </c>
       <c r="J28" s="15">
-        <v>5476602.2061683256</v>
+        <v>5476602.095056911</v>
       </c>
       <c r="K28" s="15">
-        <v>28000.947280963883</v>
+        <v>28000.957739233971</v>
       </c>
       <c r="L28" s="14">
         <v>0</v>
@@ -15051,31 +15051,31 @@
         <v>0.71399998664855957</v>
       </c>
       <c r="C29" s="13">
-        <v>20.899999619999999</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="D29" s="14">
-        <v>28.951898109092557</v>
+        <v>28.951898116056832</v>
       </c>
       <c r="E29" s="14">
-        <v>256090.62365067154</v>
+        <v>256090.62418715825</v>
       </c>
       <c r="F29" s="15">
-        <v>358670.347954394</v>
+        <v>358670.34870577598</v>
       </c>
       <c r="G29" s="15">
-        <v>7555256.9017697945</v>
+        <v>7555256.7565140575</v>
       </c>
       <c r="H29" s="15">
-        <v>5394453.3269900708</v>
+        <v>5394453.2232774766</v>
       </c>
       <c r="I29" s="15">
-        <v>5704691.8825380336</v>
+        <v>5704691.7615048354</v>
       </c>
       <c r="J29" s="15">
-        <v>5394453.3269900708</v>
+        <v>5394453.2232774766</v>
       </c>
       <c r="K29" s="15">
-        <v>-310238.5555479629</v>
+        <v>-310238.53822735883</v>
       </c>
       <c r="L29" s="14">
         <v>0</v>
@@ -15098,28 +15098,28 @@
         <v>19.25</v>
       </c>
       <c r="D30" s="14">
-        <v>28.642033266404177</v>
+        <v>28.642033273139454</v>
       </c>
       <c r="E30" s="14">
-        <v>348430.64106510871</v>
+        <v>348430.6415648465</v>
       </c>
       <c r="F30" s="15">
-        <v>508657.86839762604</v>
+        <v>508657.8691271703</v>
       </c>
       <c r="G30" s="15">
-        <v>8063914.7701674206</v>
+        <v>8063914.6256412277</v>
       </c>
       <c r="H30" s="15">
-        <v>5523781.636790554</v>
+        <v>5523781.5377901113</v>
       </c>
       <c r="I30" s="15">
-        <v>6053122.5236031422</v>
+        <v>6053122.4030696824</v>
       </c>
       <c r="J30" s="15">
-        <v>5523781.636790554</v>
+        <v>5523781.5377901113</v>
       </c>
       <c r="K30" s="15">
-        <v>-529340.8868125882</v>
+        <v>-529340.86527957115</v>
       </c>
       <c r="L30" s="14">
         <v>0</v>
@@ -15139,31 +15139,31 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="13">
-        <v>18.770000459999999</v>
+        <v>18.770000457763672</v>
       </c>
       <c r="D31" s="14">
-        <v>28.372122106405978</v>
+        <v>28.372122112939287</v>
       </c>
       <c r="E31" s="14">
-        <v>364192.92344389425</v>
+        <v>364192.9241091304</v>
       </c>
       <c r="F31" s="15">
-        <v>549310.60370153643</v>
+        <v>549310.60470490914</v>
       </c>
       <c r="G31" s="15">
-        <v>8613225.3738689572</v>
+        <v>8613225.2303461377</v>
       </c>
       <c r="H31" s="15">
-        <v>5710568.3160903649</v>
+        <v>5710568.2209347375</v>
       </c>
       <c r="I31" s="15">
-        <v>6417315.4470470361</v>
+        <v>6417315.3271788126</v>
       </c>
       <c r="J31" s="15">
-        <v>5710568.3160903649</v>
+        <v>5710568.2209347375</v>
       </c>
       <c r="K31" s="15">
-        <v>-706747.1309566712</v>
+        <v>-706747.10624407511</v>
       </c>
       <c r="L31" s="14">
         <v>0</v>
@@ -15183,31 +15183,31 @@
         <v>0.65100002288818359</v>
       </c>
       <c r="C32" s="13">
-        <v>17.93000031</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="D32" s="14">
-        <v>28.031817636002071</v>
+        <v>28.031817642334733</v>
       </c>
       <c r="E32" s="14">
-        <v>483701.42098472</v>
+        <v>483701.42205316125</v>
       </c>
       <c r="F32" s="15">
-        <v>743012.90933717985</v>
+        <v>743012.91097841063</v>
       </c>
       <c r="G32" s="15">
-        <v>9356238.2832061369</v>
+        <v>9356238.1413245481</v>
       </c>
       <c r="H32" s="15">
-        <v>6090911.3365144944</v>
+        <v>6090911.2441495769</v>
       </c>
       <c r="I32" s="15">
-        <v>6901016.868031756</v>
+        <v>6901016.7492319737</v>
       </c>
       <c r="J32" s="15">
-        <v>6090911.3365144944</v>
+        <v>6090911.2441495769</v>
       </c>
       <c r="K32" s="15">
-        <v>-810105.53151726164</v>
+        <v>-810105.50508239679</v>
       </c>
       <c r="L32" s="14">
         <v>0</v>
@@ -15227,31 +15227,31 @@
         <v>0.64499998092651367</v>
       </c>
       <c r="C33" s="13">
-        <v>17.709999079999999</v>
+        <v>17.709999084472656</v>
       </c>
       <c r="D33" s="14">
-        <v>27.695688446862572</v>
+        <v>27.695688453026897</v>
       </c>
       <c r="E33" s="14">
-        <v>393870.26891931542</v>
+        <v>393870.26905276586</v>
       </c>
       <c r="F33" s="15">
-        <v>610651.59777762846</v>
+        <v>610651.59798452829</v>
       </c>
       <c r="G33" s="15">
-        <v>9966889.8809837662</v>
+        <v>9966889.7393090762</v>
       </c>
       <c r="H33" s="15">
-        <v>6428643.7831311915</v>
+        <v>6428643.6917510191</v>
       </c>
       <c r="I33" s="15">
-        <v>7294887.1369510712</v>
+        <v>7294887.0182847399</v>
       </c>
       <c r="J33" s="15">
-        <v>6428643.7831311915</v>
+        <v>6428643.6917510191</v>
       </c>
       <c r="K33" s="15">
-        <v>-866243.3538198797</v>
+        <v>-866243.32653372083</v>
       </c>
       <c r="L33" s="14">
         <v>0</v>
@@ -15271,31 +15271,31 @@
         <v>0.56099998950958252</v>
       </c>
       <c r="C34" s="13">
-        <v>15.380000109999999</v>
+        <v>15.380000114440918</v>
       </c>
       <c r="D34" s="14">
-        <v>27.336624370286405</v>
+        <v>27.336624376243282</v>
       </c>
       <c r="E34" s="14">
-        <v>677634.49394591316</v>
+        <v>677634.49411774508</v>
       </c>
       <c r="F34" s="15">
-        <v>1207904.646376715</v>
+        <v>1207904.646683011</v>
       </c>
       <c r="G34" s="15">
-        <v>11174794.52736048</v>
+        <v>11174794.385992087</v>
       </c>
       <c r="H34" s="15">
-        <v>6269059.6126209693</v>
+        <v>6269059.5333133023</v>
       </c>
       <c r="I34" s="15">
-        <v>7972521.6308969846</v>
+        <v>7972521.5124024851</v>
       </c>
       <c r="J34" s="15">
-        <v>6269059.6126209693</v>
+        <v>6269059.5333133023</v>
       </c>
       <c r="K34" s="15">
-        <v>-1703462.0182760153</v>
+        <v>-1703461.9790891828</v>
       </c>
       <c r="L34" s="14">
         <v>0</v>
@@ -15315,31 +15315,31 @@
         <v>0.6380000114440918</v>
       </c>
       <c r="C35" s="13">
-        <v>17.479999540000001</v>
+        <v>17.479999542236328</v>
       </c>
       <c r="D35" s="14">
-        <v>27.106454812893954</v>
+        <v>27.106454818762419</v>
       </c>
       <c r="E35" s="14">
-        <v>366041.13242805976</v>
+        <v>366041.1327042802</v>
       </c>
       <c r="F35" s="15">
-        <v>573732.17219783086</v>
+        <v>573732.17263077828</v>
       </c>
       <c r="G35" s="15">
-        <v>11748526.69955831</v>
+        <v>11748526.558622865</v>
       </c>
       <c r="H35" s="15">
-        <v>7495560.1687694201</v>
+        <v>7495560.0788526041</v>
       </c>
       <c r="I35" s="15">
-        <v>8338562.763325044</v>
+        <v>8338562.6451067654</v>
       </c>
       <c r="J35" s="15">
-        <v>7495560.1687694201</v>
+        <v>7495560.0788526041</v>
       </c>
       <c r="K35" s="15">
-        <v>-843002.59455562383</v>
+        <v>-843002.5662541613</v>
       </c>
       <c r="L35" s="14">
         <v>0</v>
@@ -15359,31 +15359,31 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="13">
-        <v>17.659999849999998</v>
+        <v>17.700000762939453</v>
       </c>
       <c r="D36" s="14">
-        <v>26.839619570961851</v>
+        <v>26.839674750359887</v>
       </c>
       <c r="E36" s="14">
-        <v>332848.40197481349</v>
+        <v>329957.88035550242</v>
       </c>
       <c r="F36" s="15">
-        <v>515245.18223669764</v>
+        <v>510770.69075749943</v>
       </c>
       <c r="G36" s="15">
-        <v>12263771.881795008</v>
+        <v>12259297.249380365</v>
       </c>
       <c r="H36" s="15">
-        <v>7922396.9748132583</v>
+        <v>7919506.3621496465</v>
       </c>
       <c r="I36" s="15">
-        <v>8671411.165299857</v>
+        <v>8668520.5254622679</v>
       </c>
       <c r="J36" s="15">
-        <v>7922396.9748132583</v>
+        <v>7919506.3621496465</v>
       </c>
       <c r="K36" s="15">
-        <v>-749014.19048659876</v>
+        <v>-749014.16331262141</v>
       </c>
       <c r="L36" s="14">
         <v>0</v>
@@ -15403,31 +15403,31 @@
         <v>0.66399997472763062</v>
       </c>
       <c r="C37" s="13">
-        <v>18.11000061</v>
+        <v>18.110000610351563</v>
       </c>
       <c r="D37" s="14">
-        <v>26.594314351352136</v>
+        <v>26.594314356937268</v>
       </c>
       <c r="E37" s="14">
-        <v>284335.13966370182</v>
+        <v>284335.14001448749</v>
       </c>
       <c r="F37" s="15">
-        <v>428215.58808091015</v>
+        <v>428215.58860920183</v>
       </c>
       <c r="G37" s="15">
-        <v>12691987.469875919</v>
+        <v>12687512.837989567</v>
       </c>
       <c r="H37" s="15">
-        <v>8427479.3592410143</v>
+        <v>8424508.2037815619</v>
       </c>
       <c r="I37" s="15">
-        <v>8955746.3049635589</v>
+        <v>8952855.6654767562</v>
       </c>
       <c r="J37" s="15">
-        <v>8427479.3592410143</v>
+        <v>8424508.2037815619</v>
       </c>
       <c r="K37" s="15">
-        <v>-528266.94572254457</v>
+        <v>-528347.46169519424</v>
       </c>
       <c r="L37" s="14">
         <v>0</v>
@@ -15683,25 +15683,25 @@
         <v>44561</v>
       </c>
       <c r="Q4" s="18">
-        <v>919630.88726893254</v>
+        <v>919630.63204484491</v>
       </c>
       <c r="R4" s="8">
-        <v>919630.88726893254</v>
+        <v>919630.63204484491</v>
       </c>
       <c r="S4" s="8">
-        <v>932459.19498475967</v>
+        <v>932458.94153932028</v>
       </c>
       <c r="T4" s="8">
-        <v>12828.307715827134</v>
+        <v>12828.309494475368</v>
       </c>
       <c r="U4" s="8">
         <v>0</v>
       </c>
       <c r="V4" s="19">
-        <v>1.3949409370017912E-2</v>
+        <v>1.3949415175472111E-2</v>
       </c>
       <c r="W4" s="19">
-        <v>1.3949409370017912E-2</v>
+        <v>1.3949415175472111E-2</v>
       </c>
       <c r="Y4" s="24">
         <v>44925</v>
@@ -15767,22 +15767,22 @@
         <v>44925</v>
       </c>
       <c r="Q5" s="18">
-        <v>34224314.893007115</v>
+        <v>34224313.882963724</v>
       </c>
       <c r="R5" s="8">
-        <v>35143945.780276045</v>
+        <v>35143944.515008569</v>
       </c>
       <c r="S5" s="8">
-        <v>34098424.032504037</v>
+        <v>34098422.851869494</v>
       </c>
       <c r="T5" s="8">
-        <v>-1045521.7477720082</v>
+        <v>-1045521.663139075</v>
       </c>
       <c r="U5" s="8">
         <v>0</v>
       </c>
       <c r="V5" s="19">
-        <v>-2.9749697268164746E-2</v>
+        <v>-2.9749695931046517E-2</v>
       </c>
       <c r="W5" s="19">
         <v>-2.9012536271850409E-2</v>
@@ -15862,31 +15862,31 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="13">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D7" s="14">
-        <v>39.253623134275358</v>
+        <v>39.253623134226025</v>
       </c>
       <c r="E7" s="14">
-        <v>101780.05325937558</v>
+        <v>101780.05355815066</v>
       </c>
       <c r="F7" s="15">
-        <v>102497.53901382511</v>
+        <v>102497.53931470636</v>
       </c>
       <c r="G7" s="15">
-        <v>620857.08000716846</v>
+        <v>620857.0803080498</v>
       </c>
       <c r="H7" s="15">
-        <v>616511.06238820706</v>
+        <v>616511.06268698222</v>
       </c>
       <c r="I7" s="15">
-        <v>600524.17460478598</v>
+        <v>600524.17490356101</v>
       </c>
       <c r="J7" s="15">
-        <v>616511.06238820706</v>
+        <v>616511.06268698222</v>
       </c>
       <c r="K7" s="15">
-        <v>15986.887783421087</v>
+        <v>15986.887783421203</v>
       </c>
       <c r="L7" s="14">
         <v>0</v>
@@ -15910,31 +15910,31 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="13">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D8" s="14">
-        <v>38.695499988749994</v>
+        <v>38.695499993324269</v>
       </c>
       <c r="E8" s="14">
-        <v>135033.62655146356</v>
+        <v>135033.53189291208</v>
       </c>
       <c r="F8" s="15">
-        <v>133564.41304031899</v>
+        <v>133564.31941168595</v>
       </c>
       <c r="G8" s="15">
-        <v>754421.49304748746</v>
+        <v>754421.39971973572</v>
       </c>
       <c r="H8" s="15">
-        <v>762720.1575304335</v>
+        <v>762720.06317607302</v>
       </c>
       <c r="I8" s="15">
-        <v>735557.8011562496</v>
+        <v>735557.70679647312</v>
       </c>
       <c r="J8" s="15">
-        <v>762720.1575304335</v>
+        <v>762720.06317607302</v>
       </c>
       <c r="K8" s="15">
-        <v>27162.356374183903</v>
+        <v>27162.356379599893</v>
       </c>
       <c r="L8" s="14">
         <v>0</v>
@@ -15954,31 +15954,31 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="13">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D9" s="14">
-        <v>38.228579205136612</v>
+        <v>38.2285792249669</v>
       </c>
       <c r="E9" s="14">
-        <v>184073.086112683</v>
+        <v>184072.92524837179</v>
       </c>
       <c r="F9" s="15">
-        <v>185557.54951716529</v>
+        <v>185557.3873555586</v>
       </c>
       <c r="G9" s="15">
-        <v>939979.04256465274</v>
+        <v>939978.7870752943</v>
       </c>
       <c r="H9" s="15">
-        <v>932459.19498475967</v>
+        <v>932458.94153932028</v>
       </c>
       <c r="I9" s="15">
-        <v>919630.88726893254</v>
+        <v>919630.63204484491</v>
       </c>
       <c r="J9" s="15">
-        <v>932459.19498475967</v>
+        <v>932458.94153932028</v>
       </c>
       <c r="K9" s="15">
-        <v>12828.307715827134</v>
+        <v>12828.309494475368</v>
       </c>
       <c r="L9" s="14">
         <v>0</v>
@@ -16001,31 +16001,31 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="13">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D10" s="14">
-        <v>37.709801928118821</v>
+        <v>37.709801948471814</v>
       </c>
       <c r="E10" s="14">
-        <v>1419116.7291598392</v>
+        <v>1419116.4507943003</v>
       </c>
       <c r="F10" s="15">
-        <v>1592723.6503362725</v>
+        <v>1592723.3379170275</v>
       </c>
       <c r="G10" s="15">
-        <v>2532702.6929009254</v>
+        <v>2532702.1249923217</v>
       </c>
       <c r="H10" s="15">
-        <v>2256638.0305365794</v>
+        <v>2256637.5245300289</v>
       </c>
       <c r="I10" s="15">
-        <v>2338747.616428772</v>
+        <v>2338747.0828391453</v>
       </c>
       <c r="J10" s="15">
-        <v>2256638.0305365794</v>
+        <v>2256637.5245300289</v>
       </c>
       <c r="K10" s="15">
-        <v>-82109.585892192554</v>
+        <v>-82109.558309116401</v>
       </c>
       <c r="L10" s="14">
         <v>0</v>
@@ -16048,31 +16048,31 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="13">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D11" s="14">
-        <v>37.189128385091756</v>
+        <v>37.189128403969853</v>
       </c>
       <c r="E11" s="14">
-        <v>950136.0734139441</v>
+        <v>950136.08052886429</v>
       </c>
       <c r="F11" s="15">
-        <v>1077251.7483898534</v>
+        <v>1077251.7564566561</v>
       </c>
       <c r="G11" s="15